--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="658">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -98,7 +98,13 @@
     <t>No lar never hit my buy price that I set.  Lolzz</t>
   </si>
   <si>
-    <t>This is too expensive hahaha</t>
+    <t>Definitely not! it didn't  hit the buy price that I set.  Lolzz</t>
+  </si>
+  <si>
+    <t>lar</t>
+  </si>
+  <si>
+    <t>Emphasis</t>
   </si>
   <si>
     <t>Ok la. Only up 6% nia</t>
@@ -1526,7 +1532,7 @@
     <t>Mkt is quiet so far.. don't know why is it that seatrium has not many trades today ... you can go to drink a cup of coffee now 😅</t>
   </si>
   <si>
-    <t xml:space="preserve">Signal </t>
+    <t>Signal something has been done</t>
   </si>
   <si>
     <t>like one time o asked who ks lcw</t>
@@ -1542,6 +1548,429 @@
   </si>
   <si>
     <t>my mom doesnt mind paying lmao</t>
+  </si>
+  <si>
+    <t>go up 5 day already for tech</t>
+  </si>
+  <si>
+    <t>tech has been going up for 5 days already.</t>
+  </si>
+  <si>
+    <t>Can chiong 3 pips very good liao</t>
+  </si>
+  <si>
+    <t>Can rush for 3 pips would be already very good</t>
+  </si>
+  <si>
+    <t>I pray you not right 😂</t>
+  </si>
+  <si>
+    <t>I pray that you are not right 😂</t>
+  </si>
+  <si>
+    <t>Shit time index sia  ytd gain 1% today drop 1% 😂</t>
+  </si>
+  <si>
+    <t>it is really Shit time index! ytd it gained 1% and today it dropped 1% 😂</t>
+  </si>
+  <si>
+    <t>She shout toh is OK.. If she shout buy all more worries</t>
+  </si>
+  <si>
+    <t>It is okay if she proclaims "death". If she proclaims "buy", we would all be worried.</t>
+  </si>
+  <si>
+    <t>Asia: Markets snap week-long rally as US inflation dents rate hopeshttps://ift.tt/aEP03cROctober 13  2023 at 11:12AM</t>
+  </si>
+  <si>
+    <t>Now war also can hv live updates</t>
+  </si>
+  <si>
+    <t>Now you can hv live updates for war too</t>
+  </si>
+  <si>
+    <t>Geo energy 435k shares cleared at 0.31.😗</t>
+  </si>
+  <si>
+    <t>Geo energy - 435k shares cleared at 0.31.😗</t>
+  </si>
+  <si>
+    <t>maybe she type wrongly  toh means hot  buy</t>
+  </si>
+  <si>
+    <t>maybe she has typed wrongly, "death" actually means that it is a hot buy</t>
+  </si>
+  <si>
+    <t>Full scare attack over the weekend</t>
+  </si>
+  <si>
+    <t>Full scale attack over the weekend.</t>
+  </si>
+  <si>
+    <t>Anyway  maybe Hamas no more inside Gaza</t>
+  </si>
+  <si>
+    <t>Anyway, maybe Hamas is not inside Gaza anymore</t>
+  </si>
+  <si>
+    <t>Still don't know how the Hamas break through the electronic defense of Israel. Too high tech until army 💤</t>
+  </si>
+  <si>
+    <t>Still don't know how can Hamas break through the electronic defense of Israel. Being too high tech caused the army to snooze 💤</t>
+  </si>
+  <si>
+    <t>Ya Lor I also shocked how was it possible</t>
+  </si>
+  <si>
+    <t>Ya indeed. I was also shocked! how was it possible?</t>
+  </si>
+  <si>
+    <t>convey bviousness</t>
+  </si>
+  <si>
+    <t>[BREAKING] Flash Coffee’s Singapore business shutters  files for winding upThe company was placed under provisional liquidation on Wednesday. This comes five months after Flash Coffee said it raised US$50 million.https://bt.sg/So44</t>
+  </si>
+  <si>
+    <t>Ya  $50m gone in a flush</t>
+  </si>
+  <si>
+    <t>Ya $50m gone in a "flush"</t>
+  </si>
+  <si>
+    <t>Angmo kopi can't fight w kopitiam</t>
+  </si>
+  <si>
+    <t>Western coffee can't fight with the ones from local coffee shops</t>
+  </si>
+  <si>
+    <t>Hard to continue. .open so many outlet within year ..</t>
+  </si>
+  <si>
+    <t>it is hard to continue. .. they have opened so many outlets within a year ..</t>
+  </si>
+  <si>
+    <t>price of latte same as star bucks ?</t>
+  </si>
+  <si>
+    <t>is the price of latte the same as star bucks ?</t>
+  </si>
+  <si>
+    <t>2025-04-28T12-57-07-121Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages761_part6.csv</t>
+  </si>
+  <si>
+    <t>🇸🇬STI index cheong ah..not forgetting tonight US CPI ah🤣</t>
+  </si>
+  <si>
+    <t>🇸🇬STI index rushing up! ..not forgetting tonight US CPI!🤣</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>exclamation</t>
+  </si>
+  <si>
+    <t>Sis@InMoiHeart  as per above sharing👆🏿fr. FB &amp; try ep zone near $2.49 - 2.65$.. OSOD ah🤣</t>
+  </si>
+  <si>
+    <t>Fraser logistics today got so many many m deal  what does it mean?</t>
+  </si>
+  <si>
+    <t>There are so many deals at Fraser logistics today. what does it mean?</t>
+  </si>
+  <si>
+    <t>Nano chart looks nice. rebound from 1.24.</t>
+  </si>
+  <si>
+    <t>Nano's chart looks nice. Rebounded from 1.24.</t>
+  </si>
+  <si>
+    <t>Oceanus🦪 13 -7.111%10/11 coming🫴 to us🔜</t>
+  </si>
+  <si>
+    <t>Nothing wrong  he cannot sell while being CEO also  more difficult for him</t>
+  </si>
+  <si>
+    <t>Nothing wrong, he cannot sell while he is a CEO. That is also more difficult for him</t>
+  </si>
+  <si>
+    <t>Oily still strongRetailers troop army like amarica retailer RedditLet see who win</t>
+  </si>
+  <si>
+    <t>Oily still has strong Retailer troop army like the amarica retailer Reddit. Let's see who will win.</t>
+  </si>
+  <si>
+    <t>why.  U r 2nd sis Jasmin 👸 har..pls. lah.. &gt;10c wait long long also not yet happening leh🤣</t>
+  </si>
+  <si>
+    <t>why? U r the 2nd sis, Jasmin 👸 huh... oh please! you would need to wait a long long time for it to be &gt;10c and even then it will not happen🤣</t>
+  </si>
+  <si>
+    <t>OMG.. ah park overtook ah nip?</t>
+  </si>
+  <si>
+    <t>OMG.. ah park has overtaken ah nip?</t>
+  </si>
+  <si>
+    <t>Same price w nippe how can</t>
+  </si>
+  <si>
+    <t>Same price w nippe, how can that be possible?</t>
+  </si>
+  <si>
+    <t>Nippecraft what's the price har?not in my WL leh 🤣</t>
+  </si>
+  <si>
+    <t>Nippecraft... what's the price of that? It is not in my WL at all 🤣</t>
+  </si>
+  <si>
+    <t>leh</t>
+  </si>
+  <si>
+    <t>contradiction and surprise</t>
+  </si>
+  <si>
+    <t>Parkson ki siow no 🐎 run</t>
+  </si>
+  <si>
+    <t>Parkson is crazy, there is no 🐎  run</t>
+  </si>
+  <si>
+    <t>Aiyo Parkson - I sold too early</t>
+  </si>
+  <si>
+    <t>Oh man Parkson - I sold too early</t>
+  </si>
+  <si>
+    <t>Parkson is at 3 yrs high but not nipp.. better to buy Parkson now than nipp. momentum going forward</t>
+  </si>
+  <si>
+    <t>Parkson is at a 3 year high but not nipp.. it is better to buy Parkson now than nipp. There is a momentum pushing it forward</t>
+  </si>
+  <si>
+    <t>bo.. thk💭 60mins ago.. sis Jasmin 👸 Europe freight just landed🛬 SG🇸🇬.. she pump⛽ up🤣..</t>
+  </si>
+  <si>
+    <t>Pollux seems can push on for their BO with Parkson suddenly running few pips up</t>
+  </si>
+  <si>
+    <t>Pollux seems likely to push on for their BO with Parkson, it is suddenly running a few pips up</t>
+  </si>
+  <si>
+    <t>me too. but I don't dare chase. q at 93</t>
+  </si>
+  <si>
+    <t>me too. but I don't dare to chase. q at 93</t>
+  </si>
+  <si>
+    <t>I angry liao.. Want do some commando stun</t>
+  </si>
+  <si>
+    <t>I am now angry.. I want do some crazy stun</t>
+  </si>
+  <si>
+    <t>suggest something has already happened</t>
+  </si>
+  <si>
+    <t>Nippe come out let's go above 10</t>
+  </si>
+  <si>
+    <t>Got lah I said buy bk 112</t>
+  </si>
+  <si>
+    <t>definitely! I said buy bk at 112</t>
+  </si>
+  <si>
+    <t>lah</t>
+  </si>
+  <si>
+    <t>affirmation</t>
+  </si>
+  <si>
+    <t>waseh.. kns💩 Nanofilm📽️ 130 rebound🪃 fr. day low 124.. appears dragonfly🦋 candlestick🕯️ now</t>
+  </si>
+  <si>
+    <t>oh wow.. this is shit 💩 Nanofilm📽️ 130 rebound🪃 from a day low of 124.. it now appears  as a dragonfly🦋 and a candlestick🕯️ now</t>
+  </si>
+  <si>
+    <t>Yah.. SG tech oversold just because of UMS downgrade. US still chiong.</t>
+  </si>
+  <si>
+    <t>Yah.. SG tech has oversold just because of a UMS downgrade. US still raging on.</t>
+  </si>
+  <si>
+    <t>$1.31 oh no.. it's a hammer 🔨</t>
+  </si>
+  <si>
+    <t>cannot wait liao.. just hoot. lol</t>
+  </si>
+  <si>
+    <t>cannot wait anymore .. just wing it. lol</t>
+  </si>
+  <si>
+    <t>try lah.. why toH.. probably a bullish 🕯️ tmr?</t>
+  </si>
+  <si>
+    <t>try then.. why give up ... probably a bullish 🕯️ tmr?</t>
+  </si>
+  <si>
+    <t>Indicates solidarity, familiarity and informality</t>
+  </si>
+  <si>
+    <t>so nice hammer with long tail sia...</t>
+  </si>
+  <si>
+    <t>this is so nice, a hammer with long tail...</t>
+  </si>
+  <si>
+    <t>informality</t>
+  </si>
+  <si>
+    <t>don't anyhow lah.. me anyhow said one.</t>
+  </si>
+  <si>
+    <t>don't be ridiculous.. I was just saying rubbish.</t>
+  </si>
+  <si>
+    <t>Just bring in my WL see see</t>
+  </si>
+  <si>
+    <t>Just bring it into my WL to monitor</t>
+  </si>
+  <si>
+    <t>yup👍.. although there were selling pressures during the day  ultimately a strong buying pressure drove the price back up again😘</t>
+  </si>
+  <si>
+    <t>yup👍.. although there were selling pressures during the day, ultimately a strong buying pressure drove the price back up again😘</t>
+  </si>
+  <si>
+    <t>Parkson actually up 6 pips nia but too many shortists kana burst jialat jialat</t>
+  </si>
+  <si>
+    <t>Parkson is actually only up 6 pips but too many shortists have gotten burst very badly</t>
+  </si>
+  <si>
+    <t>I don't believe can BO &gt;10c.. unless sis Jasmin 👸 show her face🤣</t>
+  </si>
+  <si>
+    <t>I don't believe you can BO at &gt;10c.. unless sis Jasmin 👸 show her face🤣</t>
+  </si>
+  <si>
+    <t>Pollux lai liao mc doing what ar</t>
+  </si>
+  <si>
+    <t>Pollux has arrived, what is mc doing  now?</t>
+  </si>
+  <si>
+    <t>something has happened</t>
+  </si>
+  <si>
+    <t>really 3rd rounds of 3rd trading days.. pAp pOllux</t>
+  </si>
+  <si>
+    <t>this is really the 3rd round out of 3 days of trading.. pAp pOllux</t>
+  </si>
+  <si>
+    <t>retailers so good meh? why all the pennies anyhow chiong sia. Lawlence wong got said something? 🤭</t>
+  </si>
+  <si>
+    <t>are retailers really that good? why are all the pennies rushing up. Did Lawlence wong say something? 🤭</t>
+  </si>
+  <si>
+    <t>CDC another extra $100 in 2024🤣</t>
+  </si>
+  <si>
+    <t>another extra $100 of CDC vouchers in 2024🤣</t>
+  </si>
+  <si>
+    <t>OK thks will wait for right entry 👍</t>
+  </si>
+  <si>
+    <t>OK thks I will wait for right entry 👍</t>
+  </si>
+  <si>
+    <t>Up so high no need take a breath ar?</t>
+  </si>
+  <si>
+    <t>It is already so high up, is there no need take a breath at all?</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>Give some chance to short na</t>
+  </si>
+  <si>
+    <t>It only gives me some chance to short</t>
+  </si>
+  <si>
+    <t>bo toH lah.. sis Jasmin 👸 kena strucked in the airport custom🤣</t>
+  </si>
+  <si>
+    <t>not crashing at all.. sis Jasmin 👸 got strucked in the airport custom🤣</t>
+  </si>
+  <si>
+    <t>because police 🚨🚓 suspect she want to toH parKsonRetailers so handcuffs her🤣</t>
+  </si>
+  <si>
+    <t>because police 🚨🚓 suspected that she wanted to crash parKsonRetailers so they handcuffed her🤣</t>
+  </si>
+  <si>
+    <t>Sis toh Parkinson very high LiaoOnce she appears is toh day loh</t>
+  </si>
+  <si>
+    <t>Sis has already crashed Parkinson very highly. Once she has appeared it is a bad day</t>
+  </si>
+  <si>
+    <t>Food Empire F03 records 🆕 high 80c +3.222%</t>
+  </si>
+  <si>
+    <t>Food Empire F03 record 🆕 high 80c +3.222%</t>
+  </si>
+  <si>
+    <t>swee lah.. RH. give 215 pls. lol</t>
+  </si>
+  <si>
+    <t>this is perfect .. RH. go to 215 pls. lol</t>
+  </si>
+  <si>
+    <t>Sleepy liao go take beauty nap</t>
+  </si>
+  <si>
+    <t>I am sleepy now, I shall go take a beauty nap</t>
+  </si>
+  <si>
+    <t>something already happened</t>
+  </si>
+  <si>
+    <t>wah lau... who anyhow hoot 220 sia.</t>
+  </si>
+  <si>
+    <t>oh my god... who randomly bought it at 220!</t>
+  </si>
+  <si>
+    <t>wa steady hor.. only TP 60% parKsonRetailers nia.. hold bal. 40% for tmr high shall go higher lor🤑</t>
+  </si>
+  <si>
+    <t>why pAp Acesian sleep💤 har?appears bullish harami🫃🏿</t>
+  </si>
+  <si>
+    <t>why did pAp Acesian sleep💤?it appears to be bullish harami🫃🏿</t>
+  </si>
+  <si>
+    <t>Waaah parkson so good leh... up 12 pips 😳</t>
+  </si>
+  <si>
+    <t>Waaah parkson is so good man... it is up 12 pips 😳</t>
+  </si>
+  <si>
+    <t>admiration</t>
+  </si>
+  <si>
+    <t>pollux tmr then chiong up big one🤔</t>
   </si>
   <si>
     <t>Name</t>
@@ -1980,7 +2409,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1997,10 +2429,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>5</v>
@@ -2014,19 +2446,19 @@
         <v>45765.9714621875</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>5</v>
@@ -2040,19 +2472,19 @@
         <v>45765.971538136575</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -2063,19 +2495,19 @@
         <v>45765.97174820602</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
@@ -2089,19 +2521,19 @@
         <v>45765.97194122685</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>5</v>
@@ -2115,19 +2547,19 @@
         <v>45765.972317638894</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>5</v>
@@ -2141,19 +2573,19 @@
         <v>45766.09233526621</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
@@ -2167,19 +2599,19 @@
         <v>45766.092455590275</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
@@ -2193,19 +2625,19 @@
         <v>45766.09371032407</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
@@ -2219,19 +2651,19 @@
         <v>45766.093909097224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>5</v>
@@ -2245,19 +2677,19 @@
         <v>45766.09408116898</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>5</v>
@@ -2271,19 +2703,19 @@
         <v>45766.094226076384</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
@@ -2297,19 +2729,19 @@
         <v>45766.09479459491</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>5</v>
@@ -2323,19 +2755,19 @@
         <v>45766.09532418981</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>5</v>
@@ -2349,28 +2781,28 @@
         <v>45766.09631412037</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -2378,19 +2810,19 @@
         <v>45766.09645662037</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>5</v>
@@ -2404,19 +2836,19 @@
         <v>45766.09660791667</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>5</v>
@@ -2430,19 +2862,19 @@
         <v>45766.09685614583</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>5</v>
@@ -2456,19 +2888,19 @@
         <v>45766.09702818287</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>12</v>
@@ -2479,22 +2911,22 @@
         <v>45766.097242268515</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>12</v>
@@ -2505,22 +2937,22 @@
         <v>45766.097362245375</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>12</v>
@@ -2531,28 +2963,28 @@
         <v>45766.09806453704</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -2560,19 +2992,19 @@
         <v>45766.09844239583</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>5</v>
@@ -2586,22 +3018,22 @@
         <v>45766.09852575231</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>12</v>
@@ -2612,19 +3044,19 @@
         <v>45766.098772314814</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>5</v>
@@ -2638,19 +3070,19 @@
         <v>45766.09908880787</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>5</v>
@@ -2664,19 +3096,19 @@
         <v>45766.099257037036</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>5</v>
@@ -2690,19 +3122,19 @@
         <v>45766.09962199074</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>5</v>
@@ -2716,22 +3148,22 @@
         <v>45766.099786562496</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>12</v>
@@ -2742,19 +3174,19 @@
         <v>45766.10003100694</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>5</v>
@@ -2768,22 +3200,22 @@
         <v>45766.10015987269</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>12</v>
@@ -2794,28 +3226,28 @@
         <v>45766.100671064814</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -2823,19 +3255,19 @@
         <v>45766.10087759259</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>5</v>
@@ -2849,22 +3281,22 @@
         <v>45766.10105268519</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>12</v>
@@ -2875,22 +3307,22 @@
         <v>45766.101096909726</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>12</v>
@@ -2901,19 +3333,19 @@
         <v>45766.101568541664</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>5</v>
@@ -2927,22 +3359,22 @@
         <v>45766.101699942126</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>12</v>
@@ -2953,19 +3385,19 @@
         <v>45766.101891087965</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>5</v>
@@ -2979,19 +3411,19 @@
         <v>45766.10215232639</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>5</v>
@@ -3005,19 +3437,19 @@
         <v>45766.10242784722</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>5</v>
@@ -3031,19 +3463,19 @@
         <v>45766.103480150465</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>5</v>
@@ -3057,19 +3489,19 @@
         <v>45766.10364680555</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>5</v>
@@ -3083,22 +3515,22 @@
         <v>45766.10390614583</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>12</v>
@@ -3109,22 +3541,22 @@
         <v>45766.103958611115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>12</v>
@@ -3135,28 +3567,28 @@
         <v>45766.10494700231</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -3164,19 +3596,19 @@
         <v>45766.10510151621</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>5</v>
@@ -3190,22 +3622,22 @@
         <v>45766.10521314815</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>12</v>
@@ -3216,19 +3648,19 @@
         <v>45766.106031331015</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>5</v>
@@ -3242,22 +3674,22 @@
         <v>45766.10611361111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>12</v>
@@ -3268,19 +3700,19 @@
         <v>45766.106496458335</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>5</v>
@@ -3294,19 +3726,19 @@
         <v>45766.10671049768</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>5</v>
@@ -3320,22 +3752,22 @@
         <v>45766.10683247686</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>12</v>
@@ -3346,22 +3778,22 @@
         <v>45766.10696019676</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>12</v>
@@ -3372,19 +3804,19 @@
         <v>45766.10711340277</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>5</v>
@@ -3398,19 +3830,19 @@
         <v>45766.107366909724</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>5</v>
@@ -3424,19 +3856,19 @@
         <v>45766.10820653936</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>5</v>
@@ -3450,22 +3882,22 @@
         <v>45766.108622430555</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>12</v>
@@ -3476,28 +3908,28 @@
         <v>45766.109183900466</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -3505,19 +3937,19 @@
         <v>45766.10935561343</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>5</v>
@@ -3531,19 +3963,19 @@
         <v>45766.11005592592</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>5</v>
@@ -3557,19 +3989,19 @@
         <v>45766.11048239583</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>5</v>
@@ -3583,19 +4015,19 @@
         <v>45766.1107175463</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>5</v>
@@ -3609,28 +4041,28 @@
         <v>45766.11160523148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69">
@@ -3638,22 +4070,22 @@
         <v>45766.11175989584</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>12</v>
@@ -3664,19 +4096,19 @@
         <v>45766.11218048611</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>5</v>
@@ -3690,19 +4122,19 @@
         <v>45766.11238152778</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>5</v>
@@ -3716,22 +4148,22 @@
         <v>45766.11253100695</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>12</v>
@@ -3742,22 +4174,22 @@
         <v>45766.11257611111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>12</v>
@@ -3768,19 +4200,19 @@
         <v>45766.113001192134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>5</v>
@@ -3794,22 +4226,22 @@
         <v>45766.11312638889</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>12</v>
@@ -3820,19 +4252,19 @@
         <v>45766.11340645833</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>5</v>
@@ -3846,19 +4278,19 @@
         <v>45766.11372646991</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>5</v>
@@ -3872,19 +4304,19 @@
         <v>45766.11427440972</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>5</v>
@@ -3898,22 +4330,22 @@
         <v>45766.11445792824</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>12</v>
@@ -3924,22 +4356,22 @@
         <v>45766.11459776621</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>12</v>
@@ -3950,22 +4382,22 @@
         <v>45766.114642581015</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>12</v>
@@ -3976,19 +4408,19 @@
         <v>45766.114791064814</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>5</v>
@@ -4002,19 +4434,19 @@
         <v>45766.115027708336</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>5</v>
@@ -4028,19 +4460,19 @@
         <v>45766.11528085648</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>5</v>
@@ -4054,22 +4486,22 @@
         <v>45766.11547059027</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>12</v>
@@ -4080,19 +4512,19 @@
         <v>45766.115588182874</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>5</v>
@@ -4106,19 +4538,19 @@
         <v>45766.11587967593</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>5</v>
@@ -4132,28 +4564,28 @@
         <v>45766.116905208335</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89">
@@ -4161,19 +4593,19 @@
         <v>45766.11710166666</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>5</v>
@@ -4187,22 +4619,22 @@
         <v>45766.11724224537</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>12</v>
@@ -4213,22 +4645,22 @@
         <v>45766.1173290625</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>12</v>
@@ -4239,19 +4671,19 @@
         <v>45766.11799623843</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>5</v>
@@ -4265,19 +4697,19 @@
         <v>45766.11827375</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>5</v>
@@ -4291,19 +4723,19 @@
         <v>45766.11852790509</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>5</v>
@@ -4317,19 +4749,19 @@
         <v>45766.11881583333</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>5</v>
@@ -4343,19 +4775,19 @@
         <v>45766.11903427083</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>5</v>
@@ -4369,19 +4801,19 @@
         <v>45766.11950716435</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>5</v>
@@ -4395,28 +4827,28 @@
         <v>45766.12036922453</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
@@ -4424,19 +4856,19 @@
         <v>45766.120698240746</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>5</v>
@@ -4450,19 +4882,19 @@
         <v>45766.121053298615</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>5</v>
@@ -4476,22 +4908,22 @@
         <v>45766.12129947917</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>12</v>
@@ -4502,19 +4934,19 @@
         <v>45766.12138871528</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>5</v>
@@ -4528,19 +4960,19 @@
         <v>45766.121547002316</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>5</v>
@@ -4554,22 +4986,22 @@
         <v>45766.12161177083</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>12</v>
@@ -4580,22 +5012,22 @@
         <v>45766.121690405096</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>12</v>
@@ -4606,19 +5038,19 @@
         <v>45766.12182355324</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>5</v>
@@ -4632,19 +5064,19 @@
         <v>45766.121941562495</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>5</v>
@@ -4658,19 +5090,19 @@
         <v>45766.122213194445</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>5</v>
@@ -4684,19 +5116,19 @@
         <v>45766.122454236116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>5</v>
@@ -4710,22 +5142,22 @@
         <v>45766.12250429398</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>12</v>
@@ -4736,19 +5168,19 @@
         <v>45766.12259478009</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>5</v>
@@ -4762,19 +5194,19 @@
         <v>45766.12293354167</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>5</v>
@@ -4788,19 +5220,19 @@
         <v>45766.12304908565</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>5</v>
@@ -4814,19 +5246,19 @@
         <v>45766.12320284722</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>5</v>
@@ -4840,19 +5272,19 @@
         <v>45766.12340599537</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>5</v>
@@ -4866,25 +5298,25 @@
         <v>45766.12413049769</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>7</v>
@@ -4895,19 +5327,19 @@
         <v>45766.124355567124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>5</v>
@@ -4921,22 +5353,22 @@
         <v>45766.124620682865</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>12</v>
@@ -4947,19 +5379,19 @@
         <v>45766.12475782407</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>5</v>
@@ -4973,19 +5405,19 @@
         <v>45766.12502006945</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>5</v>
@@ -4999,19 +5431,19 @@
         <v>45766.12525003472</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>5</v>
@@ -5025,22 +5457,22 @@
         <v>45766.12534409722</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>12</v>
@@ -5051,22 +5483,22 @@
         <v>45766.12540847222</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>12</v>
@@ -5077,22 +5509,22 @@
         <v>45766.12543827546</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>12</v>
@@ -5103,22 +5535,22 @@
         <v>45766.12549960648</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>12</v>
@@ -5129,22 +5561,22 @@
         <v>45766.1256205324</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>12</v>
@@ -5155,22 +5587,22 @@
         <v>45766.12568773148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>12</v>
@@ -5181,19 +5613,19 @@
         <v>45766.12587546297</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>5</v>
@@ -5207,22 +5639,22 @@
         <v>45766.12596318287</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>12</v>
@@ -5233,22 +5665,22 @@
         <v>45766.12605092593</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>12</v>
@@ -5259,25 +5691,25 @@
         <v>45766.12633297454</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>7</v>
@@ -5288,22 +5720,22 @@
         <v>45766.126468692135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>12</v>
@@ -5314,22 +5746,22 @@
         <v>45766.12652090278</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>12</v>
@@ -5340,22 +5772,22 @@
         <v>45766.12660392361</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>12</v>
@@ -5366,19 +5798,19 @@
         <v>45766.126917013884</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>5</v>
@@ -5392,19 +5824,19 @@
         <v>45766.12707074074</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>5</v>
@@ -5418,19 +5850,19 @@
         <v>45766.12726434028</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>5</v>
@@ -5444,19 +5876,19 @@
         <v>45766.12736454861</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>12</v>
@@ -5467,19 +5899,19 @@
         <v>45766.12755719907</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>5</v>
@@ -5493,22 +5925,22 @@
         <v>45766.12764842593</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>12</v>
@@ -5519,19 +5951,19 @@
         <v>45766.12777789352</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>5</v>
@@ -5545,19 +5977,19 @@
         <v>45766.12787739583</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>5</v>
@@ -5571,19 +6003,19 @@
         <v>45766.12815527778</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>5</v>
@@ -5597,22 +6029,22 @@
         <v>45766.12862251158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>12</v>
@@ -5623,22 +6055,22 @@
         <v>45766.128656388886</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>12</v>
@@ -5649,19 +6081,19 @@
         <v>45766.12886149305</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>5</v>
@@ -5675,28 +6107,28 @@
         <v>45766.129170555556</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148">
@@ -5704,22 +6136,22 @@
         <v>45766.129265787036</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>12</v>
@@ -5730,22 +6162,22 @@
         <v>45766.129398379635</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>12</v>
@@ -5756,19 +6188,19 @@
         <v>45766.12959321759</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>5</v>
@@ -5782,22 +6214,22 @@
         <v>45766.12968515046</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>12</v>
@@ -5808,19 +6240,19 @@
         <v>45766.13079865741</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>5</v>
@@ -5834,19 +6266,19 @@
         <v>45766.1310065625</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>5</v>
@@ -5860,19 +6292,19 @@
         <v>45766.13172276621</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>5</v>
@@ -5886,19 +6318,19 @@
         <v>45766.13184840277</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>5</v>
@@ -5912,19 +6344,19 @@
         <v>45766.13268045139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>5</v>
@@ -5938,19 +6370,19 @@
         <v>45766.133058101856</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>5</v>
@@ -5964,19 +6396,19 @@
         <v>45766.133338680556</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>5</v>
@@ -5990,22 +6422,22 @@
         <v>45766.13356524306</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>12</v>
@@ -6016,22 +6448,22 @@
         <v>45766.13364332176</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>12</v>
@@ -6042,19 +6474,19 @@
         <v>45766.13441644676</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>5</v>
@@ -6068,19 +6500,19 @@
         <v>45766.870365173614</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>5</v>
@@ -6094,19 +6526,19 @@
         <v>45766.870505949075</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>5</v>
@@ -6120,19 +6552,19 @@
         <v>45766.87067041667</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>5</v>
@@ -6146,19 +6578,19 @@
         <v>45766.87091712963</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>5</v>
@@ -6172,22 +6604,22 @@
         <v>45766.87136662037</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>12</v>
@@ -6198,19 +6630,19 @@
         <v>45766.87180579861</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>5</v>
@@ -6224,19 +6656,19 @@
         <v>45766.875280127315</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>5</v>
@@ -6250,22 +6682,22 @@
         <v>45766.87546001158</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>12</v>
@@ -6276,22 +6708,22 @@
         <v>45766.87549866898</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>12</v>
@@ -6302,19 +6734,19 @@
         <v>45766.87597304398</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>5</v>
@@ -6328,22 +6760,22 @@
         <v>45766.876161168984</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>12</v>
@@ -6354,22 +6786,22 @@
         <v>45766.8762134375</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>12</v>
@@ -6380,22 +6812,22 @@
         <v>45766.87627712963</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>12</v>
@@ -6406,22 +6838,22 @@
         <v>45766.876310231484</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>12</v>
@@ -6432,22 +6864,22 @@
         <v>45766.876338807866</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>12</v>
@@ -6458,19 +6890,19 @@
         <v>45766.87721510416</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>5</v>
@@ -6484,22 +6916,22 @@
         <v>45766.877407465276</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>12</v>
@@ -6510,22 +6942,22 @@
         <v>45766.87748059028</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>12</v>
@@ -6536,22 +6968,22 @@
         <v>45766.87764585648</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>12</v>
@@ -6562,19 +6994,19 @@
         <v>45766.8786771875</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>5</v>
@@ -6588,19 +7020,19 @@
         <v>45766.8787916088</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>5</v>
@@ -6614,19 +7046,19 @@
         <v>45766.87911071759</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>5</v>
@@ -6640,19 +7072,19 @@
         <v>45766.87921792824</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>5</v>
@@ -6666,19 +7098,19 @@
         <v>45766.8793059375</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>5</v>
@@ -6692,19 +7124,19 @@
         <v>45773.60487115741</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>5</v>
@@ -6718,28 +7150,28 @@
         <v>45773.605488263885</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188">
@@ -6747,19 +7179,19 @@
         <v>45773.60577394676</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>5</v>
@@ -6773,22 +7205,22 @@
         <v>45773.60604167824</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>12</v>
@@ -6799,22 +7231,22 @@
         <v>45773.606117627314</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>12</v>
@@ -6825,13 +7257,13 @@
         <v>45773.60627458333</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E191" s="3" t="str">
         <v>#ERROR!</v>
@@ -6851,19 +7283,19 @@
         <v>45774.37845613426</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>5</v>
@@ -6877,19 +7309,19 @@
         <v>45774.37956290509</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>5</v>
@@ -6903,19 +7335,19 @@
         <v>45774.38045673611</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>5</v>
@@ -6929,19 +7361,19 @@
         <v>45774.38124321759</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>5</v>
@@ -6955,19 +7387,19 @@
         <v>45774.38165026621</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>5</v>
@@ -6981,19 +7413,19 @@
         <v>45774.3821149537</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>5</v>
@@ -7007,19 +7439,19 @@
         <v>45774.382814895835</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>5</v>
@@ -7033,19 +7465,19 @@
         <v>45774.38333780093</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>5</v>
@@ -7059,19 +7491,19 @@
         <v>45774.38334185185</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>5</v>
@@ -7085,28 +7517,28 @@
         <v>45774.383902326386</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202">
@@ -7114,19 +7546,19 @@
         <v>45774.384236342594</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>5</v>
@@ -7140,22 +7572,22 @@
         <v>45774.38437458333</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>12</v>
@@ -7166,19 +7598,19 @@
         <v>45774.38480177084</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>5</v>
@@ -7192,19 +7624,19 @@
         <v>45774.38527766203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>5</v>
@@ -7218,19 +7650,19 @@
         <v>45774.38529428241</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>5</v>
@@ -7244,19 +7676,19 @@
         <v>45774.385458159726</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>5</v>
@@ -7270,19 +7702,19 @@
         <v>45774.38584263889</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>5</v>
@@ -7296,19 +7728,19 @@
         <v>45774.38594962963</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>5</v>
@@ -7322,28 +7754,28 @@
         <v>45774.38632065972</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211">
@@ -7351,22 +7783,22 @@
         <v>45774.38641585648</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>12</v>
@@ -7377,22 +7809,22 @@
         <v>45774.38648</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>12</v>
@@ -7403,22 +7835,22 @@
         <v>45774.38656532408</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>12</v>
@@ -7429,19 +7861,19 @@
         <v>45774.38723930556</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>5</v>
@@ -7455,19 +7887,19 @@
         <v>45774.387410428244</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>5</v>
@@ -7481,22 +7913,22 @@
         <v>45774.3876400463</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>12</v>
@@ -7507,28 +7939,28 @@
         <v>45774.38811451389</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218">
@@ -7536,19 +7968,19 @@
         <v>45774.38832375</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>5</v>
@@ -7562,22 +7994,22 @@
         <v>45774.38833782407</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>12</v>
@@ -7588,19 +8020,19 @@
         <v>45774.38858881945</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>5</v>
@@ -7614,19 +8046,19 @@
         <v>45774.38881037037</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>5</v>
@@ -7640,22 +8072,22 @@
         <v>45774.38890005787</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>12</v>
@@ -7666,19 +8098,19 @@
         <v>45774.38902820602</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>5</v>
@@ -7692,19 +8124,19 @@
         <v>45774.38920505787</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>5</v>
@@ -7718,19 +8150,19 @@
         <v>45774.38923501158</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>5</v>
@@ -7744,22 +8176,22 @@
         <v>45774.38930401621</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>12</v>
@@ -7770,22 +8202,22 @@
         <v>45774.38933413195</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>12</v>
@@ -7796,22 +8228,22 @@
         <v>45774.389392349534</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>12</v>
@@ -7822,19 +8254,19 @@
         <v>45774.389619444446</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>5</v>
@@ -7848,22 +8280,22 @@
         <v>45774.38974074074</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>12</v>
@@ -7874,19 +8306,19 @@
         <v>45774.389762754625</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>5</v>
@@ -7900,22 +8332,22 @@
         <v>45774.389836145834</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>12</v>
@@ -7926,19 +8358,19 @@
         <v>45774.38999738426</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>5</v>
@@ -7952,19 +8384,19 @@
         <v>45774.39012428241</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>5</v>
@@ -7978,19 +8410,19 @@
         <v>45774.39071458334</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>5</v>
@@ -8004,19 +8436,19 @@
         <v>45774.390800381945</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>5</v>
@@ -8030,22 +8462,22 @@
         <v>45774.390845347225</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>12</v>
@@ -8056,19 +8488,19 @@
         <v>45774.39105359954</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>5</v>
@@ -8082,19 +8514,19 @@
         <v>45774.3911596875</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>5</v>
@@ -8108,19 +8540,19 @@
         <v>45774.39119310185</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>5</v>
@@ -8134,19 +8566,19 @@
         <v>45774.39137003472</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>5</v>
@@ -8160,19 +8592,19 @@
         <v>45774.391402291665</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>5</v>
@@ -8186,19 +8618,19 @@
         <v>45774.39152872685</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>5</v>
@@ -8212,19 +8644,19 @@
         <v>45774.39168003472</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>5</v>
@@ -8238,19 +8670,19 @@
         <v>45774.391698865744</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>5</v>
@@ -8264,22 +8696,22 @@
         <v>45774.39180113426</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>12</v>
@@ -8290,19 +8722,19 @@
         <v>45774.391898726855</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>5</v>
@@ -8316,22 +8748,22 @@
         <v>45774.39200103009</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>12</v>
@@ -8342,22 +8774,22 @@
         <v>45774.39202881945</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>12</v>
@@ -8368,22 +8800,22 @@
         <v>45774.39208883102</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>12</v>
@@ -8394,19 +8826,19 @@
         <v>45774.39221747685</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>5</v>
@@ -8420,19 +8852,19 @@
         <v>45774.39231210648</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>5</v>
@@ -8446,22 +8878,22 @@
         <v>45774.392390740744</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>12</v>
@@ -8472,22 +8904,22 @@
         <v>45774.39242981482</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>12</v>
@@ -8498,19 +8930,19 @@
         <v>45774.392626458335</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>5</v>
@@ -8524,28 +8956,28 @@
         <v>45774.39285884259</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="257">
@@ -8553,22 +8985,22 @@
         <v>45774.392964178245</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>12</v>
@@ -8579,19 +9011,19 @@
         <v>45774.39312912037</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>5</v>
@@ -8605,22 +9037,22 @@
         <v>45774.39322079861</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>12</v>
@@ -8631,19 +9063,19 @@
         <v>45774.39325126157</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>12</v>
@@ -8654,19 +9086,19 @@
         <v>45774.393459756946</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>5</v>
@@ -8680,19 +9112,19 @@
         <v>45774.39371351852</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>5</v>
@@ -8706,19 +9138,19 @@
         <v>45774.39393157407</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>5</v>
@@ -8732,19 +9164,19 @@
         <v>45774.393988090276</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>5</v>
@@ -8758,19 +9190,19 @@
         <v>45774.39410524306</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>5</v>
@@ -8784,19 +9216,19 @@
         <v>45774.39431988426</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>5</v>
@@ -8810,22 +9242,22 @@
         <v>45774.39444989583</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>12</v>
@@ -8836,19 +9268,19 @@
         <v>45774.39479798611</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>5</v>
@@ -8862,28 +9294,28 @@
         <v>45774.39493116898</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="270">
@@ -8891,19 +9323,19 @@
         <v>45774.39501907407</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>5</v>
@@ -8917,22 +9349,22 @@
         <v>45774.39531734954</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>12</v>
@@ -8943,22 +9375,22 @@
         <v>45774.39538497685</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>12</v>
@@ -8969,24 +9401,1808 @@
         <v>45774.39542543981</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H273" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>45774.39729105324</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>45774.399186400464</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>45774.39932726852</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>45774.39980180556</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>45774.40100637732</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>45774.40108128473</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>45774.40127306713</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>45774.40153349537</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>45774.402428622685</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>45774.40290325231</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>45774.40336311342</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>45774.40427298611</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>45774.40556695602</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>45774.405683310186</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>45774.40590142361</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>45774.40642741898</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>45774.40673564815</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>45774.406886689816</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>45775.37405341435</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>45775.37424769676</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>45775.374857256946</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>45775.37507108796</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>45775.375129594904</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>45775.37578217592</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>45775.38297921296</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>45775.38387796296</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>45775.3849578588</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>45775.38514828704</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>45775.385887048615</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>45775.38642415509</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>45775.386623287035</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>45775.38743590278</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>45775.38762734954</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>45775.3892100463</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>45775.3893487037</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>45775.39003504629</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>45775.39022494213</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>45775.39074275463</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>45775.39126276621</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>45775.391609004626</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>45775.39170900463</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>45775.39199400463</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>45775.39264385417</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>45775.39299</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I317" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>45775.39348996528</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H318" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>45775.39365741899</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>45775.39590646991</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>45775.396457939816</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>45775.39665730324</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H322" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>45775.39711829861</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>45775.39919085648</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>45775.402935624996</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>45775.40319892361</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>45775.403331458336</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>45775.40455925926</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>45775.40594600694</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>45775.406238125</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>45775.406542372686</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>45775.407333125</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>45775.41008958333</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>45775.41134341435</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I334" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>45775.411973912036</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>45775.41281513889</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>45775.41350241898</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>45775.413732430556</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>45775.414843819446</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I339" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>45775.41497429398</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H340" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9013,16 +11229,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>510</v>
+        <v>653</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>511</v>
+        <v>654</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>512</v>
+        <v>655</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>513</v>
+        <v>656</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -9039,10 +11255,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45774.39578</v>
+        <v>45775.66578</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>514</v>
+        <v>657</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -9060,7 +11276,7 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45774.39578</v>
+        <v>45775.66578</v>
       </c>
     </row>
     <row r="4">
@@ -9074,7 +11290,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45774.39578</v>
+        <v>45775.66578</v>
       </c>
     </row>
     <row r="5">
@@ -9088,7 +11304,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45774.39578</v>
+        <v>45775.66578</v>
       </c>
     </row>
     <row r="6">
@@ -9098,11 +11314,11 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45774.39578</v>
+        <v>45775.66578</v>
       </c>
     </row>
     <row r="7">
@@ -9112,11 +11328,11 @@
       </c>
       <c r="B7" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45774.39578</v>
+        <v>45775.66578</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="757">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -1971,6 +1971,303 @@
   </si>
   <si>
     <t>pollux tmr then chiong up big one🤔</t>
+  </si>
+  <si>
+    <t>2025-04-29T11-33-18-162Z</t>
+  </si>
+  <si>
+    <t>inputs/sgcmcommunity_messages18_part4.csv</t>
+  </si>
+  <si>
+    <t>Yes! I proposed that once earlier too</t>
+  </si>
+  <si>
+    <t>Later they run over your car and don't realize</t>
+  </si>
+  <si>
+    <t>They might run over your car and not realize</t>
+  </si>
+  <si>
+    <t>My car older than yours lolNext time I give way to you.</t>
+  </si>
+  <si>
+    <t>My car is older than yours lol. Next time i'll give way to you.</t>
+  </si>
+  <si>
+    <t>Thank you sir i will give you big thumbs up</t>
+  </si>
+  <si>
+    <t>Thank you sir. i will give you a big thumbs up.</t>
+  </si>
+  <si>
+    <t>That's actually an innate fear now  since my area alot of heavy vehicles 😂</t>
+  </si>
+  <si>
+    <t>That's actually an innate fear now, since my area has a lot of heavy vehicles</t>
+  </si>
+  <si>
+    <t>Don’t know when our expressway will be 110 km like Malaysia</t>
+  </si>
+  <si>
+    <t>Yes unfortunately alot don't. They live in their own world where they are the only car on the road 😂</t>
+  </si>
+  <si>
+    <t>Won't happen la...already so many feel unsafe at 90 so hog lane 1 at 70+...Jin jialat</t>
+  </si>
+  <si>
+    <t>It won't happen... already so many feel unsafe at 90, so hog lane 1 at 70+... it's really bad</t>
+  </si>
+  <si>
+    <t>lah (la)</t>
+  </si>
+  <si>
+    <t>Ideally zipper system.Reality see who car have higher torque.</t>
+  </si>
+  <si>
+    <t>Ideally zipper system. Reality, see whose car has higher torque.</t>
+  </si>
+  <si>
+    <t>Might be the same for me soon 🙌</t>
+  </si>
+  <si>
+    <t>some drivers are really taking their own sweet time but logically once they hit the merge they should go ahead even if they are real slow</t>
+  </si>
+  <si>
+    <t>Ya la all are lorry driver</t>
+  </si>
+  <si>
+    <t>Yes, all are lorry drivers</t>
+  </si>
+  <si>
+    <t>Forgive leh  sometimes uphill  not because going slow but vehicle not enough power.Then Taxi floor and zoom by lol</t>
+  </si>
+  <si>
+    <t>Forgive them, sometimes uphill is slow because the vehicle has not enough power. then the taxi floor and zoom by lol.</t>
+  </si>
+  <si>
+    <t>adds emphasis on the tone, for persuasiveness</t>
+  </si>
+  <si>
+    <t>Plus the expressways quite bumpy because of the tree roots at times</t>
+  </si>
+  <si>
+    <t>Plus the expressways are quite bumpy sometimes because of the tree roots</t>
+  </si>
+  <si>
+    <t>Honda is awesome. I think the older S800 is super cool. A car with motorbike sound</t>
+  </si>
+  <si>
+    <t>Car detailing - how to clean your car engine bay like a pro detailerHow many of y'all are guilty of neglecting your engine bay?🙋🏻‍♂️👉🏻 React with 😁 if you ensure you take good care of your car's engine bay!👉🏻 React with 😢 if you don't even know how to open your hood  let alone clean your car's engine bay!➡️Read ithere!</t>
+  </si>
+  <si>
+    <t>Frend has a budget of 140k</t>
+  </si>
+  <si>
+    <t>My friend has a budget of 140k</t>
+  </si>
+  <si>
+    <t>What car can he buy.He looking for non ev  at least 160hp and 220nmHb or sedan ok</t>
+  </si>
+  <si>
+    <t>What car can he buy? He is looking for non ev, at least 160hp and 200nmHb. Or a sedan.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>indicating the article prior will work</t>
+  </si>
+  <si>
+    <t>Honda Fit   vtec kick in yo</t>
+  </si>
+  <si>
+    <t>Honda Fit vtec kick in yo</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>add emphasis, indicating "for real", or "really"</t>
+  </si>
+  <si>
+    <t>Ask sir x for best deals</t>
+  </si>
+  <si>
+    <t>Oh ya civic and fit below 160 hp</t>
+  </si>
+  <si>
+    <t>But can just tune then settle la lol</t>
+  </si>
+  <si>
+    <t>But you can just tune it and settle</t>
+  </si>
+  <si>
+    <t>Appeal for accommodation</t>
+  </si>
+  <si>
+    <t>Old car doesn't matter if you're looking for driving experience over having computers</t>
+  </si>
+  <si>
+    <t>Most cars new these days are already drive by wire</t>
+  </si>
+  <si>
+    <t>I was referring more to the infotainment  adaptive cruise control etc.</t>
+  </si>
+  <si>
+    <t>Just priorities  some people like those features more than the driving experience of the car so depends on personal preference</t>
+  </si>
+  <si>
+    <t>Just priorities. some people like those features more than the driving experience of the car, so it depends on personal preference</t>
+  </si>
+  <si>
+    <t>Actually many quite reliable if maintained well</t>
+  </si>
+  <si>
+    <t>Actually, many are quite reliable if maintained well</t>
+  </si>
+  <si>
+    <t>As long as you do your preventive maintenance  I've heard of brand new Mercedes and Hondas being down in the workshop for a longer time than older cars a lot</t>
+  </si>
+  <si>
+    <t>Obviously nothing faster than your Tesla no need maintanence one</t>
+  </si>
+  <si>
+    <t>Obviously nothing faster than your Tesla, which doesn't need maintenance at all</t>
+  </si>
+  <si>
+    <t>For emphasis, indicating "at all"</t>
+  </si>
+  <si>
+    <t>Depent ba   I believe a lot of new car owner is just what a transport and hassle free   first 5 years no problem1 at most battery got provlem</t>
+  </si>
+  <si>
+    <t>Depends. I believe a lot of new car owners just want a transport and hassle free first 5 years without problem. At most the battery has problems.</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>uncertainty or non-commitment of phrase</t>
+  </si>
+  <si>
+    <t>To each of it Ken need ba</t>
+  </si>
+  <si>
+    <t>To each of it Ken needs</t>
+  </si>
+  <si>
+    <t>appeal for agreement</t>
+  </si>
+  <si>
+    <t>Yeah really depends on how the person maintains it  that's why important to look at multiple units. Can compromise on a few things like interior colour  spec etc. But good unit with good maintanence most important</t>
+  </si>
+  <si>
+    <t>Like my friend family man buy a new sienta   reliable   comfortable and hassle free for first 5 year for sure   old cars can be cranky and not as comfortable as new la</t>
+  </si>
+  <si>
+    <t>Like my friend is a family man who bought a new sienta. Reliable, comfortable and hassle free for the first 5 years. for sure, old cars can be cranky and not as comfortable as new</t>
+  </si>
+  <si>
+    <t>He just want a car don’t give him problem so can fecth his kids</t>
+  </si>
+  <si>
+    <t>He just wants a car that doesn't give him problems so he can fetch his kids</t>
+  </si>
+  <si>
+    <t>Old car is value for money   but knowledge in car   and effort to spent in maintenance is a must 1</t>
+  </si>
+  <si>
+    <t>Old car is value for money, but knowledge in the car and the effort spent in maintenance is required.</t>
+  </si>
+  <si>
+    <t>Depends what kind of old car also  a lot of old Toyota no problem  can run for 100s of thousands</t>
+  </si>
+  <si>
+    <t>Depends on what kind of old car too. A lot of old Toyota do not have problems, can run for 100s of thousands.</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>Hondas also  just need a decent workshop that knows what they're doing and don't scam you</t>
+  </si>
+  <si>
+    <t>what downtime repair? mine is 6 year old mazda. zero repair</t>
+  </si>
+  <si>
+    <t>get a good used car. people like to assume old is bad.</t>
+  </si>
+  <si>
+    <t>why pay exorbitant amount of money when a good used one is good. just dont get e30 that is too old.</t>
+  </si>
+  <si>
+    <t>why pay exorbitant amount of money when a good used one is good? just don't get e30 that is too old.</t>
+  </si>
+  <si>
+    <t>U are different la   you know about cars   and can repair   a lot of ppl buy 2nd hand car very scare of lemon and such   for piece of mind some ppl buy a new car to fecth kid lol</t>
+  </si>
+  <si>
+    <t>You are different. You know about cars and can repair. a lot of people who buy 2nd hand cars are very scared of lemons, and for piece of mind, some people buy a new car to fetch kids lol.</t>
+  </si>
+  <si>
+    <t>get a 5 year old 6 year old check history and records. you will get a bargain.</t>
+  </si>
+  <si>
+    <t>get a 5 year old or 6 year old, and check history and records. you will get a bargain.</t>
+  </si>
+  <si>
+    <t>as good as new like my mazda. why&gt; the ex owner seldom drives. and comes with full service history</t>
+  </si>
+  <si>
+    <t>as good as new like my mazda. why? the ex owner seldom drives. and comes with full service history.</t>
+  </si>
+  <si>
+    <t>this one is over worrying.  if you start by buying a used one you will change your mind.</t>
+  </si>
+  <si>
+    <t>this one is over worrying. if you start by buying a used one, you will change your mind.</t>
+  </si>
+  <si>
+    <t>Ya  mine was 5 yrs old when I traded in… no issue</t>
+  </si>
+  <si>
+    <t>Heng suay lah. Nth is perfect u get good one u will praise until u get a bad one.</t>
+  </si>
+  <si>
+    <t>Nothing is perfect. You get a good one you will praise until you get a bad one.</t>
+  </si>
+  <si>
+    <t>lah (lah)</t>
+  </si>
+  <si>
+    <t>exactly. after i got my mazda  my friend asked me to sell to him. he loved it so much. and it is incredible bargain and savings. people always assume that people sell away their cars because car has problems. thatis not true at all. people have different needs and priorities. or financial needs. etc</t>
+  </si>
+  <si>
+    <t>exactly. after i got my mazda, my friend asked me to sell to him. he loved it so much. and it is an incredible bargain and savings. people always assume that people sell away their car because the car has problems. that is not true at all. people have different needs and priorities. or financial needs. etc</t>
+  </si>
+  <si>
+    <t>Also Depent on your car knowledge   I know ppl don’t even go petrol kiosk pump tyre</t>
+  </si>
+  <si>
+    <t>Also depends on your car knowledge. I know people don't even go to petrol kiosks to pump tyres.</t>
+  </si>
+  <si>
+    <t>U ask them maintain car   u kill them ba</t>
+  </si>
+  <si>
+    <t>if you ask them to maintain a car, you will kill them.</t>
+  </si>
+  <si>
+    <t>softening command of the last sentence</t>
+  </si>
+  <si>
+    <t>I got friend drive yellow engine light for long till become red</t>
+  </si>
+  <si>
+    <t>I have a friend who drove a yellow engine light for a long time until it became red.</t>
   </si>
   <si>
     <t>Name</t>
@@ -11206,6 +11503,1348 @@
         <v>12</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>45776.315125925925</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>45776.31556173611</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>45776.316190682875</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>45776.31654113426</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>45776.316859432874</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>45776.317020104165</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>45776.31706341435</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>45776.317686932874</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>45776.31798979167</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>45776.31816087963</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>45776.31840153935</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>45776.31852527778</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>45776.32066090278</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>45776.32099555555</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>45776.321214606476</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>45776.32137809027</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45776.32149682871</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45776.32206233796</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45776.322789259255</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45776.32284201389</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45776.32289717592</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>45776.32311542824</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>45776.323201747684</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>45776.32324612269</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>45776.32331270834</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>45776.32365049768</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>45776.323807442124</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>45776.323972314814</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>45776.32448210648</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>45776.32544509259</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>45776.32586473379</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>45776.32599226852</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>45776.32654756945</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>45776.326783020835</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H374" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>45776.32732162037</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H375" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>45776.32780997685</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>45776.327885810184</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>45776.32803607639</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>45776.328096157406</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>45776.32834479166</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>45776.32897130787</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>45776.32920790509</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>45776.32942246528</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H383" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>45776.32967603009</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>45776.32974783565</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>45776.33007167824</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>45776.3307474537</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>45776.33101820602</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1">
+        <v>45776.33151027778</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1">
+        <v>45776.33174751158</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11229,16 +12868,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -11255,10 +12894,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45775.66578</v>
+        <v>45776.33175</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>657</v>
+        <v>756</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -11272,11 +12911,11 @@
       </c>
       <c r="B3" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45775.66578</v>
+        <v>45776.33175</v>
       </c>
     </row>
     <row r="4">
@@ -11290,7 +12929,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45775.66578</v>
+        <v>45776.33175</v>
       </c>
     </row>
     <row r="5">
@@ -11304,7 +12943,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45775.66578</v>
+        <v>45776.33175</v>
       </c>
     </row>
     <row r="6">
@@ -11318,7 +12957,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45775.66578</v>
+        <v>45776.33175</v>
       </c>
     </row>
     <row r="7">
@@ -11332,7 +12971,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45775.66578</v>
+        <v>45776.33175</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1032">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -2268,6 +2268,831 @@
   </si>
   <si>
     <t>I have a friend who drove a yellow engine light for a long time until it became red.</t>
+  </si>
+  <si>
+    <t>2025-04-28T14-00-28-045Z</t>
+  </si>
+  <si>
+    <t>inputs/HoneyMoneySG_messages103_part14.csv</t>
+  </si>
+  <si>
+    <t>Just take it as now your question is answer liao and move on  life have more beautiful and important thing to attend to</t>
+  </si>
+  <si>
+    <t>Just take it as that your question has been answered and move on. There are more beautiful and important things to attend to in life.</t>
+  </si>
+  <si>
+    <t>Since there's evidence that this spend will reset monthly  then I'm satisfied. Thanks all for the replies and I hope u had a good laugh  😂</t>
+  </si>
+  <si>
+    <t>Since there's evidence that this spend will reset monthly, I'm satisfied. Thanks all for the replies and I hope u have had a good laugh 😂</t>
+  </si>
+  <si>
+    <t>Next time I wanna ask a question  I'll check here first. But be prepared for 50-100 lines explaining the context first 😂</t>
+  </si>
+  <si>
+    <t>Next time I wanna ask a question I'll first check on here. But be prepared for 50-100 lines explaining the context first 😂</t>
+  </si>
+  <si>
+    <t>No issue for me  same 3.12.5</t>
+  </si>
+  <si>
+    <t>No issue for me as well at 3.12.5</t>
+  </si>
+  <si>
+    <t>You still can complain to them that on your app no tracker. Clearly something is missing on your app. You try to reinstall before asking first.</t>
+  </si>
+  <si>
+    <t>You can still complain to them that there is no tracker on your app . Clearly something is missing on your app. You can try to reinstall it first before asking.</t>
+  </si>
+  <si>
+    <t>I am off to pluck chilli from next block neighbour liao for my lunch condiment haha</t>
+  </si>
+  <si>
+    <t>I am off to pluck some chilli from my neighbour who lives in the next block for my lunch condiment haha</t>
+  </si>
+  <si>
+    <t>Then I dunno liao. My app is cursed. I guess</t>
+  </si>
+  <si>
+    <t>In that case, I don't know anything about it. My app is cursed. I guess</t>
+  </si>
+  <si>
+    <t>The app sometime crazy de  show and dont show so i think is app problem</t>
+  </si>
+  <si>
+    <t>The app is crazy, sometimes it shows and sometimes it doesn't show. So i think the problem is with the app</t>
+  </si>
+  <si>
+    <t>suddenly I open this chat I was wondering what app allows your neighbor to list chilli to pluck</t>
+  </si>
+  <si>
+    <t>I opened this chat out of the blue and I was wondering what app allows your neighbor to list the chillis available to pluck</t>
+  </si>
+  <si>
+    <t>Even here put 1000 each month and there’s a tracker</t>
+  </si>
+  <si>
+    <t>Even over here, they put in 1000 each month and there’s a tracker</t>
+  </si>
+  <si>
+    <t>I know got app to list item u want to giveaway de</t>
+  </si>
+  <si>
+    <t>I know there is an app to list items that u want to giveaway</t>
+  </si>
+  <si>
+    <t>I think it's olio right? I used that recently to give away Kiehls facial wash that my skin not suitable for anymore recently</t>
+  </si>
+  <si>
+    <t>I think it's olio right? I used that recently to give away Kiehls facial wash that my skin not suitable for anymore</t>
+  </si>
+  <si>
+    <t>Not exactly sure coz my friend mention it before</t>
+  </si>
+  <si>
+    <t>Not exactly sure coz my friend mentioned it before</t>
+  </si>
+  <si>
+    <t>Hi all  I recently purchased a flight ticket around 2k using uob lady’s card (i picked travel as a category when I signed up recently). I see that I have only 400 uni$ for this ticket. Is this correct? Seems too little</t>
+  </si>
+  <si>
+    <t>Hi all I recently purchased a flight ticket for around 2k using uob lady’s card (i picked travel as a category when I signed up for it recently). I see that I have only gotten 400 uni$ for this ticket. Is this correct? Seems too little</t>
+  </si>
+  <si>
+    <t>His app don't have the tracker weirdly. Hopefully it gets fixed with a reinstall haha</t>
+  </si>
+  <si>
+    <t>His app doesn't have the tracker weirdly. Hopefully it gets fixed after you reinstall it haha</t>
+  </si>
+  <si>
+    <t>Have you read the TnC when the rest will be credited to your account?</t>
+  </si>
+  <si>
+    <t>Have you read the TnC for when the rest will be credited to your account?</t>
+  </si>
+  <si>
+    <t>Which part of the t&amp;c? Im not sure if they credit the rest at all and more worried if they made a mistake in assigning my categories</t>
+  </si>
+  <si>
+    <t>Which part of the t&amp;c? Im not sure if they credit the rest at all and I'm more worried that they have made a mistake in assigning my categories</t>
+  </si>
+  <si>
+    <t>Can recommend what broker apps good to buy funds?</t>
+  </si>
+  <si>
+    <t>Can recommend broker apps that are good to buy funds?</t>
+  </si>
+  <si>
+    <t>btw if u using uob lady platinum (not solitaire) bonus uni$ only capped for $1k eligible spend</t>
+  </si>
+  <si>
+    <t>btw if u are using uob lady platinum (not solitaire) bonus, uni$ is only capped for $1k worth of eligible spending</t>
+  </si>
+  <si>
+    <t>what’s cards can get points for utilities &amp; internet bills ?</t>
+  </si>
+  <si>
+    <t>what cards can get you points for paying utilities &amp; internet bills ?</t>
+  </si>
+  <si>
+    <t>Trying to learn more about CC miles!I just apply 3 CC -&gt; citibank rewards  uob lady  and SC smart.im thinking to apply one or two more CC which are the UOB preferred or UOB krisflyer.I heard applying too much CC might affect my credit score. Anyone got the same experience? Also if i request to increase my UOB credit card limit from 2k-3k  Do u think it will affect the credit score.Fyi i also have UOB Evol which i probably gg to cancelWorry about credit score hahaha.</t>
+  </si>
+  <si>
+    <t>Trying to learn more about CC miles!I just applied 3 CC -&gt; citibank rewards uob lady and SC smart.im thinking of applying one or two more CC which are the UOB preferred or UOB krisflyer.I heard that applying too many CC might affect my credit score. Anyone got the same experience? Also, if i request to increase my UOB credit card limit from 2k-3k, do u think it will affect the credit score? Fyi, i also have the UOB Evol which i probably am gg to cancel. I'm worried about credit score hahaha.</t>
+  </si>
+  <si>
+    <t>I have solitaire and this is my only spending this month</t>
+  </si>
+  <si>
+    <t>I have the solitaire card and this is my only spending this month</t>
+  </si>
+  <si>
+    <t>You can try to apply but whether get rejected or not depends on the bank themselves. But unlikely will affect your credit score for increasing limit or getting more cards. Unless you're planning to get bank loan  no need to worry about credit score.</t>
+  </si>
+  <si>
+    <t>You can try to apply, but whether you get rejected or not depends on the bank themselves. But unlikely that increasing credit limit or getting more cards will affect your credit score . Unless you're planning to get bank loan, no need to worry about credit score.</t>
+  </si>
+  <si>
+    <t>For retirement planning  is investing in Lion-OCBC Securities APAC Financials Dividend Plus a good option to receive regular payout? Like to hear some opinions from this group. Thank you</t>
+  </si>
+  <si>
+    <t>For retirement planning, is investing in Lion-OCBC Securities APAC Financials Dividend Plus a good option to receive regular payout? Would like to hear some opinions from this group. Thank you</t>
+  </si>
+  <si>
+    <t>Capped at 2k for solitaire  but 400 UNI$ now is still correct.</t>
+  </si>
+  <si>
+    <t>Capped at 2k for solitaire but 400 UNI$ is still correct for now.</t>
+  </si>
+  <si>
+    <t>Not so fast hahaha. Prob get house loan in 4 yrs time</t>
+  </si>
+  <si>
+    <t>Not so fast hahaha. Prob get a house loan in 4 yrs time</t>
+  </si>
+  <si>
+    <t>400 or 4000 for the bonus category?</t>
+  </si>
+  <si>
+    <t>What you define as it is good? This is an investment which means dividend if market is good may go up or go down if market is bad. Or it may not be not be given if there is market crash. You are taking more risk in returns for potentially higher returns of 5% monthly.</t>
+  </si>
+  <si>
+    <t>What do you define as good? This is an investment, which means that the dividends payout may go up if market is good and go down if market is bad. Or it may not be given if there is market crash. You are taking more risk in return for potentially higher returns of 5% monthly.</t>
+  </si>
+  <si>
+    <t>What about the bonus then? Of I understand correctly it will be given next month?</t>
+  </si>
+  <si>
+    <t>What about the bonus then? If  I understood it correctly, it will be given next month?</t>
+  </si>
+  <si>
+    <t>Hi  how many days does it take to port in to ZYM? How long will it take for the sim card to arrive?</t>
+  </si>
+  <si>
+    <t>It's in the t&amp;c on when both base and bonus gets rewarded</t>
+  </si>
+  <si>
+    <t>It's in the t&amp;c that mentions when both base and bonus gets rewarded</t>
+  </si>
+  <si>
+    <t>2-3 working days upon arrival. As early and as late you can pick on the website.</t>
+  </si>
+  <si>
+    <t>2-3 working days upon arrival. You can pick it up on the website as early and as late as you want</t>
+  </si>
+  <si>
+    <t>If i collect the sim card from the physical store  port in will still take 2-3 working days?</t>
+  </si>
+  <si>
+    <t>If i collect the sim card from the physical store, port in will still take 2-3 working days?</t>
+  </si>
+  <si>
+    <t>hi all  i remember i used to have 1 aapl share in both moomoo and tiger like 4 years back(both is free from new account). now i login to both  seems like i dont even have an account with them? can login but no trading account. anyone has any idea?</t>
+  </si>
+  <si>
+    <t>hi all i remembered that i used to have 1 aapl share in both moomoo and tiger like 4 years back(both is free from new account). now, when i login to both, it seems like i dont even have an account with them? I can log in but I do not have a trading account. anyone has any idea?</t>
+  </si>
+  <si>
+    <t>Hi  did anyone apply for SCB CNY bonussaver promotion in February and got their rewards ?</t>
+  </si>
+  <si>
+    <t>Hi did anyone apply for SCB CNY bonussaver promotion in February and got their rewards ?</t>
+  </si>
+  <si>
+    <t>Can I check if your crmc+amaze transaction is with the physical card or mobile contactless.. cause i have problem using mobile contactless today</t>
+  </si>
+  <si>
+    <t>Can I check if your crmc+amaze transaction is with the physical card or mobile contactless.. cause i face some problems using mobile contactless today</t>
+  </si>
+  <si>
+    <t>From what I tried  collect in the morning 11am. Port in happen during midnight on that day itself</t>
+  </si>
+  <si>
+    <t>From my experience, I tried to collect it in the morning at 11am and port in happened during midnight on that day itself</t>
+  </si>
+  <si>
+    <t>Mine is physical card.. I can’t use mobile contactless for Amaze cos no Apple pay.</t>
+  </si>
+  <si>
+    <t>Mine is a physical card.. I can’t use mobile contactless for Amaze cos I do not have Apple pay.</t>
+  </si>
+  <si>
+    <t>Alright.. nxt time I'll bring my physical card along.. not sure why mobile contactless doesn't work.. thxxGSx@qqplaces</t>
+  </si>
+  <si>
+    <t>Alright.. nxt time I'll bring my physical card along.. not sure why does the mobile contactless not work.. thxxGSx@qqplaces</t>
+  </si>
+  <si>
+    <t>Some time other country machine cant use google pay  so just bring physical card</t>
+  </si>
+  <si>
+    <t>Sometimes you can't use google pay on the machines in other countries so just bring a physical card</t>
+  </si>
+  <si>
+    <t>Uob one card link to shopback for payment counted as $500 spending?</t>
+  </si>
+  <si>
+    <t>can a Uob one card linked to shopback for payment be counted for $500 spending?</t>
+  </si>
+  <si>
+    <t>Using Singtel network  so mostly good coverage. But recently got an issue between their network and Singtel so went down for quite a few hours  even their app went down.</t>
+  </si>
+  <si>
+    <t>Using Singtel network so I have mostly received good coverage. But recently, there was an issue between their network and Singtel so it went down for quite a few hours, even their app went down.</t>
+  </si>
+  <si>
+    <t>Registering for uob big savings end apr and earmarked 50K  means the effective interest rate for 150K is 4.5% per annum in May ?</t>
+  </si>
+  <si>
+    <t>Registering for uob big savings ends in apr and earmarked 50K means that the effective interest rate for 150K is 4.5% per annum in May ?</t>
+  </si>
+  <si>
+    <t>The collection of sim is only available at their 6 outlets? Cos i see under locate us there are 20 locationsAlso  need to make any payment in their physical shop? Or can make the first time payment in the app?</t>
+  </si>
+  <si>
+    <t>The collection of the sim card is only available at 6 of their outlets? Cos i see that under "locate us" there are 20 locations. Do you also need to make any payment in their physical shop? Or can make the first time payment in the app?</t>
+  </si>
+  <si>
+    <t>Yes  it's 4.5% p.a. over the next 4 months. But the cash credit comes in May  so you technically get the 0.5% p.a. for the next 4 months instantly in May.</t>
+  </si>
+  <si>
+    <t>Yes it's 4.5% p.a. over the next 4 months. But the cash credit comes in May so you would technically get the 0.5% p.a. for the next 4 months instantly in May.</t>
+  </si>
+  <si>
+    <t>Oh you opted for sim delivery?</t>
+  </si>
+  <si>
+    <t>Oh you have opted for sim delivery?</t>
+  </si>
+  <si>
+    <t>sadly my office site @ paya lebar  is not able to receive their cellular network. But data network is okay  which puzzles me.</t>
+  </si>
+  <si>
+    <t>sadly my office site @ paya lebar is not able to receive their cellular network. But what puzzles me is that data network is okay.</t>
+  </si>
+  <si>
+    <t>If Singtel have poor coverage there  it's gonna be the same for ZYM.. these kind of weird coverage usually you'll see better results on M1 or SIMBA 🤪</t>
+  </si>
+  <si>
+    <t>If Singtel have poor coverage there then it's gonna be the same for ZYM.. for these kind of weird coverage, you'll usually see better results with M1 or SIMBA 🤪</t>
+  </si>
+  <si>
+    <t>My name is Anna from Singapore what about your self??</t>
+  </si>
+  <si>
+    <t>My name is Anna, and I am from Singapore. what about yourself??</t>
+  </si>
+  <si>
+    <t>Hi. How to get the 4% in uob one account from 1 May onwards? Assuming my account has 100k now. Do i just transfer 50k in on 1 May?</t>
+  </si>
+  <si>
+    <t>Hi. How do I get the 4% in uob one account from 1 May onwards? Assuming my account has 100k now, do i just transfer 50k into the account on 1 May?</t>
+  </si>
+  <si>
+    <t>2025-04-30T13-47-44-046Z</t>
+  </si>
+  <si>
+    <t>inputs/HoneyMoneySG_messages129_part15.csv</t>
+  </si>
+  <si>
+    <t>Omg  I thought some jp shops only accept card not Apple Pay is because they let you place a card on the tray and they tap it for you. And it is kinda stupid to put phone on the tray.🤡</t>
+  </si>
+  <si>
+    <t>Omg I thought that some jp shops would only accept cards and not Apple Pay. This is because they let you place a card on the tray and they would tap it for you. And it is kinda stupid to put the phone on the tray.🤡</t>
+  </si>
+  <si>
+    <t>u are supposed to pay off ur statement in full each month. this applies to all banks.if u only pay minimum due  u will still incur interest charges.if u don’t pay at all  u will incur interest charges and late payment fees</t>
+  </si>
+  <si>
+    <t>u are supposed to pay off ur statement in full each month. this applies for all banks.if u only pay minimum due, u will still incur interest charges.if u don’t pay at all, u will incur interest charges and late payment fees</t>
+  </si>
+  <si>
+    <t>Aiya. At this pt it's their custom to have the tray for cash/card already. I just accept it haha.</t>
+  </si>
+  <si>
+    <t>Aiya. At this pt it's their custom to have the tray for cash/card. I have just accepted it haha.</t>
+  </si>
+  <si>
+    <t>🥳EXTENDED: Moomoo SG Existing User Exclusive: Earn Up to S$730! 🎉Existing User Event page:https://hmsg.link/moomooeupNew user 🐮 Moomoo SGhttps://hmsg.link/sgmoomoo📆 Event Period: 05/08/2024  10:00 PM SGT - 15/10/2024  9:59 PM SGT✅ Eligibility:• For existing clients of Moomoo Financial Singapore Pte. Ltd. who deposited fresh funds before 10:00 PM SGT  23/07/2024.• Participants must register and select a membership tier on the event page  then deposit fresh funds within 5 days.✅ How to Qualify:1. Deposit fresh funds according to the selected tier.2. Maintain a daily net deposit for 60 days.✅ Rewards:• Elite: Deposit S$10 000 for up to S$121 rewards.• Prestige: Deposit S$50 000 for up to S$477 rewards.• Solitaire: Deposit S$100 000 for up to S$730 rewards.✅ Additional Benefits:• Get up to 6.8% p.a. with Moomoo Cash Plus for 30 days. 💵• Receive additional stock cash coupons based on your activity. 📈Note: T&amp;Cs apply. Returns are not guaranteed. Participation is subject to eligibility and adherence to the event terms.💡 My review on this promotion:https://www.honeymoneysg.com/post/review-moomoo-sg-cash-plus-existing-user-6-8-p-a-promotionApply now: 🐮 Moomoo SGhttps://hmsg.link/sgmoomooEvent page:https://hmsg.link/moomooeupT&amp;Cs:https://www.moomoo.com/sg/support/topic5_1000</t>
+  </si>
+  <si>
+    <t>Just a clarification  6.8% is applicable only for first 30 days correct ? But Need to hold funds for 60 days  then next 30 days only around 3% according to the fund performance ?</t>
+  </si>
+  <si>
+    <t>Just a clarification that 6.8% is applicable only for first 30 days correct ? But I would need to hold funds for 60 days and for the next 30 days it is only around 3% depending on the fund performance ?</t>
+  </si>
+  <si>
+    <t>2025-04-30T23-16-38-478Z</t>
+  </si>
+  <si>
+    <t>inputs/HoneyMoneySG_messages44_part10.csv</t>
+  </si>
+  <si>
+    <t>must I be an employee? cos rn I'm jus a student haha so I'm jus parking my money somewhere</t>
+  </si>
+  <si>
+    <t>you just answered some generic questions? or did you have to validate via singpass or what</t>
+  </si>
+  <si>
+    <t>you just answered some generic questions? or did you have to validate via sing pass?</t>
+  </si>
+  <si>
+    <t>u mean i wont be eligible for EGA if i alrd hv a hsbc cc?</t>
+  </si>
+  <si>
+    <t>you mean that I won't be eligible for EGA if I already have a hsbc credit card?</t>
+  </si>
+  <si>
+    <t>I validated via singpass then answered some generic questions too like whether I'm SGrean which I am etc</t>
+  </si>
+  <si>
+    <t>wah gg lmao I jus have a unique Chinese name tho 🥲shud I go down to HSBC bank to create an acc if I still can't create one online?</t>
+  </si>
+  <si>
+    <t>wow the HSBC branches are so far away HAHA</t>
+  </si>
+  <si>
+    <t>if I don't want to go through so much hassle  what other accounts would y'all recommend to just park $40k for eg</t>
+  </si>
+  <si>
+    <t>if I don't want to go through so much hassle, what other accounts would y'all recommend to just park, for example, $40k?</t>
+  </si>
+  <si>
+    <t>Anyone still hasn't gotten their Revolut March public transport cashback?</t>
+  </si>
+  <si>
+    <t>If by now u didn’t get means something wrong. Likely u used master which groups the spend and u didn’t clock the required day count</t>
+  </si>
+  <si>
+    <t>If you didn't get it by now, it means something was wrong. Likely you used master, which groups the spending, and you didn't clock the required day count.</t>
+  </si>
+  <si>
+    <t>u will be. but can't apply online</t>
+  </si>
+  <si>
+    <t>hope your name isn't Xi Jinping</t>
+  </si>
+  <si>
+    <t>I have my reasons not to deal with HSBC. It’s not because it’s the bank of opium war that brings shame for my race for more than a century (although they are)  it’s simply HSBC are too much of a hassle. More so when they closed many many branches.</t>
+  </si>
+  <si>
+    <t>That was then and that’s why HSBC is one of the Big Four banks in UK  and some say the world.History lesson aside HSBC TnCs are longer than my grandmas favorite Taiwanese drama serials</t>
+  </si>
+  <si>
+    <t>i just feel the t&amp;c is quite chim  not as straightfwd as uob one or ocbc 360..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now HSBC not even in top 20... JP Morgan is growing as it swallows more US Regional Banks. </t>
+  </si>
+  <si>
+    <t>What do ya mean  the Revolut card is a mastercard so it will auto grp the transactions  how to help it?</t>
+  </si>
+  <si>
+    <t>What do ya mean? the Revolut card is a Mastercard so it will auto group the transactions. how do I help it?</t>
+  </si>
+  <si>
+    <t>use Revolut virtual Visa next time.</t>
+  </si>
+  <si>
+    <t>next time, use Revolt virtual Visa</t>
+  </si>
+  <si>
+    <t>MasterCard posts public transports when u have clocked 10 transactions as a single "charge" on the card. (Revolut wont know the ten trips)VISA posts public transport transactions daily.Hope this clears the air</t>
+  </si>
+  <si>
+    <t>So I basically used the Revolut Mastercard for transport the whole mnth of March for 0% cashback and now I got money stuck inside cause topped up by cc which I cannot withdraw? Cri</t>
+  </si>
+  <si>
+    <t>So I basically used the Revolt Mastercard for transport for the whole month of March for 0% cash back, and now I have money stuck inside because it topped up by credit card, which I cannot withdraw? Cri</t>
+  </si>
+  <si>
+    <t>anyone got any suggestions regarding this? 😅😁</t>
+  </si>
+  <si>
+    <t>Can speak to their customer service that you have used it for over ten days. I've seen cases where the Revolut CSO asks for proof of it by asking for screenshots in TL SimplyGo apps.</t>
+  </si>
+  <si>
+    <t>You can speak to their customer service, and let them know that you have used it for over ten days. I've seen cases where the Revolt CSO asks for proof by asking for screenshots in TL SimplyGo apps.</t>
+  </si>
+  <si>
+    <t>Walao Barclays not even on top 20?Remember Visa is the payment system spin-off of Barclays of England + Bank of America  California . Both world class banksBefore Chase swallow the regional banks  Bank of America is THE bank in America. They financed Disney  set up Visa and literally built out Silicon Valley AND Los Angeles with their loans.</t>
+  </si>
+  <si>
+    <t>Wow, Barclays is not even in the top 20? Remembered that Visa is the payment system spin-off of Barclays of England + Bank of America California. Both are world class banks before Chase swallowed the regional banks. Bank of America is THE bank in America. They financed Disney and set up Visa, and literally built out Silicon Valley AND Los Angeles with their loans.</t>
+  </si>
+  <si>
+    <t>Any gurus know for EGA if you hit the criteria for bonus interest will there be notification? Because I did 5 $1 Axs transactions then it was reversed back to me few days later...</t>
+  </si>
+  <si>
+    <t>I opened HSBC EGA yesterday but no email or notification that it has went through  any idea if this is normal?</t>
+  </si>
+  <si>
+    <t>I opened HSBC EGA yesterday, but have no email or notification that it has went through. any idea if this is normal?</t>
+  </si>
+  <si>
+    <t>https://hmsg.link/oneaccountNot sure if still relevant link though</t>
+  </si>
+  <si>
+    <t>erratic.. sometimes you get SMS sometimes no...</t>
+  </si>
+  <si>
+    <t>erratic.. sometimes you get an SMS, sometimes no...</t>
+  </si>
+  <si>
+    <t>takes a few days to reflect the notif  i personally transfer out to my other accounts $1 cause those i doubt will ever bounce 😂</t>
+  </si>
+  <si>
+    <t>takes a few days to reflect the notification. I personally transfer $1 out to my other accounts because I doubt those accounts will ever bounce</t>
+  </si>
+  <si>
+    <t>I better do that now to lock in for may</t>
+  </si>
+  <si>
+    <t>yes as long as satisfied within the month it is ok already... no need 1st day of the month... hahado 5 x $10 FAST out is easier la</t>
+  </si>
+  <si>
+    <t>yes, as long as it is satisfied within the month, it is ok already... no need to be 1st day of the month... haha it is easier to do 5 x $10 FAST out</t>
+  </si>
+  <si>
+    <t>oh?! I always thought need do on first day else will lose on that first few days haha</t>
+  </si>
+  <si>
+    <t>oh?! I always thought I need to do on the first day else I'll lose on that first few days haha</t>
+  </si>
+  <si>
+    <t>actually (from what I know  but i'm kiasu)  if you sms in May 2023  you are qualified for May and June 2023. The SMS says until end of NEXT MONTH.BUT  I always do in the first week of every month because i'm kiasu.</t>
+  </si>
+  <si>
+    <t>actually (from what I know but I'm afraid), if you sms in May 2023, you are qualified for May and June 2023. The SMS says until the end of NEXT MONTH. But I always do it in the first week of every month because I'm afraid to lose out.</t>
+  </si>
+  <si>
+    <t>kiasu</t>
+  </si>
+  <si>
+    <t>Afraid of losing out</t>
+  </si>
+  <si>
+    <t>Remember to top up at least $2k  else all effort wasted 😅 extra 1% interest on top up amount only</t>
+  </si>
+  <si>
+    <t>Remember to top up at least $2k, else all efforts are wasted. only an extra 1% interest on the top up amount.</t>
+  </si>
+  <si>
+    <t>Whats the best way to contact? I using the in-app Live Chat the agent not responding lol</t>
+  </si>
+  <si>
+    <t>What's the best way to contact them? I am using the in-app Live Chat, but the agent is not responding.</t>
+  </si>
+  <si>
+    <t>2k is fresh funds or can transfer out from EGA and back in?</t>
+  </si>
+  <si>
+    <t>Is 2k fresh funds, or you can transfer out from EGA and transfer back in?</t>
+  </si>
+  <si>
+    <t>Sadly that's the only option  but ok la i think u just state ur case and whatever u have at one go should be pretty fine</t>
+  </si>
+  <si>
+    <t>Sadly that's the only option, but it's ok. I think you can just state your case and whatever you have at one go, and should be pretty fine.</t>
+  </si>
+  <si>
+    <t>Can just the same in and out</t>
+  </si>
+  <si>
+    <t>Can, just the same in and out.</t>
+  </si>
+  <si>
+    <t>Nop CSO didnt accept it dam useless</t>
+  </si>
+  <si>
+    <t>Nope, CSO didn't accept it. Dam useless.</t>
+  </si>
+  <si>
+    <t>why AXS transaction? Should do FAST transfer out from EGA</t>
+  </si>
+  <si>
+    <t>hm FAST easier  get processed immediately and definitely eligible</t>
+  </si>
+  <si>
+    <t>hm. FAST is easier. It gets processed immediately, and is definitely eligible.</t>
+  </si>
+  <si>
+    <t>Hi  can anyone advise what miles card would be best to link with iPaymy?</t>
+  </si>
+  <si>
+    <t>Yeah  why insurance company does not accept Amex 🤔</t>
+  </si>
+  <si>
+    <t>Yeah. Why do insurance companies not accept Amex?</t>
+  </si>
+  <si>
+    <t>Not all insurance can use payall</t>
+  </si>
+  <si>
+    <t>Hi all  M1 bill can use Amaze+CRMC to get 4mpd?</t>
+  </si>
+  <si>
+    <t>Hi all, can I use Amaze+CRMC on M1 bill to get 4mpd?</t>
+  </si>
+  <si>
+    <t>yah if pay on M1 website/app</t>
+  </si>
+  <si>
+    <t>yah, if you pay on M1 website/app</t>
+  </si>
+  <si>
+    <t>Not sure have you read the HSBC term and condition. If you have not  you may want to read it first. After reading it  you will become The Guru.https://www.hsbc.com.sg/content/dam/hsbc/sg/documents/accounts/everyday-global/terms-and-conditions-governing-everydayrewards-programme.pdf</t>
+  </si>
+  <si>
+    <t>interest only on incremental average daily balance wrt previous month. Calculate yourself lah</t>
+  </si>
+  <si>
+    <t>the interest is only on the incremental average daily balance with respect to the previous month. Calculate it yourself.</t>
+  </si>
+  <si>
+    <t>How much do you keep in ocbc to reset this? $0?</t>
+  </si>
+  <si>
+    <t>Need to pay annual fee @@</t>
+  </si>
+  <si>
+    <t>Need to pay the annual fee @@</t>
+  </si>
+  <si>
+    <t>oh icic. Cos of the Min. $0.5 spent?</t>
+  </si>
+  <si>
+    <t>2025-05-01T13-15-39-838Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages275_part5.csv</t>
+  </si>
+  <si>
+    <t>Is it some argument about Mt?</t>
+  </si>
+  <si>
+    <t>Is there some argument about Mt?</t>
+  </si>
+  <si>
+    <t>I think that’s the US stock discussion</t>
+  </si>
+  <si>
+    <t>China Star Food has formed a bullish pennant pattern. PA showed well absorbed at 47 on a T+4. More upside expected.</t>
+  </si>
+  <si>
+    <t>Marco Polo ($0.018/$0.019)It touched recent high of $0.025 on 21st Jan 2021 and retraced back to strong support level ($0.017-$0.018). We can see lower prices rejection from the lower wicks at $0.017.Good closing today at $0.018 after hidden buying power came in back at $0.017 and then cleared $0.018.The late action today shows that they might be coming back in play and reversal back up from this downtrend.Good luck  DYODD.Market is shaky now. We have to react accordingly if things don’t go to plan.</t>
+  </si>
+  <si>
+    <t>CFM Holdings warns of higher net loss for H1 2021https://www.businesstimes.com.sg/companies-markets/cfm-holdings-warns-of-higher-net-loss-for-h1-2021METAL-STAMPING firm CFM Holdings expects to record a higher net loss after tax for the half-year ended Dec 31  due to a decline in gross profit margin  it said in a filing to the Singapore Exchange on Tuesday.</t>
+  </si>
+  <si>
+    <t>Nope . I am not bro. U?</t>
+  </si>
+  <si>
+    <t>Nope. I am not, bro. You?</t>
+  </si>
+  <si>
+    <t>Just some news for CFM holders or planning to hold CFM long term.</t>
+  </si>
+  <si>
+    <t>Just some news for CFM holders or for those planning to hold CFM long term.</t>
+  </si>
+  <si>
+    <t>Most Penny stocks should not be for long term.Once pennies music stop  many will be in freezer.</t>
+  </si>
+  <si>
+    <t>Most Penny stocks should not be for long term. Once the pennies music stop, many will be in the freezer.</t>
+  </si>
+  <si>
+    <t>Long term counters  really need those that give dividends then at least it makes sense to buy up. 💪🏼</t>
+  </si>
+  <si>
+    <t>Long term counters really need those that give dividends, then at least it makes sense to buy up.</t>
+  </si>
+  <si>
+    <t>Hope energy and gloves uptrend continue tommorow.</t>
+  </si>
+  <si>
+    <t>Hope energy and gloves uptrend continues tomorrow.</t>
+  </si>
+  <si>
+    <t>Don’t think they will lose too much too. Couple millions . Not too bad .  Many other pennies lose A lot more but still can be fried up. Ultimately   as long as no suspension and BBs select them to play   they can be played up</t>
+  </si>
+  <si>
+    <t>Don't think they will lose too much too. Couple millions. Not too bad. Many other pennies lose a lot more but can still be fried up. Ultimately, as long as no suspension and BBs select them to play, they can be played up.</t>
+  </si>
+  <si>
+    <t>Most importantly is cannot have debt issues. cFM gearing is little high at 75% but not yet cause for concern as they have Low float 200 million shares  they need money can always raise more.</t>
+  </si>
+  <si>
+    <t>Most importantly it is cannot have debt issues. cFM gearing is a little high at 75% but not yet cause for concern as they have low float of 200 million shares. they need money, they can always raise more.</t>
+  </si>
+  <si>
+    <t>Why our oiles hardly run today. Bb Sian liao?</t>
+  </si>
+  <si>
+    <t>Why did our oiles hardly run today? Bb tired?</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>I bought Rex by instinct today 😋</t>
+  </si>
+  <si>
+    <t>My exact sentiments with dax bro John</t>
+  </si>
+  <si>
+    <t>My exact sentiments with dax, bro John.</t>
+  </si>
+  <si>
+    <t>A lot of companies lose a lot more money and BBs still play them.For pennies   BBs presence is more important than the FA.</t>
+  </si>
+  <si>
+    <t>A lot of companies lose more money and BBs still play them. For pennies, BBs presence is more important than the FA.</t>
+  </si>
+  <si>
+    <t>Costs high due to supply chain increased prices.A lot of suppliers are raising prices now due to increased freight rates by Shipping / logistics</t>
+  </si>
+  <si>
+    <t>Costs are high due to increased supply chain prices. A lot of suppliers are raising prices now due to increased freight rates by shipping / logistics</t>
+  </si>
+  <si>
+    <t>Am more worried about market overall sentiments than minor business losses.If sentiments can recover  BBs play and nothing much to worry.Today late afternoon got some play ups. Hoping it is to ready up tomorrow then that’s good for us all</t>
+  </si>
+  <si>
+    <t>I'm more worried about the market overall sentiments than minor business losses. If sentiments can recover, BBs play, and nothing much to worry. Today late afternoon got some play ups. Hoping it is ready up tomorrow, then that's good for us all</t>
+  </si>
+  <si>
+    <t>Yea man  take is easy. The losses is expected. COVID19 period . Many companies not doing well.Pennies playing by rank is1) sentiments2) spotting BBs3) PA4) TA5) FAAs long as no money issues and have SL  can play any counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea ltd 250 go go go </t>
+  </si>
+  <si>
+    <t>min order for material meaning it’s their downstream suppliers that are imposing those MOQ which is no surprise especially in their industry.... so even tho they’re generating more revenue from their lower operating cost  their incurred higher cost of goods from purchasing more materials than they should outweighs the revenue i guess...</t>
+  </si>
+  <si>
+    <t>minimum order for material meaning, it's their downstream suppliers that are imposing those MOQ, which is no surprise, especially in their industry... so even though they're generating more revenue from their lower operating cost, their incurred higher cost of goods from purchasing more materials than they should outweighs the revenue, i guess...</t>
+  </si>
+  <si>
+    <t>“...attributable to an increase in cost of sales from minimum-order requirements for material purchases  tooling and tooling material purchases  higher direct labour costs as well as sub-contract services for its metal stamping operations...”the minimum order requirements comes from their downstream of the supply chain- meaning they probably only need to buy 10pcs of stamping tools in the past but now there’s a e.g. MOQ of 50pcs from their source  they’ve to follow and buy 50pcs instead OR  buy lesser but incur higher unit cost.^at least this is my unds from the BT article that youve shared.anyway it is what it is lor the article quite plain and direct liao.</t>
+  </si>
+  <si>
+    <t>"...attributable to an increase in cost of sales from minimum-order requirements for material purchases, tooling and tooling material purchases, higher direct labor costs, as well as sub-contract services for its metal stamping operations..." the minimum order requirements come from their downstream of the supply chain - meaning they probably only need to buy 10pcs of stamping tools in the past, but now there's a MOQ of 50pcs from their source, they have to follow and buy 50pcs instead OR buy lesser but incur higher unit cost. at least this is my understanding from the BT article that you've shared. anyway, it is what it is, the article is quite plain and direct.</t>
+  </si>
+  <si>
+    <t>referring to state of being done</t>
+  </si>
+  <si>
+    <t>cos something that i’m a bit familiar with and hope to help you shed some light on your doubts with my minimal knowledge 🤪</t>
+  </si>
+  <si>
+    <t>They have more inventory now it seems .</t>
+  </si>
+  <si>
+    <t>It seems that they have more inventory now</t>
+  </si>
+  <si>
+    <t>it’s very common to have MOQ. Cant expect a machine to operate to produce 1 tool only. need to maximise your machine’s capacity as well haha</t>
+  </si>
+  <si>
+    <t>hahaha in this economy.... everybody also wanna tan jiak one....</t>
+  </si>
+  <si>
+    <t>hahah in this economy... everybody wants to profit too...</t>
+  </si>
+  <si>
+    <t>The MOQ is on tools ? Or raw material items. If so they more of it and should add to their inventory.More costs incurred for now but the following quarter might not need to incur.So it doesn’t seem so bad</t>
+  </si>
+  <si>
+    <t>See how they play tomorrow and react accordingly will do bro.</t>
+  </si>
+  <si>
+    <t>see how they play tomorrow, and react accordingly</t>
+  </si>
+  <si>
+    <t>you dyodd ah i’m only explaining on the supply chain part idk about their financials much but to me warning of higher net loss doesn’t sound like good news..... so u agar agar lor</t>
+  </si>
+  <si>
+    <t>you dyodd. i'm only explaining on the supply chain part. idk about their financials much, but to me warning of higher net loss doesn't sound like good news... so you can guess.</t>
+  </si>
+  <si>
+    <t>Already on my watchlist. Only thing is need to see whether BBs come to play .</t>
+  </si>
+  <si>
+    <t>Already on my watchlist. Only thing is that we need to see whether BBs come to play.</t>
+  </si>
+  <si>
+    <t>I concentrate on my existing counters for now.</t>
+  </si>
+  <si>
+    <t>the last time they also warn of higher net loss for FY20 so not the first time.... next day gapped down 6 pips too.</t>
+  </si>
+  <si>
+    <t>now GME on Short Sell Restricted list</t>
+  </si>
+  <si>
+    <t>i bought a little bit for fun to join history moment</t>
+  </si>
+  <si>
+    <t>i bought a little bit for fun, to join the history moment.</t>
+  </si>
+  <si>
+    <t>Day low 74. Alr up 59</t>
+  </si>
+  <si>
+    <t>is funny to see retailers has a chance against Hedge funds</t>
+  </si>
+  <si>
+    <t>it's funny to see retailers have a chance against hedge funds</t>
+  </si>
+  <si>
+    <t>This was recent? I thought q a while alr</t>
+  </si>
+  <si>
+    <t>This was recent? I thought it has been quite a while</t>
+  </si>
+  <si>
+    <t>I think they restrict until 3rd Feb right?</t>
+  </si>
+  <si>
+    <t>i serach online  it was on friday closing</t>
+  </si>
+  <si>
+    <t>i searched online. it was on friday at closing.</t>
+  </si>
+  <si>
+    <t>Which in US time means tmr  not today</t>
+  </si>
+  <si>
+    <t>which in US time means tomorrow, not today.</t>
+  </si>
+  <si>
+    <t>saw thisJust an FYI: this happens to any stock automatically when there’s a loss ( even because of blatant market manipulation) bigger than 10% against the value of yesterday’s closing price</t>
+  </si>
+  <si>
+    <t>yup. but if today positive  tomorrow they can short again</t>
+  </si>
+  <si>
+    <t>yup. but if today is positive, tomorrow they can short again</t>
+  </si>
+  <si>
+    <t>to see 10k 20k wall drop like water  is fun</t>
+  </si>
+  <si>
+    <t>to see 10k or 20k wall drop like water is fun</t>
+  </si>
+  <si>
+    <t>I thought you were referring to trading halts</t>
+  </si>
+  <si>
+    <t>I see Sgyuan chart for GME I shiat bricks 😂</t>
+  </si>
+  <si>
+    <t>I see sgyuan's chart for GME, I shiat bricks</t>
+  </si>
+  <si>
+    <t>I need give my stool samples for health checkup :(</t>
+  </si>
+  <si>
+    <t>China do anal swabs for covid</t>
+  </si>
+  <si>
+    <t>China does anal swabs for covid</t>
+  </si>
+  <si>
+    <t>What? Ifast still can go up?</t>
+  </si>
+  <si>
+    <t>Stool test is the most sian one srsly......</t>
+  </si>
+  <si>
+    <t>Stool test is the most troublesome one, seriously...</t>
+  </si>
+  <si>
+    <t>Nope. I'm just participating in a research at their faculty</t>
   </si>
   <si>
     <t>Name</t>
@@ -12845,6 +13670,4031 @@
         <v>12</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1">
+        <v>45776.37391969908</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1">
+        <v>45776.37456726852</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1">
+        <v>45776.374990474535</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1">
+        <v>45776.3752846412</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1">
+        <v>45776.37663097223</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1">
+        <v>45776.377318217594</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1">
+        <v>45776.37775206019</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1">
+        <v>45776.37878673611</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1">
+        <v>45776.37957535879</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1">
+        <v>45776.380182685185</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1">
+        <v>45776.38040010417</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1">
+        <v>45776.380762245375</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>45776.38109196759</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1">
+        <v>45776.381630821765</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1">
+        <v>45776.382155300926</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1">
+        <v>45776.382318495365</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1">
+        <v>45776.38262280093</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1">
+        <v>45776.382930810185</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1">
+        <v>45776.3832071412</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1">
+        <v>45776.383509189815</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1">
+        <v>45776.38459350694</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1">
+        <v>45776.38476390047</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>45776.3859372338</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1">
+        <v>45776.386279224535</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>45776.38659921296</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>45776.38671547454</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1">
+        <v>45776.38683732639</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1">
+        <v>45776.390957048614</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1">
+        <v>45776.391949490746</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1">
+        <v>45776.39209716435</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1">
+        <v>45776.39510144676</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1">
+        <v>45776.39643916667</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1">
+        <v>45776.396654386575</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1">
+        <v>45776.39815304398</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1">
+        <v>45776.39828407408</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1">
+        <v>45776.39860778935</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1">
+        <v>45776.40425994213</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1">
+        <v>45776.405999375</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1">
+        <v>45776.40847190972</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1">
+        <v>45776.41122708333</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1">
+        <v>45776.41337888889</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1">
+        <v>45776.4233680787</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1">
+        <v>45776.42518385417</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1">
+        <v>45776.428710520835</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1">
+        <v>45776.43401722222</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1">
+        <v>45776.434646759255</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1">
+        <v>45776.43771805556</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1">
+        <v>45776.438541261574</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1">
+        <v>45776.443796273146</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1">
+        <v>45776.444481099534</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1">
+        <v>45777.40943295139</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1">
+        <v>45777.409773692125</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1">
+        <v>45777.410154108795</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1">
+        <v>45777.41022586805</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1">
+        <v>45777.410864351856</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1">
+        <v>45777.80333659722</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1">
+        <v>45777.80357042824</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1">
+        <v>45777.804652175924</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1">
+        <v>45777.80470971065</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1">
+        <v>45777.80536275463</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1">
+        <v>45777.80553615741</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1">
+        <v>45777.805929062495</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1">
+        <v>45777.80601277778</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1">
+        <v>45777.80649145834</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1">
+        <v>45777.80655060185</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1">
+        <v>45777.80659702547</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1">
+        <v>45777.806659594906</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1">
+        <v>45777.806768379625</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1">
+        <v>45777.80681017361</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1">
+        <v>45777.80684927083</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1">
+        <v>45777.8071122338</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1">
+        <v>45777.80736092593</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1">
+        <v>45777.8080203125</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1">
+        <v>45777.808643599536</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1">
+        <v>45777.8091970949</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1">
+        <v>45777.809689305555</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1">
+        <v>45777.810595821764</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1">
+        <v>45777.81176909722</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1">
+        <v>45777.81315030092</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1">
+        <v>45777.81474452546</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1">
+        <v>45777.81582204861</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1">
+        <v>45777.81629575232</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1">
+        <v>45777.817174571755</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1">
+        <v>45777.81811545139</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1">
+        <v>45777.81868498842</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="G475" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1">
+        <v>45777.82107116898</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G476" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H476" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1">
+        <v>45777.82171928241</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1">
+        <v>45777.822176574075</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G478" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1">
+        <v>45777.822427141204</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1">
+        <v>45777.82281428241</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G480" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1">
+        <v>45777.823086261575</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1">
+        <v>45777.8232384375</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G482" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1">
+        <v>45777.82333474537</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G483" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1">
+        <v>45777.82364796296</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H484" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1">
+        <v>45777.82378106481</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1">
+        <v>45777.82397434028</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1">
+        <v>45777.82404025463</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G487" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H487" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1">
+        <v>45777.8242440625</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1">
+        <v>45777.824381377315</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1">
+        <v>45777.82447957176</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H490" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1">
+        <v>45777.824828032404</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1">
+        <v>45777.82487165509</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H492" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1">
+        <v>45777.82499677083</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H493" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1">
+        <v>45777.82512987268</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G494" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H494" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1">
+        <v>45778.38652675926</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1">
+        <v>45778.38659199074</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H496" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1">
+        <v>45778.38663028935</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1">
+        <v>45778.386665405094</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G498" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H498" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1">
+        <v>45778.386688865736</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H499" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1">
+        <v>45778.386832222226</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H500" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1">
+        <v>45778.387126608795</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1">
+        <v>45778.38739561343</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="G502" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H502" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1">
+        <v>45778.3878118287</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="G503" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H503" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1">
+        <v>45778.38821229167</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G504" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H504" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1">
+        <v>45778.38945685185</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H505" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1">
+        <v>45778.394244525465</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H506" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1">
+        <v>45778.39472519676</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G507" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H507" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I507" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1">
+        <v>45778.39625298612</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G508" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H508" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1">
+        <v>45778.39651070602</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H509" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1">
+        <v>45778.396761145836</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H510" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1">
+        <v>45778.3971622338</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G511" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H511" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1">
+        <v>45778.39910311342</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H512" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1">
+        <v>45778.400940775464</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H513" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1">
+        <v>45778.40099462963</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H514" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1">
+        <v>45778.403197465275</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H515" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1">
+        <v>45778.40505184028</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H516" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I516" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1">
+        <v>45778.40545614583</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H517" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1">
+        <v>45778.405588912035</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H518" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1">
+        <v>45778.40571853009</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H519" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1">
+        <v>45778.40611150463</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H520" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I520" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1">
+        <v>45778.406800972225</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H521" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1">
+        <v>45778.40695722222</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H522" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1">
+        <v>45778.407568344905</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H523" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I523" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1">
+        <v>45778.40782070602</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H524" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1">
+        <v>45778.40789855324</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H525" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1">
+        <v>45778.40793732639</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H526" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1">
+        <v>45778.407956828705</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H527" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1">
+        <v>45778.40811668981</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H528" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1">
+        <v>45778.40816756945</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H529" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1">
+        <v>45778.40829460648</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H530" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1">
+        <v>45778.40845567129</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H531" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1">
+        <v>45778.40880337963</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H532" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1">
+        <v>45778.40896503472</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H533" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1">
+        <v>45778.409288634255</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H534" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1">
+        <v>45778.409366168984</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H535" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1">
+        <v>45778.4095194213</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H536" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1">
+        <v>45778.40967028935</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H537" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1">
+        <v>45778.40975707176</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H538" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1">
+        <v>45778.40994702546</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H539" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1">
+        <v>45778.40999572916</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H540" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1">
+        <v>45778.410088634264</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H541" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1">
+        <v>45778.41015576389</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H542" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1">
+        <v>45778.41030545138</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H543" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1">
+        <v>45778.410807569446</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H544" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12868,16 +17718,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>752</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>753</v>
+        <v>1028</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>754</v>
+        <v>1029</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>755</v>
+        <v>1030</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -12894,10 +17744,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45776.33175</v>
+        <v>45778.41081</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>756</v>
+        <v>1031</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -12911,11 +17761,11 @@
       </c>
       <c r="B3" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45776.33175</v>
+        <v>45778.41081</v>
       </c>
     </row>
     <row r="4">
@@ -12929,7 +17779,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45776.33175</v>
+        <v>45778.41081</v>
       </c>
     </row>
     <row r="5">
@@ -12943,7 +17793,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45776.33175</v>
+        <v>45778.41081</v>
       </c>
     </row>
     <row r="6">
@@ -12953,11 +17803,11 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45776.33175</v>
+        <v>45778.41081</v>
       </c>
     </row>
     <row r="7">
@@ -12967,11 +17817,11 @@
       </c>
       <c r="B7" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45776.33175</v>
+        <v>45778.41081</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1129">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -3093,6 +3093,297 @@
   </si>
   <si>
     <t>Nope. I'm just participating in a research at their faculty</t>
+  </si>
+  <si>
+    <t>2025-05-02T14-24-52-319Z</t>
+  </si>
+  <si>
+    <t>inputs/sgcmcommunity_messages45_part6.csv</t>
+  </si>
+  <si>
+    <t>i think admin runs enkeis on his white fc</t>
+  </si>
+  <si>
+    <t>i think the admin runs enkeis on his white fc</t>
+  </si>
+  <si>
+    <t>maybe large admin team mahhh  Mr Ruoxuen-A</t>
+  </si>
+  <si>
+    <t>maybe it's a large admin team, because it is Mr Ruoxuen-A</t>
+  </si>
+  <si>
+    <t>mah</t>
+  </si>
+  <si>
+    <t>indicate something that is obvious</t>
+  </si>
+  <si>
+    <t>maybe he/she like travelling and is called rimowa</t>
+  </si>
+  <si>
+    <t>maybe he/she likes travelling and is called rimowa</t>
+  </si>
+  <si>
+    <t>Later give u one Shinku hadoken…kick u out</t>
+  </si>
+  <si>
+    <t>be careful, you might get one Shinku hadoken... and be kicked out</t>
+  </si>
+  <si>
+    <t>How are Randolph and Jungkook doing today</t>
+  </si>
+  <si>
+    <t>How are Randolph and Jungkook doing today?</t>
+  </si>
+  <si>
+    <t>Same  my stock fd makes me happy too</t>
+  </si>
+  <si>
+    <t>Same. my stock fd makes me happy too.</t>
+  </si>
+  <si>
+    <t>Kena smoke by hiace and bluesg nvm</t>
+  </si>
+  <si>
+    <t>I was smoked by hiace and bluesg. Never mind.</t>
+  </si>
+  <si>
+    <t>funny sia a lot of chats in sg got people asking for bov for hiace</t>
+  </si>
+  <si>
+    <t>funny. a lot of chats in sg have people asking for bov for hiace.</t>
+  </si>
+  <si>
+    <t>used for emphasis and surprise</t>
+  </si>
+  <si>
+    <t>never knew it was a thing</t>
+  </si>
+  <si>
+    <t>pulling the bills too eh hahaha</t>
+  </si>
+  <si>
+    <t>pulling the bills too, hahaha</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>a mild surprise or question marker</t>
+  </si>
+  <si>
+    <t>Let the whole world see them pull 0-30 in sub 5 😤😤😤😤😤😤</t>
+  </si>
+  <si>
+    <t>https://www.carexpert.com.au/car-news/2021-toyota-hiace-price-and-specsHiace got V6 and turbo one sia. Don’t play play!-R</t>
+  </si>
+  <si>
+    <t>https://www.carexpert.com.au/car-news/2021-toyota-hiace-price-and-specs Hiace has V6 and turbo. Don't play play! -R</t>
+  </si>
+  <si>
+    <t>used for emphasis</t>
+  </si>
+  <si>
+    <t>my subaru got all wheel drive also don’t play</t>
+  </si>
+  <si>
+    <t>my subaru also has all wheel drive, also don't play</t>
+  </si>
+  <si>
+    <t>but iirc singapore only got the 2.0 2.5 and 3.0s</t>
+  </si>
+  <si>
+    <t>but iirc, singapore only has the 2.0 2.5 and 3.0s</t>
+  </si>
+  <si>
+    <t>Everyday I learn something new from you sir. The other day was the auto FD2R  today is V8 hiace😂-R</t>
+  </si>
+  <si>
+    <t>Mr Rebecca  don’t make us sad with these prices leh-a</t>
+  </si>
+  <si>
+    <t>Mr Rebecca, don't make us sad with these prices.</t>
+  </si>
+  <si>
+    <t>add emphasis but makes the sentence seem less direct</t>
+  </si>
+  <si>
+    <t>so how heavy are ur enkeis</t>
+  </si>
+  <si>
+    <t>so how heavy are your enkeis?</t>
+  </si>
+  <si>
+    <t>okay but can it drive faster than an EVO 9? No. Neither can a WRX STI</t>
+  </si>
+  <si>
+    <t>got the same limiter installed in the hiace as your volvo</t>
+  </si>
+  <si>
+    <t>the hiace and your volvo have the same limiter installed</t>
+  </si>
+  <si>
+    <t>Wrong. R for “rofl” reading the things we say</t>
+  </si>
+  <si>
+    <t>Wrong. R for "rofl" while reading the things we say.</t>
+  </si>
+  <si>
+    <t>I agree with Mr Anwo  don't make us sad please Mr Rebecca-A²</t>
+  </si>
+  <si>
+    <t>I agree with Mr Anwo. DOn't make us sad please, Mr Rebecca.</t>
+  </si>
+  <si>
+    <t>We are all learning! I learn from@shaneeeeeeeeeeeeeand@Jingxunneveryday</t>
+  </si>
+  <si>
+    <t>subaru does too  just that it goes by mood</t>
+  </si>
+  <si>
+    <t>subaru does too. just that it goes by mood.</t>
+  </si>
+  <si>
+    <t>oi i learn more from you then i did in secondary school mannn</t>
+  </si>
+  <si>
+    <t>oh, i learnt more from you than i did in secondary school.</t>
+  </si>
+  <si>
+    <t>Mr Arnav  I give you A for effort-a</t>
+  </si>
+  <si>
+    <t>HAHAHA pls i learn from you too🫶🫶</t>
+  </si>
+  <si>
+    <t>HAHAHA please. I learn from you too</t>
+  </si>
+  <si>
+    <t>You take the world by surprise everyday Pak bro-a</t>
+  </si>
+  <si>
+    <t>You take the world by surprise everyday, Pak bro</t>
+  </si>
+  <si>
+    <t>the fact that it was cvt man hahahaha</t>
+  </si>
+  <si>
+    <t>the fact that it was cvt, man, hahahaha</t>
+  </si>
+  <si>
+    <t>cant imagine the rubberbanding while vtec opens</t>
+  </si>
+  <si>
+    <t>OOF. That was harsh man😰- R</t>
+  </si>
+  <si>
+    <t>OOF. That was harsh, man.</t>
+  </si>
+  <si>
+    <t>now we know rachel is young because she says oof</t>
+  </si>
+  <si>
+    <t>But like i was saying  Most sti bl0w up arnd that range</t>
+  </si>
+  <si>
+    <t>But, like i was saying, most sti blow up around that range</t>
+  </si>
+  <si>
+    <t>But not too young because oof is late millennial early generation z terminology-A²</t>
+  </si>
+  <si>
+    <t>HAHAHA i also want to laugh and cry man</t>
+  </si>
+  <si>
+    <t>HAHAHA. I also want to laugh and cry, man</t>
+  </si>
+  <si>
+    <t>most of the COE STI all rebuilt</t>
+  </si>
+  <si>
+    <t>most of the COE STI were all rebuilt</t>
+  </si>
+  <si>
+    <t>bro  mine not even sti hahahaha</t>
+  </si>
+  <si>
+    <t>bro, mine is not even sti, hahahaha</t>
+  </si>
+  <si>
+    <t>For obvious reason because someone misused that word before🙂-R</t>
+  </si>
+  <si>
+    <t>For obvious reasons, because someone misused that word before</t>
+  </si>
+  <si>
+    <t>But in the car world we all install bl0w off valves one leh-a</t>
+  </si>
+  <si>
+    <t>But in the car world, we all install blow off valves</t>
+  </si>
+  <si>
+    <t>for emphasis, and express a slight questioning undertone</t>
+  </si>
+  <si>
+    <t>i hear hiace got a lot</t>
+  </si>
+  <si>
+    <t>i hear hiace has a lot</t>
+  </si>
+  <si>
+    <t>I petition to have the word reinstated-a</t>
+  </si>
+  <si>
+    <t>Don’t try to bluff me leh. Car guys will use the term BOV😉-R</t>
+  </si>
+  <si>
+    <t>Don't try to bluff me. Car guys will use the term BOV</t>
+  </si>
+  <si>
+    <t>indicate emphasis but also soften the statement</t>
+  </si>
+  <si>
+    <t>Did you have a blew off valve-A²</t>
+  </si>
+  <si>
+    <t>Did you have a blown off valve?</t>
+  </si>
+  <si>
+    <t>no  he had a blown off valve</t>
+  </si>
+  <si>
+    <t>no, he had a blown off valve</t>
+  </si>
+  <si>
+    <t>That’s only for the cool ones. Geeky ones like me still like to say full-a</t>
+  </si>
+  <si>
+    <t>bet y’all weren’t expecting this mwahahaha</t>
+  </si>
+  <si>
+    <t>is it u try Mr X technique</t>
+  </si>
+  <si>
+    <t>did you try Mr X technique?</t>
+  </si>
+  <si>
+    <t>i drive it like how a subaru driver i supposed to drive it</t>
+  </si>
+  <si>
+    <t>i drive it like how a subaru drive is supposed to drive it</t>
+  </si>
+  <si>
+    <t>i paid for the speedo ofc must use</t>
+  </si>
+  <si>
+    <t>i paid for the speedo, of course must use</t>
+  </si>
+  <si>
+    <t>The cool ones like those wearing ADLV  or Essentials. Take pic by cars looking down or far away one. I’m that group wear FBT and polo shirt tuck in with flip flops running after loud cars one on my off days.-a</t>
+  </si>
+  <si>
+    <t>Its okay  each one of us appreciate cars and its build in our own ways! That’s what this Telegram group is for - to bring like minded individuals together!As for me  Im the kind that likes to sit by my car and wonder what mod/part/accessory to buy next😂-R</t>
   </si>
   <si>
     <t>Name</t>
@@ -17695,6 +17986,1327 @@
         <v>12</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="1">
+        <v>45779.43417769676</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1">
+        <v>45779.434727604166</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H546" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1">
+        <v>45779.4348940625</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H547" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1">
+        <v>45779.43529055556</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H548" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1">
+        <v>45779.43544259259</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H549" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1">
+        <v>45779.43555729167</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1">
+        <v>45779.43579221064</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H551" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1">
+        <v>45779.43616728009</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H552" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I552" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1">
+        <v>45779.43623548611</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1">
+        <v>45779.43664672454</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H554" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>45779.43673327546</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H555" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>45779.43702479167</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H556" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I556" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45779.43724980324</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H557" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45779.43741895833</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H558" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45779.437484317124</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H559" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45779.43798990741</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I560" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45779.43842141204</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H561" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45779.43954252315</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45779.440036886575</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H563" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45779.44049314815</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45779.440701203705</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45779.440755393516</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H566" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45779.44087554398</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45779.4411778125</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45779.44144388889</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1">
+        <v>45779.4416675463</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H570" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1">
+        <v>45779.44181440972</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1">
+        <v>45779.44196177083</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H572" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1">
+        <v>45779.4420493287</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1">
+        <v>45779.442510243054</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H574" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1">
+        <v>45779.44259341435</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H575" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1">
+        <v>45779.44276184028</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G576" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H576" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1">
+        <v>45779.44286188658</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G577" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H577" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1">
+        <v>45779.443121516204</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G578" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H578" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1">
+        <v>45779.443256956016</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G579" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H579" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1">
+        <v>45779.443399826385</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G580" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H580" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1">
+        <v>45779.44352752315</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G581" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H581" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1">
+        <v>45779.44385603009</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G582" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H582" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I582" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1">
+        <v>45779.44397270834</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H583" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1">
+        <v>45779.44406071759</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G584" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H584" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1">
+        <v>45779.44441121528</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H585" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I585" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1">
+        <v>45779.44457719907</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1">
+        <v>45779.444867708335</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H587" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1">
+        <v>45779.44501232639</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G588" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H588" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1">
+        <v>45779.445064803236</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H589" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1">
+        <v>45779.44515137732</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1">
+        <v>45779.44531398149</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1">
+        <v>45779.44546120371</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G592" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H592" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1">
+        <v>45779.44557565972</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H593" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1">
+        <v>45779.44562021991</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G594" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17718,16 +19330,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1027</v>
+        <v>1124</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1028</v>
+        <v>1125</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1029</v>
+        <v>1126</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1030</v>
+        <v>1127</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -17740,14 +19352,14 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45778.41081</v>
+        <v>45779.44562</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1031</v>
+        <v>1128</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -17765,7 +19377,7 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45778.41081</v>
+        <v>45779.44562</v>
       </c>
     </row>
     <row r="4">
@@ -17779,7 +19391,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45778.41081</v>
+        <v>45779.44562</v>
       </c>
     </row>
     <row r="5">
@@ -17793,7 +19405,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45778.41081</v>
+        <v>45779.44562</v>
       </c>
     </row>
     <row r="6">
@@ -17807,7 +19419,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45778.41081</v>
+        <v>45779.44562</v>
       </c>
     </row>
     <row r="7">
@@ -17821,7 +19433,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45778.41081</v>
+        <v>45779.44562</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="1235">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -3386,6 +3386,321 @@
     <t>Its okay  each one of us appreciate cars and its build in our own ways! That’s what this Telegram group is for - to bring like minded individuals together!As for me  Im the kind that likes to sit by my car and wonder what mod/part/accessory to buy next😂-R</t>
   </si>
   <si>
+    <t>2025-05-03T14-11-25-028Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages33_part8.csv</t>
+  </si>
+  <si>
+    <t>Just wait and the time will come</t>
+  </si>
+  <si>
+    <t>not too long ago alot of such wechat insider calls</t>
+  </si>
+  <si>
+    <t>not too long ago, there was a lot of such wechat insider calls</t>
+  </si>
+  <si>
+    <t>shhhhhhhhh i use chiobu pic one</t>
+  </si>
+  <si>
+    <t>shhhhhhhhh i used a chiopu picture</t>
+  </si>
+  <si>
+    <t>for emphasis, and soften the tone</t>
+  </si>
+  <si>
+    <t>Aiyo Friday almost ending le you still want special? 😆</t>
+  </si>
+  <si>
+    <t>Aiyo, Friday is almost ending, and you still want special?</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>i nvr catch any special today</t>
+  </si>
+  <si>
+    <t>i did not catch any special today</t>
+  </si>
+  <si>
+    <t>lols giving VP a miss le</t>
+  </si>
+  <si>
+    <t>lols giving VP a miss</t>
+  </si>
+  <si>
+    <t>already, would be doing that</t>
+  </si>
+  <si>
+    <t>i let go that day 455</t>
+  </si>
+  <si>
+    <t>the day i let go was 455</t>
+  </si>
+  <si>
+    <t>Q&amp;M dental i also got in 475....covid-test swab for next week</t>
+  </si>
+  <si>
+    <t>i also got in 475 at Q&amp;M dental... covid-test swab for next week</t>
+  </si>
+  <si>
+    <t>Your freezer has so many stock in inventory. 😆</t>
+  </si>
+  <si>
+    <t>waiting for last hour push  and call it the day</t>
+  </si>
+  <si>
+    <t>waiting for the last hour push and called it a day</t>
+  </si>
+  <si>
+    <t>Actually Q&amp;M dental didnt know much as compare to Biolidics...both COVID-Test swab</t>
+  </si>
+  <si>
+    <t>VP will be annoucing result today</t>
+  </si>
+  <si>
+    <t>VP will be announcing results today</t>
+  </si>
+  <si>
+    <t>honestly  you take stock tips from a random person on wechat  you get what you deserve</t>
+  </si>
+  <si>
+    <t>honestly, you took stock tips from a random person on wechat, so you get what you deserved</t>
+  </si>
+  <si>
+    <t>Maciam stock split 1 to 100 sia</t>
+  </si>
+  <si>
+    <t>this is a stock split of 1 to 100!</t>
+  </si>
+  <si>
+    <t>express surprise, puts emphasis</t>
+  </si>
+  <si>
+    <t>actually i think Q&amp;M swap test is pcr one so in use</t>
+  </si>
+  <si>
+    <t>actually, I think Q&amp;M swap test is the pcr one, so it is in use</t>
+  </si>
+  <si>
+    <t>Wei Yuan still trading  worth throwing $100 at it and seeing what happens? 😄</t>
+  </si>
+  <si>
+    <t>Wei Yuan is still trading. worth throwing $100 at it and seeing what happens?</t>
+  </si>
+  <si>
+    <t>You mean govt use Q&amp;M ones?</t>
+  </si>
+  <si>
+    <t>Did you mean the government used Q&amp;M ones?</t>
+  </si>
+  <si>
+    <t>99% sure! Just grab some shares before it rallys.</t>
+  </si>
+  <si>
+    <t>99% sure! Just grab some shares before it rallies.</t>
+  </si>
+  <si>
+    <t>Yah i was thinking that too lol</t>
+  </si>
+  <si>
+    <t>hmm my news just based on april period</t>
+  </si>
+  <si>
+    <t>hmm my news is just based on the april period.</t>
+  </si>
+  <si>
+    <t>yup agree. chiobu say one must reliable</t>
+  </si>
+  <si>
+    <t>yup agree. it must be reliable because chiobu said so</t>
+  </si>
+  <si>
+    <t>Yaa till 4 then drop woahh</t>
+  </si>
+  <si>
+    <t>Yaa till 4, then dropped, woahh</t>
+  </si>
+  <si>
+    <t>How they even q at 0.23?</t>
+  </si>
+  <si>
+    <t>How do they even queue at 0.23?</t>
+  </si>
+  <si>
+    <t>Last time sis dj also got chiobu behind her name</t>
+  </si>
+  <si>
+    <t>When my sis dj-ed in the past, she also had chiobu behind her name</t>
+  </si>
+  <si>
+    <t>How nice if short from $4</t>
+  </si>
+  <si>
+    <t>How nice if i had short from $4</t>
+  </si>
+  <si>
+    <t>TG almost everyday got buyback and buyback news ... then sure win la</t>
+  </si>
+  <si>
+    <t>TG has buyback and buyback news almost everyday... it is a sure win</t>
+  </si>
+  <si>
+    <t>thats why she got $200 special</t>
+  </si>
+  <si>
+    <t>thats why she got the $200 special</t>
+  </si>
+  <si>
+    <t>then u monitoring closely and run with them</t>
+  </si>
+  <si>
+    <t>then you should monitor closely and run with them</t>
+  </si>
+  <si>
+    <t>Sis dj just joking around ah</t>
+  </si>
+  <si>
+    <t>Sis dj. I was just joking around.</t>
+  </si>
+  <si>
+    <t>express informality</t>
+  </si>
+  <si>
+    <t>Sis dj I defended you le</t>
+  </si>
+  <si>
+    <t>Sis dj. I had defended you.</t>
+  </si>
+  <si>
+    <t>Dump so many shares at once sure got problem leh</t>
+  </si>
+  <si>
+    <t>If so many shares were dumped at once, there is surely a problem</t>
+  </si>
+  <si>
+    <t>emphasize a statement and soften a doubt</t>
+  </si>
+  <si>
+    <t>We just playing with your previous nick hahaha</t>
+  </si>
+  <si>
+    <t>We were just playing with your previous nick hahaha</t>
+  </si>
+  <si>
+    <t>Of course she here la that's why I ask you to watch your words</t>
+  </si>
+  <si>
+    <t>Of course she's here. That's why I asked you to watch your words.</t>
+  </si>
+  <si>
+    <t>Johnhttps://www.theedgesingapore.com/news/covid-19/qm-subsidiary-launches-clinical-lab-testing-covid-19What I see so far for covid test kit for q&amp;m</t>
+  </si>
+  <si>
+    <t>U sabo me copy.paste to her</t>
+  </si>
+  <si>
+    <t>You sabotaged me by copying and pasting to her</t>
+  </si>
+  <si>
+    <t>they got license to do the testing already</t>
+  </si>
+  <si>
+    <t>they have the license to do the testing already</t>
+  </si>
+  <si>
+    <t>Why yall suddenly go buy weiyuan hahahaha</t>
+  </si>
+  <si>
+    <t>Why did yall buy weiyuan all of a sudden? hahahaha</t>
+  </si>
+  <si>
+    <t>Johnwhat tgt price for abundance ah?</t>
+  </si>
+  <si>
+    <t>John, what target price do you have for abundance?</t>
+  </si>
+  <si>
+    <t>express informality, in a question</t>
+  </si>
+  <si>
+    <t>not too sure will go up or not siaa</t>
+  </si>
+  <si>
+    <t>not to sure whether it will go up or not</t>
+  </si>
+  <si>
+    <t>emphasis, express exasperation</t>
+  </si>
+  <si>
+    <t>That's jamie but I defended you le sis</t>
+  </si>
+  <si>
+    <t>That's jamie, but I had defended you, sis</t>
+  </si>
+  <si>
+    <t>Ok pass  or.u hope another drama</t>
+  </si>
+  <si>
+    <t>Ok, I'll pass. Or you hope to have another drama?</t>
+  </si>
+  <si>
+    <t>Only making fun of your chiobu Nick last time</t>
+  </si>
+  <si>
+    <t>The last time, I was only making fun of your chiobu, Nick</t>
+  </si>
+  <si>
+    <t>how can I get hkd into vickers 😖</t>
+  </si>
+  <si>
+    <t>how can i get hkd into vickers?</t>
+  </si>
+  <si>
+    <t>Wah really go buy Weiyuan 😂</t>
+  </si>
+  <si>
+    <t>Wow, really went to buy Weiyuan!</t>
+  </si>
+  <si>
+    <t>Can use FSM to buy hk stock</t>
+  </si>
+  <si>
+    <t>You can use FSM to buy hk stock</t>
+  </si>
+  <si>
+    <t>at least thursday not red again</t>
+  </si>
+  <si>
+    <t>at least thursday is not red again</t>
+  </si>
+  <si>
+    <t>Michael u buy 5 lots how much yr brokerage?</t>
+  </si>
+  <si>
+    <t>Michael, how much is your brokerage for the five lots?</t>
+  </si>
+  <si>
+    <t>no one talking about lippo mall trust?</t>
+  </si>
+  <si>
+    <t>is no one talking about lippo mall trust?</t>
+  </si>
+  <si>
+    <t>Wow u vested so much but u aren’t following the news?</t>
+  </si>
+  <si>
+    <t>wow, you vested so much, but you aren't following the news?</t>
+  </si>
+  <si>
+    <t>I also wonder why this share why plunge like that</t>
+  </si>
+  <si>
+    <t>I also wondered why this share plunged like that</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -3399,6 +3714,9 @@
   </si>
   <si>
     <t xml:space="preserve">10% amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total lines translated </t>
   </si>
 </sst>
 </file>
@@ -19307,6 +19625,1345 @@
         <v>12</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="1">
+        <v>45780.42469201389</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G595" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1">
+        <v>45780.42484659722</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H596" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1">
+        <v>45780.42518342593</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H597" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I597" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1">
+        <v>45780.42549140046</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I598" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1">
+        <v>45780.42560994213</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>45780.42601265047</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I600" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>45780.42614697917</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>45780.42643627315</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>45780.426484490745</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H603" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>45780.42661633102</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H604" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>45780.42668725694</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H605" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>45780.4267977662</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G606" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H606" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>45780.426991458335</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H607" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>45780.427389143515</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H608" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I608" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>45780.42762086805</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G609" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H609" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>45780.42780305556</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G610" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H610" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>45780.42794903935</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H611" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>45780.428203483796</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H612" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>45780.4282841088</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H613" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>45780.428416215276</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>45780.42864109954</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G615" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H615" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>45780.42877909722</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H616" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>45780.428886458336</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G617" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H617" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>45780.429211574075</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H618" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>45780.42938927084</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G619" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H619" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>45780.42969888889</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G620" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H620" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I620" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>45780.42982376157</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H621" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>45780.430019224535</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H622" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>45780.43022918982</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G623" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H623" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I623" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>45780.43041861111</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G624" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H624" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I624" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>45780.43105033565</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G625" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H625" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I625" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>45780.431200300925</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G626" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H626" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>45780.43143486111</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H627" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I627" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>45780.431495150464</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H628" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>45780.43174119213</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H629" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>45780.4318640625</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G630" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H630" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>45780.43210356482</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H631" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1">
+        <v>45780.43240409722</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H632" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I632" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1">
+        <v>45780.43271474537</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H633" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I633" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1">
+        <v>45780.43290836806</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I634" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1">
+        <v>45780.43330657408</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H635" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I635" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1">
+        <v>45780.433601550925</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H636" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1">
+        <v>45780.43376194444</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G637" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H637" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1">
+        <v>45780.43388424769</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H638" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1">
+        <v>45780.43405560185</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G639" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H639" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1">
+        <v>45780.43421013889</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G640" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H640" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1">
+        <v>45780.43443165509</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G641" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H641" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1">
+        <v>45780.434925567126</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H642" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1">
+        <v>45780.43522773148</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H643" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1">
+        <v>45780.43536319444</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H644" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19330,16 +20987,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1124</v>
+        <v>1229</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1125</v>
+        <v>1230</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1126</v>
+        <v>1231</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1127</v>
+        <v>1232</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -19356,10 +21013,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45779.44562</v>
+        <v>45780.43536</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1128</v>
+        <v>1233</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -19373,11 +21030,18 @@
       </c>
       <c r="B3" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45779.44562</v>
+        <v>45780.43536</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(B2:B7)</f>
+        <v>927</v>
       </c>
     </row>
     <row r="4">
@@ -19391,7 +21055,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45779.44562</v>
+        <v>45780.43536</v>
       </c>
     </row>
     <row r="5">
@@ -19405,7 +21069,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45779.44562</v>
+        <v>45780.43536</v>
       </c>
     </row>
     <row r="6">
@@ -19419,7 +21083,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45779.44562</v>
+        <v>45780.43536</v>
       </c>
     </row>
     <row r="7">
@@ -19433,7 +21097,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45779.44562</v>
+        <v>45780.43536</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="1317">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -3699,6 +3699,252 @@
   </si>
   <si>
     <t>I also wondered why this share plunged like that</t>
+  </si>
+  <si>
+    <t>2025-05-05T13-18-40-177Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages713_part4.csv</t>
+  </si>
+  <si>
+    <t>Ya.. don care 🇸🇬REITs is a uptrend📈 or a dntrend📉 stks.. I only knowalmost above &gt;90% 🇸🇬REITs all their price r below👇 200Dma..so attractive.. and my only regrets not enough bullets to 🔫fired up more😂</t>
+  </si>
+  <si>
+    <t>Ya..I don't care 🇸🇬REITs is on an uptrend📈 or a dntrend📉 stks.. I only know that almost above 90% of 🇸🇬REITs are all their price r below👇 200Dma..so attractive.. and my only regret is that I do not have enough bullets to 🔫fired up more😂</t>
+  </si>
+  <si>
+    <t>Eg. 👨🏼‍🎨ART 🎭🎨Red line is 200Days Simple Moving Avg.</t>
+  </si>
+  <si>
+    <t>Eg. 👨🏼‍🎨ART 🎭🎨Red line is  Simple Moving Avg over 200Day.</t>
+  </si>
+  <si>
+    <t>finally you are on the Long Team bro.</t>
+  </si>
+  <si>
+    <t>finally, you are on the Long Team bro.</t>
+  </si>
+  <si>
+    <t>@wantomeecare to call HLH BBs to come</t>
+  </si>
+  <si>
+    <t>Wah.. TSLA chiong up sia.. lol</t>
+  </si>
+  <si>
+    <t>Wow. TSLA is shooting up.. lol</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>why YZJ BB havent' clear 110 sia?</t>
+  </si>
+  <si>
+    <t>why  haven't YZJ BB clear 110?</t>
+  </si>
+  <si>
+    <t>I thot going to rebound last nite. Today shoudl chowtah the shortists.</t>
+  </si>
+  <si>
+    <t>I thot that it was going to rebound last nite. Today should burn the shortists.</t>
+  </si>
+  <si>
+    <t>Yesterday red lah US indices..but probably can green🍏 tonight 🤣</t>
+  </si>
+  <si>
+    <t>Yesterday US indices is red ..but probably can be green🍏 tonight 🤣</t>
+  </si>
+  <si>
+    <t>Now Future indices either appeared bullish engulfing or 旭日东升pattern😜</t>
+  </si>
+  <si>
+    <t>I meant I thot lah.. TSLA up 2% premarket...😄</t>
+  </si>
+  <si>
+    <t>I meant I thot that it was the case.. TSLA is up 2% premarket...😄</t>
+  </si>
+  <si>
+    <t>Top Grove going down 0.192 alr</t>
+  </si>
+  <si>
+    <t>Top Grove is going under 0.192 alr</t>
+  </si>
+  <si>
+    <t>lucky cut earlier on. if not damage crazy</t>
+  </si>
+  <si>
+    <t>luckily I have cut it earlier on. otherwise there will be crazy damage</t>
+  </si>
+  <si>
+    <t>So many days din see squeeze liao</t>
+  </si>
+  <si>
+    <t>haven't seen any squeeze since so many days ago</t>
+  </si>
+  <si>
+    <t>PaaP all ki.. probably tmr continue?</t>
+  </si>
+  <si>
+    <t>FJ  nice flush to buy 24 with MA support and pre-result base support  bounce tgt 28-30</t>
+  </si>
+  <si>
+    <t>All can come now. Nippecraft leading with power. pennies have a leader now. let s go.</t>
+  </si>
+  <si>
+    <t>All can now come. Nippecraft is leading with power. pennies have a leader now. let's go.</t>
+  </si>
+  <si>
+    <t>ZX fruits can come now. very stable today. BBs its time. lets see you do that thing you do</t>
+  </si>
+  <si>
+    <t>2025-05-05T13-30-09-437Z</t>
+  </si>
+  <si>
+    <t>inputs/SGExamsChat_messages759_part9.csv</t>
+  </si>
+  <si>
+    <t>same actually  like i want to see my grades</t>
+  </si>
+  <si>
+    <t>same actually, i would want to see my grades</t>
+  </si>
+  <si>
+    <t>i just wanna see my math tbh</t>
+  </si>
+  <si>
+    <t>how did i get an E</t>
+  </si>
+  <si>
+    <t>As someone who helped mark sch exam scripts before  it's a pain to read illegible handwriting.The only reason why school teachers endure it is because don't want students to come in droves to ask for marks</t>
+  </si>
+  <si>
+    <t>As someone who have helped to mark sch exam scripts previously, it's a pain to read illegible handwriting. The only reason why school teachers endure it is because they don't want students to come in droves to ask for more marks</t>
+  </si>
+  <si>
+    <t>i like how we just wanna see the fucked up ones</t>
+  </si>
+  <si>
+    <t>but Cambridge don't have such problems</t>
+  </si>
+  <si>
+    <t>Tot it was 2 markers in 1 room if cannot they flag a chief marker if all 3 say cannot then that word is disregarded</t>
+  </si>
+  <si>
+    <t>Tot it was 2 markers in 1 room if do not accept, they flag a chief marker and if all 3 says that this is not acceptable then that word is disregarded</t>
+  </si>
+  <si>
+    <t>So u gotta be so bad 3 random teachers cannot read it at all</t>
+  </si>
+  <si>
+    <t>So u gotta be so bad that 3 random teachers cannot read it at all</t>
+  </si>
+  <si>
+    <t>1 of my cher said cambridge want keep it hidden becus scared of legal stuff lol</t>
+  </si>
+  <si>
+    <t>1 of my teacher has said that cambridge wants to keep it hidden because they are scared of the legal stuff lol</t>
+  </si>
+  <si>
+    <t>i'm at the point i get annoyed at my own writing if it's ugly</t>
+  </si>
+  <si>
+    <t>i'm at the point whereby i get annoyed at my own writing if it's ugly</t>
+  </si>
+  <si>
+    <t>unless i'm just trudging through calculations</t>
+  </si>
+  <si>
+    <t>at least u got into NTU</t>
+  </si>
+  <si>
+    <t>i want to see my econs</t>
+  </si>
+  <si>
+    <t>i want to see my econs paper</t>
+  </si>
+  <si>
+    <t>oh yea i will keep rewriting if it is ugly</t>
+  </si>
+  <si>
+    <t>you honestly think the 2 markers who are colleagues rather go through more pain for a stranger who will never get back the paper to see?</t>
+  </si>
+  <si>
+    <t>you honestly think that the 2 markers who are colleagues would rather go through more pain for a stranger who will never get to see the paper?</t>
+  </si>
+  <si>
+    <t>this is if i’m scribbling out to check so idc the handwriting</t>
+  </si>
+  <si>
+    <t>this is if i’m scribbling out to check so idc about the handwriting</t>
+  </si>
+  <si>
+    <t>i wonder what like stuff they gotta do differently on a day to day basis</t>
+  </si>
+  <si>
+    <t>i wonder what stuff they gotta do differently on a day to day basis</t>
+  </si>
+  <si>
+    <t>By right I think that's what they suppose to do la.. by left they can just take a dartboard and do the scores that way and no one would know</t>
+  </si>
+  <si>
+    <t>By right, I think that's what they suppose to do.. but unofficially, they can just take a dartboard to allocate the scores and no one would know</t>
+  </si>
+  <si>
+    <t>In Humanities for Uni we fix that problem once and for all</t>
+  </si>
+  <si>
+    <t>In Humanities, for Uni, we have fixed that problem once and for all</t>
+  </si>
+  <si>
+    <t>imagine in their shoes and you have another 100 scripts waiting</t>
+  </si>
+  <si>
+    <t>imagine being in their shoes and you have another 100 scripts waiting</t>
+  </si>
+  <si>
+    <t>in uni even for tests bc they just give as much paper as i want  i just write v big</t>
+  </si>
+  <si>
+    <t>in uni even for tests bc they would just give as much paper as i want and i would just have a large handwriting</t>
+  </si>
+  <si>
+    <t>It's called typing out your essay in Times New Roman</t>
+  </si>
+  <si>
+    <t>aye can cambridge markers work in normal schools afterwards?</t>
+  </si>
+  <si>
+    <t>untidy is ok  bordering on illegible not ok</t>
+  </si>
+  <si>
+    <t>untidy is ok bordering on illegible is not ok</t>
+  </si>
+  <si>
+    <t>Teacher write this if you did not complete paper "Cambridge does not award marks based on tidyness"</t>
+  </si>
+  <si>
+    <t>Teachers write this if you did not complete paper "Cambridge does not award marks based on tidiness"</t>
+  </si>
+  <si>
+    <t>but combi sci practical are marked by local markers starting last year</t>
+  </si>
+  <si>
+    <t>but combi sci practical examinations will be marked by the local markers starting last year</t>
+  </si>
+  <si>
+    <t>Some are quite dedicated also I am pretty sure these days they would use algorithms to transcribe the words through scanner liao</t>
+  </si>
+  <si>
+    <t>Some are quite dedicated as well and I am pretty sure these days, they would use algorithms to transcribe the words through scanners</t>
+  </si>
+  <si>
+    <t>has already happened</t>
+  </si>
+  <si>
+    <t>That's what we do for logistics of mailing</t>
+  </si>
+  <si>
+    <t>That's what we would have to do for logistics of mailing</t>
   </si>
   <si>
     <t>Name</t>
@@ -20964,6 +21210,1182 @@
         <v>12</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1">
+        <v>45782.389209409725</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H645" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1">
+        <v>45782.38954496528</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1">
+        <v>45782.38970946759</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H647" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1">
+        <v>45782.389834340276</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1">
+        <v>45782.39011988426</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I649" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1">
+        <v>45782.390452685184</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H650" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I650" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1">
+        <v>45782.39195881944</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H651" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1">
+        <v>45782.39228075232</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G652" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H652" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1">
+        <v>45782.39247266203</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G653" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H653" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1">
+        <v>45782.392745289355</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H654" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1">
+        <v>45782.392984502316</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G655" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H655" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1">
+        <v>45782.39347048611</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G656" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H656" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1">
+        <v>45782.394119895835</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G657" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H657" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I657" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1">
+        <v>45782.39450119213</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H658" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1">
+        <v>45782.39468075232</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H659" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1">
+        <v>45782.39520269676</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G660" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H660" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1">
+        <v>45782.39581123843</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G661" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H661" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1">
+        <v>45782.396170844906</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G662" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H662" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1">
+        <v>45782.396294687496</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G663" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H663" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1">
+        <v>45782.39636596065</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G664" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H664" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1">
+        <v>45782.39697803241</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G665" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H665" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1">
+        <v>45782.39709475695</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E666" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H666" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1">
+        <v>45782.39717203703</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F667" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H667" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1">
+        <v>45782.39812892361</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H668" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1">
+        <v>45782.39833091435</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G669" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H669" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1">
+        <v>45782.399730289355</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G670" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H670" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1">
+        <v>45782.40000292824</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G671" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H671" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1">
+        <v>45782.40021266203</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G672" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H672" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1">
+        <v>45782.40031660879</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F673" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G673" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H673" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1">
+        <v>45782.40038828704</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G674" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H674" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1">
+        <v>45782.4004946875</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G675" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H675" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1">
+        <v>45782.401423981486</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H676" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1">
+        <v>45782.40215299769</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G677" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H677" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1">
+        <v>45782.40232258102</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E678" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G678" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H678" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1">
+        <v>45782.40325261574</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E679" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F679" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H679" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I679" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1">
+        <v>45782.40363927084</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E680" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F680" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G680" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H680" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1">
+        <v>45782.40378516204</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E681" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F681" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H681" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1">
+        <v>45782.404848680555</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E682" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F682" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G682" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H682" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1">
+        <v>45782.40495773148</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E683" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F683" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G683" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H683" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1">
+        <v>45782.40510393518</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E684" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G684" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H684" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1">
+        <v>45782.40523371528</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F685" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G685" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H685" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1">
+        <v>45782.40544773148</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G686" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H686" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1">
+        <v>45782.40571826389</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E687" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G687" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H687" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1">
+        <v>45782.40608097222</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E688" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G688" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H688" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I688" s="2" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1">
+        <v>45782.40639798611</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G689" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H689" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20987,16 +22409,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1229</v>
+        <v>1311</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1230</v>
+        <v>1312</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1231</v>
+        <v>1313</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1232</v>
+        <v>1314</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -21013,10 +22435,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45780.43536</v>
+        <v>45782.4064</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1233</v>
+        <v>1315</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -21034,14 +22456,14 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45780.43536</v>
+        <v>45782.4064</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1234</v>
+        <v>1316</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(B2:B7)</f>
-        <v>927</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4">
@@ -21055,7 +22477,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45780.43536</v>
+        <v>45782.4064</v>
       </c>
     </row>
     <row r="5">
@@ -21069,7 +22491,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45780.43536</v>
+        <v>45782.4064</v>
       </c>
     </row>
     <row r="6">
@@ -21079,11 +22501,11 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45780.43536</v>
+        <v>45782.4064</v>
       </c>
     </row>
     <row r="7">
@@ -21093,11 +22515,11 @@
       </c>
       <c r="B7" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45780.43536</v>
+        <v>45782.4064</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5054" uniqueCount="1357">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -3945,6 +3945,126 @@
   </si>
   <si>
     <t>That's what we would have to do for logistics of mailing</t>
+  </si>
+  <si>
+    <t>how they even vet these markers anyways</t>
+  </si>
+  <si>
+    <t>how do they even vet these markers anyway</t>
+  </si>
+  <si>
+    <t>they are school teachers who are trained.</t>
+  </si>
+  <si>
+    <t>do they have to live on a campus or smth oso</t>
+  </si>
+  <si>
+    <t>do they have to live on a campus or smth too</t>
+  </si>
+  <si>
+    <t>Just fix the issue using scanners and they transcribed it for us automatically then if cmi it goes into the bin for review</t>
+  </si>
+  <si>
+    <t>Just fix the issue by using scanners and they would transcrib it for us automatically and if it is unacceptable then it goes into the bin for review</t>
+  </si>
+  <si>
+    <t>wldnt schs with these teachers have an advantage then?</t>
+  </si>
+  <si>
+    <t>That's pinning the hope on hitting a dedicated onevs just making it more legible</t>
+  </si>
+  <si>
+    <t>That's pinning the hope on hitting a dedicated one vs just making it more legible</t>
+  </si>
+  <si>
+    <t>illegible handwriting is just not giving the examiners the respect they need</t>
+  </si>
+  <si>
+    <t>My point is that I legit think they just scan it and the system autotranscribes</t>
+  </si>
+  <si>
+    <t>My point is that I legitimately think that they would just scan it and the system automatically transcribes</t>
+  </si>
+  <si>
+    <t>should be teachers from many different schools. So still ok</t>
+  </si>
+  <si>
+    <t>should be teachers from many different schools. So it's still ok</t>
+  </si>
+  <si>
+    <t>The only exception is for the practical papers cuz legit the reason is the chemicals on the paper does not allow for it to be scanned</t>
+  </si>
+  <si>
+    <t>The only exception is for the practical examination papers cuz legitimately the reason is that the chemicals on the paper does not allow for it to be scanned</t>
+  </si>
+  <si>
+    <t>there was a documentary on it but for Oxford version of O lvlthey didn't transcribe it</t>
+  </si>
+  <si>
+    <t>there was a documentary on it but for Oxford version of O lvl, they didn't transcribe it</t>
+  </si>
+  <si>
+    <t>for 99% of scripts  generally legible</t>
+  </si>
+  <si>
+    <t>for 99% of the scripts, they are generally legible</t>
+  </si>
+  <si>
+    <t>i tot my cher mentioned before papers are now scanned instead of physically transported</t>
+  </si>
+  <si>
+    <t>i tot that my cher mentioned previously that papers are now scanned instead of physically transported</t>
+  </si>
+  <si>
+    <t>cus of cases of papers lost during transit before</t>
+  </si>
+  <si>
+    <t>cus of the cases of the papers getting lost during transit previously</t>
+  </si>
+  <si>
+    <t>Or just use my mom’s ipad that she barely uses</t>
+  </si>
+  <si>
+    <t>recreation just use your mum's ipadif starting uni studies and using it for studying  recommend getting a new one</t>
+  </si>
+  <si>
+    <t>during recreation, just use your mum's ipad and if you are starting uni studies and using it for studying, then I would recommend getting a new one</t>
+  </si>
+  <si>
+    <t>Should be ig? I write like shit also they can read one so tbh I think one needs to just past the reasonable person standard</t>
+  </si>
+  <si>
+    <t>Should be ig? I write like shit as well but they can read one so tbh I think one needs to just past the reasonable person standard</t>
+  </si>
+  <si>
+    <t>As in u take your handwriting u go out and ask ppl if they can read it at random if cannot means u fucked up</t>
+  </si>
+  <si>
+    <t>As in u can randomly go on the streets and ask ppl if they can read it. If they cannot, that means u fucked up</t>
+  </si>
+  <si>
+    <t>I dunno if transcribing is a thing coz my cher was worried for me that cambridge cant read my ant-like handwriting💀💀 so she suggested i use ballpoint (which actually helped to get the words bigger)</t>
+  </si>
+  <si>
+    <t>I dunno if transcribing is a thing coz my teacher was worried for me that cambridge cant read my ant-like handwriting💀💀 so she suggested that i used ballpoint pen (which actually helped to get the words bigger)</t>
+  </si>
+  <si>
+    <t>Yep after the papers lost in train incident  but scanning wun make the legibility any better (if not maybe even worst lol)</t>
+  </si>
+  <si>
+    <t>Yep, after the incident where papers got lost in a train. But scanning won't make the legibility any better (maybe even worst lol)</t>
+  </si>
+  <si>
+    <t>doubt u wrote that badly.There are really bad ones. However  based on my understanding  most of these students just don't bother about grades.My handwriting isn't good too tbh. Just need to be legible</t>
+  </si>
+  <si>
+    <t>doubt u wrote it that badly.There are really bad ones. However, based on my understanding, most of these students just don't bother about grades.My handwriting isn't good too tbh. Just need it to be legible</t>
+  </si>
+  <si>
+    <t>I do know that scanning is a thing tho something like on screen reading as SEAB says it</t>
+  </si>
+  <si>
+    <t>I do know that scanning is a thing tho. Something like on screen reading as SEAB calls it</t>
   </si>
   <si>
     <t>Name</t>
@@ -22386,6 +22506,578 @@
         <v>12</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" s="1">
+        <v>45782.40669891203</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E690" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G690" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H690" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1">
+        <v>45782.40679936342</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E691" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F691" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G691" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H691" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1">
+        <v>45782.4068897338</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E692" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G692" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H692" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1">
+        <v>45782.40730078703</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F693" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G693" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H693" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1">
+        <v>45782.40740658565</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E694" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F694" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G694" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H694" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1">
+        <v>45782.40813553241</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G695" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H695" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1">
+        <v>45782.408366840275</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E696" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F696" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G696" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H696" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1">
+        <v>45782.40879094908</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E697" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F697" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G697" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H697" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1">
+        <v>45782.40897420139</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G698" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H698" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1">
+        <v>45782.409335115735</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E699" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G699" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H699" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1">
+        <v>45782.40956296296</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E700" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F700" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G700" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H700" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1">
+        <v>45782.4097690625</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G701" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H701" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1">
+        <v>45782.40993833334</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H702" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1">
+        <v>45782.41090271991</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G703" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H703" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1">
+        <v>45782.41113649306</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G704" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H704" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1">
+        <v>45782.41221775463</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G705" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H705" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1">
+        <v>45782.41246771991</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G706" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H706" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1">
+        <v>45782.41318856481</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G707" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H707" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1">
+        <v>45782.41373560185</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G708" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H708" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1">
+        <v>45782.41434754629</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G709" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H709" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1">
+        <v>45782.41500716435</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G710" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H710" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1">
+        <v>45782.41520887731</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G711" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H711" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22409,16 +23101,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1311</v>
+        <v>1351</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1312</v>
+        <v>1352</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1313</v>
+        <v>1353</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1314</v>
+        <v>1354</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -22435,10 +23127,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45782.4064</v>
+        <v>45782.41529</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1315</v>
+        <v>1355</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -22456,14 +23148,14 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45782.4064</v>
+        <v>45782.41529</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1316</v>
+        <v>1356</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(B2:B7)</f>
-        <v>1011</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4">
@@ -22477,7 +23169,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45782.4064</v>
+        <v>45782.41529</v>
       </c>
     </row>
     <row r="5">
@@ -22491,7 +23183,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45782.4064</v>
+        <v>45782.41529</v>
       </c>
     </row>
     <row r="6">
@@ -22501,11 +23193,11 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45782.4064</v>
+        <v>45782.41529</v>
       </c>
     </row>
     <row r="7">
@@ -22515,11 +23207,11 @@
       </c>
       <c r="B7" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45782.4064</v>
+        <v>45782.41529</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5054" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="1534">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -4065,6 +4065,537 @@
   </si>
   <si>
     <t>I do know that scanning is a thing tho. Something like on screen reading as SEAB calls it</t>
+  </si>
+  <si>
+    <t>2025-05-05T16-06-08-502Z</t>
+  </si>
+  <si>
+    <t>inputs/SGExamsChat_messages83_part2.csv</t>
+  </si>
+  <si>
+    <t>that has to change I guess</t>
+  </si>
+  <si>
+    <t>I'm quite bad at that too</t>
+  </si>
+  <si>
+    <t>I barely studied GP for As</t>
+  </si>
+  <si>
+    <t>Idk if your gp notes will help with vocab</t>
+  </si>
+  <si>
+    <t>Idk if your gp notes would help with vocab</t>
+  </si>
+  <si>
+    <t>Strictly going for a vocab bank is a little limited in use</t>
+  </si>
+  <si>
+    <t>Actly same logic as Chinese lah</t>
+  </si>
+  <si>
+    <t>Actually it's the same logic as Chinese.</t>
+  </si>
+  <si>
+    <t>That's not to say you can't score if you memorise the entire dictionary</t>
+  </si>
+  <si>
+    <t>That's not to say that you can't score if you memorised the entire dictionary.</t>
+  </si>
+  <si>
+    <t>Damn if you can you'd probably ace it</t>
+  </si>
+  <si>
+    <t>Damn, if you can, you'd probably ace it</t>
+  </si>
+  <si>
+    <t>But Probably not a good use of time for that few marks either~</t>
+  </si>
+  <si>
+    <t>they always say memorise haocihaojv but be smart remember the more flexible ones</t>
+  </si>
+  <si>
+    <t>they always say memorise haocihaojv, but be smart. remember the more flexible ones.</t>
+  </si>
+  <si>
+    <t>Is that why I nearly flunked chinese</t>
+  </si>
+  <si>
+    <t>Is that way I nearly flunked chinese?</t>
+  </si>
+  <si>
+    <t>I didnt bother forcefully memorising haocihaojv but I have a few ingrained</t>
+  </si>
+  <si>
+    <t>I didn't bother forcefully memorising haocihaojv, but I have a few ingrained</t>
+  </si>
+  <si>
+    <t>If I need a girl  xiao li</t>
+  </si>
+  <si>
+    <t>If I need a girl, xiao li.</t>
+  </si>
+  <si>
+    <t>My CL education journey really illustrates how lang is a long term learning thing</t>
+  </si>
+  <si>
+    <t>My CL education journey really illustrates how language learning is a long term thing.</t>
+  </si>
+  <si>
+    <t>My H1CL Compo was after 20min decide to change Q and write an essay that i wrote for O level practice to submit for A level</t>
+  </si>
+  <si>
+    <t>During my H1CL Compo, I decided to change Q after 20min and write an essay that I wrote for O level practice, to submit for A level</t>
+  </si>
+  <si>
+    <t>My essay was probably pri level</t>
+  </si>
+  <si>
+    <t>My essay was probably at primary level</t>
+  </si>
+  <si>
+    <t>Oh hello newcomer  why'd you come at such a time?</t>
+  </si>
+  <si>
+    <t>Oh hello newcomer, why'd you come at such a time?</t>
+  </si>
+  <si>
+    <t>Buy tea  milk  sugar and tapioca starch</t>
+  </si>
+  <si>
+    <t>You had to kill slimes for AQ?</t>
+  </si>
+  <si>
+    <t>All the MIA ppl start to appear</t>
+  </si>
+  <si>
+    <t>All the people who were MIA started to appear</t>
+  </si>
+  <si>
+    <t>my mate asked me to buy a tenga</t>
+  </si>
+  <si>
+    <t>cos he scared his mum find out</t>
+  </si>
+  <si>
+    <t>because he was scared his mum found out</t>
+  </si>
+  <si>
+    <t>like easily breaks and all . heard la. i never try</t>
+  </si>
+  <si>
+    <t>like, it easily breaks and all. that's what i heard. i didn't try.</t>
+  </si>
+  <si>
+    <t>Wait right hol up a min</t>
+  </si>
+  <si>
+    <t>Wait. right hol. up a min.</t>
+  </si>
+  <si>
+    <t>He was scared so he went to you?</t>
+  </si>
+  <si>
+    <t>Idk man go get one and find out</t>
+  </si>
+  <si>
+    <t>Idk man. go get one and find out.</t>
+  </si>
+  <si>
+    <t>Ah no no you're supposed to be unreactive</t>
+  </si>
+  <si>
+    <t>Ah no no. you're supposed to be unreactive</t>
+  </si>
+  <si>
+    <t>You sure you didn't use it first?</t>
+  </si>
+  <si>
+    <t>Are you sure that you didn't use it first?</t>
+  </si>
+  <si>
+    <t>Hey I mean it's meant to take a pounding</t>
+  </si>
+  <si>
+    <t>Hey, I mean, it's meant to take a pounding.</t>
+  </si>
+  <si>
+    <t>I would ask more but it'd probably be against the rules</t>
+  </si>
+  <si>
+    <t>Ah well google your best friend</t>
+  </si>
+  <si>
+    <t>Ah well. google is your best friend.</t>
+  </si>
+  <si>
+    <t>really? i heard the sizing got problems and it breaks</t>
+  </si>
+  <si>
+    <t>really? i heard that the sizing has problems and it breaks</t>
+  </si>
+  <si>
+    <t>Otherwise  it's just a pole for jenga</t>
+  </si>
+  <si>
+    <t>Like you know the game :)</t>
+  </si>
+  <si>
+    <t>but my friend on the smaller side width wise so i guess should be fine la</t>
+  </si>
+  <si>
+    <t>but my friend is on the smaller side width-wise, so i guess it should be fine</t>
+  </si>
+  <si>
+    <t>like it's iirc 6-7 inch so shd be fine is just the width maybe not suitable la</t>
+  </si>
+  <si>
+    <t>like it's 6-7 inch if i recall correctly, so it should be fine. it is just the width that might not be suitable.</t>
+  </si>
+  <si>
+    <t>Certainly built for a different market</t>
+  </si>
+  <si>
+    <t>The only apk I know is to install apps on Android</t>
+  </si>
+  <si>
+    <t>The only apk I know is for installing apps on Android</t>
+  </si>
+  <si>
+    <t>Hey open option 3: the whut!?</t>
+  </si>
+  <si>
+    <t>oops is only 5.8 so u mayyy have some thing hanging out</t>
+  </si>
+  <si>
+    <t>oops it is 5.8. so you mayyy have some things hanging out.</t>
+  </si>
+  <si>
+    <t>but idek what it is lols</t>
+  </si>
+  <si>
+    <t>but idk what it is.</t>
+  </si>
+  <si>
+    <t>idk i just like to press votes lol</t>
+  </si>
+  <si>
+    <t>Im like a father who never go buy cigarettes</t>
+  </si>
+  <si>
+    <t>I'm like a father who never goes and buys cigarettes</t>
+  </si>
+  <si>
+    <t>is it illegal to help someone buy ciggs?</t>
+  </si>
+  <si>
+    <t>As long no one knows 🤷‍♂</t>
+  </si>
+  <si>
+    <t>Ah the 9th core value of the SAF</t>
+  </si>
+  <si>
+    <t>Ah, the 9th core value of the SAF</t>
+  </si>
+  <si>
+    <t>My senior say the same thing</t>
+  </si>
+  <si>
+    <t>My senior says the same thing.</t>
+  </si>
+  <si>
+    <t>How come yall say the same thing</t>
+  </si>
+  <si>
+    <t>How come yall would say the same things?</t>
+  </si>
+  <si>
+    <t>Ahhh... if you don't know  you'd know soon</t>
+  </si>
+  <si>
+    <t>Ahhh... if you don't know, you'd know soon.</t>
+  </si>
+  <si>
+    <t>Oh no  it's an experience :)</t>
+  </si>
+  <si>
+    <t>2025-05-06T11-53-34-256Z</t>
+  </si>
+  <si>
+    <t>inputs/HoneyMoneySG_messages139_part8.csv</t>
+  </si>
+  <si>
+    <t>You can choose any other ocbc saving acct you have with ocbc. ocbc 360 is commonly used.</t>
+  </si>
+  <si>
+    <t>You can choose any other ocbc savings account that you have with ocbc. ocbc 360 is commonly used.</t>
+  </si>
+  <si>
+    <t>Use other acc eligible for invest bonus?</t>
+  </si>
+  <si>
+    <t>Use other accounts that are eligible for invest bonus?</t>
+  </si>
+  <si>
+    <t>Other ocbc acct. That was what I was told. You best check with ocbc rm as not many of us does investment with ocbc for ocbc 360 interest.</t>
+  </si>
+  <si>
+    <t>Other ocbc acct. That was what I was told. You best check with ocbc rm as many of us do investment with ocbc for ocbc 360 interest.</t>
+  </si>
+  <si>
+    <t>Genuinely askingRT and@mttelegrammtI sometimes think smaller amounts is better than big lump sumAny opinions?Lump sum high alert</t>
+  </si>
+  <si>
+    <t>Genuinely asking RT and @mttelegrammtl. Sometimes I think smaller amounts is better than big lump sums. Any opinions? Lump sum triggers high alerts</t>
+  </si>
+  <si>
+    <t>Yes I am rethinking my musical chair approach now since rates are dropping and movement inconvenience is so high now.I might limit movement to $100k per day and only to same name accounts for now.In the meantime scb esaver marathon at 3.3% ish may not be that bad to store the big amounts.HSBC EGA may still be good at 4.1% ish but the execution risk might be too high especially if get blocked.</t>
+  </si>
+  <si>
+    <t>Yes, I am rethinking my musical chair approach now, since rates are dropping and movement inconvenience is so high now. I might limit movement to $100k per day, and only to the same name accounts for now. In the meantime, scb esaver marathon at 3.3% ish may not be that bad to store the big amounts. HSBC EGA may still be good at 4.1% ish but the execution risk might be too high, especially if it gets blocked.</t>
+  </si>
+  <si>
+    <t>Feels like we moved back one era in funds transfer ease….. lame…</t>
+  </si>
+  <si>
+    <t>Feels like we moved back one era in the ease of funds transfer..... lame...</t>
+  </si>
+  <si>
+    <t>Is it usually HSBC side blocking transfer? Or other banks also blocking?</t>
+  </si>
+  <si>
+    <t>Is it that HSBC side usually blocks transfer? Or other banks are also blocking?</t>
+  </si>
+  <si>
+    <t>When get blocked did the person receive hsbc call?Only the transfer get block and not the account limited ya?If didn't receive any HSBC calls  means can't transfer but only can try next few days?</t>
+  </si>
+  <si>
+    <t>When you got blocked did the person receive the hsbc call? Only the transfer got blocked and not the account was limited? If didn't receive any HSBC calls means can't transfer but only can try the next few days?</t>
+  </si>
+  <si>
+    <t>2 dp so farSomeone entire scb access got suspendedSomeone entire HSBC transfer functions got suspended.</t>
+  </si>
+  <si>
+    <t>2 dp so far. One person's entire scb access was suspended. The entire HSBC transfer function was suspended.</t>
+  </si>
+  <si>
+    <t>SCB I experienced beforeWhole IB temporarily suspended</t>
+  </si>
+  <si>
+    <t>I had experienced SCB before. The whole IB was temporarily suspended.</t>
+  </si>
+  <si>
+    <t>Hsbc can log in but just can't transfer out?Can transfer in?</t>
+  </si>
+  <si>
+    <t>HSBC I could log in, but can't transfer out? Can transfer in?</t>
+  </si>
+  <si>
+    <t>When whole IB suspended it's really very inconvenient</t>
+  </si>
+  <si>
+    <t>When the whole IB was suspended, it's really very inconvenient.</t>
+  </si>
+  <si>
+    <t>Hi 5813 can use uob ppv or vs?</t>
+  </si>
+  <si>
+    <t>Hi 5813. can you use uob ppv or vs?</t>
+  </si>
+  <si>
+    <t>Can. Mobile contactless for UOB ppv n contactless for UOB VS.</t>
+  </si>
+  <si>
+    <t>Can. Mobile contactless for UOB ppv and contactless for UOB VS.</t>
+  </si>
+  <si>
+    <t>I got confused due to this. Trying to decide card for grocery + dining including 5813</t>
+  </si>
+  <si>
+    <t>I was confused from this. Trying to decide the card for grocery and dining, including 5813.</t>
+  </si>
+  <si>
+    <t>You are looking at online section. UOB ppv cant do online 5813. Must be mobile contactless.</t>
+  </si>
+  <si>
+    <t>You are looking at the online section. UOB ppv cannot do online 5813. It must be mobile contactless.</t>
+  </si>
+  <si>
+    <t>My grocery almost exclusively ntuc with Fairprice app 1k-1.2k per month</t>
+  </si>
+  <si>
+    <t>My grocery is almost exclusively at NTUC with Fairprice app 1k-1.2k per month.</t>
+  </si>
+  <si>
+    <t>this one is online whitelist aka you don’t paywave/mobile contactless</t>
+  </si>
+  <si>
+    <t>this one is an online whitelist, aka you don't paywave/mobile contactless</t>
+  </si>
+  <si>
+    <t>Tag on Uob lady family category best.</t>
+  </si>
+  <si>
+    <t>Tag on Uob lady family category is best.</t>
+  </si>
+  <si>
+    <t>Ic thx. 5813 hardly online. Oversea also k right</t>
+  </si>
+  <si>
+    <t>Ic. Thanks. 5813 is hardly online. Overseas is also k right.</t>
+  </si>
+  <si>
+    <t>But my dining + entertainment also 1-2k</t>
+  </si>
+  <si>
+    <t>But my dining + entertainment is also 1-2k</t>
+  </si>
+  <si>
+    <t>I think dining + entertainment for lady card and ppv for grocery</t>
+  </si>
+  <si>
+    <t>I think dining + entertainment for lady card and ppv for the grocery.</t>
+  </si>
+  <si>
+    <t>All 3 cards - ppv  vs and lady can be SGD or FCY rite?</t>
+  </si>
+  <si>
+    <t>All three cards - ppv, vs, lady -- can be SGD or FCY, right?</t>
+  </si>
+  <si>
+    <t>Lady sol is best saved for travel then + one category of ur choice (usually dining or family). The rest you can mobile contactless with eitheir ppv or vs depending on you can hit 1k spend.</t>
+  </si>
+  <si>
+    <t>Lady sol is best saved for travel then + one category of your choice (usually dining or family). The rest you can do mobile contactless with either ppv or vs, depending on whether you can hit 1k spend.</t>
+  </si>
+  <si>
+    <t>How I wish Citi can have more miles card and pooling feature. Like Citi for their long or no expiry date and more options for redemption.</t>
+  </si>
+  <si>
+    <t>How I wished Citi can have more miles card and pooling features. Like Citi for their long or no expiry date and more options for redemption.</t>
+  </si>
+  <si>
+    <t>Their good miles earning card has that funny "feature" of 5y validity period. Their expiry can be 5y or 1 month. 😄You can't have all the good things in the world.</t>
+  </si>
+  <si>
+    <t>But crmc really earn too slowly Liao. Max 4k miles per month.</t>
+  </si>
+  <si>
+    <t>But crmc really earns too slowly. Max 4k miles per month.</t>
+  </si>
+  <si>
+    <t>the state of already being done</t>
+  </si>
+  <si>
+    <t>Can really have uob portfolio but very limited airlines. Nowadays getting harder to redeem.</t>
+  </si>
+  <si>
+    <t>Can really have the uob portfolio but it has very limited airlines. Nowadays it is getting harder to redeem.</t>
+  </si>
+  <si>
+    <t>Lemme introduce u to uob lady and UOB vs 3.6mpd not subjected to 5-dollar block at individual transactions. For small amount 1-5 dollars  crmc don't necessarily win.</t>
+  </si>
+  <si>
+    <t>I only use amaze crmc when the merchant is suspicious or no bonus category</t>
+  </si>
+  <si>
+    <t>I only used the amaze crmc when the merchant is suspicious or it is a no bonus category</t>
+  </si>
+  <si>
+    <t>This is fair. Probably only Citi or HSBC (or amex) have good list airlines for redemption. Though I'd say KF and Asia Miles are sufficient for people in sg.</t>
+  </si>
+  <si>
+    <t>For general spending should get Prv or Citi prestige/premier?</t>
+  </si>
+  <si>
+    <t>For general spending, should I get Prv or CIti prestige/ premier?</t>
+  </si>
+  <si>
+    <t>Prv so many versions. got ppl get amex version? Master n visa no diff rite?</t>
+  </si>
+  <si>
+    <t>Prv has so many versions. Do people get amex version? There is no difference between master and visa, am I right?</t>
+  </si>
+  <si>
+    <t>Huh just normal transfer out loIt's very normal to get this</t>
+  </si>
+  <si>
+    <t>Huh, it is just a normal transfer out. It's very normal to get this.</t>
+  </si>
+  <si>
+    <t>I'm sure MT friends who kena also didn't do anything "wrong"I just wanna hear her opinion if she feel lump sum big Or smaller multiple is better</t>
+  </si>
+  <si>
+    <t>I'm sure MT friends who had it didn't do anything "wrong". I just wanna hear her opinion, on whether she feels the lump sum is big, or smaller multiple is better.</t>
+  </si>
+  <si>
+    <t>What kind of general spend? I’m biased for Citi prestige</t>
+  </si>
+  <si>
+    <t>1 Nov is a working day  why sc did not credit the additonal interest?</t>
+  </si>
+  <si>
+    <t>1 Nov is a working day. Why did sc not credit the additional interest?</t>
+  </si>
+  <si>
+    <t>Likely for big items lor..did consider Citi payall for maid salary  mortgage loan  condo fee but 2.6% is definitely not worth it.</t>
+  </si>
+  <si>
+    <t>Likely it would be for big items. I did consider that Citi payall for maid, salary, mortgage loan, condo fee, but 2.6% is definitely not worth it</t>
+  </si>
+  <si>
+    <t>Travel also coz Citi card tend to have many promos with travel related merchants</t>
+  </si>
+  <si>
+    <t>Travel also. Because Citi card tends to have many promos with travel-related merchants.</t>
+  </si>
+  <si>
+    <t>Also looking at uob vi metal</t>
+  </si>
+  <si>
+    <t>Also looking at uob, vi, metal</t>
+  </si>
+  <si>
+    <t>Pay during promo lor. Like right now</t>
+  </si>
+  <si>
+    <t>Pay during promo. Like right now.</t>
+  </si>
+  <si>
+    <t>Question  do we get the 4MPD if we used the the Visa Signature with CardUp?</t>
+  </si>
+  <si>
+    <t>Question. do we get the 4MPD if we use the Visa Signature with CardUp?</t>
+  </si>
+  <si>
+    <t>Or will it be capped at 1.4MPD?</t>
+  </si>
+  <si>
+    <t>Oops ya sorry - 0.4MPD. So it’ll be capped? Would it be better to use the PRVI miles card?</t>
+  </si>
+  <si>
+    <t>CPF Ultimate Guide 2024: Medisave Account (CPF MA)https://youtu.be/yAU29jBFQwE</t>
+  </si>
+  <si>
+    <t>It is not cap. Card up follow base rate not bonus rate</t>
+  </si>
+  <si>
+    <t>It is not cap. Card up follows the base rate and not the bonus rate.</t>
+  </si>
+  <si>
+    <t>Ohhhh okay got it. Just checked on HeyMax Visa Signature won’t work so I’ll use Prvi Miles then</t>
+  </si>
+  <si>
+    <t>Anyone knows if FX + debit UOB card is now the best card for overseas spend? 3.25% cash rebate is attractive</t>
+  </si>
+  <si>
+    <t>Anyone knows if FX + debit UOB card is now the best card for overseas spending? 3.25% cash rebate is attractive.</t>
+  </si>
+  <si>
+    <t>I am going to purchase a 2k iphone and use it every quarter for overseas hotel spent. Which cc would be best for miles?</t>
+  </si>
+  <si>
+    <t>Uob visa signature. Gotta hit 1k spend when overseas thou.</t>
   </si>
   <si>
     <t>Name</t>
@@ -23078,6 +23609,2627 @@
         <v>12</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" s="1">
+        <v>45782.504332372686</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G712" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H712" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1">
+        <v>45782.504362673615</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G713" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H713" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1">
+        <v>45782.50441574074</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G714" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H714" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1">
+        <v>45782.50461175926</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G715" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H715" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1">
+        <v>45782.504741111115</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G716" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H716" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1">
+        <v>45782.504902245375</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G717" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H717" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I717" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1">
+        <v>45782.50577228009</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G718" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H718" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1">
+        <v>45782.50595626158</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G719" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H719" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1">
+        <v>45782.50661196759</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G720" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H720" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1">
+        <v>45782.50685723379</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G721" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H721" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1">
+        <v>45782.50719701389</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G722" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H722" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1">
+        <v>45782.507547511574</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E723" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F723" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G723" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H723" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1">
+        <v>45782.507788310184</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G724" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H724" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1">
+        <v>45782.508538078706</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E725" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F725" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G725" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H725" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1">
+        <v>45782.509137430556</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E726" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G726" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H726" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1">
+        <v>45782.50932518519</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F727" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G727" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H727" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1">
+        <v>45782.50960046296</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G728" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H728" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1">
+        <v>45782.509655752314</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G729" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H729" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1">
+        <v>45782.509700069444</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G730" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H730" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1">
+        <v>45782.509979027775</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G731" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H731" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1">
+        <v>45782.51023685186</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G732" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H732" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1">
+        <v>45782.51034881944</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E733" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F733" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G733" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H733" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1">
+        <v>45782.51069642361</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E734" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F734" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G734" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H734" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I734" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1">
+        <v>45782.51084650463</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G735" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H735" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1">
+        <v>45782.51096208333</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E736" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F736" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G736" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H736" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1">
+        <v>45782.51106318287</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F737" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G737" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H737" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1">
+        <v>45782.51119146991</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G738" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H738" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1">
+        <v>45782.511306782406</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F739" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G739" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H739" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1">
+        <v>45782.51141826389</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E740" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F740" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G740" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H740" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1">
+        <v>45782.51147484954</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E741" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G741" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H741" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1">
+        <v>45782.51155109954</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E742" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F742" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G742" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H742" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1">
+        <v>45782.51169702546</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G743" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H743" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1">
+        <v>45782.51175152778</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F744" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G744" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H744" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1">
+        <v>45782.5118052662</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F745" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G745" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H745" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1">
+        <v>45782.51199020833</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G746" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H746" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I746" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1">
+        <v>45782.512322118055</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G747" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H747" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I747" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1">
+        <v>45782.51238013888</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F748" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G748" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H748" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1">
+        <v>45782.512588564816</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F749" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G749" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H749" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1">
+        <v>45782.512667303236</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G750" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H750" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1">
+        <v>45782.51284408565</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F751" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G751" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H751" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1">
+        <v>45782.512955370374</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G752" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H752" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1">
+        <v>45782.513018391204</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G753" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H753" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1">
+        <v>45782.513254375</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F754" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G754" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H754" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1">
+        <v>45782.51332079861</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G755" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H755" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1">
+        <v>45782.51338068287</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G756" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H756" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1">
+        <v>45782.51351039352</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F757" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G757" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H757" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1">
+        <v>45782.51366913195</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G758" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H758" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1">
+        <v>45782.51382407408</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F759" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G759" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H759" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1">
+        <v>45782.51398729166</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F760" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G760" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H760" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1">
+        <v>45782.514051631944</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G761" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H761" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1">
+        <v>45783.32943935185</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G762" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H762" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1">
+        <v>45783.33207034723</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F763" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G763" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H763" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1">
+        <v>45783.33278297454</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G764" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H764" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1">
+        <v>45783.33331033565</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G765" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H765" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1">
+        <v>45783.33410836806</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F766" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G766" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H766" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1">
+        <v>45783.33490564815</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G767" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H767" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1">
+        <v>45783.335179120375</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G768" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H768" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1">
+        <v>45783.3408427199</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F769" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G769" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H769" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1">
+        <v>45783.34270729167</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G770" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H770" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1">
+        <v>45783.342921874995</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G771" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H771" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1">
+        <v>45783.343134571754</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G772" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H772" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1">
+        <v>45783.34328800926</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F773" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G773" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H773" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1">
+        <v>45783.345361898144</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F774" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G774" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H774" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1">
+        <v>45783.34558274306</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F775" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G775" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H775" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1">
+        <v>45783.34580434028</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E776" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G776" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H776" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1">
+        <v>45783.346058310184</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E777" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G777" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H777" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1">
+        <v>45783.34629784722</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E778" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F778" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G778" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H778" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1">
+        <v>45783.34673444444</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E779" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F779" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G779" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H779" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1">
+        <v>45783.346920613425</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E780" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F780" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G780" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H780" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1">
+        <v>45783.34712478009</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E781" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F781" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G781" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H781" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1">
+        <v>45783.3472646875</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E782" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F782" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G782" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H782" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1">
+        <v>45783.34748824074</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E783" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F783" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G783" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H783" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1">
+        <v>45783.347865902775</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E784" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F784" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G784" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H784" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1">
+        <v>45783.34835615741</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E785" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F785" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G785" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H785" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1">
+        <v>45783.34871489584</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E786" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F786" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G786" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H786" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1">
+        <v>45783.348803981484</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E787" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F787" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G787" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H787" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1">
+        <v>45783.34915778935</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F788" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G788" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H788" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I788" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1">
+        <v>45783.34957435185</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E789" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F789" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G789" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H789" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1">
+        <v>45783.34965679398</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E790" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F790" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G790" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H790" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1">
+        <v>45783.350893055554</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E791" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G791" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H791" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1">
+        <v>45783.35178474537</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E792" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F792" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G792" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H792" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1">
+        <v>45783.35194613426</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E793" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F793" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G793" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H793" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1">
+        <v>45783.352368125</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E794" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F794" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G794" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H794" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1">
+        <v>45783.3525803588</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E795" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F795" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G795" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H795" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1">
+        <v>45783.3530215625</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E796" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F796" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G796" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H796" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1">
+        <v>45783.3530880787</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E797" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F797" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G797" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H797" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1">
+        <v>45783.353265682876</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E798" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F798" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G798" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H798" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1">
+        <v>45783.353879166665</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E799" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F799" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G799" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H799" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I799" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1">
+        <v>45783.35409616899</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E800" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F800" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G800" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H800" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1">
+        <v>45783.35442351852</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E801" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F801" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G801" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H801" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1">
+        <v>45783.35484240741</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F802" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G802" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H802" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I802" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1">
+        <v>45783.355579421295</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G803" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H803" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1">
+        <v>45783.355660497684</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F804" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G804" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H804" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1">
+        <v>45783.35581363426</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F805" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G805" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H805" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1">
+        <v>45783.355879826384</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G806" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H806" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1">
+        <v>45783.35609208333</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F807" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G807" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H807" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1">
+        <v>45783.35619414352</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G808" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H808" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1">
+        <v>45783.35650657407</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G809" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H809" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1">
+        <v>45783.356587372684</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G810" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H810" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1">
+        <v>45783.35665996528</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G811" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H811" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23101,16 +26253,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1351</v>
+        <v>1528</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1352</v>
+        <v>1529</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1353</v>
+        <v>1530</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1354</v>
+        <v>1531</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -23127,10 +26279,10 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45782.41529</v>
+        <v>45783.35666</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1355</v>
+        <v>1532</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -23144,18 +26296,18 @@
       </c>
       <c r="B3" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45782.41529</v>
+        <v>45783.35666</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1356</v>
+        <v>1533</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(B2:B7)</f>
-        <v>1055</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="4">
@@ -23169,7 +26321,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45782.41529</v>
+        <v>45783.35666</v>
       </c>
     </row>
     <row r="5">
@@ -23183,7 +26335,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45782.41529</v>
+        <v>45783.35666</v>
       </c>
     </row>
     <row r="6">
@@ -23197,7 +26349,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45782.41529</v>
+        <v>45783.35666</v>
       </c>
     </row>
     <row r="7">
@@ -23211,7 +26363,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45782.41529</v>
+        <v>45783.35666</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="1739">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -4596,6 +4596,621 @@
   </si>
   <si>
     <t>Uob visa signature. Gotta hit 1k spend when overseas thou.</t>
+  </si>
+  <si>
+    <t>2025-05-06T21-13-14-519Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages920_part5.csv</t>
+  </si>
+  <si>
+    <t>Take some pain short term probably is better for them</t>
+  </si>
+  <si>
+    <t>Take some. Short term pain is probably better for them.</t>
+  </si>
+  <si>
+    <t>AnAn8+14.3% fr.2 to 發 r +300%..strongly suggest some💰 in pocket always not wrong😉</t>
+  </si>
+  <si>
+    <t>AnAn8 + 14.3% from 2 to huat ah. +300%.. strongly suggest. having some money in one's pocket is always not wrong</t>
+  </si>
+  <si>
+    <t>Any idea why hopeless suddenly decide to hav movement? Lol</t>
+  </si>
+  <si>
+    <t>Any idea why hopeless suddenly decided to move? Lol</t>
+  </si>
+  <si>
+    <t>because fr. 9.7c dump dn to recent bOttOm 1.4c was-85.555%and our hopeless micro-penny int'l cement needsapprox. +600% effortsto raise bk pandemic🦠 ATH</t>
+  </si>
+  <si>
+    <t>because fr. 9.7c dumped down to the recent bottom. 1.4c was -85.555%, and our hopeless micro-penny international cement needs approximation. +600% efforts to raise back before pandemic. ATH</t>
+  </si>
+  <si>
+    <t>mean needs +900% efforts to ATHthen BO 10 potential toward 20🤣</t>
+  </si>
+  <si>
+    <t>at the minimum, it needs +900% efforts to ATH, then it has BO 10 potential towards 20</t>
+  </si>
+  <si>
+    <t>Hope penny rise mean sgx got some hope</t>
+  </si>
+  <si>
+    <t>Hope penny rising means sgx has some hope</t>
+  </si>
+  <si>
+    <t>W😲W.. 🆕 GIF.. w your smelly👌fingers dig GoldenFish Uncle deep deep.. hv u ®™️ yet🤣</t>
+  </si>
+  <si>
+    <t>WOW.. GIF.. with your smelly fingers digging GoldenFish Uncle really deep. Have you trademarked yet?</t>
+  </si>
+  <si>
+    <t>This my new gif .. finger the old fish 👄</t>
+  </si>
+  <si>
+    <t>This is my new gif .. finger the old fish</t>
+  </si>
+  <si>
+    <t>swee Bro🐯  your AEM +2.4%jump🦘 into gap🕳️hole liao</t>
+  </si>
+  <si>
+    <t>That's good Bro. Your AEM has jumped +2.4% into the gap hole</t>
+  </si>
+  <si>
+    <t>has already</t>
+  </si>
+  <si>
+    <t>No more dumping for mencast is it..</t>
+  </si>
+  <si>
+    <t>Is there no more dumping for mencast?</t>
+  </si>
+  <si>
+    <t>This bicycle bigger than car ah?</t>
+  </si>
+  <si>
+    <t>Is the bicycle bigger than the car?</t>
+  </si>
+  <si>
+    <t>is it really?</t>
+  </si>
+  <si>
+    <t>Must shame this cyclist  nothing better to do.</t>
+  </si>
+  <si>
+    <t>One must shame this cyclist that has nothing to do.</t>
+  </si>
+  <si>
+    <t>Phillip Securities Research recom. TPnormally I don encourage looks at 馬后炮 TP but.. now is bull🐂 mkt difference🤣</t>
+  </si>
+  <si>
+    <t>Phillip Securities Research recommended TP. normally I do not encourage looking at the backward TP but... the difference is that now is a bull market</t>
+  </si>
+  <si>
+    <t>Today's market not that exciting uh</t>
+  </si>
+  <si>
+    <t>Today's market is not that exciting</t>
+  </si>
+  <si>
+    <t>uh</t>
+  </si>
+  <si>
+    <t>an interjection to express an acknowledgment</t>
+  </si>
+  <si>
+    <t>dBs🏦 - bonus 10:1 orsplit 🪓 11:10 on 22/April</t>
+  </si>
+  <si>
+    <t>Market today a bit weak  fund managers still on leave? 😅</t>
+  </si>
+  <si>
+    <t>The market today is a bit weak. Are the fund managers still on leave?</t>
+  </si>
+  <si>
+    <t>not bad lah  market did not drop low</t>
+  </si>
+  <si>
+    <t>not bad. the market did not drop low.</t>
+  </si>
+  <si>
+    <t>But at least no dumping...most stocks are steady</t>
+  </si>
+  <si>
+    <t>But at least there is no dumping... most stocks are steady</t>
+  </si>
+  <si>
+    <t>I noticed GoldFish Uncle doesn't trade pennies</t>
+  </si>
+  <si>
+    <t>I noticed that GoldFish Uncle doesn't trade pennies</t>
+  </si>
+  <si>
+    <t>ASL marine T4 today.Watching the PA and looks to have buyer absorbing the T4 contra sellers.Should be good to collect $0.068 today.Added some here today.Marine still looking good with BK just powering up past day high.DYODD</t>
+  </si>
+  <si>
+    <t>He like high paying dividends yield stocks</t>
+  </si>
+  <si>
+    <t>He likes high paying dividends yield stocks</t>
+  </si>
+  <si>
+    <t>JA boh learnt lesson one ah? 🤭</t>
+  </si>
+  <si>
+    <t>JA hasn't learnt his lesson?</t>
+  </si>
+  <si>
+    <t>really?</t>
+  </si>
+  <si>
+    <t>chasen toh   short 113 double short</t>
+  </si>
+  <si>
+    <t>chasen was short 113 with double short</t>
+  </si>
+  <si>
+    <t>no wonder am ai ki mai ki..we shall appreciate suddenly she appears tOhuat..ah Beng👨🏻‍🎤 ah Kuang🧑🏻‍🎤 178 +6.6% liao.. cheong ki toward our tanxin🎯 200.. 🤣</t>
+  </si>
+  <si>
+    <t>chasen 51 lots done at 114    false break  let see the closing !!</t>
+  </si>
+  <si>
+    <t>chasen 51 lots were done at 114. false break. let's see the closing !!</t>
+  </si>
+  <si>
+    <t>peisey  we don't allow the link connection to promote for other here.. allow me to remove it horRemark:I also accidentally forward Tues or yesterday but I removed it le@MysticDax</t>
+  </si>
+  <si>
+    <t>BK indeed our hero of 2024</t>
+  </si>
+  <si>
+    <t>BK is indeed our hero of 2024</t>
+  </si>
+  <si>
+    <t>still waiting for Cosco n Samu...😁</t>
+  </si>
+  <si>
+    <t>If cosco burst can be fierce.. But e bb just like gu niang</t>
+  </si>
+  <si>
+    <t>If cosco bursts, it can be fierce.. But the bb is just undecisive</t>
+  </si>
+  <si>
+    <t>shorting BK is asking for trouble....</t>
+  </si>
+  <si>
+    <t>YZJ🚢 179 -2.7% 不小心💔 break-dn $1.80..• S2 zone 172 - 174 lah🤣</t>
+  </si>
+  <si>
+    <t>Wait 20 then short still ok now short 找死</t>
+  </si>
+  <si>
+    <t>Waiting for 20 then shorting is still okay. Shorting now is finding death.</t>
+  </si>
+  <si>
+    <t>Only bb fighting we all retailers eat popcorn watch nia</t>
+  </si>
+  <si>
+    <t>Only bb are fighting. we retailers are watching.</t>
+  </si>
+  <si>
+    <t>nia</t>
+  </si>
+  <si>
+    <t>downplay the meaning of something</t>
+  </si>
+  <si>
+    <t>👆🏿  ya.. already advance reminding shortists🐺 &amp; tOhish🐆..</t>
+  </si>
+  <si>
+    <t>ya.. already advancing the remaining shortlists &amp; tOhish</t>
+  </si>
+  <si>
+    <t>Jubilee LS how ar? All rebound u all still nua</t>
+  </si>
+  <si>
+    <t>How is Jubilee LS? All are rebounding and you all are chilling</t>
+  </si>
+  <si>
+    <t>how is it?</t>
+  </si>
+  <si>
+    <t>oops  forgotten jubilee.. probably will join micro-penny party 🎉🥳.. just happen she busy &amp; delay nia🤣</t>
+  </si>
+  <si>
+    <t>oops forgotten jubilee.. probably will join the micro-penny party. just happens she is busy and delayed</t>
+  </si>
+  <si>
+    <t>downplay the intensity of something</t>
+  </si>
+  <si>
+    <t>Hope jubilee can sudden jump go 58</t>
+  </si>
+  <si>
+    <t>I hope jubilee can suddenly jumped to 58</t>
+  </si>
+  <si>
+    <t>aiyo  he high standards only buày US stks.. eg. PLTR his favor swing🤣</t>
+  </si>
+  <si>
+    <t>he has high standards and only buys US stocks.. eg. PLTR is his favorite swing</t>
+  </si>
+  <si>
+    <t>aiyo  Samuderashipping already +3% 845.. can Cosco Shipping🇸🇬 follow it bkside to close R1 zone later?🤣</t>
+  </si>
+  <si>
+    <t>Samuderashipping is already +3%. 845.. can Cosco Shipping follow it backside to close at R1 zone later?</t>
+  </si>
+  <si>
+    <t>With the sheer float. Can bk do a mirach energy.</t>
+  </si>
+  <si>
+    <t>With the sheer float, one can bk do a mirach energy</t>
+  </si>
+  <si>
+    <t>hahaha.. maybe issibeyhopeless micro-penny.. anyway  wa bo.. not in my🙆🏻 WL lah.. just want to praises Bro🐯 nia.. 🤣</t>
+  </si>
+  <si>
+    <t>hahah.. maybe it is very hopeless.. micro-penny... anyway, it is not in my lane. Wow, just want to have praises Bro</t>
+  </si>
+  <si>
+    <t>indicate emphasis</t>
+  </si>
+  <si>
+    <t>YZJ 179/180  Tiger preparing to buy?</t>
+  </si>
+  <si>
+    <t>YZJ 179/180. Is Tiger preparing to buy?</t>
+  </si>
+  <si>
+    <t>ah Beng👨🏻‍🎤 ah Kuang🧑🏻‍🎤 anyhow draw anyhow see.. when systematic or ascending 📐 BO.. to the moon🌝 ew5 200 🔜.. 🤣</t>
+  </si>
+  <si>
+    <t>ah Beng and ah Kuang. anyhow draw and anyhow see. when it is systematic or ascending. BO.. to the moon. ew5 200</t>
+  </si>
+  <si>
+    <t>use ruler   easy draw one straight line up !!!</t>
+  </si>
+  <si>
+    <t>use a ruler, it is easy to draw one straight line up !!!</t>
+  </si>
+  <si>
+    <t>Companies with high cash piles like Genting and YZJ to benefit in 2024 should rates stay higher for a lot longer: UOBKHhttps://t.co/Kxz8hArbReApril 11  2024 at 04:04PM</t>
+  </si>
+  <si>
+    <t>oh 馬后炮.. heng  I stubborn 🫏 wait S2 zone again.. even didi can't get past few pullbk🤣</t>
+  </si>
+  <si>
+    <t>oh. good thing I was stubborn. waiting S2 zone again.. even didi couldn't get past few pullback</t>
+  </si>
+  <si>
+    <t>Now can one cut  2024 still many months to go</t>
+  </si>
+  <si>
+    <t>Now I can one cut. 2024 still has many months to go.</t>
+  </si>
+  <si>
+    <t>you mean cut the rate cut?</t>
+  </si>
+  <si>
+    <t>oNly Bro🐯 didi praying 🙏cut cUt CUT...US ang mok really addicted jiak Roti-Prata lah</t>
+  </si>
+  <si>
+    <t>only Bro didi is praying.. cut cut cut.. US people are really addicted. they keep changing their minds like Roti-Prata</t>
+  </si>
+  <si>
+    <t>Still don't cut hor earth quake will shake NY upside down 😂</t>
+  </si>
+  <si>
+    <t>if there is still no cut, the earth quake will shake NY upside down</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>Assert and elicit support</t>
+  </si>
+  <si>
+    <t>2025-05-07T16-38-16-589Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages504_part4.csv</t>
+  </si>
+  <si>
+    <t>Aem one Word Temasek win Liao</t>
+  </si>
+  <si>
+    <t>Aem says one Word, then Temasek wins</t>
+  </si>
+  <si>
+    <t>Condition liao... Result ok ba.. In line with expectation.. I just now ki siao nv read properly</t>
+  </si>
+  <si>
+    <t>It is already conditioned. The result is okay... In line with expectation.. Just now, I did not read properly.</t>
+  </si>
+  <si>
+    <t>liao,ba</t>
+  </si>
+  <si>
+    <t>already, nudging</t>
+  </si>
+  <si>
+    <t>90+70+80+80 = Rmb 320m or sgd 64m</t>
+  </si>
+  <si>
+    <t>Q3 I think very low.. Got 10mil sgd happy liao</t>
+  </si>
+  <si>
+    <t>I think Q3 is very low.. I am happy if it has 10mil sgd</t>
+  </si>
+  <si>
+    <t>already, indicating acceptance</t>
+  </si>
+  <si>
+    <t>Flood n maintenance ..no room to brew dmf</t>
+  </si>
+  <si>
+    <t>I am not so optimistic actually hahaha...</t>
+  </si>
+  <si>
+    <t>I am actually not so optimistic hahaha...</t>
+  </si>
+  <si>
+    <t>Ya.. Sky high dmf now..probably can cover the mess</t>
+  </si>
+  <si>
+    <t>For the very first time I think tmr will sell on news</t>
+  </si>
+  <si>
+    <t>For the very first time, I think that tomorrow will sell on news</t>
+  </si>
+  <si>
+    <t>Usually I thought will rally one</t>
+  </si>
+  <si>
+    <t>I thought it usually will rally</t>
+  </si>
+  <si>
+    <t>you know</t>
+  </si>
+  <si>
+    <t>I mean the expectation tmr is down</t>
+  </si>
+  <si>
+    <t>I mean, the expectation is that tomorrow is down</t>
+  </si>
+  <si>
+    <t>JT - aiyo    today loaded extra at 94.... pray hard for tmr !!</t>
+  </si>
+  <si>
+    <t>JT - today was loaded extra at 94... pray hard for tmr !!</t>
+  </si>
+  <si>
+    <t>Cause they don't which way retailer</t>
+  </si>
+  <si>
+    <t>Cause they don't know which way is retailer</t>
+  </si>
+  <si>
+    <t>Usually I think will shoot to the moon but it nv happen</t>
+  </si>
+  <si>
+    <t>Usually I think it will shoot to the moon, but it never happens</t>
+  </si>
+  <si>
+    <t>But this time only 9series....the worst drop back 8 series....last time big rally 11 series</t>
+  </si>
+  <si>
+    <t>But this time it is only 9 series.... the worst drop back was 8 series... the last time there was a big rally was 11 series</t>
+  </si>
+  <si>
+    <t>Don’t think will go back 7 ba</t>
+  </si>
+  <si>
+    <t>Don't think it will go back to 7</t>
+  </si>
+  <si>
+    <t>conveys uncertainty</t>
+  </si>
+  <si>
+    <t>7 is the panic one. Can sell 8 series ba if cut loss that time</t>
+  </si>
+  <si>
+    <t>7 is the panic one. Can sell the 8 series, if the cut loss is at that time</t>
+  </si>
+  <si>
+    <t>7 series can load. will recover one</t>
+  </si>
+  <si>
+    <t>7 series can load. it will recover.</t>
+  </si>
+  <si>
+    <t>expression of certainty</t>
+  </si>
+  <si>
+    <t>160 Mil First half... Need 130Mil second half to meet uob expectations ...</t>
+  </si>
+  <si>
+    <t>Now px 94  if drop until 8 series never SL then can pickup the LV</t>
+  </si>
+  <si>
+    <t>Now the px is 94. If it drops until 8 series and did not SL, then can pick up the LV</t>
+  </si>
+  <si>
+    <t>Siao bo.. Still no good meh</t>
+  </si>
+  <si>
+    <t>oh no... still not good?</t>
+  </si>
+  <si>
+    <t>express disbelief</t>
+  </si>
+  <si>
+    <t>Ya.. Pretty sure is the LV</t>
+  </si>
+  <si>
+    <t>Ya.. Pretty sure it is the LV</t>
+  </si>
+  <si>
+    <t>Jiutian Chemical posts record H1 earnings of 160.3m yuanhttps://ift.tt/3xE9LrAAugust 11  2021 at 07:36PM</t>
+  </si>
+  <si>
+    <t>1H 8.07 cents x 2 for the whole year = 16 cents or SGD 3.xx cents  PE only 3  BB will push UP UP to let go !! huat everyone</t>
+  </si>
+  <si>
+    <t>Psps.. Suddenly I feel JT ish keyi again</t>
+  </si>
+  <si>
+    <t>Psps.. Suddenly I feel that JT ish is okay again</t>
+  </si>
+  <si>
+    <t>More you cheer  tml open opposite</t>
+  </si>
+  <si>
+    <t>More that you cheered that tomorrow opened the opposite way</t>
+  </si>
+  <si>
+    <t>Can u comment based on result?</t>
+  </si>
+  <si>
+    <t>I am happy bcos they confirm expanding plant liao.. My 90cents dream got a small ticket</t>
+  </si>
+  <si>
+    <t>I am happy because they confirmed that they would be expanding the plant. My 90cents dream has a small ticket</t>
+  </si>
+  <si>
+    <t>it is already</t>
+  </si>
+  <si>
+    <t>better sell fast tmr !! swing to GEAR !!</t>
+  </si>
+  <si>
+    <t>But dulan bcos no dividend for cai png</t>
+  </si>
+  <si>
+    <t>But I'm annoyed because there is no dividend for cai png</t>
+  </si>
+  <si>
+    <t>Short ! Huat liao this time!@</t>
+  </si>
+  <si>
+    <t>Short! We will profit this time!@</t>
+  </si>
+  <si>
+    <t>better short gap down  and cover back around 80 !! huat ah</t>
+  </si>
+  <si>
+    <t>it is better to short gap down and cover back around 80 !!</t>
+  </si>
+  <si>
+    <t>let's do it!</t>
+  </si>
+  <si>
+    <t>This document was signed using Adobe Fill &amp; Sign.Get the app for iOS and Android.Want to send document for signature and track responses? Learn More about Adobe Sign.</t>
+  </si>
+  <si>
+    <t>Whats your prediction for tomorrow boss?</t>
+  </si>
+  <si>
+    <t>What is your prediction for tomorrow, boss?</t>
+  </si>
+  <si>
+    <t>In 2018  JT report net profit of RMB 70 million for 2017. Share price at 6.4 cents. Now at 9.3 cents with RMB 160 million net profit for 1H  not demanding ba</t>
+  </si>
+  <si>
+    <t>In 2018, JT reports a net profit of RMB 70 million for 2017. The share price at 6.4 cents. Now, at 9.3 cents with RMB 160 million net profit for 1H. It is not demanding</t>
+  </si>
+  <si>
+    <t>express nonchalant</t>
+  </si>
+  <si>
+    <t>Yea  trailing the share price vs profit reporting</t>
+  </si>
+  <si>
+    <t>CSE Global's 1HFY2021 earnings down by a third  plans dividend of 1.25 centshttps://t.co/UC938S8jEAAugust 11  2021 at 07:59PM</t>
+  </si>
+  <si>
+    <t>🍦 Ben &amp; Jerry's🍦➡️ (New) Prata with ice cream?!➡️ Prata "cone" comes with any 2 flavs &amp; teh tarik cream📆 16 Aug - 5 Sep📍 #02-K1 VivoCity👉 More info:bit.ly/3yD8gv1@sgfoodlobang</t>
+  </si>
+  <si>
+    <t>pray hard for Sinostar result !!</t>
+  </si>
+  <si>
+    <t>pray hard for Sinostar results!!</t>
+  </si>
+  <si>
+    <t>Look like no Huat tmr liao</t>
+  </si>
+  <si>
+    <t>Looks like there is no Huat tomorrow already</t>
+  </si>
+  <si>
+    <t>retailers also can corner the market     see what BB want - together we push up to 120 to 130  or stop profit and short till 80.  i think BB is smart enough to know which direction will make them more money !!</t>
+  </si>
+  <si>
+    <t>Ur meals r hpb standard 👍 quarter quarter half plate a balanced meal is easy ~ 😂😂</t>
+  </si>
+  <si>
+    <t>Your meals are hpb's standard. a quarter quarter half plate. a balanced meal is easy ~</t>
+  </si>
+  <si>
+    <t>Don’t know how to cook..Might it easy meal..</t>
+  </si>
+  <si>
+    <t>Don't know how to cook.. Might be an easy meal..</t>
+  </si>
+  <si>
+    <t>Must diet ma.. later to fat cannot walk.. keep to 1 plate meal.</t>
+  </si>
+  <si>
+    <t>Must diet. Otherwise, would be too fat, and cannot walk. Keep it to a 1 plate meal</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>describe something that is already known</t>
+  </si>
+  <si>
+    <t>May I know what was the ex div date?</t>
+  </si>
+  <si>
+    <t>Read this news make u all feel better on surface</t>
+  </si>
+  <si>
+    <t>Read this news. Makes you all feel better on the surface</t>
+  </si>
+  <si>
+    <t>Deep inside we know siao liao</t>
+  </si>
+  <si>
+    <t>Deep inside, we know it is bad</t>
+  </si>
+  <si>
+    <t>Did not support this bands.. stock consider.. haha</t>
+  </si>
+  <si>
+    <t>Did not support this band.. stock consider.. haha</t>
+  </si>
+  <si>
+    <t>Sgyuan can help to update st engineering chart  thanks</t>
+  </si>
+  <si>
+    <t>Sgyuan, can you help to update the st engineering chart? thanks</t>
+  </si>
+  <si>
+    <t>Oh no is this typo? 76 or 67 🥺</t>
+  </si>
+  <si>
+    <t>Oh no, is this a typo? 76 or 67?</t>
+  </si>
+  <si>
+    <t>sarine tech daywhen chart this it just hit 855but it was 188.6%this is critical uturn pointsee the day candleu know it is bad liaowabc dn wc 670 px hit 665day conversion 660</t>
+  </si>
+  <si>
+    <t>sarine tech day. when the chart this. it just hit 855 but it was 188.6%. this is critical u turn point. see the day candle and you'd know it is bad already. don't wait to 670 price hits. 665 day conversion 660</t>
   </si>
   <si>
     <t>Name</t>
@@ -26230,6 +26845,2687 @@
         <v>12</v>
       </c>
     </row>
+    <row r="812">
+      <c r="A812" s="1">
+        <v>45783.71776262732</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F812" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G812" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H812" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1">
+        <v>45783.718629201394</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H813" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1">
+        <v>45783.71921427084</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F814" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H814" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1">
+        <v>45783.7197146875</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G815" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H815" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1">
+        <v>45783.72001510416</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G816" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H816" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1">
+        <v>45783.720172430556</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G817" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H817" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1">
+        <v>45783.72049554398</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G818" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H818" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1">
+        <v>45783.72065065972</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G819" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H819" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1">
+        <v>45783.720970462964</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E820" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F820" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G820" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H820" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I820" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1">
+        <v>45783.72117052083</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E821" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F821" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G821" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H821" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1">
+        <v>45783.721461134264</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E822" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F822" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G822" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H822" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I822" s="2" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1">
+        <v>45783.721662592594</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E823" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F823" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G823" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H823" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1">
+        <v>45783.72263736111</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E824" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F824" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G824" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H824" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1">
+        <v>45783.72295335648</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E825" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F825" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G825" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H825" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I825" s="2" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1">
+        <v>45783.72301789351</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E826" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G826" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H826" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1">
+        <v>45783.72326101852</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E827" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F827" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G827" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H827" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1">
+        <v>45783.72342896991</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C828" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E828" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F828" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G828" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H828" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I828" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1">
+        <v>45783.723604548606</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C829" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E829" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G829" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H829" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1">
+        <v>45783.72387494213</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E830" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F830" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G830" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H830" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1">
+        <v>45783.72418706019</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E831" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F831" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G831" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H831" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1">
+        <v>45783.724357893516</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C832" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E832" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F832" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G832" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H832" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1">
+        <v>45783.72454469907</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E833" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F833" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G833" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H833" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I833" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1">
+        <v>45783.72471362269</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E834" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F834" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G834" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H834" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1">
+        <v>45783.72526585648</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E835" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F835" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G835" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H835" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1">
+        <v>45783.725471666665</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E836" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F836" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G836" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H836" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1">
+        <v>45783.72568415509</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C837" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E837" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F837" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G837" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H837" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1">
+        <v>45783.72606901621</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E838" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F838" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G838" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H838" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1">
+        <v>45783.726482303246</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E839" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F839" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G839" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H839" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1">
+        <v>45783.7268294213</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E840" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F840" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G840" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H840" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1">
+        <v>45783.72715413195</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C841" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E841" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F841" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G841" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H841" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1">
+        <v>45783.7272650463</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F842" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G842" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H842" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1">
+        <v>45783.727492465274</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C843" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E843" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F843" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G843" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H843" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1">
+        <v>45783.72817421296</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E844" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F844" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G844" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H844" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I844" s="2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1">
+        <v>45783.7293915162</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E845" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F845" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G845" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H845" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1">
+        <v>45783.729727893515</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F846" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G846" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H846" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I846" s="2" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1">
+        <v>45783.73377417824</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G847" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H847" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I847" s="2" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1">
+        <v>45783.733932013885</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E848" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F848" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G848" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H848" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1">
+        <v>45783.73508484954</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E849" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F849" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G849" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H849" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1">
+        <v>45783.73551663195</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C850" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E850" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G850" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H850" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1">
+        <v>45783.735685312495</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C851" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E851" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G851" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H851" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1">
+        <v>45783.73607380787</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E852" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F852" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G852" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H852" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I852" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1">
+        <v>45783.73631936342</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F853" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G853" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H853" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1">
+        <v>45783.736700636575</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C854" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G854" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H854" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1">
+        <v>45783.736872395835</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C855" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E855" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F855" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G855" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H855" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1">
+        <v>45783.73693886574</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C856" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F856" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G856" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H856" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1">
+        <v>45783.737219965275</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F857" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G857" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H857" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1">
+        <v>45783.73741613426</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F858" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G858" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H858" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1">
+        <v>45783.73748170139</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F859" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G859" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H859" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1">
+        <v>45783.73796076389</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F860" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G860" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H860" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I860" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1">
+        <v>45783.738222858796</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F861" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G861" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H861" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I861" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1">
+        <v>45784.52747188657</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F862" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G862" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H862" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I862" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1">
+        <v>45784.5283978125</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G863" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H863" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I863" s="2" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1">
+        <v>45784.52853542824</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F864" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G864" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H864" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1">
+        <v>45784.52904553241</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F865" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H865" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I865" s="2" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1">
+        <v>45784.52912358796</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H866" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1">
+        <v>45784.529246273145</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F867" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H867" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1">
+        <v>45784.52968346065</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C868" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H868" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1">
+        <v>45784.52988241898</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F869" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H869" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1">
+        <v>45784.53015803241</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H870" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I870" s="2" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1">
+        <v>45784.53033768518</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F871" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H871" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1">
+        <v>45784.53070979167</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H872" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1">
+        <v>45784.53098269676</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C873" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F873" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G873" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H873" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1">
+        <v>45784.53113469908</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F874" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H874" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1">
+        <v>45784.53212364583</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H875" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1">
+        <v>45784.53264203704</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H876" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I876" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1">
+        <v>45784.53298653935</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G877" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H877" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I877" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1">
+        <v>45784.53317776621</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F878" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G878" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H878" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I878" s="2" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1">
+        <v>45784.5337235301</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F879" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G879" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H879" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1">
+        <v>45784.533958263884</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F880" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G880" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H880" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1">
+        <v>45784.53433193287</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F881" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G881" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H881" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I881" s="2" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1">
+        <v>45784.53444754629</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F882" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G882" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H882" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1">
+        <v>45784.534775520835</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F883" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G883" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H883" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1">
+        <v>45784.53496319444</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F884" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G884" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H884" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1">
+        <v>45784.53522491898</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F885" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G885" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H885" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1">
+        <v>45784.53659094908</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F886" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G886" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H886" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1">
+        <v>45784.53698873843</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C887" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F887" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G887" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H887" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1">
+        <v>45784.54188682871</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G888" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H888" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I888" s="2" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1">
+        <v>45784.54195385417</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F889" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G889" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H889" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1">
+        <v>45784.54223063657</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G890" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H890" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1">
+        <v>45784.543615567134</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F891" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G891" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H891" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I891" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1">
+        <v>45784.543885046296</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F892" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G892" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H892" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I892" s="2" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1">
+        <v>45784.54396708333</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F893" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G893" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H893" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1">
+        <v>45784.54500083333</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F894" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G894" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H894" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1">
+        <v>45784.54605188657</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F895" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G895" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H895" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I895" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1">
+        <v>45784.54614185185</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E896" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F896" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G896" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H896" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1">
+        <v>45784.546208541666</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C897" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E897" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F897" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G897" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H897" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1">
+        <v>45784.546349861106</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C898" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E898" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F898" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G898" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H898" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1">
+        <v>45784.54653825231</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C899" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E899" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F899" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G899" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H899" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1">
+        <v>45784.54678005787</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C900" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D900" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E900" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F900" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G900" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H900" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I900" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1">
+        <v>45784.54684358796</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C901" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D901" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E901" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F901" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G901" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H901" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1">
+        <v>45784.54757043981</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C902" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D902" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E902" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F902" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G902" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H902" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1">
+        <v>45784.54773372685</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C903" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E903" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F903" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G903" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H903" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1">
+        <v>45784.548534340276</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C904" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D904" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E904" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F904" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G904" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H904" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I904" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1">
+        <v>45784.548603460644</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C905" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F905" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G905" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H905" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1">
+        <v>45784.54881155092</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C906" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F906" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G906" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H906" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1">
+        <v>45784.548988587965</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C907" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E907" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F907" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G907" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H907" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I907" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1">
+        <v>45784.549200706024</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C908" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G908" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H908" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1">
+        <v>45784.54939799769</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G909" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H909" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1">
+        <v>45784.549646562504</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C910" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G910" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H910" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1">
+        <v>45784.55059658564</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C911" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G911" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H911" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I911" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26253,16 +29549,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1528</v>
+        <v>1733</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1529</v>
+        <v>1734</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1530</v>
+        <v>1735</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1531</v>
+        <v>1736</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -26275,14 +29571,14 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45783.35666</v>
+        <v>45785.47417</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1532</v>
+        <v>1737</v>
       </c>
       <c r="F2" s="7">
         <f>0.1*F1</f>
@@ -26300,14 +29596,14 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" si="1"/>
-        <v>45783.35666</v>
+        <v>45785.47417</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1533</v>
+        <v>1738</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(B2:B7)</f>
-        <v>1155</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4">
@@ -26321,7 +29617,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>45783.35666</v>
+        <v>45785.47417</v>
       </c>
     </row>
     <row r="5">
@@ -26335,7 +29631,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>45783.35666</v>
+        <v>45785.47417</v>
       </c>
     </row>
     <row r="6">
@@ -26349,7 +29645,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>45783.35666</v>
+        <v>45785.47417</v>
       </c>
     </row>
     <row r="7">
@@ -26363,7 +29659,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>45783.35666</v>
+        <v>45785.47417</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7353" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7703" uniqueCount="2078">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -5949,6 +5949,285 @@
   </si>
   <si>
     <t>Sorry. Unable to answer your question. I don’t have account in CIMB.</t>
+  </si>
+  <si>
+    <t>2025-05-11T12-29-10-700Z</t>
+  </si>
+  <si>
+    <t>inputs/SGExamsChat_messages639_part1.csv</t>
+  </si>
+  <si>
+    <t>1 of them the parents hired two tutors simultaneously to "try"</t>
+  </si>
+  <si>
+    <t>one of the parents hired two tutors simultaneously to try them out.</t>
+  </si>
+  <si>
+    <t>but didn't let us know or anything</t>
+  </si>
+  <si>
+    <t>but didn't let us know</t>
+  </si>
+  <si>
+    <t>both of us showed up to the house</t>
+  </si>
+  <si>
+    <t>i didn't hear back after that so</t>
+  </si>
+  <si>
+    <t>i didn't hear back after that so it was left hanging</t>
+  </si>
+  <si>
+    <t>i received the cancellation text literally that night</t>
+  </si>
+  <si>
+    <t>i literally received the cancellation text that night</t>
+  </si>
+  <si>
+    <t>Why wldnt u use it ?</t>
+  </si>
+  <si>
+    <t>Seems like u dodged a flying banana</t>
+  </si>
+  <si>
+    <t>It seems like you dodged a bullet.</t>
+  </si>
+  <si>
+    <t>Was ur jc life kinda boring</t>
+  </si>
+  <si>
+    <t>Was your jc life rather boring?</t>
+  </si>
+  <si>
+    <t>Doesnt sound like u had much on</t>
+  </si>
+  <si>
+    <t>Doesn't sound like you had much going on.</t>
+  </si>
+  <si>
+    <t>No wonder ur studies so gd</t>
+  </si>
+  <si>
+    <t>No wonder your studies were so good.</t>
+  </si>
+  <si>
+    <t>If i dont do i die for the content TT</t>
+  </si>
+  <si>
+    <t>If I don't do, I will die for the content.</t>
+  </si>
+  <si>
+    <t>Some ppl will come over to use aft class</t>
+  </si>
+  <si>
+    <t>Some people will come over after class to use.</t>
+  </si>
+  <si>
+    <t>Our bio tcher oso wan use</t>
+  </si>
+  <si>
+    <t>Our bio teacher also wanted to use.</t>
+  </si>
+  <si>
+    <t>Hows that gna fit in a classroom</t>
+  </si>
+  <si>
+    <t>How is that going to fit in a classroom?</t>
+  </si>
+  <si>
+    <t>i messed up hours worth of calculations</t>
+  </si>
+  <si>
+    <t>huge equations that i made a simple error</t>
+  </si>
+  <si>
+    <t>so it cascades to all the simplification</t>
+  </si>
+  <si>
+    <t>so it all cascades to the simplification</t>
+  </si>
+  <si>
+    <t>I think about how to deal w work</t>
+  </si>
+  <si>
+    <t>Why is sge filled w geniuses</t>
+  </si>
+  <si>
+    <t>Why is singapore filled with geniuses?</t>
+  </si>
+  <si>
+    <t>I study excel easy instead of h1 maff</t>
+  </si>
+  <si>
+    <t>It is easier to study excel compared to h1 math.</t>
+  </si>
+  <si>
+    <t>Ok srsly what is chao keng</t>
+  </si>
+  <si>
+    <t>Okay seriously. What is "chao keng"?</t>
+  </si>
+  <si>
+    <t>I cry until i miss half of prac</t>
+  </si>
+  <si>
+    <t>I cried until I missed half of the practice.</t>
+  </si>
+  <si>
+    <t>Cough until u miss half of prac</t>
+  </si>
+  <si>
+    <t>Coughed until you missed half of the practice.</t>
+  </si>
+  <si>
+    <t>Ic how it got messed up</t>
+  </si>
+  <si>
+    <t>I see how it got messed up.</t>
+  </si>
+  <si>
+    <t>Ur 90rp is alr coming up next month</t>
+  </si>
+  <si>
+    <t>Your 90rp is coming up next month.</t>
+  </si>
+  <si>
+    <t>Pulling bellcurve up for me :")</t>
+  </si>
+  <si>
+    <t>Pulling the bellcurve up for me</t>
+  </si>
+  <si>
+    <t>this one you retake so NS past by faster</t>
+  </si>
+  <si>
+    <t>You should retake this one, so NS will pass by faster.</t>
+  </si>
+  <si>
+    <t>G and H tgt is literally impossible</t>
+  </si>
+  <si>
+    <t>It is literally impossible for G and H together.</t>
+  </si>
+  <si>
+    <t>Unless u photog memory + tuition + rich</t>
+  </si>
+  <si>
+    <t>Unless you have photographic memory + tuition + money</t>
+  </si>
+  <si>
+    <t>H2 history alr sm uw memo geog</t>
+  </si>
+  <si>
+    <t>H2 history is already so much memory</t>
+  </si>
+  <si>
+    <t>ye  i did G + H</t>
+  </si>
+  <si>
+    <t>yes i did G + H</t>
+  </si>
+  <si>
+    <t>now i must clear all other subs</t>
+  </si>
+  <si>
+    <t>now, i must clear all the other subs.</t>
+  </si>
+  <si>
+    <t>I take bcmh that prob y i skewed</t>
+  </si>
+  <si>
+    <t>i take bcmh. that is probably why i skewed.</t>
+  </si>
+  <si>
+    <t>How did u do G n H tho???</t>
+  </si>
+  <si>
+    <t>How did you do in G and H though???</t>
+  </si>
+  <si>
+    <t>I mean how do u study both n not like</t>
+  </si>
+  <si>
+    <t>I mean, how do you study both?</t>
+  </si>
+  <si>
+    <t>My study method G n H tgt kenot 1</t>
+  </si>
+  <si>
+    <t>My study method does not allow for G and H together.</t>
+  </si>
+  <si>
+    <t>What in the fake char siew in that</t>
+  </si>
+  <si>
+    <t>What in the world is that?</t>
+  </si>
+  <si>
+    <t>oh i ate this during open house last year</t>
+  </si>
+  <si>
+    <t>Oh, i ate this during open house last year.</t>
+  </si>
+  <si>
+    <t>Howd u remb what u ate in open hse last yr</t>
+  </si>
+  <si>
+    <t>How did you remember what you had eaten in the open house last year?</t>
+  </si>
+  <si>
+    <t>Lol glad I wasn't the only one</t>
+  </si>
+  <si>
+    <t>Lol. I'm glad I wasn't the only one.</t>
+  </si>
+  <si>
+    <t>Bro it looks like those display case wax kinda food 😭</t>
+  </si>
+  <si>
+    <t>Bro, it looks like wax food in those display cases.</t>
+  </si>
+  <si>
+    <t>I have reemerged from the depths</t>
+  </si>
+  <si>
+    <t>My friend won a bottle of prosecco</t>
+  </si>
+  <si>
+    <t>I drank it on an empty stomach</t>
+  </si>
+  <si>
+    <t>But damn one bottle on an empty stomach</t>
+  </si>
+  <si>
+    <t>But damn. One bottle on an empty stomach.</t>
+  </si>
+  <si>
+    <t>DUDE NOT THAT GUY AGAIN LOL</t>
+  </si>
+  <si>
+    <t>Atarax/bedok/kuro can summarize any interesting convos that happened</t>
+  </si>
+  <si>
+    <t>Atarax/ bedok/ kuro, can you guys summarized any interesting convos that happened?</t>
+  </si>
+  <si>
+    <t>Why got this person doubting the feasibility of GHLP</t>
+  </si>
+  <si>
+    <t>Why is this person doubting the feasibility of GHLP?</t>
+  </si>
+  <si>
+    <t>The one who said ghlp is an impossible subject combi</t>
+  </si>
+  <si>
+    <t>The one who said GHLP is an impossible subject combination.</t>
+  </si>
+  <si>
+    <t>it's like i magically heal when i receive the mc</t>
+  </si>
+  <si>
+    <t>It seems that I magically healed when I received the MC.</t>
   </si>
   <si>
     <t>Name</t>
@@ -33459,504 +33738,1304 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" s="1"/>
-      <c r="B1033" s="2"/>
-      <c r="C1033" s="2"/>
-      <c r="D1033" s="2"/>
-      <c r="E1033" s="2"/>
-      <c r="F1033" s="2"/>
-      <c r="G1033" s="2"/>
-      <c r="H1033" s="2"/>
+      <c r="A1033" s="1">
+        <v>45788.353827638886</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G1033" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1033" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1034">
-      <c r="A1034" s="1"/>
-      <c r="B1034" s="2"/>
-      <c r="C1034" s="2"/>
-      <c r="D1034" s="2"/>
-      <c r="E1034" s="2"/>
-      <c r="F1034" s="2"/>
-      <c r="G1034" s="2"/>
-      <c r="H1034" s="2"/>
+      <c r="A1034" s="1">
+        <v>45788.354045162036</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F1034" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G1034" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1034" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1035">
-      <c r="A1035" s="1"/>
-      <c r="B1035" s="2"/>
-      <c r="C1035" s="2"/>
-      <c r="D1035" s="2"/>
-      <c r="E1035" s="2"/>
-      <c r="F1035" s="2"/>
-      <c r="G1035" s="2"/>
-      <c r="H1035" s="2"/>
+      <c r="A1035" s="1">
+        <v>45788.3550280787</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1035" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F1035" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1035" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1035" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1036">
-      <c r="A1036" s="1"/>
-      <c r="B1036" s="2"/>
-      <c r="C1036" s="2"/>
-      <c r="D1036" s="2"/>
-      <c r="E1036" s="2"/>
-      <c r="F1036" s="2"/>
-      <c r="G1036" s="2"/>
-      <c r="H1036" s="2"/>
+      <c r="A1036" s="1">
+        <v>45788.35531280092</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1036" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F1036" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G1036" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1036" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1037">
-      <c r="A1037" s="1"/>
-      <c r="B1037" s="2"/>
-      <c r="C1037" s="2"/>
-      <c r="D1037" s="2"/>
-      <c r="E1037" s="2"/>
-      <c r="F1037" s="2"/>
-      <c r="G1037" s="2"/>
-      <c r="H1037" s="2"/>
+      <c r="A1037" s="1">
+        <v>45788.355506168984</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1037" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F1037" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G1037" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1037" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1038">
-      <c r="A1038" s="1"/>
-      <c r="B1038" s="2"/>
-      <c r="C1038" s="2"/>
-      <c r="D1038" s="2"/>
-      <c r="E1038" s="2"/>
-      <c r="F1038" s="2"/>
-      <c r="G1038" s="2"/>
-      <c r="H1038" s="2"/>
+      <c r="A1038" s="1">
+        <v>45788.35561293981</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1038" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F1038" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1038" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1038" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1039">
-      <c r="A1039" s="1"/>
-      <c r="B1039" s="2"/>
-      <c r="C1039" s="2"/>
-      <c r="D1039" s="2"/>
-      <c r="E1039" s="2"/>
-      <c r="F1039" s="2"/>
-      <c r="G1039" s="2"/>
-      <c r="H1039" s="2"/>
+      <c r="A1039" s="1">
+        <v>45788.35577708333</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1039" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F1039" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G1039" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1039" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1040">
-      <c r="A1040" s="1"/>
-      <c r="B1040" s="2"/>
-      <c r="C1040" s="2"/>
-      <c r="D1040" s="2"/>
-      <c r="E1040" s="2"/>
-      <c r="F1040" s="2"/>
-      <c r="G1040" s="2"/>
-      <c r="H1040" s="2"/>
+      <c r="A1040" s="1">
+        <v>45788.35588938657</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1040" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F1040" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G1040" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1040" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1041">
-      <c r="A1041" s="1"/>
-      <c r="B1041" s="2"/>
-      <c r="C1041" s="2"/>
-      <c r="D1041" s="2"/>
-      <c r="E1041" s="2"/>
-      <c r="F1041" s="2"/>
-      <c r="G1041" s="2"/>
-      <c r="H1041" s="2"/>
+      <c r="A1041" s="1">
+        <v>45788.35601373843</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1041" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1041" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1041" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1041" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1042">
-      <c r="A1042" s="1"/>
-      <c r="B1042" s="2"/>
-      <c r="C1042" s="2"/>
-      <c r="D1042" s="2"/>
-      <c r="E1042" s="2"/>
-      <c r="F1042" s="2"/>
-      <c r="G1042" s="2"/>
-      <c r="H1042" s="2"/>
+      <c r="A1042" s="1">
+        <v>45788.35611940973</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1042" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G1042" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1042" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1043">
-      <c r="A1043" s="1"/>
-      <c r="B1043" s="2"/>
-      <c r="C1043" s="2"/>
-      <c r="D1043" s="2"/>
-      <c r="E1043" s="2"/>
-      <c r="F1043" s="2"/>
-      <c r="G1043" s="2"/>
-      <c r="H1043" s="2"/>
+      <c r="A1043" s="1">
+        <v>45788.3562833912</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1043" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F1043" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G1043" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1043" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1044">
-      <c r="A1044" s="1"/>
-      <c r="B1044" s="2"/>
-      <c r="C1044" s="2"/>
-      <c r="D1044" s="2"/>
-      <c r="E1044" s="2"/>
-      <c r="F1044" s="2"/>
-      <c r="G1044" s="2"/>
-      <c r="H1044" s="2"/>
+      <c r="A1044" s="1">
+        <v>45788.35654648148</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1044" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1044" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G1044" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1044" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1045">
-      <c r="A1045" s="1"/>
-      <c r="B1045" s="2"/>
-      <c r="C1045" s="2"/>
-      <c r="D1045" s="2"/>
-      <c r="E1045" s="2"/>
-      <c r="F1045" s="2"/>
-      <c r="G1045" s="2"/>
-      <c r="H1045" s="2"/>
+      <c r="A1045" s="1">
+        <v>45788.3566596875</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1045" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F1045" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G1045" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1045" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1046">
-      <c r="A1046" s="1"/>
-      <c r="B1046" s="2"/>
-      <c r="C1046" s="2"/>
-      <c r="D1046" s="2"/>
-      <c r="E1046" s="2"/>
-      <c r="F1046" s="2"/>
-      <c r="G1046" s="2"/>
-      <c r="H1046" s="2"/>
+      <c r="A1046" s="1">
+        <v>45788.35681856482</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1046" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F1046" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G1046" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1046" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1047">
-      <c r="A1047" s="1"/>
-      <c r="B1047" s="2"/>
-      <c r="C1047" s="2"/>
-      <c r="D1047" s="2"/>
-      <c r="E1047" s="2"/>
-      <c r="F1047" s="2"/>
-      <c r="G1047" s="2"/>
-      <c r="H1047" s="2"/>
+      <c r="A1047" s="1">
+        <v>45788.356888553244</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1047" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F1047" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1047" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1047" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1048">
-      <c r="A1048" s="1"/>
-      <c r="B1048" s="2"/>
-      <c r="C1048" s="2"/>
-      <c r="D1048" s="2"/>
-      <c r="E1048" s="2"/>
-      <c r="F1048" s="2"/>
-      <c r="G1048" s="2"/>
-      <c r="H1048" s="2"/>
+      <c r="A1048" s="1">
+        <v>45788.356973587965</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1048" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F1048" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1048" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1048" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1049">
-      <c r="A1049" s="1"/>
-      <c r="B1049" s="2"/>
-      <c r="C1049" s="2"/>
-      <c r="D1049" s="2"/>
-      <c r="E1049" s="2"/>
-      <c r="F1049" s="2"/>
-      <c r="G1049" s="2"/>
-      <c r="H1049" s="2"/>
+      <c r="A1049" s="1">
+        <v>45788.35767628472</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1049" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F1049" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G1049" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1049" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1050">
-      <c r="A1050" s="1"/>
-      <c r="B1050" s="2"/>
-      <c r="C1050" s="2"/>
-      <c r="D1050" s="2"/>
-      <c r="E1050" s="2"/>
-      <c r="F1050" s="2"/>
-      <c r="G1050" s="2"/>
-      <c r="H1050" s="2"/>
+      <c r="A1050" s="1">
+        <v>45788.3577484375</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1050" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F1050" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1050" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1050" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1051">
-      <c r="A1051" s="1"/>
-      <c r="B1051" s="2"/>
-      <c r="C1051" s="2"/>
-      <c r="D1051" s="2"/>
-      <c r="E1051" s="2"/>
-      <c r="F1051" s="2"/>
-      <c r="G1051" s="2"/>
-      <c r="H1051" s="2"/>
+      <c r="A1051" s="1">
+        <v>45788.35791515047</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1051" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F1051" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G1051" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1051" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1052">
-      <c r="A1052" s="1"/>
-      <c r="B1052" s="2"/>
-      <c r="C1052" s="2"/>
-      <c r="D1052" s="2"/>
-      <c r="E1052" s="2"/>
-      <c r="F1052" s="2"/>
-      <c r="G1052" s="2"/>
-      <c r="H1052" s="2"/>
+      <c r="A1052" s="1">
+        <v>45788.35823866898</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F1052" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G1052" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1052" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1053">
-      <c r="A1053" s="1"/>
-      <c r="B1053" s="2"/>
-      <c r="C1053" s="2"/>
-      <c r="D1053" s="2"/>
-      <c r="E1053" s="2"/>
-      <c r="F1053" s="2"/>
-      <c r="G1053" s="2"/>
-      <c r="H1053" s="2"/>
+      <c r="A1053" s="1">
+        <v>45788.35839363426</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F1053" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G1053" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1053" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1054">
-      <c r="A1054" s="1"/>
-      <c r="B1054" s="2"/>
-      <c r="C1054" s="2"/>
-      <c r="D1054" s="2"/>
-      <c r="E1054" s="2"/>
-      <c r="F1054" s="2"/>
-      <c r="G1054" s="2"/>
-      <c r="H1054" s="2"/>
+      <c r="A1054" s="1">
+        <v>45788.35851104167</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F1054" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G1054" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1054" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1055">
-      <c r="A1055" s="1"/>
-      <c r="B1055" s="2"/>
-      <c r="C1055" s="2"/>
-      <c r="D1055" s="2"/>
-      <c r="E1055" s="2"/>
-      <c r="F1055" s="2"/>
-      <c r="G1055" s="2"/>
-      <c r="H1055" s="2"/>
+      <c r="A1055" s="1">
+        <v>45788.358653483796</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1055" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F1055" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G1055" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1055" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1056">
-      <c r="A1056" s="1"/>
-      <c r="B1056" s="2"/>
-      <c r="C1056" s="2"/>
-      <c r="D1056" s="2"/>
-      <c r="E1056" s="2"/>
-      <c r="F1056" s="2"/>
-      <c r="G1056" s="2"/>
-      <c r="H1056" s="2"/>
+      <c r="A1056" s="1">
+        <v>45788.358762777774</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1056" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F1056" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G1056" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1056" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1057">
-      <c r="A1057" s="1"/>
-      <c r="B1057" s="2"/>
-      <c r="C1057" s="2"/>
-      <c r="D1057" s="2"/>
-      <c r="E1057" s="2"/>
-      <c r="F1057" s="2"/>
-      <c r="G1057" s="2"/>
-      <c r="H1057" s="2"/>
+      <c r="A1057" s="1">
+        <v>45788.35889684028</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F1057" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G1057" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1057" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1058">
-      <c r="A1058" s="1"/>
-      <c r="B1058" s="2"/>
-      <c r="C1058" s="2"/>
-      <c r="D1058" s="2"/>
-      <c r="E1058" s="2"/>
-      <c r="F1058" s="2"/>
-      <c r="G1058" s="2"/>
-      <c r="H1058" s="2"/>
+      <c r="A1058" s="1">
+        <v>45788.3590355787</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F1058" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G1058" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1058" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1059">
-      <c r="A1059" s="1"/>
-      <c r="B1059" s="2"/>
-      <c r="C1059" s="2"/>
-      <c r="D1059" s="2"/>
-      <c r="E1059" s="2"/>
-      <c r="F1059" s="2"/>
-      <c r="G1059" s="2"/>
-      <c r="H1059" s="2"/>
+      <c r="A1059" s="1">
+        <v>45788.35930466435</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G1059" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1059" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1060">
-      <c r="A1060" s="1"/>
-      <c r="B1060" s="2"/>
-      <c r="C1060" s="2"/>
-      <c r="D1060" s="2"/>
-      <c r="E1060" s="2"/>
-      <c r="F1060" s="2"/>
-      <c r="G1060" s="2"/>
-      <c r="H1060" s="2"/>
+      <c r="A1060" s="1">
+        <v>45788.35944663195</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G1060" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1060" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1061">
-      <c r="A1061" s="1"/>
-      <c r="B1061" s="2"/>
-      <c r="C1061" s="2"/>
-      <c r="D1061" s="2"/>
-      <c r="E1061" s="2"/>
-      <c r="F1061" s="2"/>
-      <c r="G1061" s="2"/>
-      <c r="H1061" s="2"/>
+      <c r="A1061" s="1">
+        <v>45788.359675706015</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1061" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F1061" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G1061" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1061" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1062">
-      <c r="A1062" s="1"/>
-      <c r="B1062" s="2"/>
-      <c r="C1062" s="2"/>
-      <c r="D1062" s="2"/>
-      <c r="E1062" s="2"/>
-      <c r="F1062" s="2"/>
-      <c r="G1062" s="2"/>
-      <c r="H1062" s="2"/>
+      <c r="A1062" s="1">
+        <v>45788.36022335648</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1062" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F1062" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G1062" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1062" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1063">
-      <c r="A1063" s="1"/>
-      <c r="B1063" s="2"/>
-      <c r="C1063" s="2"/>
-      <c r="D1063" s="2"/>
-      <c r="E1063" s="2"/>
-      <c r="F1063" s="2"/>
-      <c r="G1063" s="2"/>
-      <c r="H1063" s="2"/>
+      <c r="A1063" s="1">
+        <v>45788.36031585648</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G1063" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1063" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1064">
-      <c r="A1064" s="1"/>
-      <c r="B1064" s="2"/>
-      <c r="C1064" s="2"/>
-      <c r="D1064" s="2"/>
-      <c r="E1064" s="2"/>
-      <c r="F1064" s="2"/>
-      <c r="G1064" s="2"/>
-      <c r="H1064" s="2"/>
+      <c r="A1064" s="1">
+        <v>45788.36042163194</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F1064" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G1064" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1064" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1065">
-      <c r="A1065" s="1"/>
-      <c r="B1065" s="2"/>
-      <c r="C1065" s="2"/>
-      <c r="D1065" s="2"/>
-      <c r="E1065" s="2"/>
-      <c r="F1065" s="2"/>
-      <c r="G1065" s="2"/>
-      <c r="H1065" s="2"/>
+      <c r="A1065" s="1">
+        <v>45788.36054178241</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1065" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1065" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G1065" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1065" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1066">
-      <c r="A1066" s="1"/>
-      <c r="B1066" s="2"/>
-      <c r="C1066" s="2"/>
-      <c r="D1066" s="2"/>
-      <c r="E1066" s="2"/>
-      <c r="F1066" s="2"/>
-      <c r="G1066" s="2"/>
-      <c r="H1066" s="2"/>
+      <c r="A1066" s="1">
+        <v>45788.360662430554</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1066" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F1066" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G1066" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1066" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1067">
-      <c r="A1067" s="1"/>
-      <c r="B1067" s="2"/>
-      <c r="C1067" s="2"/>
-      <c r="D1067" s="2"/>
-      <c r="E1067" s="2"/>
-      <c r="F1067" s="2"/>
-      <c r="G1067" s="2"/>
-      <c r="H1067" s="2"/>
+      <c r="A1067" s="1">
+        <v>45788.360769085644</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1067" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F1067" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G1067" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1067" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1068">
-      <c r="A1068" s="1"/>
-      <c r="B1068" s="2"/>
-      <c r="C1068" s="2"/>
-      <c r="D1068" s="2"/>
-      <c r="E1068" s="2"/>
-      <c r="F1068" s="2"/>
-      <c r="G1068" s="2"/>
-      <c r="H1068" s="2"/>
+      <c r="A1068" s="1">
+        <v>45788.3609334838</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1068" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G1068" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1068" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1069">
-      <c r="A1069" s="1"/>
-      <c r="B1069" s="2"/>
-      <c r="C1069" s="2"/>
-      <c r="D1069" s="2"/>
-      <c r="E1069" s="2"/>
-      <c r="F1069" s="2"/>
-      <c r="G1069" s="2"/>
-      <c r="H1069" s="2"/>
+      <c r="A1069" s="1">
+        <v>45788.36103398148</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1069" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1069" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F1069" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G1069" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1069" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1070">
-      <c r="A1070" s="1"/>
-      <c r="B1070" s="2"/>
-      <c r="C1070" s="2"/>
-      <c r="D1070" s="2"/>
-      <c r="E1070" s="2"/>
-      <c r="F1070" s="2"/>
-      <c r="G1070" s="2"/>
-      <c r="H1070" s="2"/>
+      <c r="A1070" s="1">
+        <v>45788.36112972222</v>
+      </c>
+      <c r="B1070" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1070" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1070" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1070" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F1070" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G1070" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1070" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1071">
-      <c r="A1071" s="1"/>
-      <c r="B1071" s="2"/>
-      <c r="C1071" s="2"/>
-      <c r="D1071" s="2"/>
-      <c r="E1071" s="2"/>
-      <c r="F1071" s="2"/>
-      <c r="G1071" s="2"/>
-      <c r="H1071" s="2"/>
+      <c r="A1071" s="1">
+        <v>45788.361259178244</v>
+      </c>
+      <c r="B1071" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1071" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1071" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1071" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F1071" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G1071" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1071" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1072">
-      <c r="A1072" s="1"/>
-      <c r="B1072" s="2"/>
-      <c r="C1072" s="2"/>
-      <c r="D1072" s="2"/>
-      <c r="E1072" s="2"/>
-      <c r="F1072" s="2"/>
-      <c r="G1072" s="2"/>
-      <c r="H1072" s="2"/>
+      <c r="A1072" s="1">
+        <v>45788.36135341435</v>
+      </c>
+      <c r="B1072" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1072" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1072" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F1072" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G1072" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1072" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1073">
-      <c r="A1073" s="1"/>
-      <c r="B1073" s="2"/>
-      <c r="C1073" s="2"/>
-      <c r="D1073" s="2"/>
-      <c r="E1073" s="2"/>
-      <c r="F1073" s="2"/>
-      <c r="G1073" s="2"/>
-      <c r="H1073" s="2"/>
+      <c r="A1073" s="1">
+        <v>45788.361686331016</v>
+      </c>
+      <c r="B1073" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1073" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1073" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F1073" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G1073" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1073" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1074">
-      <c r="A1074" s="1"/>
-      <c r="B1074" s="2"/>
-      <c r="C1074" s="2"/>
-      <c r="D1074" s="2"/>
-      <c r="E1074" s="2"/>
-      <c r="F1074" s="2"/>
-      <c r="G1074" s="2"/>
-      <c r="H1074" s="2"/>
+      <c r="A1074" s="1">
+        <v>45788.36176868055</v>
+      </c>
+      <c r="B1074" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1074" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1074" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1074" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F1074" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1074" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1074" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1075">
-      <c r="A1075" s="1"/>
-      <c r="B1075" s="2"/>
-      <c r="C1075" s="2"/>
-      <c r="D1075" s="2"/>
-      <c r="E1075" s="2"/>
-      <c r="F1075" s="2"/>
-      <c r="G1075" s="2"/>
-      <c r="H1075" s="2"/>
+      <c r="A1075" s="1">
+        <v>45788.36181091436</v>
+      </c>
+      <c r="B1075" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1075" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1075" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1075" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1075" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1075" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1076">
-      <c r="A1076" s="1"/>
-      <c r="B1076" s="2"/>
-      <c r="C1076" s="2"/>
-      <c r="D1076" s="2"/>
-      <c r="E1076" s="2"/>
-      <c r="F1076" s="2"/>
-      <c r="G1076" s="2"/>
-      <c r="H1076" s="2"/>
+      <c r="A1076" s="1">
+        <v>45788.36189616898</v>
+      </c>
+      <c r="B1076" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1076" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1076" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F1076" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1076" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1076" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1077">
-      <c r="A1077" s="1"/>
-      <c r="B1077" s="2"/>
-      <c r="C1077" s="2"/>
-      <c r="D1077" s="2"/>
-      <c r="E1077" s="2"/>
-      <c r="F1077" s="2"/>
-      <c r="G1077" s="2"/>
-      <c r="H1077" s="2"/>
+      <c r="A1077" s="1">
+        <v>45788.36200328704</v>
+      </c>
+      <c r="B1077" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1077" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1077" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1077" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G1077" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1077" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1078">
-      <c r="A1078" s="1"/>
-      <c r="B1078" s="2"/>
-      <c r="C1078" s="2"/>
-      <c r="D1078" s="2"/>
-      <c r="E1078" s="2"/>
-      <c r="F1078" s="2"/>
-      <c r="G1078" s="2"/>
-      <c r="H1078" s="2"/>
+      <c r="A1078" s="1">
+        <v>45788.36205650463</v>
+      </c>
+      <c r="B1078" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1078" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1078" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F1078" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1078" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1078" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1079">
-      <c r="A1079" s="1"/>
-      <c r="B1079" s="2"/>
-      <c r="C1079" s="2"/>
-      <c r="D1079" s="2"/>
-      <c r="E1079" s="2"/>
-      <c r="F1079" s="2"/>
-      <c r="G1079" s="2"/>
-      <c r="H1079" s="2"/>
+      <c r="A1079" s="1">
+        <v>45788.362308807875</v>
+      </c>
+      <c r="B1079" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1079" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1079" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1079" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G1079" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1079" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1080">
-      <c r="A1080" s="1"/>
-      <c r="B1080" s="2"/>
-      <c r="C1080" s="2"/>
-      <c r="D1080" s="2"/>
-      <c r="E1080" s="2"/>
-      <c r="F1080" s="2"/>
-      <c r="G1080" s="2"/>
-      <c r="H1080" s="2"/>
+      <c r="A1080" s="1">
+        <v>45788.362432615744</v>
+      </c>
+      <c r="B1080" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1080" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1080" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F1080" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G1080" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1080" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1081">
-      <c r="A1081" s="1"/>
-      <c r="B1081" s="2"/>
-      <c r="C1081" s="2"/>
-      <c r="D1081" s="2"/>
-      <c r="E1081" s="2"/>
-      <c r="F1081" s="2"/>
-      <c r="G1081" s="2"/>
-      <c r="H1081" s="2"/>
+      <c r="A1081" s="1">
+        <v>45788.36262753472</v>
+      </c>
+      <c r="B1081" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1081" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1081" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F1081" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G1081" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1081" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1082">
-      <c r="A1082" s="1"/>
-      <c r="B1082" s="2"/>
-      <c r="C1082" s="2"/>
-      <c r="D1082" s="2"/>
-      <c r="E1082" s="2"/>
-      <c r="F1082" s="2"/>
-      <c r="G1082" s="2"/>
-      <c r="H1082" s="2"/>
+      <c r="A1082" s="1">
+        <v>45788.36282539352</v>
+      </c>
+      <c r="B1082" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1082" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1082" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F1082" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G1082" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1082" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="1"/>
@@ -43161,16 +44240,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>1979</v>
+        <v>2072</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1980</v>
+        <v>2073</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1981</v>
+        <v>2074</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1982</v>
+        <v>2075</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -43183,14 +44262,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45787.35594</v>
+        <v>45788.36283</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1983</v>
+        <v>2076</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -43208,14 +44287,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45787.35594</v>
+        <v>45788.36283</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1984</v>
+        <v>2077</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1376</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="4">
@@ -43229,7 +44308,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45787.35594</v>
+        <v>45788.36283</v>
       </c>
     </row>
     <row r="5">
@@ -43243,7 +44322,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45787.35594</v>
+        <v>45788.36283</v>
       </c>
     </row>
     <row r="6">
@@ -43257,7 +44336,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45787.35594</v>
+        <v>45788.36283</v>
       </c>
     </row>
     <row r="7">
@@ -43271,7 +44350,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45787.35594</v>
+        <v>45788.36283</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7703" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8236" uniqueCount="2235">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -6228,6 +6228,477 @@
   </si>
   <si>
     <t>It seems that I magically healed when I received the MC.</t>
+  </si>
+  <si>
+    <t>2025-05-12T13-30-39-237Z</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages395_part4.csv</t>
+  </si>
+  <si>
+    <t>I still feel original best for this</t>
+  </si>
+  <si>
+    <t>I still feel that the original is the best for this</t>
+  </si>
+  <si>
+    <t>Coconut ice blend with orea best</t>
+  </si>
+  <si>
+    <t>Coconut ice blend with orea is the best</t>
+  </si>
+  <si>
+    <t>I’m missing my bed already. 😭😭</t>
+  </si>
+  <si>
+    <t>I’m already missing my bed. 😭😭</t>
+  </si>
+  <si>
+    <t>I feel u.. when I go travel  I miss my bed  my pillow  my toilet n the food in sg.... then I came back  I miss the travel  cold weather n some places their nice fresh air</t>
+  </si>
+  <si>
+    <t>I feel u.. when I travel I miss my bed, my pillow, my toilet n the food in sg.... then I come back and I miss the travel, cold weather n for some places, their nice fresh air</t>
+  </si>
+  <si>
+    <t>I can sleep very well if I go bkk hahahaha</t>
+  </si>
+  <si>
+    <t>I can sleep very well if I go to bkk hahahaha</t>
+  </si>
+  <si>
+    <t>I quite season liao so ok lah I can sleep everywhere usually. Got 1 place in Canada the bed hard cause barely got mattress.. omg I can't..</t>
+  </si>
+  <si>
+    <t>I am already quite season so it is ok,  I can sleep everywhere usually. There was 1 place in Canada where the bed was hard cause there was barely any mattress.. omg I can't do it..</t>
+  </si>
+  <si>
+    <t>I think coz very shag &amp; tired</t>
+  </si>
+  <si>
+    <t>I think coz I am very tired</t>
+  </si>
+  <si>
+    <t>They have 1 single bed as well in the room so I slept there n let uncle enjoy the big bed that barely got mattress.. he cried for that period that he slept there 😂😂</t>
+  </si>
+  <si>
+    <t>They have 1 single bed in the room  as well so I slept there n let an uncle enjoy the big bed that barely had any mattress.. he cried for the period that he was sleeping there 😂😂</t>
+  </si>
+  <si>
+    <t>U try climb up 20 floors. That day u sure can sleep like a baby</t>
+  </si>
+  <si>
+    <t>U can try to climb up 20 floors. On that day u can surely sleep like a baby</t>
+  </si>
+  <si>
+    <t>Yes 👍. Overseas bed feels better but home bed the best</t>
+  </si>
+  <si>
+    <t>Yes 👍. Bed overseas feels better but the bed at home feels the best</t>
+  </si>
+  <si>
+    <t>China ah this hotel the bed solid. Got choice to choose between soft and hard pillow. I choose both</t>
+  </si>
+  <si>
+    <t>In China, there was this hotel where the bed was really good Got a choice to choose between soft and hard pillow. I chose both</t>
+  </si>
+  <si>
+    <t>Especially those angmo counties u go..  u confirm miss sg food 😂😂😂</t>
+  </si>
+  <si>
+    <t>Especially those western counties u go to.. u will definitely miss sg food 😂😂😂</t>
+  </si>
+  <si>
+    <t>Then after 8pm no food outside kind.. u hungry midnight only can eat bread</t>
+  </si>
+  <si>
+    <t>And after 8pm there is no shops selling food.. if u get hungry at midnight, you can only eat bread</t>
+  </si>
+  <si>
+    <t>I think overseas hotel my safe haven. Outside 5/7 degrees I almost froze till cannot think. Hotel 25 degree aircon best</t>
+  </si>
+  <si>
+    <t>I think when I am overseas, the hotel was my safe haven. When it was 5/7 degrees outdoors, I almost froze to the point that I cannot think. The 25 degree aircon in the hotel is the best</t>
+  </si>
+  <si>
+    <t>2025-05-12T13-55-41-379Z</t>
+  </si>
+  <si>
+    <t>inputs/LalamoveUnofficialSG_messages125_part4.csv</t>
+  </si>
+  <si>
+    <t>I registered a couple of days ago  only just now that LLM called to remind me to put a deposit and also to install the sticker… just wondering if they will check whether or not i have the sticker installed. But thanks for the info guys.👍🏼👍🏼</t>
+  </si>
+  <si>
+    <t>I registered only a couple of days ago. Just now that LLM called me to remind me to put a deposit and install the sticker... just wondering if they would check whether i have the sticker installed. But thanks for the info guys.</t>
+  </si>
+  <si>
+    <t>I went Italy during summer then stay Airbnb but no Aircon 😅😅 I can't sleep</t>
+  </si>
+  <si>
+    <t>I went to Italy during summer and stayed in an Airbnb but it had no Aircon 😅😅 I couldn't sleep</t>
+  </si>
+  <si>
+    <t>@No1CrushVan need? Cos Car NOT needed. Not sure for van</t>
+  </si>
+  <si>
+    <t>@No1CrushVan needs? Because Car is NOT needed. Not sure about van.</t>
+  </si>
+  <si>
+    <t>Is a food item delivered from China restaurant</t>
+  </si>
+  <si>
+    <t>Is it a food item delivered from a Chinese restaurant?</t>
+  </si>
+  <si>
+    <t>1 of our stay  ourroom got fireplace n it was snowing outside but I need to open the windows a little cause fireplace too hot for me 😅</t>
+  </si>
+  <si>
+    <t>In 1 of our stay, our room had a fireplace n it was snowing outside but I needed to open the windows a little cause the fireplace too hot for me 😅</t>
+  </si>
+  <si>
+    <t>The form said is “damaged”But never mention damage for what?</t>
+  </si>
+  <si>
+    <t>The form said the item is "damaged". But it didn't mention what was damaged.</t>
+  </si>
+  <si>
+    <t>Guy takw note this is scam order. The customer being harassed by loan sharks.</t>
+  </si>
+  <si>
+    <t>Guys, take note that this is a scam order. The customer is being harassed by loan sharks.</t>
+  </si>
+  <si>
+    <t>Which one kena harassed? Bedok or Teban Gardens?</t>
+  </si>
+  <si>
+    <t>Which one is harassed? Bedok or Teban Gardens?</t>
+  </si>
+  <si>
+    <t>Well if it's a fake order there won't be anything to pick up at Bedok side  so driver will never get to Teban?</t>
+  </si>
+  <si>
+    <t>Well, if it's a fake order, there won't be anything to pick up at the Bedok side, so the driver will never get to Teban, right?</t>
+  </si>
+  <si>
+    <t>While uncle shiver in the other corner</t>
+  </si>
+  <si>
+    <t>While my uncle shivers in the other corner</t>
+  </si>
+  <si>
+    <t>The old ppl in china ah</t>
+  </si>
+  <si>
+    <t>The old ppl in china</t>
+  </si>
+  <si>
+    <t>Every Booking Take Video and photos of Itemz and Door Unit. Cos lalamove seem Every Weird Order they also tske. Then if anything we got prove show Send was ALL ok</t>
+  </si>
+  <si>
+    <t>Take videos and photos of the items and door units for every booking. Because Lalamove seem to take photos for every weird order. If anything goes wrong, these are proofs that can be sent to show that all was okay.</t>
+  </si>
+  <si>
+    <t>We got take photos during pick up and delivered time ma</t>
+  </si>
+  <si>
+    <t>We did take photos during the pick up and delivery.</t>
+  </si>
+  <si>
+    <t>express agreement</t>
+  </si>
+  <si>
+    <t>Why can’t they see the photo?</t>
+  </si>
+  <si>
+    <t>Why are they unable to see the photo?</t>
+  </si>
+  <si>
+    <t>Wahhhh walk here n there no kick one</t>
+  </si>
+  <si>
+    <t>Wow they can walk everywhere easily</t>
+  </si>
+  <si>
+    <t>Take pic as in take pics with camera using own camera app  not the lala one and save the pics for our own. Can be 1 week later Lala will ask for proof when we are like wtf? Pick up and dropoff already taken photo. Can puke blood one when u need to submit appeal with proof</t>
+  </si>
+  <si>
+    <t>Take pic means take pictures with the your own camera using the camera app and save the pics for your own, and not using the lala app. It can be that 1 week later, Lala will ask for proof, and then we will be like wtf? There were photos taken at pick up and dropoff. It is frustrating when you need to submit an appeal with proofs.</t>
+  </si>
+  <si>
+    <t>I went up to ask them  they same age as my grandparents sia</t>
+  </si>
+  <si>
+    <t>I went up to ask them about their age and they are the same age as my grandparents</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>Order contact is not together with booking address. I was not able to ask as the person kept telling me is a scam and sounded very frustrated.</t>
+  </si>
+  <si>
+    <t>The order contact was not together with the booking address. I was not able to ask as the person kept telling me it was a scam and sounded very frustrated.</t>
+  </si>
+  <si>
+    <t>I was a bedok before proceeding the 219B bedok  called the person before hand  lucky he picked up and explained the situation. If not waste trip only.</t>
+  </si>
+  <si>
+    <t>I was a bedok before. Proceeding the 219B bedok called the person before hand and explained the situation. It was lucky that the person had picked up, or he would have a wasted trip.</t>
+  </si>
+  <si>
+    <t>Thanks Bro. Yap man. They Insist no have or what really spoil our moods.</t>
+  </si>
+  <si>
+    <t>Thanks Bro. Yap man. They insisted they did not have, and that really spoilt our moods.</t>
+  </si>
+  <si>
+    <t>Like if u go Portugal. U need good knees ok.. the whole Lisboa is made up of 7 hills.. so u see Google map is straight line.. then u walk 2mins later is up slope  5mins later suddenly downslope  another 5mins got stairs to go up  another 10mins need to go down the stairs...</t>
+  </si>
+  <si>
+    <t>Like if u go to Portugal, u will need good knees ok.. the whole Lisboa is made up of 7 hills.. so u may see on Google map that it is a straight line.. but if u walk 2mins later, it is up slope and 5mins later, it is suddenly downslope for another 5mins, then stairs to go up for another 10mins before needing to go down the stairs...</t>
+  </si>
+  <si>
+    <t>Pls hor. If they Play punks say not record as you no send how you prove? Even the Block  we Send and Collextion I take photos so in case say I late or go wrong DropOff. I got my OWN photos to prove</t>
+  </si>
+  <si>
+    <t>Please. If they play punk and said there was no record because you did not send, how would you prove? I even took photos for the Block that we Sent and Collected, just in case they said I was late or went the wrong dropoff. I have my OWN photos as proof.</t>
+  </si>
+  <si>
+    <t>I picked up a pig head for loan shark before. Instruction to hang at gate.</t>
+  </si>
+  <si>
+    <t>I picked up a pig head from a loan shark before. The instruction was to hang at the gate.</t>
+  </si>
+  <si>
+    <t>Thats why Take photos of Booking and the Booking Details in xase anything they change system we got prove Allocated by lala</t>
+  </si>
+  <si>
+    <t>That is why you take photos of the booking and booking details in case of anything. If they changed the system, we have proof that we were allocated by lala.</t>
+  </si>
+  <si>
+    <t>Customer say piano can hand carry. No need trolley.Reach there liao got 2 extra chairs (not declared)For $20 you all suck thumb do or cancel? 🤯</t>
+  </si>
+  <si>
+    <t>The customer said that the piano can be hand carried. No need for trolley. After reaching there, there were 2 extra chairs that were not declared. For $20, do you all grudgingly do it, or do you cancel?</t>
+  </si>
+  <si>
+    <t>ask them to book another lalamove order lor  otherwise undertable $50 anything also can lol. but that's just me la</t>
+  </si>
+  <si>
+    <t>Ask them to book another lalamove order. Otherwise, get $50 undertable and anything is possible. But that is just me.</t>
+  </si>
+  <si>
+    <t>Customer never declare two chairs when confirm. customer refuse to cancel. Lala say next time ask customer for photo. 🤔</t>
+  </si>
+  <si>
+    <t>The customer did not declare two chairs when confirmed. The customer refused to cancel. Lala said to ask the customer for photos the next time.</t>
+  </si>
+  <si>
+    <t>Oh so it's driver fault now? Omg</t>
+  </si>
+  <si>
+    <t>Oh, so it is the driver's fault now? Omg.</t>
+  </si>
+  <si>
+    <t>But you can tell them that under lalamove guidelines the liability for damaged goods is $100 max</t>
+  </si>
+  <si>
+    <t>But you can tell them that under the lala move guidelines, the liability for damaged goods is a maximum of $100.</t>
+  </si>
+  <si>
+    <t>U ask them if still ok to carry piano and chair or not</t>
+  </si>
+  <si>
+    <t>You can ask them if it is still okay to carry the piano and the chair.</t>
+  </si>
+  <si>
+    <t>Initially customer say will cancel. I think have cancellations so tell me she cannot cancel. Ask me settle with CS</t>
+  </si>
+  <si>
+    <t>Initially the customer said she will cancel. I think they had cancellations so she told me she could not cancel, and asked me to settle with CS.</t>
+  </si>
+  <si>
+    <t>then what u can do is u can quote customer a fee then let lalamove CS modify the order.BTW best of all…payment for customer claims made with lala? Pay to customer with lalamove credits...LOL</t>
+  </si>
+  <si>
+    <t>Then what you can do is to quote the customer a fee, and let lalamove CS modify the order. BTW best of all... payment for customer claims made with lala? Pay to customer with lalamove credits...</t>
+  </si>
+  <si>
+    <t>thats why i prefer undertable/“out of system” quote lol</t>
+  </si>
+  <si>
+    <t>thats why i prefer the undertable/"out of system" quote</t>
+  </si>
+  <si>
+    <t>But seriously these customer dont know trying what. Pay few dollars more for Van settle their problem.</t>
+  </si>
+  <si>
+    <t>But seriously. I don't know what these customers were trying. They could pay a few more dollars for Van to settle their problem.</t>
+  </si>
+  <si>
+    <t>End day u only walk half hour but already don't know climb up down how many floors</t>
+  </si>
+  <si>
+    <t>By the end of day, u would only be walking for half an hour but have already climbed up down countless floors</t>
+  </si>
+  <si>
+    <t>honestly…sometimes customer also blur one la</t>
+  </si>
+  <si>
+    <t>honestly... sometimes the customers are also clueless</t>
+  </si>
+  <si>
+    <t>I can. My parents cannot  but they have to tell me can cus I'm there hahahah</t>
+  </si>
+  <si>
+    <t>I can do it. My parents cannot but they would have to say that they can cus I'm there hahahah</t>
+  </si>
+  <si>
+    <t>Hahaa ya. If only piano maybe can close one eye and help. But tell me still got two chairs.</t>
+  </si>
+  <si>
+    <t>Haha ya. If it was only the piano maybe I would close one eye and help. But the customer told me there are still two chairs.</t>
+  </si>
+  <si>
+    <t>Lots of customers are MisUse Lala already</t>
+  </si>
+  <si>
+    <t>Lots of customers are already misusing Lala</t>
+  </si>
+  <si>
+    <t>Sleep beta heavy rain no surge</t>
+  </si>
+  <si>
+    <t>Sleep. I bet there is no surge even with the heavy rain.</t>
+  </si>
+  <si>
+    <t>Wah  got ppl take this order….looks like scam like the western union one</t>
+  </si>
+  <si>
+    <t>Wow, there are people who took this order... it looks like a scam, just like the western union one...</t>
+  </si>
+  <si>
+    <t>Pricing adjustment by CS? WTH... Driver bear all additional charges  how to work for llm?</t>
+  </si>
+  <si>
+    <t>Pricing adjustment by CS? WTH... The drive has to bear all additional charges. How do work for LLM?</t>
+  </si>
+  <si>
+    <t>erm... din see this kind of cs adjustment before.</t>
+  </si>
+  <si>
+    <t>Erm... I had not see this kind of CS adjustment before.</t>
+  </si>
+  <si>
+    <t>that is a lot of discount for the customer</t>
+  </si>
+  <si>
+    <t>That is a lot of discounts for the customer.</t>
+  </si>
+  <si>
+    <t>That's why must see properly then take job. That day I saw 1 job cs deduct $50+. Wtf! Normal rate already pathetic</t>
+  </si>
+  <si>
+    <t>That's why one must see properly before taking the job. That day I saw that 1 job had a $50+ deduction by CS. Wtf! The normal rate is already pathetic.</t>
+  </si>
+  <si>
+    <t>LLM is cheating driver by delivery fee and reduce price</t>
+  </si>
+  <si>
+    <t>LLM is cheating drivers by delivery fee and price reductions.</t>
+  </si>
+  <si>
+    <t>Usually if no base price I won’t take. 😅</t>
+  </si>
+  <si>
+    <t>I would usually not take if there were no base price.</t>
+  </si>
+  <si>
+    <t>I found it when adding last locations when the sender also adding the locations</t>
+  </si>
+  <si>
+    <t>I found it when i was adding last locations and the sender was also adding the locations.</t>
+  </si>
+  <si>
+    <t>Stay Airbnb must check got lift of not.. I kena 7th floor no lift.. hold luggage no joke 🤣</t>
+  </si>
+  <si>
+    <t>If you stay in an Airbnb would need to check if they have a lift.. I have had an experience where I was on the 7th floor with no lift.. holding the luggage was no joke 🤣</t>
+  </si>
+  <si>
+    <t>Still got idiots snatched!Many restaurants charged their customers delivery fee...&amp; those florists with multiple drop offs without base price too!(Take a look at their delivery receipt next time when delivering their food or items)They are making tons of money &amp; yet those yao gui...I'm speechless!KNN!</t>
+  </si>
+  <si>
+    <t>Still, there are idiots who snatched! Many restaurants charged their customers a delivery fee... &amp; those florists with multiple drop offs without base price too! (Take a look at their delivery receipt the next time when delivering their food or items. Those monsters are making tons of money... I'm speechless!</t>
+  </si>
+  <si>
+    <t>those with multi stops but low price  suggest dont take...not worth the time and $...</t>
+  </si>
+  <si>
+    <t>I suggest don't take those with multiple stops but low price... it is not worth the time and money...</t>
+  </si>
+  <si>
+    <t>honestly LLM is not a good platform to use also if doing multistops</t>
+  </si>
+  <si>
+    <t>Honestly, LLM is also not a good platform if one is doing multistops.</t>
+  </si>
+  <si>
+    <t>I took medicine once  all around punggol but drive car  wapiang really damn waste time</t>
+  </si>
+  <si>
+    <t>I took medicine once all around punggol. But i was driving. Really wasted time.</t>
+  </si>
+  <si>
+    <t>must see per packet how much lor</t>
+  </si>
+  <si>
+    <t>One must see how much it costs per packet.</t>
+  </si>
+  <si>
+    <t>i heard is $11  nett $9 per package? not sure if they add extra $ for multistop</t>
+  </si>
+  <si>
+    <t>I heard it is $11 net for $9 per package? I'm not sure if they add extra $ for a multistop trip.</t>
+  </si>
+  <si>
+    <t>Anyone driving nvan here  t2 carpark can go in?</t>
+  </si>
+  <si>
+    <t>Anyone driving nvan here? Can i enter the t2 carpark?</t>
+  </si>
+  <si>
+    <t>How many floors u went 😂</t>
+  </si>
+  <si>
+    <t>How many floors did you climb 😂</t>
+  </si>
+  <si>
+    <t>So stupid Sia this deliverychinatown platform. Delivered within 30mins also complain say I late now I need to appeal. Pick up location at mrt station don’t even have parking need to park opposite HDB. Lalamove also Rabak. Their own rule is 1 hour delivery. Delivered in 30mins also wrong</t>
+  </si>
+  <si>
+    <t>This delivery chinatown platform was so stupid. I delivered within 30mins and was being complained that I was late. Now i need to appeal. The pick up location was at the mrt station which doesnt have parking, so i needed to park at the opposite HDB. Lalamove was also messed up. Their own rule is 1 hour delivery. But they faulted me for delivery in 30mins.</t>
+  </si>
+  <si>
+    <t>emphasis of frustration</t>
+  </si>
+  <si>
+    <t>Guys what happen if it gets low and low?And how to gain it up back?</t>
+  </si>
+  <si>
+    <t>Guys, what would happen if it gets low and low? And how can I gain it up back?</t>
+  </si>
+  <si>
+    <t>Anyone have the same as me?😂😂</t>
+  </si>
+  <si>
+    <t>Does anyone have the same as I do?</t>
+  </si>
+  <si>
+    <t>I cancel a few times only kena like this</t>
+  </si>
+  <si>
+    <t>I only cancelled a few times, but I had it like this.</t>
   </si>
   <si>
     <t>Name</t>
@@ -35038,754 +35509,1978 @@
       </c>
     </row>
     <row r="1083">
-      <c r="A1083" s="1"/>
-      <c r="B1083" s="2"/>
-      <c r="C1083" s="2"/>
-      <c r="D1083" s="2"/>
-      <c r="E1083" s="2"/>
-      <c r="F1083" s="2"/>
-      <c r="G1083" s="2"/>
-      <c r="H1083" s="2"/>
+      <c r="A1083" s="1">
+        <v>45789.39673137732</v>
+      </c>
+      <c r="B1083" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1083" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1083" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F1083" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G1083" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1083" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1084">
-      <c r="A1084" s="1"/>
-      <c r="B1084" s="2"/>
-      <c r="C1084" s="2"/>
-      <c r="D1084" s="2"/>
-      <c r="E1084" s="2"/>
-      <c r="F1084" s="2"/>
-      <c r="G1084" s="2"/>
-      <c r="H1084" s="2"/>
+      <c r="A1084" s="1">
+        <v>45789.39690085648</v>
+      </c>
+      <c r="B1084" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1084" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1084" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F1084" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G1084" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1084" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1085">
-      <c r="A1085" s="1"/>
-      <c r="B1085" s="2"/>
-      <c r="C1085" s="2"/>
-      <c r="D1085" s="2"/>
-      <c r="E1085" s="2"/>
-      <c r="F1085" s="2"/>
-      <c r="G1085" s="2"/>
-      <c r="H1085" s="2"/>
+      <c r="A1085" s="1">
+        <v>45789.39706363426</v>
+      </c>
+      <c r="B1085" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1085" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1085" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F1085" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G1085" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1085" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1086">
-      <c r="A1086" s="1"/>
-      <c r="B1086" s="2"/>
-      <c r="C1086" s="2"/>
-      <c r="D1086" s="2"/>
-      <c r="E1086" s="2"/>
-      <c r="F1086" s="2"/>
-      <c r="G1086" s="2"/>
-      <c r="H1086" s="2"/>
+      <c r="A1086" s="1">
+        <v>45789.39895702546</v>
+      </c>
+      <c r="B1086" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1086" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1086" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F1086" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G1086" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1086" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1087">
-      <c r="A1087" s="1"/>
-      <c r="B1087" s="2"/>
-      <c r="C1087" s="2"/>
-      <c r="D1087" s="2"/>
-      <c r="E1087" s="2"/>
-      <c r="F1087" s="2"/>
-      <c r="G1087" s="2"/>
-      <c r="H1087" s="2"/>
+      <c r="A1087" s="1">
+        <v>45789.39913796296</v>
+      </c>
+      <c r="B1087" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1087" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1087" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F1087" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G1087" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1087" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1088">
-      <c r="A1088" s="1"/>
-      <c r="B1088" s="2"/>
-      <c r="C1088" s="2"/>
-      <c r="D1088" s="2"/>
-      <c r="E1088" s="2"/>
-      <c r="F1088" s="2"/>
-      <c r="G1088" s="2"/>
-      <c r="H1088" s="2"/>
+      <c r="A1088" s="1">
+        <v>45789.39983347223</v>
+      </c>
+      <c r="B1088" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1088" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1088" s="2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F1088" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G1088" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1088" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1089">
-      <c r="A1089" s="1"/>
-      <c r="B1089" s="2"/>
-      <c r="C1089" s="2"/>
-      <c r="D1089" s="2"/>
-      <c r="E1089" s="2"/>
-      <c r="F1089" s="2"/>
-      <c r="G1089" s="2"/>
-      <c r="H1089" s="2"/>
+      <c r="A1089" s="1">
+        <v>45789.40126938657</v>
+      </c>
+      <c r="B1089" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1089" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1089" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F1089" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G1089" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1089" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1090">
-      <c r="A1090" s="1"/>
-      <c r="B1090" s="2"/>
-      <c r="C1090" s="2"/>
-      <c r="D1090" s="2"/>
-      <c r="E1090" s="2"/>
-      <c r="F1090" s="2"/>
-      <c r="G1090" s="2"/>
-      <c r="H1090" s="2"/>
+      <c r="A1090" s="1">
+        <v>45789.401836944446</v>
+      </c>
+      <c r="B1090" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1090" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1090" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F1090" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G1090" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1090" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1091">
-      <c r="A1091" s="1"/>
-      <c r="B1091" s="2"/>
-      <c r="C1091" s="2"/>
-      <c r="D1091" s="2"/>
-      <c r="E1091" s="2"/>
-      <c r="F1091" s="2"/>
-      <c r="G1091" s="2"/>
-      <c r="H1091" s="2"/>
+      <c r="A1091" s="1">
+        <v>45789.403911898145</v>
+      </c>
+      <c r="B1091" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1091" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1091" s="2" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F1091" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G1091" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1091" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1092">
-      <c r="A1092" s="1"/>
-      <c r="B1092" s="2"/>
-      <c r="C1092" s="2"/>
-      <c r="D1092" s="2"/>
-      <c r="E1092" s="2"/>
-      <c r="F1092" s="2"/>
-      <c r="G1092" s="2"/>
-      <c r="H1092" s="2"/>
+      <c r="A1092" s="1">
+        <v>45789.404352453705</v>
+      </c>
+      <c r="B1092" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1092" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1092" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1092" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F1092" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G1092" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1092" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1093">
-      <c r="A1093" s="1"/>
-      <c r="B1093" s="2"/>
-      <c r="C1093" s="2"/>
-      <c r="D1093" s="2"/>
-      <c r="E1093" s="2"/>
-      <c r="F1093" s="2"/>
-      <c r="G1093" s="2"/>
-      <c r="H1093" s="2"/>
+      <c r="A1093" s="1">
+        <v>45789.404977858794</v>
+      </c>
+      <c r="B1093" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1093" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1093" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1093" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F1093" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G1093" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1093" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1094">
-      <c r="A1094" s="1"/>
-      <c r="B1094" s="2"/>
-      <c r="C1094" s="2"/>
-      <c r="D1094" s="2"/>
-      <c r="E1094" s="2"/>
-      <c r="F1094" s="2"/>
-      <c r="G1094" s="2"/>
-      <c r="H1094" s="2"/>
+      <c r="A1094" s="1">
+        <v>45789.40527122685</v>
+      </c>
+      <c r="B1094" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1094" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1094" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F1094" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G1094" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1094" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1095">
-      <c r="A1095" s="1"/>
-      <c r="B1095" s="2"/>
-      <c r="C1095" s="2"/>
-      <c r="D1095" s="2"/>
-      <c r="E1095" s="2"/>
-      <c r="F1095" s="2"/>
-      <c r="G1095" s="2"/>
-      <c r="H1095" s="2"/>
+      <c r="A1095" s="1">
+        <v>45789.40618984954</v>
+      </c>
+      <c r="B1095" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1095" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1095" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1095" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G1095" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1095" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1096">
-      <c r="A1096" s="1"/>
-      <c r="B1096" s="2"/>
-      <c r="C1096" s="2"/>
-      <c r="D1096" s="2"/>
-      <c r="E1096" s="2"/>
-      <c r="F1096" s="2"/>
-      <c r="G1096" s="2"/>
-      <c r="H1096" s="2"/>
+      <c r="A1096" s="1">
+        <v>45789.40682670139</v>
+      </c>
+      <c r="B1096" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1096" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1096" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F1096" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G1096" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1096" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1097">
-      <c r="A1097" s="1"/>
-      <c r="B1097" s="2"/>
-      <c r="C1097" s="2"/>
-      <c r="D1097" s="2"/>
-      <c r="E1097" s="2"/>
-      <c r="F1097" s="2"/>
-      <c r="G1097" s="2"/>
-      <c r="H1097" s="2"/>
+      <c r="A1097" s="1">
+        <v>45789.414275937495</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1097" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1097" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F1097" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G1097" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1097" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1098">
-      <c r="A1098" s="1"/>
-      <c r="B1098" s="2"/>
-      <c r="C1098" s="2"/>
-      <c r="D1098" s="2"/>
-      <c r="E1098" s="2"/>
-      <c r="F1098" s="2"/>
-      <c r="G1098" s="2"/>
-      <c r="H1098" s="2"/>
+      <c r="A1098" s="1">
+        <v>45789.41427907407</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1098" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1098" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F1098" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="G1098" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1098" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1099">
-      <c r="A1099" s="1"/>
-      <c r="B1099" s="2"/>
-      <c r="C1099" s="2"/>
-      <c r="D1099" s="2"/>
-      <c r="E1099" s="2"/>
-      <c r="F1099" s="2"/>
-      <c r="G1099" s="2"/>
-      <c r="H1099" s="2"/>
+      <c r="A1099" s="1">
+        <v>45789.41458952546</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1099" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1099" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F1099" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G1099" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1099" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1100">
-      <c r="A1100" s="1"/>
-      <c r="B1100" s="2"/>
-      <c r="C1100" s="2"/>
-      <c r="D1100" s="2"/>
-      <c r="E1100" s="2"/>
-      <c r="F1100" s="2"/>
-      <c r="G1100" s="2"/>
-      <c r="H1100" s="2"/>
+      <c r="A1100" s="1">
+        <v>45789.41476083333</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1100" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F1100" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G1100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1100" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1101">
-      <c r="A1101" s="1"/>
-      <c r="B1101" s="2"/>
-      <c r="C1101" s="2"/>
-      <c r="D1101" s="2"/>
-      <c r="E1101" s="2"/>
-      <c r="F1101" s="2"/>
-      <c r="G1101" s="2"/>
-      <c r="H1101" s="2"/>
+      <c r="A1101" s="1">
+        <v>45789.41480837963</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1101" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1101" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F1101" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G1101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1101" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1102">
-      <c r="A1102" s="1"/>
-      <c r="B1102" s="2"/>
-      <c r="C1102" s="2"/>
-      <c r="D1102" s="2"/>
-      <c r="E1102" s="2"/>
-      <c r="F1102" s="2"/>
-      <c r="G1102" s="2"/>
-      <c r="H1102" s="2"/>
+      <c r="A1102" s="1">
+        <v>45789.41504636574</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1102" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F1102" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G1102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1102" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1103">
-      <c r="A1103" s="1"/>
-      <c r="B1103" s="2"/>
-      <c r="C1103" s="2"/>
-      <c r="D1103" s="2"/>
-      <c r="E1103" s="2"/>
-      <c r="F1103" s="2"/>
-      <c r="G1103" s="2"/>
-      <c r="H1103" s="2"/>
+      <c r="A1103" s="1">
+        <v>45789.41526538195</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1103" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1103" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F1103" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G1103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1103" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1104">
-      <c r="A1104" s="1"/>
-      <c r="B1104" s="2"/>
-      <c r="C1104" s="2"/>
-      <c r="D1104" s="2"/>
-      <c r="E1104" s="2"/>
-      <c r="F1104" s="2"/>
-      <c r="G1104" s="2"/>
-      <c r="H1104" s="2"/>
+      <c r="A1104" s="1">
+        <v>45789.41543255787</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1104" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F1104" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G1104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1104" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1105">
-      <c r="A1105" s="1"/>
-      <c r="B1105" s="2"/>
-      <c r="C1105" s="2"/>
-      <c r="D1105" s="2"/>
-      <c r="E1105" s="2"/>
-      <c r="F1105" s="2"/>
-      <c r="G1105" s="2"/>
-      <c r="H1105" s="2"/>
+      <c r="A1105" s="1">
+        <v>45789.41620641203</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1105" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1105" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F1105" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G1105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1105" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1106">
-      <c r="A1106" s="1"/>
-      <c r="B1106" s="2"/>
-      <c r="C1106" s="2"/>
-      <c r="D1106" s="2"/>
-      <c r="E1106" s="2"/>
-      <c r="F1106" s="2"/>
-      <c r="G1106" s="2"/>
-      <c r="H1106" s="2"/>
+      <c r="A1106" s="1">
+        <v>45789.416399814814</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1106" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1106" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F1106" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G1106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1106" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1107">
-      <c r="A1107" s="1"/>
-      <c r="B1107" s="2"/>
-      <c r="C1107" s="2"/>
-      <c r="D1107" s="2"/>
-      <c r="E1107" s="2"/>
-      <c r="F1107" s="2"/>
-      <c r="G1107" s="2"/>
-      <c r="H1107" s="2"/>
+      <c r="A1107" s="1">
+        <v>45789.416621192126</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1107" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1107" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F1107" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G1107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1107" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1108">
-      <c r="A1108" s="1"/>
-      <c r="B1108" s="2"/>
-      <c r="C1108" s="2"/>
-      <c r="D1108" s="2"/>
-      <c r="E1108" s="2"/>
-      <c r="F1108" s="2"/>
-      <c r="G1108" s="2"/>
-      <c r="H1108" s="2"/>
+      <c r="A1108" s="1">
+        <v>45789.41686321759</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1108" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F1108" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G1108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1108" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1109">
-      <c r="A1109" s="1"/>
-      <c r="B1109" s="2"/>
-      <c r="C1109" s="2"/>
-      <c r="D1109" s="2"/>
-      <c r="E1109" s="2"/>
-      <c r="F1109" s="2"/>
-      <c r="G1109" s="2"/>
-      <c r="H1109" s="2"/>
+      <c r="A1109" s="1">
+        <v>45789.41749114583</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1109" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F1109" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G1109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1109" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I1109" s="2" t="s">
+        <v>2130</v>
+      </c>
     </row>
     <row r="1110">
-      <c r="A1110" s="1"/>
-      <c r="B1110" s="2"/>
-      <c r="C1110" s="2"/>
-      <c r="D1110" s="2"/>
-      <c r="E1110" s="2"/>
-      <c r="F1110" s="2"/>
-      <c r="G1110" s="2"/>
-      <c r="H1110" s="2"/>
+      <c r="A1110" s="1">
+        <v>45789.4176303125</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1110" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F1110" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G1110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1110" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1111">
-      <c r="A1111" s="1"/>
-      <c r="B1111" s="2"/>
-      <c r="C1111" s="2"/>
-      <c r="D1111" s="2"/>
-      <c r="E1111" s="2"/>
-      <c r="F1111" s="2"/>
-      <c r="G1111" s="2"/>
-      <c r="H1111" s="2"/>
+      <c r="A1111" s="1">
+        <v>45789.418132719904</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1111" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1111" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F1111" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G1111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1111" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1112">
-      <c r="A1112" s="1"/>
-      <c r="B1112" s="2"/>
-      <c r="C1112" s="2"/>
-      <c r="D1112" s="2"/>
-      <c r="E1112" s="2"/>
-      <c r="F1112" s="2"/>
-      <c r="G1112" s="2"/>
-      <c r="H1112" s="2"/>
+      <c r="A1112" s="1">
+        <v>45789.41855332176</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1112" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F1112" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1112" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1113">
-      <c r="A1113" s="1"/>
-      <c r="B1113" s="2"/>
-      <c r="C1113" s="2"/>
-      <c r="D1113" s="2"/>
-      <c r="E1113" s="2"/>
-      <c r="F1113" s="2"/>
-      <c r="G1113" s="2"/>
-      <c r="H1113" s="2"/>
+      <c r="A1113" s="1">
+        <v>45789.418697280096</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1113" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1113" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1113" s="2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F1113" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G1113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1113" s="2" t="s">
+        <v>2139</v>
+      </c>
     </row>
     <row r="1114">
-      <c r="A1114" s="1"/>
-      <c r="B1114" s="2"/>
-      <c r="C1114" s="2"/>
-      <c r="D1114" s="2"/>
-      <c r="E1114" s="2"/>
-      <c r="F1114" s="2"/>
-      <c r="G1114" s="2"/>
-      <c r="H1114" s="2"/>
+      <c r="A1114" s="1">
+        <v>45789.419011516206</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1114" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1114" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F1114" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G1114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1114" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1115">
-      <c r="A1115" s="1"/>
-      <c r="B1115" s="2"/>
-      <c r="C1115" s="2"/>
-      <c r="D1115" s="2"/>
-      <c r="E1115" s="2"/>
-      <c r="F1115" s="2"/>
-      <c r="G1115" s="2"/>
-      <c r="H1115" s="2"/>
+      <c r="A1115" s="1">
+        <v>45789.419589467594</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1115" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1115" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F1115" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G1115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1115" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1116">
-      <c r="A1116" s="1"/>
-      <c r="B1116" s="2"/>
-      <c r="C1116" s="2"/>
-      <c r="D1116" s="2"/>
-      <c r="E1116" s="2"/>
-      <c r="F1116" s="2"/>
-      <c r="G1116" s="2"/>
-      <c r="H1116" s="2"/>
+      <c r="A1116" s="1">
+        <v>45789.41987607639</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1116" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1116" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F1116" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G1116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1116" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1117">
-      <c r="A1117" s="1"/>
-      <c r="B1117" s="2"/>
-      <c r="C1117" s="2"/>
-      <c r="D1117" s="2"/>
-      <c r="E1117" s="2"/>
-      <c r="F1117" s="2"/>
-      <c r="G1117" s="2"/>
-      <c r="H1117" s="2"/>
+      <c r="A1117" s="1">
+        <v>45789.42026454861</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1117" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1117" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F1117" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G1117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1117" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1118">
-      <c r="A1118" s="1"/>
-      <c r="B1118" s="2"/>
-      <c r="C1118" s="2"/>
-      <c r="D1118" s="2"/>
-      <c r="E1118" s="2"/>
-      <c r="F1118" s="2"/>
-      <c r="G1118" s="2"/>
-      <c r="H1118" s="2"/>
+      <c r="A1118" s="1">
+        <v>45789.420688136575</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1118" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F1118" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G1118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1118" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I1118" s="2" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="1119">
-      <c r="A1119" s="1"/>
-      <c r="B1119" s="2"/>
-      <c r="C1119" s="2"/>
-      <c r="D1119" s="2"/>
-      <c r="E1119" s="2"/>
-      <c r="F1119" s="2"/>
-      <c r="G1119" s="2"/>
-      <c r="H1119" s="2"/>
+      <c r="A1119" s="1">
+        <v>45789.4210637037</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1119" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F1119" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G1119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1119" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1120">
-      <c r="A1120" s="1"/>
-      <c r="B1120" s="2"/>
-      <c r="C1120" s="2"/>
-      <c r="D1120" s="2"/>
-      <c r="E1120" s="2"/>
-      <c r="F1120" s="2"/>
-      <c r="G1120" s="2"/>
-      <c r="H1120" s="2"/>
+      <c r="A1120" s="1">
+        <v>45789.421409710645</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1120" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F1120" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G1120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1120" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1121">
-      <c r="A1121" s="1"/>
-      <c r="B1121" s="2"/>
-      <c r="C1121" s="2"/>
-      <c r="D1121" s="2"/>
-      <c r="E1121" s="2"/>
-      <c r="F1121" s="2"/>
-      <c r="G1121" s="2"/>
-      <c r="H1121" s="2"/>
+      <c r="A1121" s="1">
+        <v>45789.42200472222</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1121" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1121" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F1121" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G1121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1121" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1121" s="2" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="1122">
-      <c r="A1122" s="1"/>
-      <c r="B1122" s="2"/>
-      <c r="C1122" s="2"/>
-      <c r="D1122" s="2"/>
-      <c r="E1122" s="2"/>
-      <c r="F1122" s="2"/>
-      <c r="G1122" s="2"/>
-      <c r="H1122" s="2"/>
+      <c r="A1122" s="1">
+        <v>45789.42238042824</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1122" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F1122" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G1122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1122" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1123">
-      <c r="A1123" s="1"/>
-      <c r="B1123" s="2"/>
-      <c r="C1123" s="2"/>
-      <c r="D1123" s="2"/>
-      <c r="E1123" s="2"/>
-      <c r="F1123" s="2"/>
-      <c r="G1123" s="2"/>
-      <c r="H1123" s="2"/>
+      <c r="A1123" s="1">
+        <v>45789.422849780094</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1123" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F1123" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G1123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1123" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1124">
-      <c r="A1124" s="1"/>
-      <c r="B1124" s="2"/>
-      <c r="C1124" s="2"/>
-      <c r="D1124" s="2"/>
-      <c r="E1124" s="2"/>
-      <c r="F1124" s="2"/>
-      <c r="G1124" s="2"/>
-      <c r="H1124" s="2"/>
+      <c r="A1124" s="1">
+        <v>45789.42318533565</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1124" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F1124" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G1124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1124" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1125">
-      <c r="A1125" s="1"/>
-      <c r="B1125" s="2"/>
-      <c r="C1125" s="2"/>
-      <c r="D1125" s="2"/>
-      <c r="E1125" s="2"/>
-      <c r="F1125" s="2"/>
-      <c r="G1125" s="2"/>
-      <c r="H1125" s="2"/>
+      <c r="A1125" s="1">
+        <v>45789.42346802083</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1125" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1125" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F1125" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G1125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1125" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1126">
-      <c r="A1126" s="1"/>
-      <c r="B1126" s="2"/>
-      <c r="C1126" s="2"/>
-      <c r="D1126" s="2"/>
-      <c r="E1126" s="2"/>
-      <c r="F1126" s="2"/>
-      <c r="G1126" s="2"/>
-      <c r="H1126" s="2"/>
+      <c r="A1126" s="1">
+        <v>45789.42363774306</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1126" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F1126" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G1126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1126" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1127">
-      <c r="A1127" s="1"/>
-      <c r="B1127" s="2"/>
-      <c r="C1127" s="2"/>
-      <c r="D1127" s="2"/>
-      <c r="E1127" s="2"/>
-      <c r="F1127" s="2"/>
-      <c r="G1127" s="2"/>
-      <c r="H1127" s="2"/>
+      <c r="A1127" s="1">
+        <v>45789.4239928125</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1127" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1127" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F1127" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G1127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1127" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1128">
-      <c r="A1128" s="1"/>
-      <c r="B1128" s="2"/>
-      <c r="C1128" s="2"/>
-      <c r="D1128" s="2"/>
-      <c r="E1128" s="2"/>
-      <c r="F1128" s="2"/>
-      <c r="G1128" s="2"/>
-      <c r="H1128" s="2"/>
+      <c r="A1128" s="1">
+        <v>45789.424414305555</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1128" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1128" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F1128" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G1128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1128" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1129">
-      <c r="A1129" s="1"/>
-      <c r="B1129" s="2"/>
-      <c r="C1129" s="2"/>
-      <c r="D1129" s="2"/>
-      <c r="E1129" s="2"/>
-      <c r="F1129" s="2"/>
-      <c r="G1129" s="2"/>
-      <c r="H1129" s="2"/>
+      <c r="A1129" s="1">
+        <v>45789.4246903125</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1129" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1129" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F1129" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1129" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1130">
-      <c r="A1130" s="1"/>
-      <c r="B1130" s="2"/>
-      <c r="C1130" s="2"/>
-      <c r="D1130" s="2"/>
-      <c r="E1130" s="2"/>
-      <c r="F1130" s="2"/>
-      <c r="G1130" s="2"/>
-      <c r="H1130" s="2"/>
+      <c r="A1130" s="1">
+        <v>45789.42503466435</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1130" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F1130" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1130" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1131">
-      <c r="A1131" s="1"/>
-      <c r="B1131" s="2"/>
-      <c r="C1131" s="2"/>
-      <c r="D1131" s="2"/>
-      <c r="E1131" s="2"/>
-      <c r="F1131" s="2"/>
-      <c r="G1131" s="2"/>
-      <c r="H1131" s="2"/>
+      <c r="A1131" s="1">
+        <v>45789.42519454861</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1131" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1131" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F1131" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1131" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1132">
-      <c r="A1132" s="1"/>
-      <c r="B1132" s="2"/>
-      <c r="C1132" s="2"/>
-      <c r="D1132" s="2"/>
-      <c r="E1132" s="2"/>
-      <c r="F1132" s="2"/>
-      <c r="G1132" s="2"/>
-      <c r="H1132" s="2"/>
+      <c r="A1132" s="1">
+        <v>45789.42523700232</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1132" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F1132" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1132" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1132" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="1133">
-      <c r="A1133" s="1"/>
-      <c r="B1133" s="2"/>
-      <c r="C1133" s="2"/>
-      <c r="D1133" s="2"/>
-      <c r="E1133" s="2"/>
-      <c r="F1133" s="2"/>
-      <c r="G1133" s="2"/>
-      <c r="H1133" s="2"/>
+      <c r="A1133" s="1">
+        <v>45789.425696481485</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1133" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1133" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F1133" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1133" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1134">
-      <c r="A1134" s="1"/>
-      <c r="B1134" s="2"/>
-      <c r="C1134" s="2"/>
-      <c r="D1134" s="2"/>
-      <c r="E1134" s="2"/>
-      <c r="F1134" s="2"/>
-      <c r="G1134" s="2"/>
-      <c r="H1134" s="2"/>
+      <c r="A1134" s="1">
+        <v>45789.425805439816</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1134" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F1134" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1134" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1135">
-      <c r="A1135" s="1"/>
-      <c r="B1135" s="2"/>
-      <c r="C1135" s="2"/>
-      <c r="D1135" s="2"/>
-      <c r="E1135" s="2"/>
-      <c r="F1135" s="2"/>
-      <c r="G1135" s="2"/>
-      <c r="H1135" s="2"/>
+      <c r="A1135" s="1">
+        <v>45789.42634626158</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1135" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F1135" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1135" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1136">
-      <c r="A1136" s="1"/>
-      <c r="B1136" s="2"/>
-      <c r="C1136" s="2"/>
-      <c r="D1136" s="2"/>
-      <c r="E1136" s="2"/>
-      <c r="F1136" s="2"/>
-      <c r="G1136" s="2"/>
-      <c r="H1136" s="2"/>
+      <c r="A1136" s="1">
+        <v>45789.426642673614</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F1136" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1136" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1137">
-      <c r="A1137" s="1"/>
-      <c r="B1137" s="2"/>
-      <c r="C1137" s="2"/>
-      <c r="D1137" s="2"/>
-      <c r="E1137" s="2"/>
-      <c r="F1137" s="2"/>
-      <c r="G1137" s="2"/>
-      <c r="H1137" s="2"/>
+      <c r="A1137" s="1">
+        <v>45789.42688554398</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F1137" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1137" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1138">
-      <c r="A1138" s="1"/>
-      <c r="B1138" s="2"/>
-      <c r="C1138" s="2"/>
-      <c r="D1138" s="2"/>
-      <c r="E1138" s="2"/>
-      <c r="F1138" s="2"/>
-      <c r="G1138" s="2"/>
-      <c r="H1138" s="2"/>
+      <c r="A1138" s="1">
+        <v>45789.42724010417</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F1138" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G1138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1138" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1139">
-      <c r="A1139" s="1"/>
-      <c r="B1139" s="2"/>
-      <c r="C1139" s="2"/>
-      <c r="D1139" s="2"/>
-      <c r="E1139" s="2"/>
-      <c r="F1139" s="2"/>
-      <c r="G1139" s="2"/>
-      <c r="H1139" s="2"/>
+      <c r="A1139" s="1">
+        <v>45789.42753359953</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1139" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F1139" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G1139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1139" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1140">
-      <c r="A1140" s="1"/>
-      <c r="B1140" s="2"/>
-      <c r="C1140" s="2"/>
-      <c r="D1140" s="2"/>
-      <c r="E1140" s="2"/>
-      <c r="F1140" s="2"/>
-      <c r="G1140" s="2"/>
-      <c r="H1140" s="2"/>
+      <c r="A1140" s="1">
+        <v>45789.4276600463</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F1140" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G1140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1140" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1141">
-      <c r="A1141" s="1"/>
-      <c r="B1141" s="2"/>
-      <c r="C1141" s="2"/>
-      <c r="D1141" s="2"/>
-      <c r="E1141" s="2"/>
-      <c r="F1141" s="2"/>
-      <c r="G1141" s="2"/>
-      <c r="H1141" s="2"/>
+      <c r="A1141" s="1">
+        <v>45789.42802202546</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F1141" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G1141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1141" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1142">
-      <c r="A1142" s="1"/>
-      <c r="B1142" s="2"/>
-      <c r="C1142" s="2"/>
-      <c r="D1142" s="2"/>
-      <c r="E1142" s="2"/>
-      <c r="F1142" s="2"/>
-      <c r="G1142" s="2"/>
-      <c r="H1142" s="2"/>
+      <c r="A1142" s="1">
+        <v>45789.42817918981</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1142" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="F1142" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G1142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1142" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1143">
-      <c r="A1143" s="1"/>
-      <c r="B1143" s="2"/>
-      <c r="C1143" s="2"/>
-      <c r="D1143" s="2"/>
-      <c r="E1143" s="2"/>
-      <c r="F1143" s="2"/>
-      <c r="G1143" s="2"/>
-      <c r="H1143" s="2"/>
+      <c r="A1143" s="1">
+        <v>45789.42834239583</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1143" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F1143" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G1143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1143" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1144">
-      <c r="A1144" s="1"/>
-      <c r="B1144" s="2"/>
-      <c r="C1144" s="2"/>
-      <c r="D1144" s="2"/>
-      <c r="E1144" s="2"/>
-      <c r="F1144" s="2"/>
-      <c r="G1144" s="2"/>
-      <c r="H1144" s="2"/>
+      <c r="A1144" s="1">
+        <v>45789.42868</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1144" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F1144" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G1144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1144" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1145">
-      <c r="A1145" s="1"/>
-      <c r="B1145" s="2"/>
-      <c r="C1145" s="2"/>
-      <c r="D1145" s="2"/>
-      <c r="E1145" s="2"/>
-      <c r="F1145" s="2"/>
-      <c r="G1145" s="2"/>
-      <c r="H1145" s="2"/>
+      <c r="A1145" s="1">
+        <v>45789.42901423611</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1145" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1145" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F1145" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G1145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1145" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1146">
-      <c r="A1146" s="1"/>
-      <c r="B1146" s="2"/>
-      <c r="C1146" s="2"/>
-      <c r="D1146" s="2"/>
-      <c r="E1146" s="2"/>
-      <c r="F1146" s="2"/>
-      <c r="G1146" s="2"/>
-      <c r="H1146" s="2"/>
+      <c r="A1146" s="1">
+        <v>45789.42967293982</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1146" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F1146" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G1146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1146" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1147">
-      <c r="A1147" s="1"/>
-      <c r="B1147" s="2"/>
-      <c r="C1147" s="2"/>
-      <c r="D1147" s="2"/>
-      <c r="E1147" s="2"/>
-      <c r="F1147" s="2"/>
-      <c r="G1147" s="2"/>
-      <c r="H1147" s="2"/>
+      <c r="A1147" s="1">
+        <v>45789.429938981484</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1147" s="2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F1147" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G1147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1147" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1148">
-      <c r="A1148" s="1"/>
-      <c r="B1148" s="2"/>
-      <c r="C1148" s="2"/>
-      <c r="D1148" s="2"/>
-      <c r="E1148" s="2"/>
-      <c r="F1148" s="2"/>
-      <c r="G1148" s="2"/>
-      <c r="H1148" s="2"/>
+      <c r="A1148" s="1">
+        <v>45789.43009285879</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1148" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F1148" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G1148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1148" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1149">
-      <c r="A1149" s="1"/>
-      <c r="B1149" s="2"/>
-      <c r="C1149" s="2"/>
-      <c r="D1149" s="2"/>
-      <c r="E1149" s="2"/>
-      <c r="F1149" s="2"/>
-      <c r="G1149" s="2"/>
-      <c r="H1149" s="2"/>
+      <c r="A1149" s="1">
+        <v>45789.43042506944</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1149" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F1149" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G1149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1149" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1150">
-      <c r="A1150" s="1"/>
-      <c r="B1150" s="2"/>
-      <c r="C1150" s="2"/>
-      <c r="D1150" s="2"/>
-      <c r="E1150" s="2"/>
-      <c r="F1150" s="2"/>
-      <c r="G1150" s="2"/>
-      <c r="H1150" s="2"/>
+      <c r="A1150" s="1">
+        <v>45789.43060158565</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F1150" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G1150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1150" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1151">
-      <c r="A1151" s="1"/>
-      <c r="B1151" s="2"/>
-      <c r="C1151" s="2"/>
-      <c r="D1151" s="2"/>
-      <c r="E1151" s="2"/>
-      <c r="F1151" s="2"/>
-      <c r="G1151" s="2"/>
-      <c r="H1151" s="2"/>
+      <c r="A1151" s="1">
+        <v>45789.430864375</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1151" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F1151" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G1151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1151" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1152">
-      <c r="A1152" s="1"/>
-      <c r="B1152" s="2"/>
-      <c r="C1152" s="2"/>
-      <c r="D1152" s="2"/>
-      <c r="E1152" s="2"/>
-      <c r="F1152" s="2"/>
-      <c r="G1152" s="2"/>
-      <c r="H1152" s="2"/>
+      <c r="A1152" s="1">
+        <v>45789.43101797454</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1152" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F1152" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G1152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1152" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1153">
-      <c r="A1153" s="1"/>
-      <c r="B1153" s="2"/>
-      <c r="C1153" s="2"/>
-      <c r="D1153" s="2"/>
-      <c r="E1153" s="2"/>
-      <c r="F1153" s="2"/>
-      <c r="G1153" s="2"/>
-      <c r="H1153" s="2"/>
+      <c r="A1153" s="1">
+        <v>45789.4316594213</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1153" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1153" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F1153" s="2" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G1153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1153" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1154">
-      <c r="A1154" s="1"/>
-      <c r="B1154" s="2"/>
-      <c r="C1154" s="2"/>
-      <c r="D1154" s="2"/>
-      <c r="E1154" s="2"/>
-      <c r="F1154" s="2"/>
-      <c r="G1154" s="2"/>
-      <c r="H1154" s="2"/>
+      <c r="A1154" s="1">
+        <v>45789.432197546295</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1154" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F1154" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G1154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1154" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1154" s="2" t="s">
+        <v>2222</v>
+      </c>
     </row>
     <row r="1155">
-      <c r="A1155" s="1"/>
-      <c r="B1155" s="2"/>
-      <c r="C1155" s="2"/>
-      <c r="D1155" s="2"/>
-      <c r="E1155" s="2"/>
-      <c r="F1155" s="2"/>
-      <c r="G1155" s="2"/>
-      <c r="H1155" s="2"/>
+      <c r="A1155" s="1">
+        <v>45789.432765185185</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1155" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F1155" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G1155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1155" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1156">
-      <c r="A1156" s="1"/>
-      <c r="B1156" s="2"/>
-      <c r="C1156" s="2"/>
-      <c r="D1156" s="2"/>
-      <c r="E1156" s="2"/>
-      <c r="F1156" s="2"/>
-      <c r="G1156" s="2"/>
-      <c r="H1156" s="2"/>
+      <c r="A1156" s="1">
+        <v>45789.43288342592</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1156" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F1156" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G1156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1156" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1157">
-      <c r="A1157" s="1"/>
-      <c r="B1157" s="2"/>
-      <c r="C1157" s="2"/>
-      <c r="D1157" s="2"/>
-      <c r="E1157" s="2"/>
-      <c r="F1157" s="2"/>
-      <c r="G1157" s="2"/>
-      <c r="H1157" s="2"/>
+      <c r="A1157" s="1">
+        <v>45789.43302611111</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1157" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F1157" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G1157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1157" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="1"/>
@@ -44240,16 +45935,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2072</v>
+        <v>2229</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2073</v>
+        <v>2230</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2074</v>
+        <v>2231</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2075</v>
+        <v>2232</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -44266,10 +45961,10 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45788.36283</v>
+        <v>45789.43303</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2076</v>
+        <v>2233</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -44283,18 +45978,18 @@
       </c>
       <c r="B3" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45788.36283</v>
+        <v>45789.43303</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2077</v>
+        <v>2234</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1426</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="4">
@@ -44308,7 +46003,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45788.36283</v>
+        <v>45789.43303</v>
       </c>
     </row>
     <row r="5">
@@ -44322,7 +46017,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45788.36283</v>
+        <v>45789.43303</v>
       </c>
     </row>
     <row r="6">
@@ -44332,11 +46027,11 @@
       </c>
       <c r="B6" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45788.36283</v>
+        <v>45789.43303</v>
       </c>
     </row>
     <row r="7">
@@ -44346,11 +46041,11 @@
       </c>
       <c r="B7" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45788.36283</v>
+        <v>45789.43303</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8236" uniqueCount="2235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8659" uniqueCount="2357">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -6699,6 +6699,372 @@
   </si>
   <si>
     <t>I only cancelled a few times, but I had it like this.</t>
+  </si>
+  <si>
+    <t>San Francisco also have to be careful. Some of their roads is slope n the slope is really steep kind</t>
+  </si>
+  <si>
+    <t>San Francisco have to be careful as well. Some of their roads are on a slope n the slope is really steep</t>
+  </si>
+  <si>
+    <t>Sounds like NS bmt hahhaha back then carry bag up to 5th floor</t>
+  </si>
+  <si>
+    <t>Sounds like NS bmt hahhaha back then we had to carry the bags up to 5th floor</t>
+  </si>
+  <si>
+    <t>Don’t need climb stairs also will be shag if go bkk.</t>
+  </si>
+  <si>
+    <t>Don’t need climb stairs to be tired if I were to go to bkk.</t>
+  </si>
+  <si>
+    <t>I just came to know Springleaf got catering buffet</t>
+  </si>
+  <si>
+    <t>I just came to know that Springleaf has got a catering buffet</t>
+  </si>
+  <si>
+    <t>Live prata station somemore. The person stand there make prata for you.</t>
+  </si>
+  <si>
+    <t>Even has a live prata station. The person would stand there to make prata for you.</t>
+  </si>
+  <si>
+    <t>Then u see them dig nose then flip the dirt's then start to make prata 😂</t>
+  </si>
+  <si>
+    <t>And u would see them dig their nose and flip the dirt's before starting to make prata 😂</t>
+  </si>
+  <si>
+    <t>Take Delta must wear bra ladies</t>
+  </si>
+  <si>
+    <t>if you take Delta airlines, have to wear bra, ladies</t>
+  </si>
+  <si>
+    <t>Bluff one lah  if you make see them make prata before  the hands so oily  no one will dig nose one. Hear her troll only 😏</t>
+  </si>
+  <si>
+    <t>This is fake, if you make see them make prata before, their hands are so oily, no one would dig their nose. She is only trolling 😏</t>
+  </si>
+  <si>
+    <t>2025-05-13T13-28-31-307Z</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages262_part6.csv</t>
+  </si>
+  <si>
+    <t>obviously la unless the girl not that pretty 😂</t>
+  </si>
+  <si>
+    <t>yes, obviously, unless the girl isn't that pretty</t>
+  </si>
+  <si>
+    <t>but vry obvious lor  he can like as me qns and idk then he scold nvr study right nvr read my lecture slides. Then he ask the girl the she dont know also and he was like "u dont know?" its ok i tell u the ans and u learn</t>
+  </si>
+  <si>
+    <t>but it was very obvious. he can ask me questions and then he would scold that i didn't study right and didn't read my lecture slides. Then when he asked the girl and she didn't know the answer too, he was like "you don't know? it's okay, I'll tell you the answer and you'll learn"</t>
+  </si>
+  <si>
+    <t>i barely give a shit about it tho</t>
+  </si>
+  <si>
+    <t>i barely care about it though</t>
+  </si>
+  <si>
+    <t>I think I’ll go get tacos later HAHAH</t>
+  </si>
+  <si>
+    <t>Facebook is dying Liao. Most platforms moving to insta and tiktok</t>
+  </si>
+  <si>
+    <t>Facebook is dying. Most platforms are moving to Insta and TikTok</t>
+  </si>
+  <si>
+    <t>I kena scammers mostly lol. Those manipulate stocks one</t>
+  </si>
+  <si>
+    <t>I keep getting scammers. I get the ones that manipulate stocks.</t>
+  </si>
+  <si>
+    <t>emphasis, resignation</t>
+  </si>
+  <si>
+    <t>Ask u buy a certain stock</t>
+  </si>
+  <si>
+    <t>Asking you to buy a certain stock.</t>
+  </si>
+  <si>
+    <t>My wechat only use to add club girls.</t>
+  </si>
+  <si>
+    <t>I only use my WeChat to add club girls.</t>
+  </si>
+  <si>
+    <t>🌰 An Acai Affair 🥣🟢 1-FOR-1 Acai Bowls🟡 NEX outlet🟡 Nutty Party acai bowls (Medium / Large)🟡 3 redemptions per person🟡 Other menu items will not be available on that day🟣 Opening till 9.30pm🟣 19 Nov onlyLearn more:https://bit.ly/3E6PKPC@sgcheapo#dessertsFor Advertising :https://t.me/sgcheapo_adminFacebook :https://fb.me/sgcheapoTelegram :https://t.me/sgcheapo</t>
+  </si>
+  <si>
+    <t>Idk why I got really scared when this young girl is like walking around alone and she staring at my phone</t>
+  </si>
+  <si>
+    <t>I don't know why I got really scared when there was this young girl walking around alone and staring at her phone</t>
+  </si>
+  <si>
+    <t>She is like 5 or something</t>
+  </si>
+  <si>
+    <t>Is she five years old or something?</t>
+  </si>
+  <si>
+    <t>Hold up what?? And 2nd really just 60? Girl value urself more pls</t>
+  </si>
+  <si>
+    <t>Hold up, what?? And second, is it really just 60? Girl, value yourself more please.</t>
+  </si>
+  <si>
+    <t>So how much then can agree?</t>
+  </si>
+  <si>
+    <t>So how much would it be before one can agree?</t>
+  </si>
+  <si>
+    <t>Uh idk but like 60 seems cheap leh</t>
+  </si>
+  <si>
+    <t>I'm not sure, but 60 seems cheap.</t>
+  </si>
+  <si>
+    <t>express skepticism</t>
+  </si>
+  <si>
+    <t>She vry cute leh can not</t>
+  </si>
+  <si>
+    <t>She is really cute, so can I?</t>
+  </si>
+  <si>
+    <t>express emphasis yet soften the emphasis</t>
+  </si>
+  <si>
+    <t>all the more reason to scare her 😹😹</t>
+  </si>
+  <si>
+    <t>all the more there's reason to scare her</t>
+  </si>
+  <si>
+    <t>1k for dinner only. 1 K I can do many things</t>
+  </si>
+  <si>
+    <t>1k is for dinner only. I can do many things with 1k.</t>
+  </si>
+  <si>
+    <t>Next time I take ur money &amp; run</t>
+  </si>
+  <si>
+    <t>Next time, I'll take your money and run.</t>
+  </si>
+  <si>
+    <t>Nahhhh can not I not that bad</t>
+  </si>
+  <si>
+    <t>Nahhhh. Cannot. I'm not that bad.</t>
+  </si>
+  <si>
+    <t>The offer not the girl open one what</t>
+  </si>
+  <si>
+    <t>The offer is not opened by the girl.</t>
+  </si>
+  <si>
+    <t>But she look sad sia she just walk around and look at ppl</t>
+  </si>
+  <si>
+    <t>But she looked sad. She just walked around and look at people.</t>
+  </si>
+  <si>
+    <t>adds an intensifier</t>
+  </si>
+  <si>
+    <t>U can have my empty wallet 😂</t>
+  </si>
+  <si>
+    <t>No I think the grandmother work here</t>
+  </si>
+  <si>
+    <t>No, I think the grandmother works here.</t>
+  </si>
+  <si>
+    <t>Uhhh what? But she can reject or give better offer ain't it</t>
+  </si>
+  <si>
+    <t>Uhh what? But she can reject or give a better offer, ain't it?</t>
+  </si>
+  <si>
+    <t>Hear who say one  fake newss</t>
+  </si>
+  <si>
+    <t>Who did you hear from? Fake newss</t>
+  </si>
+  <si>
+    <t>empahisise the point</t>
+  </si>
+  <si>
+    <t>Wait actually idk alr cause everyone working at the coffee shop like taking care of her like she lost</t>
+  </si>
+  <si>
+    <t>Wait actually, I'm not sure already, because everyone who were working at the coffee shop were taking care of her like she was lost.</t>
+  </si>
+  <si>
+    <t>I'm gonna be addicted to this fried chicken</t>
+  </si>
+  <si>
+    <t>then all throw kids to grandparents to look after hais</t>
+  </si>
+  <si>
+    <t>then all of them throw their kids to their grandparents to look after</t>
+  </si>
+  <si>
+    <t>hais</t>
+  </si>
+  <si>
+    <t>sigh of resignation</t>
+  </si>
+  <si>
+    <t>i prefer taking care of them myself lol</t>
+  </si>
+  <si>
+    <t>i still got long way to go sia lmao. obviously if planning to have a kid will have to talk about how we want take care la</t>
+  </si>
+  <si>
+    <t>i still have a long way to go. obviously, if i were planning to have a kid, i will have to talk about how we want to take care of it.</t>
+  </si>
+  <si>
+    <t>I think very hard to stay home at this rate of living standards</t>
+  </si>
+  <si>
+    <t>I think it is very hard to stay at home at this rate of living standards.</t>
+  </si>
+  <si>
+    <t>So shuai!!!!! Cfm everyday go to work plus volunteer to do OT just to see him 😂🤣</t>
+  </si>
+  <si>
+    <t>So handsome!!! You would go to work everyday and volunteer to do OT just to see him!</t>
+  </si>
+  <si>
+    <t>Is it time to change job Liao?</t>
+  </si>
+  <si>
+    <t>Is it tome to change job?</t>
+  </si>
+  <si>
+    <t>time for you to change job also? 😏</t>
+  </si>
+  <si>
+    <t>Is it also time for you to change job?</t>
+  </si>
+  <si>
+    <t>Of course not. I love my job. 😞</t>
+  </si>
+  <si>
+    <t>because your job can afford you go BKK see sexy male dancers 😏</t>
+  </si>
+  <si>
+    <t>because your job affords you to go to BKK and see sexy male dancers</t>
+  </si>
+  <si>
+    <t>Next time arrow down 就好 🫢</t>
+  </si>
+  <si>
+    <t>Next time just arrow down</t>
+  </si>
+  <si>
+    <t>and you saved the pic 😒</t>
+  </si>
+  <si>
+    <t>I'll make sure the BKK male dancers got big biceps</t>
+  </si>
+  <si>
+    <t>I'll make sure that the BKK male dancers have big biceps</t>
+  </si>
+  <si>
+    <t>No need. I don't want to go liao.</t>
+  </si>
+  <si>
+    <t>No need. I don't want to go anymore.</t>
+  </si>
+  <si>
+    <t>already, emphasis on the past</t>
+  </si>
+  <si>
+    <t>U want be 1 punch man ah. Must shave botak 1st</t>
+  </si>
+  <si>
+    <t>You really want to be 1 punch man? You must shave yourself bald first.</t>
+  </si>
+  <si>
+    <t>Stay put to ensure that someone doesnt go Malacca find XMM</t>
+  </si>
+  <si>
+    <t>Stay put to ensure that someone doesn't go to Malacca to find XMM.</t>
+  </si>
+  <si>
+    <t>They can beat you up from Oppa to Ahjussi</t>
+  </si>
+  <si>
+    <t>my friend just sent me a picture of a degloved  d!ck and face pic while I was eating🤢🤮</t>
+  </si>
+  <si>
+    <t>my friend just sent me a picture of a degloved d!ck and face while I was eating</t>
+  </si>
+  <si>
+    <t>wahhh go until Malaysia to just find xmm leh so committed sia</t>
+  </si>
+  <si>
+    <t>wow. you go all the way to Malaysia just to find XMM. That's so committed!</t>
+  </si>
+  <si>
+    <t>emphasis with a tinge of surprise and disbelief</t>
+  </si>
+  <si>
+    <t>i at work sia can not anyhow</t>
+  </si>
+  <si>
+    <t>I'm at work. I cannot be flippant in my behavior.</t>
+  </si>
+  <si>
+    <t>emphasis with resignation</t>
+  </si>
+  <si>
+    <t>I go find shuai ge ge also not so hiong leh 🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>When I go to find handsome guys, I was not as enthusiastic.</t>
+  </si>
+  <si>
+    <t>emphasis, with tinge of doubt</t>
+  </si>
+  <si>
+    <t>ltr they come and ask xdd what u doing at work ah</t>
+  </si>
+  <si>
+    <t>What if they come and ask, "XDD, what are you doing at work?"</t>
+  </si>
+  <si>
+    <t>emphasis, with tinge of disbelief and uncertainty</t>
+  </si>
+  <si>
+    <t>Skills future programmes available PM me</t>
+  </si>
+  <si>
+    <t>There are skills future programmes available. PM me.</t>
+  </si>
+  <si>
+    <t>wdu think i have been doing</t>
+  </si>
+  <si>
+    <t>What do you think I have been doing?</t>
   </si>
   <si>
     <t>Name</t>
@@ -37483,584 +37849,1563 @@
       </c>
     </row>
     <row r="1158">
-      <c r="A1158" s="1"/>
-      <c r="B1158" s="2"/>
-      <c r="C1158" s="2"/>
-      <c r="D1158" s="2"/>
-      <c r="E1158" s="2"/>
-      <c r="F1158" s="2"/>
-      <c r="G1158" s="2"/>
-      <c r="H1158" s="2"/>
+      <c r="A1158" s="1">
+        <v>45789.4348203125</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1158" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1158" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F1158" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G1158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1158" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1159">
-      <c r="A1159" s="1"/>
-      <c r="B1159" s="2"/>
-      <c r="C1159" s="2"/>
-      <c r="D1159" s="2"/>
-      <c r="E1159" s="2"/>
-      <c r="F1159" s="2"/>
-      <c r="G1159" s="2"/>
-      <c r="H1159" s="2"/>
+      <c r="A1159" s="1">
+        <v>45789.43519722222</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1159" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1159" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F1159" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G1159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1159" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1160">
-      <c r="A1160" s="1"/>
-      <c r="B1160" s="2"/>
-      <c r="C1160" s="2"/>
-      <c r="D1160" s="2"/>
-      <c r="E1160" s="2"/>
-      <c r="F1160" s="2"/>
-      <c r="G1160" s="2"/>
-      <c r="H1160" s="2"/>
+      <c r="A1160" s="1">
+        <v>45789.43550489584</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1160" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1160" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F1160" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G1160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1160" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1161">
-      <c r="A1161" s="1"/>
-      <c r="B1161" s="2"/>
-      <c r="C1161" s="2"/>
-      <c r="D1161" s="2"/>
-      <c r="E1161" s="2"/>
-      <c r="F1161" s="2"/>
-      <c r="G1161" s="2"/>
-      <c r="H1161" s="2"/>
+      <c r="A1161" s="1">
+        <v>45789.43587158565</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1161" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1161" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F1161" s="2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G1161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1161" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1162">
-      <c r="A1162" s="1"/>
-      <c r="B1162" s="2"/>
-      <c r="C1162" s="2"/>
-      <c r="D1162" s="2"/>
-      <c r="E1162" s="2"/>
-      <c r="F1162" s="2"/>
-      <c r="G1162" s="2"/>
-      <c r="H1162" s="2"/>
+      <c r="A1162" s="1">
+        <v>45789.43614451389</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1162" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1162" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F1162" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G1162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1162" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1163">
-      <c r="A1163" s="1"/>
-      <c r="B1163" s="2"/>
-      <c r="C1163" s="2"/>
-      <c r="D1163" s="2"/>
-      <c r="E1163" s="2"/>
-      <c r="F1163" s="2"/>
-      <c r="G1163" s="2"/>
-      <c r="H1163" s="2"/>
+      <c r="A1163" s="1">
+        <v>45789.436423680556</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1163" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1163" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F1163" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G1163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1163" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1164">
-      <c r="A1164" s="1"/>
-      <c r="B1164" s="2"/>
-      <c r="C1164" s="2"/>
-      <c r="D1164" s="2"/>
-      <c r="E1164" s="2"/>
-      <c r="F1164" s="2"/>
-      <c r="G1164" s="2"/>
-      <c r="H1164" s="2"/>
+      <c r="A1164" s="1">
+        <v>45789.438051087964</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1164" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F1164" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G1164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1164" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1165">
-      <c r="A1165" s="1"/>
-      <c r="B1165" s="2"/>
-      <c r="C1165" s="2"/>
-      <c r="D1165" s="2"/>
-      <c r="E1165" s="2"/>
-      <c r="F1165" s="2"/>
-      <c r="G1165" s="2"/>
-      <c r="H1165" s="2"/>
+      <c r="A1165" s="1">
+        <v>45789.438710787035</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1165" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1165" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F1165" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G1165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1165" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1166">
-      <c r="A1166" s="1"/>
-      <c r="B1166" s="2"/>
-      <c r="C1166" s="2"/>
-      <c r="D1166" s="2"/>
-      <c r="E1166" s="2"/>
-      <c r="F1166" s="2"/>
-      <c r="G1166" s="2"/>
-      <c r="H1166" s="2"/>
+      <c r="A1166" s="1">
+        <v>45790.39506111111</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1166" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F1166" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G1166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1166" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1166" s="2" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="1167">
-      <c r="A1167" s="1"/>
-      <c r="B1167" s="2"/>
-      <c r="C1167" s="2"/>
-      <c r="D1167" s="2"/>
-      <c r="E1167" s="2"/>
-      <c r="F1167" s="2"/>
-      <c r="G1167" s="2"/>
-      <c r="H1167" s="2"/>
+      <c r="A1167" s="1">
+        <v>45790.39575546296</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1167" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F1167" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G1167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1167" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1168">
-      <c r="A1168" s="1"/>
-      <c r="B1168" s="2"/>
-      <c r="C1168" s="2"/>
-      <c r="D1168" s="2"/>
-      <c r="E1168" s="2"/>
-      <c r="F1168" s="2"/>
-      <c r="G1168" s="2"/>
-      <c r="H1168" s="2"/>
+      <c r="A1168" s="1">
+        <v>45790.39599040509</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1168" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F1168" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G1168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1168" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1169">
-      <c r="A1169" s="1"/>
-      <c r="B1169" s="2"/>
-      <c r="C1169" s="2"/>
-      <c r="D1169" s="2"/>
-      <c r="E1169" s="2"/>
-      <c r="F1169" s="2"/>
-      <c r="G1169" s="2"/>
-      <c r="H1169" s="2"/>
+      <c r="A1169" s="1">
+        <v>45790.396103113424</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1169" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F1169" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1169" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1169" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1170">
-      <c r="A1170" s="1"/>
-      <c r="B1170" s="2"/>
-      <c r="C1170" s="2"/>
-      <c r="D1170" s="2"/>
-      <c r="E1170" s="2"/>
-      <c r="F1170" s="2"/>
-      <c r="G1170" s="2"/>
-      <c r="H1170" s="2"/>
+      <c r="A1170" s="1">
+        <v>45790.3964312037</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1170" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F1170" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G1170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1170" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1170" s="2" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="1171">
-      <c r="A1171" s="1"/>
-      <c r="B1171" s="2"/>
-      <c r="C1171" s="2"/>
-      <c r="D1171" s="2"/>
-      <c r="E1171" s="2"/>
-      <c r="F1171" s="2"/>
-      <c r="G1171" s="2"/>
-      <c r="H1171" s="2"/>
+      <c r="A1171" s="1">
+        <v>45790.396732407404</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1171" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F1171" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G1171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1171" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1171" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
     <row r="1172">
-      <c r="A1172" s="1"/>
-      <c r="B1172" s="2"/>
-      <c r="C1172" s="2"/>
-      <c r="D1172" s="2"/>
-      <c r="E1172" s="2"/>
-      <c r="F1172" s="2"/>
-      <c r="G1172" s="2"/>
-      <c r="H1172" s="2"/>
+      <c r="A1172" s="1">
+        <v>45790.3968837963</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1172" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F1172" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G1172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1172" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" s="1"/>
-      <c r="B1173" s="2"/>
-      <c r="C1173" s="2"/>
-      <c r="D1173" s="2"/>
-      <c r="E1173" s="2"/>
-      <c r="F1173" s="2"/>
-      <c r="G1173" s="2"/>
-      <c r="H1173" s="2"/>
+      <c r="A1173" s="1">
+        <v>45790.39753071759</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1173" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F1173" s="2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G1173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1173" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1174">
-      <c r="A1174" s="1"/>
-      <c r="B1174" s="2"/>
-      <c r="C1174" s="2"/>
-      <c r="D1174" s="2"/>
-      <c r="E1174" s="2"/>
-      <c r="F1174" s="2"/>
-      <c r="G1174" s="2"/>
-      <c r="H1174" s="2"/>
+      <c r="A1174" s="1">
+        <v>45790.39774347222</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1174" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F1174" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1174" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1174" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1175">
-      <c r="A1175" s="1"/>
-      <c r="B1175" s="2"/>
-      <c r="C1175" s="2"/>
-      <c r="D1175" s="2"/>
-      <c r="E1175" s="2"/>
-      <c r="F1175" s="2"/>
-      <c r="G1175" s="2"/>
-      <c r="H1175" s="2"/>
+      <c r="A1175" s="1">
+        <v>45790.398333391204</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1175" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="F1175" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G1175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1175" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" s="1"/>
-      <c r="B1176" s="2"/>
-      <c r="C1176" s="2"/>
-      <c r="D1176" s="2"/>
-      <c r="E1176" s="2"/>
-      <c r="F1176" s="2"/>
-      <c r="G1176" s="2"/>
-      <c r="H1176" s="2"/>
+      <c r="A1176" s="1">
+        <v>45790.399050486114</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1176" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="F1176" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G1176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1176" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1177">
-      <c r="A1177" s="1"/>
-      <c r="B1177" s="2"/>
-      <c r="C1177" s="2"/>
-      <c r="D1177" s="2"/>
-      <c r="E1177" s="2"/>
-      <c r="F1177" s="2"/>
-      <c r="G1177" s="2"/>
-      <c r="H1177" s="2"/>
+      <c r="A1177" s="1">
+        <v>45790.399307581014</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1177" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F1177" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G1177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1177" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1178">
-      <c r="A1178" s="1"/>
-      <c r="B1178" s="2"/>
-      <c r="C1178" s="2"/>
-      <c r="D1178" s="2"/>
-      <c r="E1178" s="2"/>
-      <c r="F1178" s="2"/>
-      <c r="G1178" s="2"/>
-      <c r="H1178" s="2"/>
+      <c r="A1178" s="1">
+        <v>45790.40139775463</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1178" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F1178" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G1178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1178" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1179">
-      <c r="A1179" s="1"/>
-      <c r="B1179" s="2"/>
-      <c r="C1179" s="2"/>
-      <c r="D1179" s="2"/>
-      <c r="E1179" s="2"/>
-      <c r="F1179" s="2"/>
-      <c r="G1179" s="2"/>
-      <c r="H1179" s="2"/>
+      <c r="A1179" s="1">
+        <v>45790.402632743055</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1179" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F1179" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G1179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1179" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1179" s="2" t="s">
+        <v>2274</v>
+      </c>
     </row>
     <row r="1180">
-      <c r="A1180" s="1"/>
-      <c r="B1180" s="2"/>
-      <c r="C1180" s="2"/>
-      <c r="D1180" s="2"/>
-      <c r="E1180" s="2"/>
-      <c r="F1180" s="2"/>
-      <c r="G1180" s="2"/>
-      <c r="H1180" s="2"/>
+      <c r="A1180" s="1">
+        <v>45790.40302442129</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1180" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F1180" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G1180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1180" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1180" s="2" t="s">
+        <v>2277</v>
+      </c>
     </row>
     <row r="1181">
-      <c r="A1181" s="1"/>
-      <c r="B1181" s="2"/>
-      <c r="C1181" s="2"/>
-      <c r="D1181" s="2"/>
-      <c r="E1181" s="2"/>
-      <c r="F1181" s="2"/>
-      <c r="G1181" s="2"/>
-      <c r="H1181" s="2"/>
+      <c r="A1181" s="1">
+        <v>45790.40489607639</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1181" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F1181" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G1181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1181" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1182">
-      <c r="A1182" s="1"/>
-      <c r="B1182" s="2"/>
-      <c r="C1182" s="2"/>
-      <c r="D1182" s="2"/>
-      <c r="E1182" s="2"/>
-      <c r="F1182" s="2"/>
-      <c r="G1182" s="2"/>
-      <c r="H1182" s="2"/>
+      <c r="A1182" s="1">
+        <v>45790.40553001157</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1182" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F1182" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G1182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1182" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1183">
-      <c r="A1183" s="1"/>
-      <c r="B1183" s="2"/>
-      <c r="C1183" s="2"/>
-      <c r="D1183" s="2"/>
-      <c r="E1183" s="2"/>
-      <c r="F1183" s="2"/>
-      <c r="G1183" s="2"/>
-      <c r="H1183" s="2"/>
+      <c r="A1183" s="1">
+        <v>45790.405911504626</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1183" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F1183" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G1183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1183" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1184">
-      <c r="A1184" s="1"/>
-      <c r="B1184" s="2"/>
-      <c r="C1184" s="2"/>
-      <c r="D1184" s="2"/>
-      <c r="E1184" s="2"/>
-      <c r="F1184" s="2"/>
-      <c r="G1184" s="2"/>
-      <c r="H1184" s="2"/>
+      <c r="A1184" s="1">
+        <v>45790.40602491898</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1184" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F1184" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G1184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1184" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1185">
-      <c r="A1185" s="1"/>
-      <c r="B1185" s="2"/>
-      <c r="C1185" s="2"/>
-      <c r="D1185" s="2"/>
-      <c r="E1185" s="2"/>
-      <c r="F1185" s="2"/>
-      <c r="G1185" s="2"/>
-      <c r="H1185" s="2"/>
+      <c r="A1185" s="1">
+        <v>45790.406317650464</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1185" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F1185" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G1185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1185" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1186">
-      <c r="A1186" s="1"/>
-      <c r="B1186" s="2"/>
-      <c r="C1186" s="2"/>
-      <c r="D1186" s="2"/>
-      <c r="E1186" s="2"/>
-      <c r="F1186" s="2"/>
-      <c r="G1186" s="2"/>
-      <c r="H1186" s="2"/>
+      <c r="A1186" s="1">
+        <v>45790.407714236106</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1186" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F1186" s="2" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G1186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1186" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1186" s="2" t="s">
+        <v>2290</v>
+      </c>
     </row>
     <row r="1187">
-      <c r="A1187" s="1"/>
-      <c r="B1187" s="2"/>
-      <c r="C1187" s="2"/>
-      <c r="D1187" s="2"/>
-      <c r="E1187" s="2"/>
-      <c r="F1187" s="2"/>
-      <c r="G1187" s="2"/>
-      <c r="H1187" s="2"/>
+      <c r="A1187" s="1">
+        <v>45790.40873443287</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1187" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F1187" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1187" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1187" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1188">
-      <c r="A1188" s="1"/>
-      <c r="B1188" s="2"/>
-      <c r="C1188" s="2"/>
-      <c r="D1188" s="2"/>
-      <c r="E1188" s="2"/>
-      <c r="F1188" s="2"/>
-      <c r="G1188" s="2"/>
-      <c r="H1188" s="2"/>
+      <c r="A1188" s="1">
+        <v>45790.40921611111</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1188" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F1188" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G1188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1188" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1189">
-      <c r="A1189" s="1"/>
-      <c r="B1189" s="2"/>
-      <c r="C1189" s="2"/>
-      <c r="D1189" s="2"/>
-      <c r="E1189" s="2"/>
-      <c r="F1189" s="2"/>
-      <c r="G1189" s="2"/>
-      <c r="H1189" s="2"/>
+      <c r="A1189" s="1">
+        <v>45790.410164270834</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1189" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F1189" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G1189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1189" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1190">
-      <c r="A1190" s="1"/>
-      <c r="B1190" s="2"/>
-      <c r="C1190" s="2"/>
-      <c r="D1190" s="2"/>
-      <c r="E1190" s="2"/>
-      <c r="F1190" s="2"/>
-      <c r="G1190" s="2"/>
-      <c r="H1190" s="2"/>
+      <c r="A1190" s="1">
+        <v>45790.4109521412</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1190" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F1190" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G1190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1190" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1190" s="2" t="s">
+        <v>2298</v>
+      </c>
     </row>
     <row r="1191">
-      <c r="A1191" s="1"/>
-      <c r="B1191" s="2"/>
-      <c r="C1191" s="2"/>
-      <c r="D1191" s="2"/>
-      <c r="E1191" s="2"/>
-      <c r="F1191" s="2"/>
-      <c r="G1191" s="2"/>
-      <c r="H1191" s="2"/>
+      <c r="A1191" s="1">
+        <v>45790.411230300924</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1191" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1191" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F1191" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G1191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1191" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1192">
-      <c r="A1192" s="1"/>
-      <c r="B1192" s="2"/>
-      <c r="C1192" s="2"/>
-      <c r="D1192" s="2"/>
-      <c r="E1192" s="2"/>
-      <c r="F1192" s="2"/>
-      <c r="G1192" s="2"/>
-      <c r="H1192" s="2"/>
+      <c r="A1192" s="1">
+        <v>45790.41136759259</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1192" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F1192" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1192" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1192" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1193">
-      <c r="A1193" s="1"/>
-      <c r="B1193" s="2"/>
-      <c r="C1193" s="2"/>
-      <c r="D1193" s="2"/>
-      <c r="E1193" s="2"/>
-      <c r="F1193" s="2"/>
-      <c r="G1193" s="2"/>
-      <c r="H1193" s="2"/>
+      <c r="A1193" s="1">
+        <v>45790.412147766205</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1193" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F1193" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G1193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1193" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="I1193" s="2" t="s">
+        <v>2305</v>
+      </c>
     </row>
     <row r="1194">
-      <c r="A1194" s="1"/>
-      <c r="B1194" s="2"/>
-      <c r="C1194" s="2"/>
-      <c r="D1194" s="2"/>
-      <c r="E1194" s="2"/>
-      <c r="F1194" s="2"/>
-      <c r="G1194" s="2"/>
-      <c r="H1194" s="2"/>
+      <c r="A1194" s="1">
+        <v>45790.41230164352</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1194" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F1194" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1194" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1194" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1195">
-      <c r="A1195" s="1"/>
-      <c r="B1195" s="2"/>
-      <c r="C1195" s="2"/>
-      <c r="D1195" s="2"/>
-      <c r="E1195" s="2"/>
-      <c r="F1195" s="2"/>
-      <c r="G1195" s="2"/>
-      <c r="H1195" s="2"/>
+      <c r="A1195" s="1">
+        <v>45790.41277635416</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1195" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F1195" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G1195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1195" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1195" s="2" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="1196">
-      <c r="A1196" s="1"/>
-      <c r="B1196" s="2"/>
-      <c r="C1196" s="2"/>
-      <c r="D1196" s="2"/>
-      <c r="E1196" s="2"/>
-      <c r="F1196" s="2"/>
-      <c r="G1196" s="2"/>
-      <c r="H1196" s="2"/>
+      <c r="A1196" s="1">
+        <v>45790.41306663194</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1196" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1196" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="G1196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1196" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1197">
-      <c r="A1197" s="1"/>
-      <c r="B1197" s="2"/>
-      <c r="C1197" s="2"/>
-      <c r="D1197" s="2"/>
-      <c r="E1197" s="2"/>
-      <c r="F1197" s="2"/>
-      <c r="G1197" s="2"/>
-      <c r="H1197" s="2"/>
+      <c r="A1197" s="1">
+        <v>45790.413578912034</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F1197" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G1197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1197" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1198">
-      <c r="A1198" s="1"/>
-      <c r="B1198" s="2"/>
-      <c r="C1198" s="2"/>
-      <c r="D1198" s="2"/>
-      <c r="E1198" s="2"/>
-      <c r="F1198" s="2"/>
-      <c r="G1198" s="2"/>
-      <c r="H1198" s="2"/>
+      <c r="A1198" s="1">
+        <v>45790.4140462037</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1198" s="2" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F1198" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G1198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1198" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1198" s="2" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="1199">
-      <c r="A1199" s="1"/>
-      <c r="B1199" s="2"/>
-      <c r="C1199" s="2"/>
-      <c r="D1199" s="2"/>
-      <c r="E1199" s="2"/>
-      <c r="F1199" s="2"/>
-      <c r="G1199" s="2"/>
-      <c r="H1199" s="2"/>
+      <c r="A1199" s="1">
+        <v>45790.41418467593</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1199" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F1199" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G1199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1199" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1200">
-      <c r="A1200" s="1"/>
-      <c r="B1200" s="2"/>
-      <c r="C1200" s="2"/>
-      <c r="D1200" s="2"/>
-      <c r="E1200" s="2"/>
-      <c r="F1200" s="2"/>
-      <c r="G1200" s="2"/>
-      <c r="H1200" s="2"/>
+      <c r="A1200" s="1">
+        <v>45790.414451689816</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1200" s="2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F1200" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1200" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1200" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1201">
-      <c r="A1201" s="1"/>
-      <c r="B1201" s="2"/>
-      <c r="C1201" s="2"/>
-      <c r="D1201" s="2"/>
-      <c r="E1201" s="2"/>
-      <c r="F1201" s="2"/>
-      <c r="G1201" s="2"/>
-      <c r="H1201" s="2"/>
+      <c r="A1201" s="1">
+        <v>45790.4148160301</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1201" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F1201" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G1201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1201" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1202">
-      <c r="A1202" s="1"/>
-      <c r="B1202" s="2"/>
-      <c r="C1202" s="2"/>
-      <c r="D1202" s="2"/>
-      <c r="E1202" s="2"/>
-      <c r="F1202" s="2"/>
-      <c r="G1202" s="2"/>
-      <c r="H1202" s="2"/>
+      <c r="A1202" s="1">
+        <v>45790.41493164352</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1202" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1202" s="2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G1202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1202" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1203">
-      <c r="A1203" s="1"/>
-      <c r="B1203" s="2"/>
-      <c r="C1203" s="2"/>
-      <c r="D1203" s="2"/>
-      <c r="E1203" s="2"/>
-      <c r="F1203" s="2"/>
-      <c r="G1203" s="2"/>
-      <c r="H1203" s="2"/>
+      <c r="A1203" s="1">
+        <v>45790.414997789354</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1203" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1203" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F1203" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1203" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1203" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1204">
-      <c r="A1204" s="1"/>
-      <c r="B1204" s="2"/>
-      <c r="C1204" s="2"/>
-      <c r="D1204" s="2"/>
-      <c r="E1204" s="2"/>
-      <c r="F1204" s="2"/>
-      <c r="G1204" s="2"/>
-      <c r="H1204" s="2"/>
+      <c r="A1204" s="1">
+        <v>45790.415111504626</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1204" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F1204" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G1204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1204" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1205">
-      <c r="A1205" s="1"/>
-      <c r="B1205" s="2"/>
-      <c r="C1205" s="2"/>
-      <c r="D1205" s="2"/>
-      <c r="E1205" s="2"/>
-      <c r="F1205" s="2"/>
-      <c r="G1205" s="2"/>
-      <c r="H1205" s="2"/>
+      <c r="A1205" s="1">
+        <v>45790.415440833334</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1205" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F1205" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G1205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1205" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1205" s="2" t="s">
+        <v>2327</v>
+      </c>
     </row>
     <row r="1206">
-      <c r="A1206" s="1"/>
-      <c r="B1206" s="2"/>
-      <c r="C1206" s="2"/>
-      <c r="D1206" s="2"/>
-      <c r="E1206" s="2"/>
-      <c r="F1206" s="2"/>
-      <c r="G1206" s="2"/>
-      <c r="H1206" s="2"/>
+      <c r="A1206" s="1">
+        <v>45790.41574822916</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1206" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F1206" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G1206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1206" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1206" s="2" t="s">
+        <v>1576</v>
+      </c>
     </row>
     <row r="1207">
-      <c r="A1207" s="1"/>
-      <c r="B1207" s="2"/>
-      <c r="C1207" s="2"/>
-      <c r="D1207" s="2"/>
-      <c r="E1207" s="2"/>
-      <c r="F1207" s="2"/>
-      <c r="G1207" s="2"/>
-      <c r="H1207" s="2"/>
+      <c r="A1207" s="1">
+        <v>45790.41598111111</v>
+      </c>
+      <c r="B1207" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1207" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1207" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F1207" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G1207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1207" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1208">
-      <c r="A1208" s="1"/>
-      <c r="B1208" s="2"/>
-      <c r="C1208" s="2"/>
-      <c r="D1208" s="2"/>
-      <c r="E1208" s="2"/>
-      <c r="F1208" s="2"/>
-      <c r="G1208" s="2"/>
-      <c r="H1208" s="2"/>
+      <c r="A1208" s="1">
+        <v>45790.416095775465</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1208" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F1208" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1208" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1208" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1209">
-      <c r="A1209" s="1"/>
-      <c r="B1209" s="2"/>
-      <c r="C1209" s="2"/>
-      <c r="D1209" s="2"/>
-      <c r="E1209" s="2"/>
-      <c r="F1209" s="2"/>
-      <c r="G1209" s="2"/>
-      <c r="H1209" s="2"/>
+      <c r="A1209" s="1">
+        <v>45790.41633774305</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1209" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1209" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F1209" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G1209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1209" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1210">
-      <c r="A1210" s="1"/>
-      <c r="B1210" s="2"/>
-      <c r="C1210" s="2"/>
-      <c r="D1210" s="2"/>
-      <c r="E1210" s="2"/>
-      <c r="F1210" s="2"/>
-      <c r="G1210" s="2"/>
-      <c r="H1210" s="2"/>
+      <c r="A1210" s="1">
+        <v>45790.416931238426</v>
+      </c>
+      <c r="B1210" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1210" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F1210" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G1210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1210" s="2" t="s">
+        <v>2337</v>
+      </c>
     </row>
     <row r="1211">
-      <c r="A1211" s="1"/>
-      <c r="B1211" s="2"/>
-      <c r="C1211" s="2"/>
-      <c r="D1211" s="2"/>
-      <c r="E1211" s="2"/>
-      <c r="F1211" s="2"/>
-      <c r="G1211" s="2"/>
-      <c r="H1211" s="2"/>
+      <c r="A1211" s="1">
+        <v>45790.41744266204</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1211" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F1211" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="G1211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1211" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1211" s="2" t="s">
+        <v>2340</v>
+      </c>
     </row>
     <row r="1212">
-      <c r="A1212" s="1"/>
-      <c r="B1212" s="2"/>
-      <c r="C1212" s="2"/>
-      <c r="D1212" s="2"/>
-      <c r="E1212" s="2"/>
-      <c r="F1212" s="2"/>
-      <c r="G1212" s="2"/>
-      <c r="H1212" s="2"/>
+      <c r="A1212" s="1">
+        <v>45790.4184034375</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1212" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="F1212" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G1212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1212" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1212" s="2" t="s">
+        <v>2343</v>
+      </c>
     </row>
     <row r="1213">
-      <c r="A1213" s="1"/>
-      <c r="B1213" s="2"/>
-      <c r="C1213" s="2"/>
-      <c r="D1213" s="2"/>
-      <c r="E1213" s="2"/>
-      <c r="F1213" s="2"/>
-      <c r="G1213" s="2"/>
-      <c r="H1213" s="2"/>
+      <c r="A1213" s="1">
+        <v>45790.418841446764</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1213" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F1213" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G1213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1213" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1213" s="2" t="s">
+        <v>2346</v>
+      </c>
     </row>
     <row r="1214">
-      <c r="A1214" s="1"/>
-      <c r="B1214" s="2"/>
-      <c r="C1214" s="2"/>
-      <c r="D1214" s="2"/>
-      <c r="E1214" s="2"/>
-      <c r="F1214" s="2"/>
-      <c r="G1214" s="2"/>
-      <c r="H1214" s="2"/>
+      <c r="A1214" s="1">
+        <v>45790.41898144676</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1214" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1214" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F1214" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G1214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1214" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1215">
-      <c r="A1215" s="1"/>
-      <c r="B1215" s="2"/>
-      <c r="C1215" s="2"/>
-      <c r="D1215" s="2"/>
-      <c r="E1215" s="2"/>
-      <c r="F1215" s="2"/>
-      <c r="G1215" s="2"/>
-      <c r="H1215" s="2"/>
+      <c r="A1215" s="1">
+        <v>45790.419083981484</v>
+      </c>
+      <c r="B1215" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1215" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F1215" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G1215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1215" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="1"/>
@@ -45935,16 +47280,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2229</v>
+        <v>2351</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2230</v>
+        <v>2352</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2231</v>
+        <v>2353</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2232</v>
+        <v>2354</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -45961,10 +47306,10 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45789.43303</v>
+        <v>45790.41909</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2233</v>
+        <v>2355</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -45978,18 +47323,18 @@
       </c>
       <c r="B3" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45789.43303</v>
+        <v>45790.41909</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2234</v>
+        <v>2356</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1526</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="4">
@@ -46003,7 +47348,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45789.43303</v>
+        <v>45790.41909</v>
       </c>
     </row>
     <row r="5">
@@ -46017,7 +47362,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45789.43303</v>
+        <v>45790.41909</v>
       </c>
     </row>
     <row r="6">
@@ -46027,11 +47372,11 @@
       </c>
       <c r="B6" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45789.43303</v>
+        <v>45790.41909</v>
       </c>
     </row>
     <row r="7">
@@ -46041,11 +47386,11 @@
       </c>
       <c r="B7" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45789.43303</v>
+        <v>45790.41909</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8659" uniqueCount="2357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9009" uniqueCount="2434">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -7065,6 +7065,237 @@
   </si>
   <si>
     <t>What do you think I have been doing?</t>
+  </si>
+  <si>
+    <t>2025-05-14T11-19-00-249Z</t>
+  </si>
+  <si>
+    <t>inputs/SGExamsChat_messages604_part4.csv</t>
+  </si>
+  <si>
+    <t>i just realised that sch is starting in 2 days and i haven’t finished my holiday hw ☠️☠️</t>
+  </si>
+  <si>
+    <t>I still went for eoy event</t>
+  </si>
+  <si>
+    <t>i don’t feel like going out</t>
+  </si>
+  <si>
+    <t>i might as well just sleep</t>
+  </si>
+  <si>
+    <t>I kinda jelly of other countries countdown</t>
+  </si>
+  <si>
+    <t>I am kinda jealous of the countdown in the other countries.</t>
+  </si>
+  <si>
+    <t>I’m just going because my mom forced me to LOL</t>
+  </si>
+  <si>
+    <t>That was me few months ago</t>
+  </si>
+  <si>
+    <t>I don’t mind looking the fireworks from my house</t>
+  </si>
+  <si>
+    <t>I don't mind looking at the fireworks from my house.</t>
+  </si>
+  <si>
+    <t>Every year is the same LOL</t>
+  </si>
+  <si>
+    <t>It is the same every year LOL</t>
+  </si>
+  <si>
+    <t>Yea diff stuff coming out from diff holes</t>
+  </si>
+  <si>
+    <t>my new year is just gonna be texting happy new year in my friend groups</t>
+  </si>
+  <si>
+    <t>mfs born with weak constitution fighting the air rn</t>
+  </si>
+  <si>
+    <t>mfs who are born with weak constitution are fighting the air rn</t>
+  </si>
+  <si>
+    <t>fowarding happy new year msgs like a to-do list 😭😭</t>
+  </si>
+  <si>
+    <t>each chat gets their own choice of sticker</t>
+  </si>
+  <si>
+    <t>all fun and games until u cant find the right sticker</t>
+  </si>
+  <si>
+    <t>i don't have that many friends groups</t>
+  </si>
+  <si>
+    <t>Mine doesn't even express anything lol ik I shld be more than grateful if I were to compare to an AVG typical Asian household but mine regardless gd(no congratulations or anything)/bad(is okie u tried Ur best)</t>
+  </si>
+  <si>
+    <t>Mine doesn't even express anything lol. I know that if I were to compare to an average typical Asian household, I should be more than grateful. But mine is regardless good (no congratulations) or bad (it's okay, you tried your best).</t>
+  </si>
+  <si>
+    <t>But ig their first time being parents ig and two diff upbringing n generation</t>
+  </si>
+  <si>
+    <t>But i guess it's their first time being parents. I guess there are two different upbringings and generations.</t>
+  </si>
+  <si>
+    <t>a lot of parents dk how to balance pushing children to go further and positive reinforcement</t>
+  </si>
+  <si>
+    <t>a lot of parents do not know how to balance between pushing their children to go further and giving positive reinforcement.</t>
+  </si>
+  <si>
+    <t>The only reinforcement I had is my pri sch chet</t>
+  </si>
+  <si>
+    <t>do well so you can play your ds during holidays?</t>
+  </si>
+  <si>
+    <t>how about you do well, so that you can play your ds during the holidays?</t>
+  </si>
+  <si>
+    <t>I feel like some ppl end up the way they are as an adult is partially cause of the parents</t>
+  </si>
+  <si>
+    <t>I feel like a partial reason why some people end up the way they are is because of their parents.</t>
+  </si>
+  <si>
+    <t>Oh is it the bulky one</t>
+  </si>
+  <si>
+    <t>Oh, is it the bulky one?</t>
+  </si>
+  <si>
+    <t>for me its chicha &gt;&gt;&gt; playmade &gt; chagee &gt; itea &gt; gongcha &gt; others</t>
+  </si>
+  <si>
+    <t>I always hum to the switching on sound</t>
+  </si>
+  <si>
+    <t>I always hum to the sound of switches turning on</t>
+  </si>
+  <si>
+    <t>idk there isnt rly a chagee at the places i go</t>
+  </si>
+  <si>
+    <t>I don't know. there isn't a chagee at the places that i go to.</t>
+  </si>
+  <si>
+    <t>but their tea is a good quality</t>
+  </si>
+  <si>
+    <t>but their tea is good quality</t>
+  </si>
+  <si>
+    <t>I like coffe bean match green tea ice blended with W cream</t>
+  </si>
+  <si>
+    <t>I like the coffee mean matcha green tea ice blended with whipped cream.</t>
+  </si>
+  <si>
+    <t>I used to go liho now I drink mixed ice cream milk tea</t>
+  </si>
+  <si>
+    <t>I used to go to Liho. Now, I drink ice cream mixed with milk tea.</t>
+  </si>
+  <si>
+    <t>But Ur gonna pee it out eventually</t>
+  </si>
+  <si>
+    <t>I didn't even attend any competitions</t>
+  </si>
+  <si>
+    <t>Boomer normally send those pictures HAHA</t>
+  </si>
+  <si>
+    <t>Boomers normally to send those pictures HAHA</t>
+  </si>
+  <si>
+    <t>for me whale tea &gt; chicha &gt; playmade &gt; koi/liho &gt; others &gt;&gt;&gt; gongcha</t>
+  </si>
+  <si>
+    <t>I niece atarax confirm on behalf of uncle roger</t>
+  </si>
+  <si>
+    <t>I niece atarax. I confirm on behalf of uncle roger.</t>
+  </si>
+  <si>
+    <t>i got a merry christmas boomer pic from a scammer</t>
+  </si>
+  <si>
+    <t>You don't even have to try</t>
+  </si>
+  <si>
+    <t>i didn't know NTU got CS until after I applied</t>
+  </si>
+  <si>
+    <t>I didn't know that NTU has a CS course until after I applied.</t>
+  </si>
+  <si>
+    <t>rip my result so bad I nvr even thought of applying ntu cs</t>
+  </si>
+  <si>
+    <t>rip. My result was so bad that I never even thought of applying to NTU CS.</t>
+  </si>
+  <si>
+    <t>I like how the cs ppl decided to mia</t>
+  </si>
+  <si>
+    <t>I like how the CS people had decided to MIA.</t>
+  </si>
+  <si>
+    <t>Also does anyone play baldur's gate</t>
+  </si>
+  <si>
+    <t>Also, does anyone play Baldur's Gate?</t>
+  </si>
+  <si>
+    <t>Huh but bedok admin said I missed the fireworks</t>
+  </si>
+  <si>
+    <t>Huh? But the bedok admin said that I had missed the fireworks.</t>
+  </si>
+  <si>
+    <t>Did I miss or did I not miss</t>
+  </si>
+  <si>
+    <t>Did I miss or did I not miss?</t>
+  </si>
+  <si>
+    <t>he lives 2 million universes ahead of us</t>
+  </si>
+  <si>
+    <t>I was in suntec convention center</t>
+  </si>
+  <si>
+    <t>I was at suntec convention center.</t>
+  </si>
+  <si>
+    <t>Indoors so I can't see outside</t>
+  </si>
+  <si>
+    <t>Indoors. So I can't see the outside.</t>
+  </si>
+  <si>
+    <t>he was experiencing the fireworks in the year 181625279394626262626874</t>
+  </si>
+  <si>
+    <t>Idk why it appeared in that sticker pack</t>
+  </si>
+  <si>
+    <t>happy new year you aussie fucks</t>
+  </si>
+  <si>
+    <t>I srsly read that upside down</t>
+  </si>
+  <si>
+    <t>I'm down in the abyss and I will stay there</t>
   </si>
   <si>
     <t>Name</t>
@@ -39408,504 +39639,1304 @@
       </c>
     </row>
     <row r="1216">
-      <c r="A1216" s="1"/>
-      <c r="B1216" s="2"/>
-      <c r="C1216" s="2"/>
-      <c r="D1216" s="2"/>
-      <c r="E1216" s="2"/>
-      <c r="F1216" s="2"/>
-      <c r="G1216" s="2"/>
-      <c r="H1216" s="2"/>
+      <c r="A1216" s="1">
+        <v>45791.30571623842</v>
+      </c>
+      <c r="B1216" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1216" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1216" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1216" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1216" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1217">
-      <c r="A1217" s="1"/>
-      <c r="B1217" s="2"/>
-      <c r="C1217" s="2"/>
-      <c r="D1217" s="2"/>
-      <c r="E1217" s="2"/>
-      <c r="F1217" s="2"/>
-      <c r="G1217" s="2"/>
-      <c r="H1217" s="2"/>
+      <c r="A1217" s="1">
+        <v>45791.30585715278</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1217" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F1217" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1217" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1217" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1218">
-      <c r="A1218" s="1"/>
-      <c r="B1218" s="2"/>
-      <c r="C1218" s="2"/>
-      <c r="D1218" s="2"/>
-      <c r="E1218" s="2"/>
-      <c r="F1218" s="2"/>
-      <c r="G1218" s="2"/>
-      <c r="H1218" s="2"/>
+      <c r="A1218" s="1">
+        <v>45791.305895150464</v>
+      </c>
+      <c r="B1218" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1218" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F1218" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1218" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1218" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1219">
-      <c r="A1219" s="1"/>
-      <c r="B1219" s="2"/>
-      <c r="C1219" s="2"/>
-      <c r="D1219" s="2"/>
-      <c r="E1219" s="2"/>
-      <c r="F1219" s="2"/>
-      <c r="G1219" s="2"/>
-      <c r="H1219" s="2"/>
+      <c r="A1219" s="1">
+        <v>45791.30594533565</v>
+      </c>
+      <c r="B1219" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1219" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F1219" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1219" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1219" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1220">
-      <c r="A1220" s="1"/>
-      <c r="B1220" s="2"/>
-      <c r="C1220" s="2"/>
-      <c r="D1220" s="2"/>
-      <c r="E1220" s="2"/>
-      <c r="F1220" s="2"/>
-      <c r="G1220" s="2"/>
-      <c r="H1220" s="2"/>
+      <c r="A1220" s="1">
+        <v>45791.30611576389</v>
+      </c>
+      <c r="B1220" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1220" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F1220" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G1220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1220" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1221">
-      <c r="A1221" s="1"/>
-      <c r="B1221" s="2"/>
-      <c r="C1221" s="2"/>
-      <c r="D1221" s="2"/>
-      <c r="E1221" s="2"/>
-      <c r="F1221" s="2"/>
-      <c r="G1221" s="2"/>
-      <c r="H1221" s="2"/>
+      <c r="A1221" s="1">
+        <v>45791.30618491898</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1221" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F1221" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1221" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1221" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1222">
-      <c r="A1222" s="1"/>
-      <c r="B1222" s="2"/>
-      <c r="C1222" s="2"/>
-      <c r="D1222" s="2"/>
-      <c r="E1222" s="2"/>
-      <c r="F1222" s="2"/>
-      <c r="G1222" s="2"/>
-      <c r="H1222" s="2"/>
+      <c r="A1222" s="1">
+        <v>45791.30623646991</v>
+      </c>
+      <c r="B1222" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1222" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F1222" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1222" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1222" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1223">
-      <c r="A1223" s="1"/>
-      <c r="B1223" s="2"/>
-      <c r="C1223" s="2"/>
-      <c r="D1223" s="2"/>
-      <c r="E1223" s="2"/>
-      <c r="F1223" s="2"/>
-      <c r="G1223" s="2"/>
-      <c r="H1223" s="2"/>
+      <c r="A1223" s="1">
+        <v>45791.30636282408</v>
+      </c>
+      <c r="B1223" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1223" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F1223" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G1223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1223" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1224">
-      <c r="A1224" s="1"/>
-      <c r="B1224" s="2"/>
-      <c r="C1224" s="2"/>
-      <c r="D1224" s="2"/>
-      <c r="E1224" s="2"/>
-      <c r="F1224" s="2"/>
-      <c r="G1224" s="2"/>
-      <c r="H1224" s="2"/>
+      <c r="A1224" s="1">
+        <v>45791.30647152777</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1224" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F1224" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G1224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1224" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1225">
-      <c r="A1225" s="1"/>
-      <c r="B1225" s="2"/>
-      <c r="C1225" s="2"/>
-      <c r="D1225" s="2"/>
-      <c r="E1225" s="2"/>
-      <c r="F1225" s="2"/>
-      <c r="G1225" s="2"/>
-      <c r="H1225" s="2"/>
+      <c r="A1225" s="1">
+        <v>45791.30655663194</v>
+      </c>
+      <c r="B1225" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1225" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F1225" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1225" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1225" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1226">
-      <c r="A1226" s="1"/>
-      <c r="B1226" s="2"/>
-      <c r="C1226" s="2"/>
-      <c r="D1226" s="2"/>
-      <c r="E1226" s="2"/>
-      <c r="F1226" s="2"/>
-      <c r="G1226" s="2"/>
-      <c r="H1226" s="2"/>
+      <c r="A1226" s="1">
+        <v>45791.30668086806</v>
+      </c>
+      <c r="B1226" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1226" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1226" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1226" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1226" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1227">
-      <c r="A1227" s="1"/>
-      <c r="B1227" s="2"/>
-      <c r="C1227" s="2"/>
-      <c r="D1227" s="2"/>
-      <c r="E1227" s="2"/>
-      <c r="F1227" s="2"/>
-      <c r="G1227" s="2"/>
-      <c r="H1227" s="2"/>
+      <c r="A1227" s="1">
+        <v>45791.306914050925</v>
+      </c>
+      <c r="B1227" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1227" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F1227" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G1227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1227" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1228">
-      <c r="A1228" s="1"/>
-      <c r="B1228" s="2"/>
-      <c r="C1228" s="2"/>
-      <c r="D1228" s="2"/>
-      <c r="E1228" s="2"/>
-      <c r="F1228" s="2"/>
-      <c r="G1228" s="2"/>
-      <c r="H1228" s="2"/>
+      <c r="A1228" s="1">
+        <v>45791.30697733797</v>
+      </c>
+      <c r="B1228" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1228" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F1228" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1228" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1228" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1229">
-      <c r="A1229" s="1"/>
-      <c r="B1229" s="2"/>
-      <c r="C1229" s="2"/>
-      <c r="D1229" s="2"/>
-      <c r="E1229" s="2"/>
-      <c r="F1229" s="2"/>
-      <c r="G1229" s="2"/>
-      <c r="H1229" s="2"/>
+      <c r="A1229" s="1">
+        <v>45791.30704865741</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1229" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F1229" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1229" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1229" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1230">
-      <c r="A1230" s="1"/>
-      <c r="B1230" s="2"/>
-      <c r="C1230" s="2"/>
-      <c r="D1230" s="2"/>
-      <c r="E1230" s="2"/>
-      <c r="F1230" s="2"/>
-      <c r="G1230" s="2"/>
-      <c r="H1230" s="2"/>
+      <c r="A1230" s="1">
+        <v>45791.30711267361</v>
+      </c>
+      <c r="B1230" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1230" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F1230" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1230" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1230" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1231">
-      <c r="A1231" s="1"/>
-      <c r="B1231" s="2"/>
-      <c r="C1231" s="2"/>
-      <c r="D1231" s="2"/>
-      <c r="E1231" s="2"/>
-      <c r="F1231" s="2"/>
-      <c r="G1231" s="2"/>
-      <c r="H1231" s="2"/>
+      <c r="A1231" s="1">
+        <v>45791.30717428241</v>
+      </c>
+      <c r="B1231" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1231" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F1231" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1231" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1231" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1232">
-      <c r="A1232" s="1"/>
-      <c r="B1232" s="2"/>
-      <c r="C1232" s="2"/>
-      <c r="D1232" s="2"/>
-      <c r="E1232" s="2"/>
-      <c r="F1232" s="2"/>
-      <c r="G1232" s="2"/>
-      <c r="H1232" s="2"/>
+      <c r="A1232" s="1">
+        <v>45791.30789836806</v>
+      </c>
+      <c r="B1232" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1232" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F1232" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1232" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1233">
-      <c r="A1233" s="1"/>
-      <c r="B1233" s="2"/>
-      <c r="C1233" s="2"/>
-      <c r="D1233" s="2"/>
-      <c r="E1233" s="2"/>
-      <c r="F1233" s="2"/>
-      <c r="G1233" s="2"/>
-      <c r="H1233" s="2"/>
+      <c r="A1233" s="1">
+        <v>45791.30820518518</v>
+      </c>
+      <c r="B1233" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1233" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F1233" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G1233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1233" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1234">
-      <c r="A1234" s="1"/>
-      <c r="B1234" s="2"/>
-      <c r="C1234" s="2"/>
-      <c r="D1234" s="2"/>
-      <c r="E1234" s="2"/>
-      <c r="F1234" s="2"/>
-      <c r="G1234" s="2"/>
-      <c r="H1234" s="2"/>
+      <c r="A1234" s="1">
+        <v>45791.30848581019</v>
+      </c>
+      <c r="B1234" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1234" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F1234" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G1234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1234" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1235">
-      <c r="A1235" s="1"/>
-      <c r="B1235" s="2"/>
-      <c r="C1235" s="2"/>
-      <c r="D1235" s="2"/>
-      <c r="E1235" s="2"/>
-      <c r="F1235" s="2"/>
-      <c r="G1235" s="2"/>
-      <c r="H1235" s="2"/>
+      <c r="A1235" s="1">
+        <v>45791.30864803241</v>
+      </c>
+      <c r="B1235" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1235" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1235" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1235" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1235" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1236">
-      <c r="A1236" s="1"/>
-      <c r="B1236" s="2"/>
-      <c r="C1236" s="2"/>
-      <c r="D1236" s="2"/>
-      <c r="E1236" s="2"/>
-      <c r="F1236" s="2"/>
-      <c r="G1236" s="2"/>
-      <c r="H1236" s="2"/>
+      <c r="A1236" s="1">
+        <v>45791.30930862269</v>
+      </c>
+      <c r="B1236" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1236" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1236" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F1236" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G1236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1236" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1237">
-      <c r="A1237" s="1"/>
-      <c r="B1237" s="2"/>
-      <c r="C1237" s="2"/>
-      <c r="D1237" s="2"/>
-      <c r="E1237" s="2"/>
-      <c r="F1237" s="2"/>
-      <c r="G1237" s="2"/>
-      <c r="H1237" s="2"/>
+      <c r="A1237" s="1">
+        <v>45791.30964521991</v>
+      </c>
+      <c r="B1237" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1237" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F1237" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G1237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1237" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1238">
-      <c r="A1238" s="1"/>
-      <c r="B1238" s="2"/>
-      <c r="C1238" s="2"/>
-      <c r="D1238" s="2"/>
-      <c r="E1238" s="2"/>
-      <c r="F1238" s="2"/>
-      <c r="G1238" s="2"/>
-      <c r="H1238" s="2"/>
+      <c r="A1238" s="1">
+        <v>45791.30970287037</v>
+      </c>
+      <c r="B1238" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1238" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1238" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G1238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1238" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1239">
-      <c r="A1239" s="1"/>
-      <c r="B1239" s="2"/>
-      <c r="C1239" s="2"/>
-      <c r="D1239" s="2"/>
-      <c r="E1239" s="2"/>
-      <c r="F1239" s="2"/>
-      <c r="G1239" s="2"/>
-      <c r="H1239" s="2"/>
+      <c r="A1239" s="1">
+        <v>45791.3103534838</v>
+      </c>
+      <c r="B1239" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1239" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F1239" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1239" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1239" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1240">
-      <c r="A1240" s="1"/>
-      <c r="B1240" s="2"/>
-      <c r="C1240" s="2"/>
-      <c r="D1240" s="2"/>
-      <c r="E1240" s="2"/>
-      <c r="F1240" s="2"/>
-      <c r="G1240" s="2"/>
-      <c r="H1240" s="2"/>
+      <c r="A1240" s="1">
+        <v>45791.31052126158</v>
+      </c>
+      <c r="B1240" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1240" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F1240" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G1240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1240" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1241">
-      <c r="A1241" s="1"/>
-      <c r="B1241" s="2"/>
-      <c r="C1241" s="2"/>
-      <c r="D1241" s="2"/>
-      <c r="E1241" s="2"/>
-      <c r="F1241" s="2"/>
-      <c r="G1241" s="2"/>
-      <c r="H1241" s="2"/>
+      <c r="A1241" s="1">
+        <v>45791.31071423611</v>
+      </c>
+      <c r="B1241" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1241" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1241" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G1241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1241" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1242">
-      <c r="A1242" s="1"/>
-      <c r="B1242" s="2"/>
-      <c r="C1242" s="2"/>
-      <c r="D1242" s="2"/>
-      <c r="E1242" s="2"/>
-      <c r="F1242" s="2"/>
-      <c r="G1242" s="2"/>
-      <c r="H1242" s="2"/>
+      <c r="A1242" s="1">
+        <v>45791.31081407407</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1242" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1242" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F1242" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G1242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1242" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1243">
-      <c r="A1243" s="1"/>
-      <c r="B1243" s="2"/>
-      <c r="C1243" s="2"/>
-      <c r="D1243" s="2"/>
-      <c r="E1243" s="2"/>
-      <c r="F1243" s="2"/>
-      <c r="G1243" s="2"/>
-      <c r="H1243" s="2"/>
+      <c r="A1243" s="1">
+        <v>45791.310984606476</v>
+      </c>
+      <c r="B1243" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1243" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F1243" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G1243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1243" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1244">
-      <c r="A1244" s="1"/>
-      <c r="B1244" s="2"/>
-      <c r="C1244" s="2"/>
-      <c r="D1244" s="2"/>
-      <c r="E1244" s="2"/>
-      <c r="F1244" s="2"/>
-      <c r="G1244" s="2"/>
-      <c r="H1244" s="2"/>
+      <c r="A1244" s="1">
+        <v>45791.311214201385</v>
+      </c>
+      <c r="B1244" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1244" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F1244" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G1244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1244" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1245">
-      <c r="A1245" s="1"/>
-      <c r="B1245" s="2"/>
-      <c r="C1245" s="2"/>
-      <c r="D1245" s="2"/>
-      <c r="E1245" s="2"/>
-      <c r="F1245" s="2"/>
-      <c r="G1245" s="2"/>
-      <c r="H1245" s="2"/>
+      <c r="A1245" s="1">
+        <v>45791.31128204861</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1245" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1245" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F1245" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1245" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1245" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1246">
-      <c r="A1246" s="1"/>
-      <c r="B1246" s="2"/>
-      <c r="C1246" s="2"/>
-      <c r="D1246" s="2"/>
-      <c r="E1246" s="2"/>
-      <c r="F1246" s="2"/>
-      <c r="G1246" s="2"/>
-      <c r="H1246" s="2"/>
+      <c r="A1246" s="1">
+        <v>45791.31132628472</v>
+      </c>
+      <c r="B1246" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1246" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1246" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F1246" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1246" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1246" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1247">
-      <c r="A1247" s="1"/>
-      <c r="B1247" s="2"/>
-      <c r="C1247" s="2"/>
-      <c r="D1247" s="2"/>
-      <c r="E1247" s="2"/>
-      <c r="F1247" s="2"/>
-      <c r="G1247" s="2"/>
-      <c r="H1247" s="2"/>
+      <c r="A1247" s="1">
+        <v>45791.31148591435</v>
+      </c>
+      <c r="B1247" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1247" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1247" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F1247" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G1247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1247" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1248">
-      <c r="A1248" s="1"/>
-      <c r="B1248" s="2"/>
-      <c r="C1248" s="2"/>
-      <c r="D1248" s="2"/>
-      <c r="E1248" s="2"/>
-      <c r="F1248" s="2"/>
-      <c r="G1248" s="2"/>
-      <c r="H1248" s="2"/>
+      <c r="A1248" s="1">
+        <v>45791.31152920139</v>
+      </c>
+      <c r="B1248" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1248" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F1248" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1248" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1248" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1249">
-      <c r="A1249" s="1"/>
-      <c r="B1249" s="2"/>
-      <c r="C1249" s="2"/>
-      <c r="D1249" s="2"/>
-      <c r="E1249" s="2"/>
-      <c r="F1249" s="2"/>
-      <c r="G1249" s="2"/>
-      <c r="H1249" s="2"/>
+      <c r="A1249" s="1">
+        <v>45791.31173094908</v>
+      </c>
+      <c r="B1249" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1249" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1249" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F1249" s="2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G1249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1249" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1250">
-      <c r="A1250" s="1"/>
-      <c r="B1250" s="2"/>
-      <c r="C1250" s="2"/>
-      <c r="D1250" s="2"/>
-      <c r="E1250" s="2"/>
-      <c r="F1250" s="2"/>
-      <c r="G1250" s="2"/>
-      <c r="H1250" s="2"/>
+      <c r="A1250" s="1">
+        <v>45791.311829467595</v>
+      </c>
+      <c r="B1250" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1250" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1250" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F1250" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1250" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1250" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1251">
-      <c r="A1251" s="1"/>
-      <c r="B1251" s="2"/>
-      <c r="C1251" s="2"/>
-      <c r="D1251" s="2"/>
-      <c r="E1251" s="2"/>
-      <c r="F1251" s="2"/>
-      <c r="G1251" s="2"/>
-      <c r="H1251" s="2"/>
+      <c r="A1251" s="1">
+        <v>45791.31186501158</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1251" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F1251" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1251" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1251" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1252">
-      <c r="A1252" s="1"/>
-      <c r="B1252" s="2"/>
-      <c r="C1252" s="2"/>
-      <c r="D1252" s="2"/>
-      <c r="E1252" s="2"/>
-      <c r="F1252" s="2"/>
-      <c r="G1252" s="2"/>
-      <c r="H1252" s="2"/>
+      <c r="A1252" s="1">
+        <v>45791.31205866898</v>
+      </c>
+      <c r="B1252" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1252" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1252" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F1252" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G1252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1252" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1253">
-      <c r="A1253" s="1"/>
-      <c r="B1253" s="2"/>
-      <c r="C1253" s="2"/>
-      <c r="D1253" s="2"/>
-      <c r="E1253" s="2"/>
-      <c r="F1253" s="2"/>
-      <c r="G1253" s="2"/>
-      <c r="H1253" s="2"/>
+      <c r="A1253" s="1">
+        <v>45791.312280150465</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1253" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F1253" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G1253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1253" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1254">
-      <c r="A1254" s="1"/>
-      <c r="B1254" s="2"/>
-      <c r="C1254" s="2"/>
-      <c r="D1254" s="2"/>
-      <c r="E1254" s="2"/>
-      <c r="F1254" s="2"/>
-      <c r="G1254" s="2"/>
-      <c r="H1254" s="2"/>
+      <c r="A1254" s="1">
+        <v>45791.31243258102</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1254" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1254" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F1254" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1254" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1255">
-      <c r="A1255" s="1"/>
-      <c r="B1255" s="2"/>
-      <c r="C1255" s="2"/>
-      <c r="D1255" s="2"/>
-      <c r="E1255" s="2"/>
-      <c r="F1255" s="2"/>
-      <c r="G1255" s="2"/>
-      <c r="H1255" s="2"/>
+      <c r="A1255" s="1">
+        <v>45791.31256070602</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1255" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F1255" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="G1255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1255" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1256">
-      <c r="A1256" s="1"/>
-      <c r="B1256" s="2"/>
-      <c r="C1256" s="2"/>
-      <c r="D1256" s="2"/>
-      <c r="E1256" s="2"/>
-      <c r="F1256" s="2"/>
-      <c r="G1256" s="2"/>
-      <c r="H1256" s="2"/>
+      <c r="A1256" s="1">
+        <v>45791.31279681713</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1256" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1256" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1256" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F1256" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G1256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1256" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1257">
-      <c r="A1257" s="1"/>
-      <c r="B1257" s="2"/>
-      <c r="C1257" s="2"/>
-      <c r="D1257" s="2"/>
-      <c r="E1257" s="2"/>
-      <c r="F1257" s="2"/>
-      <c r="G1257" s="2"/>
-      <c r="H1257" s="2"/>
+      <c r="A1257" s="1">
+        <v>45791.31290711806</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1257" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1257" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F1257" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G1257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1257" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1258">
-      <c r="A1258" s="1"/>
-      <c r="B1258" s="2"/>
-      <c r="C1258" s="2"/>
-      <c r="D1258" s="2"/>
-      <c r="E1258" s="2"/>
-      <c r="F1258" s="2"/>
-      <c r="G1258" s="2"/>
-      <c r="H1258" s="2"/>
+      <c r="A1258" s="1">
+        <v>45791.312965034725</v>
+      </c>
+      <c r="B1258" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1258" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1258" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F1258" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1258" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1258" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1259">
-      <c r="A1259" s="1"/>
-      <c r="B1259" s="2"/>
-      <c r="C1259" s="2"/>
-      <c r="D1259" s="2"/>
-      <c r="E1259" s="2"/>
-      <c r="F1259" s="2"/>
-      <c r="G1259" s="2"/>
-      <c r="H1259" s="2"/>
+      <c r="A1259" s="1">
+        <v>45791.313088587965</v>
+      </c>
+      <c r="B1259" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1259" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1259" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1259" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F1259" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G1259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1259" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1260">
-      <c r="A1260" s="1"/>
-      <c r="B1260" s="2"/>
-      <c r="C1260" s="2"/>
-      <c r="D1260" s="2"/>
-      <c r="E1260" s="2"/>
-      <c r="F1260" s="2"/>
-      <c r="G1260" s="2"/>
-      <c r="H1260" s="2"/>
+      <c r="A1260" s="1">
+        <v>45791.313193912036</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1260" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1260" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F1260" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="G1260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1260" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1261">
-      <c r="A1261" s="1"/>
-      <c r="B1261" s="2"/>
-      <c r="C1261" s="2"/>
-      <c r="D1261" s="2"/>
-      <c r="E1261" s="2"/>
-      <c r="F1261" s="2"/>
-      <c r="G1261" s="2"/>
-      <c r="H1261" s="2"/>
+      <c r="A1261" s="1">
+        <v>45791.31324307871</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1261" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1261" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1261" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F1261" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1261" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1261" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1262">
-      <c r="A1262" s="1"/>
-      <c r="B1262" s="2"/>
-      <c r="C1262" s="2"/>
-      <c r="D1262" s="2"/>
-      <c r="E1262" s="2"/>
-      <c r="F1262" s="2"/>
-      <c r="G1262" s="2"/>
-      <c r="H1262" s="2"/>
+      <c r="A1262" s="1">
+        <v>45791.313283483796</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1262" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1262" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1262" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F1262" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1262" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1262" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1263">
-      <c r="A1263" s="1"/>
-      <c r="B1263" s="2"/>
-      <c r="C1263" s="2"/>
-      <c r="D1263" s="2"/>
-      <c r="E1263" s="2"/>
-      <c r="F1263" s="2"/>
-      <c r="G1263" s="2"/>
-      <c r="H1263" s="2"/>
+      <c r="A1263" s="1">
+        <v>45791.3133475</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1263" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1263" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F1263" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1263" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1263" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1264">
-      <c r="A1264" s="1"/>
-      <c r="B1264" s="2"/>
-      <c r="C1264" s="2"/>
-      <c r="D1264" s="2"/>
-      <c r="E1264" s="2"/>
-      <c r="F1264" s="2"/>
-      <c r="G1264" s="2"/>
-      <c r="H1264" s="2"/>
+      <c r="A1264" s="1">
+        <v>45791.31338670139</v>
+      </c>
+      <c r="B1264" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1264" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1264" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1264" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1264" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1265">
-      <c r="A1265" s="1"/>
-      <c r="B1265" s="2"/>
-      <c r="C1265" s="2"/>
-      <c r="D1265" s="2"/>
-      <c r="E1265" s="2"/>
-      <c r="F1265" s="2"/>
-      <c r="G1265" s="2"/>
-      <c r="H1265" s="2"/>
+      <c r="A1265" s="1">
+        <v>45791.313431793984</v>
+      </c>
+      <c r="B1265" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1265" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1265" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F1265" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1265" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1265" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="1"/>
@@ -47280,16 +48311,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2351</v>
+        <v>2428</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2352</v>
+        <v>2429</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2353</v>
+        <v>2430</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2354</v>
+        <v>2431</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -47302,14 +48333,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45790.41909</v>
+        <v>45791.31343</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2355</v>
+        <v>2432</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -47327,14 +48358,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45790.41909</v>
+        <v>45791.31343</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2356</v>
+        <v>2433</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1592</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="4">
@@ -47348,7 +48379,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45790.41909</v>
+        <v>45791.31343</v>
       </c>
     </row>
     <row r="5">
@@ -47362,7 +48393,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45790.41909</v>
+        <v>45791.31343</v>
       </c>
     </row>
     <row r="6">
@@ -47376,7 +48407,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45790.41909</v>
+        <v>45791.31343</v>
       </c>
     </row>
     <row r="7">
@@ -47390,7 +48421,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45790.41909</v>
+        <v>45791.31343</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10661" uniqueCount="2683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11024" uniqueCount="2788">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -8029,6 +8029,321 @@
   </si>
   <si>
     <t>i dont want to study anymore</t>
+  </si>
+  <si>
+    <t>2025-05-18T14-39-14-460Z</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages287_part5.csv</t>
+  </si>
+  <si>
+    <t>Sooo cute gonna show my sis ltr 😂</t>
+  </si>
+  <si>
+    <t>Sooo cute! I'm gonna show my sister later</t>
+  </si>
+  <si>
+    <t>Hello. Ps late reply. Was napping. 🫣</t>
+  </si>
+  <si>
+    <t>Hello. Sorry for the late reply. I was napping.</t>
+  </si>
+  <si>
+    <t>I have sudden craving for prawn paste chicken 😶</t>
+  </si>
+  <si>
+    <t>I have a sudden craving for prawn paste chicken</t>
+  </si>
+  <si>
+    <t>Ayo!! Police ah ya this guy he super sus💀</t>
+  </si>
+  <si>
+    <t>Aiyo! Police? Yep, this guy was super sus.</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>yes, express agreement</t>
+  </si>
+  <si>
+    <t>Holiday lei. Now go austin find food. 😂</t>
+  </si>
+  <si>
+    <t>Holiday. Now go to austin to find food.</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>wtf this kid sibei brave 💀💀</t>
+  </si>
+  <si>
+    <t>wtf. this kid is super brave</t>
+  </si>
+  <si>
+    <t>I would have greeted Jesus if I did that</t>
+  </si>
+  <si>
+    <t>Natural reflex I think I slap the kid</t>
+  </si>
+  <si>
+    <t>My natural reflex might be to slap the kid.</t>
+  </si>
+  <si>
+    <t>Hougang mall pasar malam. The sweet potato balls so long queue.</t>
+  </si>
+  <si>
+    <t>The flea market at Hougang mall. The sweet potato balls have such a long queue.</t>
+  </si>
+  <si>
+    <t>For some reason. Everywhere de sweet potato ball always long queue de</t>
+  </si>
+  <si>
+    <t>For some reason, the sweet potato balls at everywhere always have long queues.</t>
+  </si>
+  <si>
+    <t>emphasis of truth</t>
+  </si>
+  <si>
+    <t>I think across all pasar malam same</t>
+  </si>
+  <si>
+    <t>I think that it is the same across all flea markets.</t>
+  </si>
+  <si>
+    <t>Yooo finally I get also 😂😂</t>
+  </si>
+  <si>
+    <t>Yooo. I finally get it too!</t>
+  </si>
+  <si>
+    <t>Beri long no eat mookata liao. Mus go try the one at my place nearby soon 🤤</t>
+  </si>
+  <si>
+    <t>I havent eaten mookata for a very long time. I must try the one near  my place soon.</t>
+  </si>
+  <si>
+    <t>already, express something past</t>
+  </si>
+  <si>
+    <t>I also just came and try the 1 near my house</t>
+  </si>
+  <si>
+    <t>I also had just came. I tried the one near my house.</t>
+  </si>
+  <si>
+    <t>Wa. Hospitalised Liao still can think of watering plants.</t>
+  </si>
+  <si>
+    <t>Wow. You're in hospital and still thinking of watering plants.</t>
+  </si>
+  <si>
+    <t>already, express past</t>
+  </si>
+  <si>
+    <t>This year is my zodiac year  should i buy some put office desk and my room?😂😂😄</t>
+  </si>
+  <si>
+    <t>This year is my zodiac year. Should I buy some plants to put on my office desk and my room?</t>
+  </si>
+  <si>
+    <t>Not bad leh. Go Shopee also can make friends. 😂</t>
+  </si>
+  <si>
+    <t>That's not bad. You made friends while on Shopee.</t>
+  </si>
+  <si>
+    <t>express emphasis, make a statement more polite</t>
+  </si>
+  <si>
+    <t>U say like I eat the same thing everyday</t>
+  </si>
+  <si>
+    <t>You said it like I eat the same thing every day.</t>
+  </si>
+  <si>
+    <t>Buy those decorations. Maybe some small and cute one.</t>
+  </si>
+  <si>
+    <t>Buy those decorations. Maybe some of the small and cute ones.</t>
+  </si>
+  <si>
+    <t>Lol. If my birthday fall on cny eve I also can do this.?😂😂😂</t>
+  </si>
+  <si>
+    <t>Lol. IF my birthday falls on cny eve, can I also do this?</t>
+  </si>
+  <si>
+    <t>I don't trust all these fortune teller de. 😂</t>
+  </si>
+  <si>
+    <t>I don't trust all these fortune tellers.</t>
+  </si>
+  <si>
+    <t>express firm emphasis</t>
+  </si>
+  <si>
+    <t>Erm so now change position got better??</t>
+  </si>
+  <si>
+    <t>Erm. So after you changed position, did you get better?</t>
+  </si>
+  <si>
+    <t>I think he same as me lmao</t>
+  </si>
+  <si>
+    <t>I think he is the same as I am lmao.</t>
+  </si>
+  <si>
+    <t>Well as a Libra yea HAAHAH</t>
+  </si>
+  <si>
+    <t>Yesterday fish burger set still 5.80.. today 6.40.. 1% ? 😅🤣 N nuggets set is $8??? 😐</t>
+  </si>
+  <si>
+    <t>Yesterday, the fish burger set was still 5.80.. today it is 6.40.. 1%? N the nuggets set is $8???</t>
+  </si>
+  <si>
+    <t>i need tell them intern pay $800 not enough liao</t>
+  </si>
+  <si>
+    <t>i need to tell them that the intern pay of $800 is not enough</t>
+  </si>
+  <si>
+    <t>already, express somethinh in the past</t>
+  </si>
+  <si>
+    <t>Hopefully got new game l like  so don't need to 打飞机. A bit bored already.</t>
+  </si>
+  <si>
+    <t>Hopefully there is a new game that I like, so I don't need to be bored. I'm a bit bored already.</t>
+  </si>
+  <si>
+    <t>Holy shit $730K for a dang ring is ridiculous could have paid off a car or a house with it lmao their life my dream HAHAAHHA</t>
+  </si>
+  <si>
+    <t>Holy shit $730K for a dang ring is ridiculous. could have paid off a car or a house with it. lmao their life is my dream HAHAAHHA</t>
+  </si>
+  <si>
+    <t>my rings 100+ only i crying inside alr</t>
+  </si>
+  <si>
+    <t>my rings are $100+ only and i'm already crying inside</t>
+  </si>
+  <si>
+    <t>Woooo new legos out liao can go buy soon😂</t>
+  </si>
+  <si>
+    <t>Wooo. The new legos are out already. I can go and buy soon!</t>
+  </si>
+  <si>
+    <t>already, express something from the past</t>
+  </si>
+  <si>
+    <t>I recently then know what is Duplo blocks</t>
+  </si>
+  <si>
+    <t>I only recently know what Duplo blocks are.</t>
+  </si>
+  <si>
+    <t>Babies cannot la. More like for toddlers.</t>
+  </si>
+  <si>
+    <t>Babies cannot. More for toddlers.</t>
+  </si>
+  <si>
+    <t>I had a customer asking abt a product whether it is compatible with Duplo blocks  I don’t even know what is that. I only know lego.</t>
+  </si>
+  <si>
+    <t>I still have 3 sets buy liao haven't build and i want buy again 😐</t>
+  </si>
+  <si>
+    <t>I still have 3 sets that I bought but haven't built, and I want to buy again.</t>
+  </si>
+  <si>
+    <t>already, express the past</t>
+  </si>
+  <si>
+    <t>I used to siao nano blocks</t>
+  </si>
+  <si>
+    <t>I used to be crazy over nano blocks.</t>
+  </si>
+  <si>
+    <t>my dad always talk about it</t>
+  </si>
+  <si>
+    <t>my dad always talked about it</t>
+  </si>
+  <si>
+    <t>i feel like taking sign language classes but idk if it’s a good idea haha</t>
+  </si>
+  <si>
+    <t>I have been planning to do that to my friend randomly lmao</t>
+  </si>
+  <si>
+    <t>Good morning / afternoon all devils &amp; angels 😜</t>
+  </si>
+  <si>
+    <t>The police very patient with this siao lang</t>
+  </si>
+  <si>
+    <t>The police is very patient with this crazy guy.</t>
+  </si>
+  <si>
+    <t>I watch until part 5  really siao lang  many conspiracy theories</t>
+  </si>
+  <si>
+    <t>I watched until part 5. Really, many crazy people and conspiracy theories.</t>
+  </si>
+  <si>
+    <t>U go see his TT video. That guy has got issues 😂</t>
+  </si>
+  <si>
+    <t>I hate packing my room end me plsss</t>
+  </si>
+  <si>
+    <t>You got a flu you should wear a mask</t>
+  </si>
+  <si>
+    <t>You got a flu, you should wear a mask</t>
+  </si>
+  <si>
+    <t>Where is the part 5 ?</t>
+  </si>
+  <si>
+    <t>This crystal is buy liao wear at where de.</t>
+  </si>
+  <si>
+    <t>This crystal is bought to wear at what occassion?</t>
+  </si>
+  <si>
+    <t>Hahahaha so the crystal only good for male ah 😂😂</t>
+  </si>
+  <si>
+    <t>Hahahaha so the crystal only good for males?</t>
+  </si>
+  <si>
+    <t>really? express skeptisim.</t>
+  </si>
+  <si>
+    <t>These 2 most cute to me.</t>
+  </si>
+  <si>
+    <t>These 2 are most cute to me.</t>
+  </si>
+  <si>
+    <t>Why ur ig in mandarin? 😂😂</t>
+  </si>
+  <si>
+    <t>Why is your ig in mandarin?</t>
+  </si>
+  <si>
+    <t>Sot one. Sometimes in Chinese  sometimes in English.😂</t>
+  </si>
+  <si>
+    <t>Its crazy. Sometimes it is in Chinese, sometimes it is in English.</t>
   </si>
   <si>
     <t>Name</t>
@@ -45587,504 +45902,1343 @@
       </c>
     </row>
     <row r="1415">
-      <c r="A1415" s="1"/>
-      <c r="B1415" s="2"/>
-      <c r="C1415" s="2"/>
-      <c r="D1415" s="2"/>
-      <c r="E1415" s="2"/>
-      <c r="F1415" s="2"/>
-      <c r="G1415" s="2"/>
-      <c r="H1415" s="2"/>
+      <c r="A1415" s="1">
+        <v>45795.44431903935</v>
+      </c>
+      <c r="B1415" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1415" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1415" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1415" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F1415" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G1415" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1415" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1416">
-      <c r="A1416" s="1"/>
-      <c r="B1416" s="2"/>
-      <c r="C1416" s="2"/>
-      <c r="D1416" s="2"/>
-      <c r="E1416" s="2"/>
-      <c r="F1416" s="2"/>
-      <c r="G1416" s="2"/>
-      <c r="H1416" s="2"/>
+      <c r="A1416" s="1">
+        <v>45795.444454004624</v>
+      </c>
+      <c r="B1416" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1416" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1416" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1416" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1416" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G1416" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1416" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1417">
-      <c r="A1417" s="1"/>
-      <c r="B1417" s="2"/>
-      <c r="C1417" s="2"/>
-      <c r="D1417" s="2"/>
-      <c r="E1417" s="2"/>
-      <c r="F1417" s="2"/>
-      <c r="G1417" s="2"/>
-      <c r="H1417" s="2"/>
+      <c r="A1417" s="1">
+        <v>45795.44474520833</v>
+      </c>
+      <c r="B1417" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1417" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1417" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1417" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F1417" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G1417" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1417" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1418">
-      <c r="A1418" s="1"/>
-      <c r="B1418" s="2"/>
-      <c r="C1418" s="2"/>
-      <c r="D1418" s="2"/>
-      <c r="E1418" s="2"/>
-      <c r="F1418" s="2"/>
-      <c r="G1418" s="2"/>
-      <c r="H1418" s="2"/>
+      <c r="A1418" s="1">
+        <v>45795.44506989583</v>
+      </c>
+      <c r="B1418" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1418" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1418" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1418" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F1418" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G1418" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1418" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1418" s="2" t="s">
+        <v>2683</v>
+      </c>
     </row>
     <row r="1419">
-      <c r="A1419" s="1"/>
-      <c r="B1419" s="2"/>
-      <c r="C1419" s="2"/>
-      <c r="D1419" s="2"/>
-      <c r="E1419" s="2"/>
-      <c r="F1419" s="2"/>
-      <c r="G1419" s="2"/>
-      <c r="H1419" s="2"/>
+      <c r="A1419" s="1">
+        <v>45795.44542671296</v>
+      </c>
+      <c r="B1419" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1419" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1419" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1419" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F1419" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1419" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1419" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="I1419" s="2" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="1420">
-      <c r="A1420" s="1"/>
-      <c r="B1420" s="2"/>
-      <c r="C1420" s="2"/>
-      <c r="D1420" s="2"/>
-      <c r="E1420" s="2"/>
-      <c r="F1420" s="2"/>
-      <c r="G1420" s="2"/>
-      <c r="H1420" s="2"/>
+      <c r="A1420" s="1">
+        <v>45795.44603028936</v>
+      </c>
+      <c r="B1420" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1420" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1420" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1420" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F1420" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G1420" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1420" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1421">
-      <c r="A1421" s="1"/>
-      <c r="B1421" s="2"/>
-      <c r="C1421" s="2"/>
-      <c r="D1421" s="2"/>
-      <c r="E1421" s="2"/>
-      <c r="F1421" s="2"/>
-      <c r="G1421" s="2"/>
-      <c r="H1421" s="2"/>
+      <c r="A1421" s="1">
+        <v>45795.44608695601</v>
+      </c>
+      <c r="B1421" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1421" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1421" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1421" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F1421" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1421" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1421" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1422">
-      <c r="A1422" s="1"/>
-      <c r="B1422" s="2"/>
-      <c r="C1422" s="2"/>
-      <c r="D1422" s="2"/>
-      <c r="E1422" s="2"/>
-      <c r="F1422" s="2"/>
-      <c r="G1422" s="2"/>
-      <c r="H1422" s="2"/>
+      <c r="A1422" s="1">
+        <v>45795.44639769676</v>
+      </c>
+      <c r="B1422" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1422" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1422" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1422" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F1422" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G1422" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1422" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1423">
-      <c r="A1423" s="1"/>
-      <c r="B1423" s="2"/>
-      <c r="C1423" s="2"/>
-      <c r="D1423" s="2"/>
-      <c r="E1423" s="2"/>
-      <c r="F1423" s="2"/>
-      <c r="G1423" s="2"/>
-      <c r="H1423" s="2"/>
+      <c r="A1423" s="1">
+        <v>45795.44682776621</v>
+      </c>
+      <c r="B1423" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1423" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1423" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1423" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F1423" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G1423" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1423" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1424">
-      <c r="A1424" s="1"/>
-      <c r="B1424" s="2"/>
-      <c r="C1424" s="2"/>
-      <c r="D1424" s="2"/>
-      <c r="E1424" s="2"/>
-      <c r="F1424" s="2"/>
-      <c r="G1424" s="2"/>
-      <c r="H1424" s="2"/>
+      <c r="A1424" s="1">
+        <v>45795.447458993054</v>
+      </c>
+      <c r="B1424" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1424" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1424" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1424" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F1424" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G1424" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1424" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I1424" s="2" t="s">
+        <v>2696</v>
+      </c>
     </row>
     <row r="1425">
-      <c r="A1425" s="1"/>
-      <c r="B1425" s="2"/>
-      <c r="C1425" s="2"/>
-      <c r="D1425" s="2"/>
-      <c r="E1425" s="2"/>
-      <c r="F1425" s="2"/>
-      <c r="G1425" s="2"/>
-      <c r="H1425" s="2"/>
+      <c r="A1425" s="1">
+        <v>45795.447682025464</v>
+      </c>
+      <c r="B1425" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1425" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1425" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1425" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F1425" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="G1425" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1425" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1426">
-      <c r="A1426" s="1"/>
-      <c r="B1426" s="2"/>
-      <c r="C1426" s="2"/>
-      <c r="D1426" s="2"/>
-      <c r="E1426" s="2"/>
-      <c r="F1426" s="2"/>
-      <c r="G1426" s="2"/>
-      <c r="H1426" s="2"/>
+      <c r="A1426" s="1">
+        <v>45795.44778596065</v>
+      </c>
+      <c r="B1426" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1426" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1426" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1426" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F1426" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G1426" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1426" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1427">
-      <c r="A1427" s="1"/>
-      <c r="B1427" s="2"/>
-      <c r="C1427" s="2"/>
-      <c r="D1427" s="2"/>
-      <c r="E1427" s="2"/>
-      <c r="F1427" s="2"/>
-      <c r="G1427" s="2"/>
-      <c r="H1427" s="2"/>
+      <c r="A1427" s="1">
+        <v>45795.44817753472</v>
+      </c>
+      <c r="B1427" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1427" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1427" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1427" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F1427" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G1427" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1427" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1427" s="2" t="s">
+        <v>2703</v>
+      </c>
     </row>
     <row r="1428">
-      <c r="A1428" s="1"/>
-      <c r="B1428" s="2"/>
-      <c r="C1428" s="2"/>
-      <c r="D1428" s="2"/>
-      <c r="E1428" s="2"/>
-      <c r="F1428" s="2"/>
-      <c r="G1428" s="2"/>
-      <c r="H1428" s="2"/>
+      <c r="A1428" s="1">
+        <v>45795.44859605324</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1428" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1428" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1428" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F1428" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="G1428" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1428" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1429">
-      <c r="A1429" s="1"/>
-      <c r="B1429" s="2"/>
-      <c r="C1429" s="2"/>
-      <c r="D1429" s="2"/>
-      <c r="E1429" s="2"/>
-      <c r="F1429" s="2"/>
-      <c r="G1429" s="2"/>
-      <c r="H1429" s="2"/>
+      <c r="A1429" s="1">
+        <v>45795.4488465625</v>
+      </c>
+      <c r="B1429" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1429" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1429" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1429" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F1429" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G1429" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1429" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1429" s="2" t="s">
+        <v>2708</v>
+      </c>
     </row>
     <row r="1430">
-      <c r="A1430" s="1"/>
-      <c r="B1430" s="2"/>
-      <c r="C1430" s="2"/>
-      <c r="D1430" s="2"/>
-      <c r="E1430" s="2"/>
-      <c r="F1430" s="2"/>
-      <c r="G1430" s="2"/>
-      <c r="H1430" s="2"/>
+      <c r="A1430" s="1">
+        <v>45795.44907545139</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1430" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1430" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1430" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F1430" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G1430" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1430" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1431">
-      <c r="A1431" s="1"/>
-      <c r="B1431" s="2"/>
-      <c r="C1431" s="2"/>
-      <c r="D1431" s="2"/>
-      <c r="E1431" s="2"/>
-      <c r="F1431" s="2"/>
-      <c r="G1431" s="2"/>
-      <c r="H1431" s="2"/>
+      <c r="A1431" s="1">
+        <v>45795.44955478009</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1431" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1431" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1431" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F1431" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G1431" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1431" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1431" s="2" t="s">
+        <v>2713</v>
+      </c>
     </row>
     <row r="1432">
-      <c r="A1432" s="1"/>
-      <c r="B1432" s="2"/>
-      <c r="C1432" s="2"/>
-      <c r="D1432" s="2"/>
-      <c r="E1432" s="2"/>
-      <c r="F1432" s="2"/>
-      <c r="G1432" s="2"/>
-      <c r="H1432" s="2"/>
+      <c r="A1432" s="1">
+        <v>45795.44976233796</v>
+      </c>
+      <c r="B1432" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1432" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1432" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1432" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F1432" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G1432" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1432" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1433">
-      <c r="A1433" s="1"/>
-      <c r="B1433" s="2"/>
-      <c r="C1433" s="2"/>
-      <c r="D1433" s="2"/>
-      <c r="E1433" s="2"/>
-      <c r="F1433" s="2"/>
-      <c r="G1433" s="2"/>
-      <c r="H1433" s="2"/>
+      <c r="A1433" s="1">
+        <v>45795.44992017361</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1433" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1433" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1433" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F1433" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="G1433" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1433" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1434">
-      <c r="A1434" s="1"/>
-      <c r="B1434" s="2"/>
-      <c r="C1434" s="2"/>
-      <c r="D1434" s="2"/>
-      <c r="E1434" s="2"/>
-      <c r="F1434" s="2"/>
-      <c r="G1434" s="2"/>
-      <c r="H1434" s="2"/>
+      <c r="A1434" s="1">
+        <v>45795.45008412037</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1434" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1434" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1434" s="2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F1434" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G1434" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1434" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1435">
-      <c r="A1435" s="1"/>
-      <c r="B1435" s="2"/>
-      <c r="C1435" s="2"/>
-      <c r="D1435" s="2"/>
-      <c r="E1435" s="2"/>
-      <c r="F1435" s="2"/>
-      <c r="G1435" s="2"/>
-      <c r="H1435" s="2"/>
+      <c r="A1435" s="1">
+        <v>45795.45029212963</v>
+      </c>
+      <c r="B1435" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1435" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1435" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1435" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F1435" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G1435" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1435" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I1435" s="2" t="s">
+        <v>2722</v>
+      </c>
     </row>
     <row r="1436">
-      <c r="A1436" s="1"/>
-      <c r="B1436" s="2"/>
-      <c r="C1436" s="2"/>
-      <c r="D1436" s="2"/>
-      <c r="E1436" s="2"/>
-      <c r="F1436" s="2"/>
-      <c r="G1436" s="2"/>
-      <c r="H1436" s="2"/>
+      <c r="A1436" s="1">
+        <v>45795.45048827546</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1436" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1436" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1436" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F1436" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G1436" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1436" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1437">
-      <c r="A1437" s="1"/>
-      <c r="B1437" s="2"/>
-      <c r="C1437" s="2"/>
-      <c r="D1437" s="2"/>
-      <c r="E1437" s="2"/>
-      <c r="F1437" s="2"/>
-      <c r="G1437" s="2"/>
-      <c r="H1437" s="2"/>
+      <c r="A1437" s="1">
+        <v>45795.450598773146</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1437" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1437" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1437" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F1437" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G1437" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1437" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1438">
-      <c r="A1438" s="1"/>
-      <c r="B1438" s="2"/>
-      <c r="C1438" s="2"/>
-      <c r="D1438" s="2"/>
-      <c r="E1438" s="2"/>
-      <c r="F1438" s="2"/>
-      <c r="G1438" s="2"/>
-      <c r="H1438" s="2"/>
+      <c r="A1438" s="1">
+        <v>45795.45064954861</v>
+      </c>
+      <c r="B1438" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1438" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1438" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1438" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F1438" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1438" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1438" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1439">
-      <c r="A1439" s="1"/>
-      <c r="B1439" s="2"/>
-      <c r="C1439" s="2"/>
-      <c r="D1439" s="2"/>
-      <c r="E1439" s="2"/>
-      <c r="F1439" s="2"/>
-      <c r="G1439" s="2"/>
-      <c r="H1439" s="2"/>
+      <c r="A1439" s="1">
+        <v>45795.451012743055</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1439" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1439" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1439" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F1439" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G1439" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1439" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1440">
-      <c r="A1440" s="1"/>
-      <c r="B1440" s="2"/>
-      <c r="C1440" s="2"/>
-      <c r="D1440" s="2"/>
-      <c r="E1440" s="2"/>
-      <c r="F1440" s="2"/>
-      <c r="G1440" s="2"/>
-      <c r="H1440" s="2"/>
+      <c r="A1440" s="1">
+        <v>45795.451265219905</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1440" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1440" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1440" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F1440" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G1440" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1440" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1440" s="2" t="s">
+        <v>2732</v>
+      </c>
     </row>
     <row r="1441">
-      <c r="A1441" s="1"/>
-      <c r="B1441" s="2"/>
-      <c r="C1441" s="2"/>
-      <c r="D1441" s="2"/>
-      <c r="E1441" s="2"/>
-      <c r="F1441" s="2"/>
-      <c r="G1441" s="2"/>
-      <c r="H1441" s="2"/>
+      <c r="A1441" s="1">
+        <v>45795.451512071755</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1441" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1441" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1441" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F1441" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G1441" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1441" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1442">
-      <c r="A1442" s="1"/>
-      <c r="B1442" s="2"/>
-      <c r="C1442" s="2"/>
-      <c r="D1442" s="2"/>
-      <c r="E1442" s="2"/>
-      <c r="F1442" s="2"/>
-      <c r="G1442" s="2"/>
-      <c r="H1442" s="2"/>
+      <c r="A1442" s="1">
+        <v>45795.451762743054</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1442" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1442" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1442" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F1442" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G1442" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1442" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1443">
-      <c r="A1443" s="1"/>
-      <c r="B1443" s="2"/>
-      <c r="C1443" s="2"/>
-      <c r="D1443" s="2"/>
-      <c r="E1443" s="2"/>
-      <c r="F1443" s="2"/>
-      <c r="G1443" s="2"/>
-      <c r="H1443" s="2"/>
+      <c r="A1443" s="1">
+        <v>45795.45198731482</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1443" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1443" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1443" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F1443" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G1443" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1443" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1444">
-      <c r="A1444" s="1"/>
-      <c r="B1444" s="2"/>
-      <c r="C1444" s="2"/>
-      <c r="D1444" s="2"/>
-      <c r="E1444" s="2"/>
-      <c r="F1444" s="2"/>
-      <c r="G1444" s="2"/>
-      <c r="H1444" s="2"/>
+      <c r="A1444" s="1">
+        <v>45795.45232090278</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1444" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1444" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1444" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F1444" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="G1444" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1444" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1444" s="2" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="1445">
-      <c r="A1445" s="1"/>
-      <c r="B1445" s="2"/>
-      <c r="C1445" s="2"/>
-      <c r="D1445" s="2"/>
-      <c r="E1445" s="2"/>
-      <c r="F1445" s="2"/>
-      <c r="G1445" s="2"/>
-      <c r="H1445" s="2"/>
+      <c r="A1445" s="1">
+        <v>45795.45248407408</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1445" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1445" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1445" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F1445" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G1445" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1445" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1446">
-      <c r="A1446" s="1"/>
-      <c r="B1446" s="2"/>
-      <c r="C1446" s="2"/>
-      <c r="D1446" s="2"/>
-      <c r="E1446" s="2"/>
-      <c r="F1446" s="2"/>
-      <c r="G1446" s="2"/>
-      <c r="H1446" s="2"/>
+      <c r="A1446" s="1">
+        <v>45795.45314903936</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1446" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1446" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1446" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F1446" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="G1446" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1446" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1446" s="2" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="1447">
-      <c r="A1447" s="1"/>
-      <c r="B1447" s="2"/>
-      <c r="C1447" s="2"/>
-      <c r="D1447" s="2"/>
-      <c r="E1447" s="2"/>
-      <c r="F1447" s="2"/>
-      <c r="G1447" s="2"/>
-      <c r="H1447" s="2"/>
+      <c r="A1447" s="1">
+        <v>45795.45325101852</v>
+      </c>
+      <c r="B1447" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1447" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1447" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1447" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F1447" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1447" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1447" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1448">
-      <c r="A1448" s="1"/>
-      <c r="B1448" s="2"/>
-      <c r="C1448" s="2"/>
-      <c r="D1448" s="2"/>
-      <c r="E1448" s="2"/>
-      <c r="F1448" s="2"/>
-      <c r="G1448" s="2"/>
-      <c r="H1448" s="2"/>
+      <c r="A1448" s="1">
+        <v>45795.45350618055</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1448" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1448" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1448" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F1448" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="G1448" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1448" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1448" s="2" t="s">
+        <v>2749</v>
+      </c>
     </row>
     <row r="1449">
-      <c r="A1449" s="1"/>
-      <c r="B1449" s="2"/>
-      <c r="C1449" s="2"/>
-      <c r="D1449" s="2"/>
-      <c r="E1449" s="2"/>
-      <c r="F1449" s="2"/>
-      <c r="G1449" s="2"/>
-      <c r="H1449" s="2"/>
+      <c r="A1449" s="1">
+        <v>45795.453648333336</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1449" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1449" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1449" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F1449" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="G1449" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1449" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1450">
-      <c r="A1450" s="1"/>
-      <c r="B1450" s="2"/>
-      <c r="C1450" s="2"/>
-      <c r="D1450" s="2"/>
-      <c r="E1450" s="2"/>
-      <c r="F1450" s="2"/>
-      <c r="G1450" s="2"/>
-      <c r="H1450" s="2"/>
+      <c r="A1450" s="1">
+        <v>45795.45381421296</v>
+      </c>
+      <c r="B1450" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1450" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1450" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1450" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F1450" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="G1450" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1450" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1451">
-      <c r="A1451" s="1"/>
-      <c r="B1451" s="2"/>
-      <c r="C1451" s="2"/>
-      <c r="D1451" s="2"/>
-      <c r="E1451" s="2"/>
-      <c r="F1451" s="2"/>
-      <c r="G1451" s="2"/>
-      <c r="H1451" s="2"/>
+      <c r="A1451" s="1">
+        <v>45795.45387087963</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1451" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1451" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1451" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F1451" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1451" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1451" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1452">
-      <c r="A1452" s="1"/>
-      <c r="B1452" s="2"/>
-      <c r="C1452" s="2"/>
-      <c r="D1452" s="2"/>
-      <c r="E1452" s="2"/>
-      <c r="F1452" s="2"/>
-      <c r="G1452" s="2"/>
-      <c r="H1452" s="2"/>
+      <c r="A1452" s="1">
+        <v>45795.45391364583</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1452" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1452" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1452" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F1452" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1452" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1452" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1453">
-      <c r="A1453" s="1"/>
-      <c r="B1453" s="2"/>
-      <c r="C1453" s="2"/>
-      <c r="D1453" s="2"/>
-      <c r="E1453" s="2"/>
-      <c r="F1453" s="2"/>
-      <c r="G1453" s="2"/>
-      <c r="H1453" s="2"/>
+      <c r="A1453" s="1">
+        <v>45795.453997881945</v>
+      </c>
+      <c r="B1453" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1453" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1453" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1453" s="2" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F1453" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1453" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1453" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1454">
-      <c r="A1454" s="1"/>
-      <c r="B1454" s="2"/>
-      <c r="C1454" s="2"/>
-      <c r="D1454" s="2"/>
-      <c r="E1454" s="2"/>
-      <c r="F1454" s="2"/>
-      <c r="G1454" s="2"/>
-      <c r="H1454" s="2"/>
+      <c r="A1454" s="1">
+        <v>45795.454111377316</v>
+      </c>
+      <c r="B1454" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1454" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1454" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1454" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="F1454" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G1454" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1454" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1455">
-      <c r="A1455" s="1"/>
-      <c r="B1455" s="2"/>
-      <c r="C1455" s="2"/>
-      <c r="D1455" s="2"/>
-      <c r="E1455" s="2"/>
-      <c r="F1455" s="2"/>
-      <c r="G1455" s="2"/>
-      <c r="H1455" s="2"/>
+      <c r="A1455" s="1">
+        <v>45795.454344363425</v>
+      </c>
+      <c r="B1455" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1455" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1455" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1455" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F1455" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="G1455" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1455" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1456">
-      <c r="A1456" s="1"/>
-      <c r="B1456" s="2"/>
-      <c r="C1456" s="2"/>
-      <c r="D1456" s="2"/>
-      <c r="E1456" s="2"/>
-      <c r="F1456" s="2"/>
-      <c r="G1456" s="2"/>
-      <c r="H1456" s="2"/>
+      <c r="A1456" s="1">
+        <v>45795.45440996528</v>
+      </c>
+      <c r="B1456" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1456" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1456" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1456" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F1456" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1456" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1456" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1457">
-      <c r="A1457" s="1"/>
-      <c r="B1457" s="2"/>
-      <c r="C1457" s="2"/>
-      <c r="D1457" s="2"/>
-      <c r="E1457" s="2"/>
-      <c r="F1457" s="2"/>
-      <c r="G1457" s="2"/>
-      <c r="H1457" s="2"/>
+      <c r="A1457" s="1">
+        <v>45795.45443971065</v>
+      </c>
+      <c r="B1457" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1457" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1457" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1457" s="2" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F1457" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1457" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1457" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1458">
-      <c r="A1458" s="1"/>
-      <c r="B1458" s="2"/>
-      <c r="C1458" s="2"/>
-      <c r="D1458" s="2"/>
-      <c r="E1458" s="2"/>
-      <c r="F1458" s="2"/>
-      <c r="G1458" s="2"/>
-      <c r="H1458" s="2"/>
+      <c r="A1458" s="1">
+        <v>45795.45453236111</v>
+      </c>
+      <c r="B1458" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1458" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1458" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1458" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F1458" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="G1458" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1458" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1459">
-      <c r="A1459" s="1"/>
-      <c r="B1459" s="2"/>
-      <c r="C1459" s="2"/>
-      <c r="D1459" s="2"/>
-      <c r="E1459" s="2"/>
-      <c r="F1459" s="2"/>
-      <c r="G1459" s="2"/>
-      <c r="H1459" s="2"/>
+      <c r="A1459" s="1">
+        <v>45795.45466005787</v>
+      </c>
+      <c r="B1459" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1459" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1459" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1459" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F1459" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1459" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1459" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1460">
-      <c r="A1460" s="1"/>
-      <c r="B1460" s="2"/>
-      <c r="C1460" s="2"/>
-      <c r="D1460" s="2"/>
-      <c r="E1460" s="2"/>
-      <c r="F1460" s="2"/>
-      <c r="G1460" s="2"/>
-      <c r="H1460" s="2"/>
+      <c r="A1460" s="1">
+        <v>45795.4549155787</v>
+      </c>
+      <c r="B1460" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1460" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1460" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1460" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F1460" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="G1460" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1460" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I1460" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="1461">
-      <c r="A1461" s="1"/>
-      <c r="B1461" s="2"/>
-      <c r="C1461" s="2"/>
-      <c r="D1461" s="2"/>
-      <c r="E1461" s="2"/>
-      <c r="F1461" s="2"/>
-      <c r="G1461" s="2"/>
-      <c r="H1461" s="2"/>
+      <c r="A1461" s="1">
+        <v>45795.45519663194</v>
+      </c>
+      <c r="B1461" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1461" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1461" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1461" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F1461" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="G1461" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1461" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1461" s="2" t="s">
+        <v>2770</v>
+      </c>
     </row>
     <row r="1462">
-      <c r="A1462" s="1"/>
-      <c r="B1462" s="2"/>
-      <c r="C1462" s="2"/>
-      <c r="D1462" s="2"/>
-      <c r="E1462" s="2"/>
-      <c r="F1462" s="2"/>
-      <c r="G1462" s="2"/>
-      <c r="H1462" s="2"/>
+      <c r="A1462" s="1">
+        <v>45795.455319409724</v>
+      </c>
+      <c r="B1462" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1462" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1462" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1462" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F1462" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G1462" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1462" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1463">
-      <c r="A1463" s="1"/>
-      <c r="B1463" s="2"/>
-      <c r="C1463" s="2"/>
-      <c r="D1463" s="2"/>
-      <c r="E1463" s="2"/>
-      <c r="F1463" s="2"/>
-      <c r="G1463" s="2"/>
-      <c r="H1463" s="2"/>
+      <c r="A1463" s="1">
+        <v>45795.45543037037</v>
+      </c>
+      <c r="B1463" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1463" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1463" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1463" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1463" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G1463" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1463" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1464">
-      <c r="A1464" s="1"/>
-      <c r="B1464" s="2"/>
-      <c r="C1464" s="2"/>
-      <c r="D1464" s="2"/>
-      <c r="E1464" s="2"/>
-      <c r="F1464" s="2"/>
-      <c r="G1464" s="2"/>
-      <c r="H1464" s="2"/>
+      <c r="A1464" s="1">
+        <v>45795.45560435185</v>
+      </c>
+      <c r="B1464" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1464" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1464" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E1464" s="2" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F1464" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G1464" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1464" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="1"/>
@@ -51469,16 +52623,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2672</v>
+        <v>2777</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2673</v>
+        <v>2778</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2674</v>
+        <v>2779</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2675</v>
+        <v>2780</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -51491,14 +52645,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45794.32408</v>
+        <v>45795.45561</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2676</v>
+        <v>2781</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -51516,14 +52670,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45794.32408</v>
+        <v>45795.45561</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2677</v>
+        <v>2782</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1838</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="4">
@@ -51537,7 +52691,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45794.32408</v>
+        <v>45795.45561</v>
       </c>
     </row>
     <row r="5">
@@ -51551,7 +52705,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45794.32408</v>
+        <v>45795.45561</v>
       </c>
     </row>
     <row r="6">
@@ -51565,7 +52719,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45794.32408</v>
+        <v>45795.45561</v>
       </c>
     </row>
     <row r="7">
@@ -51579,7 +52733,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45794.32408</v>
+        <v>45795.45561</v>
       </c>
     </row>
     <row r="8">
@@ -51607,13 +52761,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>2678</v>
+        <v>2783</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2679</v>
+        <v>2784</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2680</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="2">
@@ -51621,7 +52775,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -51632,7 +52786,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -51643,7 +52797,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -51654,7 +52808,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -51665,7 +52819,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -51676,7 +52830,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -51687,7 +52841,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -51698,7 +52852,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -51709,7 +52863,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -51720,7 +52874,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -51731,7 +52885,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -51742,7 +52896,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -51753,7 +52907,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -51764,7 +52918,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -51775,7 +52929,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -51786,7 +52940,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -51797,7 +52951,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -51808,7 +52962,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -51819,7 +52973,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -51830,7 +52984,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -51841,7 +52995,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -51852,7 +53006,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -51863,7 +53017,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -51874,7 +53028,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -51885,7 +53039,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -51896,7 +53050,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -51907,7 +53061,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -51918,7 +53072,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -51929,7 +53083,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -51940,7 +53094,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -51951,7 +53105,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -51962,7 +53116,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -51973,7 +53127,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -51984,7 +53138,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -51995,7 +53149,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -52006,7 +53160,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -52017,7 +53171,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -52028,7 +53182,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -52039,7 +53193,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -52050,7 +53204,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -52061,7 +53215,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -52072,7 +53226,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -52083,7 +53237,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -52094,7 +53248,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -52105,7 +53259,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -52116,7 +53270,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -52127,7 +53281,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -52138,7 +53292,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -52149,7 +53303,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -52160,7 +53314,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -52171,7 +53325,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -52182,7 +53336,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -52193,7 +53347,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -52204,7 +53358,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -52215,7 +53369,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -52226,7 +53380,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -52237,7 +53391,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -52248,7 +53402,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -52259,7 +53413,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -52270,7 +53424,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -52281,7 +53435,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -52292,7 +53446,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -52303,7 +53457,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -52314,7 +53468,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -52325,7 +53479,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -52336,7 +53490,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -52347,7 +53501,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -52358,7 +53512,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -52369,7 +53523,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -52380,7 +53534,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -52391,7 +53545,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -52402,7 +53556,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -52413,7 +53567,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -52424,7 +53578,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -52435,7 +53589,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -52446,7 +53600,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -52457,7 +53611,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -52468,7 +53622,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -52479,7 +53633,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -52490,7 +53644,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -52501,7 +53655,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -52512,7 +53666,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -52523,7 +53677,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -52534,7 +53688,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -52545,7 +53699,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -52556,7 +53710,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -52567,7 +53721,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -52578,7 +53732,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -52589,7 +53743,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -52600,7 +53754,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -52611,7 +53765,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -52622,7 +53776,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -52633,7 +53787,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -52644,7 +53798,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -52655,7 +53809,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -52666,7 +53820,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -52677,7 +53831,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -52688,7 +53842,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -52699,7 +53853,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -52710,7 +53864,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -52721,7 +53875,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -52732,7 +53886,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -52743,7 +53897,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -52754,7 +53908,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -52765,7 +53919,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -52776,7 +53930,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -52787,7 +53941,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -52798,7 +53952,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -52809,7 +53963,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -52820,7 +53974,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -52831,7 +53985,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -52842,7 +53996,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -52853,7 +54007,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -52864,7 +54018,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -52875,7 +54029,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -52886,7 +54040,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -52897,7 +54051,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -52908,7 +54062,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -52919,7 +54073,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -52930,7 +54084,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -52941,7 +54095,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -52952,7 +54106,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -52963,7 +54117,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -52974,7 +54128,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -52985,7 +54139,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -52996,7 +54150,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -53007,7 +54161,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -53018,7 +54172,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -53029,7 +54183,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -53040,7 +54194,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -53051,7 +54205,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -53062,7 +54216,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -53073,7 +54227,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -53084,7 +54238,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -53095,7 +54249,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -53106,7 +54260,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -53117,7 +54271,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -53128,7 +54282,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -53139,7 +54293,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -53150,7 +54304,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -53161,7 +54315,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -53172,7 +54326,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -53183,7 +54337,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -53194,7 +54348,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -53205,7 +54359,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -53216,7 +54370,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -53227,7 +54381,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -53238,7 +54392,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -53249,7 +54403,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -53260,7 +54414,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -53271,7 +54425,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -53282,7 +54436,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -53293,7 +54447,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -53304,7 +54458,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -53315,7 +54469,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -53326,7 +54480,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -53337,7 +54491,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -53357,7 +54511,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -53368,7 +54522,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -53379,7 +54533,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -53390,7 +54544,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -53401,7 +54555,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -53412,7 +54566,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -53423,7 +54577,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -53434,7 +54588,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -53445,7 +54599,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -53456,7 +54610,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -53467,7 +54621,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -53478,7 +54632,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -53489,7 +54643,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -53500,7 +54654,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -53511,7 +54665,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -53522,7 +54676,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="176">
@@ -53530,7 +54684,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -53541,7 +54695,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -53552,7 +54706,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -53563,7 +54717,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -53574,7 +54728,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -53585,7 +54739,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -53596,7 +54750,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -53607,7 +54761,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -53618,7 +54772,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -53629,7 +54783,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -53640,7 +54794,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -53651,7 +54805,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -53662,7 +54816,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -53673,7 +54827,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -53684,7 +54838,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -53695,7 +54849,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -53706,7 +54860,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -53717,7 +54871,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -53728,7 +54882,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -53739,7 +54893,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -53750,7 +54904,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -53761,7 +54915,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -53772,7 +54926,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -53783,7 +54937,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -53794,7 +54948,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -53805,7 +54959,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2682</v>
+        <v>2787</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -53816,7 +54970,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11024" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11375" uniqueCount="2857">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -8344,6 +8344,213 @@
   </si>
   <si>
     <t>Its crazy. Sometimes it is in Chinese, sometimes it is in English.</t>
+  </si>
+  <si>
+    <t>2025-05-19T12-55-07-412Z</t>
+  </si>
+  <si>
+    <t>inputs/SGExamsChat_messages7_part3.csv</t>
+  </si>
+  <si>
+    <t>Is it ok to wear tapered pants to sch</t>
+  </si>
+  <si>
+    <t>all the problems are fun to solve</t>
+  </si>
+  <si>
+    <t>I heard some sch will confiscate</t>
+  </si>
+  <si>
+    <t>I dun wear sch shoots lol</t>
+  </si>
+  <si>
+    <t>my sec sch was rly strict but JC doesn't seem to care</t>
+  </si>
+  <si>
+    <t>Oh lol mine is too small its so uncomfortable</t>
+  </si>
+  <si>
+    <t>u wear pants I tot is skirt or pinafoe</t>
+  </si>
+  <si>
+    <t>you are wearing pants? I thought it was skirt or pinafore.</t>
+  </si>
+  <si>
+    <t>I loved chem so much I cried after o level cos of how much I fucked it all up</t>
+  </si>
+  <si>
+    <t>LOL IF NOT WE GO PLAY HANDBALL IN DRESS MEH GAHAHA</t>
+  </si>
+  <si>
+    <t>Lol. Otherwise, are we really going to play handball in a dress? HAHAHA</t>
+  </si>
+  <si>
+    <t>why girls keep wearing fitting PE shorts</t>
+  </si>
+  <si>
+    <t>why do girls always wear fitting PE shorts?</t>
+  </si>
+  <si>
+    <t>Wednesday I did the MO training selection test in my school</t>
+  </si>
+  <si>
+    <t>I did the MO training selection test on Wednesday in my school</t>
+  </si>
+  <si>
+    <t>it was the most meme test i ever did</t>
+  </si>
+  <si>
+    <t>Wat do yall wan to be in future tho</t>
+  </si>
+  <si>
+    <t>my friends told me that the teacher setting liked the numbers 7 2 6 31 726 26</t>
+  </si>
+  <si>
+    <t>my friends told me that the teacher who was setting the examination liked the numbers 7 2 6 31 726 26</t>
+  </si>
+  <si>
+    <t>so put those numbers if unsure</t>
+  </si>
+  <si>
+    <t>so put those numbers if you are unsure</t>
+  </si>
+  <si>
+    <t>there was one question answer was 3612</t>
+  </si>
+  <si>
+    <t>there was one question that the answer was 3612</t>
+  </si>
+  <si>
+    <t>but i careless mistake and missed out a case</t>
+  </si>
+  <si>
+    <t>but i made a careless mistake and missed out a case</t>
+  </si>
+  <si>
+    <t>Are you from a top jc</t>
+  </si>
+  <si>
+    <t>another was a CRT qn  answer was 1326 lol</t>
+  </si>
+  <si>
+    <t>another was a CRT qn. the answer was 1326. lol.</t>
+  </si>
+  <si>
+    <t>I gather that you're in RA then</t>
+  </si>
+  <si>
+    <t>Isnt that a radio station or smth</t>
+  </si>
+  <si>
+    <t>the RA math test was okay</t>
+  </si>
+  <si>
+    <t>FMaths and AMaths are not very similar</t>
+  </si>
+  <si>
+    <t>Since you mentioned top noi medalist I thought it'd be a ra class</t>
+  </si>
+  <si>
+    <t>Since you mentioned a top NOI medalist, I thought it'd be an RA class.</t>
+  </si>
+  <si>
+    <t>had a lot of calculus which i wasn’t really good at</t>
+  </si>
+  <si>
+    <t>But I thot u have to take another subj</t>
+  </si>
+  <si>
+    <t>I can neither confirm nor deny this</t>
+  </si>
+  <si>
+    <t>I find it dumb you can’t take RA math with FM combi</t>
+  </si>
+  <si>
+    <t>His username is the speed of light</t>
+  </si>
+  <si>
+    <t>I didn't expect anyone to notice</t>
+  </si>
+  <si>
+    <t>can I jus say im so screwed for eoys lol like I camt study alone</t>
+  </si>
+  <si>
+    <t>can I jus say im so screwed for eoys lol. I can't study alone.</t>
+  </si>
+  <si>
+    <t>But my okd study frnd grps started studying with other frnds</t>
+  </si>
+  <si>
+    <t>But my old study friend groups started studying with other friends.</t>
+  </si>
+  <si>
+    <t>I have another friend whose email was 299792458</t>
+  </si>
+  <si>
+    <t>Like im suppp to be studying now lol</t>
+  </si>
+  <si>
+    <t>I usually skype frnds or go out to study with them</t>
+  </si>
+  <si>
+    <t>Have you completed any of your syllabi?</t>
+  </si>
+  <si>
+    <t>And like my old study frnd grp became so toxicc lol</t>
+  </si>
+  <si>
+    <t>have you completed any of the syllabus for your subjects</t>
+  </si>
+  <si>
+    <t>either in school or by yourself</t>
+  </si>
+  <si>
+    <t>that’d be top priority right now</t>
+  </si>
+  <si>
+    <t>that’d be the top priority right now</t>
+  </si>
+  <si>
+    <t>Normally math RA does stuff more out of syllabus than fm</t>
+  </si>
+  <si>
+    <t>Normally, math RA does more out of syllabus stuff than FM.</t>
+  </si>
+  <si>
+    <t>have anyone drove race cars before</t>
+  </si>
+  <si>
+    <t>We still at human repro diff in trigo energy chemicals some cuban missile crisis and I forgot geog</t>
+  </si>
+  <si>
+    <t>We are still at human repro, diff in trigo, energy, chemicals, some cuban missile crisis, and i forgot what we are at for geog.</t>
+  </si>
+  <si>
+    <t>i have a racing rig at home</t>
+  </si>
+  <si>
+    <t>My geog cher is very boring</t>
+  </si>
+  <si>
+    <t>My geog teacher is very boring</t>
+  </si>
+  <si>
+    <t>I like time attacks on touges</t>
+  </si>
+  <si>
+    <t>does anyone have notes:( I need lol</t>
+  </si>
+  <si>
+    <t>The most ambitious crossover of all time</t>
+  </si>
+  <si>
+    <t>you can tell i like initial D lol</t>
+  </si>
+  <si>
+    <t>you can tell that i like the initial D?</t>
+  </si>
+  <si>
+    <t>ive been doing endurance racing recently</t>
   </si>
   <si>
     <t>Name</t>
@@ -47241,504 +47448,1307 @@
       </c>
     </row>
     <row r="1465">
-      <c r="A1465" s="1"/>
-      <c r="B1465" s="2"/>
-      <c r="C1465" s="2"/>
-      <c r="D1465" s="2"/>
-      <c r="E1465" s="2"/>
-      <c r="F1465" s="2"/>
-      <c r="G1465" s="2"/>
-      <c r="H1465" s="2"/>
+      <c r="A1465" s="1">
+        <v>45796.371728645834</v>
+      </c>
+      <c r="B1465" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1465" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1465" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1465" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F1465" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1465" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1465" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1466">
-      <c r="A1466" s="1"/>
-      <c r="B1466" s="2"/>
-      <c r="C1466" s="2"/>
-      <c r="D1466" s="2"/>
-      <c r="E1466" s="2"/>
-      <c r="F1466" s="2"/>
-      <c r="G1466" s="2"/>
-      <c r="H1466" s="2"/>
+      <c r="A1466" s="1">
+        <v>45796.37178324074</v>
+      </c>
+      <c r="B1466" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1466" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1466" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1466" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F1466" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1466" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1466" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1467">
-      <c r="A1467" s="1"/>
-      <c r="B1467" s="2"/>
-      <c r="C1467" s="2"/>
-      <c r="D1467" s="2"/>
-      <c r="E1467" s="2"/>
-      <c r="F1467" s="2"/>
-      <c r="G1467" s="2"/>
-      <c r="H1467" s="2"/>
+      <c r="A1467" s="1">
+        <v>45796.374844074075</v>
+      </c>
+      <c r="B1467" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1467" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1467" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1467" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F1467" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1467" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1467" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1468">
-      <c r="A1468" s="1"/>
-      <c r="B1468" s="2"/>
-      <c r="C1468" s="2"/>
-      <c r="D1468" s="2"/>
-      <c r="E1468" s="2"/>
-      <c r="F1468" s="2"/>
-      <c r="G1468" s="2"/>
-      <c r="H1468" s="2"/>
+      <c r="A1468" s="1">
+        <v>45796.37496076389</v>
+      </c>
+      <c r="B1468" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1468" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1468" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1468" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F1468" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1468" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1468" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1469">
-      <c r="A1469" s="1"/>
-      <c r="B1469" s="2"/>
-      <c r="C1469" s="2"/>
-      <c r="D1469" s="2"/>
-      <c r="E1469" s="2"/>
-      <c r="F1469" s="2"/>
-      <c r="G1469" s="2"/>
-      <c r="H1469" s="2"/>
+      <c r="A1469" s="1">
+        <v>45796.3750931713</v>
+      </c>
+      <c r="B1469" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1469" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1469" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1469" s="2" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1469" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1469" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1469" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1470">
-      <c r="A1470" s="1"/>
-      <c r="B1470" s="2"/>
-      <c r="C1470" s="2"/>
-      <c r="D1470" s="2"/>
-      <c r="E1470" s="2"/>
-      <c r="F1470" s="2"/>
-      <c r="G1470" s="2"/>
-      <c r="H1470" s="2"/>
+      <c r="A1470" s="1">
+        <v>45796.375163749995</v>
+      </c>
+      <c r="B1470" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1470" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1470" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1470" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F1470" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1470" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1470" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1471">
-      <c r="A1471" s="1"/>
-      <c r="B1471" s="2"/>
-      <c r="C1471" s="2"/>
-      <c r="D1471" s="2"/>
-      <c r="E1471" s="2"/>
-      <c r="F1471" s="2"/>
-      <c r="G1471" s="2"/>
-      <c r="H1471" s="2"/>
+      <c r="A1471" s="1">
+        <v>45796.375359722224</v>
+      </c>
+      <c r="B1471" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1471" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1471" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1471" s="2" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F1471" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G1471" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1471" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1472">
-      <c r="A1472" s="1"/>
-      <c r="B1472" s="2"/>
-      <c r="C1472" s="2"/>
-      <c r="D1472" s="2"/>
-      <c r="E1472" s="2"/>
-      <c r="F1472" s="2"/>
-      <c r="G1472" s="2"/>
-      <c r="H1472" s="2"/>
+      <c r="A1472" s="1">
+        <v>45796.375537175925</v>
+      </c>
+      <c r="B1472" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1472" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1472" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1472" s="2" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F1472" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1472" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1472" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1473">
-      <c r="A1473" s="1"/>
-      <c r="B1473" s="2"/>
-      <c r="C1473" s="2"/>
-      <c r="D1473" s="2"/>
-      <c r="E1473" s="2"/>
-      <c r="F1473" s="2"/>
-      <c r="G1473" s="2"/>
-      <c r="H1473" s="2"/>
+      <c r="A1473" s="1">
+        <v>45796.37585193287</v>
+      </c>
+      <c r="B1473" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1473" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1473" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1473" s="2" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F1473" s="2" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G1473" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1473" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1473" s="2" t="s">
+        <v>2274</v>
+      </c>
     </row>
     <row r="1474">
-      <c r="A1474" s="1"/>
-      <c r="B1474" s="2"/>
-      <c r="C1474" s="2"/>
-      <c r="D1474" s="2"/>
-      <c r="E1474" s="2"/>
-      <c r="F1474" s="2"/>
-      <c r="G1474" s="2"/>
-      <c r="H1474" s="2"/>
+      <c r="A1474" s="1">
+        <v>45796.37599918981</v>
+      </c>
+      <c r="B1474" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1474" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1474" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1474" s="2" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F1474" s="2" t="s">
+        <v>2791</v>
+      </c>
+      <c r="G1474" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1474" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1475">
-      <c r="A1475" s="1"/>
-      <c r="B1475" s="2"/>
-      <c r="C1475" s="2"/>
-      <c r="D1475" s="2"/>
-      <c r="E1475" s="2"/>
-      <c r="F1475" s="2"/>
-      <c r="G1475" s="2"/>
-      <c r="H1475" s="2"/>
+      <c r="A1475" s="1">
+        <v>45796.376185671295</v>
+      </c>
+      <c r="B1475" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1475" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1475" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1475" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F1475" s="2" t="s">
+        <v>2793</v>
+      </c>
+      <c r="G1475" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1475" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1476">
-      <c r="A1476" s="1"/>
-      <c r="B1476" s="2"/>
-      <c r="C1476" s="2"/>
-      <c r="D1476" s="2"/>
-      <c r="E1476" s="2"/>
-      <c r="F1476" s="2"/>
-      <c r="G1476" s="2"/>
-      <c r="H1476" s="2"/>
+      <c r="A1476" s="1">
+        <v>45796.376250381945</v>
+      </c>
+      <c r="B1476" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1476" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1476" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1476" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F1476" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1476" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1476" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1477">
-      <c r="A1477" s="1"/>
-      <c r="B1477" s="2"/>
-      <c r="C1477" s="2"/>
-      <c r="D1477" s="2"/>
-      <c r="E1477" s="2"/>
-      <c r="F1477" s="2"/>
-      <c r="G1477" s="2"/>
-      <c r="H1477" s="2"/>
+      <c r="A1477" s="1">
+        <v>45796.377477013884</v>
+      </c>
+      <c r="B1477" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1477" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1477" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1477" s="2" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F1477" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1477" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1477" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1478">
-      <c r="A1478" s="1"/>
-      <c r="B1478" s="2"/>
-      <c r="C1478" s="2"/>
-      <c r="D1478" s="2"/>
-      <c r="E1478" s="2"/>
-      <c r="F1478" s="2"/>
-      <c r="G1478" s="2"/>
-      <c r="H1478" s="2"/>
+      <c r="A1478" s="1">
+        <v>45796.378518425925</v>
+      </c>
+      <c r="B1478" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1478" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1478" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1478" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F1478" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G1478" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1478" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1479">
-      <c r="A1479" s="1"/>
-      <c r="B1479" s="2"/>
-      <c r="C1479" s="2"/>
-      <c r="D1479" s="2"/>
-      <c r="E1479" s="2"/>
-      <c r="F1479" s="2"/>
-      <c r="G1479" s="2"/>
-      <c r="H1479" s="2"/>
+      <c r="A1479" s="1">
+        <v>45796.37875379629</v>
+      </c>
+      <c r="B1479" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1479" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1479" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1479" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F1479" s="2" t="s">
+        <v>2799</v>
+      </c>
+      <c r="G1479" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1479" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1480">
-      <c r="A1480" s="1"/>
-      <c r="B1480" s="2"/>
-      <c r="C1480" s="2"/>
-      <c r="D1480" s="2"/>
-      <c r="E1480" s="2"/>
-      <c r="F1480" s="2"/>
-      <c r="G1480" s="2"/>
-      <c r="H1480" s="2"/>
+      <c r="A1480" s="1">
+        <v>45796.37908658565</v>
+      </c>
+      <c r="B1480" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1480" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1480" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1480" s="2" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F1480" s="2" t="s">
+        <v>2801</v>
+      </c>
+      <c r="G1480" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1480" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1481">
-      <c r="A1481" s="1"/>
-      <c r="B1481" s="2"/>
-      <c r="C1481" s="2"/>
-      <c r="D1481" s="2"/>
-      <c r="E1481" s="2"/>
-      <c r="F1481" s="2"/>
-      <c r="G1481" s="2"/>
-      <c r="H1481" s="2"/>
+      <c r="A1481" s="1">
+        <v>45796.37921961806</v>
+      </c>
+      <c r="B1481" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1481" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1481" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1481" s="2" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1481" s="2" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1481" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1481" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1482">
-      <c r="A1482" s="1"/>
-      <c r="B1482" s="2"/>
-      <c r="C1482" s="2"/>
-      <c r="D1482" s="2"/>
-      <c r="E1482" s="2"/>
-      <c r="F1482" s="2"/>
-      <c r="G1482" s="2"/>
-      <c r="H1482" s="2"/>
+      <c r="A1482" s="1">
+        <v>45796.379281875</v>
+      </c>
+      <c r="B1482" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1482" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1482" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1482" s="2" t="s">
+        <v>2804</v>
+      </c>
+      <c r="F1482" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1482" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1482" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1483">
-      <c r="A1483" s="1"/>
-      <c r="B1483" s="2"/>
-      <c r="C1483" s="2"/>
-      <c r="D1483" s="2"/>
-      <c r="E1483" s="2"/>
-      <c r="F1483" s="2"/>
-      <c r="G1483" s="2"/>
-      <c r="H1483" s="2"/>
+      <c r="A1483" s="1">
+        <v>45796.37944128472</v>
+      </c>
+      <c r="B1483" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1483" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1483" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1483" s="2" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F1483" s="2" t="s">
+        <v>2806</v>
+      </c>
+      <c r="G1483" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1483" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1484">
-      <c r="A1484" s="1"/>
-      <c r="B1484" s="2"/>
-      <c r="C1484" s="2"/>
-      <c r="D1484" s="2"/>
-      <c r="E1484" s="2"/>
-      <c r="F1484" s="2"/>
-      <c r="G1484" s="2"/>
-      <c r="H1484" s="2"/>
+      <c r="A1484" s="1">
+        <v>45796.37950060185</v>
+      </c>
+      <c r="B1484" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1484" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1484" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1484" s="2" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F1484" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1484" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1484" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1485">
-      <c r="A1485" s="1"/>
-      <c r="B1485" s="2"/>
-      <c r="C1485" s="2"/>
-      <c r="D1485" s="2"/>
-      <c r="E1485" s="2"/>
-      <c r="F1485" s="2"/>
-      <c r="G1485" s="2"/>
-      <c r="H1485" s="2"/>
+      <c r="A1485" s="1">
+        <v>45796.37955440972</v>
+      </c>
+      <c r="B1485" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1485" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1485" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1485" s="2" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F1485" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1485" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1485" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1486">
-      <c r="A1486" s="1"/>
-      <c r="B1486" s="2"/>
-      <c r="C1486" s="2"/>
-      <c r="D1486" s="2"/>
-      <c r="E1486" s="2"/>
-      <c r="F1486" s="2"/>
-      <c r="G1486" s="2"/>
-      <c r="H1486" s="2"/>
+      <c r="A1486" s="1">
+        <v>45796.37962530093</v>
+      </c>
+      <c r="B1486" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1486" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1486" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1486" s="2" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1486" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1486" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1486" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1487">
-      <c r="A1487" s="1"/>
-      <c r="B1487" s="2"/>
-      <c r="C1487" s="2"/>
-      <c r="D1487" s="2"/>
-      <c r="E1487" s="2"/>
-      <c r="F1487" s="2"/>
-      <c r="G1487" s="2"/>
-      <c r="H1487" s="2"/>
+      <c r="A1487" s="1">
+        <v>45796.37968996528</v>
+      </c>
+      <c r="B1487" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1487" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1487" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1487" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1487" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1487" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1487" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1488">
-      <c r="A1488" s="1"/>
-      <c r="B1488" s="2"/>
-      <c r="C1488" s="2"/>
-      <c r="D1488" s="2"/>
-      <c r="E1488" s="2"/>
-      <c r="F1488" s="2"/>
-      <c r="G1488" s="2"/>
-      <c r="H1488" s="2"/>
+      <c r="A1488" s="1">
+        <v>45796.37989282407</v>
+      </c>
+      <c r="B1488" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1488" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1488" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1488" s="2" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F1488" s="2" t="s">
+        <v>2812</v>
+      </c>
+      <c r="G1488" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1488" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1489">
-      <c r="A1489" s="1"/>
-      <c r="B1489" s="2"/>
-      <c r="C1489" s="2"/>
-      <c r="D1489" s="2"/>
-      <c r="E1489" s="2"/>
-      <c r="F1489" s="2"/>
-      <c r="G1489" s="2"/>
-      <c r="H1489" s="2"/>
+      <c r="A1489" s="1">
+        <v>45796.379960983795</v>
+      </c>
+      <c r="B1489" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1489" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1489" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1489" s="2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1489" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1489" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1489" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1490">
-      <c r="A1490" s="1"/>
-      <c r="B1490" s="2"/>
-      <c r="C1490" s="2"/>
-      <c r="D1490" s="2"/>
-      <c r="E1490" s="2"/>
-      <c r="F1490" s="2"/>
-      <c r="G1490" s="2"/>
-      <c r="H1490" s="2"/>
+      <c r="A1490" s="1">
+        <v>45796.38002440972</v>
+      </c>
+      <c r="B1490" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1490" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1490" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1490" s="2" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F1490" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1490" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1490" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1491">
-      <c r="A1491" s="1"/>
-      <c r="B1491" s="2"/>
-      <c r="C1491" s="2"/>
-      <c r="D1491" s="2"/>
-      <c r="E1491" s="2"/>
-      <c r="F1491" s="2"/>
-      <c r="G1491" s="2"/>
-      <c r="H1491" s="2"/>
+      <c r="A1491" s="1">
+        <v>45796.38008539352</v>
+      </c>
+      <c r="B1491" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1491" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1491" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1491" s="2" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F1491" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1491" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1491" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1492">
-      <c r="A1492" s="1"/>
-      <c r="B1492" s="2"/>
-      <c r="C1492" s="2"/>
-      <c r="D1492" s="2"/>
-      <c r="E1492" s="2"/>
-      <c r="F1492" s="2"/>
-      <c r="G1492" s="2"/>
-      <c r="H1492" s="2"/>
+      <c r="A1492" s="1">
+        <v>45796.38015261574</v>
+      </c>
+      <c r="B1492" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1492" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1492" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1492" s="2" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F1492" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1492" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1492" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1493">
-      <c r="A1493" s="1"/>
-      <c r="B1493" s="2"/>
-      <c r="C1493" s="2"/>
-      <c r="D1493" s="2"/>
-      <c r="E1493" s="2"/>
-      <c r="F1493" s="2"/>
-      <c r="G1493" s="2"/>
-      <c r="H1493" s="2"/>
+      <c r="A1493" s="1">
+        <v>45796.38021875</v>
+      </c>
+      <c r="B1493" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1493" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1493" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1493" s="2" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F1493" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1493" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1493" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1494">
-      <c r="A1494" s="1"/>
-      <c r="B1494" s="2"/>
-      <c r="C1494" s="2"/>
-      <c r="D1494" s="2"/>
-      <c r="E1494" s="2"/>
-      <c r="F1494" s="2"/>
-      <c r="G1494" s="2"/>
-      <c r="H1494" s="2"/>
+      <c r="A1494" s="1">
+        <v>45796.38028978009</v>
+      </c>
+      <c r="B1494" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1494" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1494" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1494" s="2" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F1494" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1494" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1494" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1495">
-      <c r="A1495" s="1"/>
-      <c r="B1495" s="2"/>
-      <c r="C1495" s="2"/>
-      <c r="D1495" s="2"/>
-      <c r="E1495" s="2"/>
-      <c r="F1495" s="2"/>
-      <c r="G1495" s="2"/>
-      <c r="H1495" s="2"/>
+      <c r="A1495" s="1">
+        <v>45796.38046202547</v>
+      </c>
+      <c r="B1495" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1495" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1495" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1495" s="2" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F1495" s="2" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G1495" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1495" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1496">
-      <c r="A1496" s="1"/>
-      <c r="B1496" s="2"/>
-      <c r="C1496" s="2"/>
-      <c r="D1496" s="2"/>
-      <c r="E1496" s="2"/>
-      <c r="F1496" s="2"/>
-      <c r="G1496" s="2"/>
-      <c r="H1496" s="2"/>
+      <c r="A1496" s="1">
+        <v>45796.38070746528</v>
+      </c>
+      <c r="B1496" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1496" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1496" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1496" s="2" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F1496" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G1496" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1496" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1497">
-      <c r="A1497" s="1"/>
-      <c r="B1497" s="2"/>
-      <c r="C1497" s="2"/>
-      <c r="D1497" s="2"/>
-      <c r="E1497" s="2"/>
-      <c r="F1497" s="2"/>
-      <c r="G1497" s="2"/>
-      <c r="H1497" s="2"/>
+      <c r="A1497" s="1">
+        <v>45796.380764120375</v>
+      </c>
+      <c r="B1497" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1497" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1497" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1497" s="2" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F1497" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1497" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1497" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1498">
-      <c r="A1498" s="1"/>
-      <c r="B1498" s="2"/>
-      <c r="C1498" s="2"/>
-      <c r="D1498" s="2"/>
-      <c r="E1498" s="2"/>
-      <c r="F1498" s="2"/>
-      <c r="G1498" s="2"/>
-      <c r="H1498" s="2"/>
+      <c r="A1498" s="1">
+        <v>45796.38083592593</v>
+      </c>
+      <c r="B1498" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1498" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1498" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1498" s="2" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F1498" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1498" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1498" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1499">
-      <c r="A1499" s="1"/>
-      <c r="B1499" s="2"/>
-      <c r="C1499" s="2"/>
-      <c r="D1499" s="2"/>
-      <c r="E1499" s="2"/>
-      <c r="F1499" s="2"/>
-      <c r="G1499" s="2"/>
-      <c r="H1499" s="2"/>
+      <c r="A1499" s="1">
+        <v>45796.3809008449</v>
+      </c>
+      <c r="B1499" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1499" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1499" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1499" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F1499" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1499" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1499" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1500">
-      <c r="A1500" s="1"/>
-      <c r="B1500" s="2"/>
-      <c r="C1500" s="2"/>
-      <c r="D1500" s="2"/>
-      <c r="E1500" s="2"/>
-      <c r="F1500" s="2"/>
-      <c r="G1500" s="2"/>
-      <c r="H1500" s="2"/>
+      <c r="A1500" s="1">
+        <v>45796.380961030096</v>
+      </c>
+      <c r="B1500" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1500" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1500" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1500" s="2" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F1500" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1500" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1500" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1501">
-      <c r="A1501" s="1"/>
-      <c r="B1501" s="2"/>
-      <c r="C1501" s="2"/>
-      <c r="D1501" s="2"/>
-      <c r="E1501" s="2"/>
-      <c r="F1501" s="2"/>
-      <c r="G1501" s="2"/>
-      <c r="H1501" s="2"/>
+      <c r="A1501" s="1">
+        <v>45796.38103423611</v>
+      </c>
+      <c r="B1501" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1501" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1501" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1501" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F1501" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1501" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1501" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1502">
-      <c r="A1502" s="1"/>
-      <c r="B1502" s="2"/>
-      <c r="C1502" s="2"/>
-      <c r="D1502" s="2"/>
-      <c r="E1502" s="2"/>
-      <c r="F1502" s="2"/>
-      <c r="G1502" s="2"/>
-      <c r="H1502" s="2"/>
+      <c r="A1502" s="1">
+        <v>45796.38111324074</v>
+      </c>
+      <c r="B1502" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1502" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1502" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1502" s="2" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F1502" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1502" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1502" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1503">
-      <c r="A1503" s="1"/>
-      <c r="B1503" s="2"/>
-      <c r="C1503" s="2"/>
-      <c r="D1503" s="2"/>
-      <c r="E1503" s="2"/>
-      <c r="F1503" s="2"/>
-      <c r="G1503" s="2"/>
-      <c r="H1503" s="2"/>
+      <c r="A1503" s="1">
+        <v>45796.38120708334</v>
+      </c>
+      <c r="B1503" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1503" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1503" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1503" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F1503" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1503" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1503" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1504">
-      <c r="A1504" s="1"/>
-      <c r="B1504" s="2"/>
-      <c r="C1504" s="2"/>
-      <c r="D1504" s="2"/>
-      <c r="E1504" s="2"/>
-      <c r="F1504" s="2"/>
-      <c r="G1504" s="2"/>
-      <c r="H1504" s="2"/>
+      <c r="A1504" s="1">
+        <v>45796.381287627315</v>
+      </c>
+      <c r="B1504" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1504" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1504" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1504" s="2" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F1504" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="G1504" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1504" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1505">
-      <c r="A1505" s="1"/>
-      <c r="B1505" s="2"/>
-      <c r="C1505" s="2"/>
-      <c r="D1505" s="2"/>
-      <c r="E1505" s="2"/>
-      <c r="F1505" s="2"/>
-      <c r="G1505" s="2"/>
-      <c r="H1505" s="2"/>
+      <c r="A1505" s="1">
+        <v>45796.38155280093</v>
+      </c>
+      <c r="B1505" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1505" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1505" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1505" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F1505" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G1505" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1505" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1506">
-      <c r="A1506" s="1"/>
-      <c r="B1506" s="2"/>
-      <c r="C1506" s="2"/>
-      <c r="D1506" s="2"/>
-      <c r="E1506" s="2"/>
-      <c r="F1506" s="2"/>
-      <c r="G1506" s="2"/>
-      <c r="H1506" s="2"/>
+      <c r="A1506" s="1">
+        <v>45796.38177248843</v>
+      </c>
+      <c r="B1506" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1506" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1506" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1506" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F1506" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1506" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1506" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1507">
-      <c r="A1507" s="1"/>
-      <c r="B1507" s="2"/>
-      <c r="C1507" s="2"/>
-      <c r="D1507" s="2"/>
-      <c r="E1507" s="2"/>
-      <c r="F1507" s="2"/>
-      <c r="G1507" s="2"/>
-      <c r="H1507" s="2"/>
+      <c r="A1507" s="1">
+        <v>45796.38222263889</v>
+      </c>
+      <c r="B1507" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1507" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1507" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1507" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F1507" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="G1507" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1507" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1508">
-      <c r="A1508" s="1"/>
-      <c r="B1508" s="2"/>
-      <c r="C1508" s="2"/>
-      <c r="D1508" s="2"/>
-      <c r="E1508" s="2"/>
-      <c r="F1508" s="2"/>
-      <c r="G1508" s="2"/>
-      <c r="H1508" s="2"/>
+      <c r="A1508" s="1">
+        <v>45796.382280081016</v>
+      </c>
+      <c r="B1508" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1508" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1508" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1508" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="F1508" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1508" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1508" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1509">
-      <c r="A1509" s="1"/>
-      <c r="B1509" s="2"/>
-      <c r="C1509" s="2"/>
-      <c r="D1509" s="2"/>
-      <c r="E1509" s="2"/>
-      <c r="F1509" s="2"/>
-      <c r="G1509" s="2"/>
-      <c r="H1509" s="2"/>
+      <c r="A1509" s="1">
+        <v>45796.3823647338</v>
+      </c>
+      <c r="B1509" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1509" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1509" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1509" s="2" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F1509" s="2" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G1509" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1509" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1510">
-      <c r="A1510" s="1"/>
-      <c r="B1510" s="2"/>
-      <c r="C1510" s="2"/>
-      <c r="D1510" s="2"/>
-      <c r="E1510" s="2"/>
-      <c r="F1510" s="2"/>
-      <c r="G1510" s="2"/>
-      <c r="H1510" s="2"/>
+      <c r="A1510" s="1">
+        <v>45796.38242804398</v>
+      </c>
+      <c r="B1510" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1510" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1510" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1510" s="2" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F1510" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1510" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1510" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1511">
-      <c r="A1511" s="1"/>
-      <c r="B1511" s="2"/>
-      <c r="C1511" s="2"/>
-      <c r="D1511" s="2"/>
-      <c r="E1511" s="2"/>
-      <c r="F1511" s="2"/>
-      <c r="G1511" s="2"/>
-      <c r="H1511" s="2"/>
+      <c r="A1511" s="1">
+        <v>45796.38248526621</v>
+      </c>
+      <c r="B1511" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1511" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1511" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1511" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F1511" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1511" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1511" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1512">
-      <c r="A1512" s="1"/>
-      <c r="B1512" s="2"/>
-      <c r="C1512" s="2"/>
-      <c r="D1512" s="2"/>
-      <c r="E1512" s="2"/>
-      <c r="F1512" s="2"/>
-      <c r="G1512" s="2"/>
-      <c r="H1512" s="2"/>
+      <c r="A1512" s="1">
+        <v>45796.382520451385</v>
+      </c>
+      <c r="B1512" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1512" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1512" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1512" s="2" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F1512" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1512" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1512" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1513">
-      <c r="A1513" s="1"/>
-      <c r="B1513" s="2"/>
-      <c r="C1513" s="2"/>
-      <c r="D1513" s="2"/>
-      <c r="E1513" s="2"/>
-      <c r="F1513" s="2"/>
-      <c r="G1513" s="2"/>
-      <c r="H1513" s="2"/>
+      <c r="A1513" s="1">
+        <v>45796.38262309028</v>
+      </c>
+      <c r="B1513" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1513" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1513" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1513" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F1513" s="2" t="s">
+        <v>2844</v>
+      </c>
+      <c r="G1513" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1513" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1514">
-      <c r="A1514" s="1"/>
-      <c r="B1514" s="2"/>
-      <c r="C1514" s="2"/>
-      <c r="D1514" s="2"/>
-      <c r="E1514" s="2"/>
-      <c r="F1514" s="2"/>
-      <c r="G1514" s="2"/>
-      <c r="H1514" s="2"/>
+      <c r="A1514" s="1">
+        <v>45796.382669976854</v>
+      </c>
+      <c r="B1514" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1514" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1514" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E1514" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F1514" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1514" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1514" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="1"/>
@@ -52623,16 +53633,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2777</v>
+        <v>2846</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2778</v>
+        <v>2847</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2779</v>
+        <v>2848</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2780</v>
+        <v>2849</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -52649,10 +53659,10 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45795.45561</v>
+        <v>45796.38267</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2781</v>
+        <v>2850</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -52666,18 +53676,18 @@
       </c>
       <c r="B3" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45795.45561</v>
+        <v>45796.38267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2782</v>
+        <v>2851</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1888</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="4">
@@ -52691,7 +53701,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45795.45561</v>
+        <v>45796.38267</v>
       </c>
     </row>
     <row r="5">
@@ -52705,7 +53715,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45795.45561</v>
+        <v>45796.38267</v>
       </c>
     </row>
     <row r="6">
@@ -52719,7 +53729,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45795.45561</v>
+        <v>45796.38267</v>
       </c>
     </row>
     <row r="7">
@@ -52733,7 +53743,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45795.45561</v>
+        <v>45796.38267</v>
       </c>
     </row>
     <row r="8">
@@ -52761,13 +53771,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>2783</v>
+        <v>2852</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2784</v>
+        <v>2853</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2785</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="2">
@@ -52775,7 +53785,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -52786,7 +53796,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -52797,7 +53807,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -52808,7 +53818,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -52819,7 +53829,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -52830,7 +53840,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -52841,7 +53851,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -52852,7 +53862,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -52863,7 +53873,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -52874,7 +53884,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -52885,7 +53895,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -52896,7 +53906,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -52907,7 +53917,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -52918,7 +53928,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -52929,7 +53939,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -52940,7 +53950,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -52951,7 +53961,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -52962,7 +53972,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -52973,7 +53983,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -52984,7 +53994,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -52995,7 +54005,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -53006,7 +54016,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -53017,7 +54027,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -53028,7 +54038,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -53039,7 +54049,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -53050,7 +54060,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -53061,7 +54071,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -53072,7 +54082,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -53083,7 +54093,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -53094,7 +54104,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -53105,7 +54115,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -53116,7 +54126,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -53127,7 +54137,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -53138,7 +54148,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -53149,7 +54159,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -53160,7 +54170,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -53171,7 +54181,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -53182,7 +54192,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -53193,7 +54203,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -53204,7 +54214,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -53215,7 +54225,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -53226,7 +54236,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -53237,7 +54247,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -53248,7 +54258,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -53259,7 +54269,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -53270,7 +54280,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -53281,7 +54291,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -53292,7 +54302,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -53303,7 +54313,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -53314,7 +54324,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -53325,7 +54335,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -53336,7 +54346,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -53347,7 +54357,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -53358,7 +54368,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -53369,7 +54379,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -53380,7 +54390,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -53391,7 +54401,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -53402,7 +54412,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -53413,7 +54423,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -53424,7 +54434,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -53435,7 +54445,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -53446,7 +54456,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -53457,7 +54467,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -53468,7 +54478,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -53479,7 +54489,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -53490,7 +54500,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -53501,7 +54511,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -53512,7 +54522,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -53523,7 +54533,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -53534,7 +54544,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -53545,7 +54555,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -53556,7 +54566,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -53567,7 +54577,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -53578,7 +54588,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -53589,7 +54599,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -53600,7 +54610,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -53611,7 +54621,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -53622,7 +54632,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -53633,7 +54643,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -53644,7 +54654,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -53655,7 +54665,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -53666,7 +54676,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -53677,7 +54687,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -53688,7 +54698,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -53699,7 +54709,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -53710,7 +54720,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -53721,7 +54731,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -53732,7 +54742,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -53743,7 +54753,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -53754,7 +54764,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -53765,7 +54775,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -53776,7 +54786,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -53787,7 +54797,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -53798,7 +54808,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -53809,7 +54819,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -53820,7 +54830,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -53831,7 +54841,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -53842,7 +54852,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -53853,7 +54863,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -53864,7 +54874,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -53875,7 +54885,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -53886,7 +54896,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -53897,7 +54907,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -53908,7 +54918,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -53919,7 +54929,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -53930,7 +54940,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -53941,7 +54951,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -53952,7 +54962,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -53963,7 +54973,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -53974,7 +54984,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -53985,7 +54995,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -53996,7 +55006,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -54007,7 +55017,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -54018,7 +55028,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -54029,7 +55039,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -54040,7 +55050,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -54051,7 +55061,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -54062,7 +55072,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -54073,7 +55083,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -54084,7 +55094,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -54095,7 +55105,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -54106,7 +55116,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -54117,7 +55127,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -54128,7 +55138,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -54139,7 +55149,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -54150,7 +55160,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -54161,7 +55171,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -54172,7 +55182,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -54183,7 +55193,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -54194,7 +55204,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -54205,7 +55215,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -54216,7 +55226,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -54227,7 +55237,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -54238,7 +55248,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -54249,7 +55259,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -54260,7 +55270,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -54271,7 +55281,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -54282,7 +55292,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -54293,7 +55303,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -54304,7 +55314,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -54315,7 +55325,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -54326,7 +55336,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -54337,7 +55347,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -54348,7 +55358,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -54359,7 +55369,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -54370,7 +55380,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -54381,7 +55391,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -54392,7 +55402,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -54403,7 +55413,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -54414,7 +55424,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -54425,7 +55435,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -54436,7 +55446,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -54447,7 +55457,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -54458,7 +55468,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -54469,7 +55479,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -54480,7 +55490,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -54491,7 +55501,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -54511,7 +55521,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -54522,7 +55532,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -54533,7 +55543,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -54544,7 +55554,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -54555,7 +55565,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -54566,7 +55576,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -54577,7 +55587,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -54588,7 +55598,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -54599,7 +55609,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -54610,7 +55620,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -54621,7 +55631,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -54632,7 +55642,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -54643,7 +55653,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -54654,7 +55664,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -54665,7 +55675,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -54676,7 +55686,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="176">
@@ -54684,7 +55694,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -54695,7 +55705,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -54706,7 +55716,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -54717,7 +55727,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -54728,7 +55738,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -54739,7 +55749,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -54750,7 +55760,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -54761,7 +55771,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -54772,7 +55782,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -54783,7 +55793,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -54794,7 +55804,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -54805,7 +55815,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -54816,7 +55826,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -54827,7 +55837,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -54838,7 +55848,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -54849,7 +55859,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -54860,7 +55870,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -54871,7 +55881,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -54882,7 +55892,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -54893,7 +55903,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -54904,7 +55914,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -54915,7 +55925,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -54926,7 +55936,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -54937,7 +55947,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -54948,7 +55958,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -54959,7 +55969,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2787</v>
+        <v>2856</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -54970,7 +55980,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2786</v>
+        <v>2855</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11375" uniqueCount="2857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11725" uniqueCount="2927">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -8551,6 +8551,216 @@
   </si>
   <si>
     <t>ive been doing endurance racing recently</t>
+  </si>
+  <si>
+    <t>2025-05-20T23-47-17-838Z</t>
+  </si>
+  <si>
+    <t>inputs/SGExamsChat_messages62_part1.csv</t>
+  </si>
+  <si>
+    <t>If u Want u guys can believe me</t>
+  </si>
+  <si>
+    <t>If you want, you guys can believe me</t>
+  </si>
+  <si>
+    <t>good god the CN font is terrible</t>
+  </si>
+  <si>
+    <t>good god, the CN font is terrible</t>
+  </si>
+  <si>
+    <t>Our race from another nation is taking over</t>
+  </si>
+  <si>
+    <t>So who are you S U?</t>
+  </si>
+  <si>
+    <t>He created even mine and texted all the girls</t>
+  </si>
+  <si>
+    <t>Are you Humayun  Akbar or Jehangir？</t>
+  </si>
+  <si>
+    <t>Someone is using my fake account</t>
+  </si>
+  <si>
+    <t>how is this person not banned</t>
+  </si>
+  <si>
+    <t>how is this person not banned?</t>
+  </si>
+  <si>
+    <t>Guys if u want u can believe me</t>
+  </si>
+  <si>
+    <t>Guys, if you want, you can believe me.</t>
+  </si>
+  <si>
+    <t>john wanted to give him 2nd chance</t>
+  </si>
+  <si>
+    <t>John wanted to give him a 2nd chance</t>
+  </si>
+  <si>
+    <t>I can't understand what I was watching</t>
+  </si>
+  <si>
+    <t>Can we just ban both of them for causing chaos</t>
+  </si>
+  <si>
+    <t>Can we just ban both of them for causing chaos?</t>
+  </si>
+  <si>
+    <t>I thought I made a friend there</t>
+  </si>
+  <si>
+    <t>we are all tushar and anurag on this blessed day</t>
+  </si>
+  <si>
+    <t>I don't know who are they</t>
+  </si>
+  <si>
+    <t>I don't know who they are</t>
+  </si>
+  <si>
+    <t>I dont know how to speak properly</t>
+  </si>
+  <si>
+    <t>Mughal where did you find this group?</t>
+  </si>
+  <si>
+    <t>Mughal, where did you find this group?</t>
+  </si>
+  <si>
+    <t>what’s going on with the non-english speak</t>
+  </si>
+  <si>
+    <t>what's going on with the non-english speak?</t>
+  </si>
+  <si>
+    <t>Maybe a link was shared or smth :/</t>
+  </si>
+  <si>
+    <t>So is this it? A bunch of trollz</t>
+  </si>
+  <si>
+    <t>too many plot twists I cant keep up</t>
+  </si>
+  <si>
+    <t>too many plot twists, I can't keep up</t>
+  </si>
+  <si>
+    <t>Can y’all revoke the link and make a new one</t>
+  </si>
+  <si>
+    <t>Can y'all revoke the link and make a new one?</t>
+  </si>
+  <si>
+    <t>how the fuck would i know</t>
+  </si>
+  <si>
+    <t>We can fight legally based on racial grounds now/s</t>
+  </si>
+  <si>
+    <t>We can fight legally based on racial grounds now. (scarasm)</t>
+  </si>
+  <si>
+    <t>wow habibi 😳 not here in front of the kids</t>
+  </si>
+  <si>
+    <t>Okay you do you i guess</t>
+  </si>
+  <si>
+    <t>implying it isnt already gone case</t>
+  </si>
+  <si>
+    <t>implying that it isn't already a gone case</t>
+  </si>
+  <si>
+    <t>Message fromAlexender Stephenedeleted. Reason: external link(?)</t>
+  </si>
+  <si>
+    <t>You need to ban him from all 3 groups</t>
+  </si>
+  <si>
+    <t>i mean the group is fine</t>
+  </si>
+  <si>
+    <t>it's just how he advertises it</t>
+  </si>
+  <si>
+    <t>like we told him nicely not to advertise w/o asking us for permission first</t>
+  </si>
+  <si>
+    <t>then he just keeps reposting over and over again</t>
+  </si>
+  <si>
+    <t>then now he sliding into DMs</t>
+  </si>
+  <si>
+    <t>then now, he is sliding into DMs</t>
+  </si>
+  <si>
+    <t>Ban him from all 3 groups</t>
+  </si>
+  <si>
+    <t>Those greedy fuckers only think of money</t>
+  </si>
+  <si>
+    <t>Oh wow you are into the convo alr</t>
+  </si>
+  <si>
+    <t>I created several account to call them out and wow instant mute</t>
+  </si>
+  <si>
+    <t>not sure how to ban if he's nto in though 🤔</t>
+  </si>
+  <si>
+    <t>not sure how to ban if he's not in though</t>
+  </si>
+  <si>
+    <t>And I have 4 other apps</t>
+  </si>
+  <si>
+    <t>Thank you for speaking up Nil</t>
+  </si>
+  <si>
+    <t>Your hard work has been recorded</t>
+  </si>
+  <si>
+    <t>wow truly a dictatorship in the other group</t>
+  </si>
+  <si>
+    <t>i saw the message get deleted</t>
+  </si>
+  <si>
+    <t>I saw the message getting deleted</t>
+  </si>
+  <si>
+    <t>It took a few seconds to get deleted</t>
+  </si>
+  <si>
+    <t>But it was quite some time</t>
+  </si>
+  <si>
+    <t>they could be reported for using the MOE symbol though</t>
+  </si>
+  <si>
+    <t>is just that we cant be bothered</t>
+  </si>
+  <si>
+    <t>it is just that we cannot be bothered</t>
+  </si>
+  <si>
+    <t>it took almost like a min</t>
+  </si>
+  <si>
+    <t>it took almost a minute</t>
+  </si>
+  <si>
+    <t>He's not advertising in this group</t>
   </si>
   <si>
     <t>Name</t>
@@ -48751,504 +48961,1304 @@
       </c>
     </row>
     <row r="1515">
-      <c r="A1515" s="1"/>
-      <c r="B1515" s="2"/>
-      <c r="C1515" s="2"/>
-      <c r="D1515" s="2"/>
-      <c r="E1515" s="2"/>
-      <c r="F1515" s="2"/>
-      <c r="G1515" s="2"/>
-      <c r="H1515" s="2"/>
+      <c r="A1515" s="1">
+        <v>45797.82465002315</v>
+      </c>
+      <c r="B1515" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1515" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1515" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1515" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1515" s="2" t="s">
+        <v>2849</v>
+      </c>
+      <c r="G1515" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1515" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1516">
-      <c r="A1516" s="1"/>
-      <c r="B1516" s="2"/>
-      <c r="C1516" s="2"/>
-      <c r="D1516" s="2"/>
-      <c r="E1516" s="2"/>
-      <c r="F1516" s="2"/>
-      <c r="G1516" s="2"/>
-      <c r="H1516" s="2"/>
+      <c r="A1516" s="1">
+        <v>45797.82479252315</v>
+      </c>
+      <c r="B1516" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1516" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1516" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1516" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1516" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G1516" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1516" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1517">
-      <c r="A1517" s="1"/>
-      <c r="B1517" s="2"/>
-      <c r="C1517" s="2"/>
-      <c r="D1517" s="2"/>
-      <c r="E1517" s="2"/>
-      <c r="F1517" s="2"/>
-      <c r="G1517" s="2"/>
-      <c r="H1517" s="2"/>
+      <c r="A1517" s="1">
+        <v>45797.824864166665</v>
+      </c>
+      <c r="B1517" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1517" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1517" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1517" s="2" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F1517" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1517" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1517" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1518">
-      <c r="A1518" s="1"/>
-      <c r="B1518" s="2"/>
-      <c r="C1518" s="2"/>
-      <c r="D1518" s="2"/>
-      <c r="E1518" s="2"/>
-      <c r="F1518" s="2"/>
-      <c r="G1518" s="2"/>
-      <c r="H1518" s="2"/>
+      <c r="A1518" s="1">
+        <v>45797.82493971065</v>
+      </c>
+      <c r="B1518" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1518" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1518" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1518" s="2" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F1518" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1518" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1518" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1519">
-      <c r="A1519" s="1"/>
-      <c r="B1519" s="2"/>
-      <c r="C1519" s="2"/>
-      <c r="D1519" s="2"/>
-      <c r="E1519" s="2"/>
-      <c r="F1519" s="2"/>
-      <c r="G1519" s="2"/>
-      <c r="H1519" s="2"/>
+      <c r="A1519" s="1">
+        <v>45797.82504618056</v>
+      </c>
+      <c r="B1519" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1519" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1519" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1519" s="2" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1519" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1519" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1519" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1520">
-      <c r="A1520" s="1"/>
-      <c r="B1520" s="2"/>
-      <c r="C1520" s="2"/>
-      <c r="D1520" s="2"/>
-      <c r="E1520" s="2"/>
-      <c r="F1520" s="2"/>
-      <c r="G1520" s="2"/>
-      <c r="H1520" s="2"/>
+      <c r="A1520" s="1">
+        <v>45797.825098182875</v>
+      </c>
+      <c r="B1520" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1520" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1520" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1520" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F1520" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1520" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1520" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1521">
-      <c r="A1521" s="1"/>
-      <c r="B1521" s="2"/>
-      <c r="C1521" s="2"/>
-      <c r="D1521" s="2"/>
-      <c r="E1521" s="2"/>
-      <c r="F1521" s="2"/>
-      <c r="G1521" s="2"/>
-      <c r="H1521" s="2"/>
+      <c r="A1521" s="1">
+        <v>45797.825147129624</v>
+      </c>
+      <c r="B1521" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1521" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1521" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1521" s="2" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F1521" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1521" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1521" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1522">
-      <c r="A1522" s="1"/>
-      <c r="B1522" s="2"/>
-      <c r="C1522" s="2"/>
-      <c r="D1522" s="2"/>
-      <c r="E1522" s="2"/>
-      <c r="F1522" s="2"/>
-      <c r="G1522" s="2"/>
-      <c r="H1522" s="2"/>
+      <c r="A1522" s="1">
+        <v>45797.82522811343</v>
+      </c>
+      <c r="B1522" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1522" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1522" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1522" s="2" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F1522" s="2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G1522" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1522" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1523">
-      <c r="A1523" s="1"/>
-      <c r="B1523" s="2"/>
-      <c r="C1523" s="2"/>
-      <c r="D1523" s="2"/>
-      <c r="E1523" s="2"/>
-      <c r="F1523" s="2"/>
-      <c r="G1523" s="2"/>
-      <c r="H1523" s="2"/>
+      <c r="A1523" s="1">
+        <v>45797.82535994213</v>
+      </c>
+      <c r="B1523" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1523" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1523" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1523" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F1523" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G1523" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1523" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1524">
-      <c r="A1524" s="1"/>
-      <c r="B1524" s="2"/>
-      <c r="C1524" s="2"/>
-      <c r="D1524" s="2"/>
-      <c r="E1524" s="2"/>
-      <c r="F1524" s="2"/>
-      <c r="G1524" s="2"/>
-      <c r="H1524" s="2"/>
+      <c r="A1524" s="1">
+        <v>45797.825488518516</v>
+      </c>
+      <c r="B1524" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1524" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1524" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1524" s="2" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F1524" s="2" t="s">
+        <v>2862</v>
+      </c>
+      <c r="G1524" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1524" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1525">
-      <c r="A1525" s="1"/>
-      <c r="B1525" s="2"/>
-      <c r="C1525" s="2"/>
-      <c r="D1525" s="2"/>
-      <c r="E1525" s="2"/>
-      <c r="F1525" s="2"/>
-      <c r="G1525" s="2"/>
-      <c r="H1525" s="2"/>
+      <c r="A1525" s="1">
+        <v>45797.82554309028</v>
+      </c>
+      <c r="B1525" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1525" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1525" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1525" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F1525" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1525" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1525" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1526">
-      <c r="A1526" s="1"/>
-      <c r="B1526" s="2"/>
-      <c r="C1526" s="2"/>
-      <c r="D1526" s="2"/>
-      <c r="E1526" s="2"/>
-      <c r="F1526" s="2"/>
-      <c r="G1526" s="2"/>
-      <c r="H1526" s="2"/>
+      <c r="A1526" s="1">
+        <v>45797.8257865625</v>
+      </c>
+      <c r="B1526" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1526" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1526" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1526" s="2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1526" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="G1526" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1526" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1527">
-      <c r="A1527" s="1"/>
-      <c r="B1527" s="2"/>
-      <c r="C1527" s="2"/>
-      <c r="D1527" s="2"/>
-      <c r="E1527" s="2"/>
-      <c r="F1527" s="2"/>
-      <c r="G1527" s="2"/>
-      <c r="H1527" s="2"/>
+      <c r="A1527" s="1">
+        <v>45797.82585090278</v>
+      </c>
+      <c r="B1527" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1527" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1527" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1527" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F1527" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1527" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1527" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1528">
-      <c r="A1528" s="1"/>
-      <c r="B1528" s="2"/>
-      <c r="C1528" s="2"/>
-      <c r="D1528" s="2"/>
-      <c r="E1528" s="2"/>
-      <c r="F1528" s="2"/>
-      <c r="G1528" s="2"/>
-      <c r="H1528" s="2"/>
+      <c r="A1528" s="1">
+        <v>45797.82589767361</v>
+      </c>
+      <c r="B1528" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1528" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1528" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1528" s="2" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F1528" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1528" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1528" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1529">
-      <c r="A1529" s="1"/>
-      <c r="B1529" s="2"/>
-      <c r="C1529" s="2"/>
-      <c r="D1529" s="2"/>
-      <c r="E1529" s="2"/>
-      <c r="F1529" s="2"/>
-      <c r="G1529" s="2"/>
-      <c r="H1529" s="2"/>
+      <c r="A1529" s="1">
+        <v>45797.82597521991</v>
+      </c>
+      <c r="B1529" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1529" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1529" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1529" s="2" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F1529" s="2" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G1529" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1529" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1530">
-      <c r="A1530" s="1"/>
-      <c r="B1530" s="2"/>
-      <c r="C1530" s="2"/>
-      <c r="D1530" s="2"/>
-      <c r="E1530" s="2"/>
-      <c r="F1530" s="2"/>
-      <c r="G1530" s="2"/>
-      <c r="H1530" s="2"/>
+      <c r="A1530" s="1">
+        <v>45797.82602501157</v>
+      </c>
+      <c r="B1530" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1530" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1530" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1530" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="F1530" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1530" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1530" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1531">
-      <c r="A1531" s="1"/>
-      <c r="B1531" s="2"/>
-      <c r="C1531" s="2"/>
-      <c r="D1531" s="2"/>
-      <c r="E1531" s="2"/>
-      <c r="F1531" s="2"/>
-      <c r="G1531" s="2"/>
-      <c r="H1531" s="2"/>
+      <c r="A1531" s="1">
+        <v>45797.82612208334</v>
+      </c>
+      <c r="B1531" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1531" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1531" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1531" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1531" s="2" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G1531" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1531" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1532">
-      <c r="A1532" s="1"/>
-      <c r="B1532" s="2"/>
-      <c r="C1532" s="2"/>
-      <c r="D1532" s="2"/>
-      <c r="E1532" s="2"/>
-      <c r="F1532" s="2"/>
-      <c r="G1532" s="2"/>
-      <c r="H1532" s="2"/>
+      <c r="A1532" s="1">
+        <v>45797.8262396412</v>
+      </c>
+      <c r="B1532" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1532" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1532" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1532" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F1532" s="2" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G1532" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1532" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1533">
-      <c r="A1533" s="1"/>
-      <c r="B1533" s="2"/>
-      <c r="C1533" s="2"/>
-      <c r="D1533" s="2"/>
-      <c r="E1533" s="2"/>
-      <c r="F1533" s="2"/>
-      <c r="G1533" s="2"/>
-      <c r="H1533" s="2"/>
+      <c r="A1533" s="1">
+        <v>45797.826294479164</v>
+      </c>
+      <c r="B1533" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1533" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1533" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1533" s="2" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F1533" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1533" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1533" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1534">
-      <c r="A1534" s="1"/>
-      <c r="B1534" s="2"/>
-      <c r="C1534" s="2"/>
-      <c r="D1534" s="2"/>
-      <c r="E1534" s="2"/>
-      <c r="F1534" s="2"/>
-      <c r="G1534" s="2"/>
-      <c r="H1534" s="2"/>
+      <c r="A1534" s="1">
+        <v>45797.82633751158</v>
+      </c>
+      <c r="B1534" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1534" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1534" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1534" s="2" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F1534" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1534" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1534" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1535">
-      <c r="A1535" s="1"/>
-      <c r="B1535" s="2"/>
-      <c r="C1535" s="2"/>
-      <c r="D1535" s="2"/>
-      <c r="E1535" s="2"/>
-      <c r="F1535" s="2"/>
-      <c r="G1535" s="2"/>
-      <c r="H1535" s="2"/>
+      <c r="A1535" s="1">
+        <v>45797.826460729164</v>
+      </c>
+      <c r="B1535" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1535" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1535" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1535" s="2" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F1535" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="G1535" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1535" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1536">
-      <c r="A1536" s="1"/>
-      <c r="B1536" s="2"/>
-      <c r="C1536" s="2"/>
-      <c r="D1536" s="2"/>
-      <c r="E1536" s="2"/>
-      <c r="F1536" s="2"/>
-      <c r="G1536" s="2"/>
-      <c r="H1536" s="2"/>
+      <c r="A1536" s="1">
+        <v>45797.82662140046</v>
+      </c>
+      <c r="B1536" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1536" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1536" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1536" s="2" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F1536" s="2" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G1536" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1536" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1537">
-      <c r="A1537" s="1"/>
-      <c r="B1537" s="2"/>
-      <c r="C1537" s="2"/>
-      <c r="D1537" s="2"/>
-      <c r="E1537" s="2"/>
-      <c r="F1537" s="2"/>
-      <c r="G1537" s="2"/>
-      <c r="H1537" s="2"/>
+      <c r="A1537" s="1">
+        <v>45797.8285540162</v>
+      </c>
+      <c r="B1537" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1537" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1537" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1537" s="2" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F1537" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1537" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1537" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1538">
-      <c r="A1538" s="1"/>
-      <c r="B1538" s="2"/>
-      <c r="C1538" s="2"/>
-      <c r="D1538" s="2"/>
-      <c r="E1538" s="2"/>
-      <c r="F1538" s="2"/>
-      <c r="G1538" s="2"/>
-      <c r="H1538" s="2"/>
+      <c r="A1538" s="1">
+        <v>45797.82877734954</v>
+      </c>
+      <c r="B1538" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1538" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1538" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1538" s="2" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1538" s="2" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G1538" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1538" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1539">
-      <c r="A1539" s="1"/>
-      <c r="B1539" s="2"/>
-      <c r="C1539" s="2"/>
-      <c r="D1539" s="2"/>
-      <c r="E1539" s="2"/>
-      <c r="F1539" s="2"/>
-      <c r="G1539" s="2"/>
-      <c r="H1539" s="2"/>
+      <c r="A1539" s="1">
+        <v>45797.83022836805</v>
+      </c>
+      <c r="B1539" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1539" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1539" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1539" s="2" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F1539" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1539" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1539" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1540">
-      <c r="A1540" s="1"/>
-      <c r="B1540" s="2"/>
-      <c r="C1540" s="2"/>
-      <c r="D1540" s="2"/>
-      <c r="E1540" s="2"/>
-      <c r="F1540" s="2"/>
-      <c r="G1540" s="2"/>
-      <c r="H1540" s="2"/>
+      <c r="A1540" s="1">
+        <v>45797.83025586806</v>
+      </c>
+      <c r="B1540" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1540" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1540" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1540" s="2" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F1540" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1540" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1540" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1541">
-      <c r="A1541" s="1"/>
-      <c r="B1541" s="2"/>
-      <c r="C1541" s="2"/>
-      <c r="D1541" s="2"/>
-      <c r="E1541" s="2"/>
-      <c r="F1541" s="2"/>
-      <c r="G1541" s="2"/>
-      <c r="H1541" s="2"/>
+      <c r="A1541" s="1">
+        <v>45797.830798518524</v>
+      </c>
+      <c r="B1541" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1541" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1541" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1541" s="2" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F1541" s="2" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G1541" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1541" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1542">
-      <c r="A1542" s="1"/>
-      <c r="B1542" s="2"/>
-      <c r="C1542" s="2"/>
-      <c r="D1542" s="2"/>
-      <c r="E1542" s="2"/>
-      <c r="F1542" s="2"/>
-      <c r="G1542" s="2"/>
-      <c r="H1542" s="2"/>
+      <c r="A1542" s="1">
+        <v>45797.831664259254</v>
+      </c>
+      <c r="B1542" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1542" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1542" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1542" s="2" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F1542" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1542" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1542" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1543">
-      <c r="A1543" s="1"/>
-      <c r="B1543" s="2"/>
-      <c r="C1543" s="2"/>
-      <c r="D1543" s="2"/>
-      <c r="E1543" s="2"/>
-      <c r="F1543" s="2"/>
-      <c r="G1543" s="2"/>
-      <c r="H1543" s="2"/>
+      <c r="A1543" s="1">
+        <v>45797.83172229167</v>
+      </c>
+      <c r="B1543" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1543" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1543" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1543" s="2" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F1543" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1543" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1543" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1544">
-      <c r="A1544" s="1"/>
-      <c r="B1544" s="2"/>
-      <c r="C1544" s="2"/>
-      <c r="D1544" s="2"/>
-      <c r="E1544" s="2"/>
-      <c r="F1544" s="2"/>
-      <c r="G1544" s="2"/>
-      <c r="H1544" s="2"/>
+      <c r="A1544" s="1">
+        <v>45797.83192604167</v>
+      </c>
+      <c r="B1544" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1544" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1544" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1544" s="2" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1544" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1544" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1544" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1545">
-      <c r="A1545" s="1"/>
-      <c r="B1545" s="2"/>
-      <c r="C1545" s="2"/>
-      <c r="D1545" s="2"/>
-      <c r="E1545" s="2"/>
-      <c r="F1545" s="2"/>
-      <c r="G1545" s="2"/>
-      <c r="H1545" s="2"/>
+      <c r="A1545" s="1">
+        <v>45797.8319681713</v>
+      </c>
+      <c r="B1545" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1545" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1545" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1545" s="2" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F1545" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1545" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1545" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1546">
-      <c r="A1546" s="1"/>
-      <c r="B1546" s="2"/>
-      <c r="C1546" s="2"/>
-      <c r="D1546" s="2"/>
-      <c r="E1546" s="2"/>
-      <c r="F1546" s="2"/>
-      <c r="G1546" s="2"/>
-      <c r="H1546" s="2"/>
+      <c r="A1546" s="1">
+        <v>45797.83209846065</v>
+      </c>
+      <c r="B1546" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1546" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1546" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1546" s="2" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F1546" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1546" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1546" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1547">
-      <c r="A1547" s="1"/>
-      <c r="B1547" s="2"/>
-      <c r="C1547" s="2"/>
-      <c r="D1547" s="2"/>
-      <c r="E1547" s="2"/>
-      <c r="F1547" s="2"/>
-      <c r="G1547" s="2"/>
-      <c r="H1547" s="2"/>
+      <c r="A1547" s="1">
+        <v>45797.83213247685</v>
+      </c>
+      <c r="B1547" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1547" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1547" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1547" s="2" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F1547" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1547" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1547" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1548">
-      <c r="A1548" s="1"/>
-      <c r="B1548" s="2"/>
-      <c r="C1548" s="2"/>
-      <c r="D1548" s="2"/>
-      <c r="E1548" s="2"/>
-      <c r="F1548" s="2"/>
-      <c r="G1548" s="2"/>
-      <c r="H1548" s="2"/>
+      <c r="A1548" s="1">
+        <v>45797.83224287037</v>
+      </c>
+      <c r="B1548" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1548" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1548" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1548" s="2" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F1548" s="2" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G1548" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1548" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1549">
-      <c r="A1549" s="1"/>
-      <c r="B1549" s="2"/>
-      <c r="C1549" s="2"/>
-      <c r="D1549" s="2"/>
-      <c r="E1549" s="2"/>
-      <c r="F1549" s="2"/>
-      <c r="G1549" s="2"/>
-      <c r="H1549" s="2"/>
+      <c r="A1549" s="1">
+        <v>45797.832308240744</v>
+      </c>
+      <c r="B1549" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1549" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1549" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1549" s="2" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F1549" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1549" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1549" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1550">
-      <c r="A1550" s="1"/>
-      <c r="B1550" s="2"/>
-      <c r="C1550" s="2"/>
-      <c r="D1550" s="2"/>
-      <c r="E1550" s="2"/>
-      <c r="F1550" s="2"/>
-      <c r="G1550" s="2"/>
-      <c r="H1550" s="2"/>
+      <c r="A1550" s="1">
+        <v>45797.83239114583</v>
+      </c>
+      <c r="B1550" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1550" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1550" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1550" s="2" t="s">
+        <v>2897</v>
+      </c>
+      <c r="F1550" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1550" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1550" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1551">
-      <c r="A1551" s="1"/>
-      <c r="B1551" s="2"/>
-      <c r="C1551" s="2"/>
-      <c r="D1551" s="2"/>
-      <c r="E1551" s="2"/>
-      <c r="F1551" s="2"/>
-      <c r="G1551" s="2"/>
-      <c r="H1551" s="2"/>
+      <c r="A1551" s="1">
+        <v>45797.833207118056</v>
+      </c>
+      <c r="B1551" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1551" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1551" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1551" s="2" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F1551" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1551" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1551" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1552">
-      <c r="A1552" s="1"/>
-      <c r="B1552" s="2"/>
-      <c r="C1552" s="2"/>
-      <c r="D1552" s="2"/>
-      <c r="E1552" s="2"/>
-      <c r="F1552" s="2"/>
-      <c r="G1552" s="2"/>
-      <c r="H1552" s="2"/>
+      <c r="A1552" s="1">
+        <v>45797.83330616898</v>
+      </c>
+      <c r="B1552" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1552" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1552" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1552" s="2" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1552" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1552" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1552" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1553">
-      <c r="A1553" s="1"/>
-      <c r="B1553" s="2"/>
-      <c r="C1553" s="2"/>
-      <c r="D1553" s="2"/>
-      <c r="E1553" s="2"/>
-      <c r="F1553" s="2"/>
-      <c r="G1553" s="2"/>
-      <c r="H1553" s="2"/>
+      <c r="A1553" s="1">
+        <v>45797.83348806713</v>
+      </c>
+      <c r="B1553" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1553" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1553" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1553" s="2" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F1553" s="2" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G1553" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1553" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1554">
-      <c r="A1554" s="1"/>
-      <c r="B1554" s="2"/>
-      <c r="C1554" s="2"/>
-      <c r="D1554" s="2"/>
-      <c r="E1554" s="2"/>
-      <c r="F1554" s="2"/>
-      <c r="G1554" s="2"/>
-      <c r="H1554" s="2"/>
+      <c r="A1554" s="1">
+        <v>45797.83355326389</v>
+      </c>
+      <c r="B1554" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1554" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1554" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1554" s="2" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F1554" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1554" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1554" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1555">
-      <c r="A1555" s="1"/>
-      <c r="B1555" s="2"/>
-      <c r="C1555" s="2"/>
-      <c r="D1555" s="2"/>
-      <c r="E1555" s="2"/>
-      <c r="F1555" s="2"/>
-      <c r="G1555" s="2"/>
-      <c r="H1555" s="2"/>
+      <c r="A1555" s="1">
+        <v>45797.83358715278</v>
+      </c>
+      <c r="B1555" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1555" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1555" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1555" s="2" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F1555" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1555" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1555" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1556">
-      <c r="A1556" s="1"/>
-      <c r="B1556" s="2"/>
-      <c r="C1556" s="2"/>
-      <c r="D1556" s="2"/>
-      <c r="E1556" s="2"/>
-      <c r="F1556" s="2"/>
-      <c r="G1556" s="2"/>
-      <c r="H1556" s="2"/>
+      <c r="A1556" s="1">
+        <v>45797.83363450231</v>
+      </c>
+      <c r="B1556" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1556" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1556" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1556" s="2" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F1556" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1556" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1556" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1557">
-      <c r="A1557" s="1"/>
-      <c r="B1557" s="2"/>
-      <c r="C1557" s="2"/>
-      <c r="D1557" s="2"/>
-      <c r="E1557" s="2"/>
-      <c r="F1557" s="2"/>
-      <c r="G1557" s="2"/>
-      <c r="H1557" s="2"/>
+      <c r="A1557" s="1">
+        <v>45797.83368268519</v>
+      </c>
+      <c r="B1557" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1557" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1557" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1557" s="2" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F1557" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1557" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1557" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1558">
-      <c r="A1558" s="1"/>
-      <c r="B1558" s="2"/>
-      <c r="C1558" s="2"/>
-      <c r="D1558" s="2"/>
-      <c r="E1558" s="2"/>
-      <c r="F1558" s="2"/>
-      <c r="G1558" s="2"/>
-      <c r="H1558" s="2"/>
+      <c r="A1558" s="1">
+        <v>45797.833787337964</v>
+      </c>
+      <c r="B1558" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1558" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1558" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1558" s="2" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F1558" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G1558" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1558" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1559">
-      <c r="A1559" s="1"/>
-      <c r="B1559" s="2"/>
-      <c r="C1559" s="2"/>
-      <c r="D1559" s="2"/>
-      <c r="E1559" s="2"/>
-      <c r="F1559" s="2"/>
-      <c r="G1559" s="2"/>
-      <c r="H1559" s="2"/>
+      <c r="A1559" s="1">
+        <v>45797.83440925926</v>
+      </c>
+      <c r="B1559" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1559" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1559" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1559" s="2" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F1559" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1559" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1559" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1560">
-      <c r="A1560" s="1"/>
-      <c r="B1560" s="2"/>
-      <c r="C1560" s="2"/>
-      <c r="D1560" s="2"/>
-      <c r="E1560" s="2"/>
-      <c r="F1560" s="2"/>
-      <c r="G1560" s="2"/>
-      <c r="H1560" s="2"/>
+      <c r="A1560" s="1">
+        <v>45797.83445725695</v>
+      </c>
+      <c r="B1560" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1560" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1560" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1560" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F1560" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1560" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1560" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1561">
-      <c r="A1561" s="1"/>
-      <c r="B1561" s="2"/>
-      <c r="C1561" s="2"/>
-      <c r="D1561" s="2"/>
-      <c r="E1561" s="2"/>
-      <c r="F1561" s="2"/>
-      <c r="G1561" s="2"/>
-      <c r="H1561" s="2"/>
+      <c r="A1561" s="1">
+        <v>45797.834534062495</v>
+      </c>
+      <c r="B1561" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1561" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1561" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1561" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1561" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1561" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1561" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1562">
-      <c r="A1562" s="1"/>
-      <c r="B1562" s="2"/>
-      <c r="C1562" s="2"/>
-      <c r="D1562" s="2"/>
-      <c r="E1562" s="2"/>
-      <c r="F1562" s="2"/>
-      <c r="G1562" s="2"/>
-      <c r="H1562" s="2"/>
+      <c r="A1562" s="1">
+        <v>45797.83462505787</v>
+      </c>
+      <c r="B1562" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1562" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1562" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1562" s="2" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F1562" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G1562" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1562" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1563">
-      <c r="A1563" s="1"/>
-      <c r="B1563" s="2"/>
-      <c r="C1563" s="2"/>
-      <c r="D1563" s="2"/>
-      <c r="E1563" s="2"/>
-      <c r="F1563" s="2"/>
-      <c r="G1563" s="2"/>
-      <c r="H1563" s="2"/>
+      <c r="A1563" s="1">
+        <v>45797.83474334491</v>
+      </c>
+      <c r="B1563" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1563" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1563" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1563" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F1563" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="G1563" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1563" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1564">
-      <c r="A1564" s="1"/>
-      <c r="B1564" s="2"/>
-      <c r="C1564" s="2"/>
-      <c r="D1564" s="2"/>
-      <c r="E1564" s="2"/>
-      <c r="F1564" s="2"/>
-      <c r="G1564" s="2"/>
-      <c r="H1564" s="2"/>
+      <c r="A1564" s="1">
+        <v>45797.83497502314</v>
+      </c>
+      <c r="B1564" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1564" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1564" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1564" s="2" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1564" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1564" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1564" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="1"/>
@@ -53633,16 +54643,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2846</v>
+        <v>2916</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2847</v>
+        <v>2917</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2848</v>
+        <v>2918</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2849</v>
+        <v>2919</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -53655,14 +54665,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45796.38267</v>
+        <v>45798.91484</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2850</v>
+        <v>2920</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -53680,14 +54690,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45796.38267</v>
+        <v>45798.91484</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2851</v>
+        <v>2921</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1938</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="4">
@@ -53701,7 +54711,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45796.38267</v>
+        <v>45798.91484</v>
       </c>
     </row>
     <row r="5">
@@ -53715,7 +54725,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45796.38267</v>
+        <v>45798.91484</v>
       </c>
     </row>
     <row r="6">
@@ -53729,7 +54739,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45796.38267</v>
+        <v>45798.91484</v>
       </c>
     </row>
     <row r="7">
@@ -53743,7 +54753,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45796.38267</v>
+        <v>45798.91484</v>
       </c>
     </row>
     <row r="8">
@@ -53771,13 +54781,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>2852</v>
+        <v>2922</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2853</v>
+        <v>2923</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2854</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="2">
@@ -53785,7 +54795,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -53796,7 +54806,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -53807,7 +54817,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -53818,7 +54828,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -53829,7 +54839,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -53840,7 +54850,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -53851,7 +54861,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -53862,7 +54872,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -53873,7 +54883,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -53884,7 +54894,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -53895,7 +54905,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -53906,7 +54916,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -53917,7 +54927,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -53928,7 +54938,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -53939,7 +54949,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -53950,7 +54960,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -53961,7 +54971,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -53972,7 +54982,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -53983,7 +54993,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -53994,7 +55004,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -54005,7 +55015,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -54016,7 +55026,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -54027,7 +55037,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -54038,7 +55048,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -54049,7 +55059,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -54060,7 +55070,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -54071,7 +55081,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -54082,7 +55092,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -54093,7 +55103,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -54104,7 +55114,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -54115,7 +55125,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -54126,7 +55136,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -54137,7 +55147,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -54148,7 +55158,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -54159,7 +55169,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -54170,7 +55180,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -54181,7 +55191,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -54192,7 +55202,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -54203,7 +55213,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -54214,7 +55224,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -54225,7 +55235,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -54236,7 +55246,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -54247,7 +55257,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -54258,7 +55268,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -54269,7 +55279,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -54280,7 +55290,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -54291,7 +55301,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -54302,7 +55312,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -54313,7 +55323,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -54324,7 +55334,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -54335,7 +55345,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -54346,7 +55356,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -54357,7 +55367,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -54368,7 +55378,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -54379,7 +55389,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -54390,7 +55400,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -54401,7 +55411,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -54412,7 +55422,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -54423,7 +55433,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -54434,7 +55444,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -54445,7 +55455,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -54456,7 +55466,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -54467,7 +55477,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -54478,7 +55488,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -54489,7 +55499,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -54500,7 +55510,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -54511,7 +55521,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -54522,7 +55532,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -54533,7 +55543,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -54544,7 +55554,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -54555,7 +55565,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -54566,7 +55576,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -54577,7 +55587,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -54588,7 +55598,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -54599,7 +55609,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -54610,7 +55620,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -54621,7 +55631,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -54632,7 +55642,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -54643,7 +55653,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -54654,7 +55664,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -54665,7 +55675,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -54676,7 +55686,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -54687,7 +55697,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -54698,7 +55708,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -54709,7 +55719,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -54720,7 +55730,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -54731,7 +55741,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -54742,7 +55752,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -54753,7 +55763,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -54764,7 +55774,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -54775,7 +55785,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -54786,7 +55796,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -54797,7 +55807,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -54808,7 +55818,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -54819,7 +55829,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -54830,7 +55840,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -54841,7 +55851,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -54852,7 +55862,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -54863,7 +55873,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -54874,7 +55884,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -54885,7 +55895,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -54896,7 +55906,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -54907,7 +55917,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -54918,7 +55928,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -54929,7 +55939,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -54940,7 +55950,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -54951,7 +55961,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -54962,7 +55972,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -54973,7 +55983,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -54984,7 +55994,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -54995,7 +56005,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -55006,7 +56016,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -55017,7 +56027,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -55028,7 +56038,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -55039,7 +56049,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -55050,7 +56060,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -55061,7 +56071,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -55072,7 +56082,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -55083,7 +56093,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -55094,7 +56104,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -55105,7 +56115,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -55116,7 +56126,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -55127,7 +56137,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -55138,7 +56148,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -55149,7 +56159,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -55160,7 +56170,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -55171,7 +56181,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -55182,7 +56192,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -55193,7 +56203,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -55204,7 +56214,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -55215,7 +56225,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -55226,7 +56236,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -55237,7 +56247,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -55248,7 +56258,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -55259,7 +56269,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -55270,7 +56280,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -55281,7 +56291,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -55292,7 +56302,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -55303,7 +56313,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -55314,7 +56324,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -55325,7 +56335,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -55336,7 +56346,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -55347,7 +56357,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -55358,7 +56368,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -55369,7 +56379,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -55380,7 +56390,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -55391,7 +56401,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -55402,7 +56412,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -55413,7 +56423,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -55424,7 +56434,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -55435,7 +56445,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -55446,7 +56456,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -55457,7 +56467,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -55468,7 +56478,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -55479,7 +56489,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -55490,7 +56500,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -55501,7 +56511,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -55521,7 +56531,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -55532,7 +56542,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -55543,7 +56553,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -55554,7 +56564,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -55565,7 +56575,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -55576,7 +56586,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -55587,7 +56597,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -55598,7 +56608,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -55609,7 +56619,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -55620,7 +56630,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -55631,7 +56641,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -55642,7 +56652,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -55653,7 +56663,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -55664,7 +56674,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -55675,7 +56685,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -55686,7 +56696,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="176">
@@ -55694,7 +56704,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -55705,7 +56715,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -55716,7 +56726,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -55727,7 +56737,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -55738,7 +56748,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -55749,7 +56759,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -55760,7 +56770,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -55771,7 +56781,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -55782,7 +56792,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -55793,7 +56803,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -55804,7 +56814,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -55815,7 +56825,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -55826,7 +56836,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -55837,7 +56847,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -55848,7 +56858,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -55859,7 +56869,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -55870,7 +56880,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -55881,7 +56891,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -55892,7 +56902,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -55903,7 +56913,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -55914,7 +56924,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -55925,7 +56935,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -55936,7 +56946,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -55947,7 +56957,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -55958,7 +56968,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -55969,7 +56979,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2856</v>
+        <v>2926</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -55980,7 +56990,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="ALL_TRANSLATIONS" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Leaderboard" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="English classification (non nat" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="English classification (native " sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11725" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12481" uniqueCount="3017">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -8763,6 +8764,270 @@
     <t>He's not advertising in this group</t>
   </si>
   <si>
+    <t>2025-05-29T12-07-56-191Z</t>
+  </si>
+  <si>
+    <t>inputs/sgcmcommunity_messages51_part8.csv</t>
+  </si>
+  <si>
+    <t>tot he professional lacer. y bang lampost?😂</t>
+  </si>
+  <si>
+    <t>i thought he is a professional lacer. why did he bang the lamp post?</t>
+  </si>
+  <si>
+    <t>ya rental scary now . 3 bedroom condo in suburb nearing 4k.😅</t>
+  </si>
+  <si>
+    <t>ya, rental is scary now. a 3 bedroom condo in suburb is nearing 4k.</t>
+  </si>
+  <si>
+    <t>alot foreigners might need downgrade or balek kampung when their lease ends</t>
+  </si>
+  <si>
+    <t>a lot of foreigners might need to downgrade or return home when their lease ends</t>
+  </si>
+  <si>
+    <t>I still remember 3 bed room condo in ulu area only high 2k just 1 or 2 years ago</t>
+  </si>
+  <si>
+    <t>i still remember a 3 bedroom condo in an ulu area just 1 or 2 years ago is only high 2k.</t>
+  </si>
+  <si>
+    <t>Leedon Residence15k/mth.2 unit successfully signed 😱GCB 200k/mth 😱Now is "hang chicken selling price" period钓起来卖</t>
+  </si>
+  <si>
+    <t>Leedon Residence15k/mth.2 unit successfully signed 😱GCB 200k/mth 😱 Now is the "hang chicken selling price" period</t>
+  </si>
+  <si>
+    <t>Covid period many business close.Panic selling.Those that pull through or manage to make money selling mask 😂Are crazy spending😂</t>
+  </si>
+  <si>
+    <t>many businesses closed during covid period. panic selling. those that pulled through managed to make money selling masks. Are crazy spending.</t>
+  </si>
+  <si>
+    <t>atas one no need say.. they got super rich. mass market condo working ppl stay one...</t>
+  </si>
+  <si>
+    <t>there is no need to say an atas one. they got super rich. working people stay in mass market condo.</t>
+  </si>
+  <si>
+    <t>Nowadays so many Mickey Mouse condo with balcony below 1000 square feet</t>
+  </si>
+  <si>
+    <t>Nowadays there are so many Mickey Mouse condo with balcony below 1000 square feet</t>
+  </si>
+  <si>
+    <t>Some i see is below 800 how can.</t>
+  </si>
+  <si>
+    <t>I have seen some that are below 800</t>
+  </si>
+  <si>
+    <t>condo alot suite with no room no living room. 2 to 300 sq feet. hkstyle😂</t>
+  </si>
+  <si>
+    <t>a condo with a lot of suite with no room and no living room. they are 2 to 300 sq feet. hkstyle</t>
+  </si>
+  <si>
+    <t>cook sleep work all in 1 room😂</t>
+  </si>
+  <si>
+    <t>cook, sleep, and work all in 1 room</t>
+  </si>
+  <si>
+    <t>Not those type I mean generally and some 2 bed room 700 plus really too small liao</t>
+  </si>
+  <si>
+    <t>Not those types. I mean, generally, and some 2 bedroom at 700 plus is really too small</t>
+  </si>
+  <si>
+    <t>emphasise something being done</t>
+  </si>
+  <si>
+    <t>We are lucky to have sexy hdb</t>
+  </si>
+  <si>
+    <t>Now Civic Type R is released  I actually wish Integra Type R can be released too. Return some integrity to the integra</t>
+  </si>
+  <si>
+    <t>Now, the Civic Type R is released, I actually wished an Integra Type R can be released too. Return some integrity to the integra.</t>
+  </si>
+  <si>
+    <t>Just in time since I pretty much finish my Malaysian ron97 VPower hahahah</t>
+  </si>
+  <si>
+    <t>This is just in time, since I pretty much finished my Malaysian ron97 vPower hahahah</t>
+  </si>
+  <si>
+    <t>I stayed at one for a year.No joke. Very small.</t>
+  </si>
+  <si>
+    <t>Very small. Like a master bedroom size</t>
+  </si>
+  <si>
+    <t>Ok ppl time to go party and have a good weekend</t>
+  </si>
+  <si>
+    <t>Ok people. Time to go party and have a good weekend.</t>
+  </si>
+  <si>
+    <t>Cars now are getting lesser time to v tec kick in</t>
+  </si>
+  <si>
+    <t>Cars are now getting lesser time for v tec to kick in</t>
+  </si>
+  <si>
+    <t>3 out of 4 lanes closed</t>
+  </si>
+  <si>
+    <t>You’re #1 Accident Spotter cum VTEC Legend cum Padang King</t>
+  </si>
+  <si>
+    <t>VTEC through the one remaining lane</t>
+  </si>
+  <si>
+    <t>I’m surprised that word isn’t banned</t>
+  </si>
+  <si>
+    <t>Haha no la with family. Hopefully still got chance for a short run</t>
+  </si>
+  <si>
+    <t>Haha. No, with family. Hopefully I still have chance for a short run.</t>
+  </si>
+  <si>
+    <t>Property is forever upward trend unless major economy crash</t>
+  </si>
+  <si>
+    <t>Property is forever an upward trend unless there is a major economy crash</t>
+  </si>
+  <si>
+    <t>When can I buy my new car</t>
+  </si>
+  <si>
+    <t>When can I buy my new car?</t>
+  </si>
+  <si>
+    <t>Just buy coe car to tide over</t>
+  </si>
+  <si>
+    <t>Just buy a coe car to tide over</t>
+  </si>
+  <si>
+    <t>I want to get new Suzuki sport</t>
+  </si>
+  <si>
+    <t>I want to get the new Suzuki sport</t>
+  </si>
+  <si>
+    <t>Haha. All the in demand cars asking for sky high premium</t>
+  </si>
+  <si>
+    <t>Haha. All the in-demand cars are asking for sky high premium</t>
+  </si>
+  <si>
+    <t>Both audi r8 are NA right</t>
+  </si>
+  <si>
+    <t>If u want a v8  got a few options out there that costs less</t>
+  </si>
+  <si>
+    <t>If u want a v8, there are a few options out there that costs less</t>
+  </si>
+  <si>
+    <t>The am vantage has incredible value compared to their counterparts</t>
+  </si>
+  <si>
+    <t>I see the price I want to cry already</t>
+  </si>
+  <si>
+    <t>I see the price, and I want to cry already</t>
+  </si>
+  <si>
+    <t>Smooth and Refined but slow and parts are quite expensive</t>
+  </si>
+  <si>
+    <t>Smooth and Refined but slow, and parts are quite expensive</t>
+  </si>
+  <si>
+    <t>its not say not reliable per se but certain parts needs to be changed after 10+ years</t>
+  </si>
+  <si>
+    <t>its not say, not reliable per se, but certain parts needs to be changed after 10+ years</t>
+  </si>
+  <si>
+    <t>normal wear and tear for a british car</t>
+  </si>
+  <si>
+    <t>So fast for what. As long as can still bring smiles to the driver’s face (and drool from passerbys)</t>
+  </si>
+  <si>
+    <t>Why does it need to be so fast? As long as it can still bring smiles to the driver’s face (and drool from passerbys)</t>
+  </si>
+  <si>
+    <t>Not VROOM LOOK AT ME in your face vulgar type of car</t>
+  </si>
+  <si>
+    <t>It's not VROOM LOOK AT ME in your face vulgar type of car</t>
+  </si>
+  <si>
+    <t>You know you want this bad boy 👦🏻</t>
+  </si>
+  <si>
+    <t>Now we choosing chinese name for them?</t>
+  </si>
+  <si>
+    <t>Are we now choosing chinese name for them?</t>
+  </si>
+  <si>
+    <t>What if I told you they malay</t>
+  </si>
+  <si>
+    <t>What if I told you they are malays?</t>
+  </si>
+  <si>
+    <t>Super suay  last day also need change battery late at night at 280....</t>
+  </si>
+  <si>
+    <t>Super unlucky. It's the last day and I also need to change the battery late at night at 280....</t>
+  </si>
+  <si>
+    <t>Volkswagen goes even greener with new 1.5 TSI EVO2 engineThe 1.5-litre TSI EVO 2 engine churns out a respectable 146bhp and 264bhp when deployed in a plug-in hybrid drivetrain.👉🏻 React with 😁 if you drive a Volkswagen!➡️Read ithere!</t>
+  </si>
+  <si>
+    <t>If only road tax will be based on 146hp 😅😅</t>
+  </si>
+  <si>
+    <t>Wads the cheapest stock petrol car to beat tesla model 3 0-100kph 5.6sec acceleration?</t>
+  </si>
+  <si>
+    <t>Wads the cheapest stock? car petrol to beat a tesla model 3 that has 0-100kph 5.6sec acceleration?</t>
+  </si>
+  <si>
+    <t>I think I need to amend my qns</t>
+  </si>
+  <si>
+    <t>Wads the cheapest stock petrol 4-door sedan to beat tesla model 3 0-100kph 5.6sec acceleration?</t>
+  </si>
+  <si>
+    <t>What is the cheapest stock? petrol 4-door sedan to beat tesla model 3 0-100kph 5.6sec acceleration?</t>
+  </si>
+  <si>
+    <t>Tesla is also 4 door sedan. So better to compare same car</t>
+  </si>
+  <si>
+    <t>Tesla is also 4 door sedan. So it is better to compare the same car type</t>
+  </si>
+  <si>
+    <t>Alfa Romeo Giulia Veloce270k 0-100 5.2s</t>
+  </si>
+  <si>
+    <t>Honourable mentionCupra Leon Sportstourer269k 0-100 4.9s</t>
+  </si>
+  <si>
+    <t>Honourable mention: Cupra Leon Sportstourer269k 0-100 4.9s</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -8794,6 +9059,12 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Singlish</t>
   </si>
 </sst>
 </file>
@@ -8884,6 +9155,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -50261,504 +50536,1307 @@
       </c>
     </row>
     <row r="1565">
-      <c r="A1565" s="1"/>
-      <c r="B1565" s="2"/>
-      <c r="C1565" s="2"/>
-      <c r="D1565" s="2"/>
-      <c r="E1565" s="2"/>
-      <c r="F1565" s="2"/>
-      <c r="G1565" s="2"/>
-      <c r="H1565" s="2"/>
+      <c r="A1565" s="1">
+        <v>45806.339140625</v>
+      </c>
+      <c r="B1565" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1565" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1565" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1565" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1565" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G1565" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1565" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1566">
-      <c r="A1566" s="1"/>
-      <c r="B1566" s="2"/>
-      <c r="C1566" s="2"/>
-      <c r="D1566" s="2"/>
-      <c r="E1566" s="2"/>
-      <c r="F1566" s="2"/>
-      <c r="G1566" s="2"/>
-      <c r="H1566" s="2"/>
+      <c r="A1566" s="1">
+        <v>45806.33996990741</v>
+      </c>
+      <c r="B1566" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1566" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1566" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1566" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F1566" s="2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="G1566" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1566" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1567">
-      <c r="A1567" s="1"/>
-      <c r="B1567" s="2"/>
-      <c r="C1567" s="2"/>
-      <c r="D1567" s="2"/>
-      <c r="E1567" s="2"/>
-      <c r="F1567" s="2"/>
-      <c r="G1567" s="2"/>
-      <c r="H1567" s="2"/>
+      <c r="A1567" s="1">
+        <v>45806.34034388889</v>
+      </c>
+      <c r="B1567" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1567" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1567" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1567" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F1567" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G1567" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1567" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1568">
-      <c r="A1568" s="1"/>
-      <c r="B1568" s="2"/>
-      <c r="C1568" s="2"/>
-      <c r="D1568" s="2"/>
-      <c r="E1568" s="2"/>
-      <c r="F1568" s="2"/>
-      <c r="G1568" s="2"/>
-      <c r="H1568" s="2"/>
+      <c r="A1568" s="1">
+        <v>45806.34384259259</v>
+      </c>
+      <c r="B1568" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1568" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1568" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1568" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1568" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G1568" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1568" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1569">
-      <c r="A1569" s="1"/>
-      <c r="B1569" s="2"/>
-      <c r="C1569" s="2"/>
-      <c r="D1569" s="2"/>
-      <c r="E1569" s="2"/>
-      <c r="F1569" s="2"/>
-      <c r="G1569" s="2"/>
-      <c r="H1569" s="2"/>
+      <c r="A1569" s="1">
+        <v>45806.34417920139</v>
+      </c>
+      <c r="B1569" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1569" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1569" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1569" s="2" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1569" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G1569" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1569" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1570">
-      <c r="A1570" s="1"/>
-      <c r="B1570" s="2"/>
-      <c r="C1570" s="2"/>
-      <c r="D1570" s="2"/>
-      <c r="E1570" s="2"/>
-      <c r="F1570" s="2"/>
-      <c r="G1570" s="2"/>
-      <c r="H1570" s="2"/>
+      <c r="A1570" s="1">
+        <v>45806.34477722222</v>
+      </c>
+      <c r="B1570" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1570" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1570" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1570" s="2" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F1570" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G1570" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1570" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1571">
-      <c r="A1571" s="1"/>
-      <c r="B1571" s="2"/>
-      <c r="C1571" s="2"/>
-      <c r="D1571" s="2"/>
-      <c r="E1571" s="2"/>
-      <c r="F1571" s="2"/>
-      <c r="G1571" s="2"/>
-      <c r="H1571" s="2"/>
+      <c r="A1571" s="1">
+        <v>45806.347496250004</v>
+      </c>
+      <c r="B1571" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1571" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1571" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1571" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1571" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G1571" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1571" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1572">
-      <c r="A1572" s="1"/>
-      <c r="B1572" s="2"/>
-      <c r="C1572" s="2"/>
-      <c r="D1572" s="2"/>
-      <c r="E1572" s="2"/>
-      <c r="F1572" s="2"/>
-      <c r="G1572" s="2"/>
-      <c r="H1572" s="2"/>
+      <c r="A1572" s="1">
+        <v>45806.34773902778</v>
+      </c>
+      <c r="B1572" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1572" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1572" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1572" s="2" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1572" s="2" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G1572" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1572" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1573">
-      <c r="A1573" s="1"/>
-      <c r="B1573" s="2"/>
-      <c r="C1573" s="2"/>
-      <c r="D1573" s="2"/>
-      <c r="E1573" s="2"/>
-      <c r="F1573" s="2"/>
-      <c r="G1573" s="2"/>
-      <c r="H1573" s="2"/>
+      <c r="A1573" s="1">
+        <v>45806.34822233796</v>
+      </c>
+      <c r="B1573" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1573" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1573" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1573" s="2" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1573" s="2" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G1573" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1573" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1574">
-      <c r="A1574" s="1"/>
-      <c r="B1574" s="2"/>
-      <c r="C1574" s="2"/>
-      <c r="D1574" s="2"/>
-      <c r="E1574" s="2"/>
-      <c r="F1574" s="2"/>
-      <c r="G1574" s="2"/>
-      <c r="H1574" s="2"/>
+      <c r="A1574" s="1">
+        <v>45806.34863491898</v>
+      </c>
+      <c r="B1574" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1574" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1574" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1574" s="2" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F1574" s="2" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G1574" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1574" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1575">
-      <c r="A1575" s="1"/>
-      <c r="B1575" s="2"/>
-      <c r="C1575" s="2"/>
-      <c r="D1575" s="2"/>
-      <c r="E1575" s="2"/>
-      <c r="F1575" s="2"/>
-      <c r="G1575" s="2"/>
-      <c r="H1575" s="2"/>
+      <c r="A1575" s="1">
+        <v>45806.34882212963</v>
+      </c>
+      <c r="B1575" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1575" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1575" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1575" s="2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F1575" s="2" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G1575" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1575" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1576">
-      <c r="A1576" s="1"/>
-      <c r="B1576" s="2"/>
-      <c r="C1576" s="2"/>
-      <c r="D1576" s="2"/>
-      <c r="E1576" s="2"/>
-      <c r="F1576" s="2"/>
-      <c r="G1576" s="2"/>
-      <c r="H1576" s="2"/>
+      <c r="A1576" s="1">
+        <v>45806.349293113424</v>
+      </c>
+      <c r="B1576" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1576" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1576" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1576" s="2" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F1576" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G1576" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1576" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1576" s="2" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="1577">
-      <c r="A1577" s="1"/>
-      <c r="B1577" s="2"/>
-      <c r="C1577" s="2"/>
-      <c r="D1577" s="2"/>
-      <c r="E1577" s="2"/>
-      <c r="F1577" s="2"/>
-      <c r="G1577" s="2"/>
-      <c r="H1577" s="2"/>
+      <c r="A1577" s="1">
+        <v>45806.34937650463</v>
+      </c>
+      <c r="B1577" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1577" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1577" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1577" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1577" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1577" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1577" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1578">
-      <c r="A1578" s="1"/>
-      <c r="B1578" s="2"/>
-      <c r="C1578" s="2"/>
-      <c r="D1578" s="2"/>
-      <c r="E1578" s="2"/>
-      <c r="F1578" s="2"/>
-      <c r="G1578" s="2"/>
-      <c r="H1578" s="2"/>
+      <c r="A1578" s="1">
+        <v>45806.34978662037</v>
+      </c>
+      <c r="B1578" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1578" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1578" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1578" s="2" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F1578" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G1578" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1578" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1579">
-      <c r="A1579" s="1"/>
-      <c r="B1579" s="2"/>
-      <c r="C1579" s="2"/>
-      <c r="D1579" s="2"/>
-      <c r="E1579" s="2"/>
-      <c r="F1579" s="2"/>
-      <c r="G1579" s="2"/>
-      <c r="H1579" s="2"/>
+      <c r="A1579" s="1">
+        <v>45806.35033822917</v>
+      </c>
+      <c r="B1579" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1579" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1579" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1579" s="2" t="s">
+        <v>2946</v>
+      </c>
+      <c r="F1579" s="2" t="s">
+        <v>2947</v>
+      </c>
+      <c r="G1579" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1579" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1580">
-      <c r="A1580" s="1"/>
-      <c r="B1580" s="2"/>
-      <c r="C1580" s="2"/>
-      <c r="D1580" s="2"/>
-      <c r="E1580" s="2"/>
-      <c r="F1580" s="2"/>
-      <c r="G1580" s="2"/>
-      <c r="H1580" s="2"/>
+      <c r="A1580" s="1">
+        <v>45806.350740243055</v>
+      </c>
+      <c r="B1580" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1580" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1580" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1580" s="2" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F1580" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1580" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1580" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1581">
-      <c r="A1581" s="1"/>
-      <c r="B1581" s="2"/>
-      <c r="C1581" s="2"/>
-      <c r="D1581" s="2"/>
-      <c r="E1581" s="2"/>
-      <c r="F1581" s="2"/>
-      <c r="G1581" s="2"/>
-      <c r="H1581" s="2"/>
+      <c r="A1581" s="1">
+        <v>45806.35076346065</v>
+      </c>
+      <c r="B1581" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1581" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1581" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1581" s="2" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F1581" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1581" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1581" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1582">
-      <c r="A1582" s="1"/>
-      <c r="B1582" s="2"/>
-      <c r="C1582" s="2"/>
-      <c r="D1582" s="2"/>
-      <c r="E1582" s="2"/>
-      <c r="F1582" s="2"/>
-      <c r="G1582" s="2"/>
-      <c r="H1582" s="2"/>
+      <c r="A1582" s="1">
+        <v>45806.350898530094</v>
+      </c>
+      <c r="B1582" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1582" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1582" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1582" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F1582" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G1582" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1582" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1583">
-      <c r="A1583" s="1"/>
-      <c r="B1583" s="2"/>
-      <c r="C1583" s="2"/>
-      <c r="D1583" s="2"/>
-      <c r="E1583" s="2"/>
-      <c r="F1583" s="2"/>
-      <c r="G1583" s="2"/>
-      <c r="H1583" s="2"/>
+      <c r="A1583" s="1">
+        <v>45806.35208548611</v>
+      </c>
+      <c r="B1583" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1583" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1583" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1583" s="2" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1583" s="2" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G1583" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1583" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1584">
-      <c r="A1584" s="1"/>
-      <c r="B1584" s="2"/>
-      <c r="C1584" s="2"/>
-      <c r="D1584" s="2"/>
-      <c r="E1584" s="2"/>
-      <c r="F1584" s="2"/>
-      <c r="G1584" s="2"/>
-      <c r="H1584" s="2"/>
+      <c r="A1584" s="1">
+        <v>45806.35213068287</v>
+      </c>
+      <c r="B1584" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1584" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1584" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1584" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F1584" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1584" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1584" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1585">
-      <c r="A1585" s="1"/>
-      <c r="B1585" s="2"/>
-      <c r="C1585" s="2"/>
-      <c r="D1585" s="2"/>
-      <c r="E1585" s="2"/>
-      <c r="F1585" s="2"/>
-      <c r="G1585" s="2"/>
-      <c r="H1585" s="2"/>
+      <c r="A1585" s="1">
+        <v>45806.35219027778</v>
+      </c>
+      <c r="B1585" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1585" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1585" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1585" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F1585" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1585" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1585" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1586">
-      <c r="A1586" s="1"/>
-      <c r="B1586" s="2"/>
-      <c r="C1586" s="2"/>
-      <c r="D1586" s="2"/>
-      <c r="E1586" s="2"/>
-      <c r="F1586" s="2"/>
-      <c r="G1586" s="2"/>
-      <c r="H1586" s="2"/>
+      <c r="A1586" s="1">
+        <v>45806.35224472222</v>
+      </c>
+      <c r="B1586" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1586" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1586" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1586" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F1586" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1586" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1586" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1587">
-      <c r="A1587" s="1"/>
-      <c r="B1587" s="2"/>
-      <c r="C1587" s="2"/>
-      <c r="D1587" s="2"/>
-      <c r="E1587" s="2"/>
-      <c r="F1587" s="2"/>
-      <c r="G1587" s="2"/>
-      <c r="H1587" s="2"/>
+      <c r="A1587" s="1">
+        <v>45806.35228827546</v>
+      </c>
+      <c r="B1587" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1587" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1587" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1587" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1587" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1587" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1587" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1588">
-      <c r="A1588" s="1"/>
-      <c r="B1588" s="2"/>
-      <c r="C1588" s="2"/>
-      <c r="D1588" s="2"/>
-      <c r="E1588" s="2"/>
-      <c r="F1588" s="2"/>
-      <c r="G1588" s="2"/>
-      <c r="H1588" s="2"/>
+      <c r="A1588" s="1">
+        <v>45806.35297274306</v>
+      </c>
+      <c r="B1588" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1588" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1588" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1588" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F1588" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G1588" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1588" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1589">
-      <c r="A1589" s="1"/>
-      <c r="B1589" s="2"/>
-      <c r="C1589" s="2"/>
-      <c r="D1589" s="2"/>
-      <c r="E1589" s="2"/>
-      <c r="F1589" s="2"/>
-      <c r="G1589" s="2"/>
-      <c r="H1589" s="2"/>
+      <c r="A1589" s="1">
+        <v>45806.353185115746</v>
+      </c>
+      <c r="B1589" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1589" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1589" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1589" s="2" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F1589" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="G1589" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1589" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1590">
-      <c r="A1590" s="1"/>
-      <c r="B1590" s="2"/>
-      <c r="C1590" s="2"/>
-      <c r="D1590" s="2"/>
-      <c r="E1590" s="2"/>
-      <c r="F1590" s="2"/>
-      <c r="G1590" s="2"/>
-      <c r="H1590" s="2"/>
+      <c r="A1590" s="1">
+        <v>45806.35328277778</v>
+      </c>
+      <c r="B1590" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1590" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1590" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1590" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F1590" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G1590" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1590" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1591">
-      <c r="A1591" s="1"/>
-      <c r="B1591" s="2"/>
-      <c r="C1591" s="2"/>
-      <c r="D1591" s="2"/>
-      <c r="E1591" s="2"/>
-      <c r="F1591" s="2"/>
-      <c r="G1591" s="2"/>
-      <c r="H1591" s="2"/>
+      <c r="A1591" s="1">
+        <v>45806.35342190972</v>
+      </c>
+      <c r="B1591" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1591" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1591" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1591" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="F1591" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G1591" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1591" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1592">
-      <c r="A1592" s="1"/>
-      <c r="B1592" s="2"/>
-      <c r="C1592" s="2"/>
-      <c r="D1592" s="2"/>
-      <c r="E1592" s="2"/>
-      <c r="F1592" s="2"/>
-      <c r="G1592" s="2"/>
-      <c r="H1592" s="2"/>
+      <c r="A1592" s="1">
+        <v>45806.35354333333</v>
+      </c>
+      <c r="B1592" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1592" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1592" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1592" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F1592" s="2" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G1592" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1592" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1593">
-      <c r="A1593" s="1"/>
-      <c r="B1593" s="2"/>
-      <c r="C1593" s="2"/>
-      <c r="D1593" s="2"/>
-      <c r="E1593" s="2"/>
-      <c r="F1593" s="2"/>
-      <c r="G1593" s="2"/>
-      <c r="H1593" s="2"/>
+      <c r="A1593" s="1">
+        <v>45806.353910370366</v>
+      </c>
+      <c r="B1593" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1593" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1593" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1593" s="2" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F1593" s="2" t="s">
+        <v>2969</v>
+      </c>
+      <c r="G1593" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1593" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1594">
-      <c r="A1594" s="1"/>
-      <c r="B1594" s="2"/>
-      <c r="C1594" s="2"/>
-      <c r="D1594" s="2"/>
-      <c r="E1594" s="2"/>
-      <c r="F1594" s="2"/>
-      <c r="G1594" s="2"/>
-      <c r="H1594" s="2"/>
+      <c r="A1594" s="1">
+        <v>45806.35399506944</v>
+      </c>
+      <c r="B1594" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1594" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1594" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1594" s="2" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F1594" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1594" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1594" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1595">
-      <c r="A1595" s="1"/>
-      <c r="B1595" s="2"/>
-      <c r="C1595" s="2"/>
-      <c r="D1595" s="2"/>
-      <c r="E1595" s="2"/>
-      <c r="F1595" s="2"/>
-      <c r="G1595" s="2"/>
-      <c r="H1595" s="2"/>
+      <c r="A1595" s="1">
+        <v>45806.35412791667</v>
+      </c>
+      <c r="B1595" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1595" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1595" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1595" s="2" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F1595" s="2" t="s">
+        <v>2972</v>
+      </c>
+      <c r="G1595" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1595" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1596">
-      <c r="A1596" s="1"/>
-      <c r="B1596" s="2"/>
-      <c r="C1596" s="2"/>
-      <c r="D1596" s="2"/>
-      <c r="E1596" s="2"/>
-      <c r="F1596" s="2"/>
-      <c r="G1596" s="2"/>
-      <c r="H1596" s="2"/>
+      <c r="A1596" s="1">
+        <v>45806.354210081015</v>
+      </c>
+      <c r="B1596" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1596" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1596" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1596" s="2" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1596" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1596" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1596" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1597">
-      <c r="A1597" s="1"/>
-      <c r="B1597" s="2"/>
-      <c r="C1597" s="2"/>
-      <c r="D1597" s="2"/>
-      <c r="E1597" s="2"/>
-      <c r="F1597" s="2"/>
-      <c r="G1597" s="2"/>
-      <c r="H1597" s="2"/>
+      <c r="A1597" s="1">
+        <v>45806.354295</v>
+      </c>
+      <c r="B1597" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1597" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1597" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1597" s="2" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F1597" s="2" t="s">
+        <v>2975</v>
+      </c>
+      <c r="G1597" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1597" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1598">
-      <c r="A1598" s="1"/>
-      <c r="B1598" s="2"/>
-      <c r="C1598" s="2"/>
-      <c r="D1598" s="2"/>
-      <c r="E1598" s="2"/>
-      <c r="F1598" s="2"/>
-      <c r="G1598" s="2"/>
-      <c r="H1598" s="2"/>
+      <c r="A1598" s="1">
+        <v>45806.35455505787</v>
+      </c>
+      <c r="B1598" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1598" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1598" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1598" s="2" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F1598" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G1598" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1598" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1599">
-      <c r="A1599" s="1"/>
-      <c r="B1599" s="2"/>
-      <c r="C1599" s="2"/>
-      <c r="D1599" s="2"/>
-      <c r="E1599" s="2"/>
-      <c r="F1599" s="2"/>
-      <c r="G1599" s="2"/>
-      <c r="H1599" s="2"/>
+      <c r="A1599" s="1">
+        <v>45806.356108541666</v>
+      </c>
+      <c r="B1599" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1599" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1599" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1599" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F1599" s="2" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G1599" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1599" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1600">
-      <c r="A1600" s="1"/>
-      <c r="B1600" s="2"/>
-      <c r="C1600" s="2"/>
-      <c r="D1600" s="2"/>
-      <c r="E1600" s="2"/>
-      <c r="F1600" s="2"/>
-      <c r="G1600" s="2"/>
-      <c r="H1600" s="2"/>
+      <c r="A1600" s="1">
+        <v>45806.35630248842</v>
+      </c>
+      <c r="B1600" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1600" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1600" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1600" s="2" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F1600" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1600" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1600" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1601">
-      <c r="A1601" s="1"/>
-      <c r="B1601" s="2"/>
-      <c r="C1601" s="2"/>
-      <c r="D1601" s="2"/>
-      <c r="E1601" s="2"/>
-      <c r="F1601" s="2"/>
-      <c r="G1601" s="2"/>
-      <c r="H1601" s="2"/>
+      <c r="A1601" s="1">
+        <v>45806.356898321756</v>
+      </c>
+      <c r="B1601" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1601" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1601" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1601" s="2" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F1601" s="2" t="s">
+        <v>2982</v>
+      </c>
+      <c r="G1601" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1601" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1602">
-      <c r="A1602" s="1"/>
-      <c r="B1602" s="2"/>
-      <c r="C1602" s="2"/>
-      <c r="D1602" s="2"/>
-      <c r="E1602" s="2"/>
-      <c r="F1602" s="2"/>
-      <c r="G1602" s="2"/>
-      <c r="H1602" s="2"/>
+      <c r="A1602" s="1">
+        <v>45806.357072314815</v>
+      </c>
+      <c r="B1602" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1602" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1602" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1602" s="2" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F1602" s="2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="G1602" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1602" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1603">
-      <c r="A1603" s="1"/>
-      <c r="B1603" s="2"/>
-      <c r="C1603" s="2"/>
-      <c r="D1603" s="2"/>
-      <c r="E1603" s="2"/>
-      <c r="F1603" s="2"/>
-      <c r="G1603" s="2"/>
-      <c r="H1603" s="2"/>
+      <c r="A1603" s="1">
+        <v>45806.357117604166</v>
+      </c>
+      <c r="B1603" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1603" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1603" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1603" s="2" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F1603" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1603" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1603" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1604">
-      <c r="A1604" s="1"/>
-      <c r="B1604" s="2"/>
-      <c r="C1604" s="2"/>
-      <c r="D1604" s="2"/>
-      <c r="E1604" s="2"/>
-      <c r="F1604" s="2"/>
-      <c r="G1604" s="2"/>
-      <c r="H1604" s="2"/>
+      <c r="A1604" s="1">
+        <v>45806.35729884259</v>
+      </c>
+      <c r="B1604" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1604" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1604" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1604" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F1604" s="2" t="s">
+        <v>2987</v>
+      </c>
+      <c r="G1604" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1604" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1605">
-      <c r="A1605" s="1"/>
-      <c r="B1605" s="2"/>
-      <c r="C1605" s="2"/>
-      <c r="D1605" s="2"/>
-      <c r="E1605" s="2"/>
-      <c r="F1605" s="2"/>
-      <c r="G1605" s="2"/>
-      <c r="H1605" s="2"/>
+      <c r="A1605" s="1">
+        <v>45806.35739917824</v>
+      </c>
+      <c r="B1605" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1605" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1605" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1605" s="2" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F1605" s="2" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G1605" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1605" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1606">
-      <c r="A1606" s="1"/>
-      <c r="B1606" s="2"/>
-      <c r="C1606" s="2"/>
-      <c r="D1606" s="2"/>
-      <c r="E1606" s="2"/>
-      <c r="F1606" s="2"/>
-      <c r="G1606" s="2"/>
-      <c r="H1606" s="2"/>
+      <c r="A1606" s="1">
+        <v>45806.35777164352</v>
+      </c>
+      <c r="B1606" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1606" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1606" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1606" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F1606" s="2" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G1606" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1606" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1607">
-      <c r="A1607" s="1"/>
-      <c r="B1607" s="2"/>
-      <c r="C1607" s="2"/>
-      <c r="D1607" s="2"/>
-      <c r="E1607" s="2"/>
-      <c r="F1607" s="2"/>
-      <c r="G1607" s="2"/>
-      <c r="H1607" s="2"/>
+      <c r="A1607" s="1">
+        <v>45806.35782164352</v>
+      </c>
+      <c r="B1607" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1607" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1607" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1607" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1607" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1607" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1607" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1608">
-      <c r="A1608" s="1"/>
-      <c r="B1608" s="2"/>
-      <c r="C1608" s="2"/>
-      <c r="D1608" s="2"/>
-      <c r="E1608" s="2"/>
-      <c r="F1608" s="2"/>
-      <c r="G1608" s="2"/>
-      <c r="H1608" s="2"/>
+      <c r="A1608" s="1">
+        <v>45806.35805409722</v>
+      </c>
+      <c r="B1608" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1608" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1608" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1608" s="2" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F1608" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1608" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1608" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1609">
-      <c r="A1609" s="1"/>
-      <c r="B1609" s="2"/>
-      <c r="C1609" s="2"/>
-      <c r="D1609" s="2"/>
-      <c r="E1609" s="2"/>
-      <c r="F1609" s="2"/>
-      <c r="G1609" s="2"/>
-      <c r="H1609" s="2"/>
+      <c r="A1609" s="1">
+        <v>45806.35867394676</v>
+      </c>
+      <c r="B1609" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1609" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1609" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1609" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1609" s="2" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G1609" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1609" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1610">
-      <c r="A1610" s="1"/>
-      <c r="B1610" s="2"/>
-      <c r="C1610" s="2"/>
-      <c r="D1610" s="2"/>
-      <c r="E1610" s="2"/>
-      <c r="F1610" s="2"/>
-      <c r="G1610" s="2"/>
-      <c r="H1610" s="2"/>
+      <c r="A1610" s="1">
+        <v>45806.358864849535</v>
+      </c>
+      <c r="B1610" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1610" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1610" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1610" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F1610" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1610" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1610" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1611">
-      <c r="A1611" s="1"/>
-      <c r="B1611" s="2"/>
-      <c r="C1611" s="2"/>
-      <c r="D1611" s="2"/>
-      <c r="E1611" s="2"/>
-      <c r="F1611" s="2"/>
-      <c r="G1611" s="2"/>
-      <c r="H1611" s="2"/>
+      <c r="A1611" s="1">
+        <v>45806.359205659726</v>
+      </c>
+      <c r="B1611" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1611" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1611" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1611" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F1611" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G1611" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1611" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1612">
-      <c r="A1612" s="1"/>
-      <c r="B1612" s="2"/>
-      <c r="C1612" s="2"/>
-      <c r="D1612" s="2"/>
-      <c r="E1612" s="2"/>
-      <c r="F1612" s="2"/>
-      <c r="G1612" s="2"/>
-      <c r="H1612" s="2"/>
+      <c r="A1612" s="1">
+        <v>45806.35947613426</v>
+      </c>
+      <c r="B1612" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1612" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1612" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1612" s="2" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1612" s="2" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G1612" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1612" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1613">
-      <c r="A1613" s="1"/>
-      <c r="B1613" s="2"/>
-      <c r="C1613" s="2"/>
-      <c r="D1613" s="2"/>
-      <c r="E1613" s="2"/>
-      <c r="F1613" s="2"/>
-      <c r="G1613" s="2"/>
-      <c r="H1613" s="2"/>
+      <c r="A1613" s="1">
+        <v>45806.35957619213</v>
+      </c>
+      <c r="B1613" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1613" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1613" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1613" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F1613" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1613" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1613" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1614">
-      <c r="A1614" s="1"/>
-      <c r="B1614" s="2"/>
-      <c r="C1614" s="2"/>
-      <c r="D1614" s="2"/>
-      <c r="E1614" s="2"/>
-      <c r="F1614" s="2"/>
-      <c r="G1614" s="2"/>
-      <c r="H1614" s="2"/>
+      <c r="A1614" s="1">
+        <v>45806.35978652778</v>
+      </c>
+      <c r="B1614" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1614" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1614" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1614" s="2" t="s">
+        <v>3002</v>
+      </c>
+      <c r="F1614" s="2" t="s">
+        <v>3003</v>
+      </c>
+      <c r="G1614" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1614" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="1"/>
@@ -54643,16 +55721,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>2916</v>
+        <v>3004</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2917</v>
+        <v>3005</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2918</v>
+        <v>3006</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2919</v>
+        <v>3007</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -54665,14 +55743,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45798.91484</v>
+        <v>45806.35979</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2920</v>
+        <v>3008</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -54690,14 +55768,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45798.91484</v>
+        <v>45806.35979</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2921</v>
+        <v>3009</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>1988</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="4">
@@ -54711,7 +55789,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45798.91484</v>
+        <v>45806.35979</v>
       </c>
     </row>
     <row r="5">
@@ -54725,7 +55803,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45798.91484</v>
+        <v>45806.35979</v>
       </c>
     </row>
     <row r="6">
@@ -54739,7 +55817,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45798.91484</v>
+        <v>45806.35979</v>
       </c>
     </row>
     <row r="7">
@@ -54753,7 +55831,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45798.91484</v>
+        <v>45806.35979</v>
       </c>
     </row>
     <row r="8">
@@ -54781,13 +55859,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>2922</v>
+        <v>3010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2923</v>
+        <v>3011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2924</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="2">
@@ -54795,7 +55873,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -54806,7 +55884,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -54817,7 +55895,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -54828,7 +55906,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -54839,7 +55917,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -54850,7 +55928,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -54861,7 +55939,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -54872,7 +55950,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -54883,7 +55961,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -54894,7 +55972,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -54905,7 +55983,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -54916,7 +55994,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -54927,7 +56005,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -54938,7 +56016,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -54949,7 +56027,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -54960,7 +56038,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -54971,7 +56049,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -54982,7 +56060,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -54993,7 +56071,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -55004,7 +56082,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -55015,7 +56093,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -55026,7 +56104,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -55037,7 +56115,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -55048,7 +56126,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -55059,7 +56137,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -55070,7 +56148,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -55081,7 +56159,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -55092,7 +56170,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -55103,7 +56181,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -55114,7 +56192,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -55125,7 +56203,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -55136,7 +56214,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -55147,7 +56225,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -55158,7 +56236,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -55169,7 +56247,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -55180,7 +56258,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -55191,7 +56269,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -55202,7 +56280,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -55213,7 +56291,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -55224,7 +56302,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -55235,7 +56313,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -55246,7 +56324,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -55257,7 +56335,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -55268,7 +56346,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -55279,7 +56357,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -55290,7 +56368,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -55301,7 +56379,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -55312,7 +56390,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -55323,7 +56401,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -55334,7 +56412,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -55345,7 +56423,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -55356,7 +56434,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -55367,7 +56445,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -55378,7 +56456,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -55389,7 +56467,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -55400,7 +56478,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -55411,7 +56489,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -55422,7 +56500,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -55433,7 +56511,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -55444,7 +56522,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -55455,7 +56533,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -55466,7 +56544,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -55477,7 +56555,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -55488,7 +56566,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -55499,7 +56577,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -55510,7 +56588,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -55521,7 +56599,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -55532,7 +56610,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -55543,7 +56621,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -55554,7 +56632,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -55565,7 +56643,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -55576,7 +56654,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -55587,7 +56665,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -55598,7 +56676,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -55609,7 +56687,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -55620,7 +56698,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -55631,7 +56709,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -55642,7 +56720,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -55653,7 +56731,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -55664,7 +56742,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -55675,7 +56753,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -55686,7 +56764,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -55697,7 +56775,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -55708,7 +56786,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -55719,7 +56797,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -55730,7 +56808,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -55741,7 +56819,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -55752,7 +56830,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -55763,7 +56841,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -55774,7 +56852,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -55785,7 +56863,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -55796,7 +56874,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -55807,7 +56885,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -55818,7 +56896,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -55829,7 +56907,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -55840,7 +56918,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -55851,7 +56929,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -55862,7 +56940,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -55873,7 +56951,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -55884,7 +56962,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -55895,7 +56973,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -55906,7 +56984,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -55917,7 +56995,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -55928,7 +57006,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -55939,7 +57017,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -55950,7 +57028,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -55961,7 +57039,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -55972,7 +57050,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -55983,7 +57061,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -55994,7 +57072,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -56005,7 +57083,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -56016,7 +57094,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -56027,7 +57105,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -56038,7 +57116,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -56049,7 +57127,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -56060,7 +57138,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -56071,7 +57149,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -56082,7 +57160,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -56093,7 +57171,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -56104,7 +57182,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -56115,7 +57193,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -56126,7 +57204,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -56137,7 +57215,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -56148,7 +57226,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -56159,7 +57237,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -56170,7 +57248,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -56181,7 +57259,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -56192,7 +57270,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -56203,7 +57281,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -56214,7 +57292,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -56225,7 +57303,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -56236,7 +57314,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -56247,7 +57325,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -56258,7 +57336,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -56269,7 +57347,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -56280,7 +57358,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -56291,7 +57369,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -56302,7 +57380,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -56313,7 +57391,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -56324,7 +57402,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -56335,7 +57413,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -56346,7 +57424,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -56357,7 +57435,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -56368,7 +57446,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -56379,7 +57457,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -56390,7 +57468,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -56401,7 +57479,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -56412,7 +57490,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -56423,7 +57501,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -56434,7 +57512,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -56445,7 +57523,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -56456,7 +57534,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -56467,7 +57545,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -56478,7 +57556,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -56489,7 +57567,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -56500,7 +57578,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -56511,7 +57589,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -56531,7 +57609,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -56542,7 +57620,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -56553,7 +57631,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -56564,7 +57642,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -56575,7 +57653,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -56586,7 +57664,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -56597,7 +57675,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -56608,7 +57686,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -56619,7 +57697,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -56630,7 +57708,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -56641,7 +57719,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -56652,7 +57730,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -56663,7 +57741,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -56674,7 +57752,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -56685,7 +57763,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -56696,7 +57774,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="176">
@@ -56704,7 +57782,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -56715,7 +57793,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -56726,7 +57804,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -56737,7 +57815,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -56748,7 +57826,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -56759,7 +57837,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -56770,7 +57848,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -56781,7 +57859,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -56792,7 +57870,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -56803,7 +57881,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -56814,7 +57892,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -56825,7 +57903,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -56836,7 +57914,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -56847,7 +57925,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -56858,7 +57936,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -56869,7 +57947,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -56880,7 +57958,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -56891,7 +57969,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -56902,7 +57980,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -56913,7 +57991,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -56924,7 +58002,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -56935,7 +58013,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -56946,7 +58024,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -56957,7 +58035,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -56968,7 +58046,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -56979,7 +58057,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2926</v>
+        <v>3014</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -56990,7 +58068,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2925</v>
+        <v>3013</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>
@@ -59389,6 +60467,2046 @@
     </row>
     <row r="1000">
       <c r="A1000" s="9"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="35.5"/>
+    <col customWidth="1" min="2" max="3" width="44.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12481" uniqueCount="3017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12842" uniqueCount="3114">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -9026,6 +9026,297 @@
   </si>
   <si>
     <t>Honourable mention: Cupra Leon Sportstourer269k 0-100 4.9s</t>
+  </si>
+  <si>
+    <t>2025-05-31T14-30-05-013Z</t>
+  </si>
+  <si>
+    <t>inputs/sgcmchat_messages191_part3.csv</t>
+  </si>
+  <si>
+    <t>i will probs go down next month when i receive the car</t>
+  </si>
+  <si>
+    <t>i will probably go down next month when i have received the car</t>
+  </si>
+  <si>
+    <t>so far i got one recc to try there</t>
+  </si>
+  <si>
+    <t>so far i have gotten one recc to try it there</t>
+  </si>
+  <si>
+    <t>i'll prolly visit them this week</t>
+  </si>
+  <si>
+    <t>All for sale collection at cnk tmr!</t>
+  </si>
+  <si>
+    <t>Pm for prices  buy more  more discount</t>
+  </si>
+  <si>
+    <t>Pm for the prices. if you buy more, you get greater discount</t>
+  </si>
+  <si>
+    <t>This too is for sale pm for price!</t>
+  </si>
+  <si>
+    <t>This, too, is for sale. PM for the price!</t>
+  </si>
+  <si>
+    <t>Anyone going for coffee at Dempsey tomorrow morning?</t>
+  </si>
+  <si>
+    <t>Is anyone going for coffee at Dempsey Road tomorrow morning?</t>
+  </si>
+  <si>
+    <t>Bro your clip cant even reach 0:01</t>
+  </si>
+  <si>
+    <t>Bro, your clip cant even reach 0:01</t>
+  </si>
+  <si>
+    <t>anyone at dempsey can update the turnout</t>
+  </si>
+  <si>
+    <t>is there anyone at dempsey road now that can update us regarding the turnout</t>
+  </si>
+  <si>
+    <t>a lot of cars no space to park</t>
+  </si>
+  <si>
+    <t>a lot of cars around, there is no available space to park the car</t>
+  </si>
+  <si>
+    <t>It’s better now. A few groups left.</t>
+  </si>
+  <si>
+    <t>It’s better now. A few groups have left.</t>
+  </si>
+  <si>
+    <t>chat i saw the medusa going past opposite demsey bus stop</t>
+  </si>
+  <si>
+    <t>chat, i saw the medusa going past the bus stop that is across demsey road.</t>
+  </si>
+  <si>
+    <t>camera battery pack died and after i left this thing pulls up my timing is impeccable</t>
+  </si>
+  <si>
+    <t>camera battery pack died and after i left, this thing pulls up. My timing is impeccable</t>
+  </si>
+  <si>
+    <t>Anyone manage to take photos or videos of the Alfas?</t>
+  </si>
+  <si>
+    <t>Anyone managed to take photos or videos of the Alfas?</t>
+  </si>
+  <si>
+    <t>not a 1.6 convert for once 🤣</t>
+  </si>
+  <si>
+    <t>not a 1.6 conversion for once 🤣</t>
+  </si>
+  <si>
+    <t>Can’t tell the diff between r8s and s2000s</t>
+  </si>
+  <si>
+    <t>one is 1992 more than the other</t>
+  </si>
+  <si>
+    <t>Almost couldn't get a parking lot</t>
+  </si>
+  <si>
+    <t>I could barely get a parking lot</t>
+  </si>
+  <si>
+    <t>My aunty gave me consent form to do so</t>
+  </si>
+  <si>
+    <t>My aunty gave me consent to do so</t>
+  </si>
+  <si>
+    <t>ohh so u play wif  ur aunty ah</t>
+  </si>
+  <si>
+    <t>ohh so u play with ur auntie</t>
+  </si>
+  <si>
+    <t>i only play bacarat with her on cny</t>
+  </si>
+  <si>
+    <t>anyone here knows why the car wont start even after wiring</t>
+  </si>
+  <si>
+    <t>anyone on here knows why the car wont start even after wiring it?</t>
+  </si>
+  <si>
+    <t>maybe both car battery flat liao (jk)</t>
+  </si>
+  <si>
+    <t>maybe both car batteries are already flat (jk)</t>
+  </si>
+  <si>
+    <t>have you tested if the battery is dead?</t>
+  </si>
+  <si>
+    <t>have you tested to check if the battery is dead?</t>
+  </si>
+  <si>
+    <t>are you sure the jumper cables are connected properly?</t>
+  </si>
+  <si>
+    <t>are you sure the jumper cables are properly connected?</t>
+  </si>
+  <si>
+    <t>pos to pos neg to neg</t>
+  </si>
+  <si>
+    <t>pos to pos, neg to neg</t>
+  </si>
+  <si>
+    <t>can the car be placed in accessories mode?</t>
+  </si>
+  <si>
+    <t>worst case scenario call a mobile mechanic bah</t>
+  </si>
+  <si>
+    <t>In the worst case scenario, you can  probably call a mobile mechanic</t>
+  </si>
+  <si>
+    <t>bah</t>
+  </si>
+  <si>
+    <t>soften command, suggestion</t>
+  </si>
+  <si>
+    <t>I like the watermark  very good very nice</t>
+  </si>
+  <si>
+    <t>I like the watermark; very good, very nice</t>
+  </si>
+  <si>
+    <t>thank you bro new design ah 🤓</t>
+  </si>
+  <si>
+    <t>thank you bro, is this a new design? 🤓</t>
+  </si>
+  <si>
+    <t>I know settled alr   but next time if it happens can check starter motor fuse in the fuse box too   sometimes the fuse blown Haha</t>
+  </si>
+  <si>
+    <t>I know this is already settled but next time if it happens, you can check the starter motor fuse in the fuse box too. Sometimes the fuse has blown</t>
+  </si>
+  <si>
+    <t>just make sure vtec solenoid opens every so often 😛</t>
+  </si>
+  <si>
+    <t>just make sure the vtec solenoid opens every so often 😛</t>
+  </si>
+  <si>
+    <t>the crazy racist mrt lady from hwa chong was there</t>
+  </si>
+  <si>
+    <t>more rare than lbwk avent bro</t>
+  </si>
+  <si>
+    <t>it is more rare than lbwk avent bro</t>
+  </si>
+  <si>
+    <t>@/thoseat mw jn yall can try spot yourselves here</t>
+  </si>
+  <si>
+    <t>wasn't he in this chat once</t>
+  </si>
+  <si>
+    <t>wasn't he in this chat previously?</t>
+  </si>
+  <si>
+    <t>My favourite is squidward from SpongeBob</t>
+  </si>
+  <si>
+    <t>My favourite character is squidward from SpongeBob</t>
+  </si>
+  <si>
+    <t>You know what’s so iconic about this car is that if you say the license plate out loud  it’s “sexy”</t>
+  </si>
+  <si>
+    <t>You know what’s so iconic about this car is that if you say the license plate out loud it’s “sexy”</t>
+  </si>
+  <si>
+    <t>Where is the exact location of this place? So when i come back to sg  i know where I'm gonna spot.Thank you!</t>
+  </si>
+  <si>
+    <t>Where is the exact location of this place? So that when i come back to sg, i know where I'm gonna try to spot it. Thank you!</t>
+  </si>
+  <si>
+    <t>Saw the yellow top taxi again</t>
+  </si>
+  <si>
+    <t>josh are u also a yellow top</t>
+  </si>
+  <si>
+    <t>Join this group to get updates:https://t.me/sgcarmeets</t>
+  </si>
+  <si>
+    <t>bro i nearly banned u on instinct</t>
+  </si>
+  <si>
+    <t>bro, i have nearly banned u out of instinct</t>
+  </si>
+  <si>
+    <t>no la i think is those premium one go airport pickup those ppl one</t>
+  </si>
+  <si>
+    <t>nah i think they are the premium ones that are used to fetch those passengers from the airport</t>
+  </si>
+  <si>
+    <t>Then this one is the other cab company competition</t>
+  </si>
+  <si>
+    <t>Then this is the other competition of the cab company</t>
+  </si>
+  <si>
+    <t>wah nice. hope its gonna come out of the dealership for good soon</t>
+  </si>
+  <si>
+    <t>wow that's nice. hopefully it's gonna come out of the dealership for good soon</t>
+  </si>
+  <si>
+    <t>[Ad Message]Shell has sent SCM information on a special promotion this May and we’d like to share it with you guys!From 3-5 May and 10-12 May  you can fuel up with Shell’s V Power for the price of Shell FuelSave 98!Enjoy maximum engine performance with Shell V-Power which 100% cleans critical engine parts  designed to help your engine run more efficiently and perform at its best. Fill after fill  Drive after drive.More information on Shell V-Power at the promotional price of Shell FuelSave 98 can be foundhere:www.shell.com.sg/shellvpowerV-Power promotion:📍 Any Shell Singapore gas stations📆 3 May  7am to 5 May  10pm</t>
+  </si>
+  <si>
+    <t>[Ad Message]From 2 – 31 May  enjoy manual car washes at only S$8 per wash (U.P S$12) when you fuel up with Shell V-Power! This offer entitles you to UNLIMITED REDEMPTIONS FOR 30 DAYS*!• For existing Shell GO+ members◦ Enjoy a car wash at only S$8 per wash when youaccumulate 60L of Shell V-Power pumped.• For new Shell GO+ members◦ Enjoy a manual car wash for only S$8 withS$88 spent on Shell V-Powerin the same single transaction.Promotion conditions- S$8 per car wash apply to Sedans  MPVs  and SUVs only.- $8 per car wash voucher will be valid for 30 days and up to 99x redemptions*- Shell Car Wash can be found at the following stations:Shell Car Wash | Shell Singapore- Visithttps://shell.com.sg/Vpowerfor more information📍 All Shell Singapore gas stations📆 2-31 May 2024</t>
+  </si>
+  <si>
+    <t>scm members got special discount anot</t>
+  </si>
+  <si>
+    <t>are there any special discounts for scm members</t>
+  </si>
+  <si>
+    <t>i don't think ppl that pump v-power will subject their cars to a shell wash lol</t>
+  </si>
+  <si>
+    <t>i don't think ppl that uses v-power petrol will subject their cars to a car wash at shell lol</t>
+  </si>
+  <si>
+    <t>2025-06-02T11-09-35-953Z</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages270_part3.csv</t>
+  </si>
+  <si>
+    <t>no siaolang is kinda fun to certain extend</t>
+  </si>
+  <si>
+    <t>no crazy people is kinda fun to a certain extend</t>
+  </si>
+  <si>
+    <t>i told her a lame ass joke that i doubt my friends would laugh</t>
+  </si>
+  <si>
+    <t>i told her a lame ass joke that i doubt my friends would even laugh</t>
   </si>
   <si>
     <t>Name</t>
@@ -51839,524 +52130,1352 @@
       </c>
     </row>
     <row r="1615">
-      <c r="A1615" s="1"/>
-      <c r="B1615" s="2"/>
-      <c r="C1615" s="2"/>
-      <c r="D1615" s="2"/>
-      <c r="E1615" s="2"/>
-      <c r="F1615" s="2"/>
-      <c r="G1615" s="2"/>
-      <c r="H1615" s="2"/>
+      <c r="A1615" s="1">
+        <v>45808.44917280093</v>
+      </c>
+      <c r="B1615" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1615" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1615" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1615" s="2" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F1615" s="2" t="s">
+        <v>3007</v>
+      </c>
+      <c r="G1615" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1615" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1616">
-      <c r="A1616" s="1"/>
-      <c r="B1616" s="2"/>
-      <c r="C1616" s="2"/>
-      <c r="D1616" s="2"/>
-      <c r="E1616" s="2"/>
-      <c r="F1616" s="2"/>
-      <c r="G1616" s="2"/>
-      <c r="H1616" s="2"/>
+      <c r="A1616" s="1">
+        <v>45808.45120962963</v>
+      </c>
+      <c r="B1616" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1616" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1616" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1616" s="2" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F1616" s="2" t="s">
+        <v>3009</v>
+      </c>
+      <c r="G1616" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1616" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1617">
-      <c r="A1617" s="1"/>
-      <c r="B1617" s="2"/>
-      <c r="C1617" s="2"/>
-      <c r="D1617" s="2"/>
-      <c r="E1617" s="2"/>
-      <c r="F1617" s="2"/>
-      <c r="G1617" s="2"/>
-      <c r="H1617" s="2"/>
+      <c r="A1617" s="1">
+        <v>45808.45131878472</v>
+      </c>
+      <c r="B1617" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1617" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1617" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1617" s="2" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1617" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1617" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1617" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1618">
-      <c r="A1618" s="1"/>
-      <c r="B1618" s="2"/>
-      <c r="C1618" s="2"/>
-      <c r="D1618" s="2"/>
-      <c r="E1618" s="2"/>
+      <c r="A1618" s="1">
+        <v>45808.451482951394</v>
+      </c>
+      <c r="B1618" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1618" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1618" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1618" s="2" t="s">
+        <v>3011</v>
+      </c>
       <c r="F1618" s="2"/>
-      <c r="G1618" s="2"/>
-      <c r="H1618" s="2"/>
+      <c r="G1618" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1618" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1619">
-      <c r="A1619" s="1"/>
-      <c r="B1619" s="2"/>
-      <c r="C1619" s="2"/>
-      <c r="D1619" s="2"/>
-      <c r="E1619" s="2"/>
-      <c r="F1619" s="2"/>
-      <c r="G1619" s="2"/>
-      <c r="H1619" s="2"/>
+      <c r="A1619" s="1">
+        <v>45808.45176675926</v>
+      </c>
+      <c r="B1619" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1619" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1619" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1619" s="2" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F1619" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="G1619" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1619" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1620">
-      <c r="A1620" s="1"/>
-      <c r="B1620" s="2"/>
-      <c r="C1620" s="2"/>
-      <c r="D1620" s="2"/>
-      <c r="E1620" s="2"/>
-      <c r="F1620" s="2"/>
-      <c r="G1620" s="2"/>
-      <c r="H1620" s="2"/>
+      <c r="A1620" s="1">
+        <v>45808.452427083335</v>
+      </c>
+      <c r="B1620" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1620" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1620" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1620" s="2" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F1620" s="2" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G1620" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1620" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1621">
-      <c r="A1621" s="1"/>
-      <c r="B1621" s="2"/>
-      <c r="C1621" s="2"/>
-      <c r="D1621" s="2"/>
-      <c r="E1621" s="2"/>
-      <c r="F1621" s="2"/>
-      <c r="G1621" s="2"/>
-      <c r="H1621" s="2"/>
+      <c r="A1621" s="1">
+        <v>45808.45310059028</v>
+      </c>
+      <c r="B1621" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1621" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1621" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1621" s="2" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F1621" s="2" t="s">
+        <v>3017</v>
+      </c>
+      <c r="G1621" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1621" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1622">
-      <c r="A1622" s="1"/>
-      <c r="B1622" s="2"/>
-      <c r="C1622" s="2"/>
-      <c r="D1622" s="2"/>
-      <c r="E1622" s="2"/>
-      <c r="F1622" s="2"/>
-      <c r="G1622" s="2"/>
-      <c r="H1622" s="2"/>
+      <c r="A1622" s="1">
+        <v>45808.45356219907</v>
+      </c>
+      <c r="B1622" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1622" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1622" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1622" s="2" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F1622" s="2" t="s">
+        <v>3019</v>
+      </c>
+      <c r="G1622" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1622" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1623">
-      <c r="A1623" s="1"/>
-      <c r="B1623" s="2"/>
-      <c r="C1623" s="2"/>
-      <c r="D1623" s="2"/>
-      <c r="E1623" s="2"/>
-      <c r="F1623" s="2"/>
-      <c r="G1623" s="2"/>
-      <c r="H1623" s="2"/>
+      <c r="A1623" s="1">
+        <v>45808.45405</v>
+      </c>
+      <c r="B1623" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1623" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1623" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1623" s="2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F1623" s="2" t="s">
+        <v>3021</v>
+      </c>
+      <c r="G1623" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1623" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1624">
-      <c r="A1624" s="1"/>
-      <c r="B1624" s="2"/>
-      <c r="C1624" s="2"/>
-      <c r="D1624" s="2"/>
-      <c r="E1624" s="2"/>
-      <c r="F1624" s="2"/>
-      <c r="G1624" s="2"/>
-      <c r="H1624" s="2"/>
+      <c r="A1624" s="1">
+        <v>45808.454365011574</v>
+      </c>
+      <c r="B1624" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1624" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1624" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1624" s="2" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F1624" s="2" t="s">
+        <v>3023</v>
+      </c>
+      <c r="G1624" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1624" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1625">
-      <c r="A1625" s="1"/>
-      <c r="B1625" s="2"/>
-      <c r="C1625" s="2"/>
-      <c r="D1625" s="2"/>
-      <c r="E1625" s="2"/>
-      <c r="F1625" s="2"/>
-      <c r="G1625" s="2"/>
-      <c r="H1625" s="2"/>
+      <c r="A1625" s="1">
+        <v>45808.45449957176</v>
+      </c>
+      <c r="B1625" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1625" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1625" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1625" s="2" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F1625" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="G1625" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1625" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1626">
-      <c r="A1626" s="1"/>
-      <c r="B1626" s="2"/>
-      <c r="C1626" s="2"/>
-      <c r="D1626" s="2"/>
-      <c r="E1626" s="2"/>
-      <c r="F1626" s="2"/>
-      <c r="G1626" s="2"/>
-      <c r="H1626" s="2"/>
+      <c r="A1626" s="1">
+        <v>45808.45493457176</v>
+      </c>
+      <c r="B1626" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1626" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1626" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1626" s="2" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F1626" s="2" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G1626" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1626" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1627">
-      <c r="A1627" s="1"/>
-      <c r="B1627" s="2"/>
-      <c r="C1627" s="2"/>
-      <c r="D1627" s="2"/>
-      <c r="E1627" s="2"/>
-      <c r="F1627" s="2"/>
-      <c r="G1627" s="2"/>
-      <c r="H1627" s="2"/>
+      <c r="A1627" s="1">
+        <v>45808.45520096065</v>
+      </c>
+      <c r="B1627" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1627" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1627" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1627" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F1627" s="2" t="s">
+        <v>3029</v>
+      </c>
+      <c r="G1627" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1627" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1628">
-      <c r="A1628" s="1"/>
-      <c r="B1628" s="2"/>
-      <c r="C1628" s="2"/>
-      <c r="D1628" s="2"/>
-      <c r="E1628" s="2"/>
-      <c r="F1628" s="2"/>
-      <c r="G1628" s="2"/>
-      <c r="H1628" s="2"/>
+      <c r="A1628" s="1">
+        <v>45808.455328634256</v>
+      </c>
+      <c r="B1628" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1628" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1628" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1628" s="2" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F1628" s="2" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G1628" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1628" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1629">
-      <c r="A1629" s="1"/>
-      <c r="B1629" s="2"/>
-      <c r="C1629" s="2"/>
-      <c r="D1629" s="2"/>
-      <c r="E1629" s="2"/>
-      <c r="F1629" s="2"/>
-      <c r="G1629" s="2"/>
-      <c r="H1629" s="2"/>
+      <c r="A1629" s="1">
+        <v>45808.45546935185</v>
+      </c>
+      <c r="B1629" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1629" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1629" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1629" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="F1629" s="2" t="s">
+        <v>3033</v>
+      </c>
+      <c r="G1629" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1629" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1630">
-      <c r="A1630" s="1"/>
-      <c r="B1630" s="2"/>
-      <c r="C1630" s="2"/>
-      <c r="D1630" s="2"/>
-      <c r="E1630" s="2"/>
-      <c r="F1630" s="2"/>
-      <c r="G1630" s="2"/>
-      <c r="H1630" s="2"/>
+      <c r="A1630" s="1">
+        <v>45808.45561534722</v>
+      </c>
+      <c r="B1630" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1630" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1630" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1630" s="2" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F1630" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1630" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1630" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1631">
-      <c r="A1631" s="1"/>
-      <c r="B1631" s="2"/>
-      <c r="C1631" s="2"/>
-      <c r="D1631" s="2"/>
-      <c r="E1631" s="2"/>
-      <c r="F1631" s="2"/>
-      <c r="G1631" s="2"/>
-      <c r="H1631" s="2"/>
+      <c r="A1631" s="1">
+        <v>45808.455799664356</v>
+      </c>
+      <c r="B1631" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1631" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1631" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1631" s="2" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F1631" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1631" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1631" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1632">
-      <c r="A1632" s="1"/>
-      <c r="B1632" s="2"/>
-      <c r="C1632" s="2"/>
-      <c r="D1632" s="2"/>
-      <c r="E1632" s="2"/>
-      <c r="F1632" s="2"/>
-      <c r="G1632" s="2"/>
-      <c r="H1632" s="2"/>
+      <c r="A1632" s="1">
+        <v>45808.45601596065</v>
+      </c>
+      <c r="B1632" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1632" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1632" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1632" s="2" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F1632" s="2" t="s">
+        <v>3037</v>
+      </c>
+      <c r="G1632" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1632" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1633">
-      <c r="A1633" s="1"/>
-      <c r="B1633" s="2"/>
-      <c r="C1633" s="2"/>
-      <c r="D1633" s="2"/>
-      <c r="E1633" s="2"/>
-      <c r="F1633" s="2"/>
-      <c r="G1633" s="2"/>
-      <c r="H1633" s="2"/>
+      <c r="A1633" s="1">
+        <v>45808.45616563657</v>
+      </c>
+      <c r="B1633" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1633" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1633" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1633" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F1633" s="2" t="s">
+        <v>3039</v>
+      </c>
+      <c r="G1633" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1633" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1634">
-      <c r="A1634" s="1"/>
-      <c r="B1634" s="2"/>
-      <c r="C1634" s="2"/>
-      <c r="D1634" s="2"/>
-      <c r="E1634" s="2"/>
-      <c r="F1634" s="2"/>
-      <c r="G1634" s="2"/>
-      <c r="H1634" s="2"/>
+      <c r="A1634" s="1">
+        <v>45808.45639921296</v>
+      </c>
+      <c r="B1634" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1634" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1634" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1634" s="2" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F1634" s="2" t="s">
+        <v>3041</v>
+      </c>
+      <c r="G1634" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1634" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1635">
-      <c r="A1635" s="1"/>
-      <c r="B1635" s="2"/>
-      <c r="C1635" s="2"/>
-      <c r="D1635" s="2"/>
-      <c r="E1635" s="2"/>
-      <c r="F1635" s="2"/>
-      <c r="G1635" s="2"/>
-      <c r="H1635" s="2"/>
+      <c r="A1635" s="1">
+        <v>45808.45657717592</v>
+      </c>
+      <c r="B1635" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1635" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1635" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1635" s="2" t="s">
+        <v>3042</v>
+      </c>
+      <c r="F1635" s="2" t="s">
+        <v>3042</v>
+      </c>
+      <c r="G1635" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1635" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1636">
-      <c r="A1636" s="1"/>
-      <c r="B1636" s="2"/>
-      <c r="C1636" s="2"/>
-      <c r="D1636" s="2"/>
-      <c r="E1636" s="2"/>
-      <c r="F1636" s="2"/>
-      <c r="G1636" s="2"/>
-      <c r="H1636" s="2"/>
+      <c r="A1636" s="1">
+        <v>45808.45676457176</v>
+      </c>
+      <c r="B1636" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1636" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1636" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1636" s="2" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F1636" s="2" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G1636" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1636" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1637">
-      <c r="A1637" s="1"/>
-      <c r="B1637" s="2"/>
-      <c r="C1637" s="2"/>
-      <c r="D1637" s="2"/>
-      <c r="E1637" s="2"/>
-      <c r="F1637" s="2"/>
-      <c r="G1637" s="2"/>
-      <c r="H1637" s="2"/>
+      <c r="A1637" s="1">
+        <v>45808.45707229167</v>
+      </c>
+      <c r="B1637" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1637" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1637" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1637" s="2" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F1637" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G1637" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1637" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1637" s="2" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="1638">
-      <c r="A1638" s="1"/>
-      <c r="B1638" s="2"/>
-      <c r="C1638" s="2"/>
-      <c r="D1638" s="2"/>
-      <c r="E1638" s="2"/>
-      <c r="F1638" s="2"/>
-      <c r="G1638" s="2"/>
-      <c r="H1638" s="2"/>
+      <c r="A1638" s="1">
+        <v>45808.45726768518</v>
+      </c>
+      <c r="B1638" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1638" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1638" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1638" s="2" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F1638" s="2" t="s">
+        <v>3048</v>
+      </c>
+      <c r="G1638" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1638" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1639">
-      <c r="A1639" s="1"/>
-      <c r="B1639" s="2"/>
-      <c r="C1639" s="2"/>
-      <c r="D1639" s="2"/>
-      <c r="E1639" s="2"/>
-      <c r="F1639" s="2"/>
-      <c r="G1639" s="2"/>
-      <c r="H1639" s="2"/>
+      <c r="A1639" s="1">
+        <v>45808.45741505787</v>
+      </c>
+      <c r="B1639" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1639" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1639" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1639" s="2" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F1639" s="2" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G1639" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1639" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1640">
-      <c r="A1640" s="1"/>
-      <c r="B1640" s="2"/>
-      <c r="C1640" s="2"/>
-      <c r="D1640" s="2"/>
-      <c r="E1640" s="2"/>
-      <c r="F1640" s="2"/>
-      <c r="G1640" s="2"/>
-      <c r="H1640" s="2"/>
+      <c r="A1640" s="1">
+        <v>45808.45756082176</v>
+      </c>
+      <c r="B1640" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1640" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1640" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1640" s="2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="F1640" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G1640" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1640" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1641">
-      <c r="A1641" s="1"/>
-      <c r="B1641" s="2"/>
-      <c r="C1641" s="2"/>
-      <c r="D1641" s="2"/>
-      <c r="E1641" s="2"/>
-      <c r="F1641" s="2"/>
-      <c r="G1641" s="2"/>
-      <c r="H1641" s="2"/>
+      <c r="A1641" s="1">
+        <v>45808.457657858795</v>
+      </c>
+      <c r="B1641" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1641" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1641" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1641" s="2" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F1641" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1641" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1641" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1642">
-      <c r="A1642" s="1"/>
-      <c r="B1642" s="2"/>
-      <c r="C1642" s="2"/>
-      <c r="D1642" s="2"/>
-      <c r="E1642" s="2"/>
-      <c r="F1642" s="2"/>
-      <c r="G1642" s="2"/>
-      <c r="H1642" s="2"/>
+      <c r="A1642" s="1">
+        <v>45808.458154733795</v>
+      </c>
+      <c r="B1642" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1642" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1642" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1642" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="F1642" s="2" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G1642" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1642" s="2" t="s">
+        <v>3056</v>
+      </c>
+      <c r="I1642" s="2" t="s">
+        <v>3057</v>
+      </c>
     </row>
     <row r="1643">
-      <c r="A1643" s="1"/>
-      <c r="B1643" s="2"/>
-      <c r="C1643" s="2"/>
-      <c r="D1643" s="2"/>
-      <c r="E1643" s="2"/>
-      <c r="F1643" s="2"/>
-      <c r="G1643" s="2"/>
-      <c r="H1643" s="2"/>
+      <c r="A1643" s="1">
+        <v>45808.458302037034</v>
+      </c>
+      <c r="B1643" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1643" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1643" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1643" s="2" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F1643" s="2" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G1643" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1643" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1644">
-      <c r="A1644" s="1"/>
-      <c r="B1644" s="2"/>
-      <c r="C1644" s="2"/>
-      <c r="D1644" s="2"/>
-      <c r="E1644" s="2"/>
-      <c r="F1644" s="2"/>
-      <c r="G1644" s="2"/>
-      <c r="H1644" s="2"/>
+      <c r="A1644" s="1">
+        <v>45808.45844545139</v>
+      </c>
+      <c r="B1644" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1644" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1644" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1644" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="F1644" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="G1644" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1644" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1645">
-      <c r="A1645" s="1"/>
-      <c r="B1645" s="2"/>
-      <c r="C1645" s="2"/>
-      <c r="D1645" s="2"/>
-      <c r="E1645" s="2"/>
-      <c r="F1645" s="2"/>
-      <c r="G1645" s="2"/>
-      <c r="H1645" s="2"/>
+      <c r="A1645" s="1">
+        <v>45808.45878752315</v>
+      </c>
+      <c r="B1645" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1645" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1645" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1645" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F1645" s="2" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G1645" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1645" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1646">
-      <c r="A1646" s="1"/>
-      <c r="B1646" s="2"/>
-      <c r="C1646" s="2"/>
-      <c r="D1646" s="2"/>
-      <c r="E1646" s="2"/>
-      <c r="F1646" s="2"/>
-      <c r="G1646" s="2"/>
-      <c r="H1646" s="2"/>
+      <c r="A1646" s="1">
+        <v>45808.45912587963</v>
+      </c>
+      <c r="B1646" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1646" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1646" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1646" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F1646" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G1646" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1646" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1647">
-      <c r="A1647" s="1"/>
-      <c r="B1647" s="2"/>
-      <c r="C1647" s="2"/>
-      <c r="D1647" s="2"/>
-      <c r="E1647" s="2"/>
-      <c r="F1647" s="2"/>
-      <c r="G1647" s="2"/>
-      <c r="H1647" s="2"/>
+      <c r="A1647" s="1">
+        <v>45808.459303298616</v>
+      </c>
+      <c r="B1647" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1647" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1647" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1647" s="2" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F1647" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1647" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1647" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1648">
-      <c r="A1648" s="1"/>
-      <c r="B1648" s="2"/>
-      <c r="C1648" s="2"/>
-      <c r="D1648" s="2"/>
-      <c r="E1648" s="2"/>
-      <c r="F1648" s="2"/>
-      <c r="G1648" s="2"/>
-      <c r="H1648" s="2"/>
+      <c r="A1648" s="1">
+        <v>45808.459435613426</v>
+      </c>
+      <c r="B1648" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1648" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1648" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1648" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F1648" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="G1648" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1648" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1649">
-      <c r="A1649" s="1"/>
-      <c r="B1649" s="2"/>
-      <c r="C1649" s="2"/>
-      <c r="D1649" s="2"/>
-      <c r="E1649" s="2"/>
+      <c r="A1649" s="1">
+        <v>45808.45960565972</v>
+      </c>
+      <c r="B1649" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1649" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1649" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1649" s="2" t="s">
+        <v>3069</v>
+      </c>
       <c r="F1649" s="2"/>
-      <c r="G1649" s="2"/>
-      <c r="H1649" s="2"/>
+      <c r="G1649" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1649" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1650">
-      <c r="A1650" s="1"/>
-      <c r="B1650" s="2"/>
-      <c r="C1650" s="2"/>
-      <c r="D1650" s="2"/>
-      <c r="E1650" s="2"/>
-      <c r="F1650" s="2"/>
-      <c r="G1650" s="2"/>
-      <c r="H1650" s="2"/>
+      <c r="A1650" s="1">
+        <v>45808.45971542824</v>
+      </c>
+      <c r="B1650" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1650" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1650" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1650" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F1650" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="G1650" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1650" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1651">
-      <c r="A1651" s="1"/>
-      <c r="B1651" s="2"/>
-      <c r="C1651" s="2"/>
-      <c r="D1651" s="2"/>
-      <c r="E1651" s="2"/>
-      <c r="F1651" s="2"/>
-      <c r="G1651" s="2"/>
-      <c r="H1651" s="2"/>
+      <c r="A1651" s="1">
+        <v>45808.45983600694</v>
+      </c>
+      <c r="B1651" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1651" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1651" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1651" s="2" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F1651" s="2" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G1651" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1651" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1652">
-      <c r="A1652" s="1"/>
-      <c r="B1652" s="2"/>
-      <c r="C1652" s="2"/>
-      <c r="D1652" s="2"/>
-      <c r="E1652" s="2"/>
-      <c r="F1652" s="2"/>
-      <c r="G1652" s="2"/>
-      <c r="H1652" s="2"/>
+      <c r="A1652" s="1">
+        <v>45808.4600619213</v>
+      </c>
+      <c r="B1652" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1652" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1652" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1652" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="F1652" s="2" t="s">
+        <v>3075</v>
+      </c>
+      <c r="G1652" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1652" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1653">
-      <c r="A1653" s="1"/>
-      <c r="B1653" s="2"/>
-      <c r="C1653" s="2"/>
-      <c r="D1653" s="2"/>
-      <c r="E1653" s="2"/>
-      <c r="F1653" s="2"/>
-      <c r="G1653" s="2"/>
-      <c r="H1653" s="2"/>
+      <c r="A1653" s="1">
+        <v>45808.46040546296</v>
+      </c>
+      <c r="B1653" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1653" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1653" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1653" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F1653" s="2" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G1653" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1653" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1654">
-      <c r="A1654" s="1"/>
-      <c r="B1654" s="2"/>
-      <c r="C1654" s="2"/>
-      <c r="D1654" s="2"/>
-      <c r="E1654" s="2"/>
-      <c r="F1654" s="2"/>
-      <c r="G1654" s="2"/>
-      <c r="H1654" s="2"/>
+      <c r="A1654" s="1">
+        <v>45808.46049790509</v>
+      </c>
+      <c r="B1654" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1654" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1654" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1654" s="2" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F1654" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1654" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1654" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1655">
-      <c r="A1655" s="1"/>
-      <c r="B1655" s="2"/>
-      <c r="C1655" s="2"/>
-      <c r="D1655" s="2"/>
-      <c r="E1655" s="2"/>
-      <c r="F1655" s="2"/>
-      <c r="G1655" s="2"/>
-      <c r="H1655" s="2"/>
+      <c r="A1655" s="1">
+        <v>45808.46056767361</v>
+      </c>
+      <c r="B1655" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1655" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1655" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1655" s="2" t="s">
+        <v>3079</v>
+      </c>
+      <c r="F1655" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1655" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1655" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1656">
-      <c r="A1656" s="1"/>
-      <c r="B1656" s="2"/>
-      <c r="C1656" s="2"/>
-      <c r="D1656" s="2"/>
-      <c r="E1656" s="2"/>
+      <c r="A1656" s="1">
+        <v>45808.460605115746</v>
+      </c>
+      <c r="B1656" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1656" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1656" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1656" s="2" t="s">
+        <v>3080</v>
+      </c>
       <c r="F1656" s="2"/>
-      <c r="G1656" s="2"/>
-      <c r="H1656" s="2"/>
+      <c r="G1656" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1656" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1657">
-      <c r="A1657" s="1"/>
-      <c r="B1657" s="2"/>
-      <c r="C1657" s="2"/>
-      <c r="D1657" s="2"/>
-      <c r="E1657" s="2"/>
-      <c r="F1657" s="2"/>
-      <c r="G1657" s="2"/>
-      <c r="H1657" s="2"/>
+      <c r="A1657" s="1">
+        <v>45808.46082854166</v>
+      </c>
+      <c r="B1657" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1657" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1657" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1657" s="2" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F1657" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G1657" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1657" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1658">
-      <c r="A1658" s="1"/>
-      <c r="B1658" s="2"/>
-      <c r="C1658" s="2"/>
-      <c r="D1658" s="2"/>
-      <c r="E1658" s="2"/>
-      <c r="F1658" s="2"/>
-      <c r="G1658" s="2"/>
-      <c r="H1658" s="2"/>
+      <c r="A1658" s="1">
+        <v>45808.461621863426</v>
+      </c>
+      <c r="B1658" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1658" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1658" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1658" s="2" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F1658" s="2" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G1658" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1658" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1659">
-      <c r="A1659" s="1"/>
-      <c r="B1659" s="2"/>
-      <c r="C1659" s="2"/>
-      <c r="D1659" s="2"/>
-      <c r="E1659" s="2"/>
-      <c r="F1659" s="2"/>
-      <c r="G1659" s="2"/>
-      <c r="H1659" s="2"/>
+      <c r="A1659" s="1">
+        <v>45810.29663891204</v>
+      </c>
+      <c r="B1659" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1659" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1659" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1659" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F1659" s="2" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G1659" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1659" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1660">
-      <c r="A1660" s="1"/>
-      <c r="B1660" s="2"/>
-      <c r="C1660" s="2"/>
-      <c r="D1660" s="2"/>
-      <c r="E1660" s="2"/>
-      <c r="F1660" s="2"/>
-      <c r="G1660" s="2"/>
-      <c r="H1660" s="2"/>
+      <c r="A1660" s="1">
+        <v>45810.29686731481</v>
+      </c>
+      <c r="B1660" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1660" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1660" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1660" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F1660" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="G1660" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1660" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1661">
-      <c r="A1661" s="1"/>
-      <c r="B1661" s="2"/>
-      <c r="C1661" s="2"/>
-      <c r="D1661" s="2"/>
-      <c r="E1661" s="2"/>
+      <c r="A1661" s="1">
+        <v>45810.29693453704</v>
+      </c>
+      <c r="B1661" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1661" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1661" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1661" s="2" t="s">
+        <v>3089</v>
+      </c>
       <c r="F1661" s="2"/>
-      <c r="G1661" s="2"/>
-      <c r="H1661" s="2"/>
+      <c r="G1661" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1661" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1662">
-      <c r="A1662" s="1"/>
-      <c r="B1662" s="2"/>
-      <c r="C1662" s="2"/>
-      <c r="D1662" s="2"/>
-      <c r="E1662" s="2"/>
+      <c r="A1662" s="1">
+        <v>45810.29697386574</v>
+      </c>
+      <c r="B1662" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1662" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1662" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1662" s="2" t="s">
+        <v>3090</v>
+      </c>
       <c r="F1662" s="2"/>
-      <c r="G1662" s="2"/>
-      <c r="H1662" s="2"/>
+      <c r="G1662" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1662" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1663">
-      <c r="A1663" s="1"/>
-      <c r="B1663" s="2"/>
-      <c r="C1663" s="2"/>
-      <c r="D1663" s="2"/>
-      <c r="E1663" s="2"/>
-      <c r="F1663" s="2"/>
-      <c r="G1663" s="2"/>
-      <c r="H1663" s="2"/>
+      <c r="A1663" s="1">
+        <v>45810.297208715274</v>
+      </c>
+      <c r="B1663" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1663" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1663" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1663" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F1663" s="2" t="s">
+        <v>3092</v>
+      </c>
+      <c r="G1663" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1663" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1664">
-      <c r="A1664" s="1"/>
-      <c r="B1664" s="2"/>
-      <c r="C1664" s="2"/>
-      <c r="D1664" s="2"/>
-      <c r="E1664" s="2"/>
-      <c r="F1664" s="2"/>
-      <c r="G1664" s="2"/>
-      <c r="H1664" s="2"/>
+      <c r="A1664" s="1">
+        <v>45810.29768766204</v>
+      </c>
+      <c r="B1664" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1664" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1664" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1664" s="2" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F1664" s="2" t="s">
+        <v>3094</v>
+      </c>
+      <c r="G1664" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1664" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1665">
-      <c r="A1665" s="1"/>
-      <c r="B1665" s="2"/>
-      <c r="C1665" s="2"/>
-      <c r="D1665" s="2"/>
-      <c r="E1665" s="2"/>
-      <c r="F1665" s="2"/>
-      <c r="G1665" s="2"/>
-      <c r="H1665" s="2"/>
+      <c r="A1665" s="1">
+        <v>45810.29850709491</v>
+      </c>
+      <c r="B1665" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1665" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1665" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E1665" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="F1665" s="2" t="s">
+        <v>3098</v>
+      </c>
+      <c r="G1665" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1665" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1666">
-      <c r="A1666" s="1"/>
-      <c r="B1666" s="2"/>
-      <c r="C1666" s="2"/>
-      <c r="D1666" s="2"/>
-      <c r="E1666" s="2"/>
-      <c r="F1666" s="2"/>
-      <c r="G1666" s="2"/>
-      <c r="H1666" s="2"/>
+      <c r="A1666" s="1">
+        <v>45810.29867019676</v>
+      </c>
+      <c r="B1666" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1666" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1666" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E1666" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F1666" s="2" t="s">
+        <v>3100</v>
+      </c>
+      <c r="G1666" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1666" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="1"/>
@@ -55721,16 +56840,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>3004</v>
+        <v>3101</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3005</v>
+        <v>3102</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3006</v>
+        <v>3103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3007</v>
+        <v>3104</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -55747,10 +56866,10 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45806.35979</v>
+        <v>45813.31729</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3008</v>
+        <v>3105</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -55768,14 +56887,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45806.35979</v>
+        <v>45813.31729</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3009</v>
+        <v>3106</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>2038</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4">
@@ -55789,7 +56908,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45806.35979</v>
+        <v>45813.31729</v>
       </c>
     </row>
     <row r="5">
@@ -55803,7 +56922,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45806.35979</v>
+        <v>45813.31729</v>
       </c>
     </row>
     <row r="6">
@@ -55813,11 +56932,11 @@
       </c>
       <c r="B6" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45806.35979</v>
+        <v>45813.31729</v>
       </c>
     </row>
     <row r="7">
@@ -55827,11 +56946,11 @@
       </c>
       <c r="B7" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45806.35979</v>
+        <v>45813.31729</v>
       </c>
     </row>
     <row r="8">
@@ -55859,13 +56978,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3010</v>
+        <v>3107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3011</v>
+        <v>3108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3012</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="2">
@@ -55873,7 +56992,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -55884,7 +57003,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -55895,7 +57014,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -55906,7 +57025,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -55917,7 +57036,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -55928,7 +57047,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -55939,7 +57058,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -55950,7 +57069,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -55961,7 +57080,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -55972,7 +57091,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -55983,7 +57102,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -55994,7 +57113,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -56005,7 +57124,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -56016,7 +57135,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -56027,7 +57146,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -56038,7 +57157,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -56049,7 +57168,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -56060,7 +57179,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -56071,7 +57190,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -56082,7 +57201,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -56093,7 +57212,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -56104,7 +57223,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -56115,7 +57234,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -56126,7 +57245,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -56137,7 +57256,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -56148,7 +57267,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -56159,7 +57278,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -56170,7 +57289,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -56181,7 +57300,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -56192,7 +57311,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -56203,7 +57322,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -56214,7 +57333,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -56225,7 +57344,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -56236,7 +57355,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -56247,7 +57366,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -56258,7 +57377,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -56269,7 +57388,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -56280,7 +57399,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -56291,7 +57410,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -56302,7 +57421,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -56313,7 +57432,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -56324,7 +57443,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -56335,7 +57454,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -56346,7 +57465,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -56357,7 +57476,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -56368,7 +57487,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -56379,7 +57498,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -56390,7 +57509,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -56401,7 +57520,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -56412,7 +57531,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -56423,7 +57542,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -56434,7 +57553,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -56445,7 +57564,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -56456,7 +57575,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -56467,7 +57586,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -56478,7 +57597,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -56489,7 +57608,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -56500,7 +57619,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -56511,7 +57630,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -56522,7 +57641,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -56533,7 +57652,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -56544,7 +57663,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -56555,7 +57674,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -56566,7 +57685,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -56577,7 +57696,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -56588,7 +57707,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -56599,7 +57718,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -56610,7 +57729,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -56621,7 +57740,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -56632,7 +57751,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -56643,7 +57762,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -56654,7 +57773,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -56665,7 +57784,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -56676,7 +57795,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -56687,7 +57806,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -56698,7 +57817,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -56709,7 +57828,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -56720,7 +57839,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -56731,7 +57850,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -56742,7 +57861,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -56753,7 +57872,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -56764,7 +57883,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -56775,7 +57894,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -56786,7 +57905,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -56797,7 +57916,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -56808,7 +57927,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -56819,7 +57938,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -56830,7 +57949,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -56841,7 +57960,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -56852,7 +57971,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -56863,7 +57982,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -56874,7 +57993,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -56885,7 +58004,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -56896,7 +58015,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -56907,7 +58026,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -56918,7 +58037,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -56929,7 +58048,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -56940,7 +58059,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -56951,7 +58070,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -56962,7 +58081,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -56973,7 +58092,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -56984,7 +58103,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -56995,7 +58114,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -57006,7 +58125,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -57017,7 +58136,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -57028,7 +58147,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -57039,7 +58158,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -57050,7 +58169,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -57061,7 +58180,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -57072,7 +58191,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -57083,7 +58202,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -57094,7 +58213,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -57105,7 +58224,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -57116,7 +58235,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -57127,7 +58246,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -57138,7 +58257,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -57149,7 +58268,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -57160,7 +58279,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -57171,7 +58290,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -57182,7 +58301,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -57193,7 +58312,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -57204,7 +58323,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -57215,7 +58334,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -57226,7 +58345,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -57237,7 +58356,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -57248,7 +58367,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -57259,7 +58378,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -57270,7 +58389,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -57281,7 +58400,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -57292,7 +58411,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -57303,7 +58422,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -57314,7 +58433,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -57325,7 +58444,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -57336,7 +58455,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -57347,7 +58466,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -57358,7 +58477,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -57369,7 +58488,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -57380,7 +58499,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -57391,7 +58510,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -57402,7 +58521,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -57413,7 +58532,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -57424,7 +58543,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -57435,7 +58554,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -57446,7 +58565,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -57457,7 +58576,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -57468,7 +58587,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -57479,7 +58598,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -57490,7 +58609,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -57501,7 +58620,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -57512,7 +58631,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -57523,7 +58642,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -57534,7 +58653,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -57545,7 +58664,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -57556,7 +58675,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -57567,7 +58686,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -57578,7 +58697,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -57589,7 +58708,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -57609,7 +58728,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -57620,7 +58739,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -57631,7 +58750,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -57642,7 +58761,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -57653,7 +58772,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -57664,7 +58783,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -57675,7 +58794,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -57686,7 +58805,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -57697,7 +58816,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -57708,7 +58827,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -57719,7 +58838,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -57730,7 +58849,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -57741,7 +58860,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -57752,7 +58871,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -57763,7 +58882,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -57774,7 +58893,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="176">
@@ -57782,7 +58901,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -57793,7 +58912,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -57804,7 +58923,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -57815,7 +58934,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -57826,7 +58945,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -57837,7 +58956,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -57848,7 +58967,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -57859,7 +58978,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -57870,7 +58989,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -57881,7 +59000,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -57892,7 +59011,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -57903,7 +59022,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -57914,7 +59033,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -57925,7 +59044,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -57936,7 +59055,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -57947,7 +59066,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -57958,7 +59077,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -57969,7 +59088,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -57980,7 +59099,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -57991,7 +59110,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -58002,7 +59121,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -58013,7 +59132,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -58024,7 +59143,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -58035,7 +59154,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -58046,7 +59165,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -58057,7 +59176,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3014</v>
+        <v>3111</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -58068,7 +59187,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>
@@ -60489,16 +61608,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3010</v>
+        <v>3107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3015</v>
+        <v>3112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3016</v>
+        <v>3113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3012</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="2">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12842" uniqueCount="3114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13968" uniqueCount="3359">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -9319,6 +9319,738 @@
     <t>i told her a lame ass joke that i doubt my friends would even laugh</t>
   </si>
   <si>
+    <t>2025-06-05T14-36-13-836Z</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages124_part5.csv</t>
+  </si>
+  <si>
+    <t>Now still “be friend” only ah?</t>
+  </si>
+  <si>
+    <t>You would only “be friend” them?</t>
+  </si>
+  <si>
+    <t>I want go on date w you</t>
+  </si>
+  <si>
+    <t>I want go on a date w you</t>
+  </si>
+  <si>
+    <t>@bunbunweni found a video she sang the OST of hotel del luna</t>
+  </si>
+  <si>
+    <t>She sing i can feel like jin sad</t>
+  </si>
+  <si>
+    <t>The way she sings makes me feel very sad</t>
+  </si>
+  <si>
+    <t>I want to buy cny maskkkk</t>
+  </si>
+  <si>
+    <t>I want to buy the chinese new year mask</t>
+  </si>
+  <si>
+    <t>Idk what was that for lol</t>
+  </si>
+  <si>
+    <t>2025-06-05T14-39-18-151Z</t>
+  </si>
+  <si>
+    <t>inputs/sgcmchat_messages3_part2.csv</t>
+  </si>
+  <si>
+    <t>Any car also can join the car meet ?</t>
+  </si>
+  <si>
+    <t>Can any car join the car meet ?</t>
+  </si>
+  <si>
+    <t>wah what to do for 1k sia</t>
+  </si>
+  <si>
+    <t>Wow what can I do for 1k man</t>
+  </si>
+  <si>
+    <t>anyone gg HDC meet at night can tompang from mbs😅😅</t>
+  </si>
+  <si>
+    <t>If anyone is gg to the HDC meet at night, can I hitch a ride from mbs😅😅</t>
+  </si>
+  <si>
+    <t>500 more lesgo then i host car meet</t>
+  </si>
+  <si>
+    <t>500 more! let's go! And i will host a car meet</t>
+  </si>
+  <si>
+    <t>nah bro we going for real cars 😈</t>
+  </si>
+  <si>
+    <t>nah bro we are going for real cars 😈</t>
+  </si>
+  <si>
+    <t>wish i could go sia  but i gg m’sia😂</t>
+  </si>
+  <si>
+    <t>wish i could go but i am gg m’sia😂</t>
+  </si>
+  <si>
+    <t>Anyone want to buy roc R ? 😅</t>
+  </si>
+  <si>
+    <t>Anyone want to buy a roc R ? 😅</t>
+  </si>
+  <si>
+    <t>i buy hotwheels one still okay😂😂</t>
+  </si>
+  <si>
+    <t>i can buy the hotwheels version, that is still okay😂😂</t>
+  </si>
+  <si>
+    <t>are there any details fr this yet</t>
+  </si>
+  <si>
+    <t>like need sign up or anyt ah</t>
+  </si>
+  <si>
+    <t>like do we need to sign up or do anything</t>
+  </si>
+  <si>
+    <t>can check out hdc ig page</t>
+  </si>
+  <si>
+    <t>you can check out the hdc IG page</t>
+  </si>
+  <si>
+    <t>cos they say more details coming soon</t>
+  </si>
+  <si>
+    <t>cos they said that there are more details coming soon</t>
+  </si>
+  <si>
+    <t>standby ahh outside aerospace  gon be a repeat of bsmnt 1 meetup</t>
+  </si>
+  <si>
+    <t>as long as don't too rowdy can already</t>
+  </si>
+  <si>
+    <t>as long as you are not too rowdy it would be fine</t>
+  </si>
+  <si>
+    <t>like last week or 2 weeks ago</t>
+  </si>
+  <si>
+    <t>kena disperse by tp cause vv noisy</t>
+  </si>
+  <si>
+    <t>got dispersed by TP cause it was vv noisy</t>
+  </si>
+  <si>
+    <t>actually TP was jst there to spectate cos BSMNT alr told TP that they will host</t>
+  </si>
+  <si>
+    <t>actually TP was jst there to spectate cos BSMNT alr told TP that they will host it</t>
+  </si>
+  <si>
+    <t>so tp agree jst stay there look oit</t>
+  </si>
+  <si>
+    <t>so tp agree to jst stay there look at it</t>
+  </si>
+  <si>
+    <t>towards the end then ya gg</t>
+  </si>
+  <si>
+    <t>Anyone going to the meet at Giant on 25 June?</t>
+  </si>
+  <si>
+    <t>Is anyone going to the meet at Giant on 25 June?</t>
+  </si>
+  <si>
+    <t>maybe ah i host roblox car meet for 1k HAHA</t>
+  </si>
+  <si>
+    <t>maybe i can host a roblox car meet for 1k HAHA</t>
+  </si>
+  <si>
+    <t>i need study so most prob not gg also HAHAHA</t>
+  </si>
+  <si>
+    <t>i need to study so most prob not gg as well HAHAHA</t>
+  </si>
+  <si>
+    <t>giant is the ikea courts that place right</t>
+  </si>
+  <si>
+    <t>the giant you are referring to is where ikea and courts are right</t>
+  </si>
+  <si>
+    <t>west side usually no meet one😭</t>
+  </si>
+  <si>
+    <t>There is usually no meets at the west side 😭</t>
+  </si>
+  <si>
+    <t>2025-06-05T17-58-01-183Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages141_part1.csv</t>
+  </si>
+  <si>
+    <t>Anyone looking at Oceanus  looks like a turnaround story. Price moving NORTHhttps://sginvestors.io/sgx/stock/579-oceanus/share-price-history</t>
+  </si>
+  <si>
+    <t>Anyone looking at Oceanus? looks like a turnaround story. The price is moving NORTH. https://sginvestors.io/sgx/stock/579-oceanus/share-price-history</t>
+  </si>
+  <si>
+    <t>Tats y I say soon haha.. If i jump in I will giv jt 1 quarter</t>
+  </si>
+  <si>
+    <t>That's why, I said "soon" haha.. If I jump in, I will give it just 1 quarter.</t>
+  </si>
+  <si>
+    <t>Oceanus u see the no of shares issued I no more interest</t>
+  </si>
+  <si>
+    <t>If you see the number of shares issued for Oceanus, you will understand why I have no more interest.</t>
+  </si>
+  <si>
+    <t>Steady!!! How can before you change back to PCK??</t>
+  </si>
+  <si>
+    <t>Steady!!! How are you able to change back to PCK earlier??</t>
+  </si>
+  <si>
+    <t>This is penny stock up from 0.099</t>
+  </si>
+  <si>
+    <t>This is a penny stock. It was up from 0.099.</t>
+  </si>
+  <si>
+    <t>24.3b shares. To earn 1cts  they need profit $240m?</t>
+  </si>
+  <si>
+    <t>24.3b shares. To earn 1cts, they need to profit $240m?</t>
+  </si>
+  <si>
+    <t>That's why I cannot earn big</t>
+  </si>
+  <si>
+    <t>Lost 2 year bonus plus 1 year salary</t>
+  </si>
+  <si>
+    <t>But investor don care  sell first see later</t>
+  </si>
+  <si>
+    <t>But investors don't care. They sell first and see later.</t>
+  </si>
+  <si>
+    <t>He will buy back at cheap</t>
+  </si>
+  <si>
+    <t>He will buy back at a cheap price.</t>
+  </si>
+  <si>
+    <t>Now they challenging the effective rate</t>
+  </si>
+  <si>
+    <t>Now they are challenging the effective rate.</t>
+  </si>
+  <si>
+    <t>Just now watch on bcc got ppl raising concern on longevity after vaccine also</t>
+  </si>
+  <si>
+    <t>Just now I watched on bcc. There were people also raising concerns on longevity after the vaccine.</t>
+  </si>
+  <si>
+    <t>Too much antibodies inside our body  life become shorter... 😏</t>
+  </si>
+  <si>
+    <t>Life becomes shorter when there's too much antibodies inside our body...</t>
+  </si>
+  <si>
+    <t>Those people should be regretting now 😂</t>
+  </si>
+  <si>
+    <t>Please dont do stupid things. I rather u just close account and forget about it</t>
+  </si>
+  <si>
+    <t>Yea money lost can earn back. Play to your limit.</t>
+  </si>
+  <si>
+    <t>Pck earn a lot of money doing shoppee advert ma</t>
+  </si>
+  <si>
+    <t>PCK earns a lot of money doing shoppee advertisements.</t>
+  </si>
+  <si>
+    <t>indication of resignation</t>
+  </si>
+  <si>
+    <t>U r rite diversify your portfolio and set only a portion for penny stock trading and keep a portion in bank for daily spending</t>
+  </si>
+  <si>
+    <t>You are right. Diversify your portfolio and set only a portion for penny stock trading, and keep a portion in the bank for daily spending.</t>
+  </si>
+  <si>
+    <t>Intro me your master leh I wan become disciple</t>
+  </si>
+  <si>
+    <t>Introduce me to your master. I want to become a disciple.</t>
+  </si>
+  <si>
+    <t>soften the statement</t>
+  </si>
+  <si>
+    <t>Aiyo.. I was 6digits losses during covid.. So I decide to make a comeback.. Already green within 3mths</t>
+  </si>
+  <si>
+    <t>Aiyo.. I was in 6digits losses during covid.. So I decided to make a comeback... Already I'm green within 3mths.</t>
+  </si>
+  <si>
+    <t>Yup. I also lost almost 20k alr just these 2 weeks. So now I just trade small lots. Learn from mistake.</t>
+  </si>
+  <si>
+    <t>Yup. I also almost lost 20k in just these 2 weeks. So now I just trade in small lots. Learn from mistakes.</t>
+  </si>
+  <si>
+    <t>Just hardworking abit.. Work and do research lor</t>
+  </si>
+  <si>
+    <t>Just be a bit more hardworking. Work and do research.</t>
+  </si>
+  <si>
+    <t>But I still hopeful on my avarga hitting 3 series</t>
+  </si>
+  <si>
+    <t>But I am still hopeful on my average hitting a 3 series</t>
+  </si>
+  <si>
+    <t>I don't hv any masters btw</t>
+  </si>
+  <si>
+    <t>I win medical but give back recently haha</t>
+  </si>
+  <si>
+    <t>I win medical but recently gave back. haha</t>
+  </si>
+  <si>
+    <t>Of cos alot of ppl laugh at me</t>
+  </si>
+  <si>
+    <t>Of course, a lot of people laughed at me.</t>
+  </si>
+  <si>
+    <t>But net still win i think</t>
+  </si>
+  <si>
+    <t>But I think I still won in net profits.</t>
+  </si>
+  <si>
+    <t>I give back 20k medical past week sian</t>
+  </si>
+  <si>
+    <t>I gave back 20k in medical past week. Sigh.</t>
+  </si>
+  <si>
+    <t>I follow JT so closely.. Ppl just ignore it</t>
+  </si>
+  <si>
+    <t>I think I give back $3k</t>
+  </si>
+  <si>
+    <t>Drive grab can still have such an amount in yr bank account meh</t>
+  </si>
+  <si>
+    <t>If you drive Grab, you can still have such an amount in your bank account?</t>
+  </si>
+  <si>
+    <t>questioning tone</t>
+  </si>
+  <si>
+    <t>I saw this jt when it was only 0.007 but its so volatile during that period dun dare to go in</t>
+  </si>
+  <si>
+    <t>I saw this jt when it was only 0.007. But its so volatile during that period, so I don't dare to go in.</t>
+  </si>
+  <si>
+    <t>Standard ma.. Covid all hospitality tio badly</t>
+  </si>
+  <si>
+    <t>Standard. All hospitality got hurt badly during covid</t>
+  </si>
+  <si>
+    <t>express something that is obvious</t>
+  </si>
+  <si>
+    <t>"How I recovered my 6 digit loss with Jiutian"</t>
+  </si>
+  <si>
+    <t>This one I watch before.. He say he gambling addict lol</t>
+  </si>
+  <si>
+    <t>I had watched this one before... He said he was a gambling addict.</t>
+  </si>
+  <si>
+    <t>Lol mayb can get endorsement fee from them</t>
+  </si>
+  <si>
+    <t>Lol. Maybe you can get endorsement fees from them.</t>
+  </si>
+  <si>
+    <t>Those telecom  reits  hospitality everyday red</t>
+  </si>
+  <si>
+    <t>Those telecom reits and hospitality are red everyday.</t>
+  </si>
+  <si>
+    <t>Why not? Grab all retired millionaires lah..they can don't work but not so nice unemployed so.go hide behind grab...CB time still got govt grant support leh</t>
+  </si>
+  <si>
+    <t>Why not? Grab drivers are all retired millionaires... They can don't work but it's not so nice to be unemployed, so they went to hide behind Grab. During the CB time, they had govt grant support too.</t>
+  </si>
+  <si>
+    <t>lah (lah, leh)</t>
+  </si>
+  <si>
+    <t>indicates informality, soften a negative feeling</t>
+  </si>
+  <si>
+    <t>So I cashout and play Penny lor</t>
+  </si>
+  <si>
+    <t>So I cashed out and played penny</t>
+  </si>
+  <si>
+    <t>Catch some undervalued like most ppl do</t>
+  </si>
+  <si>
+    <t>Catch some undervalued stocks like most people do</t>
+  </si>
+  <si>
+    <t>I quite anti inspirational speaker... Haha</t>
+  </si>
+  <si>
+    <t>I am quite the anti-inspirational speaker... Haha</t>
+  </si>
+  <si>
+    <t>Got 7 digit dont need play stock la just put inside fixed deposit and bonds</t>
+  </si>
+  <si>
+    <t>If you have 7 digits, you don't need to play stocks. Just put inside fixed deposits and bonds.</t>
+  </si>
+  <si>
+    <t>Bcos they everyday do homework and shout</t>
+  </si>
+  <si>
+    <t>Because they do homework and shout everyday</t>
+  </si>
+  <si>
+    <t>They show their hardwork and well rewarded</t>
+  </si>
+  <si>
+    <t>They show their hardwork and are well rewarded</t>
+  </si>
+  <si>
+    <t>Like that promote them OK hor?</t>
+  </si>
+  <si>
+    <t>So you promote them like that/</t>
+  </si>
+  <si>
+    <t>The day when Amplefield close 37 will be the day the BBs decide to do so. Until then.</t>
+  </si>
+  <si>
+    <t>Always thought penny shares were more for short term play</t>
+  </si>
+  <si>
+    <t>Eg. If my thaibev share value drop a ton  i would panic less than say if i was holding onto JT or cement</t>
+  </si>
+  <si>
+    <t>Eg. If my thaibev share value dropped a ton, I would panic less than say, if I was holding on to JT or cement.</t>
+  </si>
+  <si>
+    <t>Personally not comfortable to hold as well</t>
+  </si>
+  <si>
+    <t>But I got feeling with JT</t>
+  </si>
+  <si>
+    <t>2025-06-07T13-59-30-310Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages513_part9.csv</t>
+  </si>
+  <si>
+    <t>The two people kena charge one ah</t>
+  </si>
+  <si>
+    <t>The two people were charged?</t>
+  </si>
+  <si>
+    <t>express surprise</t>
+  </si>
+  <si>
+    <t>I never think of touching my CPF.The only safe heaven before I drown in stock market</t>
+  </si>
+  <si>
+    <t>I never thought of touching my CPF. It's the only safe heaven before I drown in the stock market.</t>
+  </si>
+  <si>
+    <t>Later GIC tell you they lost it all in China investment</t>
+  </si>
+  <si>
+    <t>What if GIC tells you later that they lost it all in the China investment?</t>
+  </si>
+  <si>
+    <t>Yea and and alot more now they trace back as long as in sg got proof unable to run</t>
+  </si>
+  <si>
+    <t>Yeah, and a lot more, now that they traced back. As long as it is in SG, there's proof and they are unable to run.</t>
+  </si>
+  <si>
+    <t>That's not touching. Is getting more funds to earn 4% rather than 2.5%</t>
+  </si>
+  <si>
+    <t>they scam like 20 times then kenna caught</t>
+  </si>
+  <si>
+    <t>They scammed like 20 times then got caught</t>
+  </si>
+  <si>
+    <t>I don trusted cpf ... Only when you dead then can pass your your family members to redeem full cash 😔😔😔</t>
+  </si>
+  <si>
+    <t>I don't trust CPF... only when you're dead then you can pass to your family members to redeem full cash</t>
+  </si>
+  <si>
+    <t>Those scholars who came up with these policies need to be smarter 😂</t>
+  </si>
+  <si>
+    <t>I kept transferring funds from OA to SA many years ago to max up the SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope I can live more than 65 years old.My CPF life payout between 1.8k to 2k every month.My CPF is enhanced </t>
+  </si>
+  <si>
+    <t>You already selected the cpf life annuity?</t>
+  </si>
+  <si>
+    <t>You had already selected the CPF life annuity?</t>
+  </si>
+  <si>
+    <t>I put max to more than 200k in SA</t>
+  </si>
+  <si>
+    <t>I put to the max, more than 200k in SA.</t>
+  </si>
+  <si>
+    <t>This is the most important question in this whole night!</t>
+  </si>
+  <si>
+    <t>I won't want to buy so much annuity. It will take many many years to take back 200k  maybe if I live till 80.... Not sure which of my parent's gene I have</t>
+  </si>
+  <si>
+    <t>I hope you are well.Everyday exercise can help</t>
+  </si>
+  <si>
+    <t>Eventually... These 2.5% and 4% would be adjusted... Probably downwards</t>
+  </si>
+  <si>
+    <t>A chinese doctor ever said to sleep before 11pm. Better go sleep now. bye</t>
+  </si>
+  <si>
+    <t>I can’t remember my enhanced plan 245k or more ?I got check</t>
+  </si>
+  <si>
+    <t>I can't remember if my enhanced plan had 245k or more? I need to check.</t>
+  </si>
+  <si>
+    <t>Don't bully my bro when I'm offline</t>
+  </si>
+  <si>
+    <t>Since when I bully him .. he don bully me can Liao .. 🤭🤭🤭🤭</t>
+  </si>
+  <si>
+    <t>When do I bully him? It would be good if he doesn't bully me..</t>
+  </si>
+  <si>
+    <t>He is nice guy  don't bully people one</t>
+  </si>
+  <si>
+    <t>He is a nice guy. He doesn't bully people.</t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>You sell fish people keep bully people</t>
+  </si>
+  <si>
+    <t>You sell fish. People keep bullying other people.</t>
+  </si>
+  <si>
+    <t>Since many many years said till now.... not going to happen lah</t>
+  </si>
+  <si>
+    <t>This has been said for many many years.... it's not going to happen...</t>
+  </si>
+  <si>
+    <t>How you know he nice guy ? Don judge a book by it cover 😝😝😝</t>
+  </si>
+  <si>
+    <t>How do you know he is a nice guy? Don't judge a book by its cover</t>
+  </si>
+  <si>
+    <t>I only see u bully him  he keep quiet and I need to help scold u</t>
+  </si>
+  <si>
+    <t>I only see that you bully him and he keeps quiet, and I need to help to scold you.</t>
+  </si>
+  <si>
+    <t>He act blur only .. 😔😔😔</t>
+  </si>
+  <si>
+    <t>He was acting blur only...</t>
+  </si>
+  <si>
+    <t>Wouldn't happen as long as gov doesn't kenna major losses</t>
+  </si>
+  <si>
+    <t>Wouldn't happen as long as the government doesn't have major losses</t>
+  </si>
+  <si>
+    <t>Why lol? Really act blur ah?</t>
+  </si>
+  <si>
+    <t>Why? Really acting blur?</t>
+  </si>
+  <si>
+    <t>Yea lar . Act like a pig to eat tiger ..</t>
+  </si>
+  <si>
+    <t>Yea.. Act like a pig to eat tiger...</t>
+  </si>
+  <si>
+    <t>lah (lar)</t>
+  </si>
+  <si>
+    <t>He really don't know how to fight with you. I told you already  I'm very good at fighting hor</t>
+  </si>
+  <si>
+    <t>He really doesn't know how to fight with you. I told you already that I'm very good at fighting.</t>
+  </si>
+  <si>
+    <t>He say want to accompany me go take vaccine .. then say what give up life for me all this .. act blur 🙈</t>
+  </si>
+  <si>
+    <t>He said he wanted to accompany me to go and take the vaccine... then said he gave up his life for me and all these... acting blur..</t>
+  </si>
+  <si>
+    <t>You didn't fix a date  how he go with you</t>
+  </si>
+  <si>
+    <t>You didn't fix a date. How could he go with you?</t>
+  </si>
+  <si>
+    <t>I mentioned anytime and date .</t>
+  </si>
+  <si>
+    <t>I mentioned any time and date.</t>
+  </si>
+  <si>
+    <t>You no intention to take vaccine don't blame him</t>
+  </si>
+  <si>
+    <t>You had no intention to take the vaccine. Don't blame him.</t>
+  </si>
+  <si>
+    <t>Wait for his free time I can anytime</t>
+  </si>
+  <si>
+    <t>I'm waiting for his free time. I can do anytime.</t>
+  </si>
+  <si>
+    <t>He didn't offend me  but if I see him bully u.... He just wait</t>
+  </si>
+  <si>
+    <t>I am intending to go take .. waiting him to accompany me go ..</t>
+  </si>
+  <si>
+    <t>I am intending to go take .. waiting for him to accompany me to go...</t>
+  </si>
+  <si>
+    <t>Wait she take knife come my shop ..😝</t>
+  </si>
+  <si>
+    <t>What if she takes a knife and come my shop?</t>
+  </si>
+  <si>
+    <t>ok  now  say a time loh</t>
+  </si>
+  <si>
+    <t>ok. now, say a time.</t>
+  </si>
+  <si>
+    <t>lor (loh)</t>
+  </si>
+  <si>
+    <t>See Desmond when free .. I ok want</t>
+  </si>
+  <si>
+    <t>See when Desmond is free... I am okay</t>
+  </si>
+  <si>
+    <t>emphasis accomodation</t>
+  </si>
+  <si>
+    <t>Make sure u really want to take  cos if any side effect  we don't want to be blame for encouraging u to take</t>
+  </si>
+  <si>
+    <t>Yea .. Desmond bring me go .. i sure take .. no worry ..</t>
+  </si>
+  <si>
+    <t>If anything happen Government pay money to me .. 😉</t>
+  </si>
+  <si>
+    <t>If anything happens, the Government will pay money to me...</t>
+  </si>
+  <si>
+    <t>Pfizer.. tajong pager can walk in anytime</t>
+  </si>
+  <si>
+    <t>At least some thing .. better than nothing</t>
+  </si>
+  <si>
+    <t>Can book or not  else he comes all the way then they say that day full  waste his trip</t>
+  </si>
+  <si>
+    <t>Can book or not? else he comes all the way, then they say that day is full and wastes his trip</t>
+  </si>
+  <si>
+    <t>I can give up my life for youYou are bro I am with you</t>
+  </si>
+  <si>
+    <t>I can give up my life for you. You are bro. I am with you.</t>
+  </si>
+  <si>
+    <t>Yes no need .. my customer all working in CC helping to jab want .. all the cc now no need to book .. anytime walk in</t>
+  </si>
+  <si>
+    <t>He doesn't want me to go with him  sort of feel hurt 😂</t>
+  </si>
+  <si>
+    <t>He doesn't want me to go with him. I sort of feel hurt</t>
+  </si>
+  <si>
+    <t>You see.. he always say this .. but not actions want .. 😔😔</t>
+  </si>
+  <si>
+    <t>You see.. he always says this .. but not actions want ..</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -9356,6 +10088,9 @@
   </si>
   <si>
     <t>Singlish</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -53478,1304 +54213,3432 @@
       </c>
     </row>
     <row r="1667">
-      <c r="A1667" s="1"/>
-      <c r="B1667" s="2"/>
-      <c r="C1667" s="2"/>
-      <c r="D1667" s="2"/>
-      <c r="E1667" s="2"/>
-      <c r="F1667" s="2"/>
-      <c r="G1667" s="2"/>
-      <c r="H1667" s="2"/>
+      <c r="A1667" s="1">
+        <v>45813.44245364583</v>
+      </c>
+      <c r="B1667" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1667" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1667" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1667" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F1667" s="2" t="s">
+        <v>3104</v>
+      </c>
+      <c r="G1667" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1667" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1668">
-      <c r="A1668" s="1"/>
-      <c r="B1668" s="2"/>
-      <c r="C1668" s="2"/>
-      <c r="D1668" s="2"/>
-      <c r="E1668" s="2"/>
-      <c r="F1668" s="2"/>
-      <c r="G1668" s="2"/>
-      <c r="H1668" s="2"/>
+      <c r="A1668" s="1">
+        <v>45813.44256362268</v>
+      </c>
+      <c r="B1668" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1668" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1668" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1668" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F1668" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="G1668" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1668" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1669">
-      <c r="A1669" s="1"/>
-      <c r="B1669" s="2"/>
-      <c r="C1669" s="2"/>
-      <c r="D1669" s="2"/>
-      <c r="E1669" s="2"/>
+      <c r="A1669" s="1">
+        <v>45813.44340979167</v>
+      </c>
+      <c r="B1669" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1669" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1669" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1669" s="2" t="s">
+        <v>3107</v>
+      </c>
       <c r="F1669" s="2"/>
-      <c r="G1669" s="2"/>
-      <c r="H1669" s="2"/>
+      <c r="G1669" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1669" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1670">
-      <c r="A1670" s="1"/>
-      <c r="B1670" s="2"/>
-      <c r="C1670" s="2"/>
-      <c r="D1670" s="2"/>
-      <c r="E1670" s="2"/>
-      <c r="F1670" s="2"/>
-      <c r="G1670" s="2"/>
-      <c r="H1670" s="2"/>
+      <c r="A1670" s="1">
+        <v>45813.44361862268</v>
+      </c>
+      <c r="B1670" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1670" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1670" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1670" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F1670" s="2" t="s">
+        <v>3109</v>
+      </c>
+      <c r="G1670" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1670" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1671">
-      <c r="A1671" s="1"/>
-      <c r="B1671" s="2"/>
-      <c r="C1671" s="2"/>
-      <c r="D1671" s="2"/>
-      <c r="E1671" s="2"/>
-      <c r="F1671" s="2"/>
-      <c r="G1671" s="2"/>
-      <c r="H1671" s="2"/>
+      <c r="A1671" s="1">
+        <v>45813.44380253472</v>
+      </c>
+      <c r="B1671" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1671" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1671" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1671" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F1671" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="G1671" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1671" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1672">
-      <c r="A1672" s="1"/>
-      <c r="B1672" s="2"/>
-      <c r="C1672" s="2"/>
-      <c r="D1672" s="2"/>
-      <c r="E1672" s="2"/>
-      <c r="F1672" s="2"/>
-      <c r="G1672" s="2"/>
-      <c r="H1672" s="2"/>
+      <c r="A1672" s="1">
+        <v>45813.443875763885</v>
+      </c>
+      <c r="B1672" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1672" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1672" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1672" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F1672" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1672" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1672" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1673">
-      <c r="A1673" s="1"/>
-      <c r="B1673" s="2"/>
-      <c r="C1673" s="2"/>
-      <c r="D1673" s="2"/>
-      <c r="E1673" s="2"/>
-      <c r="F1673" s="2"/>
-      <c r="G1673" s="2"/>
-      <c r="H1673" s="2"/>
+      <c r="A1673" s="1">
+        <v>45813.444255497685</v>
+      </c>
+      <c r="B1673" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1673" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1673" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1673" s="2" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F1673" s="2" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G1673" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1673" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1674">
-      <c r="A1674" s="1"/>
-      <c r="B1674" s="2"/>
-      <c r="C1674" s="2"/>
-      <c r="D1674" s="2"/>
-      <c r="E1674" s="2"/>
-      <c r="F1674" s="2"/>
-      <c r="G1674" s="2"/>
-      <c r="H1674" s="2"/>
+      <c r="A1674" s="1">
+        <v>45813.444536145835</v>
+      </c>
+      <c r="B1674" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1674" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1674" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1674" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F1674" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="G1674" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1674" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1675">
-      <c r="A1675" s="1"/>
-      <c r="B1675" s="2"/>
-      <c r="C1675" s="2"/>
-      <c r="D1675" s="2"/>
-      <c r="E1675" s="2"/>
-      <c r="F1675" s="2"/>
-      <c r="G1675" s="2"/>
-      <c r="H1675" s="2"/>
+      <c r="A1675" s="1">
+        <v>45813.444916886576</v>
+      </c>
+      <c r="B1675" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1675" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1675" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1675" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F1675" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="G1675" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1675" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1676">
-      <c r="A1676" s="1"/>
-      <c r="B1676" s="2"/>
-      <c r="C1676" s="2"/>
-      <c r="D1676" s="2"/>
-      <c r="E1676" s="2"/>
-      <c r="F1676" s="2"/>
-      <c r="G1676" s="2"/>
-      <c r="H1676" s="2"/>
+      <c r="A1676" s="1">
+        <v>45813.44529211806</v>
+      </c>
+      <c r="B1676" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1676" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1676" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1676" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F1676" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="G1676" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1676" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1677">
-      <c r="A1677" s="1"/>
-      <c r="B1677" s="2"/>
-      <c r="C1677" s="2"/>
-      <c r="D1677" s="2"/>
-      <c r="E1677" s="2"/>
-      <c r="F1677" s="2"/>
-      <c r="G1677" s="2"/>
-      <c r="H1677" s="2"/>
+      <c r="A1677" s="1">
+        <v>45813.44538387732</v>
+      </c>
+      <c r="B1677" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1677" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1677" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1677" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F1677" s="2" t="s">
+        <v>3124</v>
+      </c>
+      <c r="G1677" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1677" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1678">
-      <c r="A1678" s="1"/>
-      <c r="B1678" s="2"/>
-      <c r="C1678" s="2"/>
-      <c r="D1678" s="2"/>
-      <c r="E1678" s="2"/>
-      <c r="F1678" s="2"/>
-      <c r="G1678" s="2"/>
-      <c r="H1678" s="2"/>
+      <c r="A1678" s="1">
+        <v>45813.44552298611</v>
+      </c>
+      <c r="B1678" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1678" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1678" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1678" s="2" t="s">
+        <v>3125</v>
+      </c>
+      <c r="F1678" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="G1678" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1678" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1679">
-      <c r="A1679" s="1"/>
-      <c r="B1679" s="2"/>
-      <c r="C1679" s="2"/>
-      <c r="D1679" s="2"/>
-      <c r="E1679" s="2"/>
-      <c r="F1679" s="2"/>
-      <c r="G1679" s="2"/>
-      <c r="H1679" s="2"/>
+      <c r="A1679" s="1">
+        <v>45813.445661875</v>
+      </c>
+      <c r="B1679" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1679" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1679" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1679" s="2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F1679" s="2" t="s">
+        <v>3128</v>
+      </c>
+      <c r="G1679" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1679" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1680">
-      <c r="A1680" s="1"/>
-      <c r="B1680" s="2"/>
-      <c r="C1680" s="2"/>
-      <c r="D1680" s="2"/>
-      <c r="E1680" s="2"/>
-      <c r="F1680" s="2"/>
-      <c r="G1680" s="2"/>
-      <c r="H1680" s="2"/>
+      <c r="A1680" s="1">
+        <v>45813.44588425926</v>
+      </c>
+      <c r="B1680" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1680" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1680" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1680" s="2" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F1680" s="2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="G1680" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1680" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1681">
-      <c r="A1681" s="1"/>
-      <c r="B1681" s="2"/>
-      <c r="C1681" s="2"/>
-      <c r="D1681" s="2"/>
-      <c r="E1681" s="2"/>
-      <c r="F1681" s="2"/>
-      <c r="G1681" s="2"/>
-      <c r="H1681" s="2"/>
+      <c r="A1681" s="1">
+        <v>45813.4459471875</v>
+      </c>
+      <c r="B1681" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1681" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1681" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1681" s="2" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F1681" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1681" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1681" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1682">
-      <c r="A1682" s="1"/>
-      <c r="B1682" s="2"/>
-      <c r="C1682" s="2"/>
-      <c r="D1682" s="2"/>
-      <c r="E1682" s="2"/>
-      <c r="F1682" s="2"/>
-      <c r="G1682" s="2"/>
-      <c r="H1682" s="2"/>
+      <c r="A1682" s="1">
+        <v>45813.4461164699</v>
+      </c>
+      <c r="B1682" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1682" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1682" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1682" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F1682" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="G1682" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1682" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1683">
-      <c r="A1683" s="1"/>
-      <c r="B1683" s="2"/>
-      <c r="C1683" s="2"/>
-      <c r="D1683" s="2"/>
-      <c r="E1683" s="2"/>
-      <c r="F1683" s="2"/>
-      <c r="G1683" s="2"/>
-      <c r="H1683" s="2"/>
+      <c r="A1683" s="1">
+        <v>45813.4467622338</v>
+      </c>
+      <c r="B1683" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1683" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1683" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1683" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F1683" s="2" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G1683" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1683" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1684">
-      <c r="A1684" s="1"/>
-      <c r="B1684" s="2"/>
-      <c r="C1684" s="2"/>
-      <c r="D1684" s="2"/>
-      <c r="E1684" s="2"/>
-      <c r="F1684" s="2"/>
-      <c r="G1684" s="2"/>
-      <c r="H1684" s="2"/>
+      <c r="A1684" s="1">
+        <v>45813.44688724537</v>
+      </c>
+      <c r="B1684" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1684" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1684" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1684" s="2" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F1684" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G1684" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1684" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1685">
-      <c r="A1685" s="1"/>
-      <c r="B1685" s="2"/>
-      <c r="C1685" s="2"/>
-      <c r="D1685" s="2"/>
-      <c r="E1685" s="2"/>
+      <c r="A1685" s="1">
+        <v>45813.44750538195</v>
+      </c>
+      <c r="B1685" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1685" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1685" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1685" s="2" t="s">
+        <v>3138</v>
+      </c>
       <c r="F1685" s="2"/>
-      <c r="G1685" s="2"/>
-      <c r="H1685" s="2"/>
+      <c r="G1685" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1685" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1686">
-      <c r="A1686" s="1"/>
-      <c r="B1686" s="2"/>
-      <c r="C1686" s="2"/>
-      <c r="D1686" s="2"/>
-      <c r="E1686" s="2"/>
-      <c r="F1686" s="2"/>
-      <c r="G1686" s="2"/>
-      <c r="H1686" s="2"/>
+      <c r="A1686" s="1">
+        <v>45813.4477318287</v>
+      </c>
+      <c r="B1686" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1686" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1686" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1686" s="2" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F1686" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="G1686" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1686" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1687">
-      <c r="A1687" s="1"/>
-      <c r="B1687" s="2"/>
-      <c r="C1687" s="2"/>
-      <c r="D1687" s="2"/>
-      <c r="E1687" s="2"/>
-      <c r="F1687" s="2"/>
-      <c r="G1687" s="2"/>
-      <c r="H1687" s="2"/>
+      <c r="A1687" s="1">
+        <v>45813.44781751157</v>
+      </c>
+      <c r="B1687" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1687" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1687" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1687" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F1687" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1687" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1687" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1688">
-      <c r="A1688" s="1"/>
-      <c r="B1688" s="2"/>
-      <c r="C1688" s="2"/>
-      <c r="D1688" s="2"/>
-      <c r="E1688" s="2"/>
-      <c r="F1688" s="2"/>
-      <c r="G1688" s="2"/>
-      <c r="H1688" s="2"/>
+      <c r="A1688" s="1">
+        <v>45813.447994814815</v>
+      </c>
+      <c r="B1688" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1688" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1688" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1688" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F1688" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G1688" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1688" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1689">
-      <c r="A1689" s="1"/>
-      <c r="B1689" s="2"/>
-      <c r="C1689" s="2"/>
-      <c r="D1689" s="2"/>
-      <c r="E1689" s="2"/>
-      <c r="F1689" s="2"/>
-      <c r="G1689" s="2"/>
-      <c r="H1689" s="2"/>
+      <c r="A1689" s="1">
+        <v>45813.44816722222</v>
+      </c>
+      <c r="B1689" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1689" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1689" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1689" s="2" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F1689" s="2" t="s">
+        <v>3145</v>
+      </c>
+      <c r="G1689" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1689" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1690">
-      <c r="A1690" s="1"/>
-      <c r="B1690" s="2"/>
-      <c r="C1690" s="2"/>
-      <c r="D1690" s="2"/>
-      <c r="E1690" s="2"/>
-      <c r="F1690" s="2"/>
-      <c r="G1690" s="2"/>
-      <c r="H1690" s="2"/>
+      <c r="A1690" s="1">
+        <v>45813.44834136574</v>
+      </c>
+      <c r="B1690" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1690" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1690" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1690" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F1690" s="2" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G1690" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1690" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1691">
-      <c r="A1691" s="1"/>
-      <c r="B1691" s="2"/>
-      <c r="C1691" s="2"/>
-      <c r="D1691" s="2"/>
-      <c r="E1691" s="2"/>
+      <c r="A1691" s="1">
+        <v>45813.44842854167</v>
+      </c>
+      <c r="B1691" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1691" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1691" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1691" s="2" t="s">
+        <v>3148</v>
+      </c>
       <c r="F1691" s="2"/>
-      <c r="G1691" s="2"/>
-      <c r="H1691" s="2"/>
+      <c r="G1691" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1691" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1692">
-      <c r="A1692" s="1"/>
-      <c r="B1692" s="2"/>
-      <c r="C1692" s="2"/>
-      <c r="D1692" s="2"/>
-      <c r="E1692" s="2"/>
-      <c r="F1692" s="2"/>
-      <c r="G1692" s="2"/>
-      <c r="H1692" s="2"/>
+      <c r="A1692" s="1">
+        <v>45813.44880895833</v>
+      </c>
+      <c r="B1692" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1692" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1692" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1692" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F1692" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="G1692" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1692" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1693">
-      <c r="A1693" s="1"/>
-      <c r="B1693" s="2"/>
-      <c r="C1693" s="2"/>
-      <c r="D1693" s="2"/>
-      <c r="E1693" s="2"/>
-      <c r="F1693" s="2"/>
-      <c r="G1693" s="2"/>
-      <c r="H1693" s="2"/>
+      <c r="A1693" s="1">
+        <v>45813.44899679398</v>
+      </c>
+      <c r="B1693" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1693" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1693" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1693" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F1693" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G1693" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1693" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1694">
-      <c r="A1694" s="1"/>
-      <c r="B1694" s="2"/>
-      <c r="C1694" s="2"/>
-      <c r="D1694" s="2"/>
-      <c r="E1694" s="2"/>
-      <c r="F1694" s="2"/>
-      <c r="G1694" s="2"/>
-      <c r="H1694" s="2"/>
+      <c r="A1694" s="1">
+        <v>45813.449120729165</v>
+      </c>
+      <c r="B1694" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1694" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1694" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1694" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F1694" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G1694" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1694" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1695">
-      <c r="A1695" s="1"/>
-      <c r="B1695" s="2"/>
-      <c r="C1695" s="2"/>
-      <c r="D1695" s="2"/>
-      <c r="E1695" s="2"/>
-      <c r="F1695" s="2"/>
-      <c r="G1695" s="2"/>
-      <c r="H1695" s="2"/>
+      <c r="A1695" s="1">
+        <v>45813.44952681713</v>
+      </c>
+      <c r="B1695" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1695" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1695" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1695" s="2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F1695" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="G1695" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1695" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1696">
-      <c r="A1696" s="1"/>
-      <c r="B1696" s="2"/>
-      <c r="C1696" s="2"/>
-      <c r="D1696" s="2"/>
-      <c r="E1696" s="2"/>
-      <c r="F1696" s="2"/>
-      <c r="G1696" s="2"/>
-      <c r="H1696" s="2"/>
+      <c r="A1696" s="1">
+        <v>45813.4497846875</v>
+      </c>
+      <c r="B1696" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1696" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1696" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1696" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F1696" s="2" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G1696" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1696" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1697">
-      <c r="A1697" s="1"/>
-      <c r="B1697" s="2"/>
-      <c r="C1697" s="2"/>
-      <c r="D1697" s="2"/>
-      <c r="E1697" s="2"/>
-      <c r="F1697" s="2"/>
-      <c r="G1697" s="2"/>
-      <c r="H1697" s="2"/>
+      <c r="A1697" s="1">
+        <v>45813.58226577546</v>
+      </c>
+      <c r="B1697" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1697" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1697" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1697" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F1697" s="2" t="s">
+        <v>3162</v>
+      </c>
+      <c r="G1697" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1697" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1698">
-      <c r="A1698" s="1"/>
-      <c r="B1698" s="2"/>
-      <c r="C1698" s="2"/>
-      <c r="D1698" s="2"/>
-      <c r="E1698" s="2"/>
-      <c r="F1698" s="2"/>
-      <c r="G1698" s="2"/>
-      <c r="H1698" s="2"/>
+      <c r="A1698" s="1">
+        <v>45813.582665208334</v>
+      </c>
+      <c r="B1698" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1698" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1698" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1698" s="2" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F1698" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G1698" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1698" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1699">
-      <c r="A1699" s="1"/>
-      <c r="B1699" s="2"/>
-      <c r="C1699" s="2"/>
-      <c r="D1699" s="2"/>
-      <c r="E1699" s="2"/>
-      <c r="F1699" s="2"/>
-      <c r="G1699" s="2"/>
-      <c r="H1699" s="2"/>
+      <c r="A1699" s="1">
+        <v>45813.58301814814</v>
+      </c>
+      <c r="B1699" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1699" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1699" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1699" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F1699" s="2" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G1699" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1699" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1700">
-      <c r="A1700" s="1"/>
-      <c r="B1700" s="2"/>
-      <c r="C1700" s="2"/>
-      <c r="D1700" s="2"/>
-      <c r="E1700" s="2"/>
-      <c r="F1700" s="2"/>
-      <c r="G1700" s="2"/>
-      <c r="H1700" s="2"/>
+      <c r="A1700" s="1">
+        <v>45813.58323606482</v>
+      </c>
+      <c r="B1700" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1700" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1700" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1700" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F1700" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="G1700" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1700" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1701">
-      <c r="A1701" s="1"/>
-      <c r="B1701" s="2"/>
-      <c r="C1701" s="2"/>
-      <c r="D1701" s="2"/>
-      <c r="E1701" s="2"/>
-      <c r="F1701" s="2"/>
-      <c r="G1701" s="2"/>
-      <c r="H1701" s="2"/>
+      <c r="A1701" s="1">
+        <v>45813.58335847222</v>
+      </c>
+      <c r="B1701" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1701" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1701" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1701" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F1701" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G1701" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1701" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1702">
-      <c r="A1702" s="1"/>
-      <c r="B1702" s="2"/>
-      <c r="C1702" s="2"/>
-      <c r="D1702" s="2"/>
-      <c r="E1702" s="2"/>
-      <c r="F1702" s="2"/>
-      <c r="G1702" s="2"/>
-      <c r="H1702" s="2"/>
+      <c r="A1702" s="1">
+        <v>45813.583526539354</v>
+      </c>
+      <c r="B1702" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1702" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1702" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1702" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F1702" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G1702" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1702" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1703">
-      <c r="A1703" s="1"/>
-      <c r="B1703" s="2"/>
-      <c r="C1703" s="2"/>
-      <c r="D1703" s="2"/>
-      <c r="E1703" s="2"/>
-      <c r="F1703" s="2"/>
-      <c r="G1703" s="2"/>
-      <c r="H1703" s="2"/>
+      <c r="A1703" s="1">
+        <v>45813.58357934028</v>
+      </c>
+      <c r="B1703" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1703" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1703" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1703" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F1703" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1703" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1703" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1704">
-      <c r="A1704" s="1"/>
-      <c r="B1704" s="2"/>
-      <c r="C1704" s="2"/>
-      <c r="D1704" s="2"/>
-      <c r="E1704" s="2"/>
-      <c r="F1704" s="2"/>
-      <c r="G1704" s="2"/>
-      <c r="H1704" s="2"/>
+      <c r="A1704" s="1">
+        <v>45813.58362456018</v>
+      </c>
+      <c r="B1704" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1704" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1704" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1704" s="2" t="s">
+        <v>3174</v>
+      </c>
+      <c r="F1704" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1704" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1704" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1705">
-      <c r="A1705" s="1"/>
-      <c r="B1705" s="2"/>
-      <c r="C1705" s="2"/>
-      <c r="D1705" s="2"/>
-      <c r="E1705" s="2"/>
-      <c r="F1705" s="2"/>
-      <c r="G1705" s="2"/>
-      <c r="H1705" s="2"/>
+      <c r="A1705" s="1">
+        <v>45813.583771226855</v>
+      </c>
+      <c r="B1705" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1705" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1705" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1705" s="2" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F1705" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G1705" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1705" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1706">
-      <c r="A1706" s="1"/>
-      <c r="B1706" s="2"/>
-      <c r="C1706" s="2"/>
-      <c r="D1706" s="2"/>
-      <c r="E1706" s="2"/>
-      <c r="F1706" s="2"/>
-      <c r="G1706" s="2"/>
-      <c r="H1706" s="2"/>
+      <c r="A1706" s="1">
+        <v>45813.5840794213</v>
+      </c>
+      <c r="B1706" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1706" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1706" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1706" s="2" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F1706" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G1706" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1706" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1707">
-      <c r="A1707" s="1"/>
-      <c r="B1707" s="2"/>
-      <c r="C1707" s="2"/>
-      <c r="D1707" s="2"/>
-      <c r="E1707" s="2"/>
-      <c r="F1707" s="2"/>
-      <c r="G1707" s="2"/>
-      <c r="H1707" s="2"/>
+      <c r="A1707" s="1">
+        <v>45813.58420140046</v>
+      </c>
+      <c r="B1707" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1707" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1707" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1707" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="F1707" s="2" t="s">
+        <v>3180</v>
+      </c>
+      <c r="G1707" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1707" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1708">
-      <c r="A1708" s="1"/>
-      <c r="B1708" s="2"/>
-      <c r="C1708" s="2"/>
-      <c r="D1708" s="2"/>
-      <c r="E1708" s="2"/>
-      <c r="F1708" s="2"/>
-      <c r="G1708" s="2"/>
-      <c r="H1708" s="2"/>
+      <c r="A1708" s="1">
+        <v>45813.58451032407</v>
+      </c>
+      <c r="B1708" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1708" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1708" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1708" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="F1708" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G1708" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1708" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1709">
-      <c r="A1709" s="1"/>
-      <c r="B1709" s="2"/>
-      <c r="C1709" s="2"/>
-      <c r="D1709" s="2"/>
-      <c r="E1709" s="2"/>
-      <c r="F1709" s="2"/>
-      <c r="G1709" s="2"/>
-      <c r="H1709" s="2"/>
+      <c r="A1709" s="1">
+        <v>45813.584740949074</v>
+      </c>
+      <c r="B1709" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1709" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1709" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1709" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="F1709" s="2" t="s">
+        <v>3184</v>
+      </c>
+      <c r="G1709" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1709" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1710">
-      <c r="A1710" s="1"/>
-      <c r="B1710" s="2"/>
-      <c r="C1710" s="2"/>
-      <c r="D1710" s="2"/>
-      <c r="E1710" s="2"/>
-      <c r="F1710" s="2"/>
-      <c r="G1710" s="2"/>
-      <c r="H1710" s="2"/>
+      <c r="A1710" s="1">
+        <v>45813.585246284725</v>
+      </c>
+      <c r="B1710" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1710" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1710" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1710" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F1710" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1710" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1710" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1711">
-      <c r="A1711" s="1"/>
-      <c r="B1711" s="2"/>
-      <c r="C1711" s="2"/>
-      <c r="D1711" s="2"/>
-      <c r="E1711" s="2"/>
-      <c r="F1711" s="2"/>
-      <c r="G1711" s="2"/>
-      <c r="H1711" s="2"/>
+      <c r="A1711" s="1">
+        <v>45813.58529996528</v>
+      </c>
+      <c r="B1711" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1711" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1711" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1711" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F1711" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1711" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1711" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1712">
-      <c r="A1712" s="1"/>
-      <c r="B1712" s="2"/>
-      <c r="C1712" s="2"/>
-      <c r="D1712" s="2"/>
-      <c r="E1712" s="2"/>
-      <c r="F1712" s="2"/>
-      <c r="G1712" s="2"/>
-      <c r="H1712" s="2"/>
+      <c r="A1712" s="1">
+        <v>45813.585347141205</v>
+      </c>
+      <c r="B1712" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1712" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1712" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1712" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F1712" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1712" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1712" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1713">
-      <c r="A1713" s="1"/>
-      <c r="B1713" s="2"/>
-      <c r="C1713" s="2"/>
-      <c r="D1713" s="2"/>
-      <c r="E1713" s="2"/>
-      <c r="F1713" s="2"/>
-      <c r="G1713" s="2"/>
-      <c r="H1713" s="2"/>
+      <c r="A1713" s="1">
+        <v>45813.58580865741</v>
+      </c>
+      <c r="B1713" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1713" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1713" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1713" s="2" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F1713" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G1713" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1713" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I1713" s="2" t="s">
+        <v>3190</v>
+      </c>
     </row>
     <row r="1714">
-      <c r="A1714" s="1"/>
-      <c r="B1714" s="2"/>
-      <c r="C1714" s="2"/>
-      <c r="D1714" s="2"/>
-      <c r="E1714" s="2"/>
-      <c r="F1714" s="2"/>
-      <c r="G1714" s="2"/>
-      <c r="H1714" s="2"/>
+      <c r="A1714" s="1">
+        <v>45813.586094479164</v>
+      </c>
+      <c r="B1714" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1714" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1714" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1714" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="F1714" s="2" t="s">
+        <v>3192</v>
+      </c>
+      <c r="G1714" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1714" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1715">
-      <c r="A1715" s="1"/>
-      <c r="B1715" s="2"/>
-      <c r="C1715" s="2"/>
-      <c r="D1715" s="2"/>
-      <c r="E1715" s="2"/>
-      <c r="F1715" s="2"/>
-      <c r="G1715" s="2"/>
-      <c r="H1715" s="2"/>
+      <c r="A1715" s="1">
+        <v>45813.586680196764</v>
+      </c>
+      <c r="B1715" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1715" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1715" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1715" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F1715" s="2" t="s">
+        <v>3194</v>
+      </c>
+      <c r="G1715" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1715" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1715" s="2" t="s">
+        <v>3195</v>
+      </c>
     </row>
     <row r="1716">
-      <c r="A1716" s="1"/>
-      <c r="B1716" s="2"/>
-      <c r="C1716" s="2"/>
-      <c r="D1716" s="2"/>
-      <c r="E1716" s="2"/>
-      <c r="F1716" s="2"/>
-      <c r="G1716" s="2"/>
-      <c r="H1716" s="2"/>
+      <c r="A1716" s="1">
+        <v>45813.58729795139</v>
+      </c>
+      <c r="B1716" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1716" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1716" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1716" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F1716" s="2" t="s">
+        <v>3197</v>
+      </c>
+      <c r="G1716" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1716" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1717">
-      <c r="A1717" s="1"/>
-      <c r="B1717" s="2"/>
-      <c r="C1717" s="2"/>
-      <c r="D1717" s="2"/>
-      <c r="E1717" s="2"/>
-      <c r="F1717" s="2"/>
-      <c r="G1717" s="2"/>
-      <c r="H1717" s="2"/>
+      <c r="A1717" s="1">
+        <v>45813.58779038195</v>
+      </c>
+      <c r="B1717" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1717" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1717" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1717" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F1717" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G1717" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1717" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1718">
-      <c r="A1718" s="1"/>
-      <c r="B1718" s="2"/>
-      <c r="C1718" s="2"/>
-      <c r="D1718" s="2"/>
-      <c r="E1718" s="2"/>
-      <c r="F1718" s="2"/>
-      <c r="G1718" s="2"/>
-      <c r="H1718" s="2"/>
+      <c r="A1718" s="1">
+        <v>45813.58798384259</v>
+      </c>
+      <c r="B1718" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1718" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1718" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1718" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F1718" s="2" t="s">
+        <v>3201</v>
+      </c>
+      <c r="G1718" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1718" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1718" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1719">
-      <c r="A1719" s="1"/>
-      <c r="B1719" s="2"/>
-      <c r="C1719" s="2"/>
-      <c r="D1719" s="2"/>
-      <c r="E1719" s="2"/>
-      <c r="F1719" s="2"/>
-      <c r="G1719" s="2"/>
-      <c r="H1719" s="2"/>
+      <c r="A1719" s="1">
+        <v>45813.58819487269</v>
+      </c>
+      <c r="B1719" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1719" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1719" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1719" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F1719" s="2" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G1719" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1719" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1720">
-      <c r="A1720" s="1"/>
-      <c r="B1720" s="2"/>
-      <c r="C1720" s="2"/>
-      <c r="D1720" s="2"/>
-      <c r="E1720" s="2"/>
-      <c r="F1720" s="2"/>
-      <c r="G1720" s="2"/>
-      <c r="H1720" s="2"/>
+      <c r="A1720" s="1">
+        <v>45813.58826358797</v>
+      </c>
+      <c r="B1720" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1720" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1720" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1720" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F1720" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1720" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1720" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1721">
-      <c r="A1721" s="1"/>
-      <c r="B1721" s="2"/>
-      <c r="C1721" s="2"/>
-      <c r="D1721" s="2"/>
-      <c r="E1721" s="2"/>
-      <c r="F1721" s="2"/>
-      <c r="G1721" s="2"/>
-      <c r="H1721" s="2"/>
+      <c r="A1721" s="1">
+        <v>45813.588395810184</v>
+      </c>
+      <c r="B1721" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1721" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1721" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1721" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F1721" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="G1721" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1721" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1722">
-      <c r="A1722" s="1"/>
-      <c r="B1722" s="2"/>
-      <c r="C1722" s="2"/>
-      <c r="D1722" s="2"/>
-      <c r="E1722" s="2"/>
-      <c r="F1722" s="2"/>
-      <c r="G1722" s="2"/>
-      <c r="H1722" s="2"/>
+      <c r="A1722" s="1">
+        <v>45813.58851320602</v>
+      </c>
+      <c r="B1722" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1722" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1722" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1722" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F1722" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="G1722" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1722" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1723">
-      <c r="A1723" s="1"/>
-      <c r="B1723" s="2"/>
-      <c r="C1723" s="2"/>
-      <c r="D1723" s="2"/>
-      <c r="E1723" s="2"/>
-      <c r="F1723" s="2"/>
-      <c r="G1723" s="2"/>
-      <c r="H1723" s="2"/>
+      <c r="A1723" s="1">
+        <v>45813.5887156713</v>
+      </c>
+      <c r="B1723" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1723" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1723" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1723" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F1723" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="G1723" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1723" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1724">
-      <c r="A1724" s="1"/>
-      <c r="B1724" s="2"/>
-      <c r="C1724" s="2"/>
-      <c r="D1724" s="2"/>
-      <c r="E1724" s="2"/>
-      <c r="F1724" s="2"/>
-      <c r="G1724" s="2"/>
-      <c r="H1724" s="2"/>
+      <c r="A1724" s="1">
+        <v>45813.58888909723</v>
+      </c>
+      <c r="B1724" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1724" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1724" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1724" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F1724" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="G1724" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1724" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1725">
-      <c r="A1725" s="1"/>
-      <c r="B1725" s="2"/>
-      <c r="C1725" s="2"/>
-      <c r="D1725" s="2"/>
-      <c r="E1725" s="2"/>
-      <c r="F1725" s="2"/>
-      <c r="G1725" s="2"/>
-      <c r="H1725" s="2"/>
+      <c r="A1725" s="1">
+        <v>45813.588955300926</v>
+      </c>
+      <c r="B1725" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1725" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1725" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1725" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F1725" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1725" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1725" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1726">
-      <c r="A1726" s="1"/>
-      <c r="B1726" s="2"/>
-      <c r="C1726" s="2"/>
-      <c r="D1726" s="2"/>
-      <c r="E1726" s="2"/>
-      <c r="F1726" s="2"/>
-      <c r="G1726" s="2"/>
-      <c r="H1726" s="2"/>
+      <c r="A1726" s="1">
+        <v>45813.58898752315</v>
+      </c>
+      <c r="B1726" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1726" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1726" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1726" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F1726" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1726" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1726" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1727">
-      <c r="A1727" s="1"/>
-      <c r="B1727" s="2"/>
-      <c r="C1727" s="2"/>
-      <c r="D1727" s="2"/>
-      <c r="E1727" s="2"/>
-      <c r="F1727" s="2"/>
-      <c r="G1727" s="2"/>
-      <c r="H1727" s="2"/>
+      <c r="A1727" s="1">
+        <v>45813.5892684375</v>
+      </c>
+      <c r="B1727" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1727" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1727" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1727" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F1727" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1727" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1727" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1727" s="2" t="s">
+        <v>3217</v>
+      </c>
     </row>
     <row r="1728">
-      <c r="A1728" s="1"/>
-      <c r="B1728" s="2"/>
-      <c r="C1728" s="2"/>
-      <c r="D1728" s="2"/>
-      <c r="E1728" s="2"/>
-      <c r="F1728" s="2"/>
-      <c r="G1728" s="2"/>
-      <c r="H1728" s="2"/>
+      <c r="A1728" s="1">
+        <v>45813.58949246528</v>
+      </c>
+      <c r="B1728" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1728" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1728" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1728" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F1728" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G1728" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1728" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1729">
-      <c r="A1729" s="1"/>
-      <c r="B1729" s="2"/>
-      <c r="C1729" s="2"/>
-      <c r="D1729" s="2"/>
-      <c r="E1729" s="2"/>
-      <c r="F1729" s="2"/>
-      <c r="G1729" s="2"/>
-      <c r="H1729" s="2"/>
+      <c r="A1729" s="1">
+        <v>45813.58988114583</v>
+      </c>
+      <c r="B1729" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1729" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1729" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1729" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F1729" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="G1729" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1729" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I1729" s="2" t="s">
+        <v>3222</v>
+      </c>
     </row>
     <row r="1730">
-      <c r="A1730" s="1"/>
-      <c r="B1730" s="2"/>
-      <c r="C1730" s="2"/>
-      <c r="D1730" s="2"/>
-      <c r="E1730" s="2"/>
-      <c r="F1730" s="2"/>
-      <c r="G1730" s="2"/>
-      <c r="H1730" s="2"/>
+      <c r="A1730" s="1">
+        <v>45813.589940833335</v>
+      </c>
+      <c r="B1730" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1730" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1730" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1730" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F1730" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1730" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1730" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1731">
-      <c r="A1731" s="1"/>
-      <c r="B1731" s="2"/>
-      <c r="C1731" s="2"/>
-      <c r="D1731" s="2"/>
-      <c r="E1731" s="2"/>
-      <c r="F1731" s="2"/>
-      <c r="G1731" s="2"/>
-      <c r="H1731" s="2"/>
+      <c r="A1731" s="1">
+        <v>45813.590101319445</v>
+      </c>
+      <c r="B1731" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1731" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1731" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1731" s="2" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F1731" s="2" t="s">
+        <v>3225</v>
+      </c>
+      <c r="G1731" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1731" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1732">
-      <c r="A1732" s="1"/>
-      <c r="B1732" s="2"/>
-      <c r="C1732" s="2"/>
-      <c r="D1732" s="2"/>
-      <c r="E1732" s="2"/>
-      <c r="F1732" s="2"/>
-      <c r="G1732" s="2"/>
-      <c r="H1732" s="2"/>
+      <c r="A1732" s="1">
+        <v>45813.59024633102</v>
+      </c>
+      <c r="B1732" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1732" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1732" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1732" s="2" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F1732" s="2" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G1732" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1732" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1733">
-      <c r="A1733" s="1"/>
-      <c r="B1733" s="2"/>
-      <c r="C1733" s="2"/>
-      <c r="D1733" s="2"/>
-      <c r="E1733" s="2"/>
-      <c r="F1733" s="2"/>
-      <c r="G1733" s="2"/>
-      <c r="H1733" s="2"/>
+      <c r="A1733" s="1">
+        <v>45813.59042482639</v>
+      </c>
+      <c r="B1733" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1733" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1733" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1733" s="2" t="s">
+        <v>3228</v>
+      </c>
+      <c r="F1733" s="2" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G1733" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1733" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1734">
-      <c r="A1734" s="1"/>
-      <c r="B1734" s="2"/>
-      <c r="C1734" s="2"/>
-      <c r="D1734" s="2"/>
-      <c r="E1734" s="2"/>
-      <c r="F1734" s="2"/>
-      <c r="G1734" s="2"/>
-      <c r="H1734" s="2"/>
+      <c r="A1734" s="1">
+        <v>45813.59150836806</v>
+      </c>
+      <c r="B1734" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1734" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1734" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1734" s="2" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F1734" s="2" t="s">
+        <v>3231</v>
+      </c>
+      <c r="G1734" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1734" s="2" t="s">
+        <v>3232</v>
+      </c>
+      <c r="I1734" s="2" t="s">
+        <v>3233</v>
+      </c>
     </row>
     <row r="1735">
-      <c r="A1735" s="1"/>
-      <c r="B1735" s="2"/>
-      <c r="C1735" s="2"/>
-      <c r="D1735" s="2"/>
-      <c r="E1735" s="2"/>
-      <c r="F1735" s="2"/>
-      <c r="G1735" s="2"/>
-      <c r="H1735" s="2"/>
+      <c r="A1735" s="1">
+        <v>45813.591688043976</v>
+      </c>
+      <c r="B1735" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1735" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1735" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1735" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F1735" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G1735" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1735" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1735" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1736">
-      <c r="A1736" s="1"/>
-      <c r="B1736" s="2"/>
-      <c r="C1736" s="2"/>
-      <c r="D1736" s="2"/>
-      <c r="E1736" s="2"/>
-      <c r="F1736" s="2"/>
-      <c r="G1736" s="2"/>
-      <c r="H1736" s="2"/>
+      <c r="A1736" s="1">
+        <v>45813.59210197917</v>
+      </c>
+      <c r="B1736" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1736" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1736" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1736" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F1736" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="G1736" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1736" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1737">
-      <c r="A1737" s="1"/>
-      <c r="B1737" s="2"/>
-      <c r="C1737" s="2"/>
-      <c r="D1737" s="2"/>
-      <c r="E1737" s="2"/>
-      <c r="F1737" s="2"/>
-      <c r="G1737" s="2"/>
-      <c r="H1737" s="2"/>
+      <c r="A1737" s="1">
+        <v>45813.59249135417</v>
+      </c>
+      <c r="B1737" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1737" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1737" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1737" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F1737" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="G1737" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1737" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1738">
-      <c r="A1738" s="1"/>
-      <c r="B1738" s="2"/>
-      <c r="C1738" s="2"/>
-      <c r="D1738" s="2"/>
-      <c r="E1738" s="2"/>
-      <c r="F1738" s="2"/>
-      <c r="G1738" s="2"/>
-      <c r="H1738" s="2"/>
+      <c r="A1738" s="1">
+        <v>45813.592777094906</v>
+      </c>
+      <c r="B1738" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1738" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1738" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1738" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F1738" s="2" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G1738" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1738" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1738" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="1739">
-      <c r="A1739" s="1"/>
-      <c r="B1739" s="2"/>
-      <c r="C1739" s="2"/>
-      <c r="D1739" s="2"/>
-      <c r="E1739" s="2"/>
-      <c r="F1739" s="2"/>
-      <c r="G1739" s="2"/>
-      <c r="H1739" s="2"/>
+      <c r="A1739" s="1">
+        <v>45813.59293604166</v>
+      </c>
+      <c r="B1739" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1739" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1739" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1739" s="2" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F1739" s="2" t="s">
+        <v>3243</v>
+      </c>
+      <c r="G1739" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1739" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1740">
-      <c r="A1740" s="1"/>
-      <c r="B1740" s="2"/>
-      <c r="C1740" s="2"/>
-      <c r="D1740" s="2"/>
-      <c r="E1740" s="2"/>
-      <c r="F1740" s="2"/>
-      <c r="G1740" s="2"/>
-      <c r="H1740" s="2"/>
+      <c r="A1740" s="1">
+        <v>45813.59308201389</v>
+      </c>
+      <c r="B1740" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1740" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1740" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1740" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F1740" s="2" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G1740" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1740" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1741">
-      <c r="A1741" s="1"/>
-      <c r="B1741" s="2"/>
-      <c r="C1741" s="2"/>
-      <c r="D1741" s="2"/>
-      <c r="E1741" s="2"/>
-      <c r="F1741" s="2"/>
-      <c r="G1741" s="2"/>
-      <c r="H1741" s="2"/>
+      <c r="A1741" s="1">
+        <v>45813.593265104166</v>
+      </c>
+      <c r="B1741" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1741" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1741" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1741" s="2" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F1741" s="2" t="s">
+        <v>3247</v>
+      </c>
+      <c r="G1741" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1741" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I1741" s="2" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="1742">
-      <c r="A1742" s="1"/>
-      <c r="B1742" s="2"/>
-      <c r="C1742" s="2"/>
-      <c r="D1742" s="2"/>
-      <c r="E1742" s="2"/>
-      <c r="F1742" s="2"/>
-      <c r="G1742" s="2"/>
-      <c r="H1742" s="2"/>
+      <c r="A1742" s="1">
+        <v>45813.59332137731</v>
+      </c>
+      <c r="B1742" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1742" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1742" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1742" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F1742" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1742" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1742" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1743">
-      <c r="A1743" s="1"/>
-      <c r="B1743" s="2"/>
-      <c r="C1743" s="2"/>
-      <c r="D1743" s="2"/>
-      <c r="E1743" s="2"/>
-      <c r="F1743" s="2"/>
-      <c r="G1743" s="2"/>
-      <c r="H1743" s="2"/>
+      <c r="A1743" s="1">
+        <v>45813.59339877315</v>
+      </c>
+      <c r="B1743" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1743" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1743" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1743" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F1743" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1743" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1743" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1744">
-      <c r="A1744" s="1"/>
-      <c r="B1744" s="2"/>
-      <c r="C1744" s="2"/>
-      <c r="D1744" s="2"/>
-      <c r="E1744" s="2"/>
-      <c r="F1744" s="2"/>
-      <c r="G1744" s="2"/>
-      <c r="H1744" s="2"/>
+      <c r="A1744" s="1">
+        <v>45813.59367982639</v>
+      </c>
+      <c r="B1744" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1744" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1744" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1744" s="2" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1744" s="2" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G1744" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1744" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1745">
-      <c r="A1745" s="1"/>
-      <c r="B1745" s="2"/>
-      <c r="C1745" s="2"/>
-      <c r="D1745" s="2"/>
-      <c r="E1745" s="2"/>
-      <c r="F1745" s="2"/>
-      <c r="G1745" s="2"/>
-      <c r="H1745" s="2"/>
+      <c r="A1745" s="1">
+        <v>45813.59382145833</v>
+      </c>
+      <c r="B1745" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1745" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1745" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1745" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="F1745" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1745" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1745" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1746">
-      <c r="A1746" s="1"/>
-      <c r="B1746" s="2"/>
-      <c r="C1746" s="2"/>
-      <c r="D1746" s="2"/>
-      <c r="E1746" s="2"/>
-      <c r="F1746" s="2"/>
-      <c r="G1746" s="2"/>
-      <c r="H1746" s="2"/>
+      <c r="A1746" s="1">
+        <v>45813.59385100694</v>
+      </c>
+      <c r="B1746" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1746" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1746" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E1746" s="2" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F1746" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1746" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1746" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1747">
-      <c r="A1747" s="1"/>
-      <c r="B1747" s="2"/>
-      <c r="C1747" s="2"/>
-      <c r="D1747" s="2"/>
-      <c r="E1747" s="2"/>
-      <c r="F1747" s="2"/>
-      <c r="G1747" s="2"/>
-      <c r="H1747" s="2"/>
+      <c r="A1747" s="1">
+        <v>45815.43093431713</v>
+      </c>
+      <c r="B1747" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1747" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1747" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1747" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F1747" s="2" t="s">
+        <v>3257</v>
+      </c>
+      <c r="G1747" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1747" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1747" s="2" t="s">
+        <v>3258</v>
+      </c>
     </row>
     <row r="1748">
-      <c r="A1748" s="1"/>
-      <c r="B1748" s="2"/>
-      <c r="C1748" s="2"/>
-      <c r="D1748" s="2"/>
-      <c r="E1748" s="2"/>
-      <c r="F1748" s="2"/>
-      <c r="G1748" s="2"/>
-      <c r="H1748" s="2"/>
+      <c r="A1748" s="1">
+        <v>45815.43140592593</v>
+      </c>
+      <c r="B1748" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1748" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1748" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1748" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F1748" s="2" t="s">
+        <v>3260</v>
+      </c>
+      <c r="G1748" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1748" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1749">
-      <c r="A1749" s="1"/>
-      <c r="B1749" s="2"/>
-      <c r="C1749" s="2"/>
-      <c r="D1749" s="2"/>
-      <c r="E1749" s="2"/>
-      <c r="F1749" s="2"/>
-      <c r="G1749" s="2"/>
-      <c r="H1749" s="2"/>
+      <c r="A1749" s="1">
+        <v>45815.432395138894</v>
+      </c>
+      <c r="B1749" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1749" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1749" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1749" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F1749" s="2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="G1749" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1749" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1750">
-      <c r="A1750" s="1"/>
-      <c r="B1750" s="2"/>
-      <c r="C1750" s="2"/>
-      <c r="D1750" s="2"/>
-      <c r="E1750" s="2"/>
-      <c r="F1750" s="2"/>
-      <c r="G1750" s="2"/>
-      <c r="H1750" s="2"/>
+      <c r="A1750" s="1">
+        <v>45815.43267949074</v>
+      </c>
+      <c r="B1750" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1750" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1750" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1750" s="2" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F1750" s="2" t="s">
+        <v>3264</v>
+      </c>
+      <c r="G1750" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1750" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1751">
-      <c r="A1751" s="1"/>
-      <c r="B1751" s="2"/>
-      <c r="C1751" s="2"/>
-      <c r="D1751" s="2"/>
-      <c r="E1751" s="2"/>
-      <c r="F1751" s="2"/>
-      <c r="G1751" s="2"/>
-      <c r="H1751" s="2"/>
+      <c r="A1751" s="1">
+        <v>45815.43274209491</v>
+      </c>
+      <c r="B1751" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1751" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1751" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1751" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F1751" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1751" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1751" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1752">
-      <c r="A1752" s="1"/>
-      <c r="B1752" s="2"/>
-      <c r="C1752" s="2"/>
-      <c r="D1752" s="2"/>
-      <c r="E1752" s="2"/>
-      <c r="F1752" s="2"/>
-      <c r="G1752" s="2"/>
-      <c r="H1752" s="2"/>
+      <c r="A1752" s="1">
+        <v>45815.43284616898</v>
+      </c>
+      <c r="B1752" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1752" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1752" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1752" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="F1752" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="G1752" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1752" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1753">
-      <c r="A1753" s="1"/>
-      <c r="B1753" s="2"/>
-      <c r="C1753" s="2"/>
-      <c r="D1753" s="2"/>
-      <c r="E1753" s="2"/>
-      <c r="F1753" s="2"/>
-      <c r="G1753" s="2"/>
-      <c r="H1753" s="2"/>
+      <c r="A1753" s="1">
+        <v>45815.43322859953</v>
+      </c>
+      <c r="B1753" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1753" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1753" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1753" s="2" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F1753" s="2" t="s">
+        <v>3269</v>
+      </c>
+      <c r="G1753" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1753" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1754">
-      <c r="A1754" s="1"/>
-      <c r="B1754" s="2"/>
-      <c r="C1754" s="2"/>
-      <c r="D1754" s="2"/>
-      <c r="E1754" s="2"/>
-      <c r="F1754" s="2"/>
-      <c r="G1754" s="2"/>
-      <c r="H1754" s="2"/>
+      <c r="A1754" s="1">
+        <v>45815.43327886574</v>
+      </c>
+      <c r="B1754" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1754" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1754" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1754" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F1754" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1754" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1754" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1755">
-      <c r="A1755" s="1"/>
-      <c r="B1755" s="2"/>
-      <c r="C1755" s="2"/>
-      <c r="D1755" s="2"/>
-      <c r="E1755" s="2"/>
-      <c r="F1755" s="2"/>
-      <c r="G1755" s="2"/>
-      <c r="H1755" s="2"/>
+      <c r="A1755" s="1">
+        <v>45815.43332003472</v>
+      </c>
+      <c r="B1755" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1755" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1755" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1755" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F1755" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1755" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1755" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1756">
-      <c r="A1756" s="1"/>
-      <c r="B1756" s="2"/>
-      <c r="C1756" s="2"/>
-      <c r="D1756" s="2"/>
-      <c r="E1756" s="2"/>
-      <c r="F1756" s="2"/>
-      <c r="G1756" s="2"/>
-      <c r="H1756" s="2"/>
+      <c r="A1756" s="1">
+        <v>45815.433363460645</v>
+      </c>
+      <c r="B1756" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1756" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1756" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1756" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F1756" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1756" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1756" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1757">
-      <c r="A1757" s="1"/>
-      <c r="B1757" s="2"/>
-      <c r="C1757" s="2"/>
-      <c r="D1757" s="2"/>
-      <c r="E1757" s="2"/>
-      <c r="F1757" s="2"/>
-      <c r="G1757" s="2"/>
-      <c r="H1757" s="2"/>
+      <c r="A1757" s="1">
+        <v>45815.4334809375</v>
+      </c>
+      <c r="B1757" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1757" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1757" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1757" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F1757" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G1757" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1757" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1758">
-      <c r="A1758" s="1"/>
-      <c r="B1758" s="2"/>
-      <c r="C1758" s="2"/>
-      <c r="D1758" s="2"/>
-      <c r="E1758" s="2"/>
-      <c r="F1758" s="2"/>
-      <c r="G1758" s="2"/>
-      <c r="H1758" s="2"/>
+      <c r="A1758" s="1">
+        <v>45815.43369655093</v>
+      </c>
+      <c r="B1758" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1758" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1758" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1758" s="2" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F1758" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G1758" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1758" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1759">
-      <c r="A1759" s="1"/>
-      <c r="B1759" s="2"/>
-      <c r="C1759" s="2"/>
-      <c r="D1759" s="2"/>
-      <c r="E1759" s="2"/>
-      <c r="F1759" s="2"/>
-      <c r="G1759" s="2"/>
-      <c r="H1759" s="2"/>
+      <c r="A1759" s="1">
+        <v>45815.43373822917</v>
+      </c>
+      <c r="B1759" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1759" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1759" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1759" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="F1759" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1759" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1759" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1760">
-      <c r="A1760" s="1"/>
-      <c r="B1760" s="2"/>
-      <c r="C1760" s="2"/>
-      <c r="D1760" s="2"/>
-      <c r="E1760" s="2"/>
-      <c r="F1760" s="2"/>
-      <c r="G1760" s="2"/>
-      <c r="H1760" s="2"/>
+      <c r="A1760" s="1">
+        <v>45815.43377847222</v>
+      </c>
+      <c r="B1760" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1760" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1760" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1760" s="2" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F1760" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1760" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1760" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1761">
-      <c r="A1761" s="1"/>
-      <c r="B1761" s="2"/>
-      <c r="C1761" s="2"/>
-      <c r="D1761" s="2"/>
-      <c r="E1761" s="2"/>
-      <c r="F1761" s="2"/>
-      <c r="G1761" s="2"/>
-      <c r="H1761" s="2"/>
+      <c r="A1761" s="1">
+        <v>45815.43382240741</v>
+      </c>
+      <c r="B1761" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1761" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1761" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1761" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F1761" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1761" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1761" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1762">
-      <c r="A1762" s="1"/>
-      <c r="B1762" s="2"/>
-      <c r="C1762" s="2"/>
-      <c r="D1762" s="2"/>
-      <c r="E1762" s="2"/>
-      <c r="F1762" s="2"/>
-      <c r="G1762" s="2"/>
-      <c r="H1762" s="2"/>
+      <c r="A1762" s="1">
+        <v>45815.433871099536</v>
+      </c>
+      <c r="B1762" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1762" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1762" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1762" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F1762" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1762" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1762" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1763">
-      <c r="A1763" s="1"/>
-      <c r="B1763" s="2"/>
-      <c r="C1763" s="2"/>
-      <c r="D1763" s="2"/>
-      <c r="E1763" s="2"/>
-      <c r="F1763" s="2"/>
-      <c r="G1763" s="2"/>
-      <c r="H1763" s="2"/>
+      <c r="A1763" s="1">
+        <v>45815.43426018518</v>
+      </c>
+      <c r="B1763" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1763" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1763" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1763" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F1763" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1763" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1763" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1764">
-      <c r="A1764" s="1"/>
-      <c r="B1764" s="2"/>
-      <c r="C1764" s="2"/>
-      <c r="D1764" s="2"/>
-      <c r="E1764" s="2"/>
-      <c r="F1764" s="2"/>
-      <c r="G1764" s="2"/>
-      <c r="H1764" s="2"/>
+      <c r="A1764" s="1">
+        <v>45815.434511631945</v>
+      </c>
+      <c r="B1764" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1764" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1764" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1764" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="F1764" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="G1764" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1764" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1765">
-      <c r="A1765" s="1"/>
-      <c r="B1765" s="2"/>
-      <c r="C1765" s="2"/>
-      <c r="D1765" s="2"/>
-      <c r="E1765" s="2"/>
-      <c r="F1765" s="2"/>
-      <c r="G1765" s="2"/>
-      <c r="H1765" s="2"/>
+      <c r="A1765" s="1">
+        <v>45815.434559189816</v>
+      </c>
+      <c r="B1765" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1765" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1765" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1765" s="2" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F1765" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1765" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1765" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1766">
-      <c r="A1766" s="1"/>
-      <c r="B1766" s="2"/>
-      <c r="C1766" s="2"/>
-      <c r="D1766" s="2"/>
-      <c r="E1766" s="2"/>
-      <c r="F1766" s="2"/>
-      <c r="G1766" s="2"/>
-      <c r="H1766" s="2"/>
+      <c r="A1766" s="1">
+        <v>45815.43488641204</v>
+      </c>
+      <c r="B1766" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1766" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1766" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1766" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F1766" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="G1766" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1766" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1766" s="2" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="1767">
-      <c r="A1767" s="1"/>
-      <c r="B1767" s="2"/>
-      <c r="C1767" s="2"/>
-      <c r="D1767" s="2"/>
-      <c r="E1767" s="2"/>
-      <c r="F1767" s="2"/>
-      <c r="G1767" s="2"/>
-      <c r="H1767" s="2"/>
+      <c r="A1767" s="1">
+        <v>45815.43507547454</v>
+      </c>
+      <c r="B1767" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1767" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1767" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1767" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F1767" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="G1767" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1767" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1767" s="2" t="s">
+        <v>3289</v>
+      </c>
     </row>
     <row r="1768">
-      <c r="A1768" s="1"/>
-      <c r="B1768" s="2"/>
-      <c r="C1768" s="2"/>
-      <c r="D1768" s="2"/>
-      <c r="E1768" s="2"/>
-      <c r="F1768" s="2"/>
-      <c r="G1768" s="2"/>
-      <c r="H1768" s="2"/>
+      <c r="A1768" s="1">
+        <v>45815.43525488426</v>
+      </c>
+      <c r="B1768" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1768" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1768" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1768" s="2" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F1768" s="2" t="s">
+        <v>3291</v>
+      </c>
+      <c r="G1768" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1768" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1769">
-      <c r="A1769" s="1"/>
-      <c r="B1769" s="2"/>
-      <c r="C1769" s="2"/>
-      <c r="D1769" s="2"/>
-      <c r="E1769" s="2"/>
-      <c r="F1769" s="2"/>
-      <c r="G1769" s="2"/>
-      <c r="H1769" s="2"/>
+      <c r="A1769" s="1">
+        <v>45815.43549878472</v>
+      </c>
+      <c r="B1769" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1769" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1769" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1769" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F1769" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G1769" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1769" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1769" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="1770">
-      <c r="A1770" s="1"/>
-      <c r="B1770" s="2"/>
-      <c r="C1770" s="2"/>
-      <c r="D1770" s="2"/>
-      <c r="E1770" s="2"/>
-      <c r="F1770" s="2"/>
-      <c r="G1770" s="2"/>
-      <c r="H1770" s="2"/>
+      <c r="A1770" s="1">
+        <v>45815.43563969908</v>
+      </c>
+      <c r="B1770" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1770" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1770" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1770" s="2" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F1770" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="G1770" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1770" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1771">
-      <c r="A1771" s="1"/>
-      <c r="B1771" s="2"/>
-      <c r="C1771" s="2"/>
-      <c r="D1771" s="2"/>
-      <c r="E1771" s="2"/>
-      <c r="F1771" s="2"/>
-      <c r="G1771" s="2"/>
-      <c r="H1771" s="2"/>
+      <c r="A1771" s="1">
+        <v>45815.435837013894</v>
+      </c>
+      <c r="B1771" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1771" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1771" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1771" s="2" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F1771" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="G1771" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1771" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1772">
-      <c r="A1772" s="1"/>
-      <c r="B1772" s="2"/>
-      <c r="C1772" s="2"/>
-      <c r="D1772" s="2"/>
-      <c r="E1772" s="2"/>
-      <c r="F1772" s="2"/>
-      <c r="G1772" s="2"/>
-      <c r="H1772" s="2"/>
+      <c r="A1772" s="1">
+        <v>45815.43596351852</v>
+      </c>
+      <c r="B1772" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1772" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1772" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1772" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F1772" s="2" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G1772" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1772" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1773">
-      <c r="A1773" s="1"/>
-      <c r="B1773" s="2"/>
-      <c r="C1773" s="2"/>
-      <c r="D1773" s="2"/>
-      <c r="E1773" s="2"/>
-      <c r="F1773" s="2"/>
-      <c r="G1773" s="2"/>
-      <c r="H1773" s="2"/>
+      <c r="A1773" s="1">
+        <v>45815.43613275463</v>
+      </c>
+      <c r="B1773" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1773" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1773" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1773" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F1773" s="2" t="s">
+        <v>3301</v>
+      </c>
+      <c r="G1773" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1773" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1774">
-      <c r="A1774" s="1"/>
-      <c r="B1774" s="2"/>
-      <c r="C1774" s="2"/>
-      <c r="D1774" s="2"/>
-      <c r="E1774" s="2"/>
-      <c r="F1774" s="2"/>
-      <c r="G1774" s="2"/>
-      <c r="H1774" s="2"/>
+      <c r="A1774" s="1">
+        <v>45815.43665859954</v>
+      </c>
+      <c r="B1774" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1774" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1774" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1774" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F1774" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="G1774" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1774" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1774" s="2" t="s">
+        <v>1677</v>
+      </c>
     </row>
     <row r="1775">
-      <c r="A1775" s="1"/>
-      <c r="B1775" s="2"/>
-      <c r="C1775" s="2"/>
-      <c r="D1775" s="2"/>
-      <c r="E1775" s="2"/>
-      <c r="F1775" s="2"/>
-      <c r="G1775" s="2"/>
-      <c r="H1775" s="2"/>
+      <c r="A1775" s="1">
+        <v>45815.4368215625</v>
+      </c>
+      <c r="B1775" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1775" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1775" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1775" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F1775" s="2" t="s">
+        <v>3305</v>
+      </c>
+      <c r="G1775" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1775" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="I1775" s="2" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="1776">
-      <c r="A1776" s="1"/>
-      <c r="B1776" s="2"/>
-      <c r="C1776" s="2"/>
-      <c r="D1776" s="2"/>
-      <c r="E1776" s="2"/>
-      <c r="F1776" s="2"/>
-      <c r="G1776" s="2"/>
-      <c r="H1776" s="2"/>
+      <c r="A1776" s="1">
+        <v>45815.43704295139</v>
+      </c>
+      <c r="B1776" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1776" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1776" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1776" s="2" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F1776" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="G1776" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1776" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I1776" s="2" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="1777">
-      <c r="A1777" s="1"/>
-      <c r="B1777" s="2"/>
-      <c r="C1777" s="2"/>
-      <c r="D1777" s="2"/>
-      <c r="E1777" s="2"/>
-      <c r="F1777" s="2"/>
-      <c r="G1777" s="2"/>
-      <c r="H1777" s="2"/>
+      <c r="A1777" s="1">
+        <v>45815.437470046294</v>
+      </c>
+      <c r="B1777" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1777" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1777" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1777" s="2" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F1777" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="G1777" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1777" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1778">
-      <c r="A1778" s="1"/>
-      <c r="B1778" s="2"/>
-      <c r="C1778" s="2"/>
-      <c r="D1778" s="2"/>
-      <c r="E1778" s="2"/>
-      <c r="F1778" s="2"/>
-      <c r="G1778" s="2"/>
-      <c r="H1778" s="2"/>
+      <c r="A1778" s="1">
+        <v>45815.43761133101</v>
+      </c>
+      <c r="B1778" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1778" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1778" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1778" s="2" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F1778" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="G1778" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1778" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1779">
-      <c r="A1779" s="1"/>
-      <c r="B1779" s="2"/>
-      <c r="C1779" s="2"/>
-      <c r="D1779" s="2"/>
-      <c r="E1779" s="2"/>
-      <c r="F1779" s="2"/>
-      <c r="G1779" s="2"/>
-      <c r="H1779" s="2"/>
+      <c r="A1779" s="1">
+        <v>45815.437821388885</v>
+      </c>
+      <c r="B1779" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1779" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1779" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1779" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F1779" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G1779" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1779" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1780">
-      <c r="A1780" s="1"/>
-      <c r="B1780" s="2"/>
-      <c r="C1780" s="2"/>
-      <c r="D1780" s="2"/>
-      <c r="E1780" s="2"/>
-      <c r="F1780" s="2"/>
-      <c r="G1780" s="2"/>
-      <c r="H1780" s="2"/>
+      <c r="A1780" s="1">
+        <v>45815.43799364583</v>
+      </c>
+      <c r="B1780" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1780" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1780" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1780" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F1780" s="2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G1780" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1780" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1781">
-      <c r="A1781" s="1"/>
-      <c r="B1781" s="2"/>
-      <c r="C1781" s="2"/>
-      <c r="D1781" s="2"/>
-      <c r="E1781" s="2"/>
-      <c r="F1781" s="2"/>
-      <c r="G1781" s="2"/>
-      <c r="H1781" s="2"/>
+      <c r="A1781" s="1">
+        <v>45815.43813185186</v>
+      </c>
+      <c r="B1781" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1781" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1781" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1781" s="2" t="s">
+        <v>3317</v>
+      </c>
+      <c r="F1781" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G1781" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1781" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1782">
-      <c r="A1782" s="1"/>
-      <c r="B1782" s="2"/>
-      <c r="C1782" s="2"/>
-      <c r="D1782" s="2"/>
-      <c r="E1782" s="2"/>
-      <c r="F1782" s="2"/>
-      <c r="G1782" s="2"/>
-      <c r="H1782" s="2"/>
+      <c r="A1782" s="1">
+        <v>45815.43817828703</v>
+      </c>
+      <c r="B1782" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1782" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1782" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1782" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F1782" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1782" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1782" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1783">
-      <c r="A1783" s="1"/>
-      <c r="B1783" s="2"/>
-      <c r="C1783" s="2"/>
-      <c r="D1783" s="2"/>
-      <c r="E1783" s="2"/>
-      <c r="F1783" s="2"/>
-      <c r="G1783" s="2"/>
-      <c r="H1783" s="2"/>
+      <c r="A1783" s="1">
+        <v>45815.43833711806</v>
+      </c>
+      <c r="B1783" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1783" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1783" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1783" s="2" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F1783" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G1783" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1783" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1784">
-      <c r="A1784" s="1"/>
-      <c r="B1784" s="2"/>
-      <c r="C1784" s="2"/>
-      <c r="D1784" s="2"/>
-      <c r="E1784" s="2"/>
-      <c r="F1784" s="2"/>
-      <c r="G1784" s="2"/>
-      <c r="H1784" s="2"/>
+      <c r="A1784" s="1">
+        <v>45815.43866668981</v>
+      </c>
+      <c r="B1784" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1784" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1784" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1784" s="2" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F1784" s="2" t="s">
+        <v>3323</v>
+      </c>
+      <c r="G1784" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1784" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1785">
-      <c r="A1785" s="1"/>
-      <c r="B1785" s="2"/>
-      <c r="C1785" s="2"/>
-      <c r="D1785" s="2"/>
-      <c r="E1785" s="2"/>
-      <c r="F1785" s="2"/>
-      <c r="G1785" s="2"/>
-      <c r="H1785" s="2"/>
+      <c r="A1785" s="1">
+        <v>45815.43907194445</v>
+      </c>
+      <c r="B1785" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1785" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1785" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1785" s="2" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F1785" s="2" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G1785" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1785" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="I1785" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1786">
-      <c r="A1786" s="1"/>
-      <c r="B1786" s="2"/>
-      <c r="C1786" s="2"/>
-      <c r="D1786" s="2"/>
-      <c r="E1786" s="2"/>
-      <c r="F1786" s="2"/>
-      <c r="G1786" s="2"/>
-      <c r="H1786" s="2"/>
+      <c r="A1786" s="1">
+        <v>45815.43932283565</v>
+      </c>
+      <c r="B1786" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1786" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1786" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1786" s="2" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F1786" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G1786" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1786" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1786" s="2" t="s">
+        <v>3329</v>
+      </c>
     </row>
     <row r="1787">
-      <c r="A1787" s="1"/>
-      <c r="B1787" s="2"/>
-      <c r="C1787" s="2"/>
-      <c r="D1787" s="2"/>
-      <c r="E1787" s="2"/>
-      <c r="F1787" s="2"/>
-      <c r="G1787" s="2"/>
-      <c r="H1787" s="2"/>
+      <c r="A1787" s="1">
+        <v>45815.43952864583</v>
+      </c>
+      <c r="B1787" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1787" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1787" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1787" s="2" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F1787" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1787" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1787" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1788">
-      <c r="A1788" s="1"/>
-      <c r="B1788" s="2"/>
-      <c r="C1788" s="2"/>
-      <c r="D1788" s="2"/>
-      <c r="E1788" s="2"/>
-      <c r="F1788" s="2"/>
-      <c r="G1788" s="2"/>
-      <c r="H1788" s="2"/>
+      <c r="A1788" s="1">
+        <v>45815.4395646412</v>
+      </c>
+      <c r="B1788" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1788" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1788" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1788" s="2" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F1788" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1788" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1788" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1789">
-      <c r="A1789" s="1"/>
-      <c r="B1789" s="2"/>
-      <c r="C1789" s="2"/>
-      <c r="D1789" s="2"/>
-      <c r="E1789" s="2"/>
-      <c r="F1789" s="2"/>
-      <c r="G1789" s="2"/>
-      <c r="H1789" s="2"/>
+      <c r="A1789" s="1">
+        <v>45815.439710798615</v>
+      </c>
+      <c r="B1789" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1789" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1789" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1789" s="2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F1789" s="2" t="s">
+        <v>3333</v>
+      </c>
+      <c r="G1789" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1789" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1790">
-      <c r="A1790" s="1"/>
-      <c r="B1790" s="2"/>
-      <c r="C1790" s="2"/>
-      <c r="D1790" s="2"/>
-      <c r="E1790" s="2"/>
-      <c r="F1790" s="2"/>
-      <c r="G1790" s="2"/>
-      <c r="H1790" s="2"/>
+      <c r="A1790" s="1">
+        <v>45815.439761076384</v>
+      </c>
+      <c r="B1790" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1790" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1790" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1790" s="2" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F1790" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1790" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1790" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1791">
-      <c r="A1791" s="1"/>
-      <c r="B1791" s="2"/>
-      <c r="C1791" s="2"/>
-      <c r="D1791" s="2"/>
-      <c r="E1791" s="2"/>
-      <c r="F1791" s="2"/>
-      <c r="G1791" s="2"/>
-      <c r="H1791" s="2"/>
+      <c r="A1791" s="1">
+        <v>45815.43979495371</v>
+      </c>
+      <c r="B1791" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1791" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1791" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1791" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F1791" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1791" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1791" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1792">
-      <c r="A1792" s="1"/>
-      <c r="B1792" s="2"/>
-      <c r="C1792" s="2"/>
-      <c r="D1792" s="2"/>
-      <c r="E1792" s="2"/>
-      <c r="F1792" s="2"/>
-      <c r="G1792" s="2"/>
-      <c r="H1792" s="2"/>
+      <c r="A1792" s="1">
+        <v>45815.440014803244</v>
+      </c>
+      <c r="B1792" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1792" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1792" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1792" s="2" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F1792" s="2" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G1792" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1792" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1793">
-      <c r="A1793" s="1"/>
-      <c r="B1793" s="2"/>
-      <c r="C1793" s="2"/>
-      <c r="D1793" s="2"/>
-      <c r="E1793" s="2"/>
-      <c r="F1793" s="2"/>
-      <c r="G1793" s="2"/>
-      <c r="H1793" s="2"/>
+      <c r="A1793" s="1">
+        <v>45815.44016252315</v>
+      </c>
+      <c r="B1793" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1793" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1793" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1793" s="2" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F1793" s="2" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G1793" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1793" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1794">
-      <c r="A1794" s="1"/>
-      <c r="B1794" s="2"/>
-      <c r="C1794" s="2"/>
-      <c r="D1794" s="2"/>
-      <c r="E1794" s="2"/>
-      <c r="F1794" s="2"/>
-      <c r="G1794" s="2"/>
-      <c r="H1794" s="2"/>
+      <c r="A1794" s="1">
+        <v>45815.44022722222</v>
+      </c>
+      <c r="B1794" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1794" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1794" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1794" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F1794" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1794" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1794" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1795">
-      <c r="A1795" s="1"/>
-      <c r="B1795" s="2"/>
-      <c r="C1795" s="2"/>
-      <c r="D1795" s="2"/>
-      <c r="E1795" s="2"/>
-      <c r="F1795" s="2"/>
-      <c r="G1795" s="2"/>
-      <c r="H1795" s="2"/>
+      <c r="A1795" s="1">
+        <v>45815.44038731481</v>
+      </c>
+      <c r="B1795" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1795" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1795" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1795" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F1795" s="2" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G1795" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1795" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1796">
-      <c r="A1796" s="1"/>
-      <c r="B1796" s="2"/>
-      <c r="C1796" s="2"/>
-      <c r="D1796" s="2"/>
-      <c r="E1796" s="2"/>
-      <c r="F1796" s="2"/>
-      <c r="G1796" s="2"/>
-      <c r="H1796" s="2"/>
+      <c r="A1796" s="1">
+        <v>45815.440513124995</v>
+      </c>
+      <c r="B1796" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1796" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1796" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1796" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F1796" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G1796" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1796" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="1"/>
@@ -56840,16 +59703,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>3101</v>
+        <v>3345</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3102</v>
+        <v>3346</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3103</v>
+        <v>3347</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3104</v>
+        <v>3348</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -56866,10 +59729,10 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45813.31729</v>
+        <v>45815.44051</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3105</v>
+        <v>3349</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -56883,18 +59746,18 @@
       </c>
       <c r="B3" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A3,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>681</v>
+        <v>781</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45813.31729</v>
+        <v>45815.44051</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3106</v>
+        <v>3350</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>2132</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="4">
@@ -56908,7 +59771,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45813.31729</v>
+        <v>45815.44051</v>
       </c>
     </row>
     <row r="5">
@@ -56922,7 +59785,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45813.31729</v>
+        <v>45815.44051</v>
       </c>
     </row>
     <row r="6">
@@ -56932,11 +59795,11 @@
       </c>
       <c r="B6" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A6,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45813.31729</v>
+        <v>45815.44051</v>
       </c>
     </row>
     <row r="7">
@@ -56946,11 +59809,11 @@
       </c>
       <c r="B7" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A7,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45813.31729</v>
+        <v>45815.44051</v>
       </c>
     </row>
     <row r="8">
@@ -56978,13 +59841,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3107</v>
+        <v>3351</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3108</v>
+        <v>3352</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3109</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="2">
@@ -56992,7 +59855,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -57003,7 +59866,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -57014,7 +59877,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -57025,7 +59888,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -57036,7 +59899,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -57047,7 +59910,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -57058,7 +59921,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -57069,7 +59932,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -57080,7 +59943,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -57091,7 +59954,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -57102,7 +59965,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -57113,7 +59976,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -57124,7 +59987,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -57135,7 +59998,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -57146,7 +60009,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -57157,7 +60020,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -57168,7 +60031,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -57179,7 +60042,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -57190,7 +60053,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -57201,7 +60064,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -57212,7 +60075,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -57223,7 +60086,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -57234,7 +60097,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -57245,7 +60108,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -57256,7 +60119,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -57267,7 +60130,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -57278,7 +60141,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -57289,7 +60152,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -57300,7 +60163,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -57311,7 +60174,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -57322,7 +60185,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -57333,7 +60196,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -57344,7 +60207,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -57355,7 +60218,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -57366,7 +60229,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -57377,7 +60240,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -57388,7 +60251,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -57399,7 +60262,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -57410,7 +60273,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -57421,7 +60284,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -57432,7 +60295,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -57443,7 +60306,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -57454,7 +60317,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -57465,7 +60328,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -57476,7 +60339,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -57487,7 +60350,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -57498,7 +60361,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -57509,7 +60372,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -57520,7 +60383,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -57531,7 +60394,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -57542,7 +60405,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -57553,7 +60416,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -57564,7 +60427,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -57575,7 +60438,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -57586,7 +60449,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -57597,7 +60460,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -57608,7 +60471,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -57619,7 +60482,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -57630,7 +60493,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -57641,7 +60504,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -57652,7 +60515,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -57663,7 +60526,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -57674,7 +60537,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -57685,7 +60548,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -57696,7 +60559,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -57707,7 +60570,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -57718,7 +60581,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -57729,7 +60592,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -57740,7 +60603,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -57751,7 +60614,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -57762,7 +60625,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -57773,7 +60636,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -57784,7 +60647,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -57795,7 +60658,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -57806,7 +60669,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -57817,7 +60680,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -57828,7 +60691,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -57839,7 +60702,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -57850,7 +60713,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -57861,7 +60724,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -57872,7 +60735,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -57883,7 +60746,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -57894,7 +60757,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -57905,7 +60768,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -57916,7 +60779,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -57927,7 +60790,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -57938,7 +60801,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -57949,7 +60812,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -57960,7 +60823,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -57971,7 +60834,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -57982,7 +60845,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -57993,7 +60856,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -58004,7 +60867,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -58015,7 +60878,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -58026,7 +60889,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -58037,7 +60900,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -58048,7 +60911,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -58059,7 +60922,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -58070,7 +60933,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -58081,7 +60944,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -58092,7 +60955,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -58103,7 +60966,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -58114,7 +60977,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -58125,7 +60988,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -58136,7 +60999,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -58147,7 +61010,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -58158,7 +61021,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -58169,7 +61032,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -58180,7 +61043,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -58191,7 +61054,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -58202,7 +61065,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -58213,7 +61076,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -58224,7 +61087,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -58235,7 +61098,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -58246,7 +61109,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -58257,7 +61120,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -58268,7 +61131,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -58279,7 +61142,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -58290,7 +61153,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -58301,7 +61164,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -58312,7 +61175,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -58323,7 +61186,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -58334,7 +61197,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -58345,7 +61208,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -58356,7 +61219,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -58367,7 +61230,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -58378,7 +61241,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -58389,7 +61252,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -58400,7 +61263,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -58411,7 +61274,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -58422,7 +61285,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -58433,7 +61296,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -58444,7 +61307,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -58455,7 +61318,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -58466,7 +61329,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -58477,7 +61340,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -58488,7 +61351,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -58499,7 +61362,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -58510,7 +61373,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -58521,7 +61384,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -58532,7 +61395,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -58543,7 +61406,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -58554,7 +61417,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -58565,7 +61428,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -58576,7 +61439,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -58587,7 +61450,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -58598,7 +61461,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -58609,7 +61472,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -58620,7 +61483,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -58631,7 +61494,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -58642,7 +61505,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -58653,7 +61516,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -58664,7 +61527,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -58675,7 +61538,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -58686,7 +61549,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -58697,7 +61560,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -58708,7 +61571,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -58728,7 +61591,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -58739,7 +61602,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -58750,7 +61613,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -58761,7 +61624,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -58772,7 +61635,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -58783,7 +61646,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -58794,7 +61657,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -58805,7 +61668,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -58816,7 +61679,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -58827,7 +61690,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -58838,7 +61701,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -58849,7 +61712,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -58860,7 +61723,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -58871,7 +61734,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -58882,7 +61745,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -58893,7 +61756,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="176">
@@ -58901,7 +61764,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -58912,7 +61775,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -58923,7 +61786,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -58934,7 +61797,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -58945,7 +61808,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -58956,7 +61819,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -58967,7 +61830,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -58978,7 +61841,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -58989,7 +61852,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -59000,7 +61863,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -59011,7 +61874,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -59022,7 +61885,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -59033,7 +61896,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -59044,7 +61907,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -59055,7 +61918,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -59066,7 +61929,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -59077,7 +61940,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -59088,7 +61951,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -59099,7 +61962,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -59110,7 +61973,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -59121,7 +61984,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -59132,7 +61995,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -59143,7 +62006,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -59154,7 +62017,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -59165,7 +62028,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -59176,7 +62039,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3111</v>
+        <v>3355</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -59187,7 +62050,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3110</v>
+        <v>3354</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>
@@ -61608,23 +64471,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3107</v>
+        <v>3351</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3112</v>
+        <v>3356</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3113</v>
+        <v>3357</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3109</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
         <v>2110</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>2111</v>
@@ -61634,7 +64499,9 @@
       <c r="A3" s="8" t="s">
         <v>2112</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>2113</v>
@@ -61644,7 +64511,9 @@
       <c r="A4" s="8" t="s">
         <v>2114</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>2115</v>
@@ -61654,7 +64523,9 @@
       <c r="A5" s="8" t="s">
         <v>2116</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>2117</v>
@@ -61665,7 +64536,9 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>2119</v>
       </c>
@@ -61674,7 +64547,9 @@
       <c r="A7" s="8" t="s">
         <v>2120</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>2121</v>
@@ -61684,7 +64559,9 @@
       <c r="A8" s="8" t="s">
         <v>2122</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>2123</v>
@@ -61694,7 +64571,9 @@
       <c r="A9" s="8" t="s">
         <v>2124</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>2125</v>
@@ -61705,7 +64584,9 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>2127</v>
       </c>
@@ -61715,7 +64596,9 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>2129</v>
       </c>
@@ -61724,7 +64607,9 @@
       <c r="A12" s="8" t="s">
         <v>2131</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>2132</v>
@@ -61734,7 +64619,9 @@
       <c r="A13" s="8" t="s">
         <v>2133</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>2134</v>
@@ -61744,7 +64631,9 @@
       <c r="A14" s="8" t="s">
         <v>2135</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>2136</v>
@@ -61755,7 +64644,9 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>2138</v>
       </c>
@@ -61764,7 +64655,9 @@
       <c r="A16" s="8" t="s">
         <v>2140</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>2141</v>
@@ -61774,7 +64667,9 @@
       <c r="A17" s="8" t="s">
         <v>2142</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>2143</v>
@@ -61785,7 +64680,9 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>2145</v>
       </c>
@@ -61795,7 +64692,9 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>2147</v>
       </c>
@@ -61805,7 +64704,9 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>2149</v>
       </c>
@@ -61814,7 +64715,9 @@
       <c r="A21" s="8" t="s">
         <v>2150</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>2151</v>
@@ -61824,7 +64727,9 @@
       <c r="A22" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>2153</v>
@@ -61834,7 +64739,9 @@
       <c r="A23" s="8" t="s">
         <v>2154</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>2155</v>
@@ -61844,7 +64751,9 @@
       <c r="A24" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>2157</v>
@@ -61854,7 +64763,9 @@
       <c r="A25" s="8" t="s">
         <v>2158</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>2159</v>
@@ -61864,7 +64775,9 @@
       <c r="A26" s="8" t="s">
         <v>2160</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>2161</v>
@@ -61874,7 +64787,9 @@
       <c r="A27" s="8" t="s">
         <v>2162</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>2163</v>
@@ -61884,7 +64799,9 @@
       <c r="A28" s="8" t="s">
         <v>2164</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>2165</v>
@@ -61894,7 +64811,9 @@
       <c r="A29" s="8" t="s">
         <v>2166</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>2167</v>
@@ -61904,7 +64823,9 @@
       <c r="A30" s="8" t="s">
         <v>2168</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>2169</v>
@@ -61914,7 +64835,9 @@
       <c r="A31" s="8" t="s">
         <v>2170</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>2171</v>
@@ -61924,7 +64847,9 @@
       <c r="A32" s="8" t="s">
         <v>2172</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>2173</v>
@@ -61934,7 +64859,9 @@
       <c r="A33" s="8" t="s">
         <v>2174</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>2175</v>
@@ -61944,7 +64871,9 @@
       <c r="A34" s="8" t="s">
         <v>2176</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>2177</v>
@@ -61954,7 +64883,9 @@
       <c r="A35" s="8" t="s">
         <v>2178</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>2179</v>
@@ -61964,7 +64895,9 @@
       <c r="A36" s="8" t="s">
         <v>2180</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>2181</v>
@@ -61974,7 +64907,9 @@
       <c r="A37" s="8" t="s">
         <v>2182</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
         <v>2183</v>
@@ -61984,7 +64919,9 @@
       <c r="A38" s="8" t="s">
         <v>2184</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
         <v>2185</v>
@@ -61994,7 +64931,9 @@
       <c r="A39" s="8" t="s">
         <v>2186</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
         <v>2187</v>
@@ -62004,7 +64943,9 @@
       <c r="A40" s="8" t="s">
         <v>2188</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
         <v>2189</v>
@@ -62014,7 +64955,9 @@
       <c r="A41" s="8" t="s">
         <v>2190</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
         <v>2191</v>
@@ -62024,7 +64967,9 @@
       <c r="A42" s="8" t="s">
         <v>2192</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
         <v>2193</v>
@@ -62034,7 +64979,9 @@
       <c r="A43" s="8" t="s">
         <v>2194</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
         <v>2195</v>
@@ -62044,7 +64991,9 @@
       <c r="A44" s="8" t="s">
         <v>2196</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
         <v>2197</v>
@@ -62054,7 +65003,9 @@
       <c r="A45" s="8" t="s">
         <v>2198</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
         <v>2199</v>
@@ -62064,7 +65015,9 @@
       <c r="A46" s="8" t="s">
         <v>2200</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
         <v>2201</v>
@@ -62074,7 +65027,9 @@
       <c r="A47" s="8" t="s">
         <v>2202</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
         <v>2203</v>
@@ -62084,7 +65039,9 @@
       <c r="A48" s="8" t="s">
         <v>2204</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
         <v>2205</v>
@@ -62094,7 +65051,9 @@
       <c r="A49" s="8" t="s">
         <v>2206</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
         <v>2207</v>
@@ -62104,7 +65063,9 @@
       <c r="A50" s="8" t="s">
         <v>2208</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
         <v>2209</v>
@@ -62114,7 +65075,9 @@
       <c r="A51" s="8" t="s">
         <v>2210</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>2211</v>
@@ -62124,7 +65087,9 @@
       <c r="A52" s="8" t="s">
         <v>2212</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>2213</v>
@@ -62134,7 +65099,9 @@
       <c r="A53" s="8" t="s">
         <v>2214</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>2215</v>
@@ -62144,7 +65111,9 @@
       <c r="A54" s="8" t="s">
         <v>2216</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
         <v>2217</v>
@@ -62154,7 +65123,9 @@
       <c r="A55" s="8" t="s">
         <v>2218</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>2219</v>
@@ -62164,7 +65135,9 @@
       <c r="A56" s="8" t="s">
         <v>2220</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>2221</v>
@@ -62175,7 +65148,9 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>2224</v>
       </c>
@@ -62184,7 +65159,9 @@
       <c r="A58" s="8" t="s">
         <v>2225</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
         <v>2226</v>
@@ -62195,7 +65172,9 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>2228</v>
       </c>
@@ -62204,7 +65183,9 @@
       <c r="A60" s="8" t="s">
         <v>2229</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
         <v>2230</v>
@@ -62214,8 +65195,9 @@
       <c r="A61" s="8" t="s">
         <v>2231</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>2232</v>
       </c>
@@ -62225,7 +65207,9 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>2234</v>
       </c>
@@ -62234,7 +65218,9 @@
       <c r="A63" s="8" t="s">
         <v>2235</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>2236</v>
@@ -62244,7 +65230,9 @@
       <c r="A64" s="8" t="s">
         <v>2237</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
         <v>2238</v>
@@ -62255,7 +65243,9 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>2240</v>
       </c>
@@ -62264,7 +65254,9 @@
       <c r="A66" s="8" t="s">
         <v>2241</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
         <v>2242</v>
@@ -62274,7 +65266,9 @@
       <c r="A67" s="8" t="s">
         <v>2243</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
         <v>2244</v>
@@ -62284,7 +65278,9 @@
       <c r="A68" s="8" t="s">
         <v>2247</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
         <v>2248</v>
@@ -62294,7 +65290,9 @@
       <c r="A69" s="8" t="s">
         <v>2249</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
         <v>2250</v>
@@ -62304,7 +65302,9 @@
       <c r="A70" s="8" t="s">
         <v>2251</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
         <v>2252</v>
@@ -62314,7 +65314,9 @@
       <c r="A71" s="8" t="s">
         <v>2253</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
         <v>72</v>
@@ -62324,7 +65326,9 @@
       <c r="A72" s="8" t="s">
         <v>2254</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
         <v>2255</v>
@@ -62334,7 +65338,9 @@
       <c r="A73" s="8" t="s">
         <v>2256</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
         <v>2257</v>
@@ -62344,7 +65350,9 @@
       <c r="A74" s="8" t="s">
         <v>2259</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
         <v>2260</v>
@@ -62354,7 +65362,9 @@
       <c r="A75" s="8" t="s">
         <v>2261</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
         <v>2262</v>
@@ -62364,7 +65374,9 @@
       <c r="A76" s="8" t="s">
         <v>2263</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
         <v>72</v>
@@ -62374,7 +65386,9 @@
       <c r="A77" s="8" t="s">
         <v>2264</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
         <v>2265</v>
@@ -62384,7 +65398,9 @@
       <c r="A78" s="8" t="s">
         <v>2266</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
         <v>2267</v>
@@ -62394,7 +65410,9 @@
       <c r="A79" s="8" t="s">
         <v>2268</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
         <v>2269</v>
@@ -62404,7 +65422,9 @@
       <c r="A80" s="8" t="s">
         <v>2270</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
         <v>2271</v>
@@ -62414,7 +65434,9 @@
       <c r="A81" s="8" t="s">
         <v>2272</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
         <v>2273</v>
@@ -62424,7 +65446,9 @@
       <c r="A82" s="8" t="s">
         <v>2275</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
         <v>2276</v>
@@ -62434,7 +65458,9 @@
       <c r="A83" s="8" t="s">
         <v>2278</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
         <v>2279</v>
@@ -62444,7 +65470,9 @@
       <c r="A84" s="8" t="s">
         <v>2280</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
         <v>2281</v>
@@ -62454,7 +65482,9 @@
       <c r="A85" s="8" t="s">
         <v>2282</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
         <v>2283</v>
@@ -62464,7 +65494,9 @@
       <c r="A86" s="8" t="s">
         <v>2284</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
         <v>2285</v>
@@ -62474,7 +65506,9 @@
       <c r="A87" s="8" t="s">
         <v>2286</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
         <v>2287</v>
@@ -62484,7 +65518,9 @@
       <c r="A88" s="8" t="s">
         <v>2288</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
         <v>2289</v>
@@ -62494,7 +65530,9 @@
       <c r="A89" s="8" t="s">
         <v>2291</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
         <v>72</v>
@@ -62504,7 +65542,9 @@
       <c r="A90" s="8" t="s">
         <v>2292</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
         <v>2293</v>
@@ -62514,7 +65554,9 @@
       <c r="A91" s="8" t="s">
         <v>2294</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
         <v>2295</v>
@@ -62524,7 +65566,9 @@
       <c r="A92" s="8" t="s">
         <v>2296</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
         <v>2297</v>
@@ -62535,7 +65579,9 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>2300</v>
       </c>
@@ -62544,7 +65590,9 @@
       <c r="A94" s="8" t="s">
         <v>2301</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
         <v>72</v>
@@ -62554,7 +65602,9 @@
       <c r="A95" s="8" t="s">
         <v>2302</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
         <v>2303</v>
@@ -62564,7 +65614,9 @@
       <c r="A96" s="8" t="s">
         <v>2306</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
         <v>72</v>
@@ -62574,7 +65626,9 @@
       <c r="A97" s="8" t="s">
         <v>2307</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
         <v>2308</v>
@@ -62584,7 +65638,9 @@
       <c r="A98" s="8" t="s">
         <v>2309</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
         <v>2310</v>
@@ -62594,7 +65650,9 @@
       <c r="A99" s="8" t="s">
         <v>2311</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
         <v>2312</v>
@@ -62604,7 +65662,9 @@
       <c r="A100" s="8" t="s">
         <v>2313</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
         <v>2314</v>
@@ -62614,7 +65674,9 @@
       <c r="A101" s="8" t="s">
         <v>2315</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
         <v>2316</v>
@@ -62624,7 +65686,9 @@
       <c r="A102" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
         <v>145</v>
@@ -62634,7 +65698,9 @@
       <c r="A103" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
         <v>147</v>
@@ -62644,7 +65710,9 @@
       <c r="A104" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
         <v>149</v>
@@ -62654,7 +65722,9 @@
       <c r="A105" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
         <v>151</v>
@@ -62664,7 +65734,9 @@
       <c r="A106" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
         <v>72</v>
@@ -62674,7 +65746,9 @@
       <c r="A107" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
         <v>156</v>
@@ -62684,7 +65758,9 @@
       <c r="A108" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
         <v>158</v>
@@ -62694,7 +65770,9 @@
       <c r="A109" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
         <v>72</v>
@@ -62704,7 +65782,9 @@
       <c r="A110" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
         <v>72</v>
@@ -62715,7 +65795,9 @@
         <v>161</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D111" s="2" t="s">
         <v>162</v>
       </c>
@@ -62724,7 +65806,9 @@
       <c r="A112" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
         <v>72</v>
@@ -62734,7 +65818,9 @@
       <c r="A113" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
         <v>165</v>
@@ -62744,7 +65830,9 @@
       <c r="A114" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
         <v>167</v>
@@ -62754,7 +65842,9 @@
       <c r="A115" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
         <v>169</v>
@@ -62764,7 +65854,9 @@
       <c r="A116" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
         <v>72</v>
@@ -62774,7 +65866,9 @@
       <c r="A117" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
         <v>72</v>
@@ -62784,7 +65878,9 @@
       <c r="A118" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
         <v>72</v>
@@ -62794,7 +65890,9 @@
       <c r="A119" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
         <v>174</v>
@@ -62804,7 +65902,9 @@
       <c r="A120" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
         <v>176</v>
@@ -62815,7 +65915,9 @@
         <v>177</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D121" s="2" t="s">
         <v>178</v>
       </c>
@@ -62824,7 +65926,9 @@
       <c r="A122" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
         <v>72</v>
@@ -62834,7 +65938,9 @@
       <c r="A123" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
         <v>181</v>
@@ -62844,7 +65950,9 @@
       <c r="A124" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
         <v>183</v>
@@ -62854,7 +65962,9 @@
       <c r="A125" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
         <v>185</v>
@@ -62864,7 +65974,9 @@
       <c r="A126" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
         <v>189</v>
@@ -62874,7 +65986,9 @@
       <c r="A127" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
         <v>72</v>
@@ -62884,7 +65998,9 @@
       <c r="A128" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
         <v>72</v>
@@ -62894,7 +66010,9 @@
       <c r="A129" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
         <v>193</v>
@@ -62904,7 +66022,9 @@
       <c r="A130" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
         <v>195</v>
@@ -62914,7 +66034,9 @@
       <c r="A131" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
         <v>197</v>
@@ -62924,7 +66046,9 @@
       <c r="A132" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
         <v>199</v>
@@ -62934,7 +66058,9 @@
       <c r="A133" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
         <v>201</v>
@@ -62944,7 +66070,9 @@
       <c r="A134" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
         <v>203</v>
@@ -62954,7 +66082,9 @@
       <c r="A135" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
         <v>205</v>
@@ -62964,7 +66094,9 @@
       <c r="A136" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
         <v>208</v>
@@ -62974,7 +66106,9 @@
       <c r="A137" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
         <v>210</v>
@@ -62984,7 +66118,9 @@
       <c r="A138" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
         <v>72</v>
@@ -62994,7 +66130,9 @@
       <c r="A139" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
         <v>213</v>
@@ -63004,7 +66142,9 @@
       <c r="A140" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
         <v>215</v>
@@ -63014,7 +66154,9 @@
       <c r="A141" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
         <v>72</v>
@@ -63024,7 +66166,9 @@
       <c r="A142" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
         <v>72</v>
@@ -63035,7 +66179,9 @@
         <v>218</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D143" s="2" t="s">
         <v>219</v>
       </c>
@@ -63045,7 +66191,9 @@
         <v>220</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D144" s="2" t="s">
         <v>221</v>
       </c>
@@ -63054,7 +66202,9 @@
       <c r="A145" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
         <v>223</v>
@@ -63064,7 +66214,9 @@
       <c r="A146" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
         <v>225</v>
@@ -63074,7 +66226,9 @@
       <c r="A147" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
         <v>72</v>
@@ -63084,7 +66238,9 @@
       <c r="A148" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
         <v>228</v>
@@ -63094,7 +66250,9 @@
       <c r="A149" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
         <v>230</v>
@@ -63104,7 +66262,9 @@
       <c r="A150" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
         <v>232</v>
@@ -63114,7 +66274,9 @@
       <c r="A151" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
         <v>234</v>
@@ -63124,7 +66286,9 @@
       <c r="A152" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
         <v>236</v>
@@ -63134,7 +66298,9 @@
       <c r="A153" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
         <v>238</v>
@@ -63144,7 +66310,9 @@
       <c r="A154" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
         <v>240</v>
@@ -63154,7 +66322,9 @@
       <c r="A155" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
         <v>72</v>
@@ -63164,7 +66334,9 @@
       <c r="A156" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
         <v>243</v>
@@ -63174,7 +66346,9 @@
       <c r="A157" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
         <v>245</v>
@@ -63184,7 +66358,9 @@
       <c r="A158" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
         <v>247</v>
@@ -63194,7 +66370,9 @@
       <c r="A159" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
         <v>72</v>
@@ -63204,7 +66382,9 @@
       <c r="A160" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B160" s="2"/>
+      <c r="B160" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
         <v>72</v>
@@ -63214,7 +66394,9 @@
       <c r="A161" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
         <v>72</v>
@@ -63224,7 +66406,9 @@
       <c r="A162" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
         <v>72</v>
@@ -63234,7 +66418,9 @@
       <c r="A163" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
         <v>72</v>
@@ -63244,7 +66430,9 @@
       <c r="A164" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B164" s="2"/>
+      <c r="B164" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
         <v>72</v>
@@ -63254,7 +66442,9 @@
       <c r="A165" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
         <v>255</v>
@@ -63264,7 +66454,9 @@
       <c r="A166" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
         <v>72</v>
@@ -63274,7 +66466,9 @@
       <c r="A167" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
         <v>72</v>
@@ -63284,7 +66478,9 @@
       <c r="A168" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
         <v>259</v>
@@ -63294,7 +66490,9 @@
       <c r="A169" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
         <v>72</v>
@@ -63304,7 +66502,9 @@
       <c r="A170" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
         <v>72</v>
@@ -63314,7 +66514,9 @@
       <c r="A171" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B171" s="2"/>
+      <c r="B171" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
         <v>72</v>
@@ -63324,7 +66526,9 @@
       <c r="A172" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
         <v>264</v>
@@ -63334,7 +66538,9 @@
       <c r="A173" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
         <v>266</v>
@@ -63344,7 +66550,9 @@
       <c r="A174" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B174" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
         <v>268</v>
@@ -63354,14 +66562,18 @@
       <c r="A175" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B175" s="2"/>
+      <c r="B175" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B176" s="2"/>
+      <c r="B176" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
         <v>271</v>
@@ -63371,7 +66583,9 @@
       <c r="A177" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B177" s="2"/>
+      <c r="B177" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
         <v>72</v>
@@ -63382,7 +66596,9 @@
         <v>273</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D178" s="2" t="s">
         <v>274</v>
       </c>
@@ -63391,7 +66607,9 @@
       <c r="A179" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B179" s="2"/>
+      <c r="B179" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
         <v>276</v>
@@ -63401,7 +66619,9 @@
       <c r="A180" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
         <v>278</v>
@@ -63411,7 +66631,9 @@
       <c r="A181" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B181" s="2"/>
+      <c r="B181" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
         <v>72</v>
@@ -63421,7 +66643,9 @@
       <c r="A182" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
         <v>72</v>
@@ -63432,7 +66656,9 @@
         <v>281</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D183" s="2" t="s">
         <v>282</v>
       </c>
@@ -63441,7 +66667,9 @@
       <c r="A184" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
         <v>284</v>
@@ -63451,7 +66679,9 @@
       <c r="A185" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B185" s="2"/>
+      <c r="B185" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
         <v>72</v>
@@ -63461,7 +66691,9 @@
       <c r="A186" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
         <v>72</v>
@@ -63471,7 +66703,9 @@
       <c r="A187" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B187" s="2"/>
+      <c r="B187" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
         <v>289</v>
@@ -63481,7 +66715,9 @@
       <c r="A188" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
         <v>72</v>
@@ -63491,7 +66727,9 @@
       <c r="A189" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B189" s="2"/>
+      <c r="B189" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
         <v>292</v>
@@ -63502,7 +66740,9 @@
         <v>293</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="D190" s="2" t="s">
         <v>294</v>
       </c>
@@ -63511,7 +66751,9 @@
       <c r="A191" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B191" s="2"/>
+      <c r="B191" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
         <v>296</v>
@@ -63521,7 +66763,9 @@
       <c r="A192" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B192" s="2"/>
+      <c r="B192" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
         <v>298</v>
@@ -63531,7 +66775,9 @@
       <c r="A193" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
         <v>300</v>
@@ -63541,7 +66787,9 @@
       <c r="A194" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B194" s="2"/>
+      <c r="B194" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2" t="s">
         <v>302</v>
@@ -63551,7 +66799,9 @@
       <c r="A195" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
         <v>304</v>
@@ -63561,7 +66811,9 @@
       <c r="A196" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
         <v>72</v>
@@ -63571,7 +66823,9 @@
       <c r="A197" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
         <v>72</v>
@@ -63581,7 +66835,9 @@
       <c r="A198" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
         <v>308</v>
@@ -63591,7 +66847,9 @@
       <c r="A199" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B199" s="2"/>
+      <c r="B199" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
         <v>312</v>
@@ -63601,7 +66859,9 @@
       <c r="A200" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B200" s="2"/>
+      <c r="B200" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
         <v>314</v>
@@ -63611,7 +66871,9 @@
       <c r="A201" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
         <v>316</v>
@@ -63621,7 +66883,9 @@
       <c r="A202" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>3358</v>
+      </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2" t="s">
         <v>318</v>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13968" uniqueCount="3359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14132" uniqueCount="3398">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -10049,6 +10049,123 @@
   </si>
   <si>
     <t>You see.. he always says this .. but not actions want ..</t>
+  </si>
+  <si>
+    <t>2025-06-09T14-10-18-561Z</t>
+  </si>
+  <si>
+    <t>inputs/TeamSCD_messages9_part7.csv</t>
+  </si>
+  <si>
+    <t>My exhaust sometimes a bit tiring to listen to</t>
+  </si>
+  <si>
+    <t>My exhaust is sometimes a bit tiring to listen to</t>
+  </si>
+  <si>
+    <t>Drive with windows down less droning</t>
+  </si>
+  <si>
+    <t>Driving with windows down is less droning</t>
+  </si>
+  <si>
+    <t>That one I don't know... One day must ask someone drive my car then I sit another car</t>
+  </si>
+  <si>
+    <t>That one I don't know... One day I must ask someone drive my car, then I sit another car</t>
+  </si>
+  <si>
+    <t>When I first got it  go workshop. When mechanic start the car I thinking eh which car sound damn good. Then cb is my car 😂</t>
+  </si>
+  <si>
+    <t>When I first got it, I went to the workshop. When the mechanic started the car, I was thinking,  "eh which car sounds damn good". Then, I realised, wow! it is my car</t>
+  </si>
+  <si>
+    <t>My hks no sound. Only I can listen</t>
+  </si>
+  <si>
+    <t>I sit my friend car. And he drive my car. I can’t hear Sian. Only carpark and kpe can listen. And cold start</t>
+  </si>
+  <si>
+    <t>I sit my friend car. And he drive my car. I can’t hear, sigh. Only carpark and kpe can listen. And cold start</t>
+  </si>
+  <si>
+    <t>sian</t>
+  </si>
+  <si>
+    <t>fed-up</t>
+  </si>
+  <si>
+    <t>Can give me earn more too? Need insurance or investment linked find me! Going married can find me too HAHAHA</t>
+  </si>
+  <si>
+    <t>Can you give me to earn more too? Need insurance or investment links find me! Going married can find me too HAHAHA</t>
+  </si>
+  <si>
+    <t>Yup active sub under pax seat. U can put 2 if u want.</t>
+  </si>
+  <si>
+    <t>Only problem is  under both my seats I think are amps</t>
+  </si>
+  <si>
+    <t>Amp can route to behind pax seat 😂</t>
+  </si>
+  <si>
+    <t>I need to find a shop that can help me see what is what</t>
+  </si>
+  <si>
+    <t>Hehe wa ur sound system must be good!</t>
+  </si>
+  <si>
+    <t>Is the subwoofer that's the main issue...</t>
+  </si>
+  <si>
+    <t>It's the subwoofer. That's the main issue...</t>
+  </si>
+  <si>
+    <t>But I add android then route the audio into the pioneer</t>
+  </si>
+  <si>
+    <t>Is sound system important. Haven’t sit on a car that have good sound system</t>
+  </si>
+  <si>
+    <t>Is sound system important? Haven’t sit on a car that have good sound system</t>
+  </si>
+  <si>
+    <t>No need too expensive to make it decent. Most jap cars come with paper speakers.</t>
+  </si>
+  <si>
+    <t>Just need a set of component speakers and active sub to make it better.</t>
+  </si>
+  <si>
+    <t>Wa swee leh. Still kept the pioneer.</t>
+  </si>
+  <si>
+    <t>Wow, nice! Still kept the pioneer.</t>
+  </si>
+  <si>
+    <t>make the statement sound definite</t>
+  </si>
+  <si>
+    <t>Yeah pioneer handles my audio  phone calls  tv</t>
+  </si>
+  <si>
+    <t>Hmm currently using focal. But carousell gt this seller uh  sells speakers one. Can get from him then bring to ws install.</t>
+  </si>
+  <si>
+    <t>Hmm currently using focal. But there's this seller on Carousell that sells speakers. Can get from him then bring to ws install.</t>
+  </si>
+  <si>
+    <t>emphasis on the rightness of the sentence</t>
+  </si>
+  <si>
+    <t>Wa. I need Apple CarPlay. My stock one keep disconnecting from my Bluetooth</t>
+  </si>
+  <si>
+    <t>Have to close the trace tgt</t>
+  </si>
+  <si>
+    <t>Put an Android system in... For me it's damn worth it</t>
   </si>
   <si>
     <t>Name</t>
@@ -57641,234 +57758,611 @@
       </c>
     </row>
     <row r="1797">
-      <c r="A1797" s="1"/>
-      <c r="B1797" s="2"/>
-      <c r="C1797" s="2"/>
-      <c r="D1797" s="2"/>
-      <c r="E1797" s="2"/>
-      <c r="F1797" s="2"/>
-      <c r="G1797" s="2"/>
-      <c r="H1797" s="2"/>
+      <c r="A1797" s="1">
+        <v>45817.423988634255</v>
+      </c>
+      <c r="B1797" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1797" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1797" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1797" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F1797" s="2" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G1797" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1797" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1798">
-      <c r="A1798" s="1"/>
-      <c r="B1798" s="2"/>
-      <c r="C1798" s="2"/>
-      <c r="D1798" s="2"/>
-      <c r="E1798" s="2"/>
-      <c r="F1798" s="2"/>
-      <c r="G1798" s="2"/>
-      <c r="H1798" s="2"/>
+      <c r="A1798" s="1">
+        <v>45817.42413018519</v>
+      </c>
+      <c r="B1798" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1798" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1798" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1798" s="2" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F1798" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1798" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1798" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1799">
-      <c r="A1799" s="1"/>
-      <c r="B1799" s="2"/>
-      <c r="C1799" s="2"/>
-      <c r="D1799" s="2"/>
-      <c r="E1799" s="2"/>
-      <c r="F1799" s="2"/>
-      <c r="G1799" s="2"/>
-      <c r="H1799" s="2"/>
+      <c r="A1799" s="1">
+        <v>45817.42433790509</v>
+      </c>
+      <c r="B1799" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1799" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1799" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1799" s="2" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F1799" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G1799" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1799" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1800">
-      <c r="A1800" s="1"/>
-      <c r="B1800" s="2"/>
-      <c r="C1800" s="2"/>
-      <c r="D1800" s="2"/>
-      <c r="E1800" s="2"/>
-      <c r="F1800" s="2"/>
-      <c r="G1800" s="2"/>
-      <c r="H1800" s="2"/>
+      <c r="A1800" s="1">
+        <v>45817.42549141204</v>
+      </c>
+      <c r="B1800" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1800" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1800" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1800" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F1800" s="2" t="s">
+        <v>3354</v>
+      </c>
+      <c r="G1800" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1800" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1801">
-      <c r="A1801" s="1"/>
-      <c r="B1801" s="2"/>
-      <c r="C1801" s="2"/>
-      <c r="D1801" s="2"/>
-      <c r="E1801" s="2"/>
-      <c r="F1801" s="2"/>
-      <c r="G1801" s="2"/>
-      <c r="H1801" s="2"/>
+      <c r="A1801" s="1">
+        <v>45817.42555289352</v>
+      </c>
+      <c r="B1801" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1801" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1801" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1801" s="2" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F1801" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1801" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1801" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1802">
-      <c r="A1802" s="1"/>
-      <c r="B1802" s="2"/>
-      <c r="C1802" s="2"/>
-      <c r="D1802" s="2"/>
-      <c r="E1802" s="2"/>
-      <c r="F1802" s="2"/>
-      <c r="G1802" s="2"/>
-      <c r="H1802" s="2"/>
+      <c r="A1802" s="1">
+        <v>45817.42581914352</v>
+      </c>
+      <c r="B1802" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1802" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1802" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1802" s="2" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F1802" s="2" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G1802" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1802" s="2" t="s">
+        <v>3358</v>
+      </c>
+      <c r="I1802" s="2" t="s">
+        <v>3359</v>
+      </c>
     </row>
     <row r="1803">
-      <c r="A1803" s="1"/>
-      <c r="B1803" s="2"/>
-      <c r="C1803" s="2"/>
-      <c r="D1803" s="2"/>
-      <c r="E1803" s="2"/>
-      <c r="F1803" s="2"/>
-      <c r="G1803" s="2"/>
-      <c r="H1803" s="2"/>
+      <c r="A1803" s="1">
+        <v>45817.426066597225</v>
+      </c>
+      <c r="B1803" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1803" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1803" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1803" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F1803" s="2" t="s">
+        <v>3361</v>
+      </c>
+      <c r="G1803" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1803" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1804">
-      <c r="A1804" s="1"/>
-      <c r="B1804" s="2"/>
-      <c r="C1804" s="2"/>
-      <c r="D1804" s="2"/>
-      <c r="E1804" s="2"/>
-      <c r="F1804" s="2"/>
-      <c r="G1804" s="2"/>
-      <c r="H1804" s="2"/>
+      <c r="A1804" s="1">
+        <v>45817.426134699075</v>
+      </c>
+      <c r="B1804" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1804" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1804" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1804" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F1804" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1804" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1804" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1805">
-      <c r="A1805" s="1"/>
-      <c r="B1805" s="2"/>
-      <c r="C1805" s="2"/>
-      <c r="D1805" s="2"/>
-      <c r="E1805" s="2"/>
-      <c r="F1805" s="2"/>
-      <c r="G1805" s="2"/>
-      <c r="H1805" s="2"/>
+      <c r="A1805" s="1">
+        <v>45817.42616747685</v>
+      </c>
+      <c r="B1805" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1805" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1805" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1805" s="2" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F1805" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1805" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1805" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1806">
-      <c r="A1806" s="1"/>
-      <c r="B1806" s="2"/>
-      <c r="C1806" s="2"/>
-      <c r="D1806" s="2"/>
-      <c r="E1806" s="2"/>
-      <c r="F1806" s="2"/>
-      <c r="G1806" s="2"/>
-      <c r="H1806" s="2"/>
+      <c r="A1806" s="1">
+        <v>45817.426207592594</v>
+      </c>
+      <c r="B1806" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1806" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1806" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1806" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F1806" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1806" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1806" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1807">
-      <c r="A1807" s="1"/>
-      <c r="B1807" s="2"/>
-      <c r="C1807" s="2"/>
-      <c r="D1807" s="2"/>
-      <c r="E1807" s="2"/>
-      <c r="F1807" s="2"/>
-      <c r="G1807" s="2"/>
-      <c r="H1807" s="2"/>
+      <c r="A1807" s="1">
+        <v>45817.42625184028</v>
+      </c>
+      <c r="B1807" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1807" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1807" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1807" s="2" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F1807" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1807" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1807" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1808">
-      <c r="A1808" s="1"/>
-      <c r="B1808" s="2"/>
-      <c r="C1808" s="2"/>
-      <c r="D1808" s="2"/>
-      <c r="E1808" s="2"/>
-      <c r="F1808" s="2"/>
-      <c r="G1808" s="2"/>
-      <c r="H1808" s="2"/>
+      <c r="A1808" s="1">
+        <v>45817.426387893516</v>
+      </c>
+      <c r="B1808" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1808" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1808" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1808" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F1808" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1808" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1808" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1809">
-      <c r="A1809" s="1"/>
-      <c r="B1809" s="2"/>
-      <c r="C1809" s="2"/>
-      <c r="D1809" s="2"/>
-      <c r="E1809" s="2"/>
-      <c r="F1809" s="2"/>
-      <c r="G1809" s="2"/>
-      <c r="H1809" s="2"/>
+      <c r="A1809" s="1">
+        <v>45817.4265390162</v>
+      </c>
+      <c r="B1809" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1809" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1809" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1809" s="2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F1809" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="G1809" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1809" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1810">
-      <c r="A1810" s="1"/>
-      <c r="B1810" s="2"/>
-      <c r="C1810" s="2"/>
-      <c r="D1810" s="2"/>
-      <c r="E1810" s="2"/>
-      <c r="F1810" s="2"/>
-      <c r="G1810" s="2"/>
-      <c r="H1810" s="2"/>
+      <c r="A1810" s="1">
+        <v>45817.426687314815</v>
+      </c>
+      <c r="B1810" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1810" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1810" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1810" s="2" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F1810" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1810" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1810" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1811">
-      <c r="A1811" s="1"/>
-      <c r="B1811" s="2"/>
-      <c r="C1811" s="2"/>
-      <c r="D1811" s="2"/>
-      <c r="E1811" s="2"/>
-      <c r="F1811" s="2"/>
-      <c r="G1811" s="2"/>
-      <c r="H1811" s="2"/>
+      <c r="A1811" s="1">
+        <v>45817.42677697916</v>
+      </c>
+      <c r="B1811" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1811" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1811" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1811" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="F1811" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="G1811" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1811" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1812">
-      <c r="A1812" s="1"/>
-      <c r="B1812" s="2"/>
-      <c r="C1812" s="2"/>
-      <c r="D1812" s="2"/>
-      <c r="E1812" s="2"/>
-      <c r="F1812" s="2"/>
-      <c r="G1812" s="2"/>
-      <c r="H1812" s="2"/>
+      <c r="A1812" s="1">
+        <v>45817.42685134259</v>
+      </c>
+      <c r="B1812" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1812" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1812" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1812" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F1812" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1812" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1812" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1813">
-      <c r="A1813" s="1"/>
-      <c r="B1813" s="2"/>
-      <c r="C1813" s="2"/>
-      <c r="D1813" s="2"/>
-      <c r="E1813" s="2"/>
-      <c r="F1813" s="2"/>
-      <c r="G1813" s="2"/>
-      <c r="H1813" s="2"/>
+      <c r="A1813" s="1">
+        <v>45817.4268912963</v>
+      </c>
+      <c r="B1813" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1813" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1813" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1813" s="2" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F1813" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1813" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1813" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1814">
-      <c r="A1814" s="1"/>
-      <c r="B1814" s="2"/>
-      <c r="C1814" s="2"/>
-      <c r="D1814" s="2"/>
-      <c r="E1814" s="2"/>
-      <c r="F1814" s="2"/>
-      <c r="G1814" s="2"/>
-      <c r="H1814" s="2"/>
+      <c r="A1814" s="1">
+        <v>45817.427226493055</v>
+      </c>
+      <c r="B1814" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1814" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1814" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1814" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F1814" s="2" t="s">
+        <v>3375</v>
+      </c>
+      <c r="G1814" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1814" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1814" s="2" t="s">
+        <v>3376</v>
+      </c>
     </row>
     <row r="1815">
-      <c r="A1815" s="1"/>
-      <c r="B1815" s="2"/>
-      <c r="C1815" s="2"/>
-      <c r="D1815" s="2"/>
-      <c r="E1815" s="2"/>
-      <c r="F1815" s="2"/>
-      <c r="G1815" s="2"/>
-      <c r="H1815" s="2"/>
+      <c r="A1815" s="1">
+        <v>45817.427278483796</v>
+      </c>
+      <c r="B1815" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1815" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1815" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1815" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F1815" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1815" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1815" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1816">
-      <c r="A1816" s="1"/>
-      <c r="B1816" s="2"/>
-      <c r="C1816" s="2"/>
-      <c r="D1816" s="2"/>
-      <c r="E1816" s="2"/>
-      <c r="F1816" s="2"/>
-      <c r="G1816" s="2"/>
-      <c r="H1816" s="2"/>
+      <c r="A1816" s="1">
+        <v>45817.42770027778</v>
+      </c>
+      <c r="B1816" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1816" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1816" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1816" s="2" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F1816" s="2" t="s">
+        <v>3379</v>
+      </c>
+      <c r="G1816" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1816" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1816" s="2" t="s">
+        <v>3380</v>
+      </c>
     </row>
     <row r="1817">
-      <c r="A1817" s="1"/>
-      <c r="B1817" s="2"/>
-      <c r="C1817" s="2"/>
-      <c r="D1817" s="2"/>
-      <c r="E1817" s="2"/>
-      <c r="F1817" s="2"/>
-      <c r="G1817" s="2"/>
-      <c r="H1817" s="2"/>
+      <c r="A1817" s="1">
+        <v>45817.427766782406</v>
+      </c>
+      <c r="B1817" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1817" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1817" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1817" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F1817" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1817" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1817" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1818">
-      <c r="A1818" s="1"/>
-      <c r="B1818" s="2"/>
-      <c r="C1818" s="2"/>
-      <c r="D1818" s="2"/>
-      <c r="E1818" s="2"/>
-      <c r="F1818" s="2"/>
-      <c r="G1818" s="2"/>
-      <c r="H1818" s="2"/>
+      <c r="A1818" s="1">
+        <v>45817.42779347222</v>
+      </c>
+      <c r="B1818" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1818" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1818" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1818" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F1818" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1818" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1818" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1819">
-      <c r="A1819" s="1"/>
-      <c r="B1819" s="2"/>
-      <c r="C1819" s="2"/>
-      <c r="D1819" s="2"/>
-      <c r="E1819" s="2"/>
-      <c r="F1819" s="2"/>
-      <c r="G1819" s="2"/>
-      <c r="H1819" s="2"/>
+      <c r="A1819" s="1">
+        <v>45817.4278278125</v>
+      </c>
+      <c r="B1819" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1819" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1819" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1819" s="2" t="s">
+        <v>3383</v>
+      </c>
+      <c r="F1819" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1819" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1819" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="1"/>
@@ -59703,16 +60197,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>3345</v>
+        <v>3384</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3346</v>
+        <v>3385</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3347</v>
+        <v>3386</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3348</v>
+        <v>3387</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -59725,14 +60219,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45815.44051</v>
+        <v>45817.42783</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3349</v>
+        <v>3388</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -59750,14 +60244,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45815.44051</v>
+        <v>45817.42783</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3350</v>
+        <v>3389</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(B2:B7)</f>
-        <v>2286</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="4">
@@ -59771,7 +60265,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45815.44051</v>
+        <v>45817.42783</v>
       </c>
     </row>
     <row r="5">
@@ -59785,7 +60279,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45815.44051</v>
+        <v>45817.42783</v>
       </c>
     </row>
     <row r="6">
@@ -59799,7 +60293,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45815.44051</v>
+        <v>45817.42783</v>
       </c>
     </row>
     <row r="7">
@@ -59813,7 +60307,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45815.44051</v>
+        <v>45817.42783</v>
       </c>
     </row>
     <row r="8">
@@ -59841,13 +60335,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3351</v>
+        <v>3390</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3352</v>
+        <v>3391</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3353</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2">
@@ -59855,7 +60349,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -59866,7 +60360,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -59877,7 +60371,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -59888,7 +60382,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -59899,7 +60393,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -59910,7 +60404,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -59921,7 +60415,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -59932,7 +60426,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -59943,7 +60437,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -59954,7 +60448,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -59965,7 +60459,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -59976,7 +60470,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -59987,7 +60481,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -59998,7 +60492,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -60009,7 +60503,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -60020,7 +60514,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -60031,7 +60525,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -60042,7 +60536,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -60053,7 +60547,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -60064,7 +60558,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -60075,7 +60569,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -60086,7 +60580,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -60097,7 +60591,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -60108,7 +60602,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -60119,7 +60613,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -60130,7 +60624,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -60141,7 +60635,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -60152,7 +60646,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -60163,7 +60657,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -60174,7 +60668,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -60185,7 +60679,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -60196,7 +60690,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -60207,7 +60701,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -60218,7 +60712,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -60229,7 +60723,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -60240,7 +60734,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -60251,7 +60745,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -60262,7 +60756,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -60273,7 +60767,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -60284,7 +60778,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -60295,7 +60789,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -60306,7 +60800,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -60317,7 +60811,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -60328,7 +60822,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -60339,7 +60833,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -60350,7 +60844,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -60361,7 +60855,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -60372,7 +60866,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -60383,7 +60877,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -60394,7 +60888,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -60405,7 +60899,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -60416,7 +60910,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -60427,7 +60921,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -60438,7 +60932,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -60449,7 +60943,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -60460,7 +60954,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -60471,7 +60965,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -60482,7 +60976,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -60493,7 +60987,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -60504,7 +60998,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -60515,7 +61009,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -60526,7 +61020,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -60537,7 +61031,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -60548,7 +61042,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -60559,7 +61053,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -60570,7 +61064,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -60581,7 +61075,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -60592,7 +61086,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -60603,7 +61097,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -60614,7 +61108,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -60625,7 +61119,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -60636,7 +61130,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -60647,7 +61141,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -60658,7 +61152,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -60669,7 +61163,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -60680,7 +61174,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -60691,7 +61185,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -60702,7 +61196,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -60713,7 +61207,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -60724,7 +61218,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -60735,7 +61229,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -60746,7 +61240,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -60757,7 +61251,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -60768,7 +61262,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -60779,7 +61273,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -60790,7 +61284,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -60801,7 +61295,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -60812,7 +61306,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -60823,7 +61317,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -60834,7 +61328,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -60845,7 +61339,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -60856,7 +61350,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -60867,7 +61361,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -60878,7 +61372,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -60889,7 +61383,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -60900,7 +61394,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -60911,7 +61405,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -60922,7 +61416,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -60933,7 +61427,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -60944,7 +61438,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -60955,7 +61449,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -60966,7 +61460,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -60977,7 +61471,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -60988,7 +61482,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -60999,7 +61493,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -61010,7 +61504,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -61021,7 +61515,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -61032,7 +61526,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -61043,7 +61537,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -61054,7 +61548,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -61065,7 +61559,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -61076,7 +61570,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -61087,7 +61581,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -61098,7 +61592,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -61109,7 +61603,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -61120,7 +61614,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -61131,7 +61625,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -61142,7 +61636,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -61153,7 +61647,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -61164,7 +61658,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -61175,7 +61669,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -61186,7 +61680,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -61197,7 +61691,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -61208,7 +61702,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -61219,7 +61713,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -61230,7 +61724,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -61241,7 +61735,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -61252,7 +61746,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -61263,7 +61757,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -61274,7 +61768,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -61285,7 +61779,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -61296,7 +61790,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -61307,7 +61801,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -61318,7 +61812,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -61329,7 +61823,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -61340,7 +61834,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -61351,7 +61845,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -61362,7 +61856,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -61373,7 +61867,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -61384,7 +61878,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -61395,7 +61889,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -61406,7 +61900,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -61417,7 +61911,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -61428,7 +61922,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -61439,7 +61933,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -61450,7 +61944,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -61461,7 +61955,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -61472,7 +61966,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -61483,7 +61977,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -61494,7 +61988,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -61505,7 +61999,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -61516,7 +62010,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -61527,7 +62021,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -61538,7 +62032,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -61549,7 +62043,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -61560,7 +62054,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -61571,7 +62065,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -61591,7 +62085,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -61602,7 +62096,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -61613,7 +62107,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -61624,7 +62118,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -61635,7 +62129,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -61646,7 +62140,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -61657,7 +62151,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -61668,7 +62162,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -61679,7 +62173,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -61690,7 +62184,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -61701,7 +62195,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -61712,7 +62206,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -61723,7 +62217,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -61734,7 +62228,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -61745,7 +62239,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -61756,7 +62250,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="176">
@@ -61764,7 +62258,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -61775,7 +62269,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -61786,7 +62280,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -61797,7 +62291,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -61808,7 +62302,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -61819,7 +62313,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -61830,7 +62324,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -61841,7 +62335,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -61852,7 +62346,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -61863,7 +62357,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -61874,7 +62368,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -61885,7 +62379,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -61896,7 +62390,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -61907,7 +62401,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -61918,7 +62412,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -61929,7 +62423,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -61940,7 +62434,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -61951,7 +62445,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -61962,7 +62456,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -61973,7 +62467,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -61984,7 +62478,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -61995,7 +62489,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -62006,7 +62500,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -62017,7 +62511,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -62028,7 +62522,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -62039,7 +62533,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3355</v>
+        <v>3394</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -62050,7 +62544,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3354</v>
+        <v>3393</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>
@@ -64471,16 +64965,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3351</v>
+        <v>3390</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3356</v>
+        <v>3395</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3357</v>
+        <v>3396</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3353</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2">
@@ -64488,7 +64982,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -64500,7 +64994,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -64512,7 +65006,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -64524,7 +65018,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -64537,7 +65031,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2119</v>
@@ -64548,7 +65042,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -64560,7 +65054,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -64572,7 +65066,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -64585,7 +65079,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2127</v>
@@ -64597,7 +65091,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2129</v>
@@ -64608,7 +65102,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -64620,7 +65114,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -64632,7 +65126,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -64645,7 +65139,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2138</v>
@@ -64656,7 +65150,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -64668,7 +65162,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -64681,7 +65175,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2145</v>
@@ -64693,7 +65187,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2147</v>
@@ -64705,7 +65199,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2149</v>
@@ -64716,7 +65210,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -64728,7 +65222,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -64740,7 +65234,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -64752,7 +65246,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -64764,7 +65258,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
@@ -64776,7 +65270,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -64788,7 +65282,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -64800,7 +65294,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -64812,7 +65306,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -64824,7 +65318,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -64836,7 +65330,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -64848,7 +65342,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -64860,7 +65354,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -64872,7 +65366,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -64884,7 +65378,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -64896,7 +65390,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -64908,7 +65402,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -64920,7 +65414,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -64932,7 +65426,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
@@ -64944,7 +65438,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -64956,7 +65450,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
@@ -64968,7 +65462,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -64980,7 +65474,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -64992,7 +65486,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -65004,7 +65498,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
@@ -65016,7 +65510,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -65028,7 +65522,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
@@ -65040,7 +65534,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -65052,7 +65546,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
@@ -65064,7 +65558,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -65076,7 +65570,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
@@ -65088,7 +65582,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
@@ -65100,7 +65594,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
@@ -65112,7 +65606,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
@@ -65124,7 +65618,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
@@ -65136,7 +65630,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
@@ -65149,7 +65643,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2224</v>
@@ -65160,7 +65654,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
@@ -65173,7 +65667,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2228</v>
@@ -65184,7 +65678,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -65196,7 +65690,7 @@
         <v>2231</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2232</v>
@@ -65208,7 +65702,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>2234</v>
@@ -65219,7 +65713,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
@@ -65231,7 +65725,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -65244,7 +65738,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2240</v>
@@ -65255,7 +65749,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -65267,7 +65761,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
@@ -65279,7 +65773,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -65291,7 +65785,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
@@ -65303,7 +65797,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -65315,7 +65809,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
@@ -65327,7 +65821,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -65339,7 +65833,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
@@ -65351,7 +65845,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -65363,7 +65857,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
@@ -65375,7 +65869,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
@@ -65387,7 +65881,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
@@ -65399,7 +65893,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -65411,7 +65905,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
@@ -65423,7 +65917,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
@@ -65435,7 +65929,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
@@ -65447,7 +65941,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -65459,7 +65953,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
@@ -65471,7 +65965,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
@@ -65483,7 +65977,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
@@ -65495,7 +65989,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
@@ -65507,7 +66001,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
@@ -65519,7 +66013,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
@@ -65531,7 +66025,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
@@ -65543,7 +66037,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -65555,7 +66049,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
@@ -65567,7 +66061,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
@@ -65580,7 +66074,7 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>2300</v>
@@ -65591,7 +66085,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
@@ -65603,7 +66097,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
@@ -65615,7 +66109,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
@@ -65627,7 +66121,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
@@ -65639,7 +66133,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
@@ -65651,7 +66145,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
@@ -65663,7 +66157,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
@@ -65675,7 +66169,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
@@ -65687,7 +66181,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
@@ -65699,7 +66193,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
@@ -65711,7 +66205,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
@@ -65723,7 +66217,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
@@ -65735,7 +66229,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
@@ -65747,7 +66241,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
@@ -65759,7 +66253,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
@@ -65771,7 +66265,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
@@ -65783,7 +66277,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
@@ -65796,7 +66290,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>162</v>
@@ -65807,7 +66301,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
@@ -65819,7 +66313,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
@@ -65831,7 +66325,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
@@ -65843,7 +66337,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
@@ -65855,7 +66349,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
@@ -65867,7 +66361,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
@@ -65879,7 +66373,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
@@ -65891,7 +66385,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
@@ -65903,7 +66397,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
@@ -65916,7 +66410,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>178</v>
@@ -65927,7 +66421,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
@@ -65939,7 +66433,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
@@ -65951,7 +66445,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
@@ -65963,7 +66457,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
@@ -65975,7 +66469,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
@@ -65987,7 +66481,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
@@ -65999,7 +66493,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
@@ -66011,7 +66505,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
@@ -66023,7 +66517,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
@@ -66035,7 +66529,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
@@ -66047,7 +66541,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
@@ -66059,7 +66553,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
@@ -66071,7 +66565,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -66083,7 +66577,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
@@ -66095,7 +66589,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
@@ -66107,7 +66601,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
@@ -66119,7 +66613,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
@@ -66131,7 +66625,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
@@ -66143,7 +66637,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
@@ -66155,7 +66649,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
@@ -66167,7 +66661,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
@@ -66180,7 +66674,7 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>219</v>
@@ -66192,7 +66686,7 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>221</v>
@@ -66203,7 +66697,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
@@ -66215,7 +66709,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
@@ -66227,7 +66721,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
@@ -66239,7 +66733,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
@@ -66251,7 +66745,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
@@ -66263,7 +66757,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
@@ -66275,7 +66769,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
@@ -66287,7 +66781,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
@@ -66299,7 +66793,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
@@ -66311,7 +66805,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
@@ -66323,7 +66817,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
@@ -66335,7 +66829,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
@@ -66347,7 +66841,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
@@ -66359,7 +66853,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
@@ -66371,7 +66865,7 @@
         <v>248</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
@@ -66383,7 +66877,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
@@ -66395,7 +66889,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
@@ -66407,7 +66901,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
@@ -66419,7 +66913,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
@@ -66431,7 +66925,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
@@ -66443,7 +66937,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
@@ -66455,7 +66949,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
@@ -66467,7 +66961,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
@@ -66479,7 +66973,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
@@ -66491,7 +66985,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
@@ -66503,7 +66997,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
@@ -66515,7 +67009,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
@@ -66527,7 +67021,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
@@ -66539,7 +67033,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
@@ -66551,7 +67045,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
@@ -66563,7 +67057,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C175" s="2"/>
     </row>
@@ -66572,7 +67066,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
@@ -66584,7 +67078,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
@@ -66597,7 +67091,7 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>274</v>
@@ -66608,7 +67102,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
@@ -66620,7 +67114,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
@@ -66632,7 +67126,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
@@ -66644,7 +67138,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
@@ -66657,7 +67151,7 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>282</v>
@@ -66668,7 +67162,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
@@ -66680,7 +67174,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
@@ -66692,7 +67186,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
@@ -66704,7 +67198,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
@@ -66716,7 +67210,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
@@ -66728,7 +67222,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
@@ -66741,7 +67235,7 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>294</v>
@@ -66752,7 +67246,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
@@ -66764,7 +67258,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
@@ -66776,7 +67270,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
@@ -66788,7 +67282,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2" t="s">
@@ -66800,7 +67294,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
@@ -66812,7 +67306,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
@@ -66824,7 +67318,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
@@ -66836,7 +67330,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
@@ -66848,7 +67342,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
@@ -66860,7 +67354,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
@@ -66872,7 +67366,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
@@ -66884,7 +67378,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3358</v>
+        <v>3397</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2" t="s">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -60223,7 +60223,7 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45817.42783</v>
+        <v>45834.54292</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3388</v>
@@ -60244,7 +60244,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45817.42783</v>
+        <v>45834.54292</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3389</v>
@@ -60265,7 +60265,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45817.42783</v>
+        <v>45834.54292</v>
       </c>
     </row>
     <row r="5">
@@ -60279,7 +60279,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45817.42783</v>
+        <v>45834.54292</v>
       </c>
     </row>
     <row r="6">
@@ -60293,7 +60293,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45817.42783</v>
+        <v>45834.54292</v>
       </c>
     </row>
     <row r="7">
@@ -60307,7 +60307,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45817.42783</v>
+        <v>45834.54292</v>
       </c>
     </row>
     <row r="8">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14132" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14837" uniqueCount="3582">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -10166,6 +10166,558 @@
   </si>
   <si>
     <t>Put an Android system in... For me it's damn worth it</t>
+  </si>
+  <si>
+    <t>2025-06-29T05-50-02-121Z</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages209_part2.csv</t>
+  </si>
+  <si>
+    <t>not the kpt close or what</t>
+  </si>
+  <si>
+    <t>Is it that the kpt is closed?</t>
+  </si>
+  <si>
+    <t>Yes. Agreed. There are lots of unreported cases.</t>
+  </si>
+  <si>
+    <t>Bought new phone from apple store</t>
+  </si>
+  <si>
+    <t>I bought a new phone from the Apple store.</t>
+  </si>
+  <si>
+    <t>Good Morning everyone. After a long long wait  it's finally a Friday.</t>
+  </si>
+  <si>
+    <t>Good Morning everyone. After a fairly long wait, it's finally a Friday.</t>
+  </si>
+  <si>
+    <t>who is he referring to 🤔</t>
+  </si>
+  <si>
+    <t>Who is he referring to?</t>
+  </si>
+  <si>
+    <t>Y so many ppl like to advert here. Is it cos we r friendly  kind hearted n good ppl n this gc is very active.</t>
+  </si>
+  <si>
+    <t>Why is everyone advertising here? Is that because we are friendly, kind-hearted, and good people, and that this group chat is very active?</t>
+  </si>
+  <si>
+    <t>Didn't realise got 10K+ ppl here. Active only a hand full. Reading also a good past time.</t>
+  </si>
+  <si>
+    <t>I didn't really there are more than ten thousand people here! But there are only a handful of active ones. Reading is also a good past time.</t>
+  </si>
+  <si>
+    <t>Never eat before. But tempted to try.😂</t>
+  </si>
+  <si>
+    <t>I've never eaten before, but I am tempted to try</t>
+  </si>
+  <si>
+    <t>No added sugar ice cream  super shiok</t>
+  </si>
+  <si>
+    <t>Ice cream without added sugar is very enjoyable</t>
+  </si>
+  <si>
+    <t>Go try the sugar coated ones</t>
+  </si>
+  <si>
+    <t>I would recommend trying the sugar-coated ones</t>
+  </si>
+  <si>
+    <t>I don't kNow how all this work.😂</t>
+  </si>
+  <si>
+    <t>I am not sure of how all of these would work 😂</t>
+  </si>
+  <si>
+    <t>I now quite free. Waiting for my tech to finish work out from camp.</t>
+  </si>
+  <si>
+    <t>I am quite free now. I'm waiting for my tech person to finish working out from camp.</t>
+  </si>
+  <si>
+    <t>From a no sugar cafe in King Albert Park  can order online</t>
+  </si>
+  <si>
+    <t>It's from a café at King Albert Park that sells sugar-free delights. It can be ordered online</t>
+  </si>
+  <si>
+    <t>Everything must play aroundWho know one day all the scammers inside scamming each other.😂</t>
+  </si>
+  <si>
+    <t>Everything that goes around comes around. Perhaps, one day, the scammers would get scammed by one another 😂</t>
+  </si>
+  <si>
+    <t>the guy still pay for it? i would have laughed out loudly and walked off</t>
+  </si>
+  <si>
+    <t>The guy still paid for it? I would have laughed out loud and walked off</t>
+  </si>
+  <si>
+    <t>Their mock meat counted as meat price de</t>
+  </si>
+  <si>
+    <t>The price of the mock meat here is the same as meat</t>
+  </si>
+  <si>
+    <t>It is as such</t>
+  </si>
+  <si>
+    <t>I love mock fish n mock mutton~~ 😂</t>
+  </si>
+  <si>
+    <t>I love the mock fish and mock mutton</t>
+  </si>
+  <si>
+    <t>show her this  then the middle finger  den walk away</t>
+  </si>
+  <si>
+    <t>Show her this and the middle finger, and thereafter walk away</t>
+  </si>
+  <si>
+    <t>Hii friend  I want to rent a car for Saturday.  do you know where i can rent a car for 1 day ? Thanks 😁</t>
+  </si>
+  <si>
+    <t>Hi friend, I would like to rent a car for Saturday. Do you know where I can rent a car for a day? Thanks 😁</t>
+  </si>
+  <si>
+    <t>very expensive for 1 day 🥲because they count every hour</t>
+  </si>
+  <si>
+    <t>It will be very expensive for 1 day, because they charge by the hour</t>
+  </si>
+  <si>
+    <t>Coz you snubbed meI hate being snubbedSo that was intentional</t>
+  </si>
+  <si>
+    <t>Coz you snubbed, and Mel hates being snubbed. So that was intentional</t>
+  </si>
+  <si>
+    <t>i have searched on carousell but most of them for weekend have to rent 3 days while mine only need 1 day🙃🙃</t>
+  </si>
+  <si>
+    <t>I have searched on Carousell. Most of them need a 3-day rent for the weekend, but mine only needs 1 day</t>
+  </si>
+  <si>
+    <t>they need nric while i'm a tourist 🙃</t>
+  </si>
+  <si>
+    <t>aiya singapore so small  try our MRT and buses la.</t>
+  </si>
+  <si>
+    <t>Singapore is very small. Try our MRT and buses.</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Yeah?</t>
+  </si>
+  <si>
+    <t>want to walk around singapore with parents who can't walk anymore</t>
+  </si>
+  <si>
+    <t>Orhh no wonder u say take weeks to process  my frens de bluesg all just go pick up point n pick up jiu can le</t>
+  </si>
+  <si>
+    <t>I see why u say it takes weeks to process. For bluesg, my friends could all just go to the pick-up point, pick it up, and all is done.</t>
+  </si>
+  <si>
+    <t>because I have an international driving license that's why I want to bring my own car😅</t>
+  </si>
+  <si>
+    <t>Because I have an international driving license, I want to bring my own car😅</t>
+  </si>
+  <si>
+    <t>45$-50$ / day for weekdaysbut if for the weekend they require to take the package</t>
+  </si>
+  <si>
+    <t>It is $45-50 per day for the weekdays, but a a package is required for the weekend</t>
+  </si>
+  <si>
+    <t>Like that i need buy 2 More sim card leh.😂</t>
+  </si>
+  <si>
+    <t>Given this, I need to buy 2 more SIM cards 😂</t>
+  </si>
+  <si>
+    <t>Mild protest</t>
+  </si>
+  <si>
+    <t>🚖 ComfortDelGro 🚖🟢 $5 OFF Rides🟡 ComfortDelGro app users w/ promo code🟡 Users going to / from Dempsey / Esplanade🟣 Ends 30 JunLearn more:https://bit.ly/3b5RVYO@sgcheapo#transportationFor advertising  please contact@sgCheapo_adminon Telegram.</t>
+  </si>
+  <si>
+    <t>I still got 1 Malaysia number  maybe can try.😂</t>
+  </si>
+  <si>
+    <t>I still have 1 Malaysian nunber. Perhaps, we can try? 😂</t>
+  </si>
+  <si>
+    <t>u sim card beng is it</t>
+  </si>
+  <si>
+    <t>I got singtel  m1 and giga.😂</t>
+  </si>
+  <si>
+    <t>I have one each from Singtel, M1 and Giga 😂</t>
+  </si>
+  <si>
+    <t>He never buy for me he only buy for other girl girl de bobian this phone is i ownself buy lor🥲</t>
+  </si>
+  <si>
+    <t>He has never bought it for me. He has only bought it for the other girl, so I had no choice, but to buy it for myself 🥲</t>
+  </si>
+  <si>
+    <t>$11 for a sad looking lunch. I sure flip table</t>
+  </si>
+  <si>
+    <t>It was $11 for a sad-looking lunch. I will surely be unhappy</t>
+  </si>
+  <si>
+    <t>That’s literally so near my house 💀</t>
+  </si>
+  <si>
+    <t>Want rain faster rain  later i cannot go home.</t>
+  </si>
+  <si>
+    <t>If the rain is to come, it should come fast, otherwise, I will not be able to go home.</t>
+  </si>
+  <si>
+    <t>I have to cycle home de leh.😂</t>
+  </si>
+  <si>
+    <t>I definitely need to cycle home</t>
+  </si>
+  <si>
+    <t>Slight complain</t>
+  </si>
+  <si>
+    <t>it’s ok the rain can help give your car free wash</t>
+  </si>
+  <si>
+    <t>It's ok, the rain can help to give your car a free wash</t>
+  </si>
+  <si>
+    <t>Change color. See silver see until sian liao.😂</t>
+  </si>
+  <si>
+    <t>Change the color. I've grown tired of seeing it silver 😂</t>
+  </si>
+  <si>
+    <t>Resignation</t>
+  </si>
+  <si>
+    <t>close to the end of next month then go back hehe</t>
+  </si>
+  <si>
+    <t>Ah new look for ur car?</t>
+  </si>
+  <si>
+    <t>Won't la. I Not this kind of people.🤣</t>
+  </si>
+  <si>
+    <t>I won't. I'm not this kind of a person 🤣</t>
+  </si>
+  <si>
+    <t>Why ü same as my friend..😂</t>
+  </si>
+  <si>
+    <t>Why are you the same as my friend..😂</t>
+  </si>
+  <si>
+    <t>One of the member have liao. Don't copy. Must be unique😂</t>
+  </si>
+  <si>
+    <t>One of the members have it already. Don't you copy. Would be great to be unique 😂</t>
+  </si>
+  <si>
+    <t>I mean my car group member.😂</t>
+  </si>
+  <si>
+    <t>I meant a member from my car group 😂</t>
+  </si>
+  <si>
+    <t>Mai la act shen me ae86..😂</t>
+  </si>
+  <si>
+    <t>Have. But that owner sot plug one.</t>
+  </si>
+  <si>
+    <t>He sell own friend things at ebay price.</t>
+  </si>
+  <si>
+    <t>wah his OF will hv leading lady le</t>
+  </si>
+  <si>
+    <t>2025-06-29T14-33-30-317Z</t>
+  </si>
+  <si>
+    <t>inputs/LalamoveUnofficialSG_messages35_part8.csv</t>
+  </si>
+  <si>
+    <t>My superbike can fly leh look me no up</t>
+  </si>
+  <si>
+    <t>My superbike can indeed fly! You are looking down on me.</t>
+  </si>
+  <si>
+    <t>add emphasis, meaning Indeed</t>
+  </si>
+  <si>
+    <t>This one I said “f*ck waste time bye” and close.</t>
+  </si>
+  <si>
+    <t>For this one, I said, “f*ck waste time bye” and closed it.</t>
+  </si>
+  <si>
+    <t>Too many claims... eat into their margin so they making it more difficult to claim. Many will find it too troublesome to claim.</t>
+  </si>
+  <si>
+    <t>how are you getting so many $5 orders when the starting base is $10? my order revenue is already after commission  i get numbers like 10.52  not round numbers. information fee seems to be something else.</t>
+  </si>
+  <si>
+    <t>and i dont get information on all orders. in fact most orders dont have this fee.</t>
+  </si>
+  <si>
+    <t>cannot be the 16%... his info fee numbers are way too large. one of them ($9.38) is higher than the order revenue ($5). 16% of $5 is only 80c.</t>
+  </si>
+  <si>
+    <t>did u take a lot of cash orders?</t>
+  </si>
+  <si>
+    <t>could be the 16% deduction from the cash collected. but have to check against order history. cash collected not shown in balance details.</t>
+  </si>
+  <si>
+    <t>Am i supposed to collect 32?I jus follow the payable amouny</t>
+  </si>
+  <si>
+    <t>Am i supposed to collect 32?I jus followed the payable amount.</t>
+  </si>
+  <si>
+    <t>Yup should be $32 u need to collect</t>
+  </si>
+  <si>
+    <t>Yup should be $32. u needed to collect</t>
+  </si>
+  <si>
+    <t>U from 13 km away where are u now</t>
+  </si>
+  <si>
+    <t>U from 13 km away. where are u now?</t>
+  </si>
+  <si>
+    <t>Confirm is those scam from sms say what roll money and shit. Later bank account tio lock. 🤣</t>
+  </si>
+  <si>
+    <t>These confirmed are those scams from SMS that say what roll money and shit. Later the bank account got locked.</t>
+  </si>
+  <si>
+    <t>Last job go Trevose mah don't want to waste fuel just camp around</t>
+  </si>
+  <si>
+    <t>Last job go to Trevose. Don't want to waste fuel just camping around.</t>
+  </si>
+  <si>
+    <t>pointing out something is obvious</t>
+  </si>
+  <si>
+    <t>Now citi pick how many or less</t>
+  </si>
+  <si>
+    <t>Now how many did citi pick?</t>
+  </si>
+  <si>
+    <t>3-4 last min job but didn't take</t>
+  </si>
+  <si>
+    <t>See can get grain or not usually this timing they got jobs with cbd</t>
+  </si>
+  <si>
+    <t>See if you can get grain or not. Usually during this timing, they got jobs with CBD.</t>
+  </si>
+  <si>
+    <t>Where can get your amulet 🧿</t>
+  </si>
+  <si>
+    <t>Where can I get your amulet?</t>
+  </si>
+  <si>
+    <t>Front hit side lorry chance very less jialat</t>
+  </si>
+  <si>
+    <t>If the car's front hit the side of the lorry, the chance is very little.</t>
+  </si>
+  <si>
+    <t>Here suddenly pour so heavy rain</t>
+  </si>
+  <si>
+    <t>It is suddenly pouring here. So heavy rain.</t>
+  </si>
+  <si>
+    <t>You pray which God? I need his/her protection</t>
+  </si>
+  <si>
+    <t>You pray to which God? I need his/her protection.</t>
+  </si>
+  <si>
+    <t>Last year tio 2 parking at cq and gwc the long kang. Appealed both to no avail</t>
+  </si>
+  <si>
+    <t>Last year I got 2 parking fines at cq and the long kang at gwc. Appealed to both but to no avail.</t>
+  </si>
+  <si>
+    <t>You got screenshot the job when you send the appeal?</t>
+  </si>
+  <si>
+    <t>Did you screenshot the job when you sent the appeal?</t>
+  </si>
+  <si>
+    <t>Anyone knows why my llm app keep saying network busy?</t>
+  </si>
+  <si>
+    <t>Anyone knows why my llm app keeps saying network busy?</t>
+  </si>
+  <si>
+    <t>lol~ Now need to liaise with their client? Underpaid lerh</t>
+  </si>
+  <si>
+    <t>lol~ Now I need to liaise with their client? Underpaid...</t>
+  </si>
+  <si>
+    <t>Emphasis the obvious, soften the emphasis</t>
+  </si>
+  <si>
+    <t>Hi. How is fare for round trip calculated?</t>
+  </si>
+  <si>
+    <t>Eg from Thomson to Tampines and Thomson again?</t>
+  </si>
+  <si>
+    <t>Eg from Thomson to Tampines and back to Thomson again?</t>
+  </si>
+  <si>
+    <t>So it doesn’t calculated basis total mileage??</t>
+  </si>
+  <si>
+    <t>So it doesn’t get calculated based on total mileage??</t>
+  </si>
+  <si>
+    <t>Means it’s just Point A to Point B. And then +4 or +8 depending on motorcycle or car??</t>
+  </si>
+  <si>
+    <t>Eg. Jurong West to Pasir Ris is approx 25 bucks by motorcycle. A round trip would be +4 total 29???!!!</t>
+  </si>
+  <si>
+    <t>No  because round trip is only meant for documents or small items (eg signed invoice)  you are to return it any time before day ends. Ie. Return at your convenienceIt is not meant to be a double trip</t>
+  </si>
+  <si>
+    <t>No because round trip is only meant for documents or small items (eg signed invoice). you are to return it any time before day ends. Ie. Return at your convenience. It is not meant to be a double trip</t>
+  </si>
+  <si>
+    <t>If that’s the case...then there’s something inherently skewed with the fare computation</t>
+  </si>
+  <si>
+    <t>But if my order is at 8pm. Anytime before the day ends is like 4hrs?</t>
+  </si>
+  <si>
+    <t>You need to understand the services better  all these should have been in the web training or your handouts</t>
+  </si>
+  <si>
+    <t>You need to understand the services better. all these should have been in the web training or your handouts</t>
+  </si>
+  <si>
+    <t>Shit. Should never take round trip jobs.</t>
+  </si>
+  <si>
+    <t>Short term memory. I forget stuff</t>
+  </si>
+  <si>
+    <t>Anyway thanks for replying me. Much appreciated</t>
+  </si>
+  <si>
+    <t>Update. I think they clicked round trip by mistake. Haha. Extra 4 bucks</t>
+  </si>
+  <si>
+    <t>It’s been like this since covid started. I kena once at Marina One double yellow  Certis Cisco take photo all  but letter never come. Little India 1.5 months ago  also same double yellow  only kena warning indicated on the ticket.</t>
+  </si>
+  <si>
+    <t>It’s been like this since covid started. I got once at Marina One. double yellowline, and Certis Cisco take photo all but letter never come. Little India 1.5 months ago also same. double yellow only got a warning indicated on the ticket.</t>
+  </si>
+  <si>
+    <t>Now no 24/7 eyes on the app</t>
+  </si>
+  <si>
+    <t>Now I don't have 24/7 eyes on the app</t>
+  </si>
+  <si>
+    <t>Good morning  I am Syafiq from Lalamove sticker team.As you have not managed to submit your photos for the March sticker verification  I would like to enquire if you still have the sticker on your vehicle.Please be reminded that as part of the 6 months minimum commitment period  you are required to submit photos of your vehicle with the stickers on a monthly basis.As for MPVs  Vans  and Lorries  you are required to submit the photos of your vehicle with the stickers even after the minimum 6 months commitment period.Kindly submit your photos here with the sign of the month (Wallet) by Friday (26th March 2021).Do note that drivers who fail to submit photos will be suspended and your security deposit of $75  will be confiscated.Please feel free to drop me a whatsapp message if you have any other enquiries pertaining to the sticker program Thank you.Our address:10 Ubi Crescent  Ubi Techpark Lobby C#04-35 Singapore 408564Opening Hours: Weekdays 9am - 5pm excluding Public holidays</t>
+  </si>
+  <si>
+    <t>$75 deposit no more n suspended  😢</t>
+  </si>
+  <si>
+    <t>$75 deposit lost, and suspended</t>
+  </si>
+  <si>
+    <t>No  is he no more sticker</t>
+  </si>
+  <si>
+    <t>No. it's that he has no more stickers.</t>
+  </si>
+  <si>
+    <t>Eh after 6 mth also need submit  then what is the meaning of "minimum 6 mth commitment"Chey</t>
+  </si>
+  <si>
+    <t>Hey, after 6 mth, I also need to submit then what is the meaning of "minimum 6 mth commitment"?</t>
+  </si>
+  <si>
+    <t>chey</t>
+  </si>
+  <si>
+    <t>hand waving</t>
+  </si>
+  <si>
+    <t>U break contract they forfeit your deposit.</t>
+  </si>
+  <si>
+    <t>So if vehicle deregistered then can get back $75?</t>
+  </si>
+  <si>
+    <t>So if the vehicle is deregistered, can you get back $75?</t>
+  </si>
+  <si>
+    <t>Lol holland v really cannot play play 2nd time liao</t>
+  </si>
+  <si>
+    <t>Lol holland v really cannot be negligent the 2nd time</t>
+  </si>
+  <si>
+    <t>Eh but they say mpv need to continue submitting even after 6mth leh</t>
+  </si>
+  <si>
+    <t>Oh, but they said for mpv need to continue submitting even after 6mth</t>
+  </si>
+  <si>
+    <t>I'm using car for lalamove. Should I buy a trolley?</t>
+  </si>
+  <si>
+    <t>*Official Launch of Smart Matching Feature*The official launch of the smart matching feature will be *tomorrow  25 March 2021!* Seize this opportunity to earn more from your deliveries with new Smart Matching feature. It's the new way of getting orders that you will surely enjoy!We want you to be ready  so get to know this new feature and know how it works:1. More decision making time is given to you so think smartly and carefully whether it's an order that you want to take up. Review the orders before the timer runs out.2. Once you've decided to take that order  swipe the "Join Now" Button to join Smart Matching.3. Wait to see if you get it!4. Do not cancel any orders with no valid reason  it will affect your cancellation rate which will impact your chances of getting an order5. When matched  you can call the customer and proceed to the pick up location.The order matching criteria is based on Distance  Cancellation Rate  Rating and Sticker. Please provide excellent service to our customers to be able to take up more orders! 🤩</t>
+  </si>
+  <si>
+    <t>Waste timeAll cheapo don't want matchThey will cancel</t>
+  </si>
+  <si>
+    <t>Waste time. All are people that cheapen out and don't want to match. They will cancel</t>
   </si>
   <si>
     <t>Name</t>
@@ -58365,1004 +58917,2627 @@
       </c>
     </row>
     <row r="1820">
-      <c r="A1820" s="1"/>
-      <c r="B1820" s="2"/>
-      <c r="C1820" s="2"/>
-      <c r="D1820" s="2"/>
-      <c r="E1820" s="2"/>
-      <c r="F1820" s="2"/>
-      <c r="G1820" s="2"/>
-      <c r="H1820" s="2"/>
+      <c r="A1820" s="1">
+        <v>45837.076925208334</v>
+      </c>
+      <c r="B1820" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1820" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1820" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1820" s="2" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F1820" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="G1820" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1820" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1821">
-      <c r="A1821" s="1"/>
-      <c r="B1821" s="2"/>
-      <c r="C1821" s="2"/>
-      <c r="D1821" s="2"/>
-      <c r="E1821" s="2"/>
-      <c r="F1821" s="2"/>
-      <c r="G1821" s="2"/>
-      <c r="H1821" s="2"/>
+      <c r="A1821" s="1">
+        <v>45837.07741324074</v>
+      </c>
+      <c r="B1821" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1821" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1821" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1821" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F1821" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="G1821" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1821" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1822">
-      <c r="A1822" s="1"/>
-      <c r="B1822" s="2"/>
-      <c r="C1822" s="2"/>
-      <c r="D1822" s="2"/>
-      <c r="E1822" s="2"/>
-      <c r="F1822" s="2"/>
-      <c r="G1822" s="2"/>
-      <c r="H1822" s="2"/>
+      <c r="A1822" s="1">
+        <v>45837.077719548615</v>
+      </c>
+      <c r="B1822" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1822" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1822" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1822" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F1822" s="2" t="s">
+        <v>3391</v>
+      </c>
+      <c r="G1822" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1822" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1823">
-      <c r="A1823" s="1"/>
-      <c r="B1823" s="2"/>
-      <c r="C1823" s="2"/>
-      <c r="D1823" s="2"/>
-      <c r="E1823" s="2"/>
-      <c r="F1823" s="2"/>
-      <c r="G1823" s="2"/>
-      <c r="H1823" s="2"/>
+      <c r="A1823" s="1">
+        <v>45837.07819366898</v>
+      </c>
+      <c r="B1823" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1823" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1823" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1823" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F1823" s="2" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G1823" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1823" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1824">
-      <c r="A1824" s="1"/>
-      <c r="B1824" s="2"/>
-      <c r="C1824" s="2"/>
-      <c r="D1824" s="2"/>
-      <c r="E1824" s="2"/>
-      <c r="F1824" s="2"/>
-      <c r="G1824" s="2"/>
-      <c r="H1824" s="2"/>
+      <c r="A1824" s="1">
+        <v>45837.078376261576</v>
+      </c>
+      <c r="B1824" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1824" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1824" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1824" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F1824" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G1824" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1824" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1825">
-      <c r="A1825" s="1"/>
-      <c r="B1825" s="2"/>
-      <c r="C1825" s="2"/>
-      <c r="D1825" s="2"/>
-      <c r="E1825" s="2"/>
-      <c r="F1825" s="2"/>
-      <c r="G1825" s="2"/>
-      <c r="H1825" s="2"/>
+      <c r="A1825" s="1">
+        <v>45837.08036979167</v>
+      </c>
+      <c r="B1825" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1825" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1825" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1825" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="F1825" s="2" t="s">
+        <v>3397</v>
+      </c>
+      <c r="G1825" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1825" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1826">
-      <c r="A1826" s="1"/>
-      <c r="B1826" s="2"/>
-      <c r="C1826" s="2"/>
-      <c r="D1826" s="2"/>
-      <c r="E1826" s="2"/>
-      <c r="F1826" s="2"/>
-      <c r="G1826" s="2"/>
-      <c r="H1826" s="2"/>
+      <c r="A1826" s="1">
+        <v>45837.081079930555</v>
+      </c>
+      <c r="B1826" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1826" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1826" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1826" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F1826" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G1826" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1826" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1827">
-      <c r="A1827" s="1"/>
-      <c r="B1827" s="2"/>
-      <c r="C1827" s="2"/>
-      <c r="D1827" s="2"/>
-      <c r="E1827" s="2"/>
-      <c r="F1827" s="2"/>
-      <c r="G1827" s="2"/>
-      <c r="H1827" s="2"/>
+      <c r="A1827" s="1">
+        <v>45837.08143310185</v>
+      </c>
+      <c r="B1827" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1827" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1827" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1827" s="2" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F1827" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="G1827" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1827" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1828">
-      <c r="A1828" s="1"/>
-      <c r="B1828" s="2"/>
-      <c r="C1828" s="2"/>
-      <c r="D1828" s="2"/>
-      <c r="E1828" s="2"/>
-      <c r="F1828" s="2"/>
-      <c r="G1828" s="2"/>
-      <c r="H1828" s="2"/>
+      <c r="A1828" s="1">
+        <v>45837.08234763889</v>
+      </c>
+      <c r="B1828" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1828" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1828" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1828" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F1828" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="G1828" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1828" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1829">
-      <c r="A1829" s="1"/>
-      <c r="B1829" s="2"/>
-      <c r="C1829" s="2"/>
-      <c r="D1829" s="2"/>
-      <c r="E1829" s="2"/>
-      <c r="F1829" s="2"/>
-      <c r="G1829" s="2"/>
-      <c r="H1829" s="2"/>
+      <c r="A1829" s="1">
+        <v>45837.082763796294</v>
+      </c>
+      <c r="B1829" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1829" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1829" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1829" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F1829" s="2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G1829" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1829" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1830">
-      <c r="A1830" s="1"/>
-      <c r="B1830" s="2"/>
-      <c r="C1830" s="2"/>
-      <c r="D1830" s="2"/>
-      <c r="E1830" s="2"/>
-      <c r="F1830" s="2"/>
-      <c r="G1830" s="2"/>
-      <c r="H1830" s="2"/>
+      <c r="A1830" s="1">
+        <v>45837.08410275463</v>
+      </c>
+      <c r="B1830" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1830" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1830" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1830" s="2" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F1830" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G1830" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1830" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1831">
-      <c r="A1831" s="1"/>
-      <c r="B1831" s="2"/>
-      <c r="C1831" s="2"/>
-      <c r="D1831" s="2"/>
-      <c r="E1831" s="2"/>
-      <c r="F1831" s="2"/>
-      <c r="G1831" s="2"/>
-      <c r="H1831" s="2"/>
+      <c r="A1831" s="1">
+        <v>45837.085958854164</v>
+      </c>
+      <c r="B1831" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1831" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1831" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1831" s="2" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F1831" s="2" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G1831" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1831" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1832">
-      <c r="A1832" s="1"/>
-      <c r="B1832" s="2"/>
-      <c r="C1832" s="2"/>
-      <c r="D1832" s="2"/>
-      <c r="E1832" s="2"/>
-      <c r="F1832" s="2"/>
-      <c r="G1832" s="2"/>
-      <c r="H1832" s="2"/>
+      <c r="A1832" s="1">
+        <v>45837.08754104166</v>
+      </c>
+      <c r="B1832" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1832" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1832" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1832" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F1832" s="2" t="s">
+        <v>3411</v>
+      </c>
+      <c r="G1832" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1832" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1833">
-      <c r="A1833" s="1"/>
-      <c r="B1833" s="2"/>
-      <c r="C1833" s="2"/>
-      <c r="D1833" s="2"/>
-      <c r="E1833" s="2"/>
-      <c r="F1833" s="2"/>
-      <c r="G1833" s="2"/>
-      <c r="H1833" s="2"/>
+      <c r="A1833" s="1">
+        <v>45837.08839896991</v>
+      </c>
+      <c r="B1833" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1833" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1833" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1833" s="2" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F1833" s="2" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G1833" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1833" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1834">
-      <c r="A1834" s="1"/>
-      <c r="B1834" s="2"/>
-      <c r="C1834" s="2"/>
-      <c r="D1834" s="2"/>
-      <c r="E1834" s="2"/>
-      <c r="F1834" s="2"/>
-      <c r="G1834" s="2"/>
-      <c r="H1834" s="2"/>
+      <c r="A1834" s="1">
+        <v>45837.088972673606</v>
+      </c>
+      <c r="B1834" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1834" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1834" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1834" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F1834" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="G1834" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1834" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1835">
-      <c r="A1835" s="1"/>
-      <c r="B1835" s="2"/>
-      <c r="C1835" s="2"/>
-      <c r="D1835" s="2"/>
-      <c r="E1835" s="2"/>
-      <c r="F1835" s="2"/>
-      <c r="G1835" s="2"/>
-      <c r="H1835" s="2"/>
+      <c r="A1835" s="1">
+        <v>45837.09006665509</v>
+      </c>
+      <c r="B1835" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1835" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1835" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1835" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F1835" s="2" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G1835" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1835" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I1835" s="2" t="s">
+        <v>3418</v>
+      </c>
     </row>
     <row r="1836">
-      <c r="A1836" s="1"/>
-      <c r="B1836" s="2"/>
-      <c r="C1836" s="2"/>
-      <c r="D1836" s="2"/>
-      <c r="E1836" s="2"/>
-      <c r="F1836" s="2"/>
-      <c r="G1836" s="2"/>
-      <c r="H1836" s="2"/>
+      <c r="A1836" s="1">
+        <v>45837.090507835645</v>
+      </c>
+      <c r="B1836" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1836" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1836" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1836" s="2" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F1836" s="2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="G1836" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1836" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1837">
-      <c r="A1837" s="1"/>
-      <c r="B1837" s="2"/>
-      <c r="C1837" s="2"/>
-      <c r="D1837" s="2"/>
-      <c r="E1837" s="2"/>
-      <c r="F1837" s="2"/>
-      <c r="G1837" s="2"/>
-      <c r="H1837" s="2"/>
+      <c r="A1837" s="1">
+        <v>45837.091006365736</v>
+      </c>
+      <c r="B1837" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1837" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1837" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1837" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F1837" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="G1837" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1837" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1838">
-      <c r="A1838" s="1"/>
-      <c r="B1838" s="2"/>
-      <c r="C1838" s="2"/>
-      <c r="D1838" s="2"/>
-      <c r="E1838" s="2"/>
-      <c r="F1838" s="2"/>
-      <c r="G1838" s="2"/>
-      <c r="H1838" s="2"/>
+      <c r="A1838" s="1">
+        <v>45837.09185972222</v>
+      </c>
+      <c r="B1838" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1838" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1838" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1838" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F1838" s="2" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G1838" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1838" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1839">
-      <c r="A1839" s="1"/>
-      <c r="B1839" s="2"/>
-      <c r="C1839" s="2"/>
-      <c r="D1839" s="2"/>
-      <c r="E1839" s="2"/>
-      <c r="F1839" s="2"/>
-      <c r="G1839" s="2"/>
-      <c r="H1839" s="2"/>
+      <c r="A1839" s="1">
+        <v>45837.09250546296</v>
+      </c>
+      <c r="B1839" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1839" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1839" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1839" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F1839" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="G1839" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1839" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1840">
-      <c r="A1840" s="1"/>
-      <c r="B1840" s="2"/>
-      <c r="C1840" s="2"/>
-      <c r="D1840" s="2"/>
-      <c r="E1840" s="2"/>
-      <c r="F1840" s="2"/>
-      <c r="G1840" s="2"/>
-      <c r="H1840" s="2"/>
+      <c r="A1840" s="1">
+        <v>45837.09364006945</v>
+      </c>
+      <c r="B1840" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1840" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1840" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1840" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F1840" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="G1840" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1840" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1841">
-      <c r="A1841" s="1"/>
-      <c r="B1841" s="2"/>
-      <c r="C1841" s="2"/>
-      <c r="D1841" s="2"/>
-      <c r="E1841" s="2"/>
-      <c r="F1841" s="2"/>
-      <c r="G1841" s="2"/>
-      <c r="H1841" s="2"/>
+      <c r="A1841" s="1">
+        <v>45837.094793067125</v>
+      </c>
+      <c r="B1841" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1841" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1841" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1841" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F1841" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G1841" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1841" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1842">
-      <c r="A1842" s="1"/>
-      <c r="B1842" s="2"/>
-      <c r="C1842" s="2"/>
-      <c r="D1842" s="2"/>
-      <c r="E1842" s="2"/>
+      <c r="A1842" s="1">
+        <v>45837.09500998842</v>
+      </c>
+      <c r="B1842" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1842" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1842" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1842" s="2" t="s">
+        <v>3431</v>
+      </c>
       <c r="F1842" s="2"/>
-      <c r="G1842" s="2"/>
-      <c r="H1842" s="2"/>
+      <c r="G1842" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1842" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1843">
-      <c r="A1843" s="1"/>
-      <c r="B1843" s="2"/>
-      <c r="C1843" s="2"/>
-      <c r="D1843" s="2"/>
-      <c r="E1843" s="2"/>
-      <c r="F1843" s="2"/>
-      <c r="G1843" s="2"/>
-      <c r="H1843" s="2"/>
+      <c r="A1843" s="1">
+        <v>45837.09638015046</v>
+      </c>
+      <c r="B1843" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1843" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1843" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1843" s="2" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F1843" s="2" t="s">
+        <v>3433</v>
+      </c>
+      <c r="G1843" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1843" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I1843" s="2" t="s">
+        <v>3435</v>
+      </c>
     </row>
     <row r="1844">
-      <c r="A1844" s="1"/>
-      <c r="B1844" s="2"/>
-      <c r="C1844" s="2"/>
-      <c r="D1844" s="2"/>
-      <c r="E1844" s="2"/>
+      <c r="A1844" s="1">
+        <v>45837.09658846065</v>
+      </c>
+      <c r="B1844" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1844" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1844" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1844" s="2" t="s">
+        <v>3436</v>
+      </c>
       <c r="F1844" s="2"/>
-      <c r="G1844" s="2"/>
-      <c r="H1844" s="2"/>
+      <c r="G1844" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1844" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1845">
-      <c r="A1845" s="1"/>
-      <c r="B1845" s="2"/>
-      <c r="C1845" s="2"/>
-      <c r="D1845" s="2"/>
-      <c r="E1845" s="2"/>
-      <c r="F1845" s="2"/>
-      <c r="G1845" s="2"/>
-      <c r="H1845" s="2"/>
+      <c r="A1845" s="1">
+        <v>45837.098631493056</v>
+      </c>
+      <c r="B1845" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1845" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1845" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1845" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F1845" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G1845" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1845" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I1845" s="2" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="1846">
-      <c r="A1846" s="1"/>
-      <c r="B1846" s="2"/>
-      <c r="C1846" s="2"/>
-      <c r="D1846" s="2"/>
-      <c r="E1846" s="2"/>
-      <c r="F1846" s="2"/>
-      <c r="G1846" s="2"/>
-      <c r="H1846" s="2"/>
+      <c r="A1846" s="1">
+        <v>45837.099230520835</v>
+      </c>
+      <c r="B1846" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1846" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1846" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1846" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F1846" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="G1846" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1846" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1847">
-      <c r="A1847" s="1"/>
-      <c r="B1847" s="2"/>
-      <c r="C1847" s="2"/>
-      <c r="D1847" s="2"/>
-      <c r="E1847" s="2"/>
-      <c r="F1847" s="2"/>
-      <c r="G1847" s="2"/>
-      <c r="H1847" s="2"/>
+      <c r="A1847" s="1">
+        <v>45837.09971189815</v>
+      </c>
+      <c r="B1847" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1847" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1847" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1847" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F1847" s="2" t="s">
+        <v>3442</v>
+      </c>
+      <c r="G1847" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1847" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1848">
-      <c r="A1848" s="1"/>
-      <c r="B1848" s="2"/>
-      <c r="C1848" s="2"/>
-      <c r="D1848" s="2"/>
-      <c r="E1848" s="2"/>
-      <c r="F1848" s="2"/>
-      <c r="G1848" s="2"/>
-      <c r="H1848" s="2"/>
+      <c r="A1848" s="1">
+        <v>45837.11357113426</v>
+      </c>
+      <c r="B1848" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1848" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1848" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1848" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F1848" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="G1848" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1848" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1848" s="2" t="s">
+        <v>3445</v>
+      </c>
     </row>
     <row r="1849">
-      <c r="A1849" s="1"/>
-      <c r="B1849" s="2"/>
-      <c r="C1849" s="2"/>
-      <c r="D1849" s="2"/>
-      <c r="E1849" s="2"/>
-      <c r="F1849" s="2"/>
-      <c r="G1849" s="2"/>
-      <c r="H1849" s="2"/>
+      <c r="A1849" s="1">
+        <v>45837.11368144676</v>
+      </c>
+      <c r="B1849" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1849" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1849" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1849" s="2" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F1849" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1849" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1849" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1850">
-      <c r="A1850" s="1"/>
-      <c r="B1850" s="2"/>
-      <c r="C1850" s="2"/>
-      <c r="D1850" s="2"/>
-      <c r="E1850" s="2"/>
-      <c r="F1850" s="2"/>
-      <c r="G1850" s="2"/>
-      <c r="H1850" s="2"/>
+      <c r="A1850" s="1">
+        <v>45837.114017858796</v>
+      </c>
+      <c r="B1850" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1850" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1850" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1850" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1850" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="G1850" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1850" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1851">
-      <c r="A1851" s="1"/>
-      <c r="B1851" s="2"/>
-      <c r="C1851" s="2"/>
-      <c r="D1851" s="2"/>
-      <c r="E1851" s="2"/>
+      <c r="A1851" s="1">
+        <v>45837.11410436343</v>
+      </c>
+      <c r="B1851" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1851" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1851" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1851" s="2" t="s">
+        <v>3449</v>
+      </c>
       <c r="F1851" s="2"/>
-      <c r="G1851" s="2"/>
-      <c r="H1851" s="2"/>
+      <c r="G1851" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1851" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1852">
-      <c r="A1852" s="1"/>
-      <c r="B1852" s="2"/>
-      <c r="C1852" s="2"/>
-      <c r="D1852" s="2"/>
-      <c r="E1852" s="2"/>
-      <c r="F1852" s="2"/>
-      <c r="G1852" s="2"/>
-      <c r="H1852" s="2"/>
+      <c r="A1852" s="1">
+        <v>45837.1143538426</v>
+      </c>
+      <c r="B1852" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1852" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1852" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1852" s="2" t="s">
+        <v>3450</v>
+      </c>
+      <c r="F1852" s="2" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G1852" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1852" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1853">
-      <c r="A1853" s="1"/>
-      <c r="B1853" s="2"/>
-      <c r="C1853" s="2"/>
-      <c r="D1853" s="2"/>
-      <c r="E1853" s="2"/>
-      <c r="F1853" s="2"/>
-      <c r="G1853" s="2"/>
-      <c r="H1853" s="2"/>
+      <c r="A1853" s="1">
+        <v>45837.11496327547</v>
+      </c>
+      <c r="B1853" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1853" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1853" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1853" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F1853" s="2" t="s">
+        <v>3453</v>
+      </c>
+      <c r="G1853" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1853" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1853" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1854">
-      <c r="A1854" s="1"/>
-      <c r="B1854" s="2"/>
-      <c r="C1854" s="2"/>
-      <c r="D1854" s="2"/>
-      <c r="E1854" s="2"/>
-      <c r="F1854" s="2"/>
-      <c r="G1854" s="2"/>
-      <c r="H1854" s="2"/>
+      <c r="A1854" s="1">
+        <v>45837.1153554051</v>
+      </c>
+      <c r="B1854" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1854" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1854" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1854" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F1854" s="2" t="s">
+        <v>3455</v>
+      </c>
+      <c r="G1854" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1854" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1855">
-      <c r="A1855" s="1"/>
-      <c r="B1855" s="2"/>
-      <c r="C1855" s="2"/>
-      <c r="D1855" s="2"/>
-      <c r="E1855" s="2"/>
-      <c r="F1855" s="2"/>
-      <c r="G1855" s="2"/>
-      <c r="H1855" s="2"/>
+      <c r="A1855" s="1">
+        <v>45837.115498784726</v>
+      </c>
+      <c r="B1855" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1855" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1855" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1855" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F1855" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1855" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1855" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1856">
-      <c r="A1856" s="1"/>
-      <c r="B1856" s="2"/>
-      <c r="C1856" s="2"/>
-      <c r="D1856" s="2"/>
-      <c r="E1856" s="2"/>
-      <c r="F1856" s="2"/>
-      <c r="G1856" s="2"/>
-      <c r="H1856" s="2"/>
+      <c r="A1856" s="1">
+        <v>45837.11580784722</v>
+      </c>
+      <c r="B1856" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1856" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1856" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1856" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F1856" s="2" t="s">
+        <v>3458</v>
+      </c>
+      <c r="G1856" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1856" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1857">
-      <c r="A1857" s="1"/>
-      <c r="B1857" s="2"/>
-      <c r="C1857" s="2"/>
-      <c r="D1857" s="2"/>
-      <c r="E1857" s="2"/>
-      <c r="F1857" s="2"/>
-      <c r="G1857" s="2"/>
-      <c r="H1857" s="2"/>
+      <c r="A1857" s="1">
+        <v>45837.116366064816</v>
+      </c>
+      <c r="B1857" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1857" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1857" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1857" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F1857" s="2" t="s">
+        <v>3460</v>
+      </c>
+      <c r="G1857" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1857" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1857" s="2" t="s">
+        <v>3461</v>
+      </c>
     </row>
     <row r="1858">
-      <c r="A1858" s="1"/>
-      <c r="B1858" s="2"/>
-      <c r="C1858" s="2"/>
-      <c r="D1858" s="2"/>
-      <c r="E1858" s="2"/>
-      <c r="F1858" s="2"/>
-      <c r="G1858" s="2"/>
-      <c r="H1858" s="2"/>
+      <c r="A1858" s="1">
+        <v>45837.116889467594</v>
+      </c>
+      <c r="B1858" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1858" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1858" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1858" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F1858" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G1858" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1858" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1859">
-      <c r="A1859" s="1"/>
-      <c r="B1859" s="2"/>
-      <c r="C1859" s="2"/>
-      <c r="D1859" s="2"/>
-      <c r="E1859" s="2"/>
-      <c r="F1859" s="2"/>
-      <c r="G1859" s="2"/>
-      <c r="H1859" s="2"/>
+      <c r="A1859" s="1">
+        <v>45837.117368969906</v>
+      </c>
+      <c r="B1859" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1859" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1859" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1859" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F1859" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1859" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1859" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1859" s="2" t="s">
+        <v>3466</v>
+      </c>
     </row>
     <row r="1860">
-      <c r="A1860" s="1"/>
-      <c r="B1860" s="2"/>
-      <c r="C1860" s="2"/>
-      <c r="D1860" s="2"/>
-      <c r="E1860" s="2"/>
+      <c r="A1860" s="1">
+        <v>45837.117914699076</v>
+      </c>
+      <c r="B1860" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1860" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1860" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1860" s="2" t="s">
+        <v>3467</v>
+      </c>
       <c r="F1860" s="2"/>
-      <c r="G1860" s="2"/>
-      <c r="H1860" s="2"/>
+      <c r="G1860" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1860" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1861">
-      <c r="A1861" s="1"/>
-      <c r="B1861" s="2"/>
-      <c r="C1861" s="2"/>
-      <c r="D1861" s="2"/>
-      <c r="E1861" s="2"/>
-      <c r="F1861" s="2"/>
-      <c r="G1861" s="2"/>
-      <c r="H1861" s="2"/>
+      <c r="A1861" s="1">
+        <v>45837.11799673611</v>
+      </c>
+      <c r="B1861" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1861" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1861" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1861" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F1861" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1861" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1861" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1862">
-      <c r="A1862" s="1"/>
-      <c r="B1862" s="2"/>
-      <c r="C1862" s="2"/>
-      <c r="D1862" s="2"/>
-      <c r="E1862" s="2"/>
-      <c r="F1862" s="2"/>
-      <c r="G1862" s="2"/>
-      <c r="H1862" s="2"/>
+      <c r="A1862" s="1">
+        <v>45837.11824834491</v>
+      </c>
+      <c r="B1862" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1862" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1862" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1862" s="2" t="s">
+        <v>3469</v>
+      </c>
+      <c r="F1862" s="2" t="s">
+        <v>3470</v>
+      </c>
+      <c r="G1862" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1862" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1863">
-      <c r="A1863" s="1"/>
-      <c r="B1863" s="2"/>
-      <c r="C1863" s="2"/>
-      <c r="D1863" s="2"/>
-      <c r="E1863" s="2"/>
-      <c r="F1863" s="2"/>
-      <c r="G1863" s="2"/>
-      <c r="H1863" s="2"/>
+      <c r="A1863" s="1">
+        <v>45837.11845934028</v>
+      </c>
+      <c r="B1863" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1863" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1863" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1863" s="2" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1863" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="G1863" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1863" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1864">
-      <c r="A1864" s="1"/>
-      <c r="B1864" s="2"/>
-      <c r="C1864" s="2"/>
-      <c r="D1864" s="2"/>
-      <c r="E1864" s="2"/>
-      <c r="F1864" s="2"/>
-      <c r="G1864" s="2"/>
-      <c r="H1864" s="2"/>
+      <c r="A1864" s="1">
+        <v>45837.118832210646</v>
+      </c>
+      <c r="B1864" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1864" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1864" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1864" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="F1864" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="G1864" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1864" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1865">
-      <c r="A1865" s="1"/>
-      <c r="B1865" s="2"/>
-      <c r="C1865" s="2"/>
-      <c r="D1865" s="2"/>
-      <c r="E1865" s="2"/>
-      <c r="F1865" s="2"/>
-      <c r="G1865" s="2"/>
-      <c r="H1865" s="2"/>
+      <c r="A1865" s="1">
+        <v>45837.11914921296</v>
+      </c>
+      <c r="B1865" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1865" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1865" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1865" s="2" t="s">
+        <v>3475</v>
+      </c>
+      <c r="F1865" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="G1865" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1865" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1866">
-      <c r="A1866" s="1"/>
-      <c r="B1866" s="2"/>
-      <c r="C1866" s="2"/>
-      <c r="D1866" s="2"/>
-      <c r="E1866" s="2"/>
+      <c r="A1866" s="1">
+        <v>45837.11931288194</v>
+      </c>
+      <c r="B1866" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1866" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1866" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1866" s="2" t="s">
+        <v>3477</v>
+      </c>
       <c r="F1866" s="2"/>
-      <c r="G1866" s="2"/>
-      <c r="H1866" s="2"/>
+      <c r="G1866" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1866" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1867">
-      <c r="A1867" s="1"/>
-      <c r="B1867" s="2"/>
-      <c r="C1867" s="2"/>
-      <c r="D1867" s="2"/>
-      <c r="E1867" s="2"/>
+      <c r="A1867" s="1">
+        <v>45837.11942663194</v>
+      </c>
+      <c r="B1867" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1867" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1867" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1867" s="2" t="s">
+        <v>3478</v>
+      </c>
       <c r="F1867" s="2"/>
-      <c r="G1867" s="2"/>
-      <c r="H1867" s="2"/>
+      <c r="G1867" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1867" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1868">
-      <c r="A1868" s="1"/>
-      <c r="B1868" s="2"/>
-      <c r="C1868" s="2"/>
-      <c r="D1868" s="2"/>
-      <c r="E1868" s="2"/>
+      <c r="A1868" s="1">
+        <v>45837.119510902776</v>
+      </c>
+      <c r="B1868" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1868" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1868" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1868" s="2" t="s">
+        <v>3479</v>
+      </c>
       <c r="F1868" s="2"/>
-      <c r="G1868" s="2"/>
-      <c r="H1868" s="2"/>
+      <c r="G1868" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1868" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1869">
-      <c r="A1869" s="1"/>
-      <c r="B1869" s="2"/>
-      <c r="C1869" s="2"/>
-      <c r="D1869" s="2"/>
-      <c r="E1869" s="2"/>
+      <c r="A1869" s="1">
+        <v>45837.11959570602</v>
+      </c>
+      <c r="B1869" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1869" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1869" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1869" s="2" t="s">
+        <v>3480</v>
+      </c>
       <c r="F1869" s="2"/>
-      <c r="G1869" s="2"/>
-      <c r="H1869" s="2"/>
+      <c r="G1869" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1869" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1870">
-      <c r="A1870" s="1"/>
-      <c r="B1870" s="2"/>
-      <c r="C1870" s="2"/>
-      <c r="D1870" s="2"/>
-      <c r="E1870" s="2"/>
-      <c r="F1870" s="2"/>
-      <c r="G1870" s="2"/>
-      <c r="H1870" s="2"/>
+      <c r="A1870" s="1">
+        <v>45837.440387939816</v>
+      </c>
+      <c r="B1870" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1870" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1870" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1870" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="F1870" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G1870" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1870" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1870" s="2" t="s">
+        <v>3485</v>
+      </c>
     </row>
     <row r="1871">
-      <c r="A1871" s="1"/>
-      <c r="B1871" s="2"/>
-      <c r="C1871" s="2"/>
-      <c r="D1871" s="2"/>
-      <c r="E1871" s="2"/>
-      <c r="F1871" s="2"/>
-      <c r="G1871" s="2"/>
-      <c r="H1871" s="2"/>
+      <c r="A1871" s="1">
+        <v>45837.44057677084</v>
+      </c>
+      <c r="B1871" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1871" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1871" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1871" s="2" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F1871" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="G1871" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1871" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1872">
-      <c r="A1872" s="1"/>
-      <c r="B1872" s="2"/>
-      <c r="C1872" s="2"/>
-      <c r="D1872" s="2"/>
-      <c r="E1872" s="2"/>
-      <c r="F1872" s="2"/>
-      <c r="G1872" s="2"/>
-      <c r="H1872" s="2"/>
+      <c r="A1872" s="1">
+        <v>45837.44164075231</v>
+      </c>
+      <c r="B1872" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1872" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1872" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1872" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F1872" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1872" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1872" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1873">
-      <c r="A1873" s="1"/>
-      <c r="B1873" s="2"/>
-      <c r="C1873" s="2"/>
-      <c r="D1873" s="2"/>
-      <c r="E1873" s="2"/>
-      <c r="F1873" s="2"/>
-      <c r="G1873" s="2"/>
-      <c r="H1873" s="2"/>
+      <c r="A1873" s="1">
+        <v>45837.441727627316</v>
+      </c>
+      <c r="B1873" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1873" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1873" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1873" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F1873" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1873" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1873" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1874">
-      <c r="A1874" s="1"/>
-      <c r="B1874" s="2"/>
-      <c r="C1874" s="2"/>
-      <c r="D1874" s="2"/>
-      <c r="E1874" s="2"/>
-      <c r="F1874" s="2"/>
-      <c r="G1874" s="2"/>
-      <c r="H1874" s="2"/>
+      <c r="A1874" s="1">
+        <v>45837.441784826384</v>
+      </c>
+      <c r="B1874" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1874" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1874" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1874" s="2" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F1874" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1874" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1874" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1875">
-      <c r="A1875" s="1"/>
-      <c r="B1875" s="2"/>
-      <c r="C1875" s="2"/>
-      <c r="D1875" s="2"/>
-      <c r="E1875" s="2"/>
-      <c r="F1875" s="2"/>
-      <c r="G1875" s="2"/>
-      <c r="H1875" s="2"/>
+      <c r="A1875" s="1">
+        <v>45837.44184372685</v>
+      </c>
+      <c r="B1875" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1875" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1875" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1875" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F1875" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1875" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1875" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1876">
-      <c r="A1876" s="1"/>
-      <c r="B1876" s="2"/>
-      <c r="C1876" s="2"/>
-      <c r="D1876" s="2"/>
-      <c r="E1876" s="2"/>
-      <c r="F1876" s="2"/>
-      <c r="G1876" s="2"/>
-      <c r="H1876" s="2"/>
+      <c r="A1876" s="1">
+        <v>45837.44189592593</v>
+      </c>
+      <c r="B1876" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1876" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1876" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1876" s="2" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F1876" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1876" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1876" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1877">
-      <c r="A1877" s="1"/>
-      <c r="B1877" s="2"/>
-      <c r="C1877" s="2"/>
-      <c r="D1877" s="2"/>
-      <c r="E1877" s="2"/>
-      <c r="F1877" s="2"/>
-      <c r="G1877" s="2"/>
-      <c r="H1877" s="2"/>
+      <c r="A1877" s="1">
+        <v>45837.44199736111</v>
+      </c>
+      <c r="B1877" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1877" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1877" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1877" s="2" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1877" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1877" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1877" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1878">
-      <c r="A1878" s="1"/>
-      <c r="B1878" s="2"/>
-      <c r="C1878" s="2"/>
-      <c r="D1878" s="2"/>
-      <c r="E1878" s="2"/>
-      <c r="F1878" s="2"/>
-      <c r="G1878" s="2"/>
-      <c r="H1878" s="2"/>
+      <c r="A1878" s="1">
+        <v>45837.44213625</v>
+      </c>
+      <c r="B1878" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1878" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1878" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1878" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F1878" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G1878" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1878" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1879">
-      <c r="A1879" s="1"/>
-      <c r="B1879" s="2"/>
-      <c r="C1879" s="2"/>
-      <c r="D1879" s="2"/>
-      <c r="E1879" s="2"/>
-      <c r="F1879" s="2"/>
-      <c r="G1879" s="2"/>
-      <c r="H1879" s="2"/>
+      <c r="A1879" s="1">
+        <v>45837.442263923615</v>
+      </c>
+      <c r="B1879" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1879" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1879" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1879" s="2" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F1879" s="2" t="s">
+        <v>3497</v>
+      </c>
+      <c r="G1879" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1879" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1880">
-      <c r="A1880" s="1"/>
-      <c r="B1880" s="2"/>
-      <c r="C1880" s="2"/>
-      <c r="D1880" s="2"/>
-      <c r="E1880" s="2"/>
-      <c r="F1880" s="2"/>
-      <c r="G1880" s="2"/>
-      <c r="H1880" s="2"/>
+      <c r="A1880" s="1">
+        <v>45837.442367407406</v>
+      </c>
+      <c r="B1880" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1880" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1880" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1880" s="2" t="s">
+        <v>3498</v>
+      </c>
+      <c r="F1880" s="2" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G1880" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1880" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1881">
-      <c r="A1881" s="1"/>
-      <c r="B1881" s="2"/>
-      <c r="C1881" s="2"/>
-      <c r="D1881" s="2"/>
-      <c r="E1881" s="2"/>
-      <c r="F1881" s="2"/>
-      <c r="G1881" s="2"/>
-      <c r="H1881" s="2"/>
+      <c r="A1881" s="1">
+        <v>45837.44312981481</v>
+      </c>
+      <c r="B1881" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1881" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1881" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1881" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F1881" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G1881" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1881" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1882">
-      <c r="A1882" s="1"/>
-      <c r="B1882" s="2"/>
-      <c r="C1882" s="2"/>
-      <c r="D1882" s="2"/>
-      <c r="E1882" s="2"/>
-      <c r="F1882" s="2"/>
-      <c r="G1882" s="2"/>
-      <c r="H1882" s="2"/>
+      <c r="A1882" s="1">
+        <v>45837.443713333334</v>
+      </c>
+      <c r="B1882" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1882" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1882" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1882" s="2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F1882" s="2" t="s">
+        <v>3503</v>
+      </c>
+      <c r="G1882" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1882" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I1882" s="2" t="s">
+        <v>3504</v>
+      </c>
     </row>
     <row r="1883">
-      <c r="A1883" s="1"/>
-      <c r="B1883" s="2"/>
-      <c r="C1883" s="2"/>
-      <c r="D1883" s="2"/>
-      <c r="E1883" s="2"/>
-      <c r="F1883" s="2"/>
-      <c r="G1883" s="2"/>
-      <c r="H1883" s="2"/>
+      <c r="A1883" s="1">
+        <v>45837.44460752315</v>
+      </c>
+      <c r="B1883" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1883" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1883" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1883" s="2" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F1883" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G1883" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1883" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1884">
-      <c r="A1884" s="1"/>
-      <c r="B1884" s="2"/>
-      <c r="C1884" s="2"/>
-      <c r="D1884" s="2"/>
-      <c r="E1884" s="2"/>
-      <c r="F1884" s="2"/>
-      <c r="G1884" s="2"/>
-      <c r="H1884" s="2"/>
+      <c r="A1884" s="1">
+        <v>45837.44467059028</v>
+      </c>
+      <c r="B1884" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1884" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1884" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1884" s="2" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F1884" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1884" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1884" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1885">
-      <c r="A1885" s="1"/>
-      <c r="B1885" s="2"/>
-      <c r="C1885" s="2"/>
-      <c r="D1885" s="2"/>
-      <c r="E1885" s="2"/>
-      <c r="F1885" s="2"/>
-      <c r="G1885" s="2"/>
-      <c r="H1885" s="2"/>
+      <c r="A1885" s="1">
+        <v>45837.44492799768</v>
+      </c>
+      <c r="B1885" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1885" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1885" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1885" s="2" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F1885" s="2" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G1885" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1885" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1886">
-      <c r="A1886" s="1"/>
-      <c r="B1886" s="2"/>
-      <c r="C1886" s="2"/>
-      <c r="D1886" s="2"/>
-      <c r="E1886" s="2"/>
-      <c r="F1886" s="2"/>
-      <c r="G1886" s="2"/>
-      <c r="H1886" s="2"/>
+      <c r="A1886" s="1">
+        <v>45837.44503870371</v>
+      </c>
+      <c r="B1886" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1886" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1886" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1886" s="2" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F1886" s="2" t="s">
+        <v>3511</v>
+      </c>
+      <c r="G1886" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1886" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1887">
-      <c r="A1887" s="1"/>
-      <c r="B1887" s="2"/>
-      <c r="C1887" s="2"/>
-      <c r="D1887" s="2"/>
-      <c r="E1887" s="2"/>
-      <c r="F1887" s="2"/>
-      <c r="G1887" s="2"/>
-      <c r="H1887" s="2"/>
+      <c r="A1887" s="1">
+        <v>45837.445814502316</v>
+      </c>
+      <c r="B1887" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1887" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1887" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1887" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F1887" s="2" t="s">
+        <v>3513</v>
+      </c>
+      <c r="G1887" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1887" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1888">
-      <c r="A1888" s="1"/>
-      <c r="B1888" s="2"/>
-      <c r="C1888" s="2"/>
-      <c r="D1888" s="2"/>
-      <c r="E1888" s="2"/>
-      <c r="F1888" s="2"/>
-      <c r="G1888" s="2"/>
-      <c r="H1888" s="2"/>
+      <c r="A1888" s="1">
+        <v>45837.44598736111</v>
+      </c>
+      <c r="B1888" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1888" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1888" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1888" s="2" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F1888" s="2" t="s">
+        <v>3515</v>
+      </c>
+      <c r="G1888" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1888" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1889">
-      <c r="A1889" s="1"/>
-      <c r="B1889" s="2"/>
-      <c r="C1889" s="2"/>
-      <c r="D1889" s="2"/>
-      <c r="E1889" s="2"/>
-      <c r="F1889" s="2"/>
-      <c r="G1889" s="2"/>
-      <c r="H1889" s="2"/>
+      <c r="A1889" s="1">
+        <v>45837.44659277778</v>
+      </c>
+      <c r="B1889" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1889" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1889" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1889" s="2" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1889" s="2" t="s">
+        <v>3517</v>
+      </c>
+      <c r="G1889" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1889" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1890">
-      <c r="A1890" s="1"/>
-      <c r="B1890" s="2"/>
-      <c r="C1890" s="2"/>
-      <c r="D1890" s="2"/>
-      <c r="E1890" s="2"/>
-      <c r="F1890" s="2"/>
-      <c r="G1890" s="2"/>
-      <c r="H1890" s="2"/>
+      <c r="A1890" s="1">
+        <v>45837.44704060185</v>
+      </c>
+      <c r="B1890" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1890" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1890" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1890" s="2" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F1890" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="G1890" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1890" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1891">
-      <c r="A1891" s="1"/>
-      <c r="B1891" s="2"/>
-      <c r="C1891" s="2"/>
-      <c r="D1891" s="2"/>
-      <c r="E1891" s="2"/>
-      <c r="F1891" s="2"/>
-      <c r="G1891" s="2"/>
-      <c r="H1891" s="2"/>
+      <c r="A1891" s="1">
+        <v>45837.44727427083</v>
+      </c>
+      <c r="B1891" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1891" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1891" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1891" s="2" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F1891" s="2" t="s">
+        <v>3521</v>
+      </c>
+      <c r="G1891" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1891" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1892">
-      <c r="A1892" s="1"/>
-      <c r="B1892" s="2"/>
-      <c r="C1892" s="2"/>
-      <c r="D1892" s="2"/>
-      <c r="E1892" s="2"/>
-      <c r="F1892" s="2"/>
-      <c r="G1892" s="2"/>
-      <c r="H1892" s="2"/>
+      <c r="A1892" s="1">
+        <v>45837.447525578704</v>
+      </c>
+      <c r="B1892" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1892" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1892" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1892" s="2" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F1892" s="2" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G1892" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1892" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1893">
-      <c r="A1893" s="1"/>
-      <c r="B1893" s="2"/>
-      <c r="C1893" s="2"/>
-      <c r="D1893" s="2"/>
-      <c r="E1893" s="2"/>
-      <c r="F1893" s="2"/>
-      <c r="G1893" s="2"/>
-      <c r="H1893" s="2"/>
+      <c r="A1893" s="1">
+        <v>45837.44785064815</v>
+      </c>
+      <c r="B1893" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1893" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1893" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1893" s="2" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F1893" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="G1893" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1893" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1893" s="2" t="s">
+        <v>3526</v>
+      </c>
     </row>
     <row r="1894">
-      <c r="A1894" s="1"/>
-      <c r="B1894" s="2"/>
-      <c r="C1894" s="2"/>
-      <c r="D1894" s="2"/>
-      <c r="E1894" s="2"/>
-      <c r="F1894" s="2"/>
-      <c r="G1894" s="2"/>
-      <c r="H1894" s="2"/>
+      <c r="A1894" s="1">
+        <v>45837.44791540509</v>
+      </c>
+      <c r="B1894" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1894" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1894" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1894" s="2" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F1894" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1894" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1894" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1895">
-      <c r="A1895" s="1"/>
-      <c r="B1895" s="2"/>
-      <c r="C1895" s="2"/>
-      <c r="D1895" s="2"/>
-      <c r="E1895" s="2"/>
-      <c r="F1895" s="2"/>
-      <c r="G1895" s="2"/>
-      <c r="H1895" s="2"/>
+      <c r="A1895" s="1">
+        <v>45837.4480240625</v>
+      </c>
+      <c r="B1895" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1895" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1895" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1895" s="2" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F1895" s="2" t="s">
+        <v>3529</v>
+      </c>
+      <c r="G1895" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1895" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1896">
-      <c r="A1896" s="1"/>
-      <c r="B1896" s="2"/>
-      <c r="C1896" s="2"/>
-      <c r="D1896" s="2"/>
-      <c r="E1896" s="2"/>
-      <c r="F1896" s="2"/>
-      <c r="G1896" s="2"/>
-      <c r="H1896" s="2"/>
+      <c r="A1896" s="1">
+        <v>45837.448187013884</v>
+      </c>
+      <c r="B1896" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1896" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1896" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1896" s="2" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F1896" s="2" t="s">
+        <v>3531</v>
+      </c>
+      <c r="G1896" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1896" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1897">
-      <c r="A1897" s="1"/>
-      <c r="B1897" s="2"/>
-      <c r="C1897" s="2"/>
-      <c r="D1897" s="2"/>
-      <c r="E1897" s="2"/>
-      <c r="F1897" s="2"/>
-      <c r="G1897" s="2"/>
-      <c r="H1897" s="2"/>
+      <c r="A1897" s="1">
+        <v>45837.44863518518</v>
+      </c>
+      <c r="B1897" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1897" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1897" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1897" s="2" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F1897" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1897" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1897" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1898">
-      <c r="A1898" s="1"/>
-      <c r="B1898" s="2"/>
-      <c r="C1898" s="2"/>
-      <c r="D1898" s="2"/>
-      <c r="E1898" s="2"/>
-      <c r="F1898" s="2"/>
-      <c r="G1898" s="2"/>
-      <c r="H1898" s="2"/>
+      <c r="A1898" s="1">
+        <v>45837.44869793981</v>
+      </c>
+      <c r="B1898" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1898" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1898" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1898" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F1898" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1898" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1898" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1899">
-      <c r="A1899" s="1"/>
-      <c r="B1899" s="2"/>
-      <c r="C1899" s="2"/>
-      <c r="D1899" s="2"/>
-      <c r="E1899" s="2"/>
-      <c r="F1899" s="2"/>
-      <c r="G1899" s="2"/>
-      <c r="H1899" s="2"/>
+      <c r="A1899" s="1">
+        <v>45837.44891922454</v>
+      </c>
+      <c r="B1899" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1899" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1899" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1899" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1899" s="2" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G1899" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1899" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1900">
-      <c r="A1900" s="1"/>
-      <c r="B1900" s="2"/>
-      <c r="C1900" s="2"/>
-      <c r="D1900" s="2"/>
-      <c r="E1900" s="2"/>
-      <c r="F1900" s="2"/>
-      <c r="G1900" s="2"/>
-      <c r="H1900" s="2"/>
+      <c r="A1900" s="1">
+        <v>45837.44921827546</v>
+      </c>
+      <c r="B1900" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1900" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1900" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1900" s="2" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F1900" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1900" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1900" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1901">
-      <c r="A1901" s="1"/>
-      <c r="B1901" s="2"/>
-      <c r="C1901" s="2"/>
-      <c r="D1901" s="2"/>
-      <c r="E1901" s="2"/>
-      <c r="F1901" s="2"/>
-      <c r="G1901" s="2"/>
-      <c r="H1901" s="2"/>
+      <c r="A1901" s="1">
+        <v>45837.44930633102</v>
+      </c>
+      <c r="B1901" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1901" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1901" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1901" s="2" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F1901" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1901" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1901" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1902">
-      <c r="A1902" s="1"/>
-      <c r="B1902" s="2"/>
-      <c r="C1902" s="2"/>
-      <c r="D1902" s="2"/>
-      <c r="E1902" s="2"/>
-      <c r="F1902" s="2"/>
-      <c r="G1902" s="2"/>
-      <c r="H1902" s="2"/>
+      <c r="A1902" s="1">
+        <v>45837.44960266203</v>
+      </c>
+      <c r="B1902" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1902" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1902" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1902" s="2" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F1902" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="G1902" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1902" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1903">
-      <c r="A1903" s="1"/>
-      <c r="B1903" s="2"/>
-      <c r="C1903" s="2"/>
-      <c r="D1903" s="2"/>
-      <c r="E1903" s="2"/>
-      <c r="F1903" s="2"/>
-      <c r="G1903" s="2"/>
-      <c r="H1903" s="2"/>
+      <c r="A1903" s="1">
+        <v>45837.44966568287</v>
+      </c>
+      <c r="B1903" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1903" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1903" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1903" s="2" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1903" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1903" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1903" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1904">
-      <c r="A1904" s="1"/>
-      <c r="B1904" s="2"/>
-      <c r="C1904" s="2"/>
-      <c r="D1904" s="2"/>
-      <c r="E1904" s="2"/>
-      <c r="F1904" s="2"/>
-      <c r="G1904" s="2"/>
-      <c r="H1904" s="2"/>
+      <c r="A1904" s="1">
+        <v>45837.44970653935</v>
+      </c>
+      <c r="B1904" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1904" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1904" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1904" s="2" t="s">
+        <v>3541</v>
+      </c>
+      <c r="F1904" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1904" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1904" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1905">
-      <c r="A1905" s="1"/>
-      <c r="B1905" s="2"/>
-      <c r="C1905" s="2"/>
-      <c r="D1905" s="2"/>
-      <c r="E1905" s="2"/>
-      <c r="F1905" s="2"/>
-      <c r="G1905" s="2"/>
-      <c r="H1905" s="2"/>
+      <c r="A1905" s="1">
+        <v>45837.44977835648</v>
+      </c>
+      <c r="B1905" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1905" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1905" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1905" s="2" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F1905" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1905" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1905" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1906">
-      <c r="A1906" s="1"/>
-      <c r="B1906" s="2"/>
-      <c r="C1906" s="2"/>
-      <c r="D1906" s="2"/>
-      <c r="E1906" s="2"/>
-      <c r="F1906" s="2"/>
-      <c r="G1906" s="2"/>
-      <c r="H1906" s="2"/>
+      <c r="A1906" s="1">
+        <v>45837.44993918981</v>
+      </c>
+      <c r="B1906" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1906" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1906" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1906" s="2" t="s">
+        <v>3543</v>
+      </c>
+      <c r="F1906" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1906" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1906" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1907">
-      <c r="A1907" s="1"/>
-      <c r="B1907" s="2"/>
-      <c r="C1907" s="2"/>
-      <c r="D1907" s="2"/>
-      <c r="E1907" s="2"/>
-      <c r="F1907" s="2"/>
-      <c r="G1907" s="2"/>
-      <c r="H1907" s="2"/>
+      <c r="A1907" s="1">
+        <v>45837.45029006945</v>
+      </c>
+      <c r="B1907" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1907" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1907" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1907" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="F1907" s="2" t="s">
+        <v>3545</v>
+      </c>
+      <c r="G1907" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1907" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1908">
-      <c r="A1908" s="1"/>
-      <c r="B1908" s="2"/>
-      <c r="C1908" s="2"/>
-      <c r="D1908" s="2"/>
-      <c r="E1908" s="2"/>
-      <c r="F1908" s="2"/>
-      <c r="G1908" s="2"/>
-      <c r="H1908" s="2"/>
+      <c r="A1908" s="1">
+        <v>45837.45041038195</v>
+      </c>
+      <c r="B1908" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1908" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1908" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1908" s="2" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F1908" s="2" t="s">
+        <v>3547</v>
+      </c>
+      <c r="G1908" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1908" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1909">
-      <c r="A1909" s="1"/>
-      <c r="B1909" s="2"/>
-      <c r="C1909" s="2"/>
-      <c r="D1909" s="2"/>
-      <c r="E1909" s="2"/>
-      <c r="F1909" s="2"/>
-      <c r="G1909" s="2"/>
-      <c r="H1909" s="2"/>
+      <c r="A1909" s="1">
+        <v>45837.450475370366</v>
+      </c>
+      <c r="B1909" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1909" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1909" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1909" s="2" t="s">
+        <v>3548</v>
+      </c>
+      <c r="F1909" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1909" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1909" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1910">
-      <c r="A1910" s="1"/>
-      <c r="B1910" s="2"/>
-      <c r="C1910" s="2"/>
-      <c r="D1910" s="2"/>
-      <c r="E1910" s="2"/>
-      <c r="F1910" s="2"/>
-      <c r="G1910" s="2"/>
-      <c r="H1910" s="2"/>
+      <c r="A1910" s="1">
+        <v>45837.450625937505</v>
+      </c>
+      <c r="B1910" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1910" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1910" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1910" s="2" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F1910" s="2" t="s">
+        <v>3550</v>
+      </c>
+      <c r="G1910" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1910" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1911">
-      <c r="A1911" s="1"/>
-      <c r="B1911" s="2"/>
-      <c r="C1911" s="2"/>
-      <c r="D1911" s="2"/>
-      <c r="E1911" s="2"/>
-      <c r="F1911" s="2"/>
-      <c r="G1911" s="2"/>
-      <c r="H1911" s="2"/>
+      <c r="A1911" s="1">
+        <v>45837.45078068287</v>
+      </c>
+      <c r="B1911" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1911" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1911" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1911" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="F1911" s="2" t="s">
+        <v>3552</v>
+      </c>
+      <c r="G1911" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1911" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1912">
-      <c r="A1912" s="1"/>
-      <c r="B1912" s="2"/>
-      <c r="C1912" s="2"/>
-      <c r="D1912" s="2"/>
-      <c r="E1912" s="2"/>
-      <c r="F1912" s="2"/>
-      <c r="G1912" s="2"/>
-      <c r="H1912" s="2"/>
+      <c r="A1912" s="1">
+        <v>45837.45112013889</v>
+      </c>
+      <c r="B1912" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1912" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1912" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1912" s="2" t="s">
+        <v>3553</v>
+      </c>
+      <c r="F1912" s="2" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G1912" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1912" s="2" t="s">
+        <v>3555</v>
+      </c>
+      <c r="I1912" s="2" t="s">
+        <v>3556</v>
+      </c>
     </row>
     <row r="1913">
-      <c r="A1913" s="1"/>
-      <c r="B1913" s="2"/>
-      <c r="C1913" s="2"/>
-      <c r="D1913" s="2"/>
-      <c r="E1913" s="2"/>
-      <c r="F1913" s="2"/>
-      <c r="G1913" s="2"/>
-      <c r="H1913" s="2"/>
+      <c r="A1913" s="1">
+        <v>45837.451287557866</v>
+      </c>
+      <c r="B1913" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1913" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1913" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1913" s="2" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F1913" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1913" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1913" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1914">
-      <c r="A1914" s="1"/>
-      <c r="B1914" s="2"/>
-      <c r="C1914" s="2"/>
-      <c r="D1914" s="2"/>
-      <c r="E1914" s="2"/>
-      <c r="F1914" s="2"/>
-      <c r="G1914" s="2"/>
-      <c r="H1914" s="2"/>
+      <c r="A1914" s="1">
+        <v>45837.45147408565</v>
+      </c>
+      <c r="B1914" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1914" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1914" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1914" s="2" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F1914" s="2" t="s">
+        <v>3559</v>
+      </c>
+      <c r="G1914" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1914" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1915">
-      <c r="A1915" s="1"/>
-      <c r="B1915" s="2"/>
-      <c r="C1915" s="2"/>
-      <c r="D1915" s="2"/>
-      <c r="E1915" s="2"/>
-      <c r="F1915" s="2"/>
-      <c r="G1915" s="2"/>
-      <c r="H1915" s="2"/>
+      <c r="A1915" s="1">
+        <v>45837.451866180556</v>
+      </c>
+      <c r="B1915" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1915" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1915" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1915" s="2" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1915" s="2" t="s">
+        <v>3561</v>
+      </c>
+      <c r="G1915" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1915" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1915" s="2" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="1916">
-      <c r="A1916" s="1"/>
-      <c r="B1916" s="2"/>
-      <c r="C1916" s="2"/>
-      <c r="D1916" s="2"/>
-      <c r="E1916" s="2"/>
-      <c r="F1916" s="2"/>
-      <c r="G1916" s="2"/>
-      <c r="H1916" s="2"/>
+      <c r="A1916" s="1">
+        <v>45837.45210967593</v>
+      </c>
+      <c r="B1916" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1916" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1916" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1916" s="2" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F1916" s="2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G1916" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1916" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1916" s="2" t="s">
+        <v>3289</v>
+      </c>
     </row>
     <row r="1917">
-      <c r="A1917" s="1"/>
-      <c r="B1917" s="2"/>
-      <c r="C1917" s="2"/>
-      <c r="D1917" s="2"/>
-      <c r="E1917" s="2"/>
-      <c r="F1917" s="2"/>
-      <c r="G1917" s="2"/>
-      <c r="H1917" s="2"/>
+      <c r="A1917" s="1">
+        <v>45837.45218104166</v>
+      </c>
+      <c r="B1917" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1917" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1917" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1917" s="2" t="s">
+        <v>3564</v>
+      </c>
+      <c r="F1917" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1917" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1917" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1918">
-      <c r="A1918" s="1"/>
-      <c r="B1918" s="2"/>
-      <c r="C1918" s="2"/>
-      <c r="D1918" s="2"/>
-      <c r="E1918" s="2"/>
-      <c r="F1918" s="2"/>
-      <c r="G1918" s="2"/>
-      <c r="H1918" s="2"/>
+      <c r="A1918" s="1">
+        <v>45837.45219788194</v>
+      </c>
+      <c r="B1918" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1918" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1918" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1918" s="2" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F1918" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1918" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1918" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1919">
-      <c r="A1919" s="1"/>
-      <c r="B1919" s="2"/>
-      <c r="C1919" s="2"/>
-      <c r="D1919" s="2"/>
-      <c r="E1919" s="2"/>
-      <c r="F1919" s="2"/>
-      <c r="G1919" s="2"/>
-      <c r="H1919" s="2"/>
+      <c r="A1919" s="1">
+        <v>45837.45247185185</v>
+      </c>
+      <c r="B1919" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1919" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1919" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1919" s="2" t="s">
+        <v>3566</v>
+      </c>
+      <c r="F1919" s="2" t="s">
+        <v>3567</v>
+      </c>
+      <c r="G1919" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1919" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1920">
       <c r="A1920" s="1"/>
@@ -60197,16 +62372,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>3384</v>
+        <v>3568</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3385</v>
+        <v>3569</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3386</v>
+        <v>3570</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3387</v>
+        <v>3571</v>
       </c>
       <c r="F1" s="2">
         <v>1355076.0</v>
@@ -60219,14 +62394,14 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A2,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C7" si="1">NOW()</f>
-        <v>45834.54292</v>
+        <v>45837.45274</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3388</v>
+        <v>3572</v>
       </c>
       <c r="F2" s="6">
         <f>0.1*F1</f>
@@ -60244,14 +62419,14 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>45834.54292</v>
+        <v>45837.45274</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3389</v>
+        <v>3573</v>
       </c>
       <c r="F3" s="7">
-        <f>SUM(B2:B7)</f>
-        <v>2309</v>
+        <f>SUM(B2:B8)</f>
+        <v>2401</v>
       </c>
     </row>
     <row r="4">
@@ -60265,7 +62440,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>45834.54292</v>
+        <v>45837.45274</v>
       </c>
     </row>
     <row r="5">
@@ -60279,7 +62454,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>45834.54292</v>
+        <v>45837.45274</v>
       </c>
     </row>
     <row r="6">
@@ -60293,7 +62468,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>45834.54292</v>
+        <v>45837.45274</v>
       </c>
     </row>
     <row r="7">
@@ -60307,11 +62482,18 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>45834.54292</v>
+        <v>45837.45274</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4"/>
+      <c r="A8" s="7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angela")</f>
+        <v>Angela</v>
+      </c>
+      <c r="B8" s="4">
+        <f>COUNTIFS(ALL_TRANSLATIONS!C:C,A8,ALL_TRANSLATIONS!G:G,"&lt;&gt;skipped")</f>
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -60335,13 +62517,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3390</v>
+        <v>3574</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3391</v>
+        <v>3575</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3392</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="2">
@@ -60349,7 +62531,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2111</v>
@@ -60360,7 +62542,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2113</v>
@@ -60371,7 +62553,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2115</v>
@@ -60382,7 +62564,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2117</v>
@@ -60393,7 +62575,7 @@
         <v>2118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2119</v>
@@ -60404,7 +62586,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2121</v>
@@ -60415,7 +62597,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2123</v>
@@ -60426,7 +62608,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2125</v>
@@ -60437,7 +62619,7 @@
         <v>2126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2127</v>
@@ -60448,7 +62630,7 @@
         <v>2128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2129</v>
@@ -60459,7 +62641,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2132</v>
@@ -60470,7 +62652,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2134</v>
@@ -60481,7 +62663,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2136</v>
@@ -60492,7 +62674,7 @@
         <v>2137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2138</v>
@@ -60503,7 +62685,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2141</v>
@@ -60514,7 +62696,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2143</v>
@@ -60525,7 +62707,7 @@
         <v>2144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2145</v>
@@ -60536,7 +62718,7 @@
         <v>2146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2147</v>
@@ -60547,7 +62729,7 @@
         <v>2148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2149</v>
@@ -60558,7 +62740,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2151</v>
@@ -60569,7 +62751,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2153</v>
@@ -60580,7 +62762,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2155</v>
@@ -60591,7 +62773,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2157</v>
@@ -60602,7 +62784,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2159</v>
@@ -60613,7 +62795,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2161</v>
@@ -60624,7 +62806,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2163</v>
@@ -60635,7 +62817,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2165</v>
@@ -60646,7 +62828,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2167</v>
@@ -60657,7 +62839,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2169</v>
@@ -60668,7 +62850,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2171</v>
@@ -60679,7 +62861,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2173</v>
@@ -60690,7 +62872,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2175</v>
@@ -60701,7 +62883,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2177</v>
@@ -60712,7 +62894,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2179</v>
@@ -60723,7 +62905,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2181</v>
@@ -60734,7 +62916,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2183</v>
@@ -60745,7 +62927,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2185</v>
@@ -60756,7 +62938,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2187</v>
@@ -60767,7 +62949,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2189</v>
@@ -60778,7 +62960,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2191</v>
@@ -60789,7 +62971,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2193</v>
@@ -60800,7 +62982,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2195</v>
@@ -60811,7 +62993,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2197</v>
@@ -60822,7 +63004,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2199</v>
@@ -60833,7 +63015,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2201</v>
@@ -60844,7 +63026,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2203</v>
@@ -60855,7 +63037,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2205</v>
@@ -60866,7 +63048,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2207</v>
@@ -60877,7 +63059,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2209</v>
@@ -60888,7 +63070,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2211</v>
@@ -60899,7 +63081,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2213</v>
@@ -60910,7 +63092,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2215</v>
@@ -60921,7 +63103,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2217</v>
@@ -60932,7 +63114,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2219</v>
@@ -60943,7 +63125,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2221</v>
@@ -60954,7 +63136,7 @@
         <v>2223</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2224</v>
@@ -60965,7 +63147,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2226</v>
@@ -60976,7 +63158,7 @@
         <v>2227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2228</v>
@@ -60987,7 +63169,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2230</v>
@@ -60998,7 +63180,7 @@
         <v>2231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2232</v>
@@ -61009,7 +63191,7 @@
         <v>2233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2234</v>
@@ -61020,7 +63202,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2236</v>
@@ -61031,7 +63213,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2238</v>
@@ -61042,7 +63224,7 @@
         <v>2239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2240</v>
@@ -61053,7 +63235,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2242</v>
@@ -61064,7 +63246,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2244</v>
@@ -61075,7 +63257,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2248</v>
@@ -61086,7 +63268,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2250</v>
@@ -61097,7 +63279,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2252</v>
@@ -61108,7 +63290,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -61119,7 +63301,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2255</v>
@@ -61130,7 +63312,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2257</v>
@@ -61141,7 +63323,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2260</v>
@@ -61152,7 +63334,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2262</v>
@@ -61163,7 +63345,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
@@ -61174,7 +63356,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2265</v>
@@ -61185,7 +63367,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2267</v>
@@ -61196,7 +63378,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2269</v>
@@ -61207,7 +63389,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2271</v>
@@ -61218,7 +63400,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2273</v>
@@ -61229,7 +63411,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2276</v>
@@ -61240,7 +63422,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2279</v>
@@ -61251,7 +63433,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2281</v>
@@ -61262,7 +63444,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2283</v>
@@ -61273,7 +63455,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2285</v>
@@ -61284,7 +63466,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2287</v>
@@ -61295,7 +63477,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2289</v>
@@ -61306,7 +63488,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>72</v>
@@ -61317,7 +63499,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2293</v>
@@ -61328,7 +63510,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2295</v>
@@ -61339,7 +63521,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2297</v>
@@ -61350,7 +63532,7 @@
         <v>2299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2300</v>
@@ -61361,7 +63543,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>72</v>
@@ -61372,7 +63554,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2303</v>
@@ -61383,7 +63565,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>72</v>
@@ -61394,7 +63576,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2308</v>
@@ -61405,7 +63587,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2310</v>
@@ -61416,7 +63598,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2312</v>
@@ -61427,7 +63609,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2314</v>
@@ -61438,7 +63620,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2316</v>
@@ -61449,7 +63631,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>145</v>
@@ -61460,7 +63642,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>147</v>
@@ -61471,7 +63653,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>149</v>
@@ -61482,7 +63664,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>151</v>
@@ -61493,7 +63675,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -61504,7 +63686,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>156</v>
@@ -61515,7 +63697,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -61526,7 +63708,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>72</v>
@@ -61537,7 +63719,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>72</v>
@@ -61548,7 +63730,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>162</v>
@@ -61559,7 +63741,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>72</v>
@@ -61570,7 +63752,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>165</v>
@@ -61581,7 +63763,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>167</v>
@@ -61592,7 +63774,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>169</v>
@@ -61603,7 +63785,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -61614,7 +63796,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>72</v>
@@ -61625,7 +63807,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>72</v>
@@ -61636,7 +63818,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>174</v>
@@ -61647,7 +63829,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -61658,7 +63840,7 @@
         <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>178</v>
@@ -61669,7 +63851,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>72</v>
@@ -61680,7 +63862,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>181</v>
@@ -61691,7 +63873,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>183</v>
@@ -61702,7 +63884,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
@@ -61713,7 +63895,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>189</v>
@@ -61724,7 +63906,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>72</v>
@@ -61735,7 +63917,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
@@ -61746,7 +63928,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>193</v>
@@ -61757,7 +63939,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -61768,7 +63950,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>197</v>
@@ -61779,7 +63961,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>199</v>
@@ -61790,7 +63972,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>201</v>
@@ -61801,7 +63983,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>203</v>
@@ -61812,7 +63994,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>205</v>
@@ -61823,7 +64005,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>208</v>
@@ -61834,7 +64016,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>210</v>
@@ -61845,7 +64027,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>72</v>
@@ -61856,7 +64038,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>213</v>
@@ -61867,7 +64049,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>215</v>
@@ -61878,7 +64060,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>72</v>
@@ -61889,7 +64071,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>72</v>
@@ -61900,7 +64082,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>219</v>
@@ -61911,7 +64093,7 @@
         <v>220</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>221</v>
@@ -61922,7 +64104,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>223</v>
@@ -61933,7 +64115,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>225</v>
@@ -61944,7 +64126,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>72</v>
@@ -61955,7 +64137,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>228</v>
@@ -61966,7 +64148,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>230</v>
@@ -61977,7 +64159,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>232</v>
@@ -61988,7 +64170,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>234</v>
@@ -61999,7 +64181,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>236</v>
@@ -62010,7 +64192,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>238</v>
@@ -62021,7 +64203,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>240</v>
@@ -62032,7 +64214,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -62043,7 +64225,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>243</v>
@@ -62054,7 +64236,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>245</v>
@@ -62065,7 +64247,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>247</v>
@@ -62085,7 +64267,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>72</v>
@@ -62096,7 +64278,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>72</v>
@@ -62107,7 +64289,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>72</v>
@@ -62118,7 +64300,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>72</v>
@@ -62129,7 +64311,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>72</v>
@@ -62140,7 +64322,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>255</v>
@@ -62151,7 +64333,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>72</v>
@@ -62162,7 +64344,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>72</v>
@@ -62173,7 +64355,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -62184,7 +64366,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
@@ -62195,7 +64377,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>72</v>
@@ -62206,7 +64388,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>72</v>
@@ -62217,7 +64399,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>264</v>
@@ -62228,7 +64410,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>266</v>
@@ -62239,7 +64421,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>268</v>
@@ -62250,7 +64432,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="176">
@@ -62258,7 +64440,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>271</v>
@@ -62269,7 +64451,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>72</v>
@@ -62280,7 +64462,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>274</v>
@@ -62291,7 +64473,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>276</v>
@@ -62302,7 +64484,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>278</v>
@@ -62313,7 +64495,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>72</v>
@@ -62324,7 +64506,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>72</v>
@@ -62335,7 +64517,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>282</v>
@@ -62346,7 +64528,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>284</v>
@@ -62357,7 +64539,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>72</v>
@@ -62368,7 +64550,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>72</v>
@@ -62379,7 +64561,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>289</v>
@@ -62390,7 +64572,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>72</v>
@@ -62401,7 +64583,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>292</v>
@@ -62412,7 +64594,7 @@
         <v>293</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>294</v>
@@ -62423,7 +64605,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>296</v>
@@ -62434,7 +64616,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>298</v>
@@ -62445,7 +64627,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>300</v>
@@ -62456,7 +64638,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>302</v>
@@ -62467,7 +64649,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>304</v>
@@ -62478,7 +64660,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>72</v>
@@ -62489,7 +64671,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>72</v>
@@ -62500,7 +64682,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>308</v>
@@ -62511,7 +64693,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>312</v>
@@ -62522,7 +64704,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>314</v>
@@ -62533,7 +64715,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3394</v>
+        <v>3578</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>316</v>
@@ -62544,7 +64726,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3393</v>
+        <v>3577</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>318</v>
@@ -64965,16 +67147,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>3390</v>
+        <v>3574</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3395</v>
+        <v>3579</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3396</v>
+        <v>3580</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3392</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="2">
@@ -64982,7 +67164,7 @@
         <v>2110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -64994,7 +67176,7 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -65006,7 +67188,7 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -65018,7 +67200,7 @@
         <v>2116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -65031,7 +67213,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2119</v>
@@ -65042,7 +67224,7 @@
         <v>2120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -65054,7 +67236,7 @@
         <v>2122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -65066,7 +67248,7 @@
         <v>2124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -65079,7 +67261,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2127</v>
@@ -65091,7 +67273,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2129</v>
@@ -65102,7 +67284,7 @@
         <v>2131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -65114,7 +67296,7 @@
         <v>2133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -65126,7 +67308,7 @@
         <v>2135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -65139,7 +67321,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2138</v>
@@ -65150,7 +67332,7 @@
         <v>2140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -65162,7 +67344,7 @@
         <v>2142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -65175,7 +67357,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2145</v>
@@ -65187,7 +67369,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2147</v>
@@ -65199,7 +67381,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2149</v>
@@ -65210,7 +67392,7 @@
         <v>2150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -65222,7 +67404,7 @@
         <v>2152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -65234,7 +67416,7 @@
         <v>2154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -65246,7 +67428,7 @@
         <v>2156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -65258,7 +67440,7 @@
         <v>2158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
@@ -65270,7 +67452,7 @@
         <v>2160</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -65282,7 +67464,7 @@
         <v>2162</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -65294,7 +67476,7 @@
         <v>2164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -65306,7 +67488,7 @@
         <v>2166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -65318,7 +67500,7 @@
         <v>2168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -65330,7 +67512,7 @@
         <v>2170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -65342,7 +67524,7 @@
         <v>2172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -65354,7 +67536,7 @@
         <v>2174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -65366,7 +67548,7 @@
         <v>2176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -65378,7 +67560,7 @@
         <v>2178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -65390,7 +67572,7 @@
         <v>2180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -65402,7 +67584,7 @@
         <v>2182</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -65414,7 +67596,7 @@
         <v>2184</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -65426,7 +67608,7 @@
         <v>2186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
@@ -65438,7 +67620,7 @@
         <v>2188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -65450,7 +67632,7 @@
         <v>2190</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
@@ -65462,7 +67644,7 @@
         <v>2192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -65474,7 +67656,7 @@
         <v>2194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -65486,7 +67668,7 @@
         <v>2196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -65498,7 +67680,7 @@
         <v>2198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
@@ -65510,7 +67692,7 @@
         <v>2200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -65522,7 +67704,7 @@
         <v>2202</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
@@ -65534,7 +67716,7 @@
         <v>2204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -65546,7 +67728,7 @@
         <v>2206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
@@ -65558,7 +67740,7 @@
         <v>2208</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -65570,7 +67752,7 @@
         <v>2210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
@@ -65582,7 +67764,7 @@
         <v>2212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
@@ -65594,7 +67776,7 @@
         <v>2214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
@@ -65606,7 +67788,7 @@
         <v>2216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
@@ -65618,7 +67800,7 @@
         <v>2218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
@@ -65630,7 +67812,7 @@
         <v>2220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
@@ -65643,7 +67825,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2224</v>
@@ -65654,7 +67836,7 @@
         <v>2225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
@@ -65667,7 +67849,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2228</v>
@@ -65678,7 +67860,7 @@
         <v>2229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -65690,7 +67872,7 @@
         <v>2231</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2232</v>
@@ -65702,7 +67884,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>2234</v>
@@ -65713,7 +67895,7 @@
         <v>2235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
@@ -65725,7 +67907,7 @@
         <v>2237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -65738,7 +67920,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2240</v>
@@ -65749,7 +67931,7 @@
         <v>2241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -65761,7 +67943,7 @@
         <v>2243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
@@ -65773,7 +67955,7 @@
         <v>2247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -65785,7 +67967,7 @@
         <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
@@ -65797,7 +67979,7 @@
         <v>2251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -65809,7 +67991,7 @@
         <v>2253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
@@ -65821,7 +68003,7 @@
         <v>2254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -65833,7 +68015,7 @@
         <v>2256</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
@@ -65845,7 +68027,7 @@
         <v>2259</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -65857,7 +68039,7 @@
         <v>2261</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
@@ -65869,7 +68051,7 @@
         <v>2263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
@@ -65881,7 +68063,7 @@
         <v>2264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
@@ -65893,7 +68075,7 @@
         <v>2266</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -65905,7 +68087,7 @@
         <v>2268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
@@ -65917,7 +68099,7 @@
         <v>2270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
@@ -65929,7 +68111,7 @@
         <v>2272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
@@ -65941,7 +68123,7 @@
         <v>2275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -65953,7 +68135,7 @@
         <v>2278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
@@ -65965,7 +68147,7 @@
         <v>2280</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
@@ -65977,7 +68159,7 @@
         <v>2282</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
@@ -65989,7 +68171,7 @@
         <v>2284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
@@ -66001,7 +68183,7 @@
         <v>2286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
@@ -66013,7 +68195,7 @@
         <v>2288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
@@ -66025,7 +68207,7 @@
         <v>2291</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
@@ -66037,7 +68219,7 @@
         <v>2292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -66049,7 +68231,7 @@
         <v>2294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
@@ -66061,7 +68243,7 @@
         <v>2296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
@@ -66074,7 +68256,7 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>2300</v>
@@ -66085,7 +68267,7 @@
         <v>2301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
@@ -66097,7 +68279,7 @@
         <v>2302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
@@ -66109,7 +68291,7 @@
         <v>2306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
@@ -66121,7 +68303,7 @@
         <v>2307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
@@ -66133,7 +68315,7 @@
         <v>2309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
@@ -66145,7 +68327,7 @@
         <v>2311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
@@ -66157,7 +68339,7 @@
         <v>2313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
@@ -66169,7 +68351,7 @@
         <v>2315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
@@ -66181,7 +68363,7 @@
         <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
@@ -66193,7 +68375,7 @@
         <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
@@ -66205,7 +68387,7 @@
         <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
@@ -66217,7 +68399,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
@@ -66229,7 +68411,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
@@ -66241,7 +68423,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
@@ -66253,7 +68435,7 @@
         <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
@@ -66265,7 +68447,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
@@ -66277,7 +68459,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
@@ -66290,7 +68472,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>162</v>
@@ -66301,7 +68483,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
@@ -66313,7 +68495,7 @@
         <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
@@ -66325,7 +68507,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
@@ -66337,7 +68519,7 @@
         <v>168</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
@@ -66349,7 +68531,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
@@ -66361,7 +68543,7 @@
         <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
@@ -66373,7 +68555,7 @@
         <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
@@ -66385,7 +68567,7 @@
         <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
@@ -66397,7 +68579,7 @@
         <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
@@ -66410,7 +68592,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>178</v>
@@ -66421,7 +68603,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
@@ -66433,7 +68615,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
@@ -66445,7 +68627,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
@@ -66457,7 +68639,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
@@ -66469,7 +68651,7 @@
         <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
@@ -66481,7 +68663,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
@@ -66493,7 +68675,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
@@ -66505,7 +68687,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
@@ -66517,7 +68699,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
@@ -66529,7 +68711,7 @@
         <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
@@ -66541,7 +68723,7 @@
         <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
@@ -66553,7 +68735,7 @@
         <v>200</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
@@ -66565,7 +68747,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -66577,7 +68759,7 @@
         <v>204</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
@@ -66589,7 +68771,7 @@
         <v>207</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
@@ -66601,7 +68783,7 @@
         <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
@@ -66613,7 +68795,7 @@
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
@@ -66625,7 +68807,7 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
@@ -66637,7 +68819,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
@@ -66649,7 +68831,7 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
@@ -66661,7 +68843,7 @@
         <v>217</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
@@ -66674,7 +68856,7 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>219</v>
@@ -66686,7 +68868,7 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>221</v>
@@ -66697,7 +68879,7 @@
         <v>222</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
@@ -66709,7 +68891,7 @@
         <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
@@ -66721,7 +68903,7 @@
         <v>226</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
@@ -66733,7 +68915,7 @@
         <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
@@ -66745,7 +68927,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
@@ -66757,7 +68939,7 @@
         <v>231</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
@@ -66769,7 +68951,7 @@
         <v>233</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
@@ -66781,7 +68963,7 @@
         <v>235</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
@@ -66793,7 +68975,7 @@
         <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
@@ -66805,7 +68987,7 @@
         <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
@@ -66817,7 +68999,7 @@
         <v>241</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
@@ -66829,7 +69011,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
@@ -66841,7 +69023,7 @@
         <v>244</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
@@ -66853,7 +69035,7 @@
         <v>246</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
@@ -66865,7 +69047,7 @@
         <v>248</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
@@ -66877,7 +69059,7 @@
         <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
@@ -66889,7 +69071,7 @@
         <v>250</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
@@ -66901,7 +69083,7 @@
         <v>251</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
@@ -66913,7 +69095,7 @@
         <v>252</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
@@ -66925,7 +69107,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
@@ -66937,7 +69119,7 @@
         <v>254</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
@@ -66949,7 +69131,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
@@ -66961,7 +69143,7 @@
         <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
@@ -66973,7 +69155,7 @@
         <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
@@ -66985,7 +69167,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
@@ -66997,7 +69179,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
@@ -67009,7 +69191,7 @@
         <v>262</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
@@ -67021,7 +69203,7 @@
         <v>263</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
@@ -67033,7 +69215,7 @@
         <v>265</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
@@ -67045,7 +69227,7 @@
         <v>267</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
@@ -67057,7 +69239,7 @@
         <v>269</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C175" s="2"/>
     </row>
@@ -67066,7 +69248,7 @@
         <v>270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
@@ -67078,7 +69260,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
@@ -67091,7 +69273,7 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>274</v>
@@ -67102,7 +69284,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
@@ -67114,7 +69296,7 @@
         <v>277</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
@@ -67126,7 +69308,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
@@ -67138,7 +69320,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
@@ -67151,7 +69333,7 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>282</v>
@@ -67162,7 +69344,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
@@ -67174,7 +69356,7 @@
         <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
@@ -67186,7 +69368,7 @@
         <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
@@ -67198,7 +69380,7 @@
         <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
@@ -67210,7 +69392,7 @@
         <v>290</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
@@ -67222,7 +69404,7 @@
         <v>291</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
@@ -67235,7 +69417,7 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>294</v>
@@ -67246,7 +69428,7 @@
         <v>295</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
@@ -67258,7 +69440,7 @@
         <v>297</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
@@ -67270,7 +69452,7 @@
         <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
@@ -67282,7 +69464,7 @@
         <v>301</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2" t="s">
@@ -67294,7 +69476,7 @@
         <v>303</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
@@ -67306,7 +69488,7 @@
         <v>305</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
@@ -67318,7 +69500,7 @@
         <v>306</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
@@ -67330,7 +69512,7 @@
         <v>307</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
@@ -67342,7 +69524,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
@@ -67354,7 +69536,7 @@
         <v>313</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
@@ -67366,7 +69548,7 @@
         <v>315</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
@@ -67378,7 +69560,7 @@
         <v>317</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3397</v>
+        <v>3581</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2" t="s">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14837" uniqueCount="3582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15885" uniqueCount="3848">
   <si>
     <t>2025-04-17T23-47-44-458Z</t>
   </si>
@@ -10718,6 +10718,804 @@
   </si>
   <si>
     <t>Waste time. All are people that cheapen out and don't want to match. They will cancel</t>
+  </si>
+  <si>
+    <t>2025-06-30T05-32-54-752Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages723_part1.csv</t>
+  </si>
+  <si>
+    <t>Oh no.. probably can see early predict 28</t>
+  </si>
+  <si>
+    <t>Oh no.. there's probably an early prediction of 28</t>
+  </si>
+  <si>
+    <t>235 once they break  its game on</t>
+  </si>
+  <si>
+    <t>When 235 takes a break, it's game-on</t>
+  </si>
+  <si>
+    <t>They will wait for me 225</t>
+  </si>
+  <si>
+    <t>225 will wait for me</t>
+  </si>
+  <si>
+    <t>if u hv been shorting GEAR for the past few days    should make a good profit !!!</t>
+  </si>
+  <si>
+    <t>Yup 👍.. I try bk 225/230might see ki seow vol. later🤣</t>
+  </si>
+  <si>
+    <t>Asiaphos  hope they done with the selling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Lai Huat sellers dried up 67 </t>
+  </si>
+  <si>
+    <t>MT struggling liao.. Feel like shorting</t>
+  </si>
+  <si>
+    <t>Shorts today happy. Yesterday ganna squeeze. Today make back</t>
+  </si>
+  <si>
+    <t>Halcyon nobody throw 225 to me yet</t>
+  </si>
+  <si>
+    <t>2 year treasury surging again😅 think because of Uk Inflation news?</t>
+  </si>
+  <si>
+    <t>2 years and treasury is surging again 😅 perhaps because of the UK inflation news?</t>
+  </si>
+  <si>
+    <t>BBS play bio and cb for one day?</t>
+  </si>
+  <si>
+    <t>all hot stocks today r drifting lower...better dont buy anymore</t>
+  </si>
+  <si>
+    <t>All the hot stocks r drifting low... I'd recommend not buying more</t>
+  </si>
+  <si>
+    <t>but halcyon can buy coz offer 6 yrs ago was 75 cents .now 22 cents...hope im right</t>
+  </si>
+  <si>
+    <t>But you can consider buying halcyon coz the offer 6 yrs ago was 75 cents. Now it's 22 cents... I hope I'm right</t>
+  </si>
+  <si>
+    <t>Yes👍.. 9years ago &amp; cheong to $1..my childhood friend listed Halcyon.. but he sells all his shares 2-3years later</t>
+  </si>
+  <si>
+    <t>Yes👍.. 9 years ago it rocketed to $1.. my childhood friend listed Halcyon.. but hr sold all his shares 2-3 years later</t>
+  </si>
+  <si>
+    <t>wow dump rh 178 !! might be force sell at this hour !!</t>
+  </si>
+  <si>
+    <t>most sgx shares exvpt banks shares 9 yrs ago are at least 50percent higher thannow.sgstocks really disappointing</t>
+  </si>
+  <si>
+    <t>most sgx shares, exvpt banks shares, were at least 50percent higher 9 yrs ago than now. The sg stock market is really disappointing</t>
+  </si>
+  <si>
+    <t>ur childhood friend sold at a high...at least hv sgd$50 million that time...now more huat if he pumped all into properties then</t>
+  </si>
+  <si>
+    <t>ur childhood friend sold at a high... would have had at least sgd $50 million at that time... would now be getting a fortune if he pumped it all into properties then</t>
+  </si>
+  <si>
+    <t>don't thking of that lah.. bull hold and ride the rally.. bear lai liao.. break S shall reduce position.. and appear 2nd LL die die can take less profit to exit all</t>
+  </si>
+  <si>
+    <t>Yup  Halcyon matter of time will be bought by SInochem  makes sense to do that</t>
+  </si>
+  <si>
+    <t>Yup Halcyon will be bought by Sinochem in a matter of time. It makes sense to do that</t>
+  </si>
+  <si>
+    <t>he sold his oil&amp;gas marine to a Germany company.. and used the capital listed Halcyon.. totally different line.. rubber Indonesia.. but they r business man mind.. heard he bankruptcy 5years ago.. because wrong timing  throw in all his Halcyon gains to Chinese 🇨🇳 nightclubs (can't rem) andwrong timingduring that time xjp 中国 打虎🐯</t>
+  </si>
+  <si>
+    <t>if u hv  spare cash can buy some .high chance make profit</t>
+  </si>
+  <si>
+    <t>if u hv spare cash I'd recommend to buy some. There is a high chance of making profit</t>
+  </si>
+  <si>
+    <t>follow boss dax most can profit</t>
+  </si>
+  <si>
+    <t>follow boss dax, most would allow for a profit</t>
+  </si>
+  <si>
+    <t>Looks like a late show coming for rubber</t>
+  </si>
+  <si>
+    <t>day high 134  see 140 soon</t>
+  </si>
+  <si>
+    <t>Ya.. possible if BO 1st R 136/137 toward next R 140</t>
+  </si>
+  <si>
+    <t>Wait ums below 0.8? Tech toh</t>
+  </si>
+  <si>
+    <t>Wait... ums is below 0.8? Tech is collapsing</t>
+  </si>
+  <si>
+    <t>Penny no Hope Stay safe betterNo much volumeBb also not interested LiaoBuy REIT better</t>
+  </si>
+  <si>
+    <t>There is no hope for penny. It is better to play it safe. I've got not much volume, and am also not interested anymore. Buying REIT might be better</t>
+  </si>
+  <si>
+    <t>MT chiong down!! wang wang huat ah!!</t>
+  </si>
+  <si>
+    <t>MT is rapidly going down!! We're going to get rich!</t>
+  </si>
+  <si>
+    <t>Aiy.. Short one all down 😂</t>
+  </si>
+  <si>
+    <t>good one  this one got chance to be next popular game</t>
+  </si>
+  <si>
+    <t>This is a good one. It has got a chance to be the next popular game</t>
+  </si>
+  <si>
+    <t>Just short aem.. Always last min</t>
+  </si>
+  <si>
+    <t>Watch Biolidics and Clearbridge  we might have a short squeeze coming up as shortist scurry to cover.Lets see.</t>
+  </si>
+  <si>
+    <t>Watch Biolidics and Clearbridge. we might have a short squeeze coming up as shortist scurry to cover. Let's see.</t>
+  </si>
+  <si>
+    <t>Biolidics shortsqueeze time. feels like a big one.</t>
+  </si>
+  <si>
+    <t>Now buy cheaper than ur px</t>
+  </si>
+  <si>
+    <t>If you buy now, it's cheaper than ur px</t>
+  </si>
+  <si>
+    <t>I also think still looks ok.</t>
+  </si>
+  <si>
+    <t>I also think that it still looks ok.</t>
+  </si>
+  <si>
+    <t>Shortist most of the time is winThis is the market for them</t>
+  </si>
+  <si>
+    <t>It's a win most of the time for shortist. This is the market for them</t>
+  </si>
+  <si>
+    <t>play LS must hv luck n be nimble</t>
+  </si>
+  <si>
+    <t>To play LS, you must hv luck, n be nimble</t>
+  </si>
+  <si>
+    <t>Really surprise flush down so fierce</t>
+  </si>
+  <si>
+    <t>Really surprising that the flush-down is so fierce</t>
+  </si>
+  <si>
+    <t>u so zai👍 everyday profit alot</t>
+  </si>
+  <si>
+    <t>You're so good 👍 you're profiting a lot each day</t>
+  </si>
+  <si>
+    <t>Not all  AEM short 309 wait last min see how</t>
+  </si>
+  <si>
+    <t>AEM like not much meat to short</t>
+  </si>
+  <si>
+    <t>It seems that AEM has not much volume to short</t>
+  </si>
+  <si>
+    <t>Medtecs bouncing should bring the others up.</t>
+  </si>
+  <si>
+    <t>Medtech is bouncing, and would probably bring the others up.</t>
+  </si>
+  <si>
+    <t>bringing back others like Biolidics and clearbridge. Medtecs is leader</t>
+  </si>
+  <si>
+    <t>Medtecs are leaders and are bringing back others like Biolidics and clearbridge.</t>
+  </si>
+  <si>
+    <t>So XBB is here to stay for long</t>
+  </si>
+  <si>
+    <t>go go Biolidics. Squeeze up . lets shortist cover up</t>
+  </si>
+  <si>
+    <t>Go, go, Biolidics. Squeeze up. Let's have shortist cover up</t>
+  </si>
+  <si>
+    <t>ya.. BB power 💪.. really can control same price.. both 17.6c same -3.297%Dyna-Mac🛥 RH PetroGas</t>
+  </si>
+  <si>
+    <t>yes.. BB power 💪.. it really can control for them to be the same price.. both are at 17.6c same—-3.297% for both Dyna-Mac🛥 and RH PetroGas</t>
+  </si>
+  <si>
+    <t>BB very kind  so many sell vol for them to cover</t>
+  </si>
+  <si>
+    <t>BB is very kind. Many sold vol for them to cover</t>
+  </si>
+  <si>
+    <t>Medtecs going back $0.20. . Biolidics might have chance to close $0.065 above.</t>
+  </si>
+  <si>
+    <t>The Medtecs arw going back to $0.20. . Biolidics might have chance to close at $0.065 above.</t>
+  </si>
+  <si>
+    <t>wWill be interesting 12 mins to watch now</t>
+  </si>
+  <si>
+    <t>It will be an interesting 12 mins to watch now</t>
+  </si>
+  <si>
+    <t>2025-06-30T08-13-46-100Z</t>
+  </si>
+  <si>
+    <t>inputs/sgxpennystocksdiscussion_messages475_part8.csv</t>
+  </si>
+  <si>
+    <t>My view is - 18 July is the hard loan maturity date for all the facilities. If the refi/extensionis successful  management should announce it since they alr have the info. If the refi failed  obvious the next step is EFR/rights issue  then halt the stock. Its irresponsible to continue trading with retail shareholder basically gambling at this poiint on the price action and biting the teeth at the next step. Very shocking management</t>
+  </si>
+  <si>
+    <t>My view: 18 July is the hard loan maturity date for all the facilities. If the refi/extension is successful, the management should announce it since they alr have the info. If the refi failed, the obvious next step is EFR/rights issue, then halt the stock. It's irresponsible to continue trading with retail shareholders, basically gambling at this point, on the price action and biting the teeth at the next step. Very shocking management</t>
+  </si>
+  <si>
+    <t>Will Medical supporters chiong KTV with the profits to feed the cycle?</t>
+  </si>
+  <si>
+    <t>Will Medical supporters rush for KTV with the profits to feed the cycle?</t>
+  </si>
+  <si>
+    <t>Their management is a home office style</t>
+  </si>
+  <si>
+    <t>More or less a family running it</t>
+  </si>
+  <si>
+    <t>It's a well positioned stock.. But the management has been... Disappointing so far</t>
+  </si>
+  <si>
+    <t>I still deep deep red  most of us still stuck</t>
+  </si>
+  <si>
+    <t>It's still in the deep red for me. Most of us are still stuck</t>
+  </si>
+  <si>
+    <t>Was happy with the ARA deal till it fell out</t>
+  </si>
+  <si>
+    <t>Added Shen Yao $0.006. Looks like an attempt by players to flush and give up at $0.006. Lets go.</t>
+  </si>
+  <si>
+    <t>Added Shen Yao at $0.006. Looks like an attempt by players to flush and give up at $0.006. Lets go.</t>
+  </si>
+  <si>
+    <t>Agree 👍...anyway I have waited since 2016 at 1 😆</t>
+  </si>
+  <si>
+    <t>Abundance just need some catalyst and it will fly to the moon Liao</t>
+  </si>
+  <si>
+    <t>There is abundance. We just need some catalysts and it will then fly to the moon</t>
+  </si>
+  <si>
+    <t>Already</t>
+  </si>
+  <si>
+    <t>Ya see the share price know liao  only one direction 😂</t>
+  </si>
+  <si>
+    <t>Yes, see the share price and you already know that there is only one direction 😂</t>
+  </si>
+  <si>
+    <t>should be those t+4 selling ah</t>
+  </si>
+  <si>
+    <t>Yea, should be those selling t+4</t>
+  </si>
+  <si>
+    <t>Yea</t>
+  </si>
+  <si>
+    <t>Desmondhey bro  we need your Power on HSO :)</t>
+  </si>
+  <si>
+    <t>tmr do not have T4 !!!</t>
+  </si>
+  <si>
+    <t>There isn't T4 tmr!!!</t>
+  </si>
+  <si>
+    <t>tmr many will get stress even without trading  cos depend on tonight US markets</t>
+  </si>
+  <si>
+    <t>tmr, many will get stress even without trading, cos it all depends on the US markets tonight</t>
+  </si>
+  <si>
+    <t>Thanks! Can i pls have your broker's contact?</t>
+  </si>
+  <si>
+    <t>This one is catalyst for MT action today? 😂</t>
+  </si>
+  <si>
+    <t>Is this a catalyst for the MT action today? 😂</t>
+  </si>
+  <si>
+    <t>later shall go fry one egg and make toast..</t>
+  </si>
+  <si>
+    <t>Later, I shall go fry an egg and make a toast..</t>
+  </si>
+  <si>
+    <t>Market holding unexpectedly well... Nothing to buy...</t>
+  </si>
+  <si>
+    <t>Market holding unexpectedly well... there is nothing to buy...</t>
+  </si>
+  <si>
+    <t>dunno whether waiting for news to be announced before doing a flush</t>
+  </si>
+  <si>
+    <t>not lockdown. but sounds like might have tighter measures. maybe schools HBL?</t>
+  </si>
+  <si>
+    <t>Not a lock down. but sounds like there might be tighter measures. maybe schools will shift to HBL?</t>
+  </si>
+  <si>
+    <t>Read liao. Dun hv. Show me .</t>
+  </si>
+  <si>
+    <t>Read already. There isn't any. Show me?</t>
+  </si>
+  <si>
+    <t>Midnight news and saw it appear as "breaking news" crawler on CNA TV around midnight.MOH urging individuals  especially the elderly  who have yet to be vaccinated against COVID-19 to "stay home as much as possible" in the next few weeks and avoid going out for non-essential reasons.unvaccinated individuals include kids... seems like govt hinting tighter measures.</t>
+  </si>
+  <si>
+    <t>I see it as no tighter control so ask elderly stay home</t>
+  </si>
+  <si>
+    <t>I see it as no tighter control, so, ask the elderly to stay at home</t>
+  </si>
+  <si>
+    <t>the headlines many put as elderly  but the messaging says "unvaccinated individuals especially the elderly"</t>
+  </si>
+  <si>
+    <t>Many of the headlines use the elderly, but the messaging says "unvaccinated individuals especially the elderly"</t>
+  </si>
+  <si>
+    <t>So both category stay home as much as possible</t>
+  </si>
+  <si>
+    <t>So, both category stay home as much as possible</t>
+  </si>
+  <si>
+    <t>While they fight the fire outside</t>
+  </si>
+  <si>
+    <t>Hi there. Pm me ya thanks</t>
+  </si>
+  <si>
+    <t>Hi there. Pm me yea, thanks</t>
+  </si>
+  <si>
+    <t>Sheng Siong so many people today. Really huat big liao.</t>
+  </si>
+  <si>
+    <t>There are so many people at Sheng Siong today. Really earning big.</t>
+  </si>
+  <si>
+    <t>Haiiz... Why we have Delta Variant in SG huh? I forgot</t>
+  </si>
+  <si>
+    <t>Haiiz... Why do we have Delta Variant in SG? I have forgotten</t>
+  </si>
+  <si>
+    <t>We imported it in from south asia</t>
+  </si>
+  <si>
+    <t>Oh... Because we need people to build our properties</t>
+  </si>
+  <si>
+    <t>But now  construction also doesn't appear to be any faster</t>
+  </si>
+  <si>
+    <t>But the construction now also doesn't appear to be any faster</t>
+  </si>
+  <si>
+    <t>The govt won't do another CB as economical cost too high and vaccination rate more than 50% already</t>
+  </si>
+  <si>
+    <t>The govt won't do another CB as the economic cost was too high and vaccination rate has already reached more than 50%</t>
+  </si>
+  <si>
+    <t>I think 70% of working class already vaccinated</t>
+  </si>
+  <si>
+    <t>I think 70% of working class is already vaccinated</t>
+  </si>
+  <si>
+    <t>pray cases keep to below 100</t>
+  </si>
+  <si>
+    <t>pray that cases keep to below 100</t>
+  </si>
+  <si>
+    <t>Cases go up also not likely unless those vaccinated ganna serious illness</t>
+  </si>
+  <si>
+    <t>Even if the cases go up, it is not likely that those vaccinated will have serious illness</t>
+  </si>
+  <si>
+    <t>btw do they report vacc kena covid ?</t>
+  </si>
+  <si>
+    <t>Btw, do the reported the nunber of vacc who got covid?</t>
+  </si>
+  <si>
+    <t>take this chance to buy on dip</t>
+  </si>
+  <si>
+    <t>No. They just report no. of vaccinated needing oxygen support  ICU and death.</t>
+  </si>
+  <si>
+    <t>No. They just report no. of vaccinated needing oxygen support, ICU and death.</t>
+  </si>
+  <si>
+    <t>So far fully vaccinated no one need oxygen support....that's what they said.</t>
+  </si>
+  <si>
+    <t>So far, amongst the fully vaccinated no one needed oxygen support....that's what they said.</t>
+  </si>
+  <si>
+    <t>But Indonesia doctors many died due to covid. Don't know if the china vaccine no good or they overstressed</t>
+  </si>
+  <si>
+    <t>But in Indonesia, many doctors died due to covid. Don't know if it's that the china vaccine was not good or if they were overstressed</t>
+  </si>
+  <si>
+    <t>🏄‍♂️ A police report was lodged after a man was seen "surfing" in a pond at the War Memorial Park.➡️https://bit.ly/3rkwfwkFollow us on@mothershipsgfor the latest updates.</t>
+  </si>
+  <si>
+    <t>why tis guy dun go sea</t>
+  </si>
+  <si>
+    <t>Why didn't this guy go to the sea?</t>
+  </si>
+  <si>
+    <t>surprise cement green wor while all red</t>
+  </si>
+  <si>
+    <t>Surprised that cement is green while the rest are all red</t>
+  </si>
+  <si>
+    <t>Heard from my relative Genting Malaysia have not reopen but still paying staff overheads. All those Genting suppliers also eat grass liao</t>
+  </si>
+  <si>
+    <t>Heard from my relative that Genting, Malaysia, has not reopened but are still paying staff overheads. All those Genting suppliers will have little to earn</t>
+  </si>
+  <si>
+    <t>malaysia glove counters still creating the base !! slow and steady !!</t>
+  </si>
+  <si>
+    <t>malaysia glove counters are still creating the base !! They are slow and steady !!</t>
+  </si>
+  <si>
+    <t>glove counters resting    rotational play to others !! huat ah</t>
+  </si>
+  <si>
+    <t>Rhe glove counters are resting rotational play to others !! Time to get rich!</t>
+  </si>
+  <si>
+    <t>Exclamation</t>
+  </si>
+  <si>
+    <t>Lol..  you seems to be heavy on glove like me</t>
+  </si>
+  <si>
+    <t>aiyo  just look at the world infection wave    cannot stop !! BB will take some time to build back the base !!</t>
+  </si>
+  <si>
+    <t>Sigh, just look at the world infection wave, it cannot stop !! BB will take some time to build back the base !!</t>
+  </si>
+  <si>
+    <t>2025-06-30T12-15-13-575Z</t>
+  </si>
+  <si>
+    <t>inputs/SGTalk_messages126_part5.csv</t>
+  </si>
+  <si>
+    <t>I duno leh I stream on iPad</t>
+  </si>
+  <si>
+    <t>I don't know. I stream on iPad.</t>
+  </si>
+  <si>
+    <t>express emphasis, uncertainty</t>
+  </si>
+  <si>
+    <t>Can. 4 am I wake up again see. Haha</t>
+  </si>
+  <si>
+    <t>Can. I'll wake up at 4am again and see. Haha.</t>
+  </si>
+  <si>
+    <t>Lol why don’t do during weekends</t>
+  </si>
+  <si>
+    <t>Lol. Why don't you do during weekends?</t>
+  </si>
+  <si>
+    <t>you try go burger king ask for mcdonalds burgers then come back</t>
+  </si>
+  <si>
+    <t>Try and go to burger king and ask for mcdonalds burgers then come back</t>
+  </si>
+  <si>
+    <t>LOL can’t you see that? If not why he ask</t>
+  </si>
+  <si>
+    <t>LOL can't you see that? If not, why did he ask?</t>
+  </si>
+  <si>
+    <t>U use this term validated your age sia</t>
+  </si>
+  <si>
+    <t>Using this term validated your age</t>
+  </si>
+  <si>
+    <t>drag an emphasis</t>
+  </si>
+  <si>
+    <t>lol u expose your age le</t>
+  </si>
+  <si>
+    <t>lol. you had already exposed your age</t>
+  </si>
+  <si>
+    <t>I don’t even know semo Lai de</t>
+  </si>
+  <si>
+    <t>I don't even know what this is.</t>
+  </si>
+  <si>
+    <t>indicate semi emphasis</t>
+  </si>
+  <si>
+    <t>The golden age of the internet lol</t>
+  </si>
+  <si>
+    <t>He like long hair Ma. Intro him chiobu</t>
+  </si>
+  <si>
+    <t>He likes long hair. Introduce him to cute girls.</t>
+  </si>
+  <si>
+    <t>indicate truth</t>
+  </si>
+  <si>
+    <t>I know what u like 😏</t>
+  </si>
+  <si>
+    <t>I also know u like cow</t>
+  </si>
+  <si>
+    <t>I also know that you like cows</t>
+  </si>
+  <si>
+    <t>U are supposed to protect your people!</t>
+  </si>
+  <si>
+    <t>Hahah u from there to here Ah</t>
+  </si>
+  <si>
+    <t>Hahah. Did you go from there to here?</t>
+  </si>
+  <si>
+    <t>casual emphasis</t>
+  </si>
+  <si>
+    <t>that time he sent but it was still cam then i never see if updated hahah</t>
+  </si>
+  <si>
+    <t>he had sent it that time, but it was still cam, then i didn't see if it were updated</t>
+  </si>
+  <si>
+    <t>thats why im telling you mah</t>
+  </si>
+  <si>
+    <t>thats why i'm telling you</t>
+  </si>
+  <si>
+    <t>hello you the biantai one one leh</t>
+  </si>
+  <si>
+    <t>hello, you are the biantai one</t>
+  </si>
+  <si>
+    <t>indicate skeptisism</t>
+  </si>
+  <si>
+    <t>I'm at a state tat idk I'm hungry or I'm full...</t>
+  </si>
+  <si>
+    <t>I'm at a state tat i dont know if I'm hungry or I'm full...</t>
+  </si>
+  <si>
+    <t>Oi oi don’t smear my reputation</t>
+  </si>
+  <si>
+    <t>Hey, don't smear my reputation</t>
+  </si>
+  <si>
+    <t>I de one kena stalked leh</t>
+  </si>
+  <si>
+    <t>I'm the one that was stalked</t>
+  </si>
+  <si>
+    <t>casual emphasis of skepticism</t>
+  </si>
+  <si>
+    <t>Maybe that guy was a hero we all needed  to exterminate 1 less biantai</t>
+  </si>
+  <si>
+    <t>So how to get laid ard here?</t>
+  </si>
+  <si>
+    <t>I'm bored  someone talk to me</t>
+  </si>
+  <si>
+    <t>U don’t. This is a church group. We all practice abstinence</t>
+  </si>
+  <si>
+    <t>Talk to me talk to me talk to me</t>
+  </si>
+  <si>
+    <t>U looking for Virgin Mary isit</t>
+  </si>
+  <si>
+    <t>Are you looking for Virgin Mary?</t>
+  </si>
+  <si>
+    <t>U laugh so loud for what</t>
+  </si>
+  <si>
+    <t>ehhhh you suppose to be the one to tip me</t>
+  </si>
+  <si>
+    <t>But you say I guai. So u should tip me too!</t>
+  </si>
+  <si>
+    <t>But you said I'm good. So you should tip me too!</t>
+  </si>
+  <si>
+    <t>ehhh i thot uou know alr ?</t>
+  </si>
+  <si>
+    <t>hey, i thought that you knew already?</t>
+  </si>
+  <si>
+    <t>U haven’t tell me what’s stll!</t>
+  </si>
+  <si>
+    <t>Is that why you not getting laid?</t>
+  </si>
+  <si>
+    <t>Is that why you are not getting laid?</t>
+  </si>
+  <si>
+    <t>Prob tmr I forgot le haha</t>
+  </si>
+  <si>
+    <t>Probably I would forget tomorrow. haha</t>
+  </si>
+  <si>
+    <t>I think must pay one is it?</t>
+  </si>
+  <si>
+    <t>I think this must be paid, is it?</t>
+  </si>
+  <si>
+    <t>looks more like you the one not getting laid</t>
+  </si>
+  <si>
+    <t>looks more like you're the one not getting laid</t>
+  </si>
+  <si>
+    <t>U know alr what! The story</t>
+  </si>
+  <si>
+    <t>Don't you already know the story?</t>
+  </si>
+  <si>
+    <t>must put in my pocket then count</t>
+  </si>
+  <si>
+    <t>it must be in my pocket to be counted</t>
+  </si>
+  <si>
+    <t>This black cat  talk so long  bo lang chup him  looks like quite tough ard here</t>
+  </si>
+  <si>
+    <t>This black cat talked so long, but no one cared about him. It looks quite tough around here.</t>
+  </si>
+  <si>
+    <t>Do u know they eat birds</t>
+  </si>
+  <si>
+    <t>Thx for the Nat geo info</t>
+  </si>
+  <si>
+    <t>Don’t think he will ever be back haha!</t>
+  </si>
+  <si>
+    <t>Then where u want me to tip</t>
+  </si>
+  <si>
+    <t>Then, where did you want me to tip?</t>
+  </si>
+  <si>
+    <t>Some ppl are just so negative</t>
+  </si>
+  <si>
+    <t>For real ? Got photo arh</t>
+  </si>
+  <si>
+    <t>For real? Is there a photo?</t>
+  </si>
+  <si>
+    <t>arh</t>
+  </si>
+  <si>
+    <t>express acknowledgement and questioning</t>
+  </si>
+  <si>
+    <t>coins ar? let me get my backpack</t>
+  </si>
+  <si>
+    <t>coins? let me get my backpack</t>
+  </si>
+  <si>
+    <t>expression of questioning agreement</t>
+  </si>
+  <si>
+    <t>sorry typo. i meant to say suai</t>
+  </si>
+  <si>
+    <t>sorry typo. i meant to say bad luck.</t>
+  </si>
+  <si>
+    <t>not same. muted still can access members list</t>
+  </si>
+  <si>
+    <t>Out of sight out of mind</t>
+  </si>
+  <si>
+    <t>you better bring enough coins. im fat</t>
+  </si>
+  <si>
+    <t>I’ll bring them in a bag &amp; smack</t>
   </si>
   <si>
     <t>Name</t>
@@ -61540,814 +62338,3958 @@
       </c>
     </row>
     <row r="1920">
-      <c r="A1920" s="1"/>
-      <c r="B1920" s="2"/>
-      <c r="C1920" s="2"/>
-      <c r="D1920" s="2"/>
-      <c r="E1920" s="2"/>
-      <c r="F1920" s="2"/>
-      <c r="G1920" s="2"/>
-      <c r="H1920" s="2"/>
+      <c r="A1920" s="1">
+        <v>45838.06508894676</v>
+      </c>
+      <c r="B1920" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1920" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1920" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1920" s="2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F1920" s="2" t="s">
+        <v>3571</v>
+      </c>
+      <c r="G1920" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1920" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1921">
-      <c r="A1921" s="1"/>
-      <c r="B1921" s="2"/>
-      <c r="C1921" s="2"/>
-      <c r="D1921" s="2"/>
-      <c r="E1921" s="2"/>
-      <c r="F1921" s="2"/>
-      <c r="G1921" s="2"/>
-      <c r="H1921" s="2"/>
+      <c r="A1921" s="1">
+        <v>45838.06558435185</v>
+      </c>
+      <c r="B1921" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1921" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1921" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1921" s="2" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F1921" s="2" t="s">
+        <v>3573</v>
+      </c>
+      <c r="G1921" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1921" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1922">
-      <c r="A1922" s="1"/>
-      <c r="B1922" s="2"/>
-      <c r="C1922" s="2"/>
-      <c r="D1922" s="2"/>
-      <c r="E1922" s="2"/>
-      <c r="F1922" s="2"/>
-      <c r="G1922" s="2"/>
-      <c r="H1922" s="2"/>
+      <c r="A1922" s="1">
+        <v>45838.06588938658</v>
+      </c>
+      <c r="B1922" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1922" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1922" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1922" s="2" t="s">
+        <v>3574</v>
+      </c>
+      <c r="F1922" s="2" t="s">
+        <v>3575</v>
+      </c>
+      <c r="G1922" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1922" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1923">
-      <c r="A1923" s="1"/>
-      <c r="B1923" s="2"/>
-      <c r="C1923" s="2"/>
-      <c r="D1923" s="2"/>
-      <c r="E1923" s="2"/>
+      <c r="A1923" s="1">
+        <v>45838.06607493055</v>
+      </c>
+      <c r="B1923" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1923" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1923" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1923" s="2" t="s">
+        <v>3576</v>
+      </c>
       <c r="F1923" s="2"/>
-      <c r="G1923" s="2"/>
-      <c r="H1923" s="2"/>
+      <c r="G1923" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1923" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1924">
-      <c r="A1924" s="1"/>
-      <c r="B1924" s="2"/>
-      <c r="C1924" s="2"/>
-      <c r="D1924" s="2"/>
-      <c r="E1924" s="2"/>
+      <c r="A1924" s="1">
+        <v>45838.066169432874</v>
+      </c>
+      <c r="B1924" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1924" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1924" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1924" s="2" t="s">
+        <v>3577</v>
+      </c>
       <c r="F1924" s="2"/>
-      <c r="G1924" s="2"/>
-      <c r="H1924" s="2"/>
+      <c r="G1924" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1924" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1925">
-      <c r="A1925" s="1"/>
-      <c r="B1925" s="2"/>
-      <c r="C1925" s="2"/>
-      <c r="D1925" s="2"/>
-      <c r="E1925" s="2"/>
+      <c r="A1925" s="1">
+        <v>45838.066717939815</v>
+      </c>
+      <c r="B1925" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1925" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1925" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1925" s="2" t="s">
+        <v>3578</v>
+      </c>
       <c r="F1925" s="2"/>
-      <c r="G1925" s="2"/>
-      <c r="H1925" s="2"/>
+      <c r="G1925" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1925" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1926">
-      <c r="A1926" s="1"/>
-      <c r="B1926" s="2"/>
-      <c r="C1926" s="2"/>
-      <c r="D1926" s="2"/>
-      <c r="E1926" s="2"/>
+      <c r="A1926" s="1">
+        <v>45838.066796921295</v>
+      </c>
+      <c r="B1926" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1926" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1926" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1926" s="2" t="s">
+        <v>3579</v>
+      </c>
       <c r="F1926" s="2"/>
-      <c r="G1926" s="2"/>
-      <c r="H1926" s="2"/>
+      <c r="G1926" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1926" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1927">
-      <c r="A1927" s="1"/>
-      <c r="B1927" s="2"/>
-      <c r="C1927" s="2"/>
-      <c r="D1927" s="2"/>
-      <c r="E1927" s="2"/>
+      <c r="A1927" s="1">
+        <v>45838.066910567126</v>
+      </c>
+      <c r="B1927" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1927" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1927" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1927" s="2" t="s">
+        <v>3580</v>
+      </c>
       <c r="F1927" s="2"/>
-      <c r="G1927" s="2"/>
-      <c r="H1927" s="2"/>
+      <c r="G1927" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1927" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1928">
-      <c r="A1928" s="1"/>
-      <c r="B1928" s="2"/>
-      <c r="C1928" s="2"/>
-      <c r="D1928" s="2"/>
-      <c r="E1928" s="2"/>
+      <c r="A1928" s="1">
+        <v>45838.06699841435</v>
+      </c>
+      <c r="B1928" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1928" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1928" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1928" s="2" t="s">
+        <v>3581</v>
+      </c>
       <c r="F1928" s="2"/>
-      <c r="G1928" s="2"/>
-      <c r="H1928" s="2"/>
+      <c r="G1928" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1928" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1929">
-      <c r="A1929" s="1"/>
-      <c r="B1929" s="2"/>
-      <c r="C1929" s="2"/>
-      <c r="D1929" s="2"/>
-      <c r="E1929" s="2"/>
+      <c r="A1929" s="1">
+        <v>45838.067066435186</v>
+      </c>
+      <c r="B1929" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1929" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1929" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1929" s="2" t="s">
+        <v>3582</v>
+      </c>
       <c r="F1929" s="2"/>
-      <c r="G1929" s="2"/>
-      <c r="H1929" s="2"/>
+      <c r="G1929" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1929" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1930">
-      <c r="A1930" s="1"/>
-      <c r="B1930" s="2"/>
-      <c r="C1930" s="2"/>
-      <c r="D1930" s="2"/>
-      <c r="E1930" s="2"/>
-      <c r="F1930" s="2"/>
-      <c r="G1930" s="2"/>
-      <c r="H1930" s="2"/>
+      <c r="A1930" s="1">
+        <v>45838.06777037037</v>
+      </c>
+      <c r="B1930" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1930" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1930" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1930" s="2" t="s">
+        <v>3583</v>
+      </c>
+      <c r="F1930" s="2" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G1930" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1930" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1931">
-      <c r="A1931" s="1"/>
-      <c r="B1931" s="2"/>
-      <c r="C1931" s="2"/>
-      <c r="D1931" s="2"/>
-      <c r="E1931" s="2"/>
+      <c r="A1931" s="1">
+        <v>45838.067897245375</v>
+      </c>
+      <c r="B1931" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1931" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1931" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1931" s="2" t="s">
+        <v>3585</v>
+      </c>
       <c r="F1931" s="2"/>
-      <c r="G1931" s="2"/>
-      <c r="H1931" s="2"/>
+      <c r="G1931" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1931" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1932">
-      <c r="A1932" s="1"/>
-      <c r="B1932" s="2"/>
-      <c r="C1932" s="2"/>
-      <c r="D1932" s="2"/>
-      <c r="E1932" s="2"/>
-      <c r="F1932" s="2"/>
-      <c r="G1932" s="2"/>
-      <c r="H1932" s="2"/>
+      <c r="A1932" s="1">
+        <v>45838.06846400463</v>
+      </c>
+      <c r="B1932" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1932" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1932" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1932" s="2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="F1932" s="2" t="s">
+        <v>3587</v>
+      </c>
+      <c r="G1932" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1932" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1933">
-      <c r="A1933" s="1"/>
-      <c r="B1933" s="2"/>
-      <c r="C1933" s="2"/>
-      <c r="D1933" s="2"/>
-      <c r="E1933" s="2"/>
-      <c r="F1933" s="2"/>
-      <c r="G1933" s="2"/>
-      <c r="H1933" s="2"/>
+      <c r="A1933" s="1">
+        <v>45838.06921307871</v>
+      </c>
+      <c r="B1933" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1933" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1933" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1933" s="2" t="s">
+        <v>3588</v>
+      </c>
+      <c r="F1933" s="2" t="s">
+        <v>3589</v>
+      </c>
+      <c r="G1933" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1933" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1934">
-      <c r="A1934" s="1"/>
-      <c r="B1934" s="2"/>
-      <c r="C1934" s="2"/>
-      <c r="D1934" s="2"/>
-      <c r="E1934" s="2"/>
-      <c r="F1934" s="2"/>
-      <c r="G1934" s="2"/>
-      <c r="H1934" s="2"/>
+      <c r="A1934" s="1">
+        <v>45838.07117776621</v>
+      </c>
+      <c r="B1934" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1934" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1934" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1934" s="2" t="s">
+        <v>3590</v>
+      </c>
+      <c r="F1934" s="2" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G1934" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1934" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1935">
-      <c r="A1935" s="1"/>
-      <c r="B1935" s="2"/>
-      <c r="C1935" s="2"/>
-      <c r="D1935" s="2"/>
-      <c r="E1935" s="2"/>
+      <c r="A1935" s="1">
+        <v>45838.07127030093</v>
+      </c>
+      <c r="B1935" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1935" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1935" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1935" s="2" t="s">
+        <v>3592</v>
+      </c>
       <c r="F1935" s="2"/>
-      <c r="G1935" s="2"/>
-      <c r="H1935" s="2"/>
+      <c r="G1935" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1935" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1936">
-      <c r="A1936" s="1"/>
-      <c r="B1936" s="2"/>
-      <c r="C1936" s="2"/>
-      <c r="D1936" s="2"/>
-      <c r="E1936" s="2"/>
-      <c r="F1936" s="2"/>
-      <c r="G1936" s="2"/>
-      <c r="H1936" s="2"/>
+      <c r="A1936" s="1">
+        <v>45838.0722725463</v>
+      </c>
+      <c r="B1936" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1936" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1936" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1936" s="2" t="s">
+        <v>3593</v>
+      </c>
+      <c r="F1936" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="G1936" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1936" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1937">
-      <c r="A1937" s="1"/>
-      <c r="B1937" s="2"/>
-      <c r="C1937" s="2"/>
-      <c r="D1937" s="2"/>
-      <c r="E1937" s="2"/>
-      <c r="F1937" s="2"/>
-      <c r="G1937" s="2"/>
-      <c r="H1937" s="2"/>
+      <c r="A1937" s="1">
+        <v>45838.07368560185</v>
+      </c>
+      <c r="B1937" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1937" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1937" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1937" s="2" t="s">
+        <v>3595</v>
+      </c>
+      <c r="F1937" s="2" t="s">
+        <v>3596</v>
+      </c>
+      <c r="G1937" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1937" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1938">
-      <c r="A1938" s="1"/>
-      <c r="B1938" s="2"/>
-      <c r="C1938" s="2"/>
-      <c r="D1938" s="2"/>
-      <c r="E1938" s="2"/>
+      <c r="A1938" s="1">
+        <v>45838.073865196755</v>
+      </c>
+      <c r="B1938" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1938" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1938" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1938" s="2" t="s">
+        <v>3597</v>
+      </c>
       <c r="F1938" s="2"/>
-      <c r="G1938" s="2"/>
-      <c r="H1938" s="2"/>
+      <c r="G1938" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1938" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1939">
-      <c r="A1939" s="1"/>
-      <c r="B1939" s="2"/>
-      <c r="C1939" s="2"/>
-      <c r="D1939" s="2"/>
-      <c r="E1939" s="2"/>
-      <c r="F1939" s="2"/>
-      <c r="G1939" s="2"/>
-      <c r="H1939" s="2"/>
+      <c r="A1939" s="1">
+        <v>45838.07435576389</v>
+      </c>
+      <c r="B1939" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1939" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1939" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1939" s="2" t="s">
+        <v>3598</v>
+      </c>
+      <c r="F1939" s="2" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G1939" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1939" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1940">
-      <c r="A1940" s="1"/>
-      <c r="B1940" s="2"/>
-      <c r="C1940" s="2"/>
-      <c r="D1940" s="2"/>
-      <c r="E1940" s="2"/>
+      <c r="A1940" s="1">
+        <v>45838.07465451389</v>
+      </c>
+      <c r="B1940" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1940" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1940" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1940" s="2" t="s">
+        <v>3600</v>
+      </c>
       <c r="F1940" s="2"/>
-      <c r="G1940" s="2"/>
-      <c r="H1940" s="2"/>
+      <c r="G1940" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1940" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1941">
-      <c r="A1941" s="1"/>
-      <c r="B1941" s="2"/>
-      <c r="C1941" s="2"/>
-      <c r="D1941" s="2"/>
-      <c r="E1941" s="2"/>
-      <c r="F1941" s="2"/>
-      <c r="G1941" s="2"/>
-      <c r="H1941" s="2"/>
+      <c r="A1941" s="1">
+        <v>45838.07512877315</v>
+      </c>
+      <c r="B1941" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1941" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1941" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1941" s="2" t="s">
+        <v>3601</v>
+      </c>
+      <c r="F1941" s="2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="G1941" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1941" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1942">
-      <c r="A1942" s="1"/>
-      <c r="B1942" s="2"/>
-      <c r="C1942" s="2"/>
-      <c r="D1942" s="2"/>
-      <c r="E1942" s="2"/>
-      <c r="F1942" s="2"/>
-      <c r="G1942" s="2"/>
-      <c r="H1942" s="2"/>
+      <c r="A1942" s="1">
+        <v>45838.077105358796</v>
+      </c>
+      <c r="B1942" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1942" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1942" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1942" s="2" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F1942" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G1942" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1942" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1943">
-      <c r="A1943" s="1"/>
-      <c r="B1943" s="2"/>
-      <c r="C1943" s="2"/>
-      <c r="D1943" s="2"/>
-      <c r="E1943" s="2"/>
+      <c r="A1943" s="1">
+        <v>45838.077242025465</v>
+      </c>
+      <c r="B1943" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1943" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1943" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1943" s="2" t="s">
+        <v>3605</v>
+      </c>
       <c r="F1943" s="2"/>
-      <c r="G1943" s="2"/>
-      <c r="H1943" s="2"/>
+      <c r="G1943" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1943" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1944">
-      <c r="A1944" s="1"/>
-      <c r="B1944" s="2"/>
-      <c r="C1944" s="2"/>
-      <c r="D1944" s="2"/>
-      <c r="E1944" s="2"/>
+      <c r="A1944" s="1">
+        <v>45838.07734471065</v>
+      </c>
+      <c r="B1944" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1944" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1944" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1944" s="2" t="s">
+        <v>3606</v>
+      </c>
       <c r="F1944" s="2"/>
-      <c r="G1944" s="2"/>
-      <c r="H1944" s="2"/>
+      <c r="G1944" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1944" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1945">
-      <c r="A1945" s="1"/>
-      <c r="B1945" s="2"/>
-      <c r="C1945" s="2"/>
-      <c r="D1945" s="2"/>
-      <c r="E1945" s="2"/>
+      <c r="A1945" s="1">
+        <v>45838.077393541666</v>
+      </c>
+      <c r="B1945" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1945" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1945" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1945" s="2" t="s">
+        <v>3607</v>
+      </c>
       <c r="F1945" s="2"/>
-      <c r="G1945" s="2"/>
-      <c r="H1945" s="2"/>
+      <c r="G1945" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1945" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1946">
-      <c r="A1946" s="1"/>
-      <c r="B1946" s="2"/>
-      <c r="C1946" s="2"/>
-      <c r="D1946" s="2"/>
-      <c r="E1946" s="2"/>
-      <c r="F1946" s="2"/>
-      <c r="G1946" s="2"/>
-      <c r="H1946" s="2"/>
+      <c r="A1946" s="1">
+        <v>45838.07798971065</v>
+      </c>
+      <c r="B1946" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1946" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1946" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1946" s="2" t="s">
+        <v>3608</v>
+      </c>
+      <c r="F1946" s="2" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1946" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1946" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1947">
-      <c r="A1947" s="1"/>
-      <c r="B1947" s="2"/>
-      <c r="C1947" s="2"/>
-      <c r="D1947" s="2"/>
-      <c r="E1947" s="2"/>
-      <c r="F1947" s="2"/>
-      <c r="G1947" s="2"/>
-      <c r="H1947" s="2"/>
+      <c r="A1947" s="1">
+        <v>45838.078748518514</v>
+      </c>
+      <c r="B1947" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1947" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1947" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1947" s="2" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F1947" s="2" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G1947" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1947" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1948">
-      <c r="A1948" s="1"/>
-      <c r="B1948" s="2"/>
-      <c r="C1948" s="2"/>
-      <c r="D1948" s="2"/>
-      <c r="E1948" s="2"/>
-      <c r="F1948" s="2"/>
-      <c r="G1948" s="2"/>
-      <c r="H1948" s="2"/>
+      <c r="A1948" s="1">
+        <v>45838.07931457176</v>
+      </c>
+      <c r="B1948" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1948" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1948" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1948" s="2" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1948" s="2" t="s">
+        <v>3613</v>
+      </c>
+      <c r="G1948" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1948" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1949">
-      <c r="A1949" s="1"/>
-      <c r="B1949" s="2"/>
-      <c r="C1949" s="2"/>
-      <c r="D1949" s="2"/>
-      <c r="E1949" s="2"/>
+      <c r="A1949" s="1">
+        <v>45838.0795246412</v>
+      </c>
+      <c r="B1949" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1949" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1949" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1949" s="2" t="s">
+        <v>3614</v>
+      </c>
       <c r="F1949" s="2"/>
-      <c r="G1949" s="2"/>
-      <c r="H1949" s="2"/>
+      <c r="G1949" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1949" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1950">
-      <c r="A1950" s="1"/>
-      <c r="B1950" s="2"/>
-      <c r="C1950" s="2"/>
-      <c r="D1950" s="2"/>
-      <c r="E1950" s="2"/>
-      <c r="F1950" s="2"/>
-      <c r="G1950" s="2"/>
-      <c r="H1950" s="2"/>
+      <c r="A1950" s="1">
+        <v>45838.07973327546</v>
+      </c>
+      <c r="B1950" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1950" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1950" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1950" s="2" t="s">
+        <v>3615</v>
+      </c>
+      <c r="F1950" s="2" t="s">
+        <v>3616</v>
+      </c>
+      <c r="G1950" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1950" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1951">
-      <c r="A1951" s="1"/>
-      <c r="B1951" s="2"/>
-      <c r="C1951" s="2"/>
-      <c r="D1951" s="2"/>
-      <c r="E1951" s="2"/>
+      <c r="A1951" s="1">
+        <v>45838.079830347226</v>
+      </c>
+      <c r="B1951" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1951" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1951" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1951" s="2" t="s">
+        <v>3617</v>
+      </c>
       <c r="F1951" s="2"/>
-      <c r="G1951" s="2"/>
-      <c r="H1951" s="2"/>
+      <c r="G1951" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1951" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1952">
-      <c r="A1952" s="1"/>
-      <c r="B1952" s="2"/>
-      <c r="C1952" s="2"/>
-      <c r="D1952" s="2"/>
-      <c r="E1952" s="2"/>
-      <c r="F1952" s="2"/>
-      <c r="G1952" s="2"/>
-      <c r="H1952" s="2"/>
+      <c r="A1952" s="1">
+        <v>45838.080340914355</v>
+      </c>
+      <c r="B1952" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1952" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1952" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1952" s="2" t="s">
+        <v>3618</v>
+      </c>
+      <c r="F1952" s="2" t="s">
+        <v>3619</v>
+      </c>
+      <c r="G1952" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1952" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1953">
-      <c r="A1953" s="1"/>
-      <c r="B1953" s="2"/>
-      <c r="C1953" s="2"/>
-      <c r="D1953" s="2"/>
-      <c r="E1953" s="2"/>
-      <c r="F1953" s="2"/>
-      <c r="G1953" s="2"/>
-      <c r="H1953" s="2"/>
+      <c r="A1953" s="1">
+        <v>45838.080462893515</v>
+      </c>
+      <c r="B1953" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1953" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1953" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1953" s="2" t="s">
+        <v>3620</v>
+      </c>
+      <c r="F1953" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1953" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1953" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1954">
-      <c r="A1954" s="1"/>
-      <c r="B1954" s="2"/>
-      <c r="C1954" s="2"/>
-      <c r="D1954" s="2"/>
-      <c r="E1954" s="2"/>
-      <c r="F1954" s="2"/>
-      <c r="G1954" s="2"/>
-      <c r="H1954" s="2"/>
+      <c r="A1954" s="1">
+        <v>45838.08063525463</v>
+      </c>
+      <c r="B1954" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1954" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1954" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1954" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="F1954" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="G1954" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1954" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1955">
-      <c r="A1955" s="1"/>
-      <c r="B1955" s="2"/>
-      <c r="C1955" s="2"/>
-      <c r="D1955" s="2"/>
-      <c r="E1955" s="2"/>
-      <c r="F1955" s="2"/>
-      <c r="G1955" s="2"/>
-      <c r="H1955" s="2"/>
+      <c r="A1955" s="1">
+        <v>45838.08079986111</v>
+      </c>
+      <c r="B1955" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1955" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1955" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1955" s="2" t="s">
+        <v>3623</v>
+      </c>
+      <c r="F1955" s="2" t="s">
+        <v>3624</v>
+      </c>
+      <c r="G1955" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1955" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1956">
-      <c r="A1956" s="1"/>
-      <c r="B1956" s="2"/>
-      <c r="C1956" s="2"/>
-      <c r="D1956" s="2"/>
-      <c r="E1956" s="2"/>
-      <c r="F1956" s="2"/>
-      <c r="G1956" s="2"/>
-      <c r="H1956" s="2"/>
+      <c r="A1956" s="1">
+        <v>45838.08138175926</v>
+      </c>
+      <c r="B1956" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1956" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1956" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1956" s="2" t="s">
+        <v>3625</v>
+      </c>
+      <c r="F1956" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G1956" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1956" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1957">
-      <c r="A1957" s="1"/>
-      <c r="B1957" s="2"/>
-      <c r="C1957" s="2"/>
-      <c r="D1957" s="2"/>
-      <c r="E1957" s="2"/>
-      <c r="F1957" s="2"/>
-      <c r="G1957" s="2"/>
-      <c r="H1957" s="2"/>
+      <c r="A1957" s="1">
+        <v>45838.08162684028</v>
+      </c>
+      <c r="B1957" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1957" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1957" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1957" s="2" t="s">
+        <v>3627</v>
+      </c>
+      <c r="F1957" s="2" t="s">
+        <v>3628</v>
+      </c>
+      <c r="G1957" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1957" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1958">
-      <c r="A1958" s="1"/>
-      <c r="B1958" s="2"/>
-      <c r="C1958" s="2"/>
-      <c r="D1958" s="2"/>
-      <c r="E1958" s="2"/>
-      <c r="F1958" s="2"/>
-      <c r="G1958" s="2"/>
-      <c r="H1958" s="2"/>
+      <c r="A1958" s="1">
+        <v>45838.081953333334</v>
+      </c>
+      <c r="B1958" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1958" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1958" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1958" s="2" t="s">
+        <v>3629</v>
+      </c>
+      <c r="F1958" s="2" t="s">
+        <v>3630</v>
+      </c>
+      <c r="G1958" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1958" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1959">
-      <c r="A1959" s="1"/>
-      <c r="B1959" s="2"/>
-      <c r="C1959" s="2"/>
-      <c r="D1959" s="2"/>
-      <c r="E1959" s="2"/>
-      <c r="F1959" s="2"/>
-      <c r="G1959" s="2"/>
-      <c r="H1959" s="2"/>
+      <c r="A1959" s="1">
+        <v>45838.082220358796</v>
+      </c>
+      <c r="B1959" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1959" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1959" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1959" s="2" t="s">
+        <v>3631</v>
+      </c>
+      <c r="F1959" s="2" t="s">
+        <v>3632</v>
+      </c>
+      <c r="G1959" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1959" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1960">
-      <c r="A1960" s="1"/>
-      <c r="B1960" s="2"/>
-      <c r="C1960" s="2"/>
-      <c r="D1960" s="2"/>
-      <c r="E1960" s="2"/>
+      <c r="A1960" s="1">
+        <v>45838.08237052083</v>
+      </c>
+      <c r="B1960" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1960" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1960" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1960" s="2" t="s">
+        <v>3633</v>
+      </c>
       <c r="F1960" s="2"/>
-      <c r="G1960" s="2"/>
-      <c r="H1960" s="2"/>
+      <c r="G1960" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1960" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1961">
-      <c r="A1961" s="1"/>
-      <c r="B1961" s="2"/>
-      <c r="C1961" s="2"/>
-      <c r="D1961" s="2"/>
-      <c r="E1961" s="2"/>
-      <c r="F1961" s="2"/>
-      <c r="G1961" s="2"/>
-      <c r="H1961" s="2"/>
+      <c r="A1961" s="1">
+        <v>45838.08259310185</v>
+      </c>
+      <c r="B1961" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1961" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1961" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1961" s="2" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1961" s="2" t="s">
+        <v>3635</v>
+      </c>
+      <c r="G1961" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1961" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1962">
-      <c r="A1962" s="1"/>
-      <c r="B1962" s="2"/>
-      <c r="C1962" s="2"/>
-      <c r="D1962" s="2"/>
-      <c r="E1962" s="2"/>
-      <c r="F1962" s="2"/>
-      <c r="G1962" s="2"/>
-      <c r="H1962" s="2"/>
+      <c r="A1962" s="1">
+        <v>45838.08292405093</v>
+      </c>
+      <c r="B1962" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1962" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1962" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1962" s="2" t="s">
+        <v>3636</v>
+      </c>
+      <c r="F1962" s="2" t="s">
+        <v>3637</v>
+      </c>
+      <c r="G1962" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1962" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1963">
-      <c r="A1963" s="1"/>
-      <c r="B1963" s="2"/>
-      <c r="C1963" s="2"/>
-      <c r="D1963" s="2"/>
-      <c r="E1963" s="2"/>
-      <c r="F1963" s="2"/>
-      <c r="G1963" s="2"/>
-      <c r="H1963" s="2"/>
+      <c r="A1963" s="1">
+        <v>45838.083340729165</v>
+      </c>
+      <c r="B1963" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1963" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1963" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1963" s="2" t="s">
+        <v>3638</v>
+      </c>
+      <c r="F1963" s="2" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G1963" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1963" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1964">
-      <c r="A1964" s="1"/>
-      <c r="B1964" s="2"/>
-      <c r="C1964" s="2"/>
-      <c r="D1964" s="2"/>
-      <c r="E1964" s="2"/>
-      <c r="F1964" s="2"/>
-      <c r="G1964" s="2"/>
-      <c r="H1964" s="2"/>
+      <c r="A1964" s="1">
+        <v>45838.08352331018</v>
+      </c>
+      <c r="B1964" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1964" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1964" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1964" s="2" t="s">
+        <v>3640</v>
+      </c>
+      <c r="F1964" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1964" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1964" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1965">
-      <c r="A1965" s="1"/>
-      <c r="B1965" s="2"/>
-      <c r="C1965" s="2"/>
-      <c r="D1965" s="2"/>
-      <c r="E1965" s="2"/>
-      <c r="F1965" s="2"/>
-      <c r="G1965" s="2"/>
-      <c r="H1965" s="2"/>
+      <c r="A1965" s="1">
+        <v>45838.083995497684</v>
+      </c>
+      <c r="B1965" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1965" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1965" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1965" s="2" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F1965" s="2" t="s">
+        <v>3642</v>
+      </c>
+      <c r="G1965" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1965" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1966">
-      <c r="A1966" s="1"/>
-      <c r="B1966" s="2"/>
-      <c r="C1966" s="2"/>
-      <c r="D1966" s="2"/>
-      <c r="E1966" s="2"/>
-      <c r="F1966" s="2"/>
-      <c r="G1966" s="2"/>
-      <c r="H1966" s="2"/>
+      <c r="A1966" s="1">
+        <v>45838.084795787036</v>
+      </c>
+      <c r="B1966" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1966" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1966" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1966" s="2" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F1966" s="2" t="s">
+        <v>3644</v>
+      </c>
+      <c r="G1966" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1966" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1967">
-      <c r="A1967" s="1"/>
-      <c r="B1967" s="2"/>
-      <c r="C1967" s="2"/>
-      <c r="D1967" s="2"/>
-      <c r="E1967" s="2"/>
-      <c r="F1967" s="2"/>
-      <c r="G1967" s="2"/>
-      <c r="H1967" s="2"/>
+      <c r="A1967" s="1">
+        <v>45838.08525875</v>
+      </c>
+      <c r="B1967" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1967" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1967" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1967" s="2" t="s">
+        <v>3645</v>
+      </c>
+      <c r="F1967" s="2" t="s">
+        <v>3646</v>
+      </c>
+      <c r="G1967" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1967" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1968">
-      <c r="A1968" s="1"/>
-      <c r="B1968" s="2"/>
-      <c r="C1968" s="2"/>
-      <c r="D1968" s="2"/>
-      <c r="E1968" s="2"/>
-      <c r="F1968" s="2"/>
-      <c r="G1968" s="2"/>
-      <c r="H1968" s="2"/>
+      <c r="A1968" s="1">
+        <v>45838.085575370365</v>
+      </c>
+      <c r="B1968" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1968" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1968" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1968" s="2" t="s">
+        <v>3647</v>
+      </c>
+      <c r="F1968" s="2" t="s">
+        <v>3648</v>
+      </c>
+      <c r="G1968" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1968" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1969">
-      <c r="A1969" s="1"/>
-      <c r="B1969" s="2"/>
-      <c r="C1969" s="2"/>
-      <c r="D1969" s="2"/>
-      <c r="E1969" s="2"/>
-      <c r="F1969" s="2"/>
-      <c r="G1969" s="2"/>
-      <c r="H1969" s="2"/>
+      <c r="A1969" s="1">
+        <v>45838.085782662034</v>
+      </c>
+      <c r="B1969" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1969" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1969" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E1969" s="2" t="s">
+        <v>3649</v>
+      </c>
+      <c r="F1969" s="2" t="s">
+        <v>3650</v>
+      </c>
+      <c r="G1969" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1969" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1970">
-      <c r="A1970" s="1"/>
-      <c r="B1970" s="2"/>
-      <c r="C1970" s="2"/>
-      <c r="D1970" s="2"/>
-      <c r="E1970" s="2"/>
-      <c r="F1970" s="2"/>
-      <c r="G1970" s="2"/>
-      <c r="H1970" s="2"/>
+      <c r="A1970" s="1">
+        <v>45838.17757600694</v>
+      </c>
+      <c r="B1970" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1970" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1970" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1970" s="2" t="s">
+        <v>3653</v>
+      </c>
+      <c r="F1970" s="2" t="s">
+        <v>3654</v>
+      </c>
+      <c r="G1970" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1970" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1971">
-      <c r="A1971" s="1"/>
-      <c r="B1971" s="2"/>
-      <c r="C1971" s="2"/>
-      <c r="D1971" s="2"/>
-      <c r="E1971" s="2"/>
-      <c r="F1971" s="2"/>
-      <c r="G1971" s="2"/>
-      <c r="H1971" s="2"/>
+      <c r="A1971" s="1">
+        <v>45838.177865798614</v>
+      </c>
+      <c r="B1971" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1971" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1971" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1971" s="2" t="s">
+        <v>3655</v>
+      </c>
+      <c r="F1971" s="2" t="s">
+        <v>3656</v>
+      </c>
+      <c r="G1971" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1971" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1972">
-      <c r="A1972" s="1"/>
-      <c r="B1972" s="2"/>
-      <c r="C1972" s="2"/>
-      <c r="D1972" s="2"/>
-      <c r="E1972" s="2"/>
-      <c r="F1972" s="2"/>
-      <c r="G1972" s="2"/>
-      <c r="H1972" s="2"/>
+      <c r="A1972" s="1">
+        <v>45838.177953148144</v>
+      </c>
+      <c r="B1972" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1972" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1972" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1972" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="F1972" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1972" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1972" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1973">
-      <c r="A1973" s="1"/>
-      <c r="B1973" s="2"/>
-      <c r="C1973" s="2"/>
-      <c r="D1973" s="2"/>
-      <c r="E1973" s="2"/>
-      <c r="F1973" s="2"/>
-      <c r="G1973" s="2"/>
-      <c r="H1973" s="2"/>
+      <c r="A1973" s="1">
+        <v>45838.17801635417</v>
+      </c>
+      <c r="B1973" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1973" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1973" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1973" s="2" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F1973" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1973" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1973" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1974">
-      <c r="A1974" s="1"/>
-      <c r="B1974" s="2"/>
-      <c r="C1974" s="2"/>
-      <c r="D1974" s="2"/>
-      <c r="E1974" s="2"/>
-      <c r="F1974" s="2"/>
-      <c r="G1974" s="2"/>
-      <c r="H1974" s="2"/>
+      <c r="A1974" s="1">
+        <v>45838.17807962963</v>
+      </c>
+      <c r="B1974" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1974" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1974" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1974" s="2" t="s">
+        <v>3659</v>
+      </c>
+      <c r="F1974" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1974" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1974" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1975">
-      <c r="A1975" s="1"/>
-      <c r="B1975" s="2"/>
-      <c r="C1975" s="2"/>
-      <c r="D1975" s="2"/>
-      <c r="E1975" s="2"/>
-      <c r="F1975" s="2"/>
-      <c r="G1975" s="2"/>
-      <c r="H1975" s="2"/>
+      <c r="A1975" s="1">
+        <v>45838.178333819444</v>
+      </c>
+      <c r="B1975" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1975" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1975" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1975" s="2" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F1975" s="2" t="s">
+        <v>3661</v>
+      </c>
+      <c r="G1975" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1975" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1976">
-      <c r="A1976" s="1"/>
-      <c r="B1976" s="2"/>
-      <c r="C1976" s="2"/>
-      <c r="D1976" s="2"/>
-      <c r="E1976" s="2"/>
-      <c r="F1976" s="2"/>
-      <c r="G1976" s="2"/>
-      <c r="H1976" s="2"/>
+      <c r="A1976" s="1">
+        <v>45838.178433194444</v>
+      </c>
+      <c r="B1976" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1976" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1976" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1976" s="2" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F1976" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1976" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1976" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1977">
-      <c r="A1977" s="1"/>
-      <c r="B1977" s="2"/>
-      <c r="C1977" s="2"/>
-      <c r="D1977" s="2"/>
-      <c r="E1977" s="2"/>
-      <c r="F1977" s="2"/>
-      <c r="G1977" s="2"/>
-      <c r="H1977" s="2"/>
+      <c r="A1977" s="1">
+        <v>45838.17870929398</v>
+      </c>
+      <c r="B1977" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1977" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1977" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1977" s="2" t="s">
+        <v>3663</v>
+      </c>
+      <c r="F1977" s="2" t="s">
+        <v>3664</v>
+      </c>
+      <c r="G1977" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1977" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1978">
-      <c r="A1978" s="1"/>
-      <c r="B1978" s="2"/>
-      <c r="C1978" s="2"/>
-      <c r="D1978" s="2"/>
-      <c r="E1978" s="2"/>
-      <c r="F1978" s="2"/>
-      <c r="G1978" s="2"/>
-      <c r="H1978" s="2"/>
+      <c r="A1978" s="1">
+        <v>45838.17879751157</v>
+      </c>
+      <c r="B1978" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1978" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1978" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1978" s="2" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F1978" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1978" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1978" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1979">
-      <c r="A1979" s="1"/>
-      <c r="B1979" s="2"/>
-      <c r="C1979" s="2"/>
-      <c r="D1979" s="2"/>
-      <c r="E1979" s="2"/>
-      <c r="F1979" s="2"/>
-      <c r="G1979" s="2"/>
-      <c r="H1979" s="2"/>
+      <c r="A1979" s="1">
+        <v>45838.17941193287</v>
+      </c>
+      <c r="B1979" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1979" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1979" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1979" s="2" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F1979" s="2" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G1979" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1979" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1979" s="2" t="s">
+        <v>3668</v>
+      </c>
     </row>
     <row r="1980">
-      <c r="A1980" s="1"/>
-      <c r="B1980" s="2"/>
-      <c r="C1980" s="2"/>
-      <c r="D1980" s="2"/>
-      <c r="E1980" s="2"/>
-      <c r="F1980" s="2"/>
-      <c r="G1980" s="2"/>
-      <c r="H1980" s="2"/>
+      <c r="A1980" s="1">
+        <v>45838.179803645835</v>
+      </c>
+      <c r="B1980" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1980" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1980" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1980" s="2" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F1980" s="2" t="s">
+        <v>3670</v>
+      </c>
+      <c r="G1980" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1980" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1981">
-      <c r="A1981" s="1"/>
-      <c r="B1981" s="2"/>
-      <c r="C1981" s="2"/>
-      <c r="D1981" s="2"/>
-      <c r="E1981" s="2"/>
-      <c r="F1981" s="2"/>
-      <c r="G1981" s="2"/>
-      <c r="H1981" s="2"/>
+      <c r="A1981" s="1">
+        <v>45838.18022358796</v>
+      </c>
+      <c r="B1981" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1981" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1981" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1981" s="2" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F1981" s="2" t="s">
+        <v>3672</v>
+      </c>
+      <c r="G1981" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1981" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1981" s="2" t="s">
+        <v>3673</v>
+      </c>
     </row>
     <row r="1982">
-      <c r="A1982" s="1"/>
-      <c r="B1982" s="2"/>
-      <c r="C1982" s="2"/>
-      <c r="D1982" s="2"/>
-      <c r="E1982" s="2"/>
-      <c r="F1982" s="2"/>
-      <c r="G1982" s="2"/>
-      <c r="H1982" s="2"/>
+      <c r="A1982" s="1">
+        <v>45838.18042863426</v>
+      </c>
+      <c r="B1982" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1982" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1982" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1982" s="2" t="s">
+        <v>3674</v>
+      </c>
+      <c r="F1982" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1982" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1982" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1983">
-      <c r="A1983" s="1"/>
-      <c r="B1983" s="2"/>
-      <c r="C1983" s="2"/>
-      <c r="D1983" s="2"/>
-      <c r="E1983" s="2"/>
-      <c r="F1983" s="2"/>
-      <c r="G1983" s="2"/>
-      <c r="H1983" s="2"/>
+      <c r="A1983" s="1">
+        <v>45838.18062543981</v>
+      </c>
+      <c r="B1983" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1983" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1983" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1983" s="2" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F1983" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G1983" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1983" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1984">
-      <c r="A1984" s="1"/>
-      <c r="B1984" s="2"/>
-      <c r="C1984" s="2"/>
-      <c r="D1984" s="2"/>
-      <c r="E1984" s="2"/>
-      <c r="F1984" s="2"/>
-      <c r="G1984" s="2"/>
-      <c r="H1984" s="2"/>
+      <c r="A1984" s="1">
+        <v>45838.18098046296</v>
+      </c>
+      <c r="B1984" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1984" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1984" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1984" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="F1984" s="2" t="s">
+        <v>3678</v>
+      </c>
+      <c r="G1984" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1984" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1985">
-      <c r="A1985" s="1"/>
-      <c r="B1985" s="2"/>
-      <c r="C1985" s="2"/>
-      <c r="D1985" s="2"/>
-      <c r="E1985" s="2"/>
-      <c r="F1985" s="2"/>
-      <c r="G1985" s="2"/>
-      <c r="H1985" s="2"/>
+      <c r="A1985" s="1">
+        <v>45838.18106041667</v>
+      </c>
+      <c r="B1985" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1985" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1985" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1985" s="2" t="s">
+        <v>3679</v>
+      </c>
+      <c r="F1985" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1985" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1985" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1986">
-      <c r="A1986" s="1"/>
-      <c r="B1986" s="2"/>
-      <c r="C1986" s="2"/>
-      <c r="D1986" s="2"/>
-      <c r="E1986" s="2"/>
-      <c r="F1986" s="2"/>
-      <c r="G1986" s="2"/>
-      <c r="H1986" s="2"/>
+      <c r="A1986" s="1">
+        <v>45838.18125214121</v>
+      </c>
+      <c r="B1986" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1986" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1986" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1986" s="2" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F1986" s="2" t="s">
+        <v>3681</v>
+      </c>
+      <c r="G1986" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1986" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1987">
-      <c r="A1987" s="1"/>
-      <c r="B1987" s="2"/>
-      <c r="C1987" s="2"/>
-      <c r="D1987" s="2"/>
-      <c r="E1987" s="2"/>
-      <c r="F1987" s="2"/>
-      <c r="G1987" s="2"/>
-      <c r="H1987" s="2"/>
+      <c r="A1987" s="1">
+        <v>45838.18142959491</v>
+      </c>
+      <c r="B1987" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1987" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1987" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1987" s="2" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F1987" s="2" t="s">
+        <v>3683</v>
+      </c>
+      <c r="G1987" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1987" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1988">
-      <c r="A1988" s="1"/>
-      <c r="B1988" s="2"/>
-      <c r="C1988" s="2"/>
-      <c r="D1988" s="2"/>
-      <c r="E1988" s="2"/>
-      <c r="F1988" s="2"/>
-      <c r="G1988" s="2"/>
-      <c r="H1988" s="2"/>
+      <c r="A1988" s="1">
+        <v>45838.18165164352</v>
+      </c>
+      <c r="B1988" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1988" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1988" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1988" s="2" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F1988" s="2" t="s">
+        <v>3685</v>
+      </c>
+      <c r="G1988" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1988" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1989">
-      <c r="A1989" s="1"/>
-      <c r="B1989" s="2"/>
-      <c r="C1989" s="2"/>
-      <c r="D1989" s="2"/>
-      <c r="E1989" s="2"/>
+      <c r="A1989" s="1">
+        <v>45838.18194577546</v>
+      </c>
+      <c r="B1989" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1989" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1989" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1989" s="2" t="s">
+        <v>3686</v>
+      </c>
       <c r="F1989" s="2"/>
-      <c r="G1989" s="2"/>
-      <c r="H1989" s="2"/>
+      <c r="G1989" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1989" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1990">
-      <c r="A1990" s="1"/>
-      <c r="B1990" s="2"/>
-      <c r="C1990" s="2"/>
-      <c r="D1990" s="2"/>
-      <c r="E1990" s="2"/>
-      <c r="F1990" s="2"/>
-      <c r="G1990" s="2"/>
-      <c r="H1990" s="2"/>
+      <c r="A1990" s="1">
+        <v>45838.18235221065</v>
+      </c>
+      <c r="B1990" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1990" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1990" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1990" s="2" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F1990" s="2" t="s">
+        <v>3688</v>
+      </c>
+      <c r="G1990" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1990" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1991">
-      <c r="A1991" s="1"/>
-      <c r="B1991" s="2"/>
-      <c r="C1991" s="2"/>
-      <c r="D1991" s="2"/>
-      <c r="E1991" s="2"/>
-      <c r="F1991" s="2"/>
-      <c r="G1991" s="2"/>
-      <c r="H1991" s="2"/>
+      <c r="A1991" s="1">
+        <v>45838.18265663194</v>
+      </c>
+      <c r="B1991" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1991" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1991" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1991" s="2" t="s">
+        <v>3689</v>
+      </c>
+      <c r="F1991" s="2" t="s">
+        <v>3690</v>
+      </c>
+      <c r="G1991" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1991" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1992">
-      <c r="A1992" s="1"/>
-      <c r="B1992" s="2"/>
-      <c r="C1992" s="2"/>
-      <c r="D1992" s="2"/>
-      <c r="E1992" s="2"/>
-      <c r="F1992" s="2"/>
-      <c r="G1992" s="2"/>
-      <c r="H1992" s="2"/>
+      <c r="A1992" s="1">
+        <v>45838.18282454861</v>
+      </c>
+      <c r="B1992" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1992" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1992" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1992" s="2" t="s">
+        <v>3691</v>
+      </c>
+      <c r="F1992" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1992" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1992" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1993">
-      <c r="A1993" s="1"/>
-      <c r="B1993" s="2"/>
-      <c r="C1993" s="2"/>
-      <c r="D1993" s="2"/>
-      <c r="E1993" s="2"/>
-      <c r="F1993" s="2"/>
-      <c r="G1993" s="2"/>
-      <c r="H1993" s="2"/>
+      <c r="A1993" s="1">
+        <v>45838.183199837964</v>
+      </c>
+      <c r="B1993" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1993" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1993" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1993" s="2" t="s">
+        <v>3692</v>
+      </c>
+      <c r="F1993" s="2" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G1993" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1993" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1994">
-      <c r="A1994" s="1"/>
-      <c r="B1994" s="2"/>
-      <c r="C1994" s="2"/>
-      <c r="D1994" s="2"/>
-      <c r="E1994" s="2"/>
-      <c r="F1994" s="2"/>
-      <c r="G1994" s="2"/>
-      <c r="H1994" s="2"/>
+      <c r="A1994" s="1">
+        <v>45838.1835609838</v>
+      </c>
+      <c r="B1994" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1994" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1994" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1994" s="2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="F1994" s="2" t="s">
+        <v>3695</v>
+      </c>
+      <c r="G1994" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1994" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1995">
-      <c r="A1995" s="1"/>
-      <c r="B1995" s="2"/>
-      <c r="C1995" s="2"/>
-      <c r="D1995" s="2"/>
-      <c r="E1995" s="2"/>
-      <c r="F1995" s="2"/>
-      <c r="G1995" s="2"/>
-      <c r="H1995" s="2"/>
+      <c r="A1995" s="1">
+        <v>45838.183785625</v>
+      </c>
+      <c r="B1995" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1995" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1995" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1995" s="2" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F1995" s="2" t="s">
+        <v>3697</v>
+      </c>
+      <c r="G1995" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1995" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1996">
-      <c r="A1996" s="1"/>
-      <c r="B1996" s="2"/>
-      <c r="C1996" s="2"/>
-      <c r="D1996" s="2"/>
-      <c r="E1996" s="2"/>
-      <c r="F1996" s="2"/>
-      <c r="G1996" s="2"/>
-      <c r="H1996" s="2"/>
+      <c r="A1996" s="1">
+        <v>45838.18384694445</v>
+      </c>
+      <c r="B1996" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1996" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1996" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1996" s="2" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1996" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1996" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1996" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1997">
-      <c r="A1997" s="1"/>
-      <c r="B1997" s="2"/>
-      <c r="C1997" s="2"/>
-      <c r="D1997" s="2"/>
-      <c r="E1997" s="2"/>
-      <c r="F1997" s="2"/>
-      <c r="G1997" s="2"/>
-      <c r="H1997" s="2"/>
+      <c r="A1997" s="1">
+        <v>45838.18403425926</v>
+      </c>
+      <c r="B1997" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1997" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1997" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1997" s="2" t="s">
+        <v>3699</v>
+      </c>
+      <c r="F1997" s="2" t="s">
+        <v>3700</v>
+      </c>
+      <c r="G1997" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1997" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1998">
-      <c r="A1998" s="1"/>
-      <c r="B1998" s="2"/>
-      <c r="C1998" s="2"/>
-      <c r="D1998" s="2"/>
-      <c r="E1998" s="2"/>
-      <c r="F1998" s="2"/>
-      <c r="G1998" s="2"/>
-      <c r="H1998" s="2"/>
+      <c r="A1998" s="1">
+        <v>45838.18453967593</v>
+      </c>
+      <c r="B1998" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1998" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1998" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1998" s="2" t="s">
+        <v>3701</v>
+      </c>
+      <c r="F1998" s="2" t="s">
+        <v>3702</v>
+      </c>
+      <c r="G1998" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1998" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1998" s="2" t="s">
+        <v>3668</v>
+      </c>
     </row>
     <row r="1999">
-      <c r="A1999" s="1"/>
-      <c r="B1999" s="2"/>
-      <c r="C1999" s="2"/>
-      <c r="D1999" s="2"/>
-      <c r="E1999" s="2"/>
-      <c r="F1999" s="2"/>
-      <c r="G1999" s="2"/>
-      <c r="H1999" s="2"/>
+      <c r="A1999" s="1">
+        <v>45838.18480184028</v>
+      </c>
+      <c r="B1999" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1999" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1999" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1999" s="2" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F1999" s="2" t="s">
+        <v>3704</v>
+      </c>
+      <c r="G1999" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1999" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2000">
-      <c r="A2000" s="1"/>
-      <c r="B2000" s="2"/>
-      <c r="C2000" s="2"/>
-      <c r="D2000" s="2"/>
-      <c r="E2000" s="2"/>
-      <c r="F2000" s="2"/>
-      <c r="G2000" s="2"/>
-      <c r="H2000" s="2"/>
+      <c r="A2000" s="1">
+        <v>45838.18486659722</v>
+      </c>
+      <c r="B2000" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2000" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2000" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2000" s="2" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F2000" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2000" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2000" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="1">
+        <v>45838.18501946759</v>
+      </c>
+      <c r="B2001" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2001" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2001" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2001" s="2" t="s">
+        <v>3706</v>
+      </c>
+      <c r="F2001" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2001" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2001" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="1">
+        <v>45838.18511967592</v>
+      </c>
+      <c r="B2002" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2002" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2002" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2002" s="2" t="s">
+        <v>3707</v>
+      </c>
+      <c r="F2002" s="2" t="s">
+        <v>3708</v>
+      </c>
+      <c r="G2002" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2002" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="1">
+        <v>45838.18554319444</v>
+      </c>
+      <c r="B2003" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2003" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2003" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2003" s="2" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F2003" s="2" t="s">
+        <v>3710</v>
+      </c>
+      <c r="G2003" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2003" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="1">
+        <v>45838.185709722224</v>
+      </c>
+      <c r="B2004" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2004" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2004" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2004" s="2" t="s">
+        <v>3711</v>
+      </c>
+      <c r="F2004" s="2" t="s">
+        <v>3712</v>
+      </c>
+      <c r="G2004" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2004" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="1">
+        <v>45838.185877951386</v>
+      </c>
+      <c r="B2005" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2005" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2005" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2005" s="2" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F2005" s="2" t="s">
+        <v>3714</v>
+      </c>
+      <c r="G2005" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2005" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="1">
+        <v>45838.18624885417</v>
+      </c>
+      <c r="B2006" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2006" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2006" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2006" s="2" t="s">
+        <v>3715</v>
+      </c>
+      <c r="F2006" s="2" t="s">
+        <v>3716</v>
+      </c>
+      <c r="G2006" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2006" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="1">
+        <v>45838.18649521991</v>
+      </c>
+      <c r="B2007" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2007" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2007" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2007" s="2" t="s">
+        <v>3717</v>
+      </c>
+      <c r="F2007" s="2" t="s">
+        <v>3718</v>
+      </c>
+      <c r="G2007" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2007" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="1">
+        <v>45838.18662532407</v>
+      </c>
+      <c r="B2008" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2008" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2008" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2008" s="2" t="s">
+        <v>3719</v>
+      </c>
+      <c r="F2008" s="2"/>
+      <c r="G2008" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2008" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="1">
+        <v>45838.18681878472</v>
+      </c>
+      <c r="B2009" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2009" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2009" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2009" s="2" t="s">
+        <v>3720</v>
+      </c>
+      <c r="F2009" s="2" t="s">
+        <v>3721</v>
+      </c>
+      <c r="G2009" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2009" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="1">
+        <v>45838.18708068287</v>
+      </c>
+      <c r="B2010" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2010" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2010" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2010" s="2" t="s">
+        <v>3722</v>
+      </c>
+      <c r="F2010" s="2" t="s">
+        <v>3723</v>
+      </c>
+      <c r="G2010" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2010" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="1">
+        <v>45838.187602986116</v>
+      </c>
+      <c r="B2011" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2011" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2011" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2011" s="2" t="s">
+        <v>3724</v>
+      </c>
+      <c r="F2011" s="2" t="s">
+        <v>3725</v>
+      </c>
+      <c r="G2011" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2011" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="1">
+        <v>45838.18768527778</v>
+      </c>
+      <c r="B2012" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2012" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2012" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2012" s="2" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F2012" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2012" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2012" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="1">
+        <v>45838.18779859954</v>
+      </c>
+      <c r="B2013" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2013" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2013" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2013" s="2" t="s">
+        <v>3727</v>
+      </c>
+      <c r="F2013" s="2" t="s">
+        <v>3728</v>
+      </c>
+      <c r="G2013" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2013" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="1">
+        <v>45838.188149814814</v>
+      </c>
+      <c r="B2014" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2014" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2014" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2014" s="2" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F2014" s="2" t="s">
+        <v>3730</v>
+      </c>
+      <c r="G2014" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2014" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="1">
+        <v>45838.18953030092</v>
+      </c>
+      <c r="B2015" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2015" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2015" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2015" s="2" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F2015" s="2" t="s">
+        <v>3732</v>
+      </c>
+      <c r="G2015" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2015" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2015" s="2" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="1">
+        <v>45838.18983159722</v>
+      </c>
+      <c r="B2016" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2016" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2016" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2016" s="2" t="s">
+        <v>3733</v>
+      </c>
+      <c r="F2016" s="2" t="s">
+        <v>3734</v>
+      </c>
+      <c r="G2016" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2016" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2016" s="2"/>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="1">
+        <v>45838.190274444445</v>
+      </c>
+      <c r="B2017" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2017" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2017" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2017" s="2" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F2017" s="2" t="s">
+        <v>3736</v>
+      </c>
+      <c r="G2017" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2017" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I2017" s="2" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="1">
+        <v>45838.19037010417</v>
+      </c>
+      <c r="B2018" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2018" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2018" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2018" s="2" t="s">
+        <v>3738</v>
+      </c>
+      <c r="F2018" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2018" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2018" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2018" s="2"/>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="1">
+        <v>45838.19071592593</v>
+      </c>
+      <c r="B2019" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2019" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D2019" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E2019" s="2" t="s">
+        <v>3739</v>
+      </c>
+      <c r="F2019" s="2" t="s">
+        <v>3740</v>
+      </c>
+      <c r="G2019" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2019" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2019" s="2"/>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="1">
+        <v>45838.34425547454</v>
+      </c>
+      <c r="B2020" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2020" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2020" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2020" s="2" t="s">
+        <v>3743</v>
+      </c>
+      <c r="F2020" s="2" t="s">
+        <v>3744</v>
+      </c>
+      <c r="G2020" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2020" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2020" s="2" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="1">
+        <v>45838.34442934028</v>
+      </c>
+      <c r="B2021" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2021" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2021" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2021" s="2" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F2021" s="2" t="s">
+        <v>3747</v>
+      </c>
+      <c r="G2021" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2021" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2021" s="2"/>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="1">
+        <v>45838.34459837963</v>
+      </c>
+      <c r="B2022" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2022" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2022" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2022" s="2" t="s">
+        <v>3748</v>
+      </c>
+      <c r="F2022" s="2" t="s">
+        <v>3749</v>
+      </c>
+      <c r="G2022" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2022" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2022" s="2"/>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="1">
+        <v>45838.34490431713</v>
+      </c>
+      <c r="B2023" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2023" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2023" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2023" s="2" t="s">
+        <v>3750</v>
+      </c>
+      <c r="F2023" s="2" t="s">
+        <v>3751</v>
+      </c>
+      <c r="G2023" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2023" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2023" s="2"/>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="1">
+        <v>45838.345078530096</v>
+      </c>
+      <c r="B2024" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2024" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2024" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2024" s="2" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F2024" s="2" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G2024" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2024" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2024" s="2"/>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="1">
+        <v>45838.34528006944</v>
+      </c>
+      <c r="B2025" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2025" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2025" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2025" s="2" t="s">
+        <v>3754</v>
+      </c>
+      <c r="F2025" s="2" t="s">
+        <v>3755</v>
+      </c>
+      <c r="G2025" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2025" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2025" s="2" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="1">
+        <v>45838.3454743287</v>
+      </c>
+      <c r="B2026" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2026" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2026" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2026" s="2" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F2026" s="2" t="s">
+        <v>3758</v>
+      </c>
+      <c r="G2026" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2026" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I2026" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="1">
+        <v>45838.34584819444</v>
+      </c>
+      <c r="B2027" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2027" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2027" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2027" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F2027" s="2" t="s">
+        <v>3760</v>
+      </c>
+      <c r="G2027" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2027" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I2027" s="2" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="1">
+        <v>45838.34604017361</v>
+      </c>
+      <c r="B2028" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2028" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2028" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2028" s="2" t="s">
+        <v>3762</v>
+      </c>
+      <c r="F2028" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2028" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2028" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2028" s="2"/>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="1">
+        <v>45838.34633078704</v>
+      </c>
+      <c r="B2029" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2029" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2029" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2029" s="2" t="s">
+        <v>3763</v>
+      </c>
+      <c r="F2029" s="2" t="s">
+        <v>3764</v>
+      </c>
+      <c r="G2029" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2029" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I2029" s="2" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="1">
+        <v>45838.34640886574</v>
+      </c>
+      <c r="B2030" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2030" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2030" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2030" s="2" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F2030" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2030" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2030" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2030" s="2"/>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="1">
+        <v>45838.3465378125</v>
+      </c>
+      <c r="B2031" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2031" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2031" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2031" s="2" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F2031" s="2" t="s">
+        <v>3768</v>
+      </c>
+      <c r="G2031" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2031" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2031" s="2"/>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="1">
+        <v>45838.346608287036</v>
+      </c>
+      <c r="B2032" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2032" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2032" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2032" s="2" t="s">
+        <v>3769</v>
+      </c>
+      <c r="F2032" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2032" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2032" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2032" s="2"/>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="1">
+        <v>45838.34691519676</v>
+      </c>
+      <c r="B2033" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2033" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2033" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2033" s="2" t="s">
+        <v>3770</v>
+      </c>
+      <c r="F2033" s="2" t="s">
+        <v>3771</v>
+      </c>
+      <c r="G2033" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2033" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I2033" s="2" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="1">
+        <v>45838.34717871528</v>
+      </c>
+      <c r="B2034" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2034" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2034" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2034" s="2" t="s">
+        <v>3773</v>
+      </c>
+      <c r="F2034" s="2" t="s">
+        <v>3774</v>
+      </c>
+      <c r="G2034" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2034" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2034" s="2"/>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="1">
+        <v>45838.34737166666</v>
+      </c>
+      <c r="B2035" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2035" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2035" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2035" s="2" t="s">
+        <v>3775</v>
+      </c>
+      <c r="F2035" s="2" t="s">
+        <v>3776</v>
+      </c>
+      <c r="G2035" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2035" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I2035" s="2" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="1">
+        <v>45838.3476854051</v>
+      </c>
+      <c r="B2036" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2036" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2036" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2036" s="2" t="s">
+        <v>3777</v>
+      </c>
+      <c r="F2036" s="2" t="s">
+        <v>3778</v>
+      </c>
+      <c r="G2036" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2036" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2036" s="2" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="1">
+        <v>45838.347904803246</v>
+      </c>
+      <c r="B2037" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C2037" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2037" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E2037" s="2" t="s">
